--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74612A3-A5A4-4E37-82BE-20734BA44EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F994E2A-C327-43C7-81C1-C88C15DDBDC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,6 +64,7 @@
     <definedName name="A2_13_4">'被保険者住所変更届（一枚目）'!$BW$24</definedName>
     <definedName name="A2_13_5">'被保険者住所変更届（一枚目）'!$BY$24</definedName>
     <definedName name="A2_13_6">'被保険者住所変更届（一枚目）'!$CA$24</definedName>
+    <definedName name="A2_14">'被保険者住所変更届（一枚目）'!$N$27</definedName>
     <definedName name="A2_2_1">'被保険者住所変更届（一枚目）'!$E$21</definedName>
     <definedName name="A2_2_10">'被保険者住所変更届（一枚目）'!$W$21</definedName>
     <definedName name="A2_2_11">'被保険者住所変更届（一枚目）'!$Y$21</definedName>
@@ -102,7 +103,7 @@
     <definedName name="B2_3">'被保険者住所変更届（一枚目）'!$Q$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'被保険者住所変更届（一枚目）'!$A$1:$CE$37</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2136,6 +2137,696 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2148,60 +2839,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2211,19 +2854,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2247,24 +2881,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2291,621 +2907,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4652,6 +4653,526 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="A4_111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DEB2338-D3CB-4154-8FB3-7D41728121BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114801" y="2990850"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="A4_113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80403C8D-E696-4B01-8E6B-211C6D96CC33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="3190875"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="A4_112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D6ABCF-E413-4855-8701-76DDB87188B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048251" y="2990850"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>193071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="A4_114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F266783F-8A38-4523-9943-C53BB2566418}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067301" y="3181350"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31146</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="A4_221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2DACB2-A4BB-4AED-8D63-B65F1240E2F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7724775" y="5581650"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50196</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="A4_222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347DB4C1-521E-478D-90B7-69D2E59B56B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8372475" y="5600700"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>183546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="A4_223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB241D02-78E0-4D76-BA6B-2C082333B22A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7705725" y="5734050"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>202596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="A4_224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5148595A-3408-4E38-961B-A1A941C2F012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="5753100"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4980,7 +5501,7 @@
   <dimension ref="A1:CE76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
+      <selection activeCell="N12" sqref="N12:CB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -4996,948 +5517,948 @@
   <sheetData>
     <row r="1" spans="1:81" ht="26.25" customHeight="1"/>
     <row r="2" spans="1:81" ht="20.25" customHeight="1">
-      <c r="A2" s="207"/>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="BI2" s="228" t="s">
+      <c r="A2" s="176"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="BI2" s="160" t="s">
         <v>25</v>
       </c>
-      <c r="BJ2" s="224"/>
-      <c r="BK2" s="224"/>
-      <c r="BL2" s="224"/>
-      <c r="BM2" s="224"/>
-      <c r="BN2" s="225" t="s">
+      <c r="BJ2" s="156"/>
+      <c r="BK2" s="156"/>
+      <c r="BL2" s="156"/>
+      <c r="BM2" s="156"/>
+      <c r="BN2" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="BO2" s="226"/>
-      <c r="BP2" s="226"/>
-      <c r="BQ2" s="226"/>
-      <c r="BR2" s="226"/>
-      <c r="BS2" s="227"/>
-      <c r="BT2" s="224" t="s">
+      <c r="BO2" s="158"/>
+      <c r="BP2" s="158"/>
+      <c r="BQ2" s="158"/>
+      <c r="BR2" s="158"/>
+      <c r="BS2" s="159"/>
+      <c r="BT2" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="BU2" s="224"/>
-      <c r="BV2" s="224"/>
-      <c r="BW2" s="224"/>
-      <c r="BX2" s="224"/>
-      <c r="BY2" s="221" t="s">
+      <c r="BU2" s="156"/>
+      <c r="BV2" s="156"/>
+      <c r="BW2" s="156"/>
+      <c r="BX2" s="156"/>
+      <c r="BY2" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="BZ2" s="222"/>
-      <c r="CA2" s="222"/>
-      <c r="CB2" s="222"/>
-      <c r="CC2" s="223"/>
+      <c r="BZ2" s="154"/>
+      <c r="CA2" s="154"/>
+      <c r="CB2" s="154"/>
+      <c r="CC2" s="155"/>
     </row>
     <row r="3" spans="1:81" ht="18" customHeight="1">
-      <c r="A3" s="207"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="W3" s="235"/>
-      <c r="X3" s="235"/>
-      <c r="Y3" s="235"/>
-      <c r="Z3" s="235"/>
-      <c r="AA3" s="235"/>
-      <c r="AB3" s="235"/>
-      <c r="AC3" s="235"/>
-      <c r="AD3" s="235"/>
-      <c r="AE3" s="235"/>
-      <c r="AF3" s="235"/>
-      <c r="AG3" s="235"/>
-      <c r="AH3" s="235"/>
+      <c r="A3" s="176"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="W3" s="164"/>
+      <c r="X3" s="164"/>
+      <c r="Y3" s="164"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="164"/>
+      <c r="AB3" s="164"/>
+      <c r="AC3" s="164"/>
+      <c r="AD3" s="164"/>
+      <c r="AE3" s="164"/>
+      <c r="AF3" s="164"/>
+      <c r="AG3" s="164"/>
+      <c r="AH3" s="164"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
-      <c r="AK3" s="234" t="s">
+      <c r="AK3" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="AL3" s="234"/>
-      <c r="AM3" s="234"/>
-      <c r="AN3" s="234"/>
-      <c r="AO3" s="234"/>
-      <c r="AP3" s="234"/>
-      <c r="AQ3" s="234"/>
-      <c r="AR3" s="234"/>
-      <c r="AS3" s="234"/>
-      <c r="AT3" s="234"/>
-      <c r="AU3" s="234"/>
-      <c r="AV3" s="234"/>
-      <c r="AW3" s="234"/>
-      <c r="AX3" s="234"/>
-      <c r="AY3" s="234"/>
-      <c r="AZ3" s="234"/>
-      <c r="BA3" s="234"/>
-      <c r="BB3" s="234"/>
+      <c r="AL3" s="163"/>
+      <c r="AM3" s="163"/>
+      <c r="AN3" s="163"/>
+      <c r="AO3" s="163"/>
+      <c r="AP3" s="163"/>
+      <c r="AQ3" s="163"/>
+      <c r="AR3" s="163"/>
+      <c r="AS3" s="163"/>
+      <c r="AT3" s="163"/>
+      <c r="AU3" s="163"/>
+      <c r="AV3" s="163"/>
+      <c r="AW3" s="163"/>
+      <c r="AX3" s="163"/>
+      <c r="AY3" s="163"/>
+      <c r="AZ3" s="163"/>
+      <c r="BA3" s="163"/>
+      <c r="BB3" s="163"/>
       <c r="BC3" s="6"/>
       <c r="BD3" s="6"/>
       <c r="BE3" s="6"/>
       <c r="BF3" s="6"/>
       <c r="BG3" s="6"/>
       <c r="BH3" s="7"/>
-      <c r="BI3" s="91"/>
-      <c r="BJ3" s="92"/>
-      <c r="BK3" s="92"/>
-      <c r="BL3" s="92"/>
-      <c r="BM3" s="93"/>
-      <c r="BN3" s="91"/>
-      <c r="BO3" s="92"/>
-      <c r="BP3" s="92"/>
-      <c r="BQ3" s="92"/>
-      <c r="BR3" s="92"/>
-      <c r="BS3" s="93"/>
-      <c r="BT3" s="91"/>
-      <c r="BU3" s="92"/>
-      <c r="BV3" s="92"/>
-      <c r="BW3" s="92"/>
-      <c r="BX3" s="93"/>
-      <c r="BY3" s="91"/>
-      <c r="BZ3" s="92"/>
-      <c r="CA3" s="92"/>
-      <c r="CB3" s="92"/>
-      <c r="CC3" s="93"/>
+      <c r="BI3" s="53"/>
+      <c r="BJ3" s="54"/>
+      <c r="BK3" s="54"/>
+      <c r="BL3" s="54"/>
+      <c r="BM3" s="55"/>
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="54"/>
+      <c r="BP3" s="54"/>
+      <c r="BQ3" s="54"/>
+      <c r="BR3" s="54"/>
+      <c r="BS3" s="55"/>
+      <c r="BT3" s="53"/>
+      <c r="BU3" s="54"/>
+      <c r="BV3" s="54"/>
+      <c r="BW3" s="54"/>
+      <c r="BX3" s="55"/>
+      <c r="BY3" s="53"/>
+      <c r="BZ3" s="54"/>
+      <c r="CA3" s="54"/>
+      <c r="CB3" s="54"/>
+      <c r="CC3" s="55"/>
     </row>
     <row r="4" spans="1:81" ht="18" customHeight="1">
-      <c r="W4" s="234"/>
-      <c r="X4" s="234"/>
-      <c r="Y4" s="234"/>
-      <c r="Z4" s="234"/>
-      <c r="AA4" s="234"/>
-      <c r="AB4" s="234"/>
-      <c r="AC4" s="234"/>
-      <c r="AD4" s="234"/>
-      <c r="AE4" s="234"/>
-      <c r="AF4" s="234"/>
-      <c r="AG4" s="234"/>
-      <c r="AH4" s="234"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="163"/>
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="234"/>
-      <c r="AL4" s="234"/>
-      <c r="AM4" s="234"/>
-      <c r="AN4" s="234"/>
-      <c r="AO4" s="234"/>
-      <c r="AP4" s="234"/>
-      <c r="AQ4" s="234"/>
-      <c r="AR4" s="234"/>
-      <c r="AS4" s="234"/>
-      <c r="AT4" s="234"/>
-      <c r="AU4" s="234"/>
-      <c r="AV4" s="234"/>
-      <c r="AW4" s="234"/>
-      <c r="AX4" s="234"/>
-      <c r="AY4" s="234"/>
-      <c r="AZ4" s="234"/>
-      <c r="BA4" s="234"/>
-      <c r="BB4" s="234"/>
+      <c r="AK4" s="163"/>
+      <c r="AL4" s="163"/>
+      <c r="AM4" s="163"/>
+      <c r="AN4" s="163"/>
+      <c r="AO4" s="163"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="163"/>
+      <c r="AR4" s="163"/>
+      <c r="AS4" s="163"/>
+      <c r="AT4" s="163"/>
+      <c r="AU4" s="163"/>
+      <c r="AV4" s="163"/>
+      <c r="AW4" s="163"/>
+      <c r="AX4" s="163"/>
+      <c r="AY4" s="163"/>
+      <c r="AZ4" s="163"/>
+      <c r="BA4" s="163"/>
+      <c r="BB4" s="163"/>
       <c r="BC4" s="6"/>
       <c r="BD4" s="6"/>
       <c r="BE4" s="6"/>
       <c r="BF4" s="6"/>
       <c r="BG4" s="6"/>
       <c r="BH4" s="7"/>
-      <c r="BI4" s="229"/>
-      <c r="BJ4" s="230"/>
-      <c r="BK4" s="230"/>
-      <c r="BL4" s="230"/>
-      <c r="BM4" s="231"/>
-      <c r="BN4" s="229"/>
-      <c r="BO4" s="230"/>
-      <c r="BP4" s="230"/>
-      <c r="BQ4" s="230"/>
-      <c r="BR4" s="230"/>
-      <c r="BS4" s="231"/>
-      <c r="BT4" s="229"/>
-      <c r="BU4" s="230"/>
-      <c r="BV4" s="230"/>
-      <c r="BW4" s="230"/>
-      <c r="BX4" s="231"/>
-      <c r="BY4" s="229"/>
-      <c r="BZ4" s="230"/>
-      <c r="CA4" s="230"/>
-      <c r="CB4" s="230"/>
-      <c r="CC4" s="231"/>
+      <c r="BI4" s="59"/>
+      <c r="BJ4" s="60"/>
+      <c r="BK4" s="60"/>
+      <c r="BL4" s="60"/>
+      <c r="BM4" s="61"/>
+      <c r="BN4" s="59"/>
+      <c r="BO4" s="60"/>
+      <c r="BP4" s="60"/>
+      <c r="BQ4" s="60"/>
+      <c r="BR4" s="60"/>
+      <c r="BS4" s="61"/>
+      <c r="BT4" s="59"/>
+      <c r="BU4" s="60"/>
+      <c r="BV4" s="60"/>
+      <c r="BW4" s="60"/>
+      <c r="BX4" s="61"/>
+      <c r="BY4" s="59"/>
+      <c r="BZ4" s="60"/>
+      <c r="CA4" s="60"/>
+      <c r="CB4" s="60"/>
+      <c r="CC4" s="61"/>
     </row>
     <row r="5" spans="1:81" ht="9" customHeight="1"/>
     <row r="6" spans="1:81" ht="24" customHeight="1">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="230" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="148" t="s">
+      <c r="B6" s="230"/>
+      <c r="C6" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="148"/>
-      <c r="E6" s="216" t="s">
+      <c r="D6" s="188"/>
+      <c r="E6" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="216"/>
-      <c r="G6" s="216"/>
-      <c r="H6" s="216"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
-      <c r="L6" s="216"/>
-      <c r="M6" s="216"/>
-      <c r="N6" s="216"/>
-      <c r="O6" s="216"/>
-      <c r="P6" s="216"/>
-      <c r="Q6" s="184" t="s">
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="185"/>
-      <c r="S6" s="185"/>
-      <c r="T6" s="185"/>
-      <c r="U6" s="185"/>
-      <c r="V6" s="130" t="s">
+      <c r="R6" s="224"/>
+      <c r="S6" s="224"/>
+      <c r="T6" s="224"/>
+      <c r="U6" s="224"/>
+      <c r="V6" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="W6" s="131"/>
-      <c r="X6" s="131"/>
-      <c r="Y6" s="131"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="131"/>
-      <c r="AB6" s="131"/>
-      <c r="AC6" s="131"/>
-      <c r="AD6" s="131"/>
-      <c r="AE6" s="131"/>
-      <c r="AF6" s="131"/>
-      <c r="AG6" s="131"/>
-      <c r="AH6" s="131"/>
-      <c r="AI6" s="131"/>
-      <c r="AJ6" s="131"/>
-      <c r="AK6" s="131"/>
-      <c r="AL6" s="131"/>
-      <c r="AM6" s="131"/>
-      <c r="AN6" s="131"/>
-      <c r="AO6" s="131"/>
-      <c r="AP6" s="131"/>
-      <c r="AQ6" s="131"/>
-      <c r="AR6" s="131"/>
-      <c r="AS6" s="132"/>
-      <c r="AT6" s="131" t="s">
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="122"/>
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="122"/>
+      <c r="AJ6" s="122"/>
+      <c r="AK6" s="122"/>
+      <c r="AL6" s="122"/>
+      <c r="AM6" s="122"/>
+      <c r="AN6" s="122"/>
+      <c r="AO6" s="122"/>
+      <c r="AP6" s="122"/>
+      <c r="AQ6" s="122"/>
+      <c r="AR6" s="122"/>
+      <c r="AS6" s="123"/>
+      <c r="AT6" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="AU6" s="131"/>
-      <c r="AV6" s="131"/>
-      <c r="AW6" s="131"/>
-      <c r="AX6" s="131"/>
-      <c r="AY6" s="131"/>
-      <c r="AZ6" s="131"/>
-      <c r="BA6" s="131"/>
-      <c r="BB6" s="131"/>
-      <c r="BC6" s="131"/>
-      <c r="BD6" s="131"/>
-      <c r="BE6" s="131"/>
-      <c r="BF6" s="131"/>
-      <c r="BG6" s="131"/>
-      <c r="BH6" s="131"/>
-      <c r="BI6" s="132"/>
-      <c r="BJ6" s="91" t="s">
+      <c r="AU6" s="122"/>
+      <c r="AV6" s="122"/>
+      <c r="AW6" s="122"/>
+      <c r="AX6" s="122"/>
+      <c r="AY6" s="122"/>
+      <c r="AZ6" s="122"/>
+      <c r="BA6" s="122"/>
+      <c r="BB6" s="122"/>
+      <c r="BC6" s="122"/>
+      <c r="BD6" s="122"/>
+      <c r="BE6" s="122"/>
+      <c r="BF6" s="122"/>
+      <c r="BG6" s="122"/>
+      <c r="BH6" s="122"/>
+      <c r="BI6" s="123"/>
+      <c r="BJ6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="BK6" s="92"/>
-      <c r="BL6" s="92"/>
-      <c r="BM6" s="92"/>
-      <c r="BN6" s="92"/>
-      <c r="BO6" s="92"/>
-      <c r="BP6" s="92"/>
-      <c r="BQ6" s="92"/>
-      <c r="BR6" s="92"/>
-      <c r="BS6" s="92"/>
-      <c r="BT6" s="92"/>
-      <c r="BU6" s="92"/>
-      <c r="BV6" s="92"/>
-      <c r="BW6" s="92"/>
-      <c r="BX6" s="92"/>
-      <c r="BY6" s="92"/>
-      <c r="BZ6" s="93"/>
-      <c r="CA6" s="179"/>
-      <c r="CB6" s="180"/>
+      <c r="BK6" s="54"/>
+      <c r="BL6" s="54"/>
+      <c r="BM6" s="54"/>
+      <c r="BN6" s="54"/>
+      <c r="BO6" s="54"/>
+      <c r="BP6" s="54"/>
+      <c r="BQ6" s="54"/>
+      <c r="BR6" s="54"/>
+      <c r="BS6" s="54"/>
+      <c r="BT6" s="54"/>
+      <c r="BU6" s="54"/>
+      <c r="BV6" s="54"/>
+      <c r="BW6" s="54"/>
+      <c r="BX6" s="54"/>
+      <c r="BY6" s="54"/>
+      <c r="BZ6" s="55"/>
+      <c r="CA6" s="220"/>
+      <c r="CB6" s="221"/>
       <c r="CC6" s="10"/>
     </row>
     <row r="7" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="217"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="186"/>
-      <c r="X7" s="120"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="232"/>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="259"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="57"/>
-      <c r="AJ7" s="57"/>
-      <c r="AK7" s="58"/>
-      <c r="AL7" s="120"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="133"/>
-      <c r="AS7" s="134"/>
-      <c r="AT7" s="137" t="s">
+      <c r="A7" s="230"/>
+      <c r="B7" s="230"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="198"/>
+      <c r="R7" s="199"/>
+      <c r="S7" s="199"/>
+      <c r="T7" s="199"/>
+      <c r="U7" s="199"/>
+      <c r="V7" s="211"/>
+      <c r="W7" s="225"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="97"/>
+      <c r="AD7" s="161"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="96"/>
+      <c r="AJ7" s="96"/>
+      <c r="AK7" s="97"/>
+      <c r="AL7" s="80"/>
+      <c r="AM7" s="96"/>
+      <c r="AN7" s="96"/>
+      <c r="AO7" s="96"/>
+      <c r="AP7" s="96"/>
+      <c r="AQ7" s="96"/>
+      <c r="AR7" s="256"/>
+      <c r="AS7" s="257"/>
+      <c r="AT7" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="AU7" s="138"/>
-      <c r="AV7" s="264"/>
-      <c r="AW7" s="264"/>
-      <c r="AX7" s="264"/>
-      <c r="AY7" s="264"/>
-      <c r="AZ7" s="264"/>
-      <c r="BA7" s="265"/>
-      <c r="BB7" s="249"/>
-      <c r="BC7" s="248"/>
-      <c r="BD7" s="248"/>
-      <c r="BE7" s="248"/>
-      <c r="BF7" s="248"/>
-      <c r="BG7" s="248"/>
-      <c r="BH7" s="248"/>
-      <c r="BI7" s="250"/>
-      <c r="BJ7" s="197" t="s">
+      <c r="AU7" s="260"/>
+      <c r="AV7" s="113"/>
+      <c r="AW7" s="113"/>
+      <c r="AX7" s="113"/>
+      <c r="AY7" s="113"/>
+      <c r="AZ7" s="113"/>
+      <c r="BA7" s="114"/>
+      <c r="BB7" s="151"/>
+      <c r="BC7" s="150"/>
+      <c r="BD7" s="150"/>
+      <c r="BE7" s="150"/>
+      <c r="BF7" s="150"/>
+      <c r="BG7" s="150"/>
+      <c r="BH7" s="150"/>
+      <c r="BI7" s="152"/>
+      <c r="BJ7" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="BK7" s="198"/>
-      <c r="BL7" s="198"/>
-      <c r="BM7" s="199"/>
-      <c r="BN7" s="194"/>
-      <c r="BO7" s="116"/>
-      <c r="BP7" s="211"/>
-      <c r="BQ7" s="121"/>
-      <c r="BR7" s="208"/>
-      <c r="BS7" s="116"/>
-      <c r="BT7" s="211"/>
-      <c r="BU7" s="211"/>
-      <c r="BV7" s="196"/>
-      <c r="BW7" s="116"/>
-      <c r="BX7" s="211"/>
-      <c r="BY7" s="211"/>
-      <c r="BZ7" s="212"/>
-      <c r="CA7" s="179"/>
-      <c r="CB7" s="180"/>
+      <c r="BK7" s="166"/>
+      <c r="BL7" s="166"/>
+      <c r="BM7" s="167"/>
+      <c r="BN7" s="134"/>
+      <c r="BO7" s="77"/>
+      <c r="BP7" s="112"/>
+      <c r="BQ7" s="76"/>
+      <c r="BR7" s="177"/>
+      <c r="BS7" s="77"/>
+      <c r="BT7" s="112"/>
+      <c r="BU7" s="112"/>
+      <c r="BV7" s="109"/>
+      <c r="BW7" s="77"/>
+      <c r="BX7" s="112"/>
+      <c r="BY7" s="112"/>
+      <c r="BZ7" s="135"/>
+      <c r="CA7" s="220"/>
+      <c r="CB7" s="221"/>
       <c r="CC7" s="10"/>
     </row>
     <row r="8" spans="1:81" ht="21.75" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="218"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="217"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="187"/>
-      <c r="X8" s="153"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="233"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="260"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="59"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="153"/>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="59"/>
-      <c r="AO8" s="59"/>
-      <c r="AP8" s="59"/>
-      <c r="AQ8" s="59"/>
-      <c r="AR8" s="135"/>
-      <c r="AS8" s="136"/>
-      <c r="AT8" s="99" t="s">
+      <c r="A8" s="230"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="133"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="133"/>
+      <c r="O8" s="133"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="200"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="200"/>
+      <c r="W8" s="226"/>
+      <c r="X8" s="100"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="99"/>
+      <c r="AD8" s="162"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="99"/>
+      <c r="AL8" s="100"/>
+      <c r="AM8" s="98"/>
+      <c r="AN8" s="98"/>
+      <c r="AO8" s="98"/>
+      <c r="AP8" s="98"/>
+      <c r="AQ8" s="98"/>
+      <c r="AR8" s="258"/>
+      <c r="AS8" s="137"/>
+      <c r="AT8" s="231" t="s">
         <v>43</v>
       </c>
-      <c r="AU8" s="100"/>
-      <c r="AV8" s="266"/>
-      <c r="AW8" s="266"/>
-      <c r="AX8" s="266"/>
-      <c r="AY8" s="266"/>
-      <c r="AZ8" s="266"/>
-      <c r="BA8" s="267"/>
-      <c r="BB8" s="268" t="s">
+      <c r="AU8" s="232"/>
+      <c r="AV8" s="115"/>
+      <c r="AW8" s="115"/>
+      <c r="AX8" s="115"/>
+      <c r="AY8" s="115"/>
+      <c r="AZ8" s="115"/>
+      <c r="BA8" s="116"/>
+      <c r="BB8" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="BC8" s="269"/>
-      <c r="BD8" s="101"/>
-      <c r="BE8" s="101"/>
-      <c r="BF8" s="101"/>
-      <c r="BG8" s="101"/>
-      <c r="BH8" s="101"/>
-      <c r="BI8" s="102"/>
-      <c r="BJ8" s="200"/>
-      <c r="BK8" s="201"/>
-      <c r="BL8" s="201"/>
-      <c r="BM8" s="202"/>
-      <c r="BN8" s="183"/>
-      <c r="BO8" s="120"/>
-      <c r="BP8" s="57"/>
-      <c r="BQ8" s="209"/>
-      <c r="BR8" s="210"/>
-      <c r="BS8" s="120"/>
-      <c r="BT8" s="57"/>
-      <c r="BU8" s="57"/>
-      <c r="BV8" s="192"/>
-      <c r="BW8" s="120"/>
-      <c r="BX8" s="57"/>
-      <c r="BY8" s="57"/>
-      <c r="BZ8" s="58"/>
-      <c r="CA8" s="179"/>
-      <c r="CB8" s="180"/>
+      <c r="BC8" s="118"/>
+      <c r="BD8" s="233"/>
+      <c r="BE8" s="233"/>
+      <c r="BF8" s="233"/>
+      <c r="BG8" s="233"/>
+      <c r="BH8" s="233"/>
+      <c r="BI8" s="234"/>
+      <c r="BJ8" s="168"/>
+      <c r="BK8" s="169"/>
+      <c r="BL8" s="169"/>
+      <c r="BM8" s="170"/>
+      <c r="BN8" s="93"/>
+      <c r="BO8" s="80"/>
+      <c r="BP8" s="96"/>
+      <c r="BQ8" s="178"/>
+      <c r="BR8" s="179"/>
+      <c r="BS8" s="80"/>
+      <c r="BT8" s="96"/>
+      <c r="BU8" s="96"/>
+      <c r="BV8" s="103"/>
+      <c r="BW8" s="80"/>
+      <c r="BX8" s="96"/>
+      <c r="BY8" s="96"/>
+      <c r="BZ8" s="97"/>
+      <c r="CA8" s="220"/>
+      <c r="CB8" s="221"/>
       <c r="CC8" s="10"/>
     </row>
     <row r="9" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="160" t="s">
+      <c r="A9" s="230"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="188"/>
+      <c r="E9" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="161"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="144" t="s">
+      <c r="F9" s="202"/>
+      <c r="G9" s="203"/>
+      <c r="H9" s="265" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="145"/>
+      <c r="I9" s="266"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="49" t="s">
+      <c r="N9" s="95"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="96"/>
+      <c r="W9" s="96"/>
+      <c r="X9" s="96"/>
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="97"/>
+      <c r="AB9" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="103" t="s">
+      <c r="AC9" s="128"/>
+      <c r="AD9" s="273"/>
+      <c r="AE9" s="235" t="s">
         <v>30</v>
       </c>
-      <c r="AF9" s="104"/>
-      <c r="AG9" s="104"/>
-      <c r="AH9" s="104"/>
-      <c r="AI9" s="203"/>
-      <c r="AJ9" s="203"/>
-      <c r="AK9" s="203"/>
-      <c r="AL9" s="203"/>
-      <c r="AM9" s="203"/>
-      <c r="AN9" s="203"/>
-      <c r="AO9" s="203"/>
-      <c r="AP9" s="203"/>
-      <c r="AQ9" s="203"/>
-      <c r="AR9" s="203"/>
-      <c r="AS9" s="203"/>
-      <c r="AT9" s="203"/>
-      <c r="AU9" s="203"/>
-      <c r="AV9" s="203"/>
-      <c r="AW9" s="203"/>
-      <c r="AX9" s="203"/>
-      <c r="AY9" s="203"/>
-      <c r="AZ9" s="203"/>
-      <c r="BA9" s="203"/>
-      <c r="BB9" s="203"/>
-      <c r="BC9" s="203"/>
-      <c r="BD9" s="203"/>
-      <c r="BE9" s="203"/>
-      <c r="BF9" s="203"/>
-      <c r="BG9" s="203"/>
-      <c r="BH9" s="203"/>
-      <c r="BI9" s="203"/>
-      <c r="BJ9" s="203"/>
-      <c r="BK9" s="203"/>
-      <c r="BL9" s="203"/>
-      <c r="BM9" s="203"/>
-      <c r="BN9" s="203"/>
-      <c r="BO9" s="203"/>
-      <c r="BP9" s="203"/>
-      <c r="BQ9" s="203"/>
-      <c r="BR9" s="203"/>
-      <c r="BS9" s="203"/>
-      <c r="BT9" s="203"/>
-      <c r="BU9" s="203"/>
-      <c r="BV9" s="203"/>
-      <c r="BW9" s="203"/>
-      <c r="BX9" s="203"/>
-      <c r="BY9" s="203"/>
-      <c r="BZ9" s="203"/>
-      <c r="CA9" s="203"/>
-      <c r="CB9" s="204"/>
+      <c r="AF9" s="236"/>
+      <c r="AG9" s="236"/>
+      <c r="AH9" s="236"/>
+      <c r="AI9" s="171"/>
+      <c r="AJ9" s="171"/>
+      <c r="AK9" s="171"/>
+      <c r="AL9" s="171"/>
+      <c r="AM9" s="171"/>
+      <c r="AN9" s="171"/>
+      <c r="AO9" s="171"/>
+      <c r="AP9" s="171"/>
+      <c r="AQ9" s="171"/>
+      <c r="AR9" s="171"/>
+      <c r="AS9" s="171"/>
+      <c r="AT9" s="171"/>
+      <c r="AU9" s="171"/>
+      <c r="AV9" s="171"/>
+      <c r="AW9" s="171"/>
+      <c r="AX9" s="171"/>
+      <c r="AY9" s="171"/>
+      <c r="AZ9" s="171"/>
+      <c r="BA9" s="171"/>
+      <c r="BB9" s="171"/>
+      <c r="BC9" s="171"/>
+      <c r="BD9" s="171"/>
+      <c r="BE9" s="171"/>
+      <c r="BF9" s="171"/>
+      <c r="BG9" s="171"/>
+      <c r="BH9" s="171"/>
+      <c r="BI9" s="171"/>
+      <c r="BJ9" s="171"/>
+      <c r="BK9" s="171"/>
+      <c r="BL9" s="171"/>
+      <c r="BM9" s="171"/>
+      <c r="BN9" s="171"/>
+      <c r="BO9" s="171"/>
+      <c r="BP9" s="171"/>
+      <c r="BQ9" s="171"/>
+      <c r="BR9" s="171"/>
+      <c r="BS9" s="171"/>
+      <c r="BT9" s="171"/>
+      <c r="BU9" s="171"/>
+      <c r="BV9" s="171"/>
+      <c r="BW9" s="171"/>
+      <c r="BX9" s="171"/>
+      <c r="BY9" s="171"/>
+      <c r="BZ9" s="171"/>
+      <c r="CA9" s="171"/>
+      <c r="CB9" s="172"/>
     </row>
     <row r="10" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="105" t="s">
+      <c r="A10" s="230"/>
+      <c r="B10" s="230"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="237" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="173"/>
-      <c r="AF10" s="170"/>
-      <c r="AG10" s="170"/>
-      <c r="AH10" s="170"/>
-      <c r="AI10" s="170"/>
-      <c r="AJ10" s="170"/>
-      <c r="AK10" s="170"/>
-      <c r="AL10" s="170"/>
-      <c r="AM10" s="170"/>
-      <c r="AN10" s="170"/>
-      <c r="AO10" s="170"/>
-      <c r="AP10" s="170"/>
-      <c r="AQ10" s="170"/>
-      <c r="AR10" s="170"/>
-      <c r="AS10" s="170"/>
-      <c r="AT10" s="170"/>
-      <c r="AU10" s="170"/>
-      <c r="AV10" s="170"/>
-      <c r="AW10" s="170"/>
-      <c r="AX10" s="170"/>
-      <c r="AY10" s="170"/>
-      <c r="AZ10" s="170"/>
-      <c r="BA10" s="170"/>
-      <c r="BB10" s="170"/>
-      <c r="BC10" s="170"/>
-      <c r="BD10" s="170"/>
-      <c r="BE10" s="170"/>
-      <c r="BF10" s="170"/>
-      <c r="BG10" s="170"/>
-      <c r="BH10" s="170"/>
-      <c r="BI10" s="170"/>
-      <c r="BJ10" s="170"/>
-      <c r="BK10" s="170"/>
-      <c r="BL10" s="170"/>
-      <c r="BM10" s="170"/>
-      <c r="BN10" s="170"/>
-      <c r="BO10" s="170"/>
-      <c r="BP10" s="170"/>
-      <c r="BQ10" s="170"/>
-      <c r="BR10" s="170"/>
-      <c r="BS10" s="170"/>
-      <c r="BT10" s="170"/>
-      <c r="BU10" s="170"/>
-      <c r="BV10" s="170"/>
-      <c r="BW10" s="170"/>
-      <c r="BX10" s="170"/>
-      <c r="BY10" s="170"/>
-      <c r="BZ10" s="170"/>
-      <c r="CA10" s="170"/>
-      <c r="CB10" s="171"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="238"/>
+      <c r="K10" s="238"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="238"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="99"/>
+      <c r="AB10" s="127"/>
+      <c r="AC10" s="128"/>
+      <c r="AD10" s="273"/>
+      <c r="AE10" s="214"/>
+      <c r="AF10" s="104"/>
+      <c r="AG10" s="104"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="104"/>
+      <c r="AJ10" s="104"/>
+      <c r="AK10" s="104"/>
+      <c r="AL10" s="104"/>
+      <c r="AM10" s="104"/>
+      <c r="AN10" s="104"/>
+      <c r="AO10" s="104"/>
+      <c r="AP10" s="104"/>
+      <c r="AQ10" s="104"/>
+      <c r="AR10" s="104"/>
+      <c r="AS10" s="104"/>
+      <c r="AT10" s="104"/>
+      <c r="AU10" s="104"/>
+      <c r="AV10" s="104"/>
+      <c r="AW10" s="104"/>
+      <c r="AX10" s="104"/>
+      <c r="AY10" s="104"/>
+      <c r="AZ10" s="104"/>
+      <c r="BA10" s="104"/>
+      <c r="BB10" s="104"/>
+      <c r="BC10" s="104"/>
+      <c r="BD10" s="104"/>
+      <c r="BE10" s="104"/>
+      <c r="BF10" s="104"/>
+      <c r="BG10" s="104"/>
+      <c r="BH10" s="104"/>
+      <c r="BI10" s="104"/>
+      <c r="BJ10" s="104"/>
+      <c r="BK10" s="104"/>
+      <c r="BL10" s="104"/>
+      <c r="BM10" s="104"/>
+      <c r="BN10" s="104"/>
+      <c r="BO10" s="104"/>
+      <c r="BP10" s="104"/>
+      <c r="BQ10" s="104"/>
+      <c r="BR10" s="104"/>
+      <c r="BS10" s="104"/>
+      <c r="BT10" s="104"/>
+      <c r="BU10" s="104"/>
+      <c r="BV10" s="104"/>
+      <c r="BW10" s="104"/>
+      <c r="BX10" s="104"/>
+      <c r="BY10" s="104"/>
+      <c r="BZ10" s="104"/>
+      <c r="CA10" s="104"/>
+      <c r="CB10" s="136"/>
     </row>
     <row r="11" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="174"/>
-      <c r="AF11" s="48"/>
-      <c r="AG11" s="48"/>
-      <c r="AH11" s="48"/>
-      <c r="AI11" s="48"/>
-      <c r="AJ11" s="48"/>
-      <c r="AK11" s="48"/>
-      <c r="AL11" s="48"/>
-      <c r="AM11" s="48"/>
-      <c r="AN11" s="48"/>
-      <c r="AO11" s="48"/>
-      <c r="AP11" s="48"/>
-      <c r="AQ11" s="48"/>
-      <c r="AR11" s="48"/>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="48"/>
-      <c r="AU11" s="48"/>
-      <c r="AV11" s="48"/>
-      <c r="AW11" s="48"/>
-      <c r="AX11" s="48"/>
-      <c r="AY11" s="48"/>
-      <c r="AZ11" s="48"/>
-      <c r="BA11" s="48"/>
-      <c r="BB11" s="48"/>
-      <c r="BC11" s="48"/>
-      <c r="BD11" s="48"/>
-      <c r="BE11" s="48"/>
-      <c r="BF11" s="48"/>
-      <c r="BG11" s="48"/>
-      <c r="BH11" s="48"/>
-      <c r="BI11" s="48"/>
-      <c r="BJ11" s="48"/>
-      <c r="BK11" s="48"/>
-      <c r="BL11" s="48"/>
-      <c r="BM11" s="48"/>
-      <c r="BN11" s="48"/>
-      <c r="BO11" s="48"/>
-      <c r="BP11" s="48"/>
-      <c r="BQ11" s="48"/>
-      <c r="BR11" s="48"/>
-      <c r="BS11" s="48"/>
-      <c r="BT11" s="48"/>
-      <c r="BU11" s="48"/>
-      <c r="BV11" s="48"/>
-      <c r="BW11" s="48"/>
-      <c r="BX11" s="48"/>
-      <c r="BY11" s="48"/>
-      <c r="BZ11" s="48"/>
-      <c r="CA11" s="48"/>
-      <c r="CB11" s="136"/>
+      <c r="A11" s="230"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="208"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="239"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="240"/>
+      <c r="K11" s="240"/>
+      <c r="L11" s="240"/>
+      <c r="M11" s="240"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="99"/>
+      <c r="AB11" s="130"/>
+      <c r="AC11" s="131"/>
+      <c r="AD11" s="274"/>
+      <c r="AE11" s="215"/>
+      <c r="AF11" s="105"/>
+      <c r="AG11" s="105"/>
+      <c r="AH11" s="105"/>
+      <c r="AI11" s="105"/>
+      <c r="AJ11" s="105"/>
+      <c r="AK11" s="105"/>
+      <c r="AL11" s="105"/>
+      <c r="AM11" s="105"/>
+      <c r="AN11" s="105"/>
+      <c r="AO11" s="105"/>
+      <c r="AP11" s="105"/>
+      <c r="AQ11" s="105"/>
+      <c r="AR11" s="105"/>
+      <c r="AS11" s="105"/>
+      <c r="AT11" s="105"/>
+      <c r="AU11" s="105"/>
+      <c r="AV11" s="105"/>
+      <c r="AW11" s="105"/>
+      <c r="AX11" s="105"/>
+      <c r="AY11" s="105"/>
+      <c r="AZ11" s="105"/>
+      <c r="BA11" s="105"/>
+      <c r="BB11" s="105"/>
+      <c r="BC11" s="105"/>
+      <c r="BD11" s="105"/>
+      <c r="BE11" s="105"/>
+      <c r="BF11" s="105"/>
+      <c r="BG11" s="105"/>
+      <c r="BH11" s="105"/>
+      <c r="BI11" s="105"/>
+      <c r="BJ11" s="105"/>
+      <c r="BK11" s="105"/>
+      <c r="BL11" s="105"/>
+      <c r="BM11" s="105"/>
+      <c r="BN11" s="105"/>
+      <c r="BO11" s="105"/>
+      <c r="BP11" s="105"/>
+      <c r="BQ11" s="105"/>
+      <c r="BR11" s="105"/>
+      <c r="BS11" s="105"/>
+      <c r="BT11" s="105"/>
+      <c r="BU11" s="105"/>
+      <c r="BV11" s="105"/>
+      <c r="BW11" s="105"/>
+      <c r="BX11" s="105"/>
+      <c r="BY11" s="105"/>
+      <c r="BZ11" s="105"/>
+      <c r="CA11" s="105"/>
+      <c r="CB11" s="137"/>
     </row>
     <row r="12" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="76" t="s">
+      <c r="A12" s="230"/>
+      <c r="B12" s="230"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="188"/>
+      <c r="E12" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="146" t="s">
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="267" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="147"/>
-      <c r="J12" s="127" t="s">
+      <c r="I12" s="268"/>
+      <c r="J12" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="127"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="175"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="44"/>
-      <c r="AR12" s="44"/>
-      <c r="AS12" s="44"/>
-      <c r="AT12" s="44"/>
-      <c r="AU12" s="44"/>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
-      <c r="BB12" s="44"/>
-      <c r="BC12" s="44"/>
-      <c r="BD12" s="44"/>
-      <c r="BE12" s="44"/>
-      <c r="BF12" s="44"/>
-      <c r="BG12" s="44"/>
-      <c r="BH12" s="44"/>
-      <c r="BI12" s="44"/>
-      <c r="BJ12" s="44"/>
-      <c r="BK12" s="44"/>
-      <c r="BL12" s="44"/>
-      <c r="BM12" s="44"/>
-      <c r="BN12" s="44"/>
-      <c r="BO12" s="44"/>
-      <c r="BP12" s="44"/>
-      <c r="BQ12" s="44"/>
-      <c r="BR12" s="44"/>
-      <c r="BS12" s="44"/>
-      <c r="BT12" s="44"/>
-      <c r="BU12" s="44"/>
-      <c r="BV12" s="44"/>
-      <c r="BW12" s="44"/>
-      <c r="BX12" s="44"/>
-      <c r="BY12" s="44"/>
-      <c r="BZ12" s="44"/>
-      <c r="CA12" s="44"/>
-      <c r="CB12" s="176"/>
+      <c r="K12" s="253"/>
+      <c r="L12" s="253"/>
+      <c r="M12" s="254"/>
+      <c r="N12" s="216"/>
+      <c r="O12" s="199"/>
+      <c r="P12" s="199"/>
+      <c r="Q12" s="199"/>
+      <c r="R12" s="199"/>
+      <c r="S12" s="199"/>
+      <c r="T12" s="199"/>
+      <c r="U12" s="199"/>
+      <c r="V12" s="199"/>
+      <c r="W12" s="199"/>
+      <c r="X12" s="199"/>
+      <c r="Y12" s="199"/>
+      <c r="Z12" s="199"/>
+      <c r="AA12" s="199"/>
+      <c r="AB12" s="199"/>
+      <c r="AC12" s="199"/>
+      <c r="AD12" s="199"/>
+      <c r="AE12" s="199"/>
+      <c r="AF12" s="199"/>
+      <c r="AG12" s="199"/>
+      <c r="AH12" s="199"/>
+      <c r="AI12" s="199"/>
+      <c r="AJ12" s="199"/>
+      <c r="AK12" s="199"/>
+      <c r="AL12" s="199"/>
+      <c r="AM12" s="199"/>
+      <c r="AN12" s="199"/>
+      <c r="AO12" s="199"/>
+      <c r="AP12" s="199"/>
+      <c r="AQ12" s="199"/>
+      <c r="AR12" s="199"/>
+      <c r="AS12" s="199"/>
+      <c r="AT12" s="199"/>
+      <c r="AU12" s="199"/>
+      <c r="AV12" s="199"/>
+      <c r="AW12" s="199"/>
+      <c r="AX12" s="199"/>
+      <c r="AY12" s="199"/>
+      <c r="AZ12" s="199"/>
+      <c r="BA12" s="199"/>
+      <c r="BB12" s="199"/>
+      <c r="BC12" s="199"/>
+      <c r="BD12" s="199"/>
+      <c r="BE12" s="199"/>
+      <c r="BF12" s="199"/>
+      <c r="BG12" s="199"/>
+      <c r="BH12" s="199"/>
+      <c r="BI12" s="199"/>
+      <c r="BJ12" s="199"/>
+      <c r="BK12" s="199"/>
+      <c r="BL12" s="199"/>
+      <c r="BM12" s="199"/>
+      <c r="BN12" s="199"/>
+      <c r="BO12" s="199"/>
+      <c r="BP12" s="199"/>
+      <c r="BQ12" s="199"/>
+      <c r="BR12" s="199"/>
+      <c r="BS12" s="199"/>
+      <c r="BT12" s="199"/>
+      <c r="BU12" s="199"/>
+      <c r="BV12" s="199"/>
+      <c r="BW12" s="199"/>
+      <c r="BX12" s="199"/>
+      <c r="BY12" s="199"/>
+      <c r="BZ12" s="199"/>
+      <c r="CA12" s="199"/>
+      <c r="CB12" s="217"/>
     </row>
     <row r="13" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
+      <c r="A13" s="230"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
       <c r="H13" s="15"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="174"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="48"/>
-      <c r="AU13" s="48"/>
-      <c r="AV13" s="48"/>
-      <c r="AW13" s="48"/>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="48"/>
-      <c r="AZ13" s="48"/>
-      <c r="BA13" s="48"/>
-      <c r="BB13" s="48"/>
-      <c r="BC13" s="48"/>
-      <c r="BD13" s="48"/>
-      <c r="BE13" s="48"/>
-      <c r="BF13" s="48"/>
-      <c r="BG13" s="48"/>
-      <c r="BH13" s="48"/>
-      <c r="BI13" s="48"/>
-      <c r="BJ13" s="48"/>
-      <c r="BK13" s="48"/>
-      <c r="BL13" s="48"/>
-      <c r="BM13" s="48"/>
-      <c r="BN13" s="48"/>
-      <c r="BO13" s="48"/>
-      <c r="BP13" s="48"/>
-      <c r="BQ13" s="48"/>
-      <c r="BR13" s="48"/>
-      <c r="BS13" s="48"/>
-      <c r="BT13" s="48"/>
-      <c r="BU13" s="48"/>
-      <c r="BV13" s="48"/>
-      <c r="BW13" s="48"/>
-      <c r="BX13" s="48"/>
-      <c r="BY13" s="48"/>
-      <c r="BZ13" s="48"/>
-      <c r="CA13" s="48"/>
-      <c r="CB13" s="136"/>
+      <c r="J13" s="240"/>
+      <c r="K13" s="240"/>
+      <c r="L13" s="240"/>
+      <c r="M13" s="255"/>
+      <c r="N13" s="215"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="105"/>
+      <c r="Y13" s="105"/>
+      <c r="Z13" s="105"/>
+      <c r="AA13" s="105"/>
+      <c r="AB13" s="105"/>
+      <c r="AC13" s="105"/>
+      <c r="AD13" s="105"/>
+      <c r="AE13" s="105"/>
+      <c r="AF13" s="105"/>
+      <c r="AG13" s="105"/>
+      <c r="AH13" s="105"/>
+      <c r="AI13" s="105"/>
+      <c r="AJ13" s="105"/>
+      <c r="AK13" s="105"/>
+      <c r="AL13" s="105"/>
+      <c r="AM13" s="105"/>
+      <c r="AN13" s="105"/>
+      <c r="AO13" s="105"/>
+      <c r="AP13" s="105"/>
+      <c r="AQ13" s="105"/>
+      <c r="AR13" s="105"/>
+      <c r="AS13" s="105"/>
+      <c r="AT13" s="105"/>
+      <c r="AU13" s="105"/>
+      <c r="AV13" s="105"/>
+      <c r="AW13" s="105"/>
+      <c r="AX13" s="105"/>
+      <c r="AY13" s="105"/>
+      <c r="AZ13" s="105"/>
+      <c r="BA13" s="105"/>
+      <c r="BB13" s="105"/>
+      <c r="BC13" s="105"/>
+      <c r="BD13" s="105"/>
+      <c r="BE13" s="105"/>
+      <c r="BF13" s="105"/>
+      <c r="BG13" s="105"/>
+      <c r="BH13" s="105"/>
+      <c r="BI13" s="105"/>
+      <c r="BJ13" s="105"/>
+      <c r="BK13" s="105"/>
+      <c r="BL13" s="105"/>
+      <c r="BM13" s="105"/>
+      <c r="BN13" s="105"/>
+      <c r="BO13" s="105"/>
+      <c r="BP13" s="105"/>
+      <c r="BQ13" s="105"/>
+      <c r="BR13" s="105"/>
+      <c r="BS13" s="105"/>
+      <c r="BT13" s="105"/>
+      <c r="BU13" s="105"/>
+      <c r="BV13" s="105"/>
+      <c r="BW13" s="105"/>
+      <c r="BX13" s="105"/>
+      <c r="BY13" s="105"/>
+      <c r="BZ13" s="105"/>
+      <c r="CA13" s="105"/>
+      <c r="CB13" s="137"/>
     </row>
     <row r="14" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A14" s="94"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="72" t="s">
+      <c r="A14" s="230"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="261" t="s">
+      <c r="F14" s="283"/>
+      <c r="G14" s="283"/>
+      <c r="H14" s="283"/>
+      <c r="I14" s="283"/>
+      <c r="J14" s="284"/>
+      <c r="K14" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="262"/>
-      <c r="M14" s="262"/>
-      <c r="N14" s="263"/>
-      <c r="O14" s="116"/>
-      <c r="P14" s="211"/>
-      <c r="Q14" s="196"/>
-      <c r="R14" s="193"/>
-      <c r="S14" s="193"/>
-      <c r="T14" s="194"/>
-      <c r="U14" s="196"/>
-      <c r="V14" s="193"/>
-      <c r="W14" s="193"/>
-      <c r="X14" s="194"/>
-      <c r="Y14" s="211"/>
-      <c r="Z14" s="212"/>
-      <c r="AA14" s="242"/>
-      <c r="AB14" s="243"/>
-      <c r="AC14" s="244"/>
-      <c r="AD14" s="61" t="s">
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="112"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="134"/>
+      <c r="U14" s="109"/>
+      <c r="V14" s="110"/>
+      <c r="W14" s="110"/>
+      <c r="X14" s="134"/>
+      <c r="Y14" s="112"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="144"/>
+      <c r="AB14" s="145"/>
+      <c r="AC14" s="146"/>
+      <c r="AD14" s="275" t="s">
         <v>17</v>
       </c>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="236" t="s">
+      <c r="AE14" s="276"/>
+      <c r="AF14" s="276"/>
+      <c r="AG14" s="276"/>
+      <c r="AH14" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="AI14" s="237"/>
-      <c r="AJ14" s="237"/>
-      <c r="AK14" s="237"/>
-      <c r="AL14" s="237"/>
-      <c r="AM14" s="237"/>
-      <c r="AN14" s="237"/>
-      <c r="AO14" s="237"/>
-      <c r="AP14" s="237"/>
-      <c r="AQ14" s="237"/>
-      <c r="AR14" s="237"/>
-      <c r="AS14" s="237"/>
-      <c r="AT14" s="237"/>
-      <c r="AU14" s="237"/>
-      <c r="AV14" s="237"/>
-      <c r="AW14" s="237"/>
-      <c r="AX14" s="237"/>
-      <c r="AY14" s="237"/>
-      <c r="AZ14" s="237"/>
-      <c r="BA14" s="237"/>
-      <c r="BB14" s="237"/>
-      <c r="BC14" s="237"/>
-      <c r="BD14" s="237"/>
-      <c r="BE14" s="237"/>
-      <c r="BF14" s="237"/>
-      <c r="BG14" s="237"/>
-      <c r="BH14" s="237"/>
-      <c r="BI14" s="237"/>
-      <c r="BJ14" s="237"/>
-      <c r="BK14" s="237"/>
-      <c r="BL14" s="237"/>
-      <c r="BM14" s="238"/>
+      <c r="AI14" s="139"/>
+      <c r="AJ14" s="139"/>
+      <c r="AK14" s="139"/>
+      <c r="AL14" s="139"/>
+      <c r="AM14" s="139"/>
+      <c r="AN14" s="139"/>
+      <c r="AO14" s="139"/>
+      <c r="AP14" s="139"/>
+      <c r="AQ14" s="139"/>
+      <c r="AR14" s="139"/>
+      <c r="AS14" s="139"/>
+      <c r="AT14" s="139"/>
+      <c r="AU14" s="139"/>
+      <c r="AV14" s="139"/>
+      <c r="AW14" s="139"/>
+      <c r="AX14" s="139"/>
+      <c r="AY14" s="139"/>
+      <c r="AZ14" s="139"/>
+      <c r="BA14" s="139"/>
+      <c r="BB14" s="139"/>
+      <c r="BC14" s="139"/>
+      <c r="BD14" s="139"/>
+      <c r="BE14" s="139"/>
+      <c r="BF14" s="139"/>
+      <c r="BG14" s="139"/>
+      <c r="BH14" s="139"/>
+      <c r="BI14" s="139"/>
+      <c r="BJ14" s="139"/>
+      <c r="BK14" s="139"/>
+      <c r="BL14" s="139"/>
+      <c r="BM14" s="140"/>
       <c r="BN14" s="33"/>
       <c r="BO14" s="33"/>
       <c r="BP14" s="33"/>
@@ -5955,71 +6476,71 @@
       <c r="CB14" s="33"/>
     </row>
     <row r="15" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="261"/>
-      <c r="L15" s="262"/>
-      <c r="M15" s="262"/>
-      <c r="N15" s="263"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="192"/>
-      <c r="R15" s="195"/>
-      <c r="S15" s="195"/>
-      <c r="T15" s="183"/>
-      <c r="U15" s="192"/>
-      <c r="V15" s="195"/>
-      <c r="W15" s="195"/>
-      <c r="X15" s="183"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="245"/>
-      <c r="AB15" s="246"/>
-      <c r="AC15" s="247"/>
-      <c r="AD15" s="63"/>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="64"/>
-      <c r="AG15" s="64"/>
-      <c r="AH15" s="239"/>
-      <c r="AI15" s="240"/>
-      <c r="AJ15" s="240"/>
-      <c r="AK15" s="240"/>
-      <c r="AL15" s="240"/>
-      <c r="AM15" s="240"/>
-      <c r="AN15" s="240"/>
-      <c r="AO15" s="240"/>
-      <c r="AP15" s="240"/>
-      <c r="AQ15" s="240"/>
-      <c r="AR15" s="240"/>
-      <c r="AS15" s="240"/>
-      <c r="AT15" s="240"/>
-      <c r="AU15" s="240"/>
-      <c r="AV15" s="240"/>
-      <c r="AW15" s="240"/>
-      <c r="AX15" s="240"/>
-      <c r="AY15" s="240"/>
-      <c r="AZ15" s="240"/>
-      <c r="BA15" s="240"/>
-      <c r="BB15" s="240"/>
-      <c r="BC15" s="240"/>
-      <c r="BD15" s="240"/>
-      <c r="BE15" s="240"/>
-      <c r="BF15" s="240"/>
-      <c r="BG15" s="240"/>
-      <c r="BH15" s="240"/>
-      <c r="BI15" s="240"/>
-      <c r="BJ15" s="240"/>
-      <c r="BK15" s="240"/>
-      <c r="BL15" s="240"/>
-      <c r="BM15" s="241"/>
+      <c r="A15" s="230"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="283"/>
+      <c r="F15" s="283"/>
+      <c r="G15" s="283"/>
+      <c r="H15" s="283"/>
+      <c r="I15" s="283"/>
+      <c r="J15" s="284"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="111"/>
+      <c r="W15" s="111"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="96"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="147"/>
+      <c r="AB15" s="148"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="277"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="141"/>
+      <c r="AI15" s="142"/>
+      <c r="AJ15" s="142"/>
+      <c r="AK15" s="142"/>
+      <c r="AL15" s="142"/>
+      <c r="AM15" s="142"/>
+      <c r="AN15" s="142"/>
+      <c r="AO15" s="142"/>
+      <c r="AP15" s="142"/>
+      <c r="AQ15" s="142"/>
+      <c r="AR15" s="142"/>
+      <c r="AS15" s="142"/>
+      <c r="AT15" s="142"/>
+      <c r="AU15" s="142"/>
+      <c r="AV15" s="142"/>
+      <c r="AW15" s="142"/>
+      <c r="AX15" s="142"/>
+      <c r="AY15" s="142"/>
+      <c r="AZ15" s="142"/>
+      <c r="BA15" s="142"/>
+      <c r="BB15" s="142"/>
+      <c r="BC15" s="142"/>
+      <c r="BD15" s="142"/>
+      <c r="BE15" s="142"/>
+      <c r="BF15" s="142"/>
+      <c r="BG15" s="142"/>
+      <c r="BH15" s="142"/>
+      <c r="BI15" s="142"/>
+      <c r="BJ15" s="142"/>
+      <c r="BK15" s="142"/>
+      <c r="BL15" s="142"/>
+      <c r="BM15" s="143"/>
       <c r="BN15" s="5"/>
       <c r="BO15" s="9"/>
       <c r="BP15" s="9"/>
@@ -6038,10 +6559,10 @@
       <c r="CC15" s="2"/>
     </row>
     <row r="16" spans="1:81" ht="12.75" customHeight="1">
-      <c r="A16" s="94"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
+      <c r="A16" s="230"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="188"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6122,190 +6643,190 @@
       <c r="CB16" s="9"/>
     </row>
     <row r="17" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A17" s="94"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
+      <c r="A17" s="230"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="188"/>
       <c r="F17" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
+      <c r="A18" s="230"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="188"/>
       <c r="F18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AN18" s="206" t="s">
+      <c r="AN18" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="AO18" s="206"/>
-      <c r="AP18" s="206"/>
-      <c r="AQ18" s="206"/>
-      <c r="AR18" s="206"/>
-      <c r="AS18" s="206"/>
-      <c r="AT18" s="206"/>
-      <c r="AU18" s="206"/>
-      <c r="AV18" s="206"/>
-      <c r="AW18" s="206"/>
-      <c r="AX18" s="206"/>
-      <c r="AY18" s="206"/>
-      <c r="AZ18" s="206"/>
-      <c r="BA18" s="206"/>
-      <c r="BB18" s="206"/>
-      <c r="BC18" s="206"/>
-      <c r="BD18" s="206"/>
-      <c r="BE18" s="206"/>
-      <c r="BF18" s="206"/>
-      <c r="BG18" s="206"/>
-      <c r="BH18" s="206"/>
-      <c r="BI18" s="206"/>
-      <c r="BJ18" s="206"/>
-      <c r="BK18" s="206"/>
-      <c r="BL18" s="206"/>
-      <c r="BM18" s="206"/>
-      <c r="BN18" s="206"/>
-      <c r="BO18" s="206"/>
-      <c r="BP18" s="206"/>
-      <c r="BQ18" s="206"/>
-      <c r="BR18" s="206"/>
-      <c r="BS18" s="206"/>
-      <c r="BT18" s="206"/>
-      <c r="BU18" s="206"/>
-      <c r="BV18" s="206"/>
-      <c r="BW18" s="206"/>
+      <c r="AO18" s="175"/>
+      <c r="AP18" s="175"/>
+      <c r="AQ18" s="175"/>
+      <c r="AR18" s="175"/>
+      <c r="AS18" s="175"/>
+      <c r="AT18" s="175"/>
+      <c r="AU18" s="175"/>
+      <c r="AV18" s="175"/>
+      <c r="AW18" s="175"/>
+      <c r="AX18" s="175"/>
+      <c r="AY18" s="175"/>
+      <c r="AZ18" s="175"/>
+      <c r="BA18" s="175"/>
+      <c r="BB18" s="175"/>
+      <c r="BC18" s="175"/>
+      <c r="BD18" s="175"/>
+      <c r="BE18" s="175"/>
+      <c r="BF18" s="175"/>
+      <c r="BG18" s="175"/>
+      <c r="BH18" s="175"/>
+      <c r="BI18" s="175"/>
+      <c r="BJ18" s="175"/>
+      <c r="BK18" s="175"/>
+      <c r="BL18" s="175"/>
+      <c r="BM18" s="175"/>
+      <c r="BN18" s="175"/>
+      <c r="BO18" s="175"/>
+      <c r="BP18" s="175"/>
+      <c r="BQ18" s="175"/>
+      <c r="BR18" s="175"/>
+      <c r="BS18" s="175"/>
+      <c r="BT18" s="175"/>
+      <c r="BU18" s="175"/>
+      <c r="BV18" s="175"/>
+      <c r="BW18" s="175"/>
     </row>
     <row r="19" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="40" t="s">
+      <c r="A19" s="230"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="270" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="41"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="41"/>
-      <c r="AN19" s="206"/>
-      <c r="AO19" s="206"/>
-      <c r="AP19" s="206"/>
-      <c r="AQ19" s="206"/>
-      <c r="AR19" s="206"/>
-      <c r="AS19" s="206"/>
-      <c r="AT19" s="206"/>
-      <c r="AU19" s="206"/>
-      <c r="AV19" s="206"/>
-      <c r="AW19" s="206"/>
-      <c r="AX19" s="206"/>
-      <c r="AY19" s="206"/>
-      <c r="AZ19" s="206"/>
-      <c r="BA19" s="206"/>
-      <c r="BB19" s="206"/>
-      <c r="BC19" s="206"/>
-      <c r="BD19" s="206"/>
-      <c r="BE19" s="206"/>
-      <c r="BF19" s="206"/>
-      <c r="BG19" s="206"/>
-      <c r="BH19" s="206"/>
-      <c r="BI19" s="206"/>
-      <c r="BJ19" s="206"/>
-      <c r="BK19" s="206"/>
-      <c r="BL19" s="206"/>
-      <c r="BM19" s="206"/>
-      <c r="BN19" s="206"/>
-      <c r="BO19" s="206"/>
-      <c r="BP19" s="206"/>
-      <c r="BQ19" s="206"/>
-      <c r="BR19" s="206"/>
-      <c r="BS19" s="206"/>
-      <c r="BT19" s="206"/>
-      <c r="BU19" s="206"/>
-      <c r="BV19" s="206"/>
-      <c r="BW19" s="206"/>
+      <c r="F19" s="271"/>
+      <c r="G19" s="271"/>
+      <c r="H19" s="271"/>
+      <c r="I19" s="271"/>
+      <c r="J19" s="271"/>
+      <c r="K19" s="271"/>
+      <c r="L19" s="271"/>
+      <c r="M19" s="271"/>
+      <c r="N19" s="271"/>
+      <c r="O19" s="271"/>
+      <c r="P19" s="271"/>
+      <c r="Q19" s="271"/>
+      <c r="R19" s="271"/>
+      <c r="S19" s="271"/>
+      <c r="T19" s="271"/>
+      <c r="U19" s="271"/>
+      <c r="V19" s="271"/>
+      <c r="W19" s="271"/>
+      <c r="X19" s="271"/>
+      <c r="Y19" s="271"/>
+      <c r="Z19" s="271"/>
+      <c r="AA19" s="271"/>
+      <c r="AB19" s="271"/>
+      <c r="AC19" s="271"/>
+      <c r="AD19" s="271"/>
+      <c r="AE19" s="271"/>
+      <c r="AF19" s="271"/>
+      <c r="AG19" s="271"/>
+      <c r="AH19" s="271"/>
+      <c r="AI19" s="271"/>
+      <c r="AJ19" s="271"/>
+      <c r="AN19" s="175"/>
+      <c r="AO19" s="175"/>
+      <c r="AP19" s="175"/>
+      <c r="AQ19" s="175"/>
+      <c r="AR19" s="175"/>
+      <c r="AS19" s="175"/>
+      <c r="AT19" s="175"/>
+      <c r="AU19" s="175"/>
+      <c r="AV19" s="175"/>
+      <c r="AW19" s="175"/>
+      <c r="AX19" s="175"/>
+      <c r="AY19" s="175"/>
+      <c r="AZ19" s="175"/>
+      <c r="BA19" s="175"/>
+      <c r="BB19" s="175"/>
+      <c r="BC19" s="175"/>
+      <c r="BD19" s="175"/>
+      <c r="BE19" s="175"/>
+      <c r="BF19" s="175"/>
+      <c r="BG19" s="175"/>
+      <c r="BH19" s="175"/>
+      <c r="BI19" s="175"/>
+      <c r="BJ19" s="175"/>
+      <c r="BK19" s="175"/>
+      <c r="BL19" s="175"/>
+      <c r="BM19" s="175"/>
+      <c r="BN19" s="175"/>
+      <c r="BO19" s="175"/>
+      <c r="BP19" s="175"/>
+      <c r="BQ19" s="175"/>
+      <c r="BR19" s="175"/>
+      <c r="BS19" s="175"/>
+      <c r="BT19" s="175"/>
+      <c r="BU19" s="175"/>
+      <c r="BV19" s="175"/>
+      <c r="BW19" s="175"/>
     </row>
     <row r="20" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="130" t="s">
+      <c r="A20" s="230"/>
+      <c r="B20" s="230"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="188"/>
+      <c r="E20" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
-      <c r="X20" s="131"/>
-      <c r="Y20" s="131"/>
-      <c r="Z20" s="131"/>
-      <c r="AA20" s="131"/>
-      <c r="AB20" s="132"/>
-      <c r="AC20" s="130" t="s">
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
+      <c r="W20" s="122"/>
+      <c r="X20" s="122"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="122"/>
+      <c r="AA20" s="122"/>
+      <c r="AB20" s="123"/>
+      <c r="AC20" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="AD20" s="131"/>
-      <c r="AE20" s="131"/>
-      <c r="AF20" s="131"/>
-      <c r="AG20" s="131"/>
-      <c r="AH20" s="131"/>
-      <c r="AI20" s="131"/>
-      <c r="AJ20" s="131"/>
-      <c r="AK20" s="131"/>
-      <c r="AL20" s="131"/>
-      <c r="AM20" s="131"/>
-      <c r="AN20" s="131"/>
-      <c r="AO20" s="131"/>
-      <c r="AP20" s="131"/>
-      <c r="AQ20" s="131"/>
-      <c r="AR20" s="132"/>
-      <c r="AS20" s="74" t="s">
+      <c r="AD20" s="122"/>
+      <c r="AE20" s="122"/>
+      <c r="AF20" s="122"/>
+      <c r="AG20" s="122"/>
+      <c r="AH20" s="122"/>
+      <c r="AI20" s="122"/>
+      <c r="AJ20" s="122"/>
+      <c r="AK20" s="122"/>
+      <c r="AL20" s="122"/>
+      <c r="AM20" s="122"/>
+      <c r="AN20" s="122"/>
+      <c r="AO20" s="122"/>
+      <c r="AP20" s="122"/>
+      <c r="AQ20" s="122"/>
+      <c r="AR20" s="123"/>
+      <c r="AS20" s="285" t="s">
         <v>39</v>
       </c>
-      <c r="AT20" s="75"/>
+      <c r="AT20" s="286"/>
       <c r="AU20" s="16"/>
       <c r="AV20" s="16"/>
       <c r="AW20" s="16"/>
@@ -6314,690 +6835,690 @@
       </c>
       <c r="AY20" s="19"/>
       <c r="AZ20" s="19"/>
-      <c r="BA20" s="248"/>
-      <c r="BB20" s="248"/>
-      <c r="BC20" s="248"/>
-      <c r="BD20" s="248"/>
-      <c r="BE20" s="248"/>
-      <c r="BF20" s="248"/>
-      <c r="BG20" s="188"/>
-      <c r="BH20" s="189"/>
-      <c r="BI20" s="189"/>
-      <c r="BJ20" s="189"/>
-      <c r="BK20" s="189"/>
-      <c r="BL20" s="189"/>
-      <c r="BM20" s="189"/>
-      <c r="BN20" s="189"/>
-      <c r="BO20" s="190"/>
+      <c r="BA20" s="150"/>
+      <c r="BB20" s="150"/>
+      <c r="BC20" s="150"/>
+      <c r="BD20" s="150"/>
+      <c r="BE20" s="150"/>
+      <c r="BF20" s="150"/>
+      <c r="BG20" s="227"/>
+      <c r="BH20" s="228"/>
+      <c r="BI20" s="228"/>
+      <c r="BJ20" s="228"/>
+      <c r="BK20" s="228"/>
+      <c r="BL20" s="228"/>
+      <c r="BM20" s="228"/>
+      <c r="BN20" s="228"/>
+      <c r="BO20" s="229"/>
     </row>
     <row r="21" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="270"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="153"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="197" t="s">
+      <c r="A21" s="230"/>
+      <c r="B21" s="230"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="99"/>
+      <c r="U21" s="100"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="278"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="278"/>
+      <c r="AB21" s="249"/>
+      <c r="AC21" s="165" t="s">
         <v>56</v>
       </c>
-      <c r="AD21" s="198"/>
-      <c r="AE21" s="198"/>
-      <c r="AF21" s="199"/>
-      <c r="AG21" s="181"/>
-      <c r="AH21" s="182"/>
-      <c r="AI21" s="182"/>
-      <c r="AJ21" s="191"/>
-      <c r="AK21" s="118"/>
-      <c r="AL21" s="150"/>
-      <c r="AM21" s="182"/>
-      <c r="AN21" s="191"/>
-      <c r="AO21" s="118"/>
-      <c r="AP21" s="150"/>
-      <c r="AQ21" s="150"/>
-      <c r="AR21" s="205"/>
-      <c r="AS21" s="154" t="s">
+      <c r="AD21" s="166"/>
+      <c r="AE21" s="166"/>
+      <c r="AF21" s="167"/>
+      <c r="AG21" s="222"/>
+      <c r="AH21" s="101"/>
+      <c r="AI21" s="101"/>
+      <c r="AJ21" s="102"/>
+      <c r="AK21" s="78"/>
+      <c r="AL21" s="173"/>
+      <c r="AM21" s="101"/>
+      <c r="AN21" s="102"/>
+      <c r="AO21" s="78"/>
+      <c r="AP21" s="173"/>
+      <c r="AQ21" s="173"/>
+      <c r="AR21" s="174"/>
+      <c r="AS21" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="AT21" s="155"/>
-      <c r="AU21" s="155"/>
-      <c r="AV21" s="155"/>
-      <c r="AW21" s="156"/>
+      <c r="AT21" s="193"/>
+      <c r="AU21" s="193"/>
+      <c r="AV21" s="193"/>
+      <c r="AW21" s="194"/>
       <c r="AX21" s="21" t="s">
         <v>23</v>
       </c>
       <c r="AY21" s="22"/>
-      <c r="AZ21" s="170"/>
-      <c r="BA21" s="170"/>
-      <c r="BB21" s="170"/>
-      <c r="BC21" s="170"/>
-      <c r="BD21" s="170"/>
-      <c r="BE21" s="170"/>
-      <c r="BF21" s="170"/>
+      <c r="AZ21" s="104"/>
+      <c r="BA21" s="104"/>
+      <c r="BB21" s="104"/>
+      <c r="BC21" s="104"/>
+      <c r="BD21" s="104"/>
+      <c r="BE21" s="104"/>
+      <c r="BF21" s="104"/>
       <c r="BG21" s="21" t="s">
         <v>24</v>
       </c>
       <c r="BH21" s="22"/>
-      <c r="BI21" s="170"/>
-      <c r="BJ21" s="170"/>
-      <c r="BK21" s="170"/>
-      <c r="BL21" s="170"/>
-      <c r="BM21" s="170"/>
-      <c r="BN21" s="170"/>
-      <c r="BO21" s="171"/>
+      <c r="BI21" s="104"/>
+      <c r="BJ21" s="104"/>
+      <c r="BK21" s="104"/>
+      <c r="BL21" s="104"/>
+      <c r="BM21" s="104"/>
+      <c r="BN21" s="104"/>
+      <c r="BO21" s="136"/>
     </row>
     <row r="22" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="148"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="270"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="153"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="67"/>
-      <c r="Z22" s="120"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="200"/>
-      <c r="AD22" s="201"/>
-      <c r="AE22" s="201"/>
-      <c r="AF22" s="202"/>
-      <c r="AG22" s="183"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="57"/>
-      <c r="AJ22" s="192"/>
-      <c r="AK22" s="120"/>
-      <c r="AL22" s="57"/>
-      <c r="AM22" s="57"/>
-      <c r="AN22" s="192"/>
-      <c r="AO22" s="120"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="57"/>
-      <c r="AR22" s="58"/>
-      <c r="AS22" s="157"/>
-      <c r="AT22" s="158"/>
-      <c r="AU22" s="158"/>
-      <c r="AV22" s="158"/>
-      <c r="AW22" s="159"/>
+      <c r="A22" s="230"/>
+      <c r="B22" s="230"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="98"/>
+      <c r="Q22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="100"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="279"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="279"/>
+      <c r="AB22" s="250"/>
+      <c r="AC22" s="168"/>
+      <c r="AD22" s="169"/>
+      <c r="AE22" s="169"/>
+      <c r="AF22" s="170"/>
+      <c r="AG22" s="93"/>
+      <c r="AH22" s="96"/>
+      <c r="AI22" s="96"/>
+      <c r="AJ22" s="103"/>
+      <c r="AK22" s="80"/>
+      <c r="AL22" s="96"/>
+      <c r="AM22" s="96"/>
+      <c r="AN22" s="103"/>
+      <c r="AO22" s="80"/>
+      <c r="AP22" s="96"/>
+      <c r="AQ22" s="96"/>
+      <c r="AR22" s="97"/>
+      <c r="AS22" s="195"/>
+      <c r="AT22" s="196"/>
+      <c r="AU22" s="196"/>
+      <c r="AV22" s="196"/>
+      <c r="AW22" s="197"/>
       <c r="AX22" s="13"/>
       <c r="AY22" s="4"/>
-      <c r="AZ22" s="48"/>
-      <c r="BA22" s="48"/>
-      <c r="BB22" s="48"/>
-      <c r="BC22" s="48"/>
-      <c r="BD22" s="48"/>
-      <c r="BE22" s="48"/>
-      <c r="BF22" s="48"/>
+      <c r="AZ22" s="105"/>
+      <c r="BA22" s="105"/>
+      <c r="BB22" s="105"/>
+      <c r="BC22" s="105"/>
+      <c r="BD22" s="105"/>
+      <c r="BE22" s="105"/>
+      <c r="BF22" s="105"/>
       <c r="BG22" s="13"/>
       <c r="BH22" s="4"/>
-      <c r="BI22" s="48"/>
-      <c r="BJ22" s="48"/>
-      <c r="BK22" s="48"/>
-      <c r="BL22" s="48"/>
-      <c r="BM22" s="48"/>
-      <c r="BN22" s="48"/>
-      <c r="BO22" s="136"/>
+      <c r="BI22" s="105"/>
+      <c r="BJ22" s="105"/>
+      <c r="BK22" s="105"/>
+      <c r="BL22" s="105"/>
+      <c r="BM22" s="105"/>
+      <c r="BN22" s="105"/>
+      <c r="BO22" s="137"/>
     </row>
     <row r="23" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="271" t="s">
+      <c r="A23" s="230"/>
+      <c r="B23" s="230"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="272"/>
-      <c r="G23" s="273"/>
-      <c r="H23" s="91" t="s">
+      <c r="F23" s="125"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="93"/>
-      <c r="V23" s="91" t="s">
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="92"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="92"/>
-      <c r="AD23" s="92"/>
-      <c r="AE23" s="92"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="92"/>
-      <c r="AJ23" s="92"/>
-      <c r="AK23" s="92"/>
-      <c r="AL23" s="92"/>
-      <c r="AM23" s="92"/>
-      <c r="AN23" s="92"/>
-      <c r="AO23" s="92"/>
-      <c r="AP23" s="92"/>
-      <c r="AQ23" s="92"/>
-      <c r="AR23" s="92"/>
-      <c r="AS23" s="92"/>
-      <c r="AT23" s="92"/>
-      <c r="AU23" s="92"/>
-      <c r="AV23" s="92"/>
-      <c r="AW23" s="92"/>
-      <c r="AX23" s="92"/>
-      <c r="AY23" s="92"/>
-      <c r="AZ23" s="92"/>
-      <c r="BA23" s="92"/>
-      <c r="BB23" s="92"/>
-      <c r="BC23" s="92"/>
-      <c r="BD23" s="92"/>
-      <c r="BE23" s="92"/>
-      <c r="BF23" s="92"/>
-      <c r="BG23" s="92"/>
-      <c r="BH23" s="92"/>
-      <c r="BI23" s="92"/>
-      <c r="BJ23" s="92"/>
-      <c r="BK23" s="92"/>
-      <c r="BL23" s="92"/>
-      <c r="BM23" s="93"/>
-      <c r="BN23" s="130" t="s">
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="54"/>
+      <c r="AF23" s="54"/>
+      <c r="AG23" s="54"/>
+      <c r="AH23" s="54"/>
+      <c r="AI23" s="54"/>
+      <c r="AJ23" s="54"/>
+      <c r="AK23" s="54"/>
+      <c r="AL23" s="54"/>
+      <c r="AM23" s="54"/>
+      <c r="AN23" s="54"/>
+      <c r="AO23" s="54"/>
+      <c r="AP23" s="54"/>
+      <c r="AQ23" s="54"/>
+      <c r="AR23" s="54"/>
+      <c r="AS23" s="54"/>
+      <c r="AT23" s="54"/>
+      <c r="AU23" s="54"/>
+      <c r="AV23" s="54"/>
+      <c r="AW23" s="54"/>
+      <c r="AX23" s="54"/>
+      <c r="AY23" s="54"/>
+      <c r="AZ23" s="54"/>
+      <c r="BA23" s="54"/>
+      <c r="BB23" s="54"/>
+      <c r="BC23" s="54"/>
+      <c r="BD23" s="54"/>
+      <c r="BE23" s="54"/>
+      <c r="BF23" s="54"/>
+      <c r="BG23" s="54"/>
+      <c r="BH23" s="54"/>
+      <c r="BI23" s="54"/>
+      <c r="BJ23" s="54"/>
+      <c r="BK23" s="54"/>
+      <c r="BL23" s="54"/>
+      <c r="BM23" s="55"/>
+      <c r="BN23" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="BO23" s="131"/>
-      <c r="BP23" s="131"/>
-      <c r="BQ23" s="131"/>
-      <c r="BR23" s="131"/>
-      <c r="BS23" s="131"/>
-      <c r="BT23" s="131"/>
-      <c r="BU23" s="131"/>
-      <c r="BV23" s="131"/>
-      <c r="BW23" s="131"/>
-      <c r="BX23" s="131"/>
-      <c r="BY23" s="131"/>
-      <c r="BZ23" s="131"/>
-      <c r="CA23" s="131"/>
-      <c r="CB23" s="132"/>
+      <c r="BO23" s="122"/>
+      <c r="BP23" s="122"/>
+      <c r="BQ23" s="122"/>
+      <c r="BR23" s="122"/>
+      <c r="BS23" s="122"/>
+      <c r="BT23" s="122"/>
+      <c r="BU23" s="122"/>
+      <c r="BV23" s="122"/>
+      <c r="BW23" s="122"/>
+      <c r="BX23" s="122"/>
+      <c r="BY23" s="122"/>
+      <c r="BZ23" s="122"/>
+      <c r="CA23" s="122"/>
+      <c r="CB23" s="123"/>
     </row>
     <row r="24" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="274"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="121"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="116"/>
-      <c r="T24" s="121"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="278" t="s">
+      <c r="A24" s="230"/>
+      <c r="B24" s="230"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="247"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="249"/>
+      <c r="V24" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="W24" s="254"/>
-      <c r="X24" s="254"/>
-      <c r="Y24" s="254"/>
-      <c r="Z24" s="254"/>
-      <c r="AA24" s="254"/>
-      <c r="AB24" s="254"/>
-      <c r="AC24" s="254"/>
-      <c r="AD24" s="254"/>
-      <c r="AE24" s="279"/>
-      <c r="AF24" s="292" t="s">
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="49"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="49"/>
+      <c r="AE24" s="50"/>
+      <c r="AF24" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="AG24" s="293"/>
-      <c r="AH24" s="293"/>
-      <c r="AI24" s="293"/>
-      <c r="AJ24" s="125"/>
-      <c r="AK24" s="125"/>
-      <c r="AL24" s="125"/>
-      <c r="AM24" s="125"/>
-      <c r="AN24" s="125"/>
-      <c r="AO24" s="125"/>
-      <c r="AP24" s="125"/>
-      <c r="AQ24" s="125"/>
-      <c r="AR24" s="125"/>
-      <c r="AS24" s="125"/>
-      <c r="AT24" s="125"/>
-      <c r="AU24" s="125"/>
-      <c r="AV24" s="125"/>
-      <c r="AW24" s="125"/>
-      <c r="AX24" s="125"/>
-      <c r="AY24" s="125"/>
-      <c r="AZ24" s="125"/>
-      <c r="BA24" s="125"/>
-      <c r="BB24" s="125"/>
-      <c r="BC24" s="125"/>
-      <c r="BD24" s="125"/>
-      <c r="BE24" s="125"/>
-      <c r="BF24" s="125"/>
-      <c r="BG24" s="125"/>
-      <c r="BH24" s="125"/>
-      <c r="BI24" s="125"/>
-      <c r="BJ24" s="125"/>
-      <c r="BK24" s="125"/>
-      <c r="BL24" s="125"/>
-      <c r="BM24" s="126"/>
-      <c r="BN24" s="140" t="s">
+      <c r="AG24" s="73"/>
+      <c r="AH24" s="73"/>
+      <c r="AI24" s="73"/>
+      <c r="AJ24" s="251"/>
+      <c r="AK24" s="251"/>
+      <c r="AL24" s="251"/>
+      <c r="AM24" s="251"/>
+      <c r="AN24" s="251"/>
+      <c r="AO24" s="251"/>
+      <c r="AP24" s="251"/>
+      <c r="AQ24" s="251"/>
+      <c r="AR24" s="251"/>
+      <c r="AS24" s="251"/>
+      <c r="AT24" s="251"/>
+      <c r="AU24" s="251"/>
+      <c r="AV24" s="251"/>
+      <c r="AW24" s="251"/>
+      <c r="AX24" s="251"/>
+      <c r="AY24" s="251"/>
+      <c r="AZ24" s="251"/>
+      <c r="BA24" s="251"/>
+      <c r="BB24" s="251"/>
+      <c r="BC24" s="251"/>
+      <c r="BD24" s="251"/>
+      <c r="BE24" s="251"/>
+      <c r="BF24" s="251"/>
+      <c r="BG24" s="251"/>
+      <c r="BH24" s="251"/>
+      <c r="BI24" s="251"/>
+      <c r="BJ24" s="251"/>
+      <c r="BK24" s="251"/>
+      <c r="BL24" s="251"/>
+      <c r="BM24" s="252"/>
+      <c r="BN24" s="261" t="s">
         <v>58</v>
       </c>
-      <c r="BO24" s="141"/>
-      <c r="BP24" s="142"/>
-      <c r="BQ24" s="117"/>
-      <c r="BR24" s="258"/>
-      <c r="BS24" s="122"/>
-      <c r="BT24" s="124"/>
-      <c r="BU24" s="117"/>
-      <c r="BV24" s="258"/>
-      <c r="BW24" s="122"/>
-      <c r="BX24" s="124"/>
-      <c r="BY24" s="117"/>
-      <c r="BZ24" s="258"/>
-      <c r="CA24" s="122"/>
-      <c r="CB24" s="124"/>
+      <c r="BO24" s="262"/>
+      <c r="BP24" s="263"/>
+      <c r="BQ24" s="42"/>
+      <c r="BR24" s="43"/>
+      <c r="BS24" s="39"/>
+      <c r="BT24" s="40"/>
+      <c r="BU24" s="42"/>
+      <c r="BV24" s="43"/>
+      <c r="BW24" s="39"/>
+      <c r="BX24" s="40"/>
+      <c r="BY24" s="42"/>
+      <c r="BZ24" s="43"/>
+      <c r="CA24" s="39"/>
+      <c r="CB24" s="40"/>
     </row>
     <row r="25" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="274"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="122"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="122"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="124"/>
-      <c r="V25" s="276"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="294"/>
-      <c r="AF25" s="169"/>
-      <c r="AG25" s="170"/>
-      <c r="AH25" s="170"/>
-      <c r="AI25" s="170"/>
-      <c r="AJ25" s="170"/>
-      <c r="AK25" s="170"/>
-      <c r="AL25" s="170"/>
-      <c r="AM25" s="170"/>
-      <c r="AN25" s="170"/>
-      <c r="AO25" s="170"/>
-      <c r="AP25" s="170"/>
-      <c r="AQ25" s="170"/>
-      <c r="AR25" s="170"/>
-      <c r="AS25" s="170"/>
-      <c r="AT25" s="170"/>
-      <c r="AU25" s="170"/>
-      <c r="AV25" s="170"/>
-      <c r="AW25" s="170"/>
-      <c r="AX25" s="170"/>
-      <c r="AY25" s="170"/>
-      <c r="AZ25" s="170"/>
-      <c r="BA25" s="170"/>
-      <c r="BB25" s="170"/>
-      <c r="BC25" s="170"/>
-      <c r="BD25" s="170"/>
-      <c r="BE25" s="170"/>
-      <c r="BF25" s="170"/>
-      <c r="BG25" s="170"/>
-      <c r="BH25" s="170"/>
-      <c r="BI25" s="170"/>
-      <c r="BJ25" s="170"/>
-      <c r="BK25" s="170"/>
-      <c r="BL25" s="170"/>
-      <c r="BM25" s="171"/>
-      <c r="BN25" s="143"/>
-      <c r="BO25" s="141"/>
-      <c r="BP25" s="142"/>
-      <c r="BQ25" s="117"/>
-      <c r="BR25" s="258"/>
-      <c r="BS25" s="122"/>
-      <c r="BT25" s="124"/>
-      <c r="BU25" s="117"/>
-      <c r="BV25" s="258"/>
-      <c r="BW25" s="122"/>
-      <c r="BX25" s="124"/>
-      <c r="BY25" s="117"/>
-      <c r="BZ25" s="258"/>
-      <c r="CA25" s="122"/>
-      <c r="CB25" s="124"/>
+      <c r="A25" s="230"/>
+      <c r="B25" s="230"/>
+      <c r="C25" s="188"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="78"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="78"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="210"/>
+      <c r="AG25" s="104"/>
+      <c r="AH25" s="104"/>
+      <c r="AI25" s="104"/>
+      <c r="AJ25" s="104"/>
+      <c r="AK25" s="104"/>
+      <c r="AL25" s="104"/>
+      <c r="AM25" s="104"/>
+      <c r="AN25" s="104"/>
+      <c r="AO25" s="104"/>
+      <c r="AP25" s="104"/>
+      <c r="AQ25" s="104"/>
+      <c r="AR25" s="104"/>
+      <c r="AS25" s="104"/>
+      <c r="AT25" s="104"/>
+      <c r="AU25" s="104"/>
+      <c r="AV25" s="104"/>
+      <c r="AW25" s="104"/>
+      <c r="AX25" s="104"/>
+      <c r="AY25" s="104"/>
+      <c r="AZ25" s="104"/>
+      <c r="BA25" s="104"/>
+      <c r="BB25" s="104"/>
+      <c r="BC25" s="104"/>
+      <c r="BD25" s="104"/>
+      <c r="BE25" s="104"/>
+      <c r="BF25" s="104"/>
+      <c r="BG25" s="104"/>
+      <c r="BH25" s="104"/>
+      <c r="BI25" s="104"/>
+      <c r="BJ25" s="104"/>
+      <c r="BK25" s="104"/>
+      <c r="BL25" s="104"/>
+      <c r="BM25" s="136"/>
+      <c r="BN25" s="264"/>
+      <c r="BO25" s="262"/>
+      <c r="BP25" s="263"/>
+      <c r="BQ25" s="42"/>
+      <c r="BR25" s="43"/>
+      <c r="BS25" s="39"/>
+      <c r="BT25" s="40"/>
+      <c r="BU25" s="42"/>
+      <c r="BV25" s="43"/>
+      <c r="BW25" s="39"/>
+      <c r="BX25" s="40"/>
+      <c r="BY25" s="42"/>
+      <c r="BZ25" s="43"/>
+      <c r="CA25" s="39"/>
+      <c r="CB25" s="40"/>
     </row>
     <row r="26" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="275"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="120"/>
-      <c r="T26" s="123"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="277"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="97"/>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="97"/>
-      <c r="AC26" s="98"/>
-      <c r="AD26" s="97"/>
-      <c r="AE26" s="295"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="46"/>
-      <c r="AN26" s="46"/>
-      <c r="AO26" s="46"/>
-      <c r="AP26" s="46"/>
-      <c r="AQ26" s="46"/>
-      <c r="AR26" s="46"/>
-      <c r="AS26" s="46"/>
-      <c r="AT26" s="46"/>
-      <c r="AU26" s="46"/>
-      <c r="AV26" s="46"/>
-      <c r="AW26" s="46"/>
-      <c r="AX26" s="46"/>
-      <c r="AY26" s="46"/>
-      <c r="AZ26" s="46"/>
-      <c r="BA26" s="46"/>
-      <c r="BB26" s="46"/>
-      <c r="BC26" s="46"/>
-      <c r="BD26" s="46"/>
-      <c r="BE26" s="46"/>
-      <c r="BF26" s="46"/>
-      <c r="BG26" s="46"/>
-      <c r="BH26" s="46"/>
-      <c r="BI26" s="46"/>
-      <c r="BJ26" s="46"/>
-      <c r="BK26" s="46"/>
-      <c r="BL26" s="46"/>
-      <c r="BM26" s="172"/>
-      <c r="BN26" s="143"/>
-      <c r="BO26" s="141"/>
-      <c r="BP26" s="142"/>
-      <c r="BQ26" s="117"/>
-      <c r="BR26" s="258"/>
-      <c r="BS26" s="122"/>
-      <c r="BT26" s="257"/>
-      <c r="BU26" s="117"/>
-      <c r="BV26" s="258"/>
-      <c r="BW26" s="122"/>
-      <c r="BX26" s="257"/>
-      <c r="BY26" s="117"/>
-      <c r="BZ26" s="258"/>
-      <c r="CA26" s="122"/>
-      <c r="CB26" s="257"/>
+      <c r="A26" s="230"/>
+      <c r="B26" s="230"/>
+      <c r="C26" s="188"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="248"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="250"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="52"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="52"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="52"/>
+      <c r="AE26" s="75"/>
+      <c r="AF26" s="211"/>
+      <c r="AG26" s="212"/>
+      <c r="AH26" s="212"/>
+      <c r="AI26" s="212"/>
+      <c r="AJ26" s="212"/>
+      <c r="AK26" s="212"/>
+      <c r="AL26" s="212"/>
+      <c r="AM26" s="212"/>
+      <c r="AN26" s="212"/>
+      <c r="AO26" s="212"/>
+      <c r="AP26" s="212"/>
+      <c r="AQ26" s="212"/>
+      <c r="AR26" s="212"/>
+      <c r="AS26" s="212"/>
+      <c r="AT26" s="212"/>
+      <c r="AU26" s="212"/>
+      <c r="AV26" s="212"/>
+      <c r="AW26" s="212"/>
+      <c r="AX26" s="212"/>
+      <c r="AY26" s="212"/>
+      <c r="AZ26" s="212"/>
+      <c r="BA26" s="212"/>
+      <c r="BB26" s="212"/>
+      <c r="BC26" s="212"/>
+      <c r="BD26" s="212"/>
+      <c r="BE26" s="212"/>
+      <c r="BF26" s="212"/>
+      <c r="BG26" s="212"/>
+      <c r="BH26" s="212"/>
+      <c r="BI26" s="212"/>
+      <c r="BJ26" s="212"/>
+      <c r="BK26" s="212"/>
+      <c r="BL26" s="212"/>
+      <c r="BM26" s="213"/>
+      <c r="BN26" s="264"/>
+      <c r="BO26" s="262"/>
+      <c r="BP26" s="263"/>
+      <c r="BQ26" s="42"/>
+      <c r="BR26" s="43"/>
+      <c r="BS26" s="39"/>
+      <c r="BT26" s="41"/>
+      <c r="BU26" s="42"/>
+      <c r="BV26" s="43"/>
+      <c r="BW26" s="39"/>
+      <c r="BX26" s="41"/>
+      <c r="BY26" s="42"/>
+      <c r="BZ26" s="43"/>
+      <c r="CA26" s="39"/>
+      <c r="CB26" s="41"/>
     </row>
     <row r="27" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="76" t="s">
+      <c r="A27" s="230"/>
+      <c r="B27" s="230"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="77"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="88" t="s">
+      <c r="F27" s="87"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="293" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
-      <c r="AK27" s="44"/>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="44"/>
-      <c r="AN27" s="44"/>
-      <c r="AO27" s="44"/>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="44"/>
-      <c r="AR27" s="44"/>
-      <c r="AS27" s="44"/>
-      <c r="AT27" s="44"/>
-      <c r="AU27" s="44"/>
-      <c r="AV27" s="44"/>
-      <c r="AW27" s="44"/>
-      <c r="AX27" s="44"/>
-      <c r="AY27" s="44"/>
-      <c r="AZ27" s="44"/>
-      <c r="BA27" s="44"/>
-      <c r="BB27" s="44"/>
-      <c r="BC27" s="44"/>
-      <c r="BD27" s="44"/>
-      <c r="BE27" s="44"/>
-      <c r="BF27" s="44"/>
-      <c r="BG27" s="177"/>
-      <c r="BH27" s="82" t="s">
+      <c r="I27" s="294"/>
+      <c r="J27" s="294"/>
+      <c r="K27" s="294"/>
+      <c r="L27" s="294"/>
+      <c r="M27" s="295"/>
+      <c r="N27" s="198"/>
+      <c r="O27" s="199"/>
+      <c r="P27" s="199"/>
+      <c r="Q27" s="199"/>
+      <c r="R27" s="199"/>
+      <c r="S27" s="199"/>
+      <c r="T27" s="199"/>
+      <c r="U27" s="199"/>
+      <c r="V27" s="199"/>
+      <c r="W27" s="199"/>
+      <c r="X27" s="199"/>
+      <c r="Y27" s="199"/>
+      <c r="Z27" s="199"/>
+      <c r="AA27" s="199"/>
+      <c r="AB27" s="199"/>
+      <c r="AC27" s="199"/>
+      <c r="AD27" s="199"/>
+      <c r="AE27" s="199"/>
+      <c r="AF27" s="199"/>
+      <c r="AG27" s="199"/>
+      <c r="AH27" s="199"/>
+      <c r="AI27" s="199"/>
+      <c r="AJ27" s="199"/>
+      <c r="AK27" s="199"/>
+      <c r="AL27" s="199"/>
+      <c r="AM27" s="199"/>
+      <c r="AN27" s="199"/>
+      <c r="AO27" s="199"/>
+      <c r="AP27" s="199"/>
+      <c r="AQ27" s="199"/>
+      <c r="AR27" s="199"/>
+      <c r="AS27" s="199"/>
+      <c r="AT27" s="199"/>
+      <c r="AU27" s="199"/>
+      <c r="AV27" s="199"/>
+      <c r="AW27" s="199"/>
+      <c r="AX27" s="199"/>
+      <c r="AY27" s="199"/>
+      <c r="AZ27" s="199"/>
+      <c r="BA27" s="199"/>
+      <c r="BB27" s="199"/>
+      <c r="BC27" s="199"/>
+      <c r="BD27" s="199"/>
+      <c r="BE27" s="199"/>
+      <c r="BF27" s="199"/>
+      <c r="BG27" s="218"/>
+      <c r="BH27" s="287" t="s">
         <v>40</v>
       </c>
-      <c r="BI27" s="83"/>
-      <c r="BJ27" s="84"/>
-      <c r="BK27" s="109" t="s">
+      <c r="BI27" s="288"/>
+      <c r="BJ27" s="289"/>
+      <c r="BK27" s="241" t="s">
         <v>55</v>
       </c>
-      <c r="BL27" s="110"/>
-      <c r="BM27" s="110"/>
-      <c r="BN27" s="110"/>
-      <c r="BO27" s="110"/>
-      <c r="BP27" s="110"/>
-      <c r="BQ27" s="110"/>
-      <c r="BR27" s="110"/>
-      <c r="BS27" s="110"/>
-      <c r="BT27" s="110"/>
-      <c r="BU27" s="110"/>
-      <c r="BV27" s="110"/>
-      <c r="BW27" s="110"/>
-      <c r="BX27" s="110"/>
-      <c r="BY27" s="110"/>
-      <c r="BZ27" s="110"/>
-      <c r="CA27" s="110"/>
-      <c r="CB27" s="110"/>
-      <c r="CC27" s="110"/>
-      <c r="CD27" s="111"/>
+      <c r="BL27" s="242"/>
+      <c r="BM27" s="242"/>
+      <c r="BN27" s="242"/>
+      <c r="BO27" s="242"/>
+      <c r="BP27" s="242"/>
+      <c r="BQ27" s="242"/>
+      <c r="BR27" s="242"/>
+      <c r="BS27" s="242"/>
+      <c r="BT27" s="242"/>
+      <c r="BU27" s="242"/>
+      <c r="BV27" s="242"/>
+      <c r="BW27" s="242"/>
+      <c r="BX27" s="242"/>
+      <c r="BY27" s="242"/>
+      <c r="BZ27" s="242"/>
+      <c r="CA27" s="242"/>
+      <c r="CB27" s="242"/>
+      <c r="CC27" s="242"/>
+      <c r="CD27" s="243"/>
       <c r="CE27" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:83" ht="22.5" customHeight="1">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="69" t="s">
+      <c r="A28" s="230"/>
+      <c r="B28" s="230"/>
+      <c r="C28" s="188"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="280" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="48"/>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="48"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="48"/>
-      <c r="AN28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AP28" s="48"/>
-      <c r="AQ28" s="48"/>
-      <c r="AR28" s="48"/>
-      <c r="AS28" s="48"/>
-      <c r="AT28" s="48"/>
-      <c r="AU28" s="48"/>
-      <c r="AV28" s="48"/>
-      <c r="AW28" s="48"/>
-      <c r="AX28" s="48"/>
-      <c r="AY28" s="48"/>
-      <c r="AZ28" s="48"/>
-      <c r="BA28" s="48"/>
-      <c r="BB28" s="48"/>
-      <c r="BC28" s="48"/>
-      <c r="BD28" s="48"/>
-      <c r="BE28" s="48"/>
-      <c r="BF28" s="48"/>
-      <c r="BG28" s="178"/>
-      <c r="BH28" s="85"/>
-      <c r="BI28" s="86"/>
-      <c r="BJ28" s="87"/>
-      <c r="BK28" s="112"/>
-      <c r="BL28" s="113"/>
-      <c r="BM28" s="113"/>
-      <c r="BN28" s="113"/>
-      <c r="BO28" s="113"/>
-      <c r="BP28" s="113"/>
-      <c r="BQ28" s="113"/>
-      <c r="BR28" s="113"/>
-      <c r="BS28" s="113"/>
-      <c r="BT28" s="113"/>
-      <c r="BU28" s="113"/>
-      <c r="BV28" s="113"/>
-      <c r="BW28" s="113"/>
-      <c r="BX28" s="113"/>
-      <c r="BY28" s="113"/>
-      <c r="BZ28" s="113"/>
-      <c r="CA28" s="113"/>
-      <c r="CB28" s="113"/>
-      <c r="CC28" s="113"/>
-      <c r="CD28" s="114"/>
+      <c r="I28" s="281"/>
+      <c r="J28" s="281"/>
+      <c r="K28" s="281"/>
+      <c r="L28" s="281"/>
+      <c r="M28" s="282"/>
+      <c r="N28" s="200"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
+      <c r="R28" s="105"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="105"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="105"/>
+      <c r="W28" s="105"/>
+      <c r="X28" s="105"/>
+      <c r="Y28" s="105"/>
+      <c r="Z28" s="105"/>
+      <c r="AA28" s="105"/>
+      <c r="AB28" s="105"/>
+      <c r="AC28" s="105"/>
+      <c r="AD28" s="105"/>
+      <c r="AE28" s="105"/>
+      <c r="AF28" s="105"/>
+      <c r="AG28" s="105"/>
+      <c r="AH28" s="105"/>
+      <c r="AI28" s="105"/>
+      <c r="AJ28" s="105"/>
+      <c r="AK28" s="105"/>
+      <c r="AL28" s="105"/>
+      <c r="AM28" s="105"/>
+      <c r="AN28" s="105"/>
+      <c r="AO28" s="105"/>
+      <c r="AP28" s="105"/>
+      <c r="AQ28" s="105"/>
+      <c r="AR28" s="105"/>
+      <c r="AS28" s="105"/>
+      <c r="AT28" s="105"/>
+      <c r="AU28" s="105"/>
+      <c r="AV28" s="105"/>
+      <c r="AW28" s="105"/>
+      <c r="AX28" s="105"/>
+      <c r="AY28" s="105"/>
+      <c r="AZ28" s="105"/>
+      <c r="BA28" s="105"/>
+      <c r="BB28" s="105"/>
+      <c r="BC28" s="105"/>
+      <c r="BD28" s="105"/>
+      <c r="BE28" s="105"/>
+      <c r="BF28" s="105"/>
+      <c r="BG28" s="219"/>
+      <c r="BH28" s="290"/>
+      <c r="BI28" s="291"/>
+      <c r="BJ28" s="292"/>
+      <c r="BK28" s="244"/>
+      <c r="BL28" s="245"/>
+      <c r="BM28" s="245"/>
+      <c r="BN28" s="245"/>
+      <c r="BO28" s="245"/>
+      <c r="BP28" s="245"/>
+      <c r="BQ28" s="245"/>
+      <c r="BR28" s="245"/>
+      <c r="BS28" s="245"/>
+      <c r="BT28" s="245"/>
+      <c r="BU28" s="245"/>
+      <c r="BV28" s="245"/>
+      <c r="BW28" s="245"/>
+      <c r="BX28" s="245"/>
+      <c r="BY28" s="245"/>
+      <c r="BZ28" s="245"/>
+      <c r="CA28" s="245"/>
+      <c r="CB28" s="245"/>
+      <c r="CC28" s="245"/>
+      <c r="CD28" s="246"/>
     </row>
     <row r="29" spans="1:83" ht="10.5" customHeight="1">
       <c r="A29" s="20"/>
@@ -7107,86 +7628,86 @@
       <c r="Z30"/>
       <c r="AA30"/>
       <c r="AB30"/>
-      <c r="BQ30" s="278" t="s">
+      <c r="BQ30" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="BR30" s="254"/>
-      <c r="BS30" s="254"/>
-      <c r="BT30" s="254"/>
-      <c r="BU30" s="254"/>
-      <c r="BV30" s="254"/>
-      <c r="BW30" s="254"/>
-      <c r="BX30" s="254"/>
-      <c r="BY30" s="254"/>
-      <c r="BZ30" s="254"/>
-      <c r="CA30" s="254"/>
-      <c r="CB30" s="279"/>
+      <c r="BR30" s="49"/>
+      <c r="BS30" s="49"/>
+      <c r="BT30" s="49"/>
+      <c r="BU30" s="49"/>
+      <c r="BV30" s="49"/>
+      <c r="BW30" s="49"/>
+      <c r="BX30" s="49"/>
+      <c r="BY30" s="49"/>
+      <c r="BZ30" s="49"/>
+      <c r="CA30" s="49"/>
+      <c r="CB30" s="50"/>
     </row>
     <row r="31" spans="1:83" ht="15.75" customHeight="1">
       <c r="A31" s="20"/>
-      <c r="B31" s="251" t="s">
+      <c r="B31" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="252"/>
-      <c r="D31" s="252"/>
-      <c r="E31" s="252"/>
-      <c r="F31" s="252"/>
-      <c r="G31" s="252"/>
-      <c r="H31" s="252"/>
-      <c r="I31" s="252"/>
-      <c r="J31" s="252"/>
-      <c r="K31" s="252"/>
-      <c r="L31" s="252"/>
-      <c r="M31" s="252"/>
-      <c r="N31" s="252"/>
-      <c r="O31" s="252"/>
-      <c r="P31" s="252"/>
-      <c r="Q31" s="252"/>
-      <c r="R31" s="252"/>
-      <c r="S31" s="252"/>
-      <c r="T31" s="252"/>
-      <c r="U31" s="252"/>
-      <c r="V31" s="252"/>
-      <c r="W31" s="252"/>
-      <c r="X31" s="252"/>
-      <c r="Y31" s="252"/>
-      <c r="Z31" s="252"/>
-      <c r="AA31" s="252"/>
-      <c r="AB31" s="253"/>
-      <c r="AU31" s="39" t="s">
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="83"/>
+      <c r="AU31" s="269" t="s">
         <v>59</v>
       </c>
-      <c r="AV31" s="39"/>
-      <c r="AW31" s="39"/>
-      <c r="AX31" s="39"/>
-      <c r="AY31" s="39"/>
-      <c r="AZ31" s="39"/>
-      <c r="BA31" s="39"/>
-      <c r="BB31" s="39"/>
-      <c r="BC31" s="39"/>
-      <c r="BD31" s="39"/>
-      <c r="BE31" s="39"/>
-      <c r="BF31" s="39"/>
-      <c r="BG31" s="39"/>
-      <c r="BH31" s="39"/>
-      <c r="BI31" s="39"/>
-      <c r="BJ31" s="39"/>
-      <c r="BK31" s="39"/>
-      <c r="BL31" s="39"/>
-      <c r="BM31" s="39"/>
-      <c r="BN31" s="39"/>
-      <c r="BQ31" s="91"/>
-      <c r="BR31" s="92"/>
-      <c r="BS31" s="92"/>
-      <c r="BT31" s="92"/>
-      <c r="BU31" s="92"/>
-      <c r="BV31" s="92"/>
-      <c r="BW31" s="92"/>
-      <c r="BX31" s="92"/>
-      <c r="BY31" s="92"/>
-      <c r="BZ31" s="92"/>
-      <c r="CA31" s="92"/>
-      <c r="CB31" s="93"/>
+      <c r="AV31" s="269"/>
+      <c r="AW31" s="269"/>
+      <c r="AX31" s="269"/>
+      <c r="AY31" s="269"/>
+      <c r="AZ31" s="269"/>
+      <c r="BA31" s="269"/>
+      <c r="BB31" s="269"/>
+      <c r="BC31" s="269"/>
+      <c r="BD31" s="269"/>
+      <c r="BE31" s="269"/>
+      <c r="BF31" s="269"/>
+      <c r="BG31" s="269"/>
+      <c r="BH31" s="269"/>
+      <c r="BI31" s="269"/>
+      <c r="BJ31" s="269"/>
+      <c r="BK31" s="269"/>
+      <c r="BL31" s="269"/>
+      <c r="BM31" s="269"/>
+      <c r="BN31" s="269"/>
+      <c r="BQ31" s="53"/>
+      <c r="BR31" s="54"/>
+      <c r="BS31" s="54"/>
+      <c r="BT31" s="54"/>
+      <c r="BU31" s="54"/>
+      <c r="BV31" s="54"/>
+      <c r="BW31" s="54"/>
+      <c r="BX31" s="54"/>
+      <c r="BY31" s="54"/>
+      <c r="BZ31" s="54"/>
+      <c r="CA31" s="54"/>
+      <c r="CB31" s="55"/>
     </row>
     <row r="32" spans="1:83" ht="21" customHeight="1">
       <c r="A32" s="25"/>
@@ -7223,25 +7744,25 @@
       <c r="BF32" s="24"/>
       <c r="BI32" s="24"/>
       <c r="BJ32" s="24"/>
-      <c r="BQ32" s="280"/>
-      <c r="BR32" s="281"/>
-      <c r="BS32" s="281"/>
-      <c r="BT32" s="281"/>
-      <c r="BU32" s="281"/>
-      <c r="BV32" s="281"/>
-      <c r="BW32" s="281"/>
-      <c r="BX32" s="281"/>
-      <c r="BY32" s="281"/>
-      <c r="BZ32" s="281"/>
-      <c r="CA32" s="281"/>
-      <c r="CB32" s="282"/>
+      <c r="BQ32" s="56"/>
+      <c r="BR32" s="57"/>
+      <c r="BS32" s="57"/>
+      <c r="BT32" s="57"/>
+      <c r="BU32" s="57"/>
+      <c r="BV32" s="57"/>
+      <c r="BW32" s="57"/>
+      <c r="BX32" s="57"/>
+      <c r="BY32" s="57"/>
+      <c r="BZ32" s="57"/>
+      <c r="CA32" s="57"/>
+      <c r="CB32" s="58"/>
     </row>
     <row r="33" spans="1:81" ht="21" customHeight="1">
       <c r="A33" s="20"/>
-      <c r="B33" s="283" t="s">
+      <c r="B33" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="284"/>
+      <c r="C33" s="63"/>
       <c r="D33" s="29" t="s">
         <v>10</v>
       </c>
@@ -7251,26 +7772,26 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="289"/>
-      <c r="L33" s="289"/>
-      <c r="M33" s="289"/>
-      <c r="N33" s="289"/>
-      <c r="O33" s="289"/>
-      <c r="P33" s="289"/>
-      <c r="Q33" s="289"/>
-      <c r="R33" s="289"/>
-      <c r="S33" s="289"/>
-      <c r="T33" s="289"/>
-      <c r="U33" s="289"/>
-      <c r="V33" s="289"/>
-      <c r="W33" s="289"/>
-      <c r="X33" s="289"/>
-      <c r="Y33" s="289"/>
-      <c r="Z33" s="289"/>
-      <c r="AA33" s="289"/>
-      <c r="AB33" s="290"/>
-      <c r="AG33" s="42"/>
-      <c r="AH33" s="42"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="68"/>
+      <c r="AB33" s="69"/>
+      <c r="AG33" s="272"/>
+      <c r="AH33" s="272"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9"/>
@@ -7299,23 +7820,23 @@
       <c r="BH33" s="2"/>
       <c r="BI33" s="2"/>
       <c r="BJ33" s="2"/>
-      <c r="BQ33" s="280"/>
-      <c r="BR33" s="281"/>
-      <c r="BS33" s="281"/>
-      <c r="BT33" s="281"/>
-      <c r="BU33" s="281"/>
-      <c r="BV33" s="281"/>
-      <c r="BW33" s="281"/>
-      <c r="BX33" s="281"/>
-      <c r="BY33" s="281"/>
-      <c r="BZ33" s="281"/>
-      <c r="CA33" s="281"/>
-      <c r="CB33" s="282"/>
+      <c r="BQ33" s="56"/>
+      <c r="BR33" s="57"/>
+      <c r="BS33" s="57"/>
+      <c r="BT33" s="57"/>
+      <c r="BU33" s="57"/>
+      <c r="BV33" s="57"/>
+      <c r="BW33" s="57"/>
+      <c r="BX33" s="57"/>
+      <c r="BY33" s="57"/>
+      <c r="BZ33" s="57"/>
+      <c r="CA33" s="57"/>
+      <c r="CB33" s="58"/>
     </row>
     <row r="34" spans="1:81" ht="21" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="283"/>
-      <c r="C34" s="284"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="29" t="s">
         <v>9</v>
       </c>
@@ -7325,38 +7846,38 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="289"/>
-      <c r="L34" s="289"/>
-      <c r="M34" s="289"/>
-      <c r="N34" s="289"/>
-      <c r="O34" s="289"/>
-      <c r="P34" s="289"/>
-      <c r="Q34" s="289"/>
-      <c r="R34" s="289"/>
-      <c r="S34" s="289"/>
-      <c r="T34" s="289"/>
-      <c r="U34" s="289"/>
-      <c r="V34" s="289"/>
-      <c r="W34" s="289"/>
-      <c r="X34" s="289"/>
-      <c r="Y34" s="289"/>
-      <c r="Z34" s="289"/>
-      <c r="AA34" s="289"/>
-      <c r="AB34" s="290"/>
-      <c r="AG34" s="42"/>
-      <c r="AH34" s="42"/>
-      <c r="AI34" s="91"/>
-      <c r="AJ34" s="92"/>
-      <c r="AK34" s="92"/>
-      <c r="AL34" s="92"/>
-      <c r="AM34" s="92"/>
-      <c r="AN34" s="92"/>
-      <c r="AO34" s="92"/>
-      <c r="AP34" s="92"/>
-      <c r="AQ34" s="92"/>
-      <c r="AR34" s="92"/>
-      <c r="AS34" s="92"/>
-      <c r="AT34" s="93"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="69"/>
+      <c r="AG34" s="272"/>
+      <c r="AH34" s="272"/>
+      <c r="AI34" s="53"/>
+      <c r="AJ34" s="54"/>
+      <c r="AK34" s="54"/>
+      <c r="AL34" s="54"/>
+      <c r="AM34" s="54"/>
+      <c r="AN34" s="54"/>
+      <c r="AO34" s="54"/>
+      <c r="AP34" s="54"/>
+      <c r="AQ34" s="54"/>
+      <c r="AR34" s="54"/>
+      <c r="AS34" s="54"/>
+      <c r="AT34" s="55"/>
       <c r="AU34" s="9"/>
       <c r="AV34" s="9"/>
       <c r="AW34" s="9"/>
@@ -7373,23 +7894,23 @@
       <c r="BH34" s="9"/>
       <c r="BI34" s="9"/>
       <c r="BJ34" s="9"/>
-      <c r="BQ34" s="280"/>
-      <c r="BR34" s="281"/>
-      <c r="BS34" s="281"/>
-      <c r="BT34" s="281"/>
-      <c r="BU34" s="281"/>
-      <c r="BV34" s="281"/>
-      <c r="BW34" s="281"/>
-      <c r="BX34" s="281"/>
-      <c r="BY34" s="281"/>
-      <c r="BZ34" s="281"/>
-      <c r="CA34" s="281"/>
-      <c r="CB34" s="282"/>
+      <c r="BQ34" s="56"/>
+      <c r="BR34" s="57"/>
+      <c r="BS34" s="57"/>
+      <c r="BT34" s="57"/>
+      <c r="BU34" s="57"/>
+      <c r="BV34" s="57"/>
+      <c r="BW34" s="57"/>
+      <c r="BX34" s="57"/>
+      <c r="BY34" s="57"/>
+      <c r="BZ34" s="57"/>
+      <c r="CA34" s="57"/>
+      <c r="CB34" s="58"/>
     </row>
     <row r="35" spans="1:81" ht="21" customHeight="1">
       <c r="A35" s="20"/>
-      <c r="B35" s="283"/>
-      <c r="C35" s="284"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="29" t="s">
         <v>11</v>
       </c>
@@ -7399,52 +7920,52 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="289"/>
-      <c r="L35" s="289"/>
-      <c r="M35" s="289"/>
-      <c r="N35" s="289"/>
-      <c r="O35" s="289"/>
-      <c r="P35" s="289"/>
-      <c r="Q35" s="289"/>
-      <c r="R35" s="289"/>
-      <c r="S35" s="289"/>
-      <c r="T35" s="289"/>
-      <c r="U35" s="289"/>
-      <c r="V35" s="289"/>
-      <c r="W35" s="289"/>
-      <c r="X35" s="289"/>
-      <c r="Y35" s="289"/>
-      <c r="Z35" s="289"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
+      <c r="T35" s="68"/>
+      <c r="U35" s="68"/>
+      <c r="V35" s="68"/>
+      <c r="W35" s="68"/>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="68"/>
+      <c r="Z35" s="68"/>
       <c r="AA35" s="35" t="s">
         <v>7</v>
       </c>
       <c r="AB35" s="3"/>
-      <c r="AG35" s="42"/>
-      <c r="AH35" s="42"/>
-      <c r="AI35" s="43"/>
-      <c r="AJ35" s="44"/>
-      <c r="AK35" s="44"/>
-      <c r="AL35" s="44"/>
-      <c r="AM35" s="44"/>
-      <c r="AN35" s="44"/>
-      <c r="AO35" s="44"/>
-      <c r="AP35" s="44"/>
-      <c r="AQ35" s="44"/>
-      <c r="AR35" s="44"/>
-      <c r="AS35" s="44"/>
-      <c r="AT35" s="44"/>
-      <c r="AU35" s="44"/>
-      <c r="AV35" s="44"/>
-      <c r="AW35" s="44"/>
-      <c r="AX35" s="44"/>
-      <c r="AY35" s="44"/>
-      <c r="AZ35" s="44"/>
-      <c r="BA35" s="44"/>
-      <c r="BB35" s="44"/>
-      <c r="BC35" s="44"/>
-      <c r="BD35" s="44"/>
-      <c r="BE35" s="44"/>
-      <c r="BF35" s="254" t="s">
+      <c r="AG35" s="272"/>
+      <c r="AH35" s="272"/>
+      <c r="AI35" s="198"/>
+      <c r="AJ35" s="199"/>
+      <c r="AK35" s="199"/>
+      <c r="AL35" s="199"/>
+      <c r="AM35" s="199"/>
+      <c r="AN35" s="199"/>
+      <c r="AO35" s="199"/>
+      <c r="AP35" s="199"/>
+      <c r="AQ35" s="199"/>
+      <c r="AR35" s="199"/>
+      <c r="AS35" s="199"/>
+      <c r="AT35" s="199"/>
+      <c r="AU35" s="199"/>
+      <c r="AV35" s="199"/>
+      <c r="AW35" s="199"/>
+      <c r="AX35" s="199"/>
+      <c r="AY35" s="199"/>
+      <c r="AZ35" s="199"/>
+      <c r="BA35" s="199"/>
+      <c r="BB35" s="199"/>
+      <c r="BC35" s="199"/>
+      <c r="BD35" s="199"/>
+      <c r="BE35" s="199"/>
+      <c r="BF35" s="49" t="s">
         <v>7</v>
       </c>
       <c r="BG35" s="36"/>
@@ -7455,76 +7976,76 @@
       <c r="BN35"/>
       <c r="BO35"/>
       <c r="BP35"/>
-      <c r="BQ35" s="280"/>
-      <c r="BR35" s="281"/>
-      <c r="BS35" s="281"/>
-      <c r="BT35" s="281"/>
-      <c r="BU35" s="281"/>
-      <c r="BV35" s="281"/>
-      <c r="BW35" s="281"/>
-      <c r="BX35" s="281"/>
-      <c r="BY35" s="281"/>
-      <c r="BZ35" s="281"/>
-      <c r="CA35" s="281"/>
-      <c r="CB35" s="282"/>
+      <c r="BQ35" s="56"/>
+      <c r="BR35" s="57"/>
+      <c r="BS35" s="57"/>
+      <c r="BT35" s="57"/>
+      <c r="BU35" s="57"/>
+      <c r="BV35" s="57"/>
+      <c r="BW35" s="57"/>
+      <c r="BX35" s="57"/>
+      <c r="BY35" s="57"/>
+      <c r="BZ35" s="57"/>
+      <c r="CA35" s="57"/>
+      <c r="CB35" s="58"/>
     </row>
     <row r="36" spans="1:81" ht="12.75" customHeight="1">
       <c r="A36" s="20"/>
-      <c r="B36" s="283"/>
-      <c r="C36" s="284"/>
-      <c r="D36" s="287" t="s">
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="287"/>
-      <c r="F36" s="287"/>
-      <c r="G36" s="287"/>
-      <c r="H36" s="287"/>
-      <c r="I36" s="287"/>
-      <c r="J36" s="287"/>
-      <c r="K36" s="289"/>
-      <c r="L36" s="289"/>
-      <c r="M36" s="289"/>
-      <c r="N36" s="289"/>
-      <c r="O36" s="289"/>
-      <c r="P36" s="289"/>
-      <c r="Q36" s="289"/>
-      <c r="R36" s="289"/>
-      <c r="S36" s="289"/>
-      <c r="T36" s="289"/>
-      <c r="U36" s="289"/>
-      <c r="V36" s="289"/>
-      <c r="W36" s="289"/>
-      <c r="X36" s="289"/>
-      <c r="Y36" s="289"/>
-      <c r="Z36" s="289"/>
-      <c r="AA36" s="289"/>
-      <c r="AB36" s="290"/>
-      <c r="AG36" s="42"/>
-      <c r="AH36" s="42"/>
-      <c r="AI36" s="45"/>
-      <c r="AJ36" s="46"/>
-      <c r="AK36" s="46"/>
-      <c r="AL36" s="46"/>
-      <c r="AM36" s="46"/>
-      <c r="AN36" s="46"/>
-      <c r="AO36" s="46"/>
-      <c r="AP36" s="46"/>
-      <c r="AQ36" s="46"/>
-      <c r="AR36" s="46"/>
-      <c r="AS36" s="46"/>
-      <c r="AT36" s="46"/>
-      <c r="AU36" s="46"/>
-      <c r="AV36" s="46"/>
-      <c r="AW36" s="46"/>
-      <c r="AX36" s="46"/>
-      <c r="AY36" s="46"/>
-      <c r="AZ36" s="46"/>
-      <c r="BA36" s="46"/>
-      <c r="BB36" s="46"/>
-      <c r="BC36" s="46"/>
-      <c r="BD36" s="46"/>
-      <c r="BE36" s="46"/>
-      <c r="BF36" s="255"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="68"/>
+      <c r="Y36" s="68"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="69"/>
+      <c r="AG36" s="272"/>
+      <c r="AH36" s="272"/>
+      <c r="AI36" s="211"/>
+      <c r="AJ36" s="212"/>
+      <c r="AK36" s="212"/>
+      <c r="AL36" s="212"/>
+      <c r="AM36" s="212"/>
+      <c r="AN36" s="212"/>
+      <c r="AO36" s="212"/>
+      <c r="AP36" s="212"/>
+      <c r="AQ36" s="212"/>
+      <c r="AR36" s="212"/>
+      <c r="AS36" s="212"/>
+      <c r="AT36" s="212"/>
+      <c r="AU36" s="212"/>
+      <c r="AV36" s="212"/>
+      <c r="AW36" s="212"/>
+      <c r="AX36" s="212"/>
+      <c r="AY36" s="212"/>
+      <c r="AZ36" s="212"/>
+      <c r="BA36" s="212"/>
+      <c r="BB36" s="212"/>
+      <c r="BC36" s="212"/>
+      <c r="BD36" s="212"/>
+      <c r="BE36" s="212"/>
+      <c r="BF36" s="84"/>
       <c r="BG36" s="9"/>
       <c r="BH36" s="9"/>
       <c r="BI36" s="38"/>
@@ -7532,78 +8053,78 @@
       <c r="BN36"/>
       <c r="BO36"/>
       <c r="BP36"/>
-      <c r="BQ36" s="280"/>
-      <c r="BR36" s="281"/>
-      <c r="BS36" s="281"/>
-      <c r="BT36" s="281"/>
-      <c r="BU36" s="281"/>
-      <c r="BV36" s="281"/>
-      <c r="BW36" s="281"/>
-      <c r="BX36" s="281"/>
-      <c r="BY36" s="281"/>
-      <c r="BZ36" s="281"/>
-      <c r="CA36" s="281"/>
-      <c r="CB36" s="282"/>
+      <c r="BQ36" s="56"/>
+      <c r="BR36" s="57"/>
+      <c r="BS36" s="57"/>
+      <c r="BT36" s="57"/>
+      <c r="BU36" s="57"/>
+      <c r="BV36" s="57"/>
+      <c r="BW36" s="57"/>
+      <c r="BX36" s="57"/>
+      <c r="BY36" s="57"/>
+      <c r="BZ36" s="57"/>
+      <c r="CA36" s="57"/>
+      <c r="CB36" s="58"/>
     </row>
     <row r="37" spans="1:81" ht="12.75" customHeight="1">
       <c r="A37"/>
-      <c r="B37" s="285"/>
-      <c r="C37" s="286"/>
-      <c r="D37" s="288"/>
-      <c r="E37" s="288"/>
-      <c r="F37" s="288"/>
-      <c r="G37" s="288"/>
-      <c r="H37" s="288"/>
-      <c r="I37" s="288"/>
-      <c r="J37" s="288"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="64"/>
-      <c r="AA37" s="64"/>
-      <c r="AB37" s="291"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="70"/>
+      <c r="V37" s="70"/>
+      <c r="W37" s="70"/>
+      <c r="X37" s="70"/>
+      <c r="Y37" s="70"/>
+      <c r="Z37" s="70"/>
+      <c r="AA37" s="70"/>
+      <c r="AB37" s="71"/>
       <c r="AC37"/>
       <c r="AD37"/>
       <c r="AE37"/>
       <c r="AF37"/>
-      <c r="AG37" s="42"/>
-      <c r="AH37" s="42"/>
-      <c r="AI37" s="47"/>
-      <c r="AJ37" s="48"/>
-      <c r="AK37" s="48"/>
-      <c r="AL37" s="48"/>
-      <c r="AM37" s="48"/>
-      <c r="AN37" s="48"/>
-      <c r="AO37" s="48"/>
-      <c r="AP37" s="48"/>
-      <c r="AQ37" s="48"/>
-      <c r="AR37" s="48"/>
-      <c r="AS37" s="48"/>
-      <c r="AT37" s="48"/>
-      <c r="AU37" s="48"/>
-      <c r="AV37" s="48"/>
-      <c r="AW37" s="48"/>
-      <c r="AX37" s="48"/>
-      <c r="AY37" s="48"/>
-      <c r="AZ37" s="48"/>
-      <c r="BA37" s="48"/>
-      <c r="BB37" s="48"/>
-      <c r="BC37" s="48"/>
-      <c r="BD37" s="48"/>
-      <c r="BE37" s="48"/>
-      <c r="BF37" s="256"/>
+      <c r="AG37" s="272"/>
+      <c r="AH37" s="272"/>
+      <c r="AI37" s="200"/>
+      <c r="AJ37" s="105"/>
+      <c r="AK37" s="105"/>
+      <c r="AL37" s="105"/>
+      <c r="AM37" s="105"/>
+      <c r="AN37" s="105"/>
+      <c r="AO37" s="105"/>
+      <c r="AP37" s="105"/>
+      <c r="AQ37" s="105"/>
+      <c r="AR37" s="105"/>
+      <c r="AS37" s="105"/>
+      <c r="AT37" s="105"/>
+      <c r="AU37" s="105"/>
+      <c r="AV37" s="105"/>
+      <c r="AW37" s="105"/>
+      <c r="AX37" s="105"/>
+      <c r="AY37" s="105"/>
+      <c r="AZ37" s="105"/>
+      <c r="BA37" s="105"/>
+      <c r="BB37" s="105"/>
+      <c r="BC37" s="105"/>
+      <c r="BD37" s="105"/>
+      <c r="BE37" s="105"/>
+      <c r="BF37" s="85"/>
       <c r="BG37" s="26"/>
       <c r="BH37" s="26"/>
       <c r="BI37" s="27"/>
@@ -7614,18 +8135,18 @@
       <c r="BN37"/>
       <c r="BO37"/>
       <c r="BP37"/>
-      <c r="BQ37" s="229"/>
-      <c r="BR37" s="230"/>
-      <c r="BS37" s="230"/>
-      <c r="BT37" s="230"/>
-      <c r="BU37" s="230"/>
-      <c r="BV37" s="230"/>
-      <c r="BW37" s="230"/>
-      <c r="BX37" s="230"/>
-      <c r="BY37" s="230"/>
-      <c r="BZ37" s="230"/>
-      <c r="CA37" s="230"/>
-      <c r="CB37" s="231"/>
+      <c r="BQ37" s="59"/>
+      <c r="BR37" s="60"/>
+      <c r="BS37" s="60"/>
+      <c r="BT37" s="60"/>
+      <c r="BU37" s="60"/>
+      <c r="BV37" s="60"/>
+      <c r="BW37" s="60"/>
+      <c r="BX37" s="60"/>
+      <c r="BY37" s="60"/>
+      <c r="BZ37" s="60"/>
+      <c r="CA37" s="60"/>
+      <c r="CB37" s="61"/>
       <c r="CC37"/>
     </row>
     <row r="38" spans="1:81" ht="17.25" customHeight="1">
@@ -10467,6 +10988,145 @@
     </row>
   </sheetData>
   <mergeCells count="163">
+    <mergeCell ref="AU31:BN31"/>
+    <mergeCell ref="E19:AJ19"/>
+    <mergeCell ref="AG33:AH37"/>
+    <mergeCell ref="AI35:BE37"/>
+    <mergeCell ref="AB9:AD11"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="AD14:AG15"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="V9:W11"/>
+    <mergeCell ref="E14:J15"/>
+    <mergeCell ref="N9:O11"/>
+    <mergeCell ref="R9:S11"/>
+    <mergeCell ref="T9:U11"/>
+    <mergeCell ref="AS20:AT20"/>
+    <mergeCell ref="E27:G28"/>
+    <mergeCell ref="BH27:BJ28"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H23:U23"/>
+    <mergeCell ref="AK21:AL22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="A6:B28"/>
+    <mergeCell ref="Z25:AA26"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="BD8:BI8"/>
+    <mergeCell ref="AE9:AH9"/>
+    <mergeCell ref="H10:M11"/>
+    <mergeCell ref="BK27:CD28"/>
+    <mergeCell ref="H24:I26"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="L24:M26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="T24:U26"/>
+    <mergeCell ref="R24:S26"/>
+    <mergeCell ref="AJ24:BM24"/>
+    <mergeCell ref="J12:M13"/>
+    <mergeCell ref="BN23:CB23"/>
+    <mergeCell ref="AR7:AS8"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="E20:AB20"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="BN24:BP26"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E9:G11"/>
+    <mergeCell ref="V23:BM23"/>
+    <mergeCell ref="AF25:BM26"/>
+    <mergeCell ref="AE10:CB11"/>
+    <mergeCell ref="N12:CB13"/>
+    <mergeCell ref="N27:BG28"/>
+    <mergeCell ref="CA6:CB8"/>
+    <mergeCell ref="AG21:AH22"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="V7:W8"/>
+    <mergeCell ref="V6:AS6"/>
+    <mergeCell ref="BG20:BO20"/>
+    <mergeCell ref="AM21:AN22"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="BJ6:BZ6"/>
+    <mergeCell ref="BQ7:BR8"/>
+    <mergeCell ref="BU7:BV8"/>
+    <mergeCell ref="BW7:BX8"/>
+    <mergeCell ref="BY7:BZ8"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C6:D28"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="AO21:AP22"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="AS21:AW22"/>
+    <mergeCell ref="Q7:U8"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="BY2:CC2"/>
+    <mergeCell ref="BT2:BX2"/>
+    <mergeCell ref="BN2:BS2"/>
+    <mergeCell ref="BI2:BM2"/>
+    <mergeCell ref="BN3:BS4"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="BY3:CC4"/>
+    <mergeCell ref="W4:AH4"/>
+    <mergeCell ref="W3:AH3"/>
+    <mergeCell ref="AK3:BB4"/>
+    <mergeCell ref="BI3:BM4"/>
+    <mergeCell ref="BJ7:BM8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="BT3:BX4"/>
+    <mergeCell ref="BS7:BT8"/>
+    <mergeCell ref="BI21:BO22"/>
+    <mergeCell ref="AH14:BM15"/>
+    <mergeCell ref="AA14:AC15"/>
+    <mergeCell ref="BA20:BF20"/>
+    <mergeCell ref="AT6:BI6"/>
+    <mergeCell ref="BN7:BP8"/>
+    <mergeCell ref="BB7:BI7"/>
+    <mergeCell ref="AC21:AF22"/>
+    <mergeCell ref="AI9:CB9"/>
+    <mergeCell ref="AQ21:AR22"/>
+    <mergeCell ref="AN18:BW19"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="AI21:AJ22"/>
+    <mergeCell ref="AZ21:BF22"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="K14:N15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="AV7:BA7"/>
+    <mergeCell ref="AV8:BA8"/>
+    <mergeCell ref="BB8:BC8"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="AC20:AR20"/>
+    <mergeCell ref="E23:G26"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="I21:J22"/>
     <mergeCell ref="CA24:CB26"/>
     <mergeCell ref="BY24:BZ26"/>
     <mergeCell ref="V25:W26"/>
@@ -10491,145 +11151,6 @@
     <mergeCell ref="B31:AB31"/>
     <mergeCell ref="BF35:BF37"/>
     <mergeCell ref="BS24:BT26"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="E12:G13"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AZ21:BF22"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="K14:N15"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="AV7:BA7"/>
-    <mergeCell ref="AV8:BA8"/>
-    <mergeCell ref="BB8:BC8"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="AC20:AR20"/>
-    <mergeCell ref="E23:G26"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="BT3:BX4"/>
-    <mergeCell ref="BS7:BT8"/>
-    <mergeCell ref="BI21:BO22"/>
-    <mergeCell ref="AH14:BM15"/>
-    <mergeCell ref="AA14:AC15"/>
-    <mergeCell ref="BA20:BF20"/>
-    <mergeCell ref="AT6:BI6"/>
-    <mergeCell ref="BN7:BP8"/>
-    <mergeCell ref="BB7:BI7"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="BY2:CC2"/>
-    <mergeCell ref="BT2:BX2"/>
-    <mergeCell ref="BN2:BS2"/>
-    <mergeCell ref="BI2:BM2"/>
-    <mergeCell ref="BN3:BS4"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="BY3:CC4"/>
-    <mergeCell ref="W4:AH4"/>
-    <mergeCell ref="W3:AH3"/>
-    <mergeCell ref="AK3:BB4"/>
-    <mergeCell ref="BI3:BM4"/>
-    <mergeCell ref="BJ7:BM8"/>
-    <mergeCell ref="AC21:AF22"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="AI9:CB9"/>
-    <mergeCell ref="AQ21:AR22"/>
-    <mergeCell ref="AN18:BW19"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="BJ6:BZ6"/>
-    <mergeCell ref="BQ7:BR8"/>
-    <mergeCell ref="BU7:BV8"/>
-    <mergeCell ref="BW7:BX8"/>
-    <mergeCell ref="BY7:BZ8"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C6:D28"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="AO21:AP22"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="AS21:AW22"/>
-    <mergeCell ref="Q7:U8"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="E9:G11"/>
-    <mergeCell ref="V23:BM23"/>
-    <mergeCell ref="AF25:BM26"/>
-    <mergeCell ref="AE10:CB11"/>
-    <mergeCell ref="N12:CB13"/>
-    <mergeCell ref="N27:BG28"/>
-    <mergeCell ref="CA6:CB8"/>
-    <mergeCell ref="AG21:AH22"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="V7:W8"/>
-    <mergeCell ref="V6:AS6"/>
-    <mergeCell ref="BG20:BO20"/>
-    <mergeCell ref="AM21:AN22"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="A6:B28"/>
-    <mergeCell ref="Z25:AA26"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="BD8:BI8"/>
-    <mergeCell ref="AE9:AH9"/>
-    <mergeCell ref="H10:M11"/>
-    <mergeCell ref="BK27:CD28"/>
-    <mergeCell ref="H24:I26"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="T24:U26"/>
-    <mergeCell ref="R24:S26"/>
-    <mergeCell ref="AJ24:BM24"/>
-    <mergeCell ref="J12:M13"/>
-    <mergeCell ref="BN23:CB23"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="E20:AB20"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="BN24:BP26"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="AU31:BN31"/>
-    <mergeCell ref="E19:AJ19"/>
-    <mergeCell ref="AG33:AH37"/>
-    <mergeCell ref="AI35:BE37"/>
-    <mergeCell ref="AB9:AD11"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="W21:X22"/>
-    <mergeCell ref="AD14:AG15"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="V9:W11"/>
-    <mergeCell ref="E14:J15"/>
-    <mergeCell ref="N9:O11"/>
-    <mergeCell ref="R9:S11"/>
-    <mergeCell ref="T9:U11"/>
-    <mergeCell ref="AS20:AT20"/>
-    <mergeCell ref="E27:G28"/>
-    <mergeCell ref="BH27:BJ28"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H23:U23"/>
-    <mergeCell ref="AK21:AL22"/>
-    <mergeCell ref="Y21:Z22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.51181102362204722"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
@@ -1,109 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F994E2A-C327-43C7-81C1-C88C15DDBDC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="被保険者住所変更届（一枚目）" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="A1_1_1">'被保険者住所変更届（一枚目）'!$V$7</definedName>
-    <definedName name="A1_1_10">'被保険者住所変更届（一枚目）'!$AN$7</definedName>
-    <definedName name="A1_1_11">'被保険者住所変更届（一枚目）'!$AP$7</definedName>
-    <definedName name="A1_1_12">'被保険者住所変更届（一枚目）'!$AR$7</definedName>
-    <definedName name="A1_1_2">'被保険者住所変更届（一枚目）'!$X$7</definedName>
-    <definedName name="A1_1_3">'被保険者住所変更届（一枚目）'!$Z$7</definedName>
-    <definedName name="A1_1_4">'被保険者住所変更届（一枚目）'!$AB$7</definedName>
-    <definedName name="A1_1_5">'被保険者住所変更届（一枚目）'!$AD$7</definedName>
-    <definedName name="A1_1_6">'被保険者住所変更届（一枚目）'!$AF$7</definedName>
-    <definedName name="A1_1_7">'被保険者住所変更届（一枚目）'!$AH$7</definedName>
-    <definedName name="A1_1_8">'被保険者住所変更届（一枚目）'!$AJ$7</definedName>
-    <definedName name="A1_1_9">'被保険者住所変更届（一枚目）'!$AL$7</definedName>
-    <definedName name="A1_10_1">'被保険者住所変更届（一枚目）'!$O$14</definedName>
-    <definedName name="A1_10_2">'被保険者住所変更届（一枚目）'!$Q$14</definedName>
-    <definedName name="A1_10_3">'被保険者住所変更届（一枚目）'!$S$14</definedName>
-    <definedName name="A1_10_4">'被保険者住所変更届（一枚目）'!$U$14</definedName>
-    <definedName name="A1_10_5">'被保険者住所変更届（一枚目）'!$W$14</definedName>
-    <definedName name="A1_10_6">'被保険者住所変更届（一枚目）'!$Y$14</definedName>
-    <definedName name="A1_2">'被保険者住所変更届（一枚目）'!$AV$7</definedName>
-    <definedName name="A1_3">'被保険者住所変更届（一枚目）'!$BB$7</definedName>
-    <definedName name="A1_4">'被保険者住所変更届（一枚目）'!$AV$8</definedName>
-    <definedName name="A1_5">'被保険者住所変更届（一枚目）'!$BD$8</definedName>
-    <definedName name="A1_54_1">'被保険者住所変更届（一枚目）'!$BN$7</definedName>
-    <definedName name="A1_54_2">'被保険者住所変更届（一枚目）'!$BQ$7</definedName>
-    <definedName name="A1_54_3">'被保険者住所変更届（一枚目）'!$BS$7</definedName>
-    <definedName name="A1_54_4">'被保険者住所変更届（一枚目）'!$BU$7</definedName>
-    <definedName name="A1_54_5">'被保険者住所変更届（一枚目）'!$BW$7</definedName>
-    <definedName name="A1_54_6">'被保険者住所変更届（一枚目）'!$BY$7</definedName>
-    <definedName name="A1_6_1">'被保険者住所変更届（一枚目）'!$N$9</definedName>
-    <definedName name="A1_6_2">'被保険者住所変更届（一枚目）'!$P$9</definedName>
-    <definedName name="A1_6_3">'被保険者住所変更届（一枚目）'!$R$9</definedName>
-    <definedName name="A1_6_4">'被保険者住所変更届（一枚目）'!$T$9</definedName>
-    <definedName name="A1_6_5">'被保険者住所変更届（一枚目）'!$V$9</definedName>
-    <definedName name="A1_6_6">'被保険者住所変更届（一枚目）'!$X$9</definedName>
-    <definedName name="A1_6_7">'被保険者住所変更届（一枚目）'!$Z$9</definedName>
-    <definedName name="A1_7">'被保険者住所変更届（一枚目）'!$AI$9</definedName>
-    <definedName name="A1_8">'被保険者住所変更届（一枚目）'!$AE$10</definedName>
-    <definedName name="A1_9">'被保険者住所変更届（一枚目）'!$N$12</definedName>
-    <definedName name="A2_10_1">'被保険者住所変更届（一枚目）'!$H$24</definedName>
-    <definedName name="A2_10_2">'被保険者住所変更届（一枚目）'!$J$24</definedName>
-    <definedName name="A2_10_3">'被保険者住所変更届（一枚目）'!$L$24</definedName>
-    <definedName name="A2_10_4">'被保険者住所変更届（一枚目）'!$N$24</definedName>
-    <definedName name="A2_10_5">'被保険者住所変更届（一枚目）'!$P$24</definedName>
-    <definedName name="A2_10_6">'被保険者住所変更届（一枚目）'!$R$24</definedName>
-    <definedName name="A2_10_7">'被保険者住所変更届（一枚目）'!$T$24</definedName>
-    <definedName name="A2_11">'被保険者住所変更届（一枚目）'!$AJ$24</definedName>
-    <definedName name="A2_12">'被保険者住所変更届（一枚目）'!$AF$25</definedName>
-    <definedName name="A2_13_1">'被保険者住所変更届（一枚目）'!$BQ$24</definedName>
-    <definedName name="A2_13_2">'被保険者住所変更届（一枚目）'!$BS$24</definedName>
-    <definedName name="A2_13_3">'被保険者住所変更届（一枚目）'!$BU$24</definedName>
-    <definedName name="A2_13_4">'被保険者住所変更届（一枚目）'!$BW$24</definedName>
-    <definedName name="A2_13_5">'被保険者住所変更届（一枚目）'!$BY$24</definedName>
-    <definedName name="A2_13_6">'被保険者住所変更届（一枚目）'!$CA$24</definedName>
-    <definedName name="A2_14">'被保険者住所変更届（一枚目）'!$N$27</definedName>
-    <definedName name="A2_2_1">'被保険者住所変更届（一枚目）'!$E$21</definedName>
-    <definedName name="A2_2_10">'被保険者住所変更届（一枚目）'!$W$21</definedName>
-    <definedName name="A2_2_11">'被保険者住所変更届（一枚目）'!$Y$21</definedName>
-    <definedName name="A2_2_12">'被保険者住所変更届（一枚目）'!$AA$21</definedName>
-    <definedName name="A2_2_2">'被保険者住所変更届（一枚目）'!$G$21</definedName>
-    <definedName name="A2_2_3">'被保険者住所変更届（一枚目）'!$I$21</definedName>
-    <definedName name="A2_2_4">'被保険者住所変更届（一枚目）'!$K$21</definedName>
-    <definedName name="A2_2_5">'被保険者住所変更届（一枚目）'!$M$21</definedName>
-    <definedName name="A2_2_6">'被保険者住所変更届（一枚目）'!$O$21</definedName>
-    <definedName name="A2_2_7">'被保険者住所変更届（一枚目）'!$Q$21</definedName>
-    <definedName name="A2_2_8">'被保険者住所変更届（一枚目）'!$S$21</definedName>
-    <definedName name="A2_2_9">'被保険者住所変更届（一枚目）'!$U$21</definedName>
-    <definedName name="A2_5_1">'被保険者住所変更届（一枚目）'!$AG$21</definedName>
-    <definedName name="A2_5_2">'被保険者住所変更届（一枚目）'!$AI$21</definedName>
-    <definedName name="A2_5_3">'被保険者住所変更届（一枚目）'!$AK$21</definedName>
-    <definedName name="A2_5_4">'被保険者住所変更届（一枚目）'!$AM$21</definedName>
-    <definedName name="A2_5_5">'被保険者住所変更届（一枚目）'!$AO$21</definedName>
-    <definedName name="A2_5_6">'被保険者住所変更届（一枚目）'!$AQ$21</definedName>
-    <definedName name="A2_6">'被保険者住所変更届（一枚目）'!$BA$20</definedName>
-    <definedName name="A2_7">'被保険者住所変更届（一枚目）'!$BG$20</definedName>
-    <definedName name="A2_8">'被保険者住所変更届（一枚目）'!$AZ$21</definedName>
-    <definedName name="A2_9">'被保険者住所変更届（一枚目）'!$BI$21</definedName>
-    <definedName name="A3_1">'被保険者住所変更届（一枚目）'!$AU$31</definedName>
-    <definedName name="A3_2">'被保険者住所変更届（一枚目）'!$K$33</definedName>
-    <definedName name="A3_3">'被保険者住所変更届（一枚目）'!$K$34</definedName>
-    <definedName name="A3_4">'被保険者住所変更届（一枚目）'!$K$35</definedName>
-    <definedName name="A3_5">'被保険者住所変更届（一枚目）'!$K$36</definedName>
-    <definedName name="B1_1">'被保険者住所変更届（一枚目）'!$W$3</definedName>
-    <definedName name="B1_2">'被保険者住所変更届（一枚目）'!$W$4</definedName>
-    <definedName name="B2_1_1">'被保険者住所変更届（一枚目）'!$E$8</definedName>
-    <definedName name="B2_1_2">'被保険者住所変更届（一枚目）'!$G$8</definedName>
-    <definedName name="B2_2_1">'被保険者住所変更届（一枚目）'!$I$7</definedName>
-    <definedName name="B2_2_2">'被保険者住所変更届（一枚目）'!$K$7</definedName>
-    <definedName name="B2_2_3">'被保険者住所変更届（一枚目）'!$M$7</definedName>
-    <definedName name="B2_2_4">'被保険者住所変更届（一枚目）'!$O$7</definedName>
-    <definedName name="B2_3">'被保険者住所変更届（一枚目）'!$Q$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'被保険者住所変更届（一枚目）'!$A$1:$CE$37</definedName>
+    <definedName name="A1_1_1">被保険者住所変更届（一枚目）!$V$7</definedName>
+    <definedName name="A1_1_10">被保険者住所変更届（一枚目）!$AN$7</definedName>
+    <definedName name="A1_1_11">被保険者住所変更届（一枚目）!$AP$7</definedName>
+    <definedName name="A1_1_12">被保険者住所変更届（一枚目）!$AR$7</definedName>
+    <definedName name="A1_1_2">被保険者住所変更届（一枚目）!$X$7</definedName>
+    <definedName name="A1_1_3">被保険者住所変更届（一枚目）!$Z$7</definedName>
+    <definedName name="A1_1_4">被保険者住所変更届（一枚目）!$AB$7</definedName>
+    <definedName name="A1_1_5">被保険者住所変更届（一枚目）!$AD$7</definedName>
+    <definedName name="A1_1_6">被保険者住所変更届（一枚目）!$AF$7</definedName>
+    <definedName name="A1_1_7">被保険者住所変更届（一枚目）!$AH$7</definedName>
+    <definedName name="A1_1_8">被保険者住所変更届（一枚目）!$AJ$7</definedName>
+    <definedName name="A1_1_9">被保険者住所変更届（一枚目）!$AL$7</definedName>
+    <definedName name="A1_10_1">被保険者住所変更届（一枚目）!$O$14</definedName>
+    <definedName name="A1_10_2">被保険者住所変更届（一枚目）!$Q$14</definedName>
+    <definedName name="A1_10_3">被保険者住所変更届（一枚目）!$S$14</definedName>
+    <definedName name="A1_10_4">被保険者住所変更届（一枚目）!$U$14</definedName>
+    <definedName name="A1_10_5">被保険者住所変更届（一枚目）!$W$14</definedName>
+    <definedName name="A1_10_6">被保険者住所変更届（一枚目）!$Y$14</definedName>
+    <definedName name="A1_2">被保険者住所変更届（一枚目）!$AV$7</definedName>
+    <definedName name="A1_3">被保険者住所変更届（一枚目）!$BB$7</definedName>
+    <definedName name="A1_4">被保険者住所変更届（一枚目）!$AV$8</definedName>
+    <definedName name="A1_5">被保険者住所変更届（一枚目）!$BD$8</definedName>
+    <definedName name="A1_54_1">被保険者住所変更届（一枚目）!$BN$7</definedName>
+    <definedName name="A1_54_2">被保険者住所変更届（一枚目）!$BQ$7</definedName>
+    <definedName name="A1_54_3">被保険者住所変更届（一枚目）!$BS$7</definedName>
+    <definedName name="A1_54_4">被保険者住所変更届（一枚目）!$BU$7</definedName>
+    <definedName name="A1_54_5">被保険者住所変更届（一枚目）!$BW$7</definedName>
+    <definedName name="A1_54_6">被保険者住所変更届（一枚目）!$BY$7</definedName>
+    <definedName name="A1_6_1">被保険者住所変更届（一枚目）!$N$9</definedName>
+    <definedName name="A1_6_2">被保険者住所変更届（一枚目）!$P$9</definedName>
+    <definedName name="A1_6_3">被保険者住所変更届（一枚目）!$R$9</definedName>
+    <definedName name="A1_6_4">被保険者住所変更届（一枚目）!$T$9</definedName>
+    <definedName name="A1_6_5">被保険者住所変更届（一枚目）!$V$9</definedName>
+    <definedName name="A1_6_6">被保険者住所変更届（一枚目）!$X$9</definedName>
+    <definedName name="A1_6_7">被保険者住所変更届（一枚目）!$Z$9</definedName>
+    <definedName name="A1_7">被保険者住所変更届（一枚目）!$AI$9</definedName>
+    <definedName name="A1_8">被保険者住所変更届（一枚目）!$AE$10</definedName>
+    <definedName name="A1_9">被保険者住所変更届（一枚目）!$N$12</definedName>
+    <definedName name="A2_10_1">被保険者住所変更届（一枚目）!$H$24</definedName>
+    <definedName name="A2_10_2">被保険者住所変更届（一枚目）!$J$24</definedName>
+    <definedName name="A2_10_3">被保険者住所変更届（一枚目）!$L$24</definedName>
+    <definedName name="A2_10_4">被保険者住所変更届（一枚目）!$N$24</definedName>
+    <definedName name="A2_10_5">被保険者住所変更届（一枚目）!$P$24</definedName>
+    <definedName name="A2_10_6">被保険者住所変更届（一枚目）!$R$24</definedName>
+    <definedName name="A2_10_7">被保険者住所変更届（一枚目）!$T$24</definedName>
+    <definedName name="A2_11">被保険者住所変更届（一枚目）!$AJ$24</definedName>
+    <definedName name="A2_12">被保険者住所変更届（一枚目）!$AF$25</definedName>
+    <definedName name="A2_13_1">被保険者住所変更届（一枚目）!$BQ$24</definedName>
+    <definedName name="A2_13_2">被保険者住所変更届（一枚目）!$BS$24</definedName>
+    <definedName name="A2_13_3">被保険者住所変更届（一枚目）!$BU$24</definedName>
+    <definedName name="A2_13_4">被保険者住所変更届（一枚目）!$BW$24</definedName>
+    <definedName name="A2_13_5">被保険者住所変更届（一枚目）!$BY$24</definedName>
+    <definedName name="A2_13_6">被保険者住所変更届（一枚目）!$CA$24</definedName>
+    <definedName name="A2_14">被保険者住所変更届（一枚目）!$N$27</definedName>
+    <definedName name="A2_2_1">被保険者住所変更届（一枚目）!$E$21</definedName>
+    <definedName name="A2_2_10">被保険者住所変更届（一枚目）!$W$21</definedName>
+    <definedName name="A2_2_11">被保険者住所変更届（一枚目）!$Y$21</definedName>
+    <definedName name="A2_2_12">被保険者住所変更届（一枚目）!$AA$21</definedName>
+    <definedName name="A2_2_2">被保険者住所変更届（一枚目）!$G$21</definedName>
+    <definedName name="A2_2_3">被保険者住所変更届（一枚目）!$I$21</definedName>
+    <definedName name="A2_2_4">被保険者住所変更届（一枚目）!$K$21</definedName>
+    <definedName name="A2_2_5">被保険者住所変更届（一枚目）!$M$21</definedName>
+    <definedName name="A2_2_6">被保険者住所変更届（一枚目）!$O$21</definedName>
+    <definedName name="A2_2_7">被保険者住所変更届（一枚目）!$Q$21</definedName>
+    <definedName name="A2_2_8">被保険者住所変更届（一枚目）!$S$21</definedName>
+    <definedName name="A2_2_9">被保険者住所変更届（一枚目）!$U$21</definedName>
+    <definedName name="A2_5_1">被保険者住所変更届（一枚目）!$AG$21</definedName>
+    <definedName name="A2_5_2">被保険者住所変更届（一枚目）!$AI$21</definedName>
+    <definedName name="A2_5_3">被保険者住所変更届（一枚目）!$AK$21</definedName>
+    <definedName name="A2_5_4">被保険者住所変更届（一枚目）!$AM$21</definedName>
+    <definedName name="A2_5_5">被保険者住所変更届（一枚目）!$AO$21</definedName>
+    <definedName name="A2_5_6">被保険者住所変更届（一枚目）!$AQ$21</definedName>
+    <definedName name="A2_6">被保険者住所変更届（一枚目）!$BA$20</definedName>
+    <definedName name="A2_7">被保険者住所変更届（一枚目）!$BG$20</definedName>
+    <definedName name="A2_8">被保険者住所変更届（一枚目）!$AZ$21</definedName>
+    <definedName name="A2_9">被保険者住所変更届（一枚目）!$BI$21</definedName>
+    <definedName name="A3_1">被保険者住所変更届（一枚目）!$AU$31</definedName>
+    <definedName name="A3_2">被保険者住所変更届（一枚目）!$K$33</definedName>
+    <definedName name="A3_3">被保険者住所変更届（一枚目）!$K$34</definedName>
+    <definedName name="A3_4">被保険者住所変更届（一枚目）!$K$35</definedName>
+    <definedName name="A3_5">被保険者住所変更届（一枚目）!$K$36</definedName>
+    <definedName name="B1_1">被保険者住所変更届（一枚目）!$W$3</definedName>
+    <definedName name="B1_2">被保険者住所変更届（一枚目）!$W$4</definedName>
+    <definedName name="B2_1_1">被保険者住所変更届（一枚目）!$E$8</definedName>
+    <definedName name="B2_1_2">被保険者住所変更届（一枚目）!$G$8</definedName>
+    <definedName name="B2_2_1">被保険者住所変更届（一枚目）!$I$7</definedName>
+    <definedName name="B2_2_2">被保険者住所変更届（一枚目）!$K$7</definedName>
+    <definedName name="B2_2_3">被保険者住所変更届（一枚目）!$M$7</definedName>
+    <definedName name="B2_2_4">被保険者住所変更届（一枚目）!$O$7</definedName>
+    <definedName name="B2_3">被保険者住所変更届（一枚目）!$Q$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">被保険者住所変更届（一枚目）!$A$1:$CE$37</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -358,20 +357,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>②被保険者
- 　整理番号</t>
-    <rPh sb="1" eb="5">
-      <t>ヒホケンシャ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セイリ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(氏）</t>
     <rPh sb="1" eb="2">
       <t>シ</t>
@@ -382,23 +367,6 @@
     <t>(名）</t>
     <rPh sb="1" eb="2">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>事務センター長
-所　　　　　　 長</t>
-    <rPh sb="0" eb="2">
-      <t>ジム</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>チョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -629,13 +597,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　被保険者の個人番号に誤りがないことを確認しました。</t>
-    <rPh sb="1" eb="5">
-      <t>ヒホケンシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>同居の場合は、下記の□欄に「レ」等のしるしを付してください。</t>
     </r>
@@ -697,139 +658,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">      短期在留　　  　住民票住所以外の居所</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>注１</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　
-    　海外居住　     　その他（　　　　　　　　　　　　　）</t>
-    </r>
-    <rPh sb="6" eb="8">
-      <t>タンキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ザイリュウ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>　  　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>短期在留　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">　   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>住民票住所以外の居所</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>注１</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-　　  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>海外居住　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">　　 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>その他（　　　　　　　　　　）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐ明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>５.昭和
 ７.平成
 ９.令和</t>
@@ -862,12 +690,31 @@
   <si>
     <t>　　　　　　　　　　　（      被保険者と配偶者は同居している。）</t>
   </si>
+  <si>
+    <t>②被保険者
+ 整理番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   短期在留　　 住民票住所以外の居所注１　
+   海外居住     その他（　　　　　　　　　）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   短期在留　　住民票住所以外の居所注１　
+   海外居住    その他（　　　　　　　　）  </t>
+  </si>
+  <si>
+    <t>　被保険者の個人番号に誤りがないことを確認しました。</t>
+  </si>
+  <si>
+    <t>事務センター長
+所　　　　　　 長</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -957,13 +804,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="18"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -977,26 +817,15 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="8.5"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐ明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2021,7 +1850,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2137,6 +1966,576 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2179,14 +2578,50 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2195,15 +2630,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2230,9 +2656,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2248,21 +2671,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2278,120 +2686,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2401,350 +2695,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2752,161 +2725,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3688,73 +3511,18 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>140806</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="217560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8189843" y="5427181"/>
-          <a:ext cx="184731" cy="217560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>62</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>61</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>64</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -3814,14 +3582,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>62</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>61</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>64</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -4011,61 +3779,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>140806</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="184731" cy="217560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8123168" y="5446231"/>
-          <a:ext cx="184731" cy="217560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -4395,16 +4108,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4419,7 +4132,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5772150" y="3162300"/>
+          <a:off x="6038850" y="3143250"/>
           <a:ext cx="1152525" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4671,7 +4384,7 @@
         <xdr:cNvPr id="29" name="A4_111">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DEB2338-D3CB-4154-8FB3-7D41728121BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4736,7 +4449,7 @@
         <xdr:cNvPr id="30" name="A4_113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80403C8D-E696-4B01-8E6B-211C6D96CC33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4801,7 +4514,7 @@
         <xdr:cNvPr id="31" name="A4_112">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D6ABCF-E413-4855-8701-76DDB87188B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4866,7 +4579,7 @@
         <xdr:cNvPr id="32" name="A4_114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F266783F-8A38-4523-9943-C53BB2566418}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4916,13 +4629,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>31146</xdr:rowOff>
     </xdr:to>
@@ -4931,7 +4644,7 @@
         <xdr:cNvPr id="33" name="A4_221">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2DACB2-A4BB-4AED-8D63-B65F1240E2F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4939,7 +4652,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7724775" y="5581650"/>
+          <a:off x="7696200" y="5581650"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4996,7 +4709,7 @@
         <xdr:cNvPr id="34" name="A4_222">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{347DB4C1-521E-478D-90B7-69D2E59B56B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5046,13 +4759,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>183546</xdr:rowOff>
     </xdr:to>
@@ -5061,7 +4774,7 @@
         <xdr:cNvPr id="35" name="A4_223">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB241D02-78E0-4D76-BA6B-2C082333B22A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5069,7 +4782,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7705725" y="5734050"/>
+          <a:off x="7696200" y="5734050"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5126,7 +4839,7 @@
         <xdr:cNvPr id="36" name="A4_224">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5148595A-3408-4E38-961B-A1A941C2F012}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5168,6 +4881,133 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>✔</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>135921</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="A4_1111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="3886200"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="A2_19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="5734050"/>
+          <a:ext cx="609600" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5252,23 +5092,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5304,23 +5127,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5496,12 +5302,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CE76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:CB13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BB32" sqref="BB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -5517,948 +5323,948 @@
   <sheetData>
     <row r="1" spans="1:81" ht="26.25" customHeight="1"/>
     <row r="2" spans="1:81" ht="20.25" customHeight="1">
-      <c r="A2" s="176"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="BI2" s="160" t="s">
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="BI2" s="184" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ2" s="180"/>
+      <c r="BK2" s="180"/>
+      <c r="BL2" s="180"/>
+      <c r="BM2" s="180"/>
+      <c r="BN2" s="181" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO2" s="182"/>
+      <c r="BP2" s="182"/>
+      <c r="BQ2" s="182"/>
+      <c r="BR2" s="182"/>
+      <c r="BS2" s="183"/>
+      <c r="BT2" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="BJ2" s="156"/>
-      <c r="BK2" s="156"/>
-      <c r="BL2" s="156"/>
-      <c r="BM2" s="156"/>
-      <c r="BN2" s="157" t="s">
+      <c r="BU2" s="180"/>
+      <c r="BV2" s="180"/>
+      <c r="BW2" s="180"/>
+      <c r="BX2" s="180"/>
+      <c r="BY2" s="177" t="s">
         <v>26</v>
       </c>
-      <c r="BO2" s="158"/>
-      <c r="BP2" s="158"/>
-      <c r="BQ2" s="158"/>
-      <c r="BR2" s="158"/>
-      <c r="BS2" s="159"/>
-      <c r="BT2" s="156" t="s">
+      <c r="BZ2" s="178"/>
+      <c r="CA2" s="178"/>
+      <c r="CB2" s="178"/>
+      <c r="CC2" s="179"/>
+    </row>
+    <row r="3" spans="1:81" ht="18" customHeight="1">
+      <c r="A3" s="151"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="W3" s="191"/>
+      <c r="X3" s="191"/>
+      <c r="Y3" s="191"/>
+      <c r="Z3" s="191"/>
+      <c r="AA3" s="191"/>
+      <c r="AB3" s="191"/>
+      <c r="AC3" s="191"/>
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="191"/>
+      <c r="AG3" s="191"/>
+      <c r="AH3" s="191"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="BU2" s="156"/>
-      <c r="BV2" s="156"/>
-      <c r="BW2" s="156"/>
-      <c r="BX2" s="156"/>
-      <c r="BY2" s="153" t="s">
-        <v>28</v>
-      </c>
-      <c r="BZ2" s="154"/>
-      <c r="CA2" s="154"/>
-      <c r="CB2" s="154"/>
-      <c r="CC2" s="155"/>
-    </row>
-    <row r="3" spans="1:81" ht="18" customHeight="1">
-      <c r="A3" s="176"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="164"/>
-      <c r="AA3" s="164"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="164"/>
-      <c r="AD3" s="164"/>
-      <c r="AE3" s="164"/>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="163" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL3" s="163"/>
-      <c r="AM3" s="163"/>
-      <c r="AN3" s="163"/>
-      <c r="AO3" s="163"/>
-      <c r="AP3" s="163"/>
-      <c r="AQ3" s="163"/>
-      <c r="AR3" s="163"/>
-      <c r="AS3" s="163"/>
-      <c r="AT3" s="163"/>
-      <c r="AU3" s="163"/>
-      <c r="AV3" s="163"/>
-      <c r="AW3" s="163"/>
-      <c r="AX3" s="163"/>
-      <c r="AY3" s="163"/>
-      <c r="AZ3" s="163"/>
-      <c r="BA3" s="163"/>
-      <c r="BB3" s="163"/>
+      <c r="AL3" s="190"/>
+      <c r="AM3" s="190"/>
+      <c r="AN3" s="190"/>
+      <c r="AO3" s="190"/>
+      <c r="AP3" s="190"/>
+      <c r="AQ3" s="190"/>
+      <c r="AR3" s="190"/>
+      <c r="AS3" s="190"/>
+      <c r="AT3" s="190"/>
+      <c r="AU3" s="190"/>
+      <c r="AV3" s="190"/>
+      <c r="AW3" s="190"/>
+      <c r="AX3" s="190"/>
+      <c r="AY3" s="190"/>
+      <c r="AZ3" s="190"/>
+      <c r="BA3" s="190"/>
+      <c r="BB3" s="190"/>
       <c r="BC3" s="6"/>
       <c r="BD3" s="6"/>
       <c r="BE3" s="6"/>
       <c r="BF3" s="6"/>
       <c r="BG3" s="6"/>
       <c r="BH3" s="7"/>
-      <c r="BI3" s="53"/>
-      <c r="BJ3" s="54"/>
-      <c r="BK3" s="54"/>
-      <c r="BL3" s="54"/>
-      <c r="BM3" s="55"/>
-      <c r="BN3" s="53"/>
-      <c r="BO3" s="54"/>
-      <c r="BP3" s="54"/>
-      <c r="BQ3" s="54"/>
-      <c r="BR3" s="54"/>
-      <c r="BS3" s="55"/>
-      <c r="BT3" s="53"/>
-      <c r="BU3" s="54"/>
-      <c r="BV3" s="54"/>
-      <c r="BW3" s="54"/>
-      <c r="BX3" s="55"/>
-      <c r="BY3" s="53"/>
-      <c r="BZ3" s="54"/>
-      <c r="CA3" s="54"/>
-      <c r="CB3" s="54"/>
-      <c r="CC3" s="55"/>
+      <c r="BI3" s="48"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="49"/>
+      <c r="BL3" s="49"/>
+      <c r="BM3" s="50"/>
+      <c r="BN3" s="48"/>
+      <c r="BO3" s="49"/>
+      <c r="BP3" s="49"/>
+      <c r="BQ3" s="49"/>
+      <c r="BR3" s="49"/>
+      <c r="BS3" s="50"/>
+      <c r="BT3" s="48"/>
+      <c r="BU3" s="49"/>
+      <c r="BV3" s="49"/>
+      <c r="BW3" s="49"/>
+      <c r="BX3" s="50"/>
+      <c r="BY3" s="48"/>
+      <c r="BZ3" s="49"/>
+      <c r="CA3" s="49"/>
+      <c r="CB3" s="49"/>
+      <c r="CC3" s="50"/>
     </row>
     <row r="4" spans="1:81" ht="18" customHeight="1">
-      <c r="W4" s="163"/>
-      <c r="X4" s="163"/>
-      <c r="Y4" s="163"/>
-      <c r="Z4" s="163"/>
-      <c r="AA4" s="163"/>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="163"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="163"/>
-      <c r="AF4" s="163"/>
-      <c r="AG4" s="163"/>
-      <c r="AH4" s="163"/>
+      <c r="W4" s="190"/>
+      <c r="X4" s="190"/>
+      <c r="Y4" s="190"/>
+      <c r="Z4" s="190"/>
+      <c r="AA4" s="190"/>
+      <c r="AB4" s="190"/>
+      <c r="AC4" s="190"/>
+      <c r="AD4" s="190"/>
+      <c r="AE4" s="190"/>
+      <c r="AF4" s="190"/>
+      <c r="AG4" s="190"/>
+      <c r="AH4" s="190"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="163"/>
-      <c r="AL4" s="163"/>
-      <c r="AM4" s="163"/>
-      <c r="AN4" s="163"/>
-      <c r="AO4" s="163"/>
-      <c r="AP4" s="163"/>
-      <c r="AQ4" s="163"/>
-      <c r="AR4" s="163"/>
-      <c r="AS4" s="163"/>
-      <c r="AT4" s="163"/>
-      <c r="AU4" s="163"/>
-      <c r="AV4" s="163"/>
-      <c r="AW4" s="163"/>
-      <c r="AX4" s="163"/>
-      <c r="AY4" s="163"/>
-      <c r="AZ4" s="163"/>
-      <c r="BA4" s="163"/>
-      <c r="BB4" s="163"/>
+      <c r="AK4" s="190"/>
+      <c r="AL4" s="190"/>
+      <c r="AM4" s="190"/>
+      <c r="AN4" s="190"/>
+      <c r="AO4" s="190"/>
+      <c r="AP4" s="190"/>
+      <c r="AQ4" s="190"/>
+      <c r="AR4" s="190"/>
+      <c r="AS4" s="190"/>
+      <c r="AT4" s="190"/>
+      <c r="AU4" s="190"/>
+      <c r="AV4" s="190"/>
+      <c r="AW4" s="190"/>
+      <c r="AX4" s="190"/>
+      <c r="AY4" s="190"/>
+      <c r="AZ4" s="190"/>
+      <c r="BA4" s="190"/>
+      <c r="BB4" s="190"/>
       <c r="BC4" s="6"/>
       <c r="BD4" s="6"/>
       <c r="BE4" s="6"/>
       <c r="BF4" s="6"/>
       <c r="BG4" s="6"/>
       <c r="BH4" s="7"/>
-      <c r="BI4" s="59"/>
-      <c r="BJ4" s="60"/>
-      <c r="BK4" s="60"/>
-      <c r="BL4" s="60"/>
-      <c r="BM4" s="61"/>
-      <c r="BN4" s="59"/>
-      <c r="BO4" s="60"/>
-      <c r="BP4" s="60"/>
-      <c r="BQ4" s="60"/>
-      <c r="BR4" s="60"/>
-      <c r="BS4" s="61"/>
-      <c r="BT4" s="59"/>
-      <c r="BU4" s="60"/>
-      <c r="BV4" s="60"/>
-      <c r="BW4" s="60"/>
-      <c r="BX4" s="61"/>
-      <c r="BY4" s="59"/>
-      <c r="BZ4" s="60"/>
-      <c r="CA4" s="60"/>
-      <c r="CB4" s="60"/>
-      <c r="CC4" s="61"/>
+      <c r="BI4" s="185"/>
+      <c r="BJ4" s="186"/>
+      <c r="BK4" s="186"/>
+      <c r="BL4" s="186"/>
+      <c r="BM4" s="187"/>
+      <c r="BN4" s="185"/>
+      <c r="BO4" s="186"/>
+      <c r="BP4" s="186"/>
+      <c r="BQ4" s="186"/>
+      <c r="BR4" s="186"/>
+      <c r="BS4" s="187"/>
+      <c r="BT4" s="185"/>
+      <c r="BU4" s="186"/>
+      <c r="BV4" s="186"/>
+      <c r="BW4" s="186"/>
+      <c r="BX4" s="187"/>
+      <c r="BY4" s="185"/>
+      <c r="BZ4" s="186"/>
+      <c r="CA4" s="186"/>
+      <c r="CB4" s="186"/>
+      <c r="CC4" s="187"/>
     </row>
     <row r="5" spans="1:81" ht="9" customHeight="1"/>
     <row r="6" spans="1:81" ht="24" customHeight="1">
-      <c r="A6" s="230" t="s">
+      <c r="A6" s="286" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="230"/>
-      <c r="C6" s="188" t="s">
+      <c r="B6" s="286"/>
+      <c r="C6" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="188"/>
-      <c r="E6" s="183" t="s">
+      <c r="D6" s="166"/>
+      <c r="E6" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="183"/>
-      <c r="L6" s="183"/>
-      <c r="M6" s="183"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="183"/>
-      <c r="P6" s="183"/>
-      <c r="Q6" s="223" t="s">
-        <v>22</v>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="161"/>
+      <c r="Q6" s="288" t="s">
+        <v>56</v>
       </c>
-      <c r="R6" s="224"/>
-      <c r="S6" s="224"/>
-      <c r="T6" s="224"/>
-      <c r="U6" s="224"/>
-      <c r="V6" s="121" t="s">
-        <v>45</v>
+      <c r="R6" s="289"/>
+      <c r="S6" s="289"/>
+      <c r="T6" s="289"/>
+      <c r="U6" s="289"/>
+      <c r="V6" s="97" t="s">
+        <v>43</v>
       </c>
-      <c r="W6" s="122"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="122"/>
-      <c r="AB6" s="122"/>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122"/>
-      <c r="AH6" s="122"/>
-      <c r="AI6" s="122"/>
-      <c r="AJ6" s="122"/>
-      <c r="AK6" s="122"/>
-      <c r="AL6" s="122"/>
-      <c r="AM6" s="122"/>
-      <c r="AN6" s="122"/>
-      <c r="AO6" s="122"/>
-      <c r="AP6" s="122"/>
-      <c r="AQ6" s="122"/>
-      <c r="AR6" s="122"/>
-      <c r="AS6" s="123"/>
-      <c r="AT6" s="122" t="s">
-        <v>44</v>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="98"/>
+      <c r="AH6" s="98"/>
+      <c r="AI6" s="98"/>
+      <c r="AJ6" s="98"/>
+      <c r="AK6" s="98"/>
+      <c r="AL6" s="98"/>
+      <c r="AM6" s="98"/>
+      <c r="AN6" s="98"/>
+      <c r="AO6" s="98"/>
+      <c r="AP6" s="98"/>
+      <c r="AQ6" s="98"/>
+      <c r="AR6" s="98"/>
+      <c r="AS6" s="99"/>
+      <c r="AT6" s="98" t="s">
+        <v>42</v>
       </c>
-      <c r="AU6" s="122"/>
-      <c r="AV6" s="122"/>
-      <c r="AW6" s="122"/>
-      <c r="AX6" s="122"/>
-      <c r="AY6" s="122"/>
-      <c r="AZ6" s="122"/>
-      <c r="BA6" s="122"/>
-      <c r="BB6" s="122"/>
-      <c r="BC6" s="122"/>
-      <c r="BD6" s="122"/>
-      <c r="BE6" s="122"/>
-      <c r="BF6" s="122"/>
-      <c r="BG6" s="122"/>
-      <c r="BH6" s="122"/>
-      <c r="BI6" s="123"/>
-      <c r="BJ6" s="53" t="s">
+      <c r="AU6" s="98"/>
+      <c r="AV6" s="98"/>
+      <c r="AW6" s="98"/>
+      <c r="AX6" s="98"/>
+      <c r="AY6" s="98"/>
+      <c r="AZ6" s="98"/>
+      <c r="BA6" s="98"/>
+      <c r="BB6" s="98"/>
+      <c r="BC6" s="98"/>
+      <c r="BD6" s="98"/>
+      <c r="BE6" s="98"/>
+      <c r="BF6" s="98"/>
+      <c r="BG6" s="98"/>
+      <c r="BH6" s="98"/>
+      <c r="BI6" s="99"/>
+      <c r="BJ6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="BK6" s="54"/>
-      <c r="BL6" s="54"/>
-      <c r="BM6" s="54"/>
-      <c r="BN6" s="54"/>
-      <c r="BO6" s="54"/>
-      <c r="BP6" s="54"/>
-      <c r="BQ6" s="54"/>
-      <c r="BR6" s="54"/>
-      <c r="BS6" s="54"/>
-      <c r="BT6" s="54"/>
-      <c r="BU6" s="54"/>
-      <c r="BV6" s="54"/>
-      <c r="BW6" s="54"/>
-      <c r="BX6" s="54"/>
-      <c r="BY6" s="54"/>
-      <c r="BZ6" s="55"/>
-      <c r="CA6" s="220"/>
-      <c r="CB6" s="221"/>
+      <c r="BK6" s="49"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="49"/>
+      <c r="BN6" s="49"/>
+      <c r="BO6" s="49"/>
+      <c r="BP6" s="49"/>
+      <c r="BQ6" s="49"/>
+      <c r="BR6" s="49"/>
+      <c r="BS6" s="49"/>
+      <c r="BT6" s="49"/>
+      <c r="BU6" s="49"/>
+      <c r="BV6" s="49"/>
+      <c r="BW6" s="49"/>
+      <c r="BX6" s="49"/>
+      <c r="BY6" s="49"/>
+      <c r="BZ6" s="50"/>
+      <c r="CA6" s="194"/>
+      <c r="CB6" s="195"/>
       <c r="CC6" s="10"/>
     </row>
     <row r="7" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A7" s="230"/>
-      <c r="B7" s="230"/>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="184"/>
-      <c r="Q7" s="198"/>
-      <c r="R7" s="199"/>
-      <c r="S7" s="199"/>
-      <c r="T7" s="199"/>
-      <c r="U7" s="199"/>
-      <c r="V7" s="211"/>
-      <c r="W7" s="225"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="96"/>
-      <c r="AB7" s="96"/>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="161"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="92"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="96"/>
-      <c r="AI7" s="96"/>
-      <c r="AJ7" s="96"/>
-      <c r="AK7" s="97"/>
-      <c r="AL7" s="80"/>
-      <c r="AM7" s="96"/>
-      <c r="AN7" s="96"/>
-      <c r="AO7" s="96"/>
-      <c r="AP7" s="96"/>
-      <c r="AQ7" s="96"/>
-      <c r="AR7" s="256"/>
-      <c r="AS7" s="257"/>
-      <c r="AT7" s="259" t="s">
-        <v>42</v>
+      <c r="A7" s="286"/>
+      <c r="B7" s="286"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="188"/>
+      <c r="AE7" s="109"/>
+      <c r="AF7" s="196"/>
+      <c r="AG7" s="109"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="73"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="54"/>
+      <c r="AQ7" s="54"/>
+      <c r="AR7" s="143"/>
+      <c r="AS7" s="144"/>
+      <c r="AT7" s="146" t="s">
+        <v>40</v>
       </c>
-      <c r="AU7" s="260"/>
-      <c r="AV7" s="113"/>
-      <c r="AW7" s="113"/>
-      <c r="AX7" s="113"/>
-      <c r="AY7" s="113"/>
-      <c r="AZ7" s="113"/>
-      <c r="BA7" s="114"/>
-      <c r="BB7" s="151"/>
-      <c r="BC7" s="150"/>
-      <c r="BD7" s="150"/>
-      <c r="BE7" s="150"/>
-      <c r="BF7" s="150"/>
-      <c r="BG7" s="150"/>
-      <c r="BH7" s="150"/>
-      <c r="BI7" s="152"/>
-      <c r="BJ7" s="165" t="s">
-        <v>56</v>
+      <c r="AU7" s="147"/>
+      <c r="AV7" s="201"/>
+      <c r="AW7" s="201"/>
+      <c r="AX7" s="201"/>
+      <c r="AY7" s="201"/>
+      <c r="AZ7" s="201"/>
+      <c r="BA7" s="202"/>
+      <c r="BB7" s="192"/>
+      <c r="BC7" s="126"/>
+      <c r="BD7" s="126"/>
+      <c r="BE7" s="126"/>
+      <c r="BF7" s="126"/>
+      <c r="BG7" s="126"/>
+      <c r="BH7" s="126"/>
+      <c r="BI7" s="193"/>
+      <c r="BJ7" s="127" t="s">
+        <v>51</v>
       </c>
-      <c r="BK7" s="166"/>
-      <c r="BL7" s="166"/>
-      <c r="BM7" s="167"/>
-      <c r="BN7" s="134"/>
-      <c r="BO7" s="77"/>
-      <c r="BP7" s="112"/>
-      <c r="BQ7" s="76"/>
-      <c r="BR7" s="177"/>
-      <c r="BS7" s="77"/>
-      <c r="BT7" s="112"/>
-      <c r="BU7" s="112"/>
-      <c r="BV7" s="109"/>
-      <c r="BW7" s="77"/>
-      <c r="BX7" s="112"/>
-      <c r="BY7" s="112"/>
-      <c r="BZ7" s="135"/>
-      <c r="CA7" s="220"/>
-      <c r="CB7" s="221"/>
+      <c r="BK7" s="128"/>
+      <c r="BL7" s="128"/>
+      <c r="BM7" s="129"/>
+      <c r="BN7" s="107"/>
+      <c r="BO7" s="56"/>
+      <c r="BP7" s="156"/>
+      <c r="BQ7" s="152"/>
+      <c r="BR7" s="153"/>
+      <c r="BS7" s="56"/>
+      <c r="BT7" s="156"/>
+      <c r="BU7" s="156"/>
+      <c r="BV7" s="110"/>
+      <c r="BW7" s="56"/>
+      <c r="BX7" s="156"/>
+      <c r="BY7" s="156"/>
+      <c r="BZ7" s="157"/>
+      <c r="CA7" s="194"/>
+      <c r="CB7" s="195"/>
       <c r="CC7" s="10"/>
     </row>
     <row r="8" spans="1:81" ht="21.75" customHeight="1">
-      <c r="A8" s="230"/>
-      <c r="B8" s="230"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="191"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="133"/>
-      <c r="O8" s="133"/>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="200"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="200"/>
-      <c r="W8" s="226"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="99"/>
-      <c r="AD8" s="162"/>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="94"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="99"/>
-      <c r="AL8" s="100"/>
-      <c r="AM8" s="98"/>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="98"/>
-      <c r="AP8" s="98"/>
-      <c r="AQ8" s="98"/>
-      <c r="AR8" s="258"/>
-      <c r="AS8" s="137"/>
-      <c r="AT8" s="231" t="s">
-        <v>43</v>
+      <c r="A8" s="286"/>
+      <c r="B8" s="286"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="162"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="170"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="189"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="197"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="170"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="145"/>
+      <c r="AS8" s="113"/>
+      <c r="AT8" s="137" t="s">
+        <v>41</v>
       </c>
-      <c r="AU8" s="232"/>
-      <c r="AV8" s="115"/>
-      <c r="AW8" s="115"/>
-      <c r="AX8" s="115"/>
-      <c r="AY8" s="115"/>
-      <c r="AZ8" s="115"/>
-      <c r="BA8" s="116"/>
-      <c r="BB8" s="117" t="s">
-        <v>24</v>
+      <c r="AU8" s="138"/>
+      <c r="AV8" s="203"/>
+      <c r="AW8" s="203"/>
+      <c r="AX8" s="203"/>
+      <c r="AY8" s="203"/>
+      <c r="AZ8" s="203"/>
+      <c r="BA8" s="204"/>
+      <c r="BB8" s="205" t="s">
+        <v>23</v>
       </c>
-      <c r="BC8" s="118"/>
-      <c r="BD8" s="233"/>
-      <c r="BE8" s="233"/>
-      <c r="BF8" s="233"/>
-      <c r="BG8" s="233"/>
-      <c r="BH8" s="233"/>
-      <c r="BI8" s="234"/>
-      <c r="BJ8" s="168"/>
-      <c r="BK8" s="169"/>
-      <c r="BL8" s="169"/>
-      <c r="BM8" s="170"/>
-      <c r="BN8" s="93"/>
-      <c r="BO8" s="80"/>
-      <c r="BP8" s="96"/>
-      <c r="BQ8" s="178"/>
-      <c r="BR8" s="179"/>
-      <c r="BS8" s="80"/>
-      <c r="BT8" s="96"/>
-      <c r="BU8" s="96"/>
-      <c r="BV8" s="103"/>
-      <c r="BW8" s="80"/>
-      <c r="BX8" s="96"/>
-      <c r="BY8" s="96"/>
-      <c r="BZ8" s="97"/>
-      <c r="CA8" s="220"/>
-      <c r="CB8" s="221"/>
+      <c r="BC8" s="206"/>
+      <c r="BD8" s="139"/>
+      <c r="BE8" s="139"/>
+      <c r="BF8" s="139"/>
+      <c r="BG8" s="139"/>
+      <c r="BH8" s="139"/>
+      <c r="BI8" s="140"/>
+      <c r="BJ8" s="130"/>
+      <c r="BK8" s="131"/>
+      <c r="BL8" s="131"/>
+      <c r="BM8" s="132"/>
+      <c r="BN8" s="109"/>
+      <c r="BO8" s="53"/>
+      <c r="BP8" s="54"/>
+      <c r="BQ8" s="154"/>
+      <c r="BR8" s="155"/>
+      <c r="BS8" s="53"/>
+      <c r="BT8" s="54"/>
+      <c r="BU8" s="54"/>
+      <c r="BV8" s="105"/>
+      <c r="BW8" s="53"/>
+      <c r="BX8" s="54"/>
+      <c r="BY8" s="54"/>
+      <c r="BZ8" s="73"/>
+      <c r="CA8" s="194"/>
+      <c r="CB8" s="195"/>
       <c r="CC8" s="10"/>
     </row>
     <row r="9" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A9" s="230"/>
-      <c r="B9" s="230"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="201" t="s">
+      <c r="A9" s="286"/>
+      <c r="B9" s="286"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="202"/>
-      <c r="G9" s="203"/>
-      <c r="H9" s="265" t="s">
+      <c r="F9" s="209"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="266"/>
+      <c r="I9" s="150"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="127" t="s">
+      <c r="N9" s="72"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AC9" s="128"/>
-      <c r="AD9" s="273"/>
-      <c r="AE9" s="235" t="s">
-        <v>30</v>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="141" t="s">
+        <v>28</v>
       </c>
-      <c r="AF9" s="236"/>
-      <c r="AG9" s="236"/>
-      <c r="AH9" s="236"/>
-      <c r="AI9" s="171"/>
-      <c r="AJ9" s="171"/>
-      <c r="AK9" s="171"/>
-      <c r="AL9" s="171"/>
-      <c r="AM9" s="171"/>
-      <c r="AN9" s="171"/>
-      <c r="AO9" s="171"/>
-      <c r="AP9" s="171"/>
-      <c r="AQ9" s="171"/>
-      <c r="AR9" s="171"/>
-      <c r="AS9" s="171"/>
-      <c r="AT9" s="171"/>
-      <c r="AU9" s="171"/>
-      <c r="AV9" s="171"/>
-      <c r="AW9" s="171"/>
-      <c r="AX9" s="171"/>
-      <c r="AY9" s="171"/>
-      <c r="AZ9" s="171"/>
-      <c r="BA9" s="171"/>
-      <c r="BB9" s="171"/>
-      <c r="BC9" s="171"/>
-      <c r="BD9" s="171"/>
-      <c r="BE9" s="171"/>
-      <c r="BF9" s="171"/>
-      <c r="BG9" s="171"/>
-      <c r="BH9" s="171"/>
-      <c r="BI9" s="171"/>
-      <c r="BJ9" s="171"/>
-      <c r="BK9" s="171"/>
-      <c r="BL9" s="171"/>
-      <c r="BM9" s="171"/>
-      <c r="BN9" s="171"/>
-      <c r="BO9" s="171"/>
-      <c r="BP9" s="171"/>
-      <c r="BQ9" s="171"/>
-      <c r="BR9" s="171"/>
-      <c r="BS9" s="171"/>
-      <c r="BT9" s="171"/>
-      <c r="BU9" s="171"/>
-      <c r="BV9" s="171"/>
-      <c r="BW9" s="171"/>
-      <c r="BX9" s="171"/>
-      <c r="BY9" s="171"/>
-      <c r="BZ9" s="171"/>
-      <c r="CA9" s="171"/>
-      <c r="CB9" s="172"/>
+      <c r="AF9" s="142"/>
+      <c r="AG9" s="142"/>
+      <c r="AH9" s="142"/>
+      <c r="AI9" s="133"/>
+      <c r="AJ9" s="133"/>
+      <c r="AK9" s="133"/>
+      <c r="AL9" s="133"/>
+      <c r="AM9" s="133"/>
+      <c r="AN9" s="133"/>
+      <c r="AO9" s="133"/>
+      <c r="AP9" s="133"/>
+      <c r="AQ9" s="133"/>
+      <c r="AR9" s="133"/>
+      <c r="AS9" s="133"/>
+      <c r="AT9" s="133"/>
+      <c r="AU9" s="133"/>
+      <c r="AV9" s="133"/>
+      <c r="AW9" s="133"/>
+      <c r="AX9" s="133"/>
+      <c r="AY9" s="133"/>
+      <c r="AZ9" s="133"/>
+      <c r="BA9" s="133"/>
+      <c r="BB9" s="133"/>
+      <c r="BC9" s="133"/>
+      <c r="BD9" s="133"/>
+      <c r="BE9" s="133"/>
+      <c r="BF9" s="133"/>
+      <c r="BG9" s="133"/>
+      <c r="BH9" s="133"/>
+      <c r="BI9" s="133"/>
+      <c r="BJ9" s="133"/>
+      <c r="BK9" s="133"/>
+      <c r="BL9" s="133"/>
+      <c r="BM9" s="133"/>
+      <c r="BN9" s="133"/>
+      <c r="BO9" s="133"/>
+      <c r="BP9" s="133"/>
+      <c r="BQ9" s="133"/>
+      <c r="BR9" s="133"/>
+      <c r="BS9" s="133"/>
+      <c r="BT9" s="133"/>
+      <c r="BU9" s="133"/>
+      <c r="BV9" s="133"/>
+      <c r="BW9" s="133"/>
+      <c r="BX9" s="133"/>
+      <c r="BY9" s="133"/>
+      <c r="BZ9" s="133"/>
+      <c r="CA9" s="133"/>
+      <c r="CB9" s="134"/>
     </row>
     <row r="10" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A10" s="230"/>
-      <c r="B10" s="230"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="188"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="206"/>
-      <c r="H10" s="237" t="s">
+      <c r="A10" s="286"/>
+      <c r="B10" s="286"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="212"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="238"/>
-      <c r="J10" s="238"/>
-      <c r="K10" s="238"/>
-      <c r="L10" s="238"/>
-      <c r="M10" s="238"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="273"/>
-      <c r="AE10" s="214"/>
-      <c r="AF10" s="104"/>
-      <c r="AG10" s="104"/>
-      <c r="AH10" s="104"/>
-      <c r="AI10" s="104"/>
-      <c r="AJ10" s="104"/>
-      <c r="AK10" s="104"/>
-      <c r="AL10" s="104"/>
-      <c r="AM10" s="104"/>
-      <c r="AN10" s="104"/>
-      <c r="AO10" s="104"/>
-      <c r="AP10" s="104"/>
-      <c r="AQ10" s="104"/>
-      <c r="AR10" s="104"/>
-      <c r="AS10" s="104"/>
-      <c r="AT10" s="104"/>
-      <c r="AU10" s="104"/>
-      <c r="AV10" s="104"/>
-      <c r="AW10" s="104"/>
-      <c r="AX10" s="104"/>
-      <c r="AY10" s="104"/>
-      <c r="AZ10" s="104"/>
-      <c r="BA10" s="104"/>
-      <c r="BB10" s="104"/>
-      <c r="BC10" s="104"/>
-      <c r="BD10" s="104"/>
-      <c r="BE10" s="104"/>
-      <c r="BF10" s="104"/>
-      <c r="BG10" s="104"/>
-      <c r="BH10" s="104"/>
-      <c r="BI10" s="104"/>
-      <c r="BJ10" s="104"/>
-      <c r="BK10" s="104"/>
-      <c r="BL10" s="104"/>
-      <c r="BM10" s="104"/>
-      <c r="BN10" s="104"/>
-      <c r="BO10" s="104"/>
-      <c r="BP10" s="104"/>
-      <c r="BQ10" s="104"/>
-      <c r="BR10" s="104"/>
-      <c r="BS10" s="104"/>
-      <c r="BT10" s="104"/>
-      <c r="BU10" s="104"/>
-      <c r="BV10" s="104"/>
-      <c r="BW10" s="104"/>
-      <c r="BX10" s="104"/>
-      <c r="BY10" s="104"/>
-      <c r="BZ10" s="104"/>
-      <c r="CA10" s="104"/>
-      <c r="CB10" s="136"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="223"/>
+      <c r="K10" s="223"/>
+      <c r="L10" s="223"/>
+      <c r="M10" s="223"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="217"/>
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="111"/>
+      <c r="AH10" s="111"/>
+      <c r="AI10" s="111"/>
+      <c r="AJ10" s="111"/>
+      <c r="AK10" s="111"/>
+      <c r="AL10" s="111"/>
+      <c r="AM10" s="111"/>
+      <c r="AN10" s="111"/>
+      <c r="AO10" s="111"/>
+      <c r="AP10" s="111"/>
+      <c r="AQ10" s="111"/>
+      <c r="AR10" s="111"/>
+      <c r="AS10" s="111"/>
+      <c r="AT10" s="111"/>
+      <c r="AU10" s="111"/>
+      <c r="AV10" s="111"/>
+      <c r="AW10" s="111"/>
+      <c r="AX10" s="111"/>
+      <c r="AY10" s="111"/>
+      <c r="AZ10" s="111"/>
+      <c r="BA10" s="111"/>
+      <c r="BB10" s="111"/>
+      <c r="BC10" s="111"/>
+      <c r="BD10" s="111"/>
+      <c r="BE10" s="111"/>
+      <c r="BF10" s="111"/>
+      <c r="BG10" s="111"/>
+      <c r="BH10" s="111"/>
+      <c r="BI10" s="111"/>
+      <c r="BJ10" s="111"/>
+      <c r="BK10" s="111"/>
+      <c r="BL10" s="111"/>
+      <c r="BM10" s="111"/>
+      <c r="BN10" s="111"/>
+      <c r="BO10" s="111"/>
+      <c r="BP10" s="111"/>
+      <c r="BQ10" s="111"/>
+      <c r="BR10" s="111"/>
+      <c r="BS10" s="111"/>
+      <c r="BT10" s="111"/>
+      <c r="BU10" s="111"/>
+      <c r="BV10" s="111"/>
+      <c r="BW10" s="111"/>
+      <c r="BX10" s="111"/>
+      <c r="BY10" s="111"/>
+      <c r="BZ10" s="111"/>
+      <c r="CA10" s="111"/>
+      <c r="CB10" s="112"/>
     </row>
     <row r="11" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A11" s="230"/>
-      <c r="B11" s="230"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="208"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="239"/>
-      <c r="I11" s="240"/>
-      <c r="J11" s="240"/>
-      <c r="K11" s="240"/>
-      <c r="L11" s="240"/>
-      <c r="M11" s="240"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="98"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="99"/>
-      <c r="AB11" s="130"/>
-      <c r="AC11" s="131"/>
-      <c r="AD11" s="274"/>
-      <c r="AE11" s="215"/>
-      <c r="AF11" s="105"/>
-      <c r="AG11" s="105"/>
-      <c r="AH11" s="105"/>
-      <c r="AI11" s="105"/>
-      <c r="AJ11" s="105"/>
-      <c r="AK11" s="105"/>
-      <c r="AL11" s="105"/>
-      <c r="AM11" s="105"/>
-      <c r="AN11" s="105"/>
-      <c r="AO11" s="105"/>
-      <c r="AP11" s="105"/>
-      <c r="AQ11" s="105"/>
-      <c r="AR11" s="105"/>
-      <c r="AS11" s="105"/>
-      <c r="AT11" s="105"/>
-      <c r="AU11" s="105"/>
-      <c r="AV11" s="105"/>
-      <c r="AW11" s="105"/>
-      <c r="AX11" s="105"/>
-      <c r="AY11" s="105"/>
-      <c r="AZ11" s="105"/>
-      <c r="BA11" s="105"/>
-      <c r="BB11" s="105"/>
-      <c r="BC11" s="105"/>
-      <c r="BD11" s="105"/>
-      <c r="BE11" s="105"/>
-      <c r="BF11" s="105"/>
-      <c r="BG11" s="105"/>
-      <c r="BH11" s="105"/>
-      <c r="BI11" s="105"/>
-      <c r="BJ11" s="105"/>
-      <c r="BK11" s="105"/>
-      <c r="BL11" s="105"/>
-      <c r="BM11" s="105"/>
-      <c r="BN11" s="105"/>
-      <c r="BO11" s="105"/>
-      <c r="BP11" s="105"/>
-      <c r="BQ11" s="105"/>
-      <c r="BR11" s="105"/>
-      <c r="BS11" s="105"/>
-      <c r="BT11" s="105"/>
-      <c r="BU11" s="105"/>
-      <c r="BV11" s="105"/>
-      <c r="BW11" s="105"/>
-      <c r="BX11" s="105"/>
-      <c r="BY11" s="105"/>
-      <c r="BZ11" s="105"/>
-      <c r="CA11" s="105"/>
-      <c r="CB11" s="137"/>
+      <c r="A11" s="286"/>
+      <c r="B11" s="286"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="215"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="225"/>
+      <c r="J11" s="225"/>
+      <c r="K11" s="225"/>
+      <c r="L11" s="225"/>
+      <c r="M11" s="225"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="218"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="64"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="64"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="64"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="64"/>
+      <c r="AW11" s="64"/>
+      <c r="AX11" s="64"/>
+      <c r="AY11" s="64"/>
+      <c r="AZ11" s="64"/>
+      <c r="BA11" s="64"/>
+      <c r="BB11" s="64"/>
+      <c r="BC11" s="64"/>
+      <c r="BD11" s="64"/>
+      <c r="BE11" s="64"/>
+      <c r="BF11" s="64"/>
+      <c r="BG11" s="64"/>
+      <c r="BH11" s="64"/>
+      <c r="BI11" s="64"/>
+      <c r="BJ11" s="64"/>
+      <c r="BK11" s="64"/>
+      <c r="BL11" s="64"/>
+      <c r="BM11" s="64"/>
+      <c r="BN11" s="64"/>
+      <c r="BO11" s="64"/>
+      <c r="BP11" s="64"/>
+      <c r="BQ11" s="64"/>
+      <c r="BR11" s="64"/>
+      <c r="BS11" s="64"/>
+      <c r="BT11" s="64"/>
+      <c r="BU11" s="64"/>
+      <c r="BV11" s="64"/>
+      <c r="BW11" s="64"/>
+      <c r="BX11" s="64"/>
+      <c r="BY11" s="64"/>
+      <c r="BZ11" s="64"/>
+      <c r="CA11" s="64"/>
+      <c r="CB11" s="113"/>
     </row>
     <row r="12" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A12" s="230"/>
-      <c r="B12" s="230"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="188"/>
-      <c r="E12" s="86" t="s">
+      <c r="A12" s="286"/>
+      <c r="B12" s="286"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="267" t="s">
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="254" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="268"/>
-      <c r="J12" s="253" t="s">
+      <c r="I12" s="255"/>
+      <c r="J12" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="253"/>
-      <c r="L12" s="253"/>
-      <c r="M12" s="254"/>
-      <c r="N12" s="216"/>
-      <c r="O12" s="199"/>
-      <c r="P12" s="199"/>
-      <c r="Q12" s="199"/>
-      <c r="R12" s="199"/>
-      <c r="S12" s="199"/>
-      <c r="T12" s="199"/>
-      <c r="U12" s="199"/>
-      <c r="V12" s="199"/>
-      <c r="W12" s="199"/>
-      <c r="X12" s="199"/>
-      <c r="Y12" s="199"/>
-      <c r="Z12" s="199"/>
-      <c r="AA12" s="199"/>
-      <c r="AB12" s="199"/>
-      <c r="AC12" s="199"/>
-      <c r="AD12" s="199"/>
-      <c r="AE12" s="199"/>
-      <c r="AF12" s="199"/>
-      <c r="AG12" s="199"/>
-      <c r="AH12" s="199"/>
-      <c r="AI12" s="199"/>
-      <c r="AJ12" s="199"/>
-      <c r="AK12" s="199"/>
-      <c r="AL12" s="199"/>
-      <c r="AM12" s="199"/>
-      <c r="AN12" s="199"/>
-      <c r="AO12" s="199"/>
-      <c r="AP12" s="199"/>
-      <c r="AQ12" s="199"/>
-      <c r="AR12" s="199"/>
-      <c r="AS12" s="199"/>
-      <c r="AT12" s="199"/>
-      <c r="AU12" s="199"/>
-      <c r="AV12" s="199"/>
-      <c r="AW12" s="199"/>
-      <c r="AX12" s="199"/>
-      <c r="AY12" s="199"/>
-      <c r="AZ12" s="199"/>
-      <c r="BA12" s="199"/>
-      <c r="BB12" s="199"/>
-      <c r="BC12" s="199"/>
-      <c r="BD12" s="199"/>
-      <c r="BE12" s="199"/>
-      <c r="BF12" s="199"/>
-      <c r="BG12" s="199"/>
-      <c r="BH12" s="199"/>
-      <c r="BI12" s="199"/>
-      <c r="BJ12" s="199"/>
-      <c r="BK12" s="199"/>
-      <c r="BL12" s="199"/>
-      <c r="BM12" s="199"/>
-      <c r="BN12" s="199"/>
-      <c r="BO12" s="199"/>
-      <c r="BP12" s="199"/>
-      <c r="BQ12" s="199"/>
-      <c r="BR12" s="199"/>
-      <c r="BS12" s="199"/>
-      <c r="BT12" s="199"/>
-      <c r="BU12" s="199"/>
-      <c r="BV12" s="199"/>
-      <c r="BW12" s="199"/>
-      <c r="BX12" s="199"/>
-      <c r="BY12" s="199"/>
-      <c r="BZ12" s="199"/>
-      <c r="CA12" s="199"/>
-      <c r="CB12" s="217"/>
+      <c r="K12" s="226"/>
+      <c r="L12" s="226"/>
+      <c r="M12" s="227"/>
+      <c r="N12" s="219"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="60"/>
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="60"/>
+      <c r="AM12" s="60"/>
+      <c r="AN12" s="60"/>
+      <c r="AO12" s="60"/>
+      <c r="AP12" s="60"/>
+      <c r="AQ12" s="60"/>
+      <c r="AR12" s="60"/>
+      <c r="AS12" s="60"/>
+      <c r="AT12" s="60"/>
+      <c r="AU12" s="60"/>
+      <c r="AV12" s="60"/>
+      <c r="AW12" s="60"/>
+      <c r="AX12" s="60"/>
+      <c r="AY12" s="60"/>
+      <c r="AZ12" s="60"/>
+      <c r="BA12" s="60"/>
+      <c r="BB12" s="60"/>
+      <c r="BC12" s="60"/>
+      <c r="BD12" s="60"/>
+      <c r="BE12" s="60"/>
+      <c r="BF12" s="60"/>
+      <c r="BG12" s="60"/>
+      <c r="BH12" s="60"/>
+      <c r="BI12" s="60"/>
+      <c r="BJ12" s="60"/>
+      <c r="BK12" s="60"/>
+      <c r="BL12" s="60"/>
+      <c r="BM12" s="60"/>
+      <c r="BN12" s="60"/>
+      <c r="BO12" s="60"/>
+      <c r="BP12" s="60"/>
+      <c r="BQ12" s="60"/>
+      <c r="BR12" s="60"/>
+      <c r="BS12" s="60"/>
+      <c r="BT12" s="60"/>
+      <c r="BU12" s="60"/>
+      <c r="BV12" s="60"/>
+      <c r="BW12" s="60"/>
+      <c r="BX12" s="60"/>
+      <c r="BY12" s="60"/>
+      <c r="BZ12" s="60"/>
+      <c r="CA12" s="60"/>
+      <c r="CB12" s="220"/>
     </row>
     <row r="13" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A13" s="230"/>
-      <c r="B13" s="230"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="188"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
+      <c r="A13" s="286"/>
+      <c r="B13" s="286"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="15"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="240"/>
-      <c r="K13" s="240"/>
-      <c r="L13" s="240"/>
-      <c r="M13" s="255"/>
-      <c r="N13" s="215"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="105"/>
-      <c r="S13" s="105"/>
-      <c r="T13" s="105"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="105"/>
-      <c r="X13" s="105"/>
-      <c r="Y13" s="105"/>
-      <c r="Z13" s="105"/>
-      <c r="AA13" s="105"/>
-      <c r="AB13" s="105"/>
-      <c r="AC13" s="105"/>
-      <c r="AD13" s="105"/>
-      <c r="AE13" s="105"/>
-      <c r="AF13" s="105"/>
-      <c r="AG13" s="105"/>
-      <c r="AH13" s="105"/>
-      <c r="AI13" s="105"/>
-      <c r="AJ13" s="105"/>
-      <c r="AK13" s="105"/>
-      <c r="AL13" s="105"/>
-      <c r="AM13" s="105"/>
-      <c r="AN13" s="105"/>
-      <c r="AO13" s="105"/>
-      <c r="AP13" s="105"/>
-      <c r="AQ13" s="105"/>
-      <c r="AR13" s="105"/>
-      <c r="AS13" s="105"/>
-      <c r="AT13" s="105"/>
-      <c r="AU13" s="105"/>
-      <c r="AV13" s="105"/>
-      <c r="AW13" s="105"/>
-      <c r="AX13" s="105"/>
-      <c r="AY13" s="105"/>
-      <c r="AZ13" s="105"/>
-      <c r="BA13" s="105"/>
-      <c r="BB13" s="105"/>
-      <c r="BC13" s="105"/>
-      <c r="BD13" s="105"/>
-      <c r="BE13" s="105"/>
-      <c r="BF13" s="105"/>
-      <c r="BG13" s="105"/>
-      <c r="BH13" s="105"/>
-      <c r="BI13" s="105"/>
-      <c r="BJ13" s="105"/>
-      <c r="BK13" s="105"/>
-      <c r="BL13" s="105"/>
-      <c r="BM13" s="105"/>
-      <c r="BN13" s="105"/>
-      <c r="BO13" s="105"/>
-      <c r="BP13" s="105"/>
-      <c r="BQ13" s="105"/>
-      <c r="BR13" s="105"/>
-      <c r="BS13" s="105"/>
-      <c r="BT13" s="105"/>
-      <c r="BU13" s="105"/>
-      <c r="BV13" s="105"/>
-      <c r="BW13" s="105"/>
-      <c r="BX13" s="105"/>
-      <c r="BY13" s="105"/>
-      <c r="BZ13" s="105"/>
-      <c r="CA13" s="105"/>
-      <c r="CB13" s="137"/>
+      <c r="J13" s="225"/>
+      <c r="K13" s="225"/>
+      <c r="L13" s="225"/>
+      <c r="M13" s="228"/>
+      <c r="N13" s="218"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="64"/>
+      <c r="AF13" s="64"/>
+      <c r="AG13" s="64"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="64"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="64"/>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="64"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="64"/>
+      <c r="AR13" s="64"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="64"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="64"/>
+      <c r="AW13" s="64"/>
+      <c r="AX13" s="64"/>
+      <c r="AY13" s="64"/>
+      <c r="AZ13" s="64"/>
+      <c r="BA13" s="64"/>
+      <c r="BB13" s="64"/>
+      <c r="BC13" s="64"/>
+      <c r="BD13" s="64"/>
+      <c r="BE13" s="64"/>
+      <c r="BF13" s="64"/>
+      <c r="BG13" s="64"/>
+      <c r="BH13" s="64"/>
+      <c r="BI13" s="64"/>
+      <c r="BJ13" s="64"/>
+      <c r="BK13" s="64"/>
+      <c r="BL13" s="64"/>
+      <c r="BM13" s="64"/>
+      <c r="BN13" s="64"/>
+      <c r="BO13" s="64"/>
+      <c r="BP13" s="64"/>
+      <c r="BQ13" s="64"/>
+      <c r="BR13" s="64"/>
+      <c r="BS13" s="64"/>
+      <c r="BT13" s="64"/>
+      <c r="BU13" s="64"/>
+      <c r="BV13" s="64"/>
+      <c r="BW13" s="64"/>
+      <c r="BX13" s="64"/>
+      <c r="BY13" s="64"/>
+      <c r="BZ13" s="64"/>
+      <c r="CA13" s="64"/>
+      <c r="CB13" s="113"/>
     </row>
     <row r="14" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A14" s="230"/>
-      <c r="B14" s="230"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="283" t="s">
+      <c r="A14" s="286"/>
+      <c r="B14" s="286"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="283"/>
-      <c r="G14" s="283"/>
-      <c r="H14" s="283"/>
-      <c r="I14" s="283"/>
-      <c r="J14" s="284"/>
-      <c r="K14" s="106" t="s">
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="198" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="199"/>
+      <c r="M14" s="199"/>
+      <c r="N14" s="200"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="156"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="110"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="156"/>
+      <c r="Z14" s="157"/>
+      <c r="AA14" s="120"/>
+      <c r="AB14" s="121"/>
+      <c r="AC14" s="122"/>
+      <c r="AD14" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="114" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="134"/>
-      <c r="U14" s="109"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="110"/>
-      <c r="X14" s="134"/>
-      <c r="Y14" s="112"/>
-      <c r="Z14" s="135"/>
-      <c r="AA14" s="144"/>
-      <c r="AB14" s="145"/>
-      <c r="AC14" s="146"/>
-      <c r="AD14" s="275" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE14" s="276"/>
-      <c r="AF14" s="276"/>
-      <c r="AG14" s="276"/>
-      <c r="AH14" s="138" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI14" s="139"/>
-      <c r="AJ14" s="139"/>
-      <c r="AK14" s="139"/>
-      <c r="AL14" s="139"/>
-      <c r="AM14" s="139"/>
-      <c r="AN14" s="139"/>
-      <c r="AO14" s="139"/>
-      <c r="AP14" s="139"/>
-      <c r="AQ14" s="139"/>
-      <c r="AR14" s="139"/>
-      <c r="AS14" s="139"/>
-      <c r="AT14" s="139"/>
-      <c r="AU14" s="139"/>
-      <c r="AV14" s="139"/>
-      <c r="AW14" s="139"/>
-      <c r="AX14" s="139"/>
-      <c r="AY14" s="139"/>
-      <c r="AZ14" s="139"/>
-      <c r="BA14" s="139"/>
-      <c r="BB14" s="139"/>
-      <c r="BC14" s="139"/>
-      <c r="BD14" s="139"/>
-      <c r="BE14" s="139"/>
-      <c r="BF14" s="139"/>
-      <c r="BG14" s="139"/>
-      <c r="BH14" s="139"/>
-      <c r="BI14" s="139"/>
-      <c r="BJ14" s="139"/>
-      <c r="BK14" s="139"/>
-      <c r="BL14" s="139"/>
-      <c r="BM14" s="140"/>
+      <c r="AI14" s="115"/>
+      <c r="AJ14" s="115"/>
+      <c r="AK14" s="115"/>
+      <c r="AL14" s="115"/>
+      <c r="AM14" s="115"/>
+      <c r="AN14" s="115"/>
+      <c r="AO14" s="115"/>
+      <c r="AP14" s="115"/>
+      <c r="AQ14" s="115"/>
+      <c r="AR14" s="115"/>
+      <c r="AS14" s="115"/>
+      <c r="AT14" s="115"/>
+      <c r="AU14" s="115"/>
+      <c r="AV14" s="115"/>
+      <c r="AW14" s="115"/>
+      <c r="AX14" s="115"/>
+      <c r="AY14" s="115"/>
+      <c r="AZ14" s="115"/>
+      <c r="BA14" s="115"/>
+      <c r="BB14" s="115"/>
+      <c r="BC14" s="115"/>
+      <c r="BD14" s="115"/>
+      <c r="BE14" s="115"/>
+      <c r="BF14" s="115"/>
+      <c r="BG14" s="115"/>
+      <c r="BH14" s="115"/>
+      <c r="BI14" s="115"/>
+      <c r="BJ14" s="115"/>
+      <c r="BK14" s="115"/>
+      <c r="BL14" s="115"/>
+      <c r="BM14" s="116"/>
       <c r="BN14" s="33"/>
       <c r="BO14" s="33"/>
       <c r="BP14" s="33"/>
@@ -6476,71 +6282,71 @@
       <c r="CB14" s="33"/>
     </row>
     <row r="15" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A15" s="230"/>
-      <c r="B15" s="230"/>
-      <c r="C15" s="188"/>
-      <c r="D15" s="188"/>
-      <c r="E15" s="283"/>
-      <c r="F15" s="283"/>
-      <c r="G15" s="283"/>
-      <c r="H15" s="283"/>
-      <c r="I15" s="283"/>
-      <c r="J15" s="284"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="103"/>
-      <c r="V15" s="111"/>
-      <c r="W15" s="111"/>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="147"/>
-      <c r="AB15" s="148"/>
-      <c r="AC15" s="149"/>
-      <c r="AD15" s="277"/>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="70"/>
-      <c r="AH15" s="141"/>
-      <c r="AI15" s="142"/>
-      <c r="AJ15" s="142"/>
-      <c r="AK15" s="142"/>
-      <c r="AL15" s="142"/>
-      <c r="AM15" s="142"/>
-      <c r="AN15" s="142"/>
-      <c r="AO15" s="142"/>
-      <c r="AP15" s="142"/>
-      <c r="AQ15" s="142"/>
-      <c r="AR15" s="142"/>
-      <c r="AS15" s="142"/>
-      <c r="AT15" s="142"/>
-      <c r="AU15" s="142"/>
-      <c r="AV15" s="142"/>
-      <c r="AW15" s="142"/>
-      <c r="AX15" s="142"/>
-      <c r="AY15" s="142"/>
-      <c r="AZ15" s="142"/>
-      <c r="BA15" s="142"/>
-      <c r="BB15" s="142"/>
-      <c r="BC15" s="142"/>
-      <c r="BD15" s="142"/>
-      <c r="BE15" s="142"/>
-      <c r="BF15" s="142"/>
-      <c r="BG15" s="142"/>
-      <c r="BH15" s="142"/>
-      <c r="BI15" s="142"/>
-      <c r="BJ15" s="142"/>
-      <c r="BK15" s="142"/>
-      <c r="BL15" s="142"/>
-      <c r="BM15" s="143"/>
+      <c r="A15" s="286"/>
+      <c r="B15" s="286"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="199"/>
+      <c r="M15" s="199"/>
+      <c r="N15" s="200"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="108"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="109"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="108"/>
+      <c r="W15" s="108"/>
+      <c r="X15" s="109"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="123"/>
+      <c r="AB15" s="124"/>
+      <c r="AC15" s="125"/>
+      <c r="AD15" s="78"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="79"/>
+      <c r="AH15" s="117"/>
+      <c r="AI15" s="118"/>
+      <c r="AJ15" s="118"/>
+      <c r="AK15" s="118"/>
+      <c r="AL15" s="118"/>
+      <c r="AM15" s="118"/>
+      <c r="AN15" s="118"/>
+      <c r="AO15" s="118"/>
+      <c r="AP15" s="118"/>
+      <c r="AQ15" s="118"/>
+      <c r="AR15" s="118"/>
+      <c r="AS15" s="118"/>
+      <c r="AT15" s="118"/>
+      <c r="AU15" s="118"/>
+      <c r="AV15" s="118"/>
+      <c r="AW15" s="118"/>
+      <c r="AX15" s="118"/>
+      <c r="AY15" s="118"/>
+      <c r="AZ15" s="118"/>
+      <c r="BA15" s="118"/>
+      <c r="BB15" s="118"/>
+      <c r="BC15" s="118"/>
+      <c r="BD15" s="118"/>
+      <c r="BE15" s="118"/>
+      <c r="BF15" s="118"/>
+      <c r="BG15" s="118"/>
+      <c r="BH15" s="118"/>
+      <c r="BI15" s="118"/>
+      <c r="BJ15" s="118"/>
+      <c r="BK15" s="118"/>
+      <c r="BL15" s="118"/>
+      <c r="BM15" s="119"/>
       <c r="BN15" s="5"/>
       <c r="BO15" s="9"/>
       <c r="BP15" s="9"/>
@@ -6559,10 +6365,10 @@
       <c r="CC15" s="2"/>
     </row>
     <row r="16" spans="1:81" ht="12.75" customHeight="1">
-      <c r="A16" s="230"/>
-      <c r="B16" s="230"/>
-      <c r="C16" s="188"/>
-      <c r="D16" s="188"/>
+      <c r="A16" s="286"/>
+      <c r="B16" s="286"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6593,7 +6399,7 @@
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
@@ -6643,882 +6449,882 @@
       <c r="CB16" s="9"/>
     </row>
     <row r="17" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A17" s="230"/>
-      <c r="B17" s="230"/>
-      <c r="C17" s="188"/>
-      <c r="D17" s="188"/>
+      <c r="A17" s="286"/>
+      <c r="B17" s="286"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
       <c r="F17" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A18" s="230"/>
-      <c r="B18" s="230"/>
-      <c r="C18" s="188"/>
-      <c r="D18" s="188"/>
+      <c r="A18" s="286"/>
+      <c r="B18" s="286"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
       <c r="F18" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
-      <c r="AN18" s="175" t="s">
+      <c r="AN18" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="AO18" s="175"/>
-      <c r="AP18" s="175"/>
-      <c r="AQ18" s="175"/>
-      <c r="AR18" s="175"/>
-      <c r="AS18" s="175"/>
-      <c r="AT18" s="175"/>
-      <c r="AU18" s="175"/>
-      <c r="AV18" s="175"/>
-      <c r="AW18" s="175"/>
-      <c r="AX18" s="175"/>
-      <c r="AY18" s="175"/>
-      <c r="AZ18" s="175"/>
-      <c r="BA18" s="175"/>
-      <c r="BB18" s="175"/>
-      <c r="BC18" s="175"/>
-      <c r="BD18" s="175"/>
-      <c r="BE18" s="175"/>
-      <c r="BF18" s="175"/>
-      <c r="BG18" s="175"/>
-      <c r="BH18" s="175"/>
-      <c r="BI18" s="175"/>
-      <c r="BJ18" s="175"/>
-      <c r="BK18" s="175"/>
-      <c r="BL18" s="175"/>
-      <c r="BM18" s="175"/>
-      <c r="BN18" s="175"/>
-      <c r="BO18" s="175"/>
-      <c r="BP18" s="175"/>
-      <c r="BQ18" s="175"/>
-      <c r="BR18" s="175"/>
-      <c r="BS18" s="175"/>
-      <c r="BT18" s="175"/>
-      <c r="BU18" s="175"/>
-      <c r="BV18" s="175"/>
-      <c r="BW18" s="175"/>
+      <c r="AO18" s="136"/>
+      <c r="AP18" s="136"/>
+      <c r="AQ18" s="136"/>
+      <c r="AR18" s="136"/>
+      <c r="AS18" s="136"/>
+      <c r="AT18" s="136"/>
+      <c r="AU18" s="136"/>
+      <c r="AV18" s="136"/>
+      <c r="AW18" s="136"/>
+      <c r="AX18" s="136"/>
+      <c r="AY18" s="136"/>
+      <c r="AZ18" s="136"/>
+      <c r="BA18" s="136"/>
+      <c r="BB18" s="136"/>
+      <c r="BC18" s="136"/>
+      <c r="BD18" s="136"/>
+      <c r="BE18" s="136"/>
+      <c r="BF18" s="136"/>
+      <c r="BG18" s="136"/>
+      <c r="BH18" s="136"/>
+      <c r="BI18" s="136"/>
+      <c r="BJ18" s="136"/>
+      <c r="BK18" s="136"/>
+      <c r="BL18" s="136"/>
+      <c r="BM18" s="136"/>
+      <c r="BN18" s="136"/>
+      <c r="BO18" s="136"/>
+      <c r="BP18" s="136"/>
+      <c r="BQ18" s="136"/>
+      <c r="BR18" s="136"/>
+      <c r="BS18" s="136"/>
+      <c r="BT18" s="136"/>
+      <c r="BU18" s="136"/>
+      <c r="BV18" s="136"/>
+      <c r="BW18" s="136"/>
     </row>
     <row r="19" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A19" s="230"/>
-      <c r="B19" s="230"/>
-      <c r="C19" s="188"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="270" t="s">
-        <v>60</v>
+      <c r="A19" s="286"/>
+      <c r="B19" s="286"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="256" t="s">
+        <v>55</v>
       </c>
-      <c r="F19" s="271"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="271"/>
-      <c r="I19" s="271"/>
-      <c r="J19" s="271"/>
-      <c r="K19" s="271"/>
-      <c r="L19" s="271"/>
-      <c r="M19" s="271"/>
-      <c r="N19" s="271"/>
-      <c r="O19" s="271"/>
-      <c r="P19" s="271"/>
-      <c r="Q19" s="271"/>
-      <c r="R19" s="271"/>
-      <c r="S19" s="271"/>
-      <c r="T19" s="271"/>
-      <c r="U19" s="271"/>
-      <c r="V19" s="271"/>
-      <c r="W19" s="271"/>
-      <c r="X19" s="271"/>
-      <c r="Y19" s="271"/>
-      <c r="Z19" s="271"/>
-      <c r="AA19" s="271"/>
-      <c r="AB19" s="271"/>
-      <c r="AC19" s="271"/>
-      <c r="AD19" s="271"/>
-      <c r="AE19" s="271"/>
-      <c r="AF19" s="271"/>
-      <c r="AG19" s="271"/>
-      <c r="AH19" s="271"/>
-      <c r="AI19" s="271"/>
-      <c r="AJ19" s="271"/>
-      <c r="AN19" s="175"/>
-      <c r="AO19" s="175"/>
-      <c r="AP19" s="175"/>
-      <c r="AQ19" s="175"/>
-      <c r="AR19" s="175"/>
-      <c r="AS19" s="175"/>
-      <c r="AT19" s="175"/>
-      <c r="AU19" s="175"/>
-      <c r="AV19" s="175"/>
-      <c r="AW19" s="175"/>
-      <c r="AX19" s="175"/>
-      <c r="AY19" s="175"/>
-      <c r="AZ19" s="175"/>
-      <c r="BA19" s="175"/>
-      <c r="BB19" s="175"/>
-      <c r="BC19" s="175"/>
-      <c r="BD19" s="175"/>
-      <c r="BE19" s="175"/>
-      <c r="BF19" s="175"/>
-      <c r="BG19" s="175"/>
-      <c r="BH19" s="175"/>
-      <c r="BI19" s="175"/>
-      <c r="BJ19" s="175"/>
-      <c r="BK19" s="175"/>
-      <c r="BL19" s="175"/>
-      <c r="BM19" s="175"/>
-      <c r="BN19" s="175"/>
-      <c r="BO19" s="175"/>
-      <c r="BP19" s="175"/>
-      <c r="BQ19" s="175"/>
-      <c r="BR19" s="175"/>
-      <c r="BS19" s="175"/>
-      <c r="BT19" s="175"/>
-      <c r="BU19" s="175"/>
-      <c r="BV19" s="175"/>
-      <c r="BW19" s="175"/>
+      <c r="F19" s="257"/>
+      <c r="G19" s="257"/>
+      <c r="H19" s="257"/>
+      <c r="I19" s="257"/>
+      <c r="J19" s="257"/>
+      <c r="K19" s="257"/>
+      <c r="L19" s="257"/>
+      <c r="M19" s="257"/>
+      <c r="N19" s="257"/>
+      <c r="O19" s="257"/>
+      <c r="P19" s="257"/>
+      <c r="Q19" s="257"/>
+      <c r="R19" s="257"/>
+      <c r="S19" s="257"/>
+      <c r="T19" s="257"/>
+      <c r="U19" s="257"/>
+      <c r="V19" s="257"/>
+      <c r="W19" s="257"/>
+      <c r="X19" s="257"/>
+      <c r="Y19" s="257"/>
+      <c r="Z19" s="257"/>
+      <c r="AA19" s="257"/>
+      <c r="AB19" s="257"/>
+      <c r="AC19" s="257"/>
+      <c r="AD19" s="257"/>
+      <c r="AE19" s="257"/>
+      <c r="AF19" s="257"/>
+      <c r="AG19" s="257"/>
+      <c r="AH19" s="257"/>
+      <c r="AI19" s="257"/>
+      <c r="AJ19" s="257"/>
+      <c r="AN19" s="136"/>
+      <c r="AO19" s="136"/>
+      <c r="AP19" s="136"/>
+      <c r="AQ19" s="136"/>
+      <c r="AR19" s="136"/>
+      <c r="AS19" s="136"/>
+      <c r="AT19" s="136"/>
+      <c r="AU19" s="136"/>
+      <c r="AV19" s="136"/>
+      <c r="AW19" s="136"/>
+      <c r="AX19" s="136"/>
+      <c r="AY19" s="136"/>
+      <c r="AZ19" s="136"/>
+      <c r="BA19" s="136"/>
+      <c r="BB19" s="136"/>
+      <c r="BC19" s="136"/>
+      <c r="BD19" s="136"/>
+      <c r="BE19" s="136"/>
+      <c r="BF19" s="136"/>
+      <c r="BG19" s="136"/>
+      <c r="BH19" s="136"/>
+      <c r="BI19" s="136"/>
+      <c r="BJ19" s="136"/>
+      <c r="BK19" s="136"/>
+      <c r="BL19" s="136"/>
+      <c r="BM19" s="136"/>
+      <c r="BN19" s="136"/>
+      <c r="BO19" s="136"/>
+      <c r="BP19" s="136"/>
+      <c r="BQ19" s="136"/>
+      <c r="BR19" s="136"/>
+      <c r="BS19" s="136"/>
+      <c r="BT19" s="136"/>
+      <c r="BU19" s="136"/>
+      <c r="BV19" s="136"/>
+      <c r="BW19" s="136"/>
     </row>
     <row r="20" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A20" s="230"/>
-      <c r="B20" s="230"/>
-      <c r="C20" s="188"/>
-      <c r="D20" s="188"/>
-      <c r="E20" s="121" t="s">
-        <v>48</v>
+      <c r="A20" s="286"/>
+      <c r="B20" s="286"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="97" t="s">
+        <v>46</v>
       </c>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122"/>
-      <c r="O20" s="122"/>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="122"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="122"/>
-      <c r="V20" s="122"/>
-      <c r="W20" s="122"/>
-      <c r="X20" s="122"/>
-      <c r="Y20" s="122"/>
-      <c r="Z20" s="122"/>
-      <c r="AA20" s="122"/>
-      <c r="AB20" s="123"/>
-      <c r="AC20" s="121" t="s">
-        <v>47</v>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="97" t="s">
+        <v>45</v>
       </c>
-      <c r="AD20" s="122"/>
-      <c r="AE20" s="122"/>
-      <c r="AF20" s="122"/>
-      <c r="AG20" s="122"/>
-      <c r="AH20" s="122"/>
-      <c r="AI20" s="122"/>
-      <c r="AJ20" s="122"/>
-      <c r="AK20" s="122"/>
-      <c r="AL20" s="122"/>
-      <c r="AM20" s="122"/>
-      <c r="AN20" s="122"/>
-      <c r="AO20" s="122"/>
-      <c r="AP20" s="122"/>
-      <c r="AQ20" s="122"/>
-      <c r="AR20" s="123"/>
-      <c r="AS20" s="285" t="s">
-        <v>39</v>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="98"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="98"/>
+      <c r="AH20" s="98"/>
+      <c r="AI20" s="98"/>
+      <c r="AJ20" s="98"/>
+      <c r="AK20" s="98"/>
+      <c r="AL20" s="98"/>
+      <c r="AM20" s="98"/>
+      <c r="AN20" s="98"/>
+      <c r="AO20" s="98"/>
+      <c r="AP20" s="98"/>
+      <c r="AQ20" s="98"/>
+      <c r="AR20" s="99"/>
+      <c r="AS20" s="87" t="s">
+        <v>37</v>
       </c>
-      <c r="AT20" s="286"/>
+      <c r="AT20" s="88"/>
       <c r="AU20" s="16"/>
       <c r="AV20" s="16"/>
       <c r="AW20" s="16"/>
       <c r="AX20" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AY20" s="19"/>
       <c r="AZ20" s="19"/>
-      <c r="BA20" s="150"/>
-      <c r="BB20" s="150"/>
-      <c r="BC20" s="150"/>
-      <c r="BD20" s="150"/>
-      <c r="BE20" s="150"/>
-      <c r="BF20" s="150"/>
-      <c r="BG20" s="227"/>
-      <c r="BH20" s="228"/>
-      <c r="BI20" s="228"/>
-      <c r="BJ20" s="228"/>
-      <c r="BK20" s="228"/>
-      <c r="BL20" s="228"/>
-      <c r="BM20" s="228"/>
-      <c r="BN20" s="228"/>
-      <c r="BO20" s="229"/>
+      <c r="BA20" s="126"/>
+      <c r="BB20" s="126"/>
+      <c r="BC20" s="126"/>
+      <c r="BD20" s="126"/>
+      <c r="BE20" s="126"/>
+      <c r="BF20" s="126"/>
+      <c r="BG20" s="100"/>
+      <c r="BH20" s="101"/>
+      <c r="BI20" s="101"/>
+      <c r="BJ20" s="101"/>
+      <c r="BK20" s="101"/>
+      <c r="BL20" s="101"/>
+      <c r="BM20" s="101"/>
+      <c r="BN20" s="101"/>
+      <c r="BO20" s="102"/>
     </row>
     <row r="21" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A21" s="230"/>
-      <c r="B21" s="230"/>
-      <c r="C21" s="188"/>
-      <c r="D21" s="188"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="99"/>
-      <c r="U21" s="100"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="278"/>
-      <c r="Z21" s="77"/>
-      <c r="AA21" s="278"/>
-      <c r="AB21" s="249"/>
-      <c r="AC21" s="165" t="s">
-        <v>56</v>
+      <c r="A21" s="286"/>
+      <c r="B21" s="286"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="207"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="170"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="127" t="s">
+        <v>51</v>
       </c>
-      <c r="AD21" s="166"/>
-      <c r="AE21" s="166"/>
-      <c r="AF21" s="167"/>
-      <c r="AG21" s="222"/>
-      <c r="AH21" s="101"/>
-      <c r="AI21" s="101"/>
-      <c r="AJ21" s="102"/>
-      <c r="AK21" s="78"/>
-      <c r="AL21" s="173"/>
-      <c r="AM21" s="101"/>
-      <c r="AN21" s="102"/>
-      <c r="AO21" s="78"/>
-      <c r="AP21" s="173"/>
-      <c r="AQ21" s="173"/>
-      <c r="AR21" s="174"/>
-      <c r="AS21" s="192" t="s">
-        <v>46</v>
+      <c r="AD21" s="128"/>
+      <c r="AE21" s="128"/>
+      <c r="AF21" s="129"/>
+      <c r="AG21" s="221"/>
+      <c r="AH21" s="103"/>
+      <c r="AI21" s="103"/>
+      <c r="AJ21" s="104"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="103"/>
+      <c r="AN21" s="104"/>
+      <c r="AO21" s="51"/>
+      <c r="AP21" s="52"/>
+      <c r="AQ21" s="52"/>
+      <c r="AR21" s="135"/>
+      <c r="AS21" s="171" t="s">
+        <v>44</v>
       </c>
-      <c r="AT21" s="193"/>
-      <c r="AU21" s="193"/>
-      <c r="AV21" s="193"/>
-      <c r="AW21" s="194"/>
+      <c r="AT21" s="172"/>
+      <c r="AU21" s="172"/>
+      <c r="AV21" s="172"/>
+      <c r="AW21" s="173"/>
       <c r="AX21" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY21" s="22"/>
+      <c r="AZ21" s="111"/>
+      <c r="BA21" s="111"/>
+      <c r="BB21" s="111"/>
+      <c r="BC21" s="111"/>
+      <c r="BD21" s="111"/>
+      <c r="BE21" s="111"/>
+      <c r="BF21" s="111"/>
+      <c r="BG21" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AY21" s="22"/>
-      <c r="AZ21" s="104"/>
-      <c r="BA21" s="104"/>
-      <c r="BB21" s="104"/>
-      <c r="BC21" s="104"/>
-      <c r="BD21" s="104"/>
-      <c r="BE21" s="104"/>
-      <c r="BF21" s="104"/>
-      <c r="BG21" s="21" t="s">
-        <v>24</v>
-      </c>
       <c r="BH21" s="22"/>
-      <c r="BI21" s="104"/>
-      <c r="BJ21" s="104"/>
-      <c r="BK21" s="104"/>
-      <c r="BL21" s="104"/>
-      <c r="BM21" s="104"/>
-      <c r="BN21" s="104"/>
-      <c r="BO21" s="136"/>
+      <c r="BI21" s="111"/>
+      <c r="BJ21" s="111"/>
+      <c r="BK21" s="111"/>
+      <c r="BL21" s="111"/>
+      <c r="BM21" s="111"/>
+      <c r="BN21" s="111"/>
+      <c r="BO21" s="112"/>
     </row>
     <row r="22" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A22" s="230"/>
-      <c r="B22" s="230"/>
-      <c r="C22" s="188"/>
-      <c r="D22" s="188"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="100"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="279"/>
-      <c r="Z22" s="80"/>
-      <c r="AA22" s="279"/>
-      <c r="AB22" s="250"/>
-      <c r="AC22" s="168"/>
-      <c r="AD22" s="169"/>
-      <c r="AE22" s="169"/>
-      <c r="AF22" s="170"/>
-      <c r="AG22" s="93"/>
-      <c r="AH22" s="96"/>
-      <c r="AI22" s="96"/>
-      <c r="AJ22" s="103"/>
-      <c r="AK22" s="80"/>
-      <c r="AL22" s="96"/>
-      <c r="AM22" s="96"/>
-      <c r="AN22" s="103"/>
-      <c r="AO22" s="80"/>
-      <c r="AP22" s="96"/>
-      <c r="AQ22" s="96"/>
-      <c r="AR22" s="97"/>
-      <c r="AS22" s="195"/>
-      <c r="AT22" s="196"/>
-      <c r="AU22" s="196"/>
-      <c r="AV22" s="196"/>
-      <c r="AW22" s="197"/>
+      <c r="A22" s="286"/>
+      <c r="B22" s="286"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="207"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="170"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="130"/>
+      <c r="AD22" s="131"/>
+      <c r="AE22" s="131"/>
+      <c r="AF22" s="132"/>
+      <c r="AG22" s="109"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="54"/>
+      <c r="AJ22" s="105"/>
+      <c r="AK22" s="53"/>
+      <c r="AL22" s="54"/>
+      <c r="AM22" s="54"/>
+      <c r="AN22" s="105"/>
+      <c r="AO22" s="53"/>
+      <c r="AP22" s="54"/>
+      <c r="AQ22" s="54"/>
+      <c r="AR22" s="73"/>
+      <c r="AS22" s="174"/>
+      <c r="AT22" s="175"/>
+      <c r="AU22" s="175"/>
+      <c r="AV22" s="175"/>
+      <c r="AW22" s="176"/>
       <c r="AX22" s="13"/>
       <c r="AY22" s="4"/>
-      <c r="AZ22" s="105"/>
-      <c r="BA22" s="105"/>
-      <c r="BB22" s="105"/>
-      <c r="BC22" s="105"/>
-      <c r="BD22" s="105"/>
-      <c r="BE22" s="105"/>
-      <c r="BF22" s="105"/>
+      <c r="AZ22" s="64"/>
+      <c r="BA22" s="64"/>
+      <c r="BB22" s="64"/>
+      <c r="BC22" s="64"/>
+      <c r="BD22" s="64"/>
+      <c r="BE22" s="64"/>
+      <c r="BF22" s="64"/>
       <c r="BG22" s="13"/>
       <c r="BH22" s="4"/>
-      <c r="BI22" s="105"/>
-      <c r="BJ22" s="105"/>
-      <c r="BK22" s="105"/>
-      <c r="BL22" s="105"/>
-      <c r="BM22" s="105"/>
-      <c r="BN22" s="105"/>
-      <c r="BO22" s="137"/>
+      <c r="BI22" s="64"/>
+      <c r="BJ22" s="64"/>
+      <c r="BK22" s="64"/>
+      <c r="BL22" s="64"/>
+      <c r="BM22" s="64"/>
+      <c r="BN22" s="64"/>
+      <c r="BO22" s="113"/>
     </row>
     <row r="23" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A23" s="230"/>
-      <c r="B23" s="230"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="124" t="s">
+      <c r="A23" s="286"/>
+      <c r="B23" s="286"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="279" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="280"/>
+      <c r="G23" s="281"/>
+      <c r="H23" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="49"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="49"/>
+      <c r="AK23" s="49"/>
+      <c r="AL23" s="49"/>
+      <c r="AM23" s="49"/>
+      <c r="AN23" s="49"/>
+      <c r="AO23" s="49"/>
+      <c r="AP23" s="49"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="49"/>
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="49"/>
+      <c r="AU23" s="49"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
+      <c r="BB23" s="49"/>
+      <c r="BC23" s="49"/>
+      <c r="BD23" s="49"/>
+      <c r="BE23" s="49"/>
+      <c r="BF23" s="49"/>
+      <c r="BG23" s="49"/>
+      <c r="BH23" s="49"/>
+      <c r="BI23" s="49"/>
+      <c r="BJ23" s="49"/>
+      <c r="BK23" s="49"/>
+      <c r="BL23" s="49"/>
+      <c r="BM23" s="50"/>
+      <c r="BN23" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="BO23" s="98"/>
+      <c r="BP23" s="98"/>
+      <c r="BQ23" s="98"/>
+      <c r="BR23" s="98"/>
+      <c r="BS23" s="98"/>
+      <c r="BT23" s="98"/>
+      <c r="BU23" s="98"/>
+      <c r="BV23" s="98"/>
+      <c r="BW23" s="98"/>
+      <c r="BX23" s="98"/>
+      <c r="BY23" s="98"/>
+      <c r="BZ23" s="98"/>
+      <c r="CA23" s="98"/>
+      <c r="CB23" s="99"/>
+    </row>
+    <row r="24" spans="1:83" ht="15.75" customHeight="1">
+      <c r="A24" s="286"/>
+      <c r="B24" s="286"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="282"/>
+      <c r="H24" s="245"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="152"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="152"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="152"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="238" t="s">
+        <v>21</v>
+      </c>
+      <c r="W24" s="239"/>
+      <c r="X24" s="239"/>
+      <c r="Y24" s="239"/>
+      <c r="Z24" s="239"/>
+      <c r="AA24" s="239"/>
+      <c r="AB24" s="239"/>
+      <c r="AC24" s="239"/>
+      <c r="AD24" s="239"/>
+      <c r="AE24" s="240"/>
+      <c r="AF24" s="270" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG24" s="271"/>
+      <c r="AH24" s="271"/>
+      <c r="AI24" s="271"/>
+      <c r="AJ24" s="248"/>
+      <c r="AK24" s="248"/>
+      <c r="AL24" s="248"/>
+      <c r="AM24" s="248"/>
+      <c r="AN24" s="248"/>
+      <c r="AO24" s="248"/>
+      <c r="AP24" s="248"/>
+      <c r="AQ24" s="248"/>
+      <c r="AR24" s="248"/>
+      <c r="AS24" s="248"/>
+      <c r="AT24" s="248"/>
+      <c r="AU24" s="248"/>
+      <c r="AV24" s="248"/>
+      <c r="AW24" s="248"/>
+      <c r="AX24" s="248"/>
+      <c r="AY24" s="248"/>
+      <c r="AZ24" s="248"/>
+      <c r="BA24" s="248"/>
+      <c r="BB24" s="248"/>
+      <c r="BC24" s="248"/>
+      <c r="BD24" s="248"/>
+      <c r="BE24" s="248"/>
+      <c r="BF24" s="248"/>
+      <c r="BG24" s="248"/>
+      <c r="BH24" s="248"/>
+      <c r="BI24" s="248"/>
+      <c r="BJ24" s="248"/>
+      <c r="BK24" s="248"/>
+      <c r="BL24" s="248"/>
+      <c r="BM24" s="249"/>
+      <c r="BN24" s="250" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO24" s="251"/>
+      <c r="BP24" s="252"/>
+      <c r="BQ24" s="232"/>
+      <c r="BR24" s="233"/>
+      <c r="BS24" s="229"/>
+      <c r="BT24" s="230"/>
+      <c r="BU24" s="232"/>
+      <c r="BV24" s="233"/>
+      <c r="BW24" s="229"/>
+      <c r="BX24" s="230"/>
+      <c r="BY24" s="232"/>
+      <c r="BZ24" s="233"/>
+      <c r="CA24" s="229"/>
+      <c r="CB24" s="230"/>
+    </row>
+    <row r="25" spans="1:83" ht="15.75" customHeight="1">
+      <c r="A25" s="286"/>
+      <c r="B25" s="286"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="282"/>
+      <c r="H25" s="232"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="229"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="229"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="229"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="229"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="229"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="229"/>
+      <c r="U25" s="230"/>
+      <c r="V25" s="234"/>
+      <c r="W25" s="235"/>
+      <c r="X25" s="241"/>
+      <c r="Y25" s="235"/>
+      <c r="Z25" s="241"/>
+      <c r="AA25" s="235"/>
+      <c r="AB25" s="241"/>
+      <c r="AC25" s="235"/>
+      <c r="AD25" s="241"/>
+      <c r="AE25" s="272"/>
+      <c r="AF25" s="243"/>
+      <c r="AG25" s="111"/>
+      <c r="AH25" s="111"/>
+      <c r="AI25" s="111"/>
+      <c r="AJ25" s="111"/>
+      <c r="AK25" s="111"/>
+      <c r="AL25" s="111"/>
+      <c r="AM25" s="111"/>
+      <c r="AN25" s="111"/>
+      <c r="AO25" s="111"/>
+      <c r="AP25" s="111"/>
+      <c r="AQ25" s="111"/>
+      <c r="AR25" s="111"/>
+      <c r="AS25" s="111"/>
+      <c r="AT25" s="111"/>
+      <c r="AU25" s="111"/>
+      <c r="AV25" s="111"/>
+      <c r="AW25" s="111"/>
+      <c r="AX25" s="111"/>
+      <c r="AY25" s="111"/>
+      <c r="AZ25" s="111"/>
+      <c r="BA25" s="111"/>
+      <c r="BB25" s="111"/>
+      <c r="BC25" s="111"/>
+      <c r="BD25" s="111"/>
+      <c r="BE25" s="111"/>
+      <c r="BF25" s="111"/>
+      <c r="BG25" s="111"/>
+      <c r="BH25" s="111"/>
+      <c r="BI25" s="111"/>
+      <c r="BJ25" s="111"/>
+      <c r="BK25" s="111"/>
+      <c r="BL25" s="111"/>
+      <c r="BM25" s="112"/>
+      <c r="BN25" s="253"/>
+      <c r="BO25" s="251"/>
+      <c r="BP25" s="252"/>
+      <c r="BQ25" s="232"/>
+      <c r="BR25" s="233"/>
+      <c r="BS25" s="229"/>
+      <c r="BT25" s="230"/>
+      <c r="BU25" s="232"/>
+      <c r="BV25" s="233"/>
+      <c r="BW25" s="229"/>
+      <c r="BX25" s="230"/>
+      <c r="BY25" s="232"/>
+      <c r="BZ25" s="233"/>
+      <c r="CA25" s="229"/>
+      <c r="CB25" s="230"/>
+    </row>
+    <row r="26" spans="1:83" ht="15.75" customHeight="1">
+      <c r="A26" s="286"/>
+      <c r="B26" s="286"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="283"/>
+      <c r="H26" s="246"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="247"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="247"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="247"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="247"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="247"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="247"/>
+      <c r="U26" s="81"/>
+      <c r="V26" s="236"/>
+      <c r="W26" s="237"/>
+      <c r="X26" s="242"/>
+      <c r="Y26" s="237"/>
+      <c r="Z26" s="242"/>
+      <c r="AA26" s="237"/>
+      <c r="AB26" s="242"/>
+      <c r="AC26" s="237"/>
+      <c r="AD26" s="242"/>
+      <c r="AE26" s="273"/>
+      <c r="AF26" s="61"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="62"/>
+      <c r="AJ26" s="62"/>
+      <c r="AK26" s="62"/>
+      <c r="AL26" s="62"/>
+      <c r="AM26" s="62"/>
+      <c r="AN26" s="62"/>
+      <c r="AO26" s="62"/>
+      <c r="AP26" s="62"/>
+      <c r="AQ26" s="62"/>
+      <c r="AR26" s="62"/>
+      <c r="AS26" s="62"/>
+      <c r="AT26" s="62"/>
+      <c r="AU26" s="62"/>
+      <c r="AV26" s="62"/>
+      <c r="AW26" s="62"/>
+      <c r="AX26" s="62"/>
+      <c r="AY26" s="62"/>
+      <c r="AZ26" s="62"/>
+      <c r="BA26" s="62"/>
+      <c r="BB26" s="62"/>
+      <c r="BC26" s="62"/>
+      <c r="BD26" s="62"/>
+      <c r="BE26" s="62"/>
+      <c r="BF26" s="62"/>
+      <c r="BG26" s="62"/>
+      <c r="BH26" s="62"/>
+      <c r="BI26" s="62"/>
+      <c r="BJ26" s="62"/>
+      <c r="BK26" s="62"/>
+      <c r="BL26" s="62"/>
+      <c r="BM26" s="244"/>
+      <c r="BN26" s="253"/>
+      <c r="BO26" s="251"/>
+      <c r="BP26" s="252"/>
+      <c r="BQ26" s="232"/>
+      <c r="BR26" s="233"/>
+      <c r="BS26" s="229"/>
+      <c r="BT26" s="231"/>
+      <c r="BU26" s="232"/>
+      <c r="BV26" s="233"/>
+      <c r="BW26" s="229"/>
+      <c r="BX26" s="231"/>
+      <c r="BY26" s="232"/>
+      <c r="BZ26" s="233"/>
+      <c r="CA26" s="229"/>
+      <c r="CB26" s="231"/>
+    </row>
+    <row r="27" spans="1:83" ht="15.75" customHeight="1">
+      <c r="A27" s="286"/>
+      <c r="B27" s="286"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="125"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="53" t="s">
-        <v>33</v>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="60"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+      <c r="U27" s="60"/>
+      <c r="V27" s="60"/>
+      <c r="W27" s="60"/>
+      <c r="X27" s="60"/>
+      <c r="Y27" s="60"/>
+      <c r="Z27" s="60"/>
+      <c r="AA27" s="60"/>
+      <c r="AB27" s="60"/>
+      <c r="AC27" s="60"/>
+      <c r="AD27" s="60"/>
+      <c r="AE27" s="60"/>
+      <c r="AF27" s="60"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="60"/>
+      <c r="AI27" s="60"/>
+      <c r="AJ27" s="60"/>
+      <c r="AK27" s="60"/>
+      <c r="AL27" s="60"/>
+      <c r="AM27" s="60"/>
+      <c r="AN27" s="60"/>
+      <c r="AO27" s="60"/>
+      <c r="AP27" s="60"/>
+      <c r="AQ27" s="60"/>
+      <c r="AR27" s="60"/>
+      <c r="AS27" s="60"/>
+      <c r="AT27" s="60"/>
+      <c r="AU27" s="60"/>
+      <c r="AV27" s="60"/>
+      <c r="AW27" s="60"/>
+      <c r="AX27" s="60"/>
+      <c r="AY27" s="60"/>
+      <c r="AZ27" s="60"/>
+      <c r="BA27" s="60"/>
+      <c r="BB27" s="60"/>
+      <c r="BC27" s="60"/>
+      <c r="BD27" s="60"/>
+      <c r="BE27" s="60"/>
+      <c r="BF27" s="60"/>
+      <c r="BG27" s="284"/>
+      <c r="BH27" s="39" t="s">
+        <v>38</v>
       </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="54"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="54"/>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="54"/>
-      <c r="AE23" s="54"/>
-      <c r="AF23" s="54"/>
-      <c r="AG23" s="54"/>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="54"/>
-      <c r="AK23" s="54"/>
-      <c r="AL23" s="54"/>
-      <c r="AM23" s="54"/>
-      <c r="AN23" s="54"/>
-      <c r="AO23" s="54"/>
-      <c r="AP23" s="54"/>
-      <c r="AQ23" s="54"/>
-      <c r="AR23" s="54"/>
-      <c r="AS23" s="54"/>
-      <c r="AT23" s="54"/>
-      <c r="AU23" s="54"/>
-      <c r="AV23" s="54"/>
-      <c r="AW23" s="54"/>
-      <c r="AX23" s="54"/>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="54"/>
-      <c r="BA23" s="54"/>
-      <c r="BB23" s="54"/>
-      <c r="BC23" s="54"/>
-      <c r="BD23" s="54"/>
-      <c r="BE23" s="54"/>
-      <c r="BF23" s="54"/>
-      <c r="BG23" s="54"/>
-      <c r="BH23" s="54"/>
-      <c r="BI23" s="54"/>
-      <c r="BJ23" s="54"/>
-      <c r="BK23" s="54"/>
-      <c r="BL23" s="54"/>
-      <c r="BM23" s="55"/>
-      <c r="BN23" s="121" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO23" s="122"/>
-      <c r="BP23" s="122"/>
-      <c r="BQ23" s="122"/>
-      <c r="BR23" s="122"/>
-      <c r="BS23" s="122"/>
-      <c r="BT23" s="122"/>
-      <c r="BU23" s="122"/>
-      <c r="BV23" s="122"/>
-      <c r="BW23" s="122"/>
-      <c r="BX23" s="122"/>
-      <c r="BY23" s="122"/>
-      <c r="BZ23" s="122"/>
-      <c r="CA23" s="122"/>
-      <c r="CB23" s="123"/>
-    </row>
-    <row r="24" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A24" s="230"/>
-      <c r="B24" s="230"/>
-      <c r="C24" s="188"/>
-      <c r="D24" s="188"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="247"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="249"/>
-      <c r="V24" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="W24" s="49"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="49"/>
-      <c r="AE24" s="50"/>
-      <c r="AF24" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG24" s="73"/>
-      <c r="AH24" s="73"/>
-      <c r="AI24" s="73"/>
-      <c r="AJ24" s="251"/>
-      <c r="AK24" s="251"/>
-      <c r="AL24" s="251"/>
-      <c r="AM24" s="251"/>
-      <c r="AN24" s="251"/>
-      <c r="AO24" s="251"/>
-      <c r="AP24" s="251"/>
-      <c r="AQ24" s="251"/>
-      <c r="AR24" s="251"/>
-      <c r="AS24" s="251"/>
-      <c r="AT24" s="251"/>
-      <c r="AU24" s="251"/>
-      <c r="AV24" s="251"/>
-      <c r="AW24" s="251"/>
-      <c r="AX24" s="251"/>
-      <c r="AY24" s="251"/>
-      <c r="AZ24" s="251"/>
-      <c r="BA24" s="251"/>
-      <c r="BB24" s="251"/>
-      <c r="BC24" s="251"/>
-      <c r="BD24" s="251"/>
-      <c r="BE24" s="251"/>
-      <c r="BF24" s="251"/>
-      <c r="BG24" s="251"/>
-      <c r="BH24" s="251"/>
-      <c r="BI24" s="251"/>
-      <c r="BJ24" s="251"/>
-      <c r="BK24" s="251"/>
-      <c r="BL24" s="251"/>
-      <c r="BM24" s="252"/>
-      <c r="BN24" s="261" t="s">
+      <c r="BI27" s="40"/>
+      <c r="BJ27" s="41"/>
+      <c r="BK27" s="290" t="s">
         <v>58</v>
       </c>
-      <c r="BO24" s="262"/>
-      <c r="BP24" s="263"/>
-      <c r="BQ24" s="42"/>
-      <c r="BR24" s="43"/>
-      <c r="BS24" s="39"/>
-      <c r="BT24" s="40"/>
-      <c r="BU24" s="42"/>
-      <c r="BV24" s="43"/>
-      <c r="BW24" s="39"/>
-      <c r="BX24" s="40"/>
-      <c r="BY24" s="42"/>
-      <c r="BZ24" s="43"/>
-      <c r="CA24" s="39"/>
-      <c r="CB24" s="40"/>
-    </row>
-    <row r="25" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A25" s="230"/>
-      <c r="B25" s="230"/>
-      <c r="C25" s="188"/>
-      <c r="D25" s="188"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="78"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="78"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="74"/>
-      <c r="AF25" s="210"/>
-      <c r="AG25" s="104"/>
-      <c r="AH25" s="104"/>
-      <c r="AI25" s="104"/>
-      <c r="AJ25" s="104"/>
-      <c r="AK25" s="104"/>
-      <c r="AL25" s="104"/>
-      <c r="AM25" s="104"/>
-      <c r="AN25" s="104"/>
-      <c r="AO25" s="104"/>
-      <c r="AP25" s="104"/>
-      <c r="AQ25" s="104"/>
-      <c r="AR25" s="104"/>
-      <c r="AS25" s="104"/>
-      <c r="AT25" s="104"/>
-      <c r="AU25" s="104"/>
-      <c r="AV25" s="104"/>
-      <c r="AW25" s="104"/>
-      <c r="AX25" s="104"/>
-      <c r="AY25" s="104"/>
-      <c r="AZ25" s="104"/>
-      <c r="BA25" s="104"/>
-      <c r="BB25" s="104"/>
-      <c r="BC25" s="104"/>
-      <c r="BD25" s="104"/>
-      <c r="BE25" s="104"/>
-      <c r="BF25" s="104"/>
-      <c r="BG25" s="104"/>
-      <c r="BH25" s="104"/>
-      <c r="BI25" s="104"/>
-      <c r="BJ25" s="104"/>
-      <c r="BK25" s="104"/>
-      <c r="BL25" s="104"/>
-      <c r="BM25" s="136"/>
-      <c r="BN25" s="264"/>
-      <c r="BO25" s="262"/>
-      <c r="BP25" s="263"/>
-      <c r="BQ25" s="42"/>
-      <c r="BR25" s="43"/>
-      <c r="BS25" s="39"/>
-      <c r="BT25" s="40"/>
-      <c r="BU25" s="42"/>
-      <c r="BV25" s="43"/>
-      <c r="BW25" s="39"/>
-      <c r="BX25" s="40"/>
-      <c r="BY25" s="42"/>
-      <c r="BZ25" s="43"/>
-      <c r="CA25" s="39"/>
-      <c r="CB25" s="40"/>
-    </row>
-    <row r="26" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A26" s="230"/>
-      <c r="B26" s="230"/>
-      <c r="C26" s="188"/>
-      <c r="D26" s="188"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="248"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="80"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="250"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="52"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="47"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="75"/>
-      <c r="AF26" s="211"/>
-      <c r="AG26" s="212"/>
-      <c r="AH26" s="212"/>
-      <c r="AI26" s="212"/>
-      <c r="AJ26" s="212"/>
-      <c r="AK26" s="212"/>
-      <c r="AL26" s="212"/>
-      <c r="AM26" s="212"/>
-      <c r="AN26" s="212"/>
-      <c r="AO26" s="212"/>
-      <c r="AP26" s="212"/>
-      <c r="AQ26" s="212"/>
-      <c r="AR26" s="212"/>
-      <c r="AS26" s="212"/>
-      <c r="AT26" s="212"/>
-      <c r="AU26" s="212"/>
-      <c r="AV26" s="212"/>
-      <c r="AW26" s="212"/>
-      <c r="AX26" s="212"/>
-      <c r="AY26" s="212"/>
-      <c r="AZ26" s="212"/>
-      <c r="BA26" s="212"/>
-      <c r="BB26" s="212"/>
-      <c r="BC26" s="212"/>
-      <c r="BD26" s="212"/>
-      <c r="BE26" s="212"/>
-      <c r="BF26" s="212"/>
-      <c r="BG26" s="212"/>
-      <c r="BH26" s="212"/>
-      <c r="BI26" s="212"/>
-      <c r="BJ26" s="212"/>
-      <c r="BK26" s="212"/>
-      <c r="BL26" s="212"/>
-      <c r="BM26" s="213"/>
-      <c r="BN26" s="264"/>
-      <c r="BO26" s="262"/>
-      <c r="BP26" s="263"/>
-      <c r="BQ26" s="42"/>
-      <c r="BR26" s="43"/>
-      <c r="BS26" s="39"/>
-      <c r="BT26" s="41"/>
-      <c r="BU26" s="42"/>
-      <c r="BV26" s="43"/>
-      <c r="BW26" s="39"/>
-      <c r="BX26" s="41"/>
-      <c r="BY26" s="42"/>
-      <c r="BZ26" s="43"/>
-      <c r="CA26" s="39"/>
-      <c r="CB26" s="41"/>
-    </row>
-    <row r="27" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A27" s="230"/>
-      <c r="B27" s="230"/>
-      <c r="C27" s="188"/>
-      <c r="D27" s="188"/>
-      <c r="E27" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="87"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="293" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="294"/>
-      <c r="J27" s="294"/>
-      <c r="K27" s="294"/>
-      <c r="L27" s="294"/>
-      <c r="M27" s="295"/>
-      <c r="N27" s="198"/>
-      <c r="O27" s="199"/>
-      <c r="P27" s="199"/>
-      <c r="Q27" s="199"/>
-      <c r="R27" s="199"/>
-      <c r="S27" s="199"/>
-      <c r="T27" s="199"/>
-      <c r="U27" s="199"/>
-      <c r="V27" s="199"/>
-      <c r="W27" s="199"/>
-      <c r="X27" s="199"/>
-      <c r="Y27" s="199"/>
-      <c r="Z27" s="199"/>
-      <c r="AA27" s="199"/>
-      <c r="AB27" s="199"/>
-      <c r="AC27" s="199"/>
-      <c r="AD27" s="199"/>
-      <c r="AE27" s="199"/>
-      <c r="AF27" s="199"/>
-      <c r="AG27" s="199"/>
-      <c r="AH27" s="199"/>
-      <c r="AI27" s="199"/>
-      <c r="AJ27" s="199"/>
-      <c r="AK27" s="199"/>
-      <c r="AL27" s="199"/>
-      <c r="AM27" s="199"/>
-      <c r="AN27" s="199"/>
-      <c r="AO27" s="199"/>
-      <c r="AP27" s="199"/>
-      <c r="AQ27" s="199"/>
-      <c r="AR27" s="199"/>
-      <c r="AS27" s="199"/>
-      <c r="AT27" s="199"/>
-      <c r="AU27" s="199"/>
-      <c r="AV27" s="199"/>
-      <c r="AW27" s="199"/>
-      <c r="AX27" s="199"/>
-      <c r="AY27" s="199"/>
-      <c r="AZ27" s="199"/>
-      <c r="BA27" s="199"/>
-      <c r="BB27" s="199"/>
-      <c r="BC27" s="199"/>
-      <c r="BD27" s="199"/>
-      <c r="BE27" s="199"/>
-      <c r="BF27" s="199"/>
-      <c r="BG27" s="218"/>
-      <c r="BH27" s="287" t="s">
-        <v>40</v>
-      </c>
-      <c r="BI27" s="288"/>
-      <c r="BJ27" s="289"/>
-      <c r="BK27" s="241" t="s">
-        <v>55</v>
-      </c>
-      <c r="BL27" s="242"/>
-      <c r="BM27" s="242"/>
-      <c r="BN27" s="242"/>
-      <c r="BO27" s="242"/>
-      <c r="BP27" s="242"/>
-      <c r="BQ27" s="242"/>
-      <c r="BR27" s="242"/>
-      <c r="BS27" s="242"/>
-      <c r="BT27" s="242"/>
-      <c r="BU27" s="242"/>
-      <c r="BV27" s="242"/>
-      <c r="BW27" s="242"/>
-      <c r="BX27" s="242"/>
-      <c r="BY27" s="242"/>
-      <c r="BZ27" s="242"/>
-      <c r="CA27" s="242"/>
-      <c r="CB27" s="242"/>
-      <c r="CC27" s="242"/>
-      <c r="CD27" s="243"/>
+      <c r="BL27" s="290"/>
+      <c r="BM27" s="290"/>
+      <c r="BN27" s="290"/>
+      <c r="BO27" s="290"/>
+      <c r="BP27" s="290"/>
+      <c r="BQ27" s="290"/>
+      <c r="BR27" s="290"/>
+      <c r="BS27" s="290"/>
+      <c r="BT27" s="290"/>
+      <c r="BU27" s="290"/>
+      <c r="BV27" s="290"/>
+      <c r="BW27" s="290"/>
+      <c r="BX27" s="290"/>
+      <c r="BY27" s="290"/>
+      <c r="BZ27" s="290"/>
+      <c r="CA27" s="290"/>
+      <c r="CB27" s="290"/>
+      <c r="CC27" s="290"/>
+      <c r="CD27" s="291"/>
       <c r="CE27" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:83" ht="22.5" customHeight="1">
-      <c r="A28" s="230"/>
-      <c r="B28" s="230"/>
-      <c r="C28" s="188"/>
-      <c r="D28" s="188"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="280" t="s">
-        <v>35</v>
+      <c r="A28" s="286"/>
+      <c r="B28" s="286"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="82" t="s">
+        <v>33</v>
       </c>
-      <c r="I28" s="281"/>
-      <c r="J28" s="281"/>
-      <c r="K28" s="281"/>
-      <c r="L28" s="281"/>
-      <c r="M28" s="282"/>
-      <c r="N28" s="200"/>
-      <c r="O28" s="105"/>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="105"/>
-      <c r="S28" s="105"/>
-      <c r="T28" s="105"/>
-      <c r="U28" s="105"/>
-      <c r="V28" s="105"/>
-      <c r="W28" s="105"/>
-      <c r="X28" s="105"/>
-      <c r="Y28" s="105"/>
-      <c r="Z28" s="105"/>
-      <c r="AA28" s="105"/>
-      <c r="AB28" s="105"/>
-      <c r="AC28" s="105"/>
-      <c r="AD28" s="105"/>
-      <c r="AE28" s="105"/>
-      <c r="AF28" s="105"/>
-      <c r="AG28" s="105"/>
-      <c r="AH28" s="105"/>
-      <c r="AI28" s="105"/>
-      <c r="AJ28" s="105"/>
-      <c r="AK28" s="105"/>
-      <c r="AL28" s="105"/>
-      <c r="AM28" s="105"/>
-      <c r="AN28" s="105"/>
-      <c r="AO28" s="105"/>
-      <c r="AP28" s="105"/>
-      <c r="AQ28" s="105"/>
-      <c r="AR28" s="105"/>
-      <c r="AS28" s="105"/>
-      <c r="AT28" s="105"/>
-      <c r="AU28" s="105"/>
-      <c r="AV28" s="105"/>
-      <c r="AW28" s="105"/>
-      <c r="AX28" s="105"/>
-      <c r="AY28" s="105"/>
-      <c r="AZ28" s="105"/>
-      <c r="BA28" s="105"/>
-      <c r="BB28" s="105"/>
-      <c r="BC28" s="105"/>
-      <c r="BD28" s="105"/>
-      <c r="BE28" s="105"/>
-      <c r="BF28" s="105"/>
-      <c r="BG28" s="219"/>
-      <c r="BH28" s="290"/>
-      <c r="BI28" s="291"/>
-      <c r="BJ28" s="292"/>
-      <c r="BK28" s="244"/>
-      <c r="BL28" s="245"/>
-      <c r="BM28" s="245"/>
-      <c r="BN28" s="245"/>
-      <c r="BO28" s="245"/>
-      <c r="BP28" s="245"/>
-      <c r="BQ28" s="245"/>
-      <c r="BR28" s="245"/>
-      <c r="BS28" s="245"/>
-      <c r="BT28" s="245"/>
-      <c r="BU28" s="245"/>
-      <c r="BV28" s="245"/>
-      <c r="BW28" s="245"/>
-      <c r="BX28" s="245"/>
-      <c r="BY28" s="245"/>
-      <c r="BZ28" s="245"/>
-      <c r="CA28" s="245"/>
-      <c r="CB28" s="245"/>
-      <c r="CC28" s="245"/>
-      <c r="CD28" s="246"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="64"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="64"/>
+      <c r="AO28" s="64"/>
+      <c r="AP28" s="64"/>
+      <c r="AQ28" s="64"/>
+      <c r="AR28" s="64"/>
+      <c r="AS28" s="64"/>
+      <c r="AT28" s="64"/>
+      <c r="AU28" s="64"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="64"/>
+      <c r="AX28" s="64"/>
+      <c r="AY28" s="64"/>
+      <c r="AZ28" s="64"/>
+      <c r="BA28" s="64"/>
+      <c r="BB28" s="64"/>
+      <c r="BC28" s="64"/>
+      <c r="BD28" s="64"/>
+      <c r="BE28" s="64"/>
+      <c r="BF28" s="64"/>
+      <c r="BG28" s="285"/>
+      <c r="BH28" s="42"/>
+      <c r="BI28" s="43"/>
+      <c r="BJ28" s="44"/>
+      <c r="BK28" s="292"/>
+      <c r="BL28" s="292"/>
+      <c r="BM28" s="292"/>
+      <c r="BN28" s="292"/>
+      <c r="BO28" s="292"/>
+      <c r="BP28" s="292"/>
+      <c r="BQ28" s="292"/>
+      <c r="BR28" s="292"/>
+      <c r="BS28" s="292"/>
+      <c r="BT28" s="292"/>
+      <c r="BU28" s="292"/>
+      <c r="BV28" s="292"/>
+      <c r="BW28" s="292"/>
+      <c r="BX28" s="292"/>
+      <c r="BY28" s="292"/>
+      <c r="BZ28" s="292"/>
+      <c r="CA28" s="292"/>
+      <c r="CB28" s="292"/>
+      <c r="CC28" s="292"/>
+      <c r="CD28" s="293"/>
     </row>
     <row r="29" spans="1:83" ht="10.5" customHeight="1">
       <c r="A29" s="20"/>
@@ -7628,86 +7434,86 @@
       <c r="Z30"/>
       <c r="AA30"/>
       <c r="AB30"/>
-      <c r="BQ30" s="48" t="s">
-        <v>51</v>
+      <c r="BQ30" s="238" t="s">
+        <v>48</v>
       </c>
-      <c r="BR30" s="49"/>
-      <c r="BS30" s="49"/>
-      <c r="BT30" s="49"/>
-      <c r="BU30" s="49"/>
-      <c r="BV30" s="49"/>
-      <c r="BW30" s="49"/>
-      <c r="BX30" s="49"/>
-      <c r="BY30" s="49"/>
-      <c r="BZ30" s="49"/>
-      <c r="CA30" s="49"/>
-      <c r="CB30" s="50"/>
+      <c r="BR30" s="239"/>
+      <c r="BS30" s="239"/>
+      <c r="BT30" s="239"/>
+      <c r="BU30" s="239"/>
+      <c r="BV30" s="239"/>
+      <c r="BW30" s="239"/>
+      <c r="BX30" s="239"/>
+      <c r="BY30" s="239"/>
+      <c r="BZ30" s="239"/>
+      <c r="CA30" s="239"/>
+      <c r="CB30" s="240"/>
     </row>
     <row r="31" spans="1:83" ht="15.75" customHeight="1">
       <c r="A31" s="20"/>
-      <c r="B31" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="82"/>
-      <c r="AB31" s="83"/>
-      <c r="AU31" s="269" t="s">
+      <c r="B31" s="274" t="s">
         <v>59</v>
       </c>
-      <c r="AV31" s="269"/>
-      <c r="AW31" s="269"/>
-      <c r="AX31" s="269"/>
-      <c r="AY31" s="269"/>
-      <c r="AZ31" s="269"/>
-      <c r="BA31" s="269"/>
-      <c r="BB31" s="269"/>
-      <c r="BC31" s="269"/>
-      <c r="BD31" s="269"/>
-      <c r="BE31" s="269"/>
-      <c r="BF31" s="269"/>
-      <c r="BG31" s="269"/>
-      <c r="BH31" s="269"/>
-      <c r="BI31" s="269"/>
-      <c r="BJ31" s="269"/>
-      <c r="BK31" s="269"/>
-      <c r="BL31" s="269"/>
-      <c r="BM31" s="269"/>
-      <c r="BN31" s="269"/>
-      <c r="BQ31" s="53"/>
-      <c r="BR31" s="54"/>
-      <c r="BS31" s="54"/>
-      <c r="BT31" s="54"/>
-      <c r="BU31" s="54"/>
-      <c r="BV31" s="54"/>
-      <c r="BW31" s="54"/>
-      <c r="BX31" s="54"/>
-      <c r="BY31" s="54"/>
-      <c r="BZ31" s="54"/>
-      <c r="CA31" s="54"/>
-      <c r="CB31" s="55"/>
+      <c r="C31" s="275"/>
+      <c r="D31" s="275"/>
+      <c r="E31" s="275"/>
+      <c r="F31" s="275"/>
+      <c r="G31" s="275"/>
+      <c r="H31" s="275"/>
+      <c r="I31" s="275"/>
+      <c r="J31" s="275"/>
+      <c r="K31" s="275"/>
+      <c r="L31" s="275"/>
+      <c r="M31" s="275"/>
+      <c r="N31" s="275"/>
+      <c r="O31" s="275"/>
+      <c r="P31" s="275"/>
+      <c r="Q31" s="275"/>
+      <c r="R31" s="275"/>
+      <c r="S31" s="275"/>
+      <c r="T31" s="275"/>
+      <c r="U31" s="275"/>
+      <c r="V31" s="275"/>
+      <c r="W31" s="275"/>
+      <c r="X31" s="275"/>
+      <c r="Y31" s="275"/>
+      <c r="Z31" s="275"/>
+      <c r="AA31" s="275"/>
+      <c r="AB31" s="276"/>
+      <c r="AU31" s="287" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV31" s="287"/>
+      <c r="AW31" s="287"/>
+      <c r="AX31" s="287"/>
+      <c r="AY31" s="287"/>
+      <c r="AZ31" s="287"/>
+      <c r="BA31" s="287"/>
+      <c r="BB31" s="287"/>
+      <c r="BC31" s="287"/>
+      <c r="BD31" s="287"/>
+      <c r="BE31" s="287"/>
+      <c r="BF31" s="287"/>
+      <c r="BG31" s="287"/>
+      <c r="BH31" s="287"/>
+      <c r="BI31" s="287"/>
+      <c r="BJ31" s="287"/>
+      <c r="BK31" s="287"/>
+      <c r="BL31" s="287"/>
+      <c r="BM31" s="287"/>
+      <c r="BN31" s="287"/>
+      <c r="BQ31" s="48"/>
+      <c r="BR31" s="49"/>
+      <c r="BS31" s="49"/>
+      <c r="BT31" s="49"/>
+      <c r="BU31" s="49"/>
+      <c r="BV31" s="49"/>
+      <c r="BW31" s="49"/>
+      <c r="BX31" s="49"/>
+      <c r="BY31" s="49"/>
+      <c r="BZ31" s="49"/>
+      <c r="CA31" s="49"/>
+      <c r="CB31" s="50"/>
     </row>
     <row r="32" spans="1:83" ht="21" customHeight="1">
       <c r="A32" s="25"/>
@@ -7744,25 +7550,25 @@
       <c r="BF32" s="24"/>
       <c r="BI32" s="24"/>
       <c r="BJ32" s="24"/>
-      <c r="BQ32" s="56"/>
-      <c r="BR32" s="57"/>
-      <c r="BS32" s="57"/>
-      <c r="BT32" s="57"/>
-      <c r="BU32" s="57"/>
-      <c r="BV32" s="57"/>
-      <c r="BW32" s="57"/>
-      <c r="BX32" s="57"/>
-      <c r="BY32" s="57"/>
-      <c r="BZ32" s="57"/>
-      <c r="CA32" s="57"/>
-      <c r="CB32" s="58"/>
+      <c r="BQ32" s="258"/>
+      <c r="BR32" s="259"/>
+      <c r="BS32" s="259"/>
+      <c r="BT32" s="259"/>
+      <c r="BU32" s="259"/>
+      <c r="BV32" s="259"/>
+      <c r="BW32" s="259"/>
+      <c r="BX32" s="259"/>
+      <c r="BY32" s="259"/>
+      <c r="BZ32" s="259"/>
+      <c r="CA32" s="259"/>
+      <c r="CB32" s="260"/>
     </row>
     <row r="33" spans="1:81" ht="21" customHeight="1">
       <c r="A33" s="20"/>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="261" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="63"/>
+      <c r="C33" s="262"/>
       <c r="D33" s="29" t="s">
         <v>10</v>
       </c>
@@ -7772,26 +7578,26 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="69"/>
-      <c r="AG33" s="272"/>
-      <c r="AH33" s="272"/>
+      <c r="K33" s="267"/>
+      <c r="L33" s="267"/>
+      <c r="M33" s="267"/>
+      <c r="N33" s="267"/>
+      <c r="O33" s="267"/>
+      <c r="P33" s="267"/>
+      <c r="Q33" s="267"/>
+      <c r="R33" s="267"/>
+      <c r="S33" s="267"/>
+      <c r="T33" s="267"/>
+      <c r="U33" s="267"/>
+      <c r="V33" s="267"/>
+      <c r="W33" s="267"/>
+      <c r="X33" s="267"/>
+      <c r="Y33" s="267"/>
+      <c r="Z33" s="267"/>
+      <c r="AA33" s="267"/>
+      <c r="AB33" s="268"/>
+      <c r="AG33" s="58"/>
+      <c r="AH33" s="58"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9"/>
@@ -7820,23 +7626,23 @@
       <c r="BH33" s="2"/>
       <c r="BI33" s="2"/>
       <c r="BJ33" s="2"/>
-      <c r="BQ33" s="56"/>
-      <c r="BR33" s="57"/>
-      <c r="BS33" s="57"/>
-      <c r="BT33" s="57"/>
-      <c r="BU33" s="57"/>
-      <c r="BV33" s="57"/>
-      <c r="BW33" s="57"/>
-      <c r="BX33" s="57"/>
-      <c r="BY33" s="57"/>
-      <c r="BZ33" s="57"/>
-      <c r="CA33" s="57"/>
-      <c r="CB33" s="58"/>
+      <c r="BQ33" s="258"/>
+      <c r="BR33" s="259"/>
+      <c r="BS33" s="259"/>
+      <c r="BT33" s="259"/>
+      <c r="BU33" s="259"/>
+      <c r="BV33" s="259"/>
+      <c r="BW33" s="259"/>
+      <c r="BX33" s="259"/>
+      <c r="BY33" s="259"/>
+      <c r="BZ33" s="259"/>
+      <c r="CA33" s="259"/>
+      <c r="CB33" s="260"/>
     </row>
     <row r="34" spans="1:81" ht="21" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
+      <c r="B34" s="261"/>
+      <c r="C34" s="262"/>
       <c r="D34" s="29" t="s">
         <v>9</v>
       </c>
@@ -7846,38 +7652,38 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="69"/>
-      <c r="AG34" s="272"/>
-      <c r="AH34" s="272"/>
-      <c r="AI34" s="53"/>
-      <c r="AJ34" s="54"/>
-      <c r="AK34" s="54"/>
-      <c r="AL34" s="54"/>
-      <c r="AM34" s="54"/>
-      <c r="AN34" s="54"/>
-      <c r="AO34" s="54"/>
-      <c r="AP34" s="54"/>
-      <c r="AQ34" s="54"/>
-      <c r="AR34" s="54"/>
-      <c r="AS34" s="54"/>
-      <c r="AT34" s="55"/>
+      <c r="K34" s="267"/>
+      <c r="L34" s="267"/>
+      <c r="M34" s="267"/>
+      <c r="N34" s="267"/>
+      <c r="O34" s="267"/>
+      <c r="P34" s="267"/>
+      <c r="Q34" s="267"/>
+      <c r="R34" s="267"/>
+      <c r="S34" s="267"/>
+      <c r="T34" s="267"/>
+      <c r="U34" s="267"/>
+      <c r="V34" s="267"/>
+      <c r="W34" s="267"/>
+      <c r="X34" s="267"/>
+      <c r="Y34" s="267"/>
+      <c r="Z34" s="267"/>
+      <c r="AA34" s="267"/>
+      <c r="AB34" s="268"/>
+      <c r="AG34" s="58"/>
+      <c r="AH34" s="58"/>
+      <c r="AI34" s="48"/>
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="49"/>
+      <c r="AL34" s="49"/>
+      <c r="AM34" s="49"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="49"/>
+      <c r="AS34" s="49"/>
+      <c r="AT34" s="50"/>
       <c r="AU34" s="9"/>
       <c r="AV34" s="9"/>
       <c r="AW34" s="9"/>
@@ -7894,23 +7700,23 @@
       <c r="BH34" s="9"/>
       <c r="BI34" s="9"/>
       <c r="BJ34" s="9"/>
-      <c r="BQ34" s="56"/>
-      <c r="BR34" s="57"/>
-      <c r="BS34" s="57"/>
-      <c r="BT34" s="57"/>
-      <c r="BU34" s="57"/>
-      <c r="BV34" s="57"/>
-      <c r="BW34" s="57"/>
-      <c r="BX34" s="57"/>
-      <c r="BY34" s="57"/>
-      <c r="BZ34" s="57"/>
-      <c r="CA34" s="57"/>
-      <c r="CB34" s="58"/>
+      <c r="BQ34" s="258"/>
+      <c r="BR34" s="259"/>
+      <c r="BS34" s="259"/>
+      <c r="BT34" s="259"/>
+      <c r="BU34" s="259"/>
+      <c r="BV34" s="259"/>
+      <c r="BW34" s="259"/>
+      <c r="BX34" s="259"/>
+      <c r="BY34" s="259"/>
+      <c r="BZ34" s="259"/>
+      <c r="CA34" s="259"/>
+      <c r="CB34" s="260"/>
     </row>
     <row r="35" spans="1:81" ht="21" customHeight="1">
       <c r="A35" s="20"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
+      <c r="B35" s="261"/>
+      <c r="C35" s="262"/>
       <c r="D35" s="29" t="s">
         <v>11</v>
       </c>
@@ -7920,52 +7726,52 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="68"/>
-      <c r="Q35" s="68"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
-      <c r="Z35" s="68"/>
+      <c r="K35" s="267"/>
+      <c r="L35" s="267"/>
+      <c r="M35" s="267"/>
+      <c r="N35" s="267"/>
+      <c r="O35" s="267"/>
+      <c r="P35" s="267"/>
+      <c r="Q35" s="267"/>
+      <c r="R35" s="267"/>
+      <c r="S35" s="267"/>
+      <c r="T35" s="267"/>
+      <c r="U35" s="267"/>
+      <c r="V35" s="267"/>
+      <c r="W35" s="267"/>
+      <c r="X35" s="267"/>
+      <c r="Y35" s="267"/>
+      <c r="Z35" s="267"/>
       <c r="AA35" s="35" t="s">
         <v>7</v>
       </c>
       <c r="AB35" s="3"/>
-      <c r="AG35" s="272"/>
-      <c r="AH35" s="272"/>
-      <c r="AI35" s="198"/>
-      <c r="AJ35" s="199"/>
-      <c r="AK35" s="199"/>
-      <c r="AL35" s="199"/>
-      <c r="AM35" s="199"/>
-      <c r="AN35" s="199"/>
-      <c r="AO35" s="199"/>
-      <c r="AP35" s="199"/>
-      <c r="AQ35" s="199"/>
-      <c r="AR35" s="199"/>
-      <c r="AS35" s="199"/>
-      <c r="AT35" s="199"/>
-      <c r="AU35" s="199"/>
-      <c r="AV35" s="199"/>
-      <c r="AW35" s="199"/>
-      <c r="AX35" s="199"/>
-      <c r="AY35" s="199"/>
-      <c r="AZ35" s="199"/>
-      <c r="BA35" s="199"/>
-      <c r="BB35" s="199"/>
-      <c r="BC35" s="199"/>
-      <c r="BD35" s="199"/>
-      <c r="BE35" s="199"/>
-      <c r="BF35" s="49" t="s">
+      <c r="AG35" s="58"/>
+      <c r="AH35" s="58"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="60"/>
+      <c r="AK35" s="60"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="60"/>
+      <c r="AN35" s="60"/>
+      <c r="AO35" s="60"/>
+      <c r="AP35" s="60"/>
+      <c r="AQ35" s="60"/>
+      <c r="AR35" s="60"/>
+      <c r="AS35" s="60"/>
+      <c r="AT35" s="60"/>
+      <c r="AU35" s="60"/>
+      <c r="AV35" s="60"/>
+      <c r="AW35" s="60"/>
+      <c r="AX35" s="60"/>
+      <c r="AY35" s="60"/>
+      <c r="AZ35" s="60"/>
+      <c r="BA35" s="60"/>
+      <c r="BB35" s="60"/>
+      <c r="BC35" s="60"/>
+      <c r="BD35" s="60"/>
+      <c r="BE35" s="60"/>
+      <c r="BF35" s="239" t="s">
         <v>7</v>
       </c>
       <c r="BG35" s="36"/>
@@ -7976,76 +7782,76 @@
       <c r="BN35"/>
       <c r="BO35"/>
       <c r="BP35"/>
-      <c r="BQ35" s="56"/>
-      <c r="BR35" s="57"/>
-      <c r="BS35" s="57"/>
-      <c r="BT35" s="57"/>
-      <c r="BU35" s="57"/>
-      <c r="BV35" s="57"/>
-      <c r="BW35" s="57"/>
-      <c r="BX35" s="57"/>
-      <c r="BY35" s="57"/>
-      <c r="BZ35" s="57"/>
-      <c r="CA35" s="57"/>
-      <c r="CB35" s="58"/>
+      <c r="BQ35" s="258"/>
+      <c r="BR35" s="259"/>
+      <c r="BS35" s="259"/>
+      <c r="BT35" s="259"/>
+      <c r="BU35" s="259"/>
+      <c r="BV35" s="259"/>
+      <c r="BW35" s="259"/>
+      <c r="BX35" s="259"/>
+      <c r="BY35" s="259"/>
+      <c r="BZ35" s="259"/>
+      <c r="CA35" s="259"/>
+      <c r="CB35" s="260"/>
     </row>
     <row r="36" spans="1:81" ht="12.75" customHeight="1">
       <c r="A36" s="20"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="66" t="s">
+      <c r="B36" s="261"/>
+      <c r="C36" s="262"/>
+      <c r="D36" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="68"/>
-      <c r="R36" s="68"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="68"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68"/>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="68"/>
-      <c r="Z36" s="68"/>
-      <c r="AA36" s="68"/>
-      <c r="AB36" s="69"/>
-      <c r="AG36" s="272"/>
-      <c r="AH36" s="272"/>
-      <c r="AI36" s="211"/>
-      <c r="AJ36" s="212"/>
-      <c r="AK36" s="212"/>
-      <c r="AL36" s="212"/>
-      <c r="AM36" s="212"/>
-      <c r="AN36" s="212"/>
-      <c r="AO36" s="212"/>
-      <c r="AP36" s="212"/>
-      <c r="AQ36" s="212"/>
-      <c r="AR36" s="212"/>
-      <c r="AS36" s="212"/>
-      <c r="AT36" s="212"/>
-      <c r="AU36" s="212"/>
-      <c r="AV36" s="212"/>
-      <c r="AW36" s="212"/>
-      <c r="AX36" s="212"/>
-      <c r="AY36" s="212"/>
-      <c r="AZ36" s="212"/>
-      <c r="BA36" s="212"/>
-      <c r="BB36" s="212"/>
-      <c r="BC36" s="212"/>
-      <c r="BD36" s="212"/>
-      <c r="BE36" s="212"/>
-      <c r="BF36" s="84"/>
+      <c r="E36" s="265"/>
+      <c r="F36" s="265"/>
+      <c r="G36" s="265"/>
+      <c r="H36" s="265"/>
+      <c r="I36" s="265"/>
+      <c r="J36" s="265"/>
+      <c r="K36" s="267"/>
+      <c r="L36" s="267"/>
+      <c r="M36" s="267"/>
+      <c r="N36" s="267"/>
+      <c r="O36" s="267"/>
+      <c r="P36" s="267"/>
+      <c r="Q36" s="267"/>
+      <c r="R36" s="267"/>
+      <c r="S36" s="267"/>
+      <c r="T36" s="267"/>
+      <c r="U36" s="267"/>
+      <c r="V36" s="267"/>
+      <c r="W36" s="267"/>
+      <c r="X36" s="267"/>
+      <c r="Y36" s="267"/>
+      <c r="Z36" s="267"/>
+      <c r="AA36" s="267"/>
+      <c r="AB36" s="268"/>
+      <c r="AG36" s="58"/>
+      <c r="AH36" s="58"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="62"/>
+      <c r="AK36" s="62"/>
+      <c r="AL36" s="62"/>
+      <c r="AM36" s="62"/>
+      <c r="AN36" s="62"/>
+      <c r="AO36" s="62"/>
+      <c r="AP36" s="62"/>
+      <c r="AQ36" s="62"/>
+      <c r="AR36" s="62"/>
+      <c r="AS36" s="62"/>
+      <c r="AT36" s="62"/>
+      <c r="AU36" s="62"/>
+      <c r="AV36" s="62"/>
+      <c r="AW36" s="62"/>
+      <c r="AX36" s="62"/>
+      <c r="AY36" s="62"/>
+      <c r="AZ36" s="62"/>
+      <c r="BA36" s="62"/>
+      <c r="BB36" s="62"/>
+      <c r="BC36" s="62"/>
+      <c r="BD36" s="62"/>
+      <c r="BE36" s="62"/>
+      <c r="BF36" s="277"/>
       <c r="BG36" s="9"/>
       <c r="BH36" s="9"/>
       <c r="BI36" s="38"/>
@@ -8053,78 +7859,78 @@
       <c r="BN36"/>
       <c r="BO36"/>
       <c r="BP36"/>
-      <c r="BQ36" s="56"/>
-      <c r="BR36" s="57"/>
-      <c r="BS36" s="57"/>
-      <c r="BT36" s="57"/>
-      <c r="BU36" s="57"/>
-      <c r="BV36" s="57"/>
-      <c r="BW36" s="57"/>
-      <c r="BX36" s="57"/>
-      <c r="BY36" s="57"/>
-      <c r="BZ36" s="57"/>
-      <c r="CA36" s="57"/>
-      <c r="CB36" s="58"/>
+      <c r="BQ36" s="258"/>
+      <c r="BR36" s="259"/>
+      <c r="BS36" s="259"/>
+      <c r="BT36" s="259"/>
+      <c r="BU36" s="259"/>
+      <c r="BV36" s="259"/>
+      <c r="BW36" s="259"/>
+      <c r="BX36" s="259"/>
+      <c r="BY36" s="259"/>
+      <c r="BZ36" s="259"/>
+      <c r="CA36" s="259"/>
+      <c r="CB36" s="260"/>
     </row>
     <row r="37" spans="1:81" ht="12.75" customHeight="1">
       <c r="A37"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="70"/>
-      <c r="O37" s="70"/>
-      <c r="P37" s="70"/>
-      <c r="Q37" s="70"/>
-      <c r="R37" s="70"/>
-      <c r="S37" s="70"/>
-      <c r="T37" s="70"/>
-      <c r="U37" s="70"/>
-      <c r="V37" s="70"/>
-      <c r="W37" s="70"/>
-      <c r="X37" s="70"/>
-      <c r="Y37" s="70"/>
-      <c r="Z37" s="70"/>
-      <c r="AA37" s="70"/>
-      <c r="AB37" s="71"/>
+      <c r="B37" s="263"/>
+      <c r="C37" s="264"/>
+      <c r="D37" s="266"/>
+      <c r="E37" s="266"/>
+      <c r="F37" s="266"/>
+      <c r="G37" s="266"/>
+      <c r="H37" s="266"/>
+      <c r="I37" s="266"/>
+      <c r="J37" s="266"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="269"/>
       <c r="AC37"/>
       <c r="AD37"/>
       <c r="AE37"/>
       <c r="AF37"/>
-      <c r="AG37" s="272"/>
-      <c r="AH37" s="272"/>
-      <c r="AI37" s="200"/>
-      <c r="AJ37" s="105"/>
-      <c r="AK37" s="105"/>
-      <c r="AL37" s="105"/>
-      <c r="AM37" s="105"/>
-      <c r="AN37" s="105"/>
-      <c r="AO37" s="105"/>
-      <c r="AP37" s="105"/>
-      <c r="AQ37" s="105"/>
-      <c r="AR37" s="105"/>
-      <c r="AS37" s="105"/>
-      <c r="AT37" s="105"/>
-      <c r="AU37" s="105"/>
-      <c r="AV37" s="105"/>
-      <c r="AW37" s="105"/>
-      <c r="AX37" s="105"/>
-      <c r="AY37" s="105"/>
-      <c r="AZ37" s="105"/>
-      <c r="BA37" s="105"/>
-      <c r="BB37" s="105"/>
-      <c r="BC37" s="105"/>
-      <c r="BD37" s="105"/>
-      <c r="BE37" s="105"/>
-      <c r="BF37" s="85"/>
+      <c r="AG37" s="58"/>
+      <c r="AH37" s="58"/>
+      <c r="AI37" s="63"/>
+      <c r="AJ37" s="64"/>
+      <c r="AK37" s="64"/>
+      <c r="AL37" s="64"/>
+      <c r="AM37" s="64"/>
+      <c r="AN37" s="64"/>
+      <c r="AO37" s="64"/>
+      <c r="AP37" s="64"/>
+      <c r="AQ37" s="64"/>
+      <c r="AR37" s="64"/>
+      <c r="AS37" s="64"/>
+      <c r="AT37" s="64"/>
+      <c r="AU37" s="64"/>
+      <c r="AV37" s="64"/>
+      <c r="AW37" s="64"/>
+      <c r="AX37" s="64"/>
+      <c r="AY37" s="64"/>
+      <c r="AZ37" s="64"/>
+      <c r="BA37" s="64"/>
+      <c r="BB37" s="64"/>
+      <c r="BC37" s="64"/>
+      <c r="BD37" s="64"/>
+      <c r="BE37" s="64"/>
+      <c r="BF37" s="278"/>
       <c r="BG37" s="26"/>
       <c r="BH37" s="26"/>
       <c r="BI37" s="27"/>
@@ -8135,18 +7941,18 @@
       <c r="BN37"/>
       <c r="BO37"/>
       <c r="BP37"/>
-      <c r="BQ37" s="59"/>
-      <c r="BR37" s="60"/>
-      <c r="BS37" s="60"/>
-      <c r="BT37" s="60"/>
-      <c r="BU37" s="60"/>
-      <c r="BV37" s="60"/>
-      <c r="BW37" s="60"/>
-      <c r="BX37" s="60"/>
-      <c r="BY37" s="60"/>
-      <c r="BZ37" s="60"/>
-      <c r="CA37" s="60"/>
-      <c r="CB37" s="61"/>
+      <c r="BQ37" s="185"/>
+      <c r="BR37" s="186"/>
+      <c r="BS37" s="186"/>
+      <c r="BT37" s="186"/>
+      <c r="BU37" s="186"/>
+      <c r="BV37" s="186"/>
+      <c r="BW37" s="186"/>
+      <c r="BX37" s="186"/>
+      <c r="BY37" s="186"/>
+      <c r="BZ37" s="186"/>
+      <c r="CA37" s="186"/>
+      <c r="CB37" s="187"/>
       <c r="CC37"/>
     </row>
     <row r="38" spans="1:81" ht="17.25" customHeight="1">
@@ -10988,69 +10794,97 @@
     </row>
   </sheetData>
   <mergeCells count="163">
+    <mergeCell ref="BQ30:CB30"/>
+    <mergeCell ref="BQ31:CB37"/>
+    <mergeCell ref="B33:C37"/>
+    <mergeCell ref="D36:J37"/>
+    <mergeCell ref="K36:AB37"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="K33:AB33"/>
+    <mergeCell ref="K34:AB34"/>
+    <mergeCell ref="K35:Z35"/>
+    <mergeCell ref="AD25:AE26"/>
+    <mergeCell ref="P24:Q26"/>
+    <mergeCell ref="N24:O26"/>
+    <mergeCell ref="BW24:BX26"/>
+    <mergeCell ref="BU24:BV26"/>
+    <mergeCell ref="AB25:AC26"/>
+    <mergeCell ref="AI34:AT34"/>
+    <mergeCell ref="B31:AB31"/>
+    <mergeCell ref="BF35:BF37"/>
+    <mergeCell ref="BS24:BT26"/>
+    <mergeCell ref="E23:G26"/>
+    <mergeCell ref="N27:BG28"/>
+    <mergeCell ref="A6:B28"/>
+    <mergeCell ref="BK27:CD28"/>
     <mergeCell ref="AU31:BN31"/>
-    <mergeCell ref="E19:AJ19"/>
-    <mergeCell ref="AG33:AH37"/>
-    <mergeCell ref="AI35:BE37"/>
-    <mergeCell ref="AB9:AD11"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="W21:X22"/>
-    <mergeCell ref="AD14:AG15"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="V9:W11"/>
-    <mergeCell ref="E14:J15"/>
-    <mergeCell ref="N9:O11"/>
-    <mergeCell ref="R9:S11"/>
-    <mergeCell ref="T9:U11"/>
-    <mergeCell ref="AS20:AT20"/>
-    <mergeCell ref="E27:G28"/>
-    <mergeCell ref="BH27:BJ28"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H23:U23"/>
-    <mergeCell ref="AK21:AL22"/>
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="A6:B28"/>
-    <mergeCell ref="Z25:AA26"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="BD8:BI8"/>
-    <mergeCell ref="AE9:AH9"/>
-    <mergeCell ref="H10:M11"/>
-    <mergeCell ref="BK27:CD28"/>
     <mergeCell ref="H24:I26"/>
-    <mergeCell ref="Q21:R22"/>
     <mergeCell ref="L24:M26"/>
     <mergeCell ref="J24:K26"/>
     <mergeCell ref="T24:U26"/>
     <mergeCell ref="R24:S26"/>
     <mergeCell ref="AJ24:BM24"/>
-    <mergeCell ref="J12:M13"/>
     <mergeCell ref="BN23:CB23"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="E20:AB20"/>
-    <mergeCell ref="K7:L8"/>
     <mergeCell ref="BN24:BP26"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="P9:Q11"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E9:G11"/>
+    <mergeCell ref="E19:AJ19"/>
+    <mergeCell ref="CA24:CB26"/>
+    <mergeCell ref="BY24:BZ26"/>
+    <mergeCell ref="V25:W26"/>
+    <mergeCell ref="V24:AE24"/>
+    <mergeCell ref="X25:Y26"/>
     <mergeCell ref="V23:BM23"/>
     <mergeCell ref="AF25:BM26"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="Z25:AA26"/>
+    <mergeCell ref="E9:G11"/>
     <mergeCell ref="AE10:CB11"/>
     <mergeCell ref="N12:CB13"/>
-    <mergeCell ref="N27:BG28"/>
+    <mergeCell ref="AG21:AH22"/>
+    <mergeCell ref="H10:M11"/>
+    <mergeCell ref="J12:M13"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="AI21:AJ22"/>
+    <mergeCell ref="AZ21:BF22"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="K14:N15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="AV7:BA7"/>
+    <mergeCell ref="AV8:BA8"/>
+    <mergeCell ref="BB8:BC8"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="AC20:AR20"/>
+    <mergeCell ref="BY2:CC2"/>
+    <mergeCell ref="BT2:BX2"/>
+    <mergeCell ref="BN2:BS2"/>
+    <mergeCell ref="BI2:BM2"/>
+    <mergeCell ref="BN3:BS4"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="BY3:CC4"/>
+    <mergeCell ref="W4:AH4"/>
+    <mergeCell ref="W3:AH3"/>
+    <mergeCell ref="AK3:BB4"/>
+    <mergeCell ref="BI3:BM4"/>
+    <mergeCell ref="BJ7:BM8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="BT3:BX4"/>
+    <mergeCell ref="BS7:BT8"/>
+    <mergeCell ref="AT6:BI6"/>
+    <mergeCell ref="BN7:BP8"/>
+    <mergeCell ref="BB7:BI7"/>
     <mergeCell ref="CA6:CB8"/>
-    <mergeCell ref="AG21:AH22"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="V7:W8"/>
-    <mergeCell ref="V6:AS6"/>
-    <mergeCell ref="BG20:BO20"/>
-    <mergeCell ref="AM21:AN22"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="AB7:AC8"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="BJ6:BZ6"/>
     <mergeCell ref="BQ7:BR8"/>
@@ -11075,82 +10909,54 @@
     <mergeCell ref="AS21:AW22"/>
     <mergeCell ref="Q7:U8"/>
     <mergeCell ref="O21:P22"/>
-    <mergeCell ref="BY2:CC2"/>
-    <mergeCell ref="BT2:BX2"/>
-    <mergeCell ref="BN2:BS2"/>
-    <mergeCell ref="BI2:BM2"/>
-    <mergeCell ref="BN3:BS4"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="BY3:CC4"/>
-    <mergeCell ref="W4:AH4"/>
-    <mergeCell ref="W3:AH3"/>
-    <mergeCell ref="AK3:BB4"/>
-    <mergeCell ref="BI3:BM4"/>
-    <mergeCell ref="BJ7:BM8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="BT3:BX4"/>
-    <mergeCell ref="BS7:BT8"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="V7:W8"/>
+    <mergeCell ref="V6:AS6"/>
+    <mergeCell ref="BG20:BO20"/>
+    <mergeCell ref="AM21:AN22"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="U14:V15"/>
     <mergeCell ref="BI21:BO22"/>
     <mergeCell ref="AH14:BM15"/>
     <mergeCell ref="AA14:AC15"/>
     <mergeCell ref="BA20:BF20"/>
-    <mergeCell ref="AT6:BI6"/>
-    <mergeCell ref="BN7:BP8"/>
-    <mergeCell ref="BB7:BI7"/>
     <mergeCell ref="AC21:AF22"/>
     <mergeCell ref="AI9:CB9"/>
     <mergeCell ref="AQ21:AR22"/>
     <mergeCell ref="AN18:BW19"/>
-    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="BD8:BI8"/>
+    <mergeCell ref="AE9:AH9"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="AR7:AS8"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="E20:AB20"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="BH27:BJ28"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H23:U23"/>
+    <mergeCell ref="AK21:AL22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="AG33:AH37"/>
+    <mergeCell ref="AI35:BE37"/>
+    <mergeCell ref="AB9:AD11"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="AD14:AG15"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="V9:W11"/>
+    <mergeCell ref="E14:J15"/>
+    <mergeCell ref="N9:O11"/>
+    <mergeCell ref="R9:S11"/>
+    <mergeCell ref="T9:U11"/>
+    <mergeCell ref="AS20:AT20"/>
+    <mergeCell ref="E27:G28"/>
     <mergeCell ref="E12:G13"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="AB7:AC8"/>
     <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AZ21:BF22"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="K14:N15"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="AV7:BA7"/>
-    <mergeCell ref="AV8:BA8"/>
-    <mergeCell ref="BB8:BC8"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="AC20:AR20"/>
-    <mergeCell ref="E23:G26"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="CA24:CB26"/>
-    <mergeCell ref="BY24:BZ26"/>
-    <mergeCell ref="V25:W26"/>
-    <mergeCell ref="V24:AE24"/>
-    <mergeCell ref="X25:Y26"/>
-    <mergeCell ref="BQ30:CB30"/>
-    <mergeCell ref="BQ31:CB37"/>
-    <mergeCell ref="B33:C37"/>
-    <mergeCell ref="D36:J37"/>
-    <mergeCell ref="K36:AB37"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="K33:AB33"/>
-    <mergeCell ref="K34:AB34"/>
-    <mergeCell ref="K35:Z35"/>
-    <mergeCell ref="AD25:AE26"/>
-    <mergeCell ref="P24:Q26"/>
-    <mergeCell ref="N24:O26"/>
-    <mergeCell ref="BW24:BX26"/>
-    <mergeCell ref="BU24:BV26"/>
-    <mergeCell ref="AB25:AC26"/>
-    <mergeCell ref="AI34:AT34"/>
-    <mergeCell ref="B31:AB31"/>
-    <mergeCell ref="BF35:BF37"/>
-    <mergeCell ref="BS24:BT26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.51181102362204722"/>
@@ -11255,14 +11061,14 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>62</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:col>61</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>64</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>76200</xdr:rowOff>
                   </to>
@@ -11277,14 +11083,14 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>62</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:col>61</xdr:col>
+                    <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>64</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
@@ -233,16 +233,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電　　　　　　話</t>
-    <rPh sb="0" eb="1">
-      <t>デン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハナシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -709,6 +699,9 @@
     <t>事務センター長
 所　　　　　　 長</t>
   </si>
+  <si>
+    <t>電 話</t>
+  </si>
 </sst>
 </file>
 
@@ -1850,7 +1843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1966,6 +1959,708 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1993,33 +2688,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2029,54 +2700,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2086,15 +2718,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2133,603 +2756,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3131,7 +3157,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8053552" y="5071242"/>
+          <a:off x="7247540" y="5456512"/>
           <a:ext cx="276422" cy="225703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3910,14 +3936,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -3934,7 +3960,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3438525" y="4295775"/>
+          <a:off x="3476625" y="4295775"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3976,14 +4002,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -4000,7 +4026,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448050" y="4438650"/>
+          <a:off x="3486150" y="4438650"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4042,14 +4068,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -4066,7 +4092,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448050" y="4581525"/>
+          <a:off x="3486150" y="4581525"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4109,15 +4135,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4132,8 +4158,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6038850" y="3143250"/>
-          <a:ext cx="1152525" cy="161925"/>
+          <a:off x="5981700" y="3152775"/>
+          <a:ext cx="1247775" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4158,7 +4184,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -4170,14 +4196,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -4194,7 +4220,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7505700" y="1514475"/>
+          <a:off x="7562850" y="1514475"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4236,14 +4262,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -4260,7 +4286,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7515225" y="1657350"/>
+          <a:off x="7572375" y="1657350"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4302,14 +4328,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
@@ -4326,7 +4352,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7505700" y="1800225"/>
+          <a:off x="7562850" y="1800225"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4369,13 +4395,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
+      <xdr:colOff>57151</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:colOff>85726</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>2571</xdr:rowOff>
     </xdr:to>
@@ -4392,7 +4418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4114801" y="2990850"/>
+          <a:off x="4143376" y="2990850"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4434,13 +4460,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>2571</xdr:rowOff>
     </xdr:to>
@@ -4457,7 +4483,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4105275" y="3190875"/>
+          <a:off x="4133850" y="3190875"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4498,14 +4524,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>2571</xdr:rowOff>
     </xdr:to>
@@ -4522,7 +4548,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5048251" y="2990850"/>
+          <a:off x="5076826" y="2990850"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4563,14 +4589,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>193071</xdr:rowOff>
     </xdr:to>
@@ -4587,7 +4613,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067301" y="3181350"/>
+          <a:off x="5095876" y="3181350"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4629,13 +4655,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>31146</xdr:rowOff>
     </xdr:to>
@@ -4652,7 +4678,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7696200" y="5581650"/>
+          <a:off x="7724775" y="5581650"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4694,13 +4720,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>50196</xdr:rowOff>
     </xdr:to>
@@ -4717,7 +4743,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8372475" y="5600700"/>
+          <a:off x="8401050" y="5600700"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4759,13 +4785,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>183546</xdr:rowOff>
     </xdr:to>
@@ -4782,7 +4808,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7696200" y="5734050"/>
+          <a:off x="7724775" y="5734050"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4824,13 +4850,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>202596</xdr:rowOff>
     </xdr:to>
@@ -4847,7 +4873,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8382000" y="5753100"/>
+          <a:off x="8410575" y="5753100"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4953,16 +4979,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4977,8 +5003,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9753600" y="5734050"/>
-          <a:ext cx="609600" cy="161925"/>
+          <a:off x="9039225" y="5743574"/>
+          <a:ext cx="800100" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5003,7 +5029,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -5306,8 +5332,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CE76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BB32" sqref="BB32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4:AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -5323,948 +5349,948 @@
   <sheetData>
     <row r="1" spans="1:81" ht="26.25" customHeight="1"/>
     <row r="2" spans="1:81" ht="20.25" customHeight="1">
-      <c r="A2" s="151"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="BI2" s="184" t="s">
-        <v>60</v>
+      <c r="A2" s="207"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="BI2" s="188" t="s">
+        <v>59</v>
       </c>
-      <c r="BJ2" s="180"/>
-      <c r="BK2" s="180"/>
-      <c r="BL2" s="180"/>
-      <c r="BM2" s="180"/>
-      <c r="BN2" s="181" t="s">
+      <c r="BJ2" s="184"/>
+      <c r="BK2" s="184"/>
+      <c r="BL2" s="184"/>
+      <c r="BM2" s="184"/>
+      <c r="BN2" s="185" t="s">
+        <v>23</v>
+      </c>
+      <c r="BO2" s="186"/>
+      <c r="BP2" s="186"/>
+      <c r="BQ2" s="186"/>
+      <c r="BR2" s="186"/>
+      <c r="BS2" s="187"/>
+      <c r="BT2" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="BO2" s="182"/>
-      <c r="BP2" s="182"/>
-      <c r="BQ2" s="182"/>
-      <c r="BR2" s="182"/>
-      <c r="BS2" s="183"/>
-      <c r="BT2" s="180" t="s">
+      <c r="BU2" s="184"/>
+      <c r="BV2" s="184"/>
+      <c r="BW2" s="184"/>
+      <c r="BX2" s="184"/>
+      <c r="BY2" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="BU2" s="180"/>
-      <c r="BV2" s="180"/>
-      <c r="BW2" s="180"/>
-      <c r="BX2" s="180"/>
-      <c r="BY2" s="177" t="s">
+      <c r="BZ2" s="182"/>
+      <c r="CA2" s="182"/>
+      <c r="CB2" s="182"/>
+      <c r="CC2" s="183"/>
+    </row>
+    <row r="3" spans="1:81" ht="18" customHeight="1">
+      <c r="A3" s="207"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="W3" s="193"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="193"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="193"/>
+      <c r="AC3" s="193"/>
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="193"/>
+      <c r="AG3" s="193"/>
+      <c r="AH3" s="193"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="BZ2" s="178"/>
-      <c r="CA2" s="178"/>
-      <c r="CB2" s="178"/>
-      <c r="CC2" s="179"/>
-    </row>
-    <row r="3" spans="1:81" ht="18" customHeight="1">
-      <c r="A3" s="151"/>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="W3" s="191"/>
-      <c r="X3" s="191"/>
-      <c r="Y3" s="191"/>
-      <c r="Z3" s="191"/>
-      <c r="AA3" s="191"/>
-      <c r="AB3" s="191"/>
-      <c r="AC3" s="191"/>
-      <c r="AD3" s="191"/>
-      <c r="AE3" s="191"/>
-      <c r="AF3" s="191"/>
-      <c r="AG3" s="191"/>
-      <c r="AH3" s="191"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="190" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL3" s="190"/>
-      <c r="AM3" s="190"/>
-      <c r="AN3" s="190"/>
-      <c r="AO3" s="190"/>
-      <c r="AP3" s="190"/>
-      <c r="AQ3" s="190"/>
-      <c r="AR3" s="190"/>
-      <c r="AS3" s="190"/>
-      <c r="AT3" s="190"/>
-      <c r="AU3" s="190"/>
-      <c r="AV3" s="190"/>
-      <c r="AW3" s="190"/>
-      <c r="AX3" s="190"/>
-      <c r="AY3" s="190"/>
-      <c r="AZ3" s="190"/>
-      <c r="BA3" s="190"/>
-      <c r="BB3" s="190"/>
+      <c r="AL3" s="192"/>
+      <c r="AM3" s="192"/>
+      <c r="AN3" s="192"/>
+      <c r="AO3" s="192"/>
+      <c r="AP3" s="192"/>
+      <c r="AQ3" s="192"/>
+      <c r="AR3" s="192"/>
+      <c r="AS3" s="192"/>
+      <c r="AT3" s="192"/>
+      <c r="AU3" s="192"/>
+      <c r="AV3" s="192"/>
+      <c r="AW3" s="192"/>
+      <c r="AX3" s="192"/>
+      <c r="AY3" s="192"/>
+      <c r="AZ3" s="192"/>
+      <c r="BA3" s="192"/>
+      <c r="BB3" s="192"/>
       <c r="BC3" s="6"/>
       <c r="BD3" s="6"/>
       <c r="BE3" s="6"/>
       <c r="BF3" s="6"/>
       <c r="BG3" s="6"/>
       <c r="BH3" s="7"/>
-      <c r="BI3" s="48"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="49"/>
-      <c r="BL3" s="49"/>
-      <c r="BM3" s="50"/>
-      <c r="BN3" s="48"/>
-      <c r="BO3" s="49"/>
-      <c r="BP3" s="49"/>
-      <c r="BQ3" s="49"/>
-      <c r="BR3" s="49"/>
-      <c r="BS3" s="50"/>
-      <c r="BT3" s="48"/>
-      <c r="BU3" s="49"/>
-      <c r="BV3" s="49"/>
-      <c r="BW3" s="49"/>
-      <c r="BX3" s="50"/>
-      <c r="BY3" s="48"/>
-      <c r="BZ3" s="49"/>
-      <c r="CA3" s="49"/>
-      <c r="CB3" s="49"/>
-      <c r="CC3" s="50"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="44"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="44"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="43"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="43"/>
+      <c r="BX3" s="44"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="43"/>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="44"/>
     </row>
     <row r="4" spans="1:81" ht="18" customHeight="1">
-      <c r="W4" s="190"/>
-      <c r="X4" s="190"/>
-      <c r="Y4" s="190"/>
-      <c r="Z4" s="190"/>
-      <c r="AA4" s="190"/>
-      <c r="AB4" s="190"/>
-      <c r="AC4" s="190"/>
-      <c r="AD4" s="190"/>
-      <c r="AE4" s="190"/>
-      <c r="AF4" s="190"/>
-      <c r="AG4" s="190"/>
-      <c r="AH4" s="190"/>
+      <c r="W4" s="192"/>
+      <c r="X4" s="192"/>
+      <c r="Y4" s="192"/>
+      <c r="Z4" s="192"/>
+      <c r="AA4" s="192"/>
+      <c r="AB4" s="192"/>
+      <c r="AC4" s="192"/>
+      <c r="AD4" s="192"/>
+      <c r="AE4" s="192"/>
+      <c r="AF4" s="192"/>
+      <c r="AG4" s="192"/>
+      <c r="AH4" s="192"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="190"/>
-      <c r="AL4" s="190"/>
-      <c r="AM4" s="190"/>
-      <c r="AN4" s="190"/>
-      <c r="AO4" s="190"/>
-      <c r="AP4" s="190"/>
-      <c r="AQ4" s="190"/>
-      <c r="AR4" s="190"/>
-      <c r="AS4" s="190"/>
-      <c r="AT4" s="190"/>
-      <c r="AU4" s="190"/>
-      <c r="AV4" s="190"/>
-      <c r="AW4" s="190"/>
-      <c r="AX4" s="190"/>
-      <c r="AY4" s="190"/>
-      <c r="AZ4" s="190"/>
-      <c r="BA4" s="190"/>
-      <c r="BB4" s="190"/>
+      <c r="AK4" s="192"/>
+      <c r="AL4" s="192"/>
+      <c r="AM4" s="192"/>
+      <c r="AN4" s="192"/>
+      <c r="AO4" s="192"/>
+      <c r="AP4" s="192"/>
+      <c r="AQ4" s="192"/>
+      <c r="AR4" s="192"/>
+      <c r="AS4" s="192"/>
+      <c r="AT4" s="192"/>
+      <c r="AU4" s="192"/>
+      <c r="AV4" s="192"/>
+      <c r="AW4" s="192"/>
+      <c r="AX4" s="192"/>
+      <c r="AY4" s="192"/>
+      <c r="AZ4" s="192"/>
+      <c r="BA4" s="192"/>
+      <c r="BB4" s="192"/>
       <c r="BC4" s="6"/>
       <c r="BD4" s="6"/>
       <c r="BE4" s="6"/>
       <c r="BF4" s="6"/>
       <c r="BG4" s="6"/>
       <c r="BH4" s="7"/>
-      <c r="BI4" s="185"/>
-      <c r="BJ4" s="186"/>
-      <c r="BK4" s="186"/>
-      <c r="BL4" s="186"/>
-      <c r="BM4" s="187"/>
-      <c r="BN4" s="185"/>
-      <c r="BO4" s="186"/>
-      <c r="BP4" s="186"/>
-      <c r="BQ4" s="186"/>
-      <c r="BR4" s="186"/>
-      <c r="BS4" s="187"/>
-      <c r="BT4" s="185"/>
-      <c r="BU4" s="186"/>
-      <c r="BV4" s="186"/>
-      <c r="BW4" s="186"/>
-      <c r="BX4" s="187"/>
-      <c r="BY4" s="185"/>
-      <c r="BZ4" s="186"/>
-      <c r="CA4" s="186"/>
-      <c r="CB4" s="186"/>
-      <c r="CC4" s="187"/>
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="49"/>
+      <c r="BK4" s="49"/>
+      <c r="BL4" s="49"/>
+      <c r="BM4" s="50"/>
+      <c r="BN4" s="48"/>
+      <c r="BO4" s="49"/>
+      <c r="BP4" s="49"/>
+      <c r="BQ4" s="49"/>
+      <c r="BR4" s="49"/>
+      <c r="BS4" s="50"/>
+      <c r="BT4" s="48"/>
+      <c r="BU4" s="49"/>
+      <c r="BV4" s="49"/>
+      <c r="BW4" s="49"/>
+      <c r="BX4" s="50"/>
+      <c r="BY4" s="48"/>
+      <c r="BZ4" s="49"/>
+      <c r="CA4" s="49"/>
+      <c r="CB4" s="49"/>
+      <c r="CC4" s="50"/>
     </row>
     <row r="5" spans="1:81" ht="9" customHeight="1"/>
     <row r="6" spans="1:81" ht="24" customHeight="1">
-      <c r="A6" s="286" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="286"/>
-      <c r="C6" s="166" t="s">
+      <c r="A6" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="166"/>
-      <c r="E6" s="161" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="219" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="219"/>
+      <c r="E6" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-      <c r="Q6" s="288" t="s">
-        <v>56</v>
+      <c r="F6" s="214"/>
+      <c r="G6" s="214"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="214"/>
+      <c r="N6" s="214"/>
+      <c r="O6" s="214"/>
+      <c r="P6" s="214"/>
+      <c r="Q6" s="233" t="s">
+        <v>55</v>
       </c>
-      <c r="R6" s="289"/>
-      <c r="S6" s="289"/>
-      <c r="T6" s="289"/>
-      <c r="U6" s="289"/>
-      <c r="V6" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="98"/>
-      <c r="AB6" s="98"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="98"/>
-      <c r="AG6" s="98"/>
-      <c r="AH6" s="98"/>
-      <c r="AI6" s="98"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="98"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="98"/>
-      <c r="AO6" s="98"/>
-      <c r="AP6" s="98"/>
-      <c r="AQ6" s="98"/>
-      <c r="AR6" s="98"/>
-      <c r="AS6" s="99"/>
-      <c r="AT6" s="98" t="s">
+      <c r="R6" s="234"/>
+      <c r="S6" s="234"/>
+      <c r="T6" s="234"/>
+      <c r="U6" s="234"/>
+      <c r="V6" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="AU6" s="98"/>
-      <c r="AV6" s="98"/>
-      <c r="AW6" s="98"/>
-      <c r="AX6" s="98"/>
-      <c r="AY6" s="98"/>
-      <c r="AZ6" s="98"/>
-      <c r="BA6" s="98"/>
-      <c r="BB6" s="98"/>
-      <c r="BC6" s="98"/>
-      <c r="BD6" s="98"/>
-      <c r="BE6" s="98"/>
-      <c r="BF6" s="98"/>
-      <c r="BG6" s="98"/>
-      <c r="BH6" s="98"/>
-      <c r="BI6" s="99"/>
-      <c r="BJ6" s="48" t="s">
+      <c r="W6" s="112"/>
+      <c r="X6" s="112"/>
+      <c r="Y6" s="112"/>
+      <c r="Z6" s="112"/>
+      <c r="AA6" s="112"/>
+      <c r="AB6" s="112"/>
+      <c r="AC6" s="112"/>
+      <c r="AD6" s="112"/>
+      <c r="AE6" s="112"/>
+      <c r="AF6" s="112"/>
+      <c r="AG6" s="112"/>
+      <c r="AH6" s="112"/>
+      <c r="AI6" s="112"/>
+      <c r="AJ6" s="112"/>
+      <c r="AK6" s="112"/>
+      <c r="AL6" s="112"/>
+      <c r="AM6" s="112"/>
+      <c r="AN6" s="112"/>
+      <c r="AO6" s="112"/>
+      <c r="AP6" s="112"/>
+      <c r="AQ6" s="112"/>
+      <c r="AR6" s="112"/>
+      <c r="AS6" s="113"/>
+      <c r="AT6" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU6" s="112"/>
+      <c r="AV6" s="112"/>
+      <c r="AW6" s="112"/>
+      <c r="AX6" s="112"/>
+      <c r="AY6" s="112"/>
+      <c r="AZ6" s="112"/>
+      <c r="BA6" s="112"/>
+      <c r="BB6" s="112"/>
+      <c r="BC6" s="112"/>
+      <c r="BD6" s="112"/>
+      <c r="BE6" s="112"/>
+      <c r="BF6" s="112"/>
+      <c r="BG6" s="112"/>
+      <c r="BH6" s="112"/>
+      <c r="BI6" s="113"/>
+      <c r="BJ6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="BK6" s="49"/>
-      <c r="BL6" s="49"/>
-      <c r="BM6" s="49"/>
-      <c r="BN6" s="49"/>
-      <c r="BO6" s="49"/>
-      <c r="BP6" s="49"/>
-      <c r="BQ6" s="49"/>
-      <c r="BR6" s="49"/>
-      <c r="BS6" s="49"/>
-      <c r="BT6" s="49"/>
-      <c r="BU6" s="49"/>
-      <c r="BV6" s="49"/>
-      <c r="BW6" s="49"/>
-      <c r="BX6" s="49"/>
-      <c r="BY6" s="49"/>
-      <c r="BZ6" s="50"/>
-      <c r="CA6" s="194"/>
-      <c r="CB6" s="195"/>
+      <c r="BK6" s="43"/>
+      <c r="BL6" s="43"/>
+      <c r="BM6" s="43"/>
+      <c r="BN6" s="43"/>
+      <c r="BO6" s="43"/>
+      <c r="BP6" s="43"/>
+      <c r="BQ6" s="43"/>
+      <c r="BR6" s="43"/>
+      <c r="BS6" s="43"/>
+      <c r="BT6" s="43"/>
+      <c r="BU6" s="43"/>
+      <c r="BV6" s="43"/>
+      <c r="BW6" s="43"/>
+      <c r="BX6" s="43"/>
+      <c r="BY6" s="43"/>
+      <c r="BZ6" s="44"/>
+      <c r="CA6" s="203"/>
+      <c r="CB6" s="204"/>
       <c r="CC6" s="10"/>
     </row>
     <row r="7" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A7" s="286"/>
-      <c r="B7" s="286"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="162"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="95"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="188"/>
-      <c r="AE7" s="109"/>
-      <c r="AF7" s="196"/>
-      <c r="AG7" s="109"/>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="54"/>
-      <c r="AJ7" s="54"/>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="54"/>
-      <c r="AN7" s="54"/>
-      <c r="AO7" s="54"/>
-      <c r="AP7" s="54"/>
-      <c r="AQ7" s="54"/>
-      <c r="AR7" s="143"/>
-      <c r="AS7" s="144"/>
-      <c r="AT7" s="146" t="s">
-        <v>40</v>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="212"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="213"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="215"/>
+      <c r="Q7" s="230"/>
+      <c r="R7" s="231"/>
+      <c r="S7" s="231"/>
+      <c r="T7" s="231"/>
+      <c r="U7" s="231"/>
+      <c r="V7" s="235"/>
+      <c r="W7" s="236"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="147"/>
+      <c r="Z7" s="147"/>
+      <c r="AA7" s="147"/>
+      <c r="AB7" s="147"/>
+      <c r="AC7" s="162"/>
+      <c r="AD7" s="189"/>
+      <c r="AE7" s="146"/>
+      <c r="AF7" s="205"/>
+      <c r="AG7" s="146"/>
+      <c r="AH7" s="147"/>
+      <c r="AI7" s="147"/>
+      <c r="AJ7" s="147"/>
+      <c r="AK7" s="162"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="147"/>
+      <c r="AN7" s="147"/>
+      <c r="AO7" s="147"/>
+      <c r="AP7" s="147"/>
+      <c r="AQ7" s="147"/>
+      <c r="AR7" s="266"/>
+      <c r="AS7" s="267"/>
+      <c r="AT7" s="269" t="s">
+        <v>39</v>
       </c>
-      <c r="AU7" s="147"/>
-      <c r="AV7" s="201"/>
-      <c r="AW7" s="201"/>
-      <c r="AX7" s="201"/>
-      <c r="AY7" s="201"/>
-      <c r="AZ7" s="201"/>
-      <c r="BA7" s="202"/>
-      <c r="BB7" s="192"/>
-      <c r="BC7" s="126"/>
-      <c r="BD7" s="126"/>
-      <c r="BE7" s="126"/>
-      <c r="BF7" s="126"/>
-      <c r="BG7" s="126"/>
-      <c r="BH7" s="126"/>
-      <c r="BI7" s="193"/>
-      <c r="BJ7" s="127" t="s">
-        <v>51</v>
+      <c r="AU7" s="270"/>
+      <c r="AV7" s="173"/>
+      <c r="AW7" s="173"/>
+      <c r="AX7" s="173"/>
+      <c r="AY7" s="173"/>
+      <c r="AZ7" s="173"/>
+      <c r="BA7" s="174"/>
+      <c r="BB7" s="200"/>
+      <c r="BC7" s="201"/>
+      <c r="BD7" s="201"/>
+      <c r="BE7" s="201"/>
+      <c r="BF7" s="201"/>
+      <c r="BG7" s="201"/>
+      <c r="BH7" s="201"/>
+      <c r="BI7" s="202"/>
+      <c r="BJ7" s="194" t="s">
+        <v>50</v>
       </c>
-      <c r="BK7" s="128"/>
-      <c r="BL7" s="128"/>
-      <c r="BM7" s="129"/>
-      <c r="BN7" s="107"/>
-      <c r="BO7" s="56"/>
-      <c r="BP7" s="156"/>
-      <c r="BQ7" s="152"/>
-      <c r="BR7" s="153"/>
-      <c r="BS7" s="56"/>
-      <c r="BT7" s="156"/>
-      <c r="BU7" s="156"/>
-      <c r="BV7" s="110"/>
-      <c r="BW7" s="56"/>
-      <c r="BX7" s="156"/>
-      <c r="BY7" s="156"/>
-      <c r="BZ7" s="157"/>
-      <c r="CA7" s="194"/>
-      <c r="CB7" s="195"/>
+      <c r="BK7" s="195"/>
+      <c r="BL7" s="195"/>
+      <c r="BM7" s="196"/>
+      <c r="BN7" s="158"/>
+      <c r="BO7" s="68"/>
+      <c r="BP7" s="160"/>
+      <c r="BQ7" s="67"/>
+      <c r="BR7" s="208"/>
+      <c r="BS7" s="68"/>
+      <c r="BT7" s="160"/>
+      <c r="BU7" s="160"/>
+      <c r="BV7" s="172"/>
+      <c r="BW7" s="68"/>
+      <c r="BX7" s="160"/>
+      <c r="BY7" s="160"/>
+      <c r="BZ7" s="161"/>
+      <c r="CA7" s="203"/>
+      <c r="CB7" s="204"/>
       <c r="CC7" s="10"/>
     </row>
     <row r="8" spans="1:81" ht="21.75" customHeight="1">
-      <c r="A8" s="286"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="169"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="162"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="96"/>
-      <c r="X8" s="170"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="189"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="197"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="170"/>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="145"/>
-      <c r="AS8" s="113"/>
-      <c r="AT8" s="137" t="s">
-        <v>41</v>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="219"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="216"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="215"/>
+      <c r="Q8" s="232"/>
+      <c r="R8" s="168"/>
+      <c r="S8" s="168"/>
+      <c r="T8" s="168"/>
+      <c r="U8" s="168"/>
+      <c r="V8" s="232"/>
+      <c r="W8" s="237"/>
+      <c r="X8" s="163"/>
+      <c r="Y8" s="155"/>
+      <c r="Z8" s="155"/>
+      <c r="AA8" s="155"/>
+      <c r="AB8" s="155"/>
+      <c r="AC8" s="164"/>
+      <c r="AD8" s="190"/>
+      <c r="AE8" s="191"/>
+      <c r="AF8" s="206"/>
+      <c r="AG8" s="191"/>
+      <c r="AH8" s="155"/>
+      <c r="AI8" s="155"/>
+      <c r="AJ8" s="155"/>
+      <c r="AK8" s="164"/>
+      <c r="AL8" s="163"/>
+      <c r="AM8" s="155"/>
+      <c r="AN8" s="155"/>
+      <c r="AO8" s="155"/>
+      <c r="AP8" s="155"/>
+      <c r="AQ8" s="155"/>
+      <c r="AR8" s="268"/>
+      <c r="AS8" s="242"/>
+      <c r="AT8" s="260" t="s">
+        <v>40</v>
       </c>
-      <c r="AU8" s="138"/>
-      <c r="AV8" s="203"/>
-      <c r="AW8" s="203"/>
-      <c r="AX8" s="203"/>
-      <c r="AY8" s="203"/>
-      <c r="AZ8" s="203"/>
-      <c r="BA8" s="204"/>
-      <c r="BB8" s="205" t="s">
-        <v>23</v>
+      <c r="AU8" s="261"/>
+      <c r="AV8" s="175"/>
+      <c r="AW8" s="175"/>
+      <c r="AX8" s="175"/>
+      <c r="AY8" s="175"/>
+      <c r="AZ8" s="175"/>
+      <c r="BA8" s="176"/>
+      <c r="BB8" s="177" t="s">
+        <v>22</v>
       </c>
-      <c r="BC8" s="206"/>
-      <c r="BD8" s="139"/>
-      <c r="BE8" s="139"/>
-      <c r="BF8" s="139"/>
-      <c r="BG8" s="139"/>
-      <c r="BH8" s="139"/>
-      <c r="BI8" s="140"/>
-      <c r="BJ8" s="130"/>
-      <c r="BK8" s="131"/>
-      <c r="BL8" s="131"/>
-      <c r="BM8" s="132"/>
-      <c r="BN8" s="109"/>
-      <c r="BO8" s="53"/>
-      <c r="BP8" s="54"/>
-      <c r="BQ8" s="154"/>
-      <c r="BR8" s="155"/>
-      <c r="BS8" s="53"/>
-      <c r="BT8" s="54"/>
-      <c r="BU8" s="54"/>
-      <c r="BV8" s="105"/>
-      <c r="BW8" s="53"/>
-      <c r="BX8" s="54"/>
-      <c r="BY8" s="54"/>
-      <c r="BZ8" s="73"/>
-      <c r="CA8" s="194"/>
-      <c r="CB8" s="195"/>
+      <c r="BC8" s="178"/>
+      <c r="BD8" s="262"/>
+      <c r="BE8" s="262"/>
+      <c r="BF8" s="262"/>
+      <c r="BG8" s="262"/>
+      <c r="BH8" s="262"/>
+      <c r="BI8" s="263"/>
+      <c r="BJ8" s="197"/>
+      <c r="BK8" s="198"/>
+      <c r="BL8" s="198"/>
+      <c r="BM8" s="199"/>
+      <c r="BN8" s="146"/>
+      <c r="BO8" s="72"/>
+      <c r="BP8" s="147"/>
+      <c r="BQ8" s="209"/>
+      <c r="BR8" s="210"/>
+      <c r="BS8" s="72"/>
+      <c r="BT8" s="147"/>
+      <c r="BU8" s="147"/>
+      <c r="BV8" s="166"/>
+      <c r="BW8" s="72"/>
+      <c r="BX8" s="147"/>
+      <c r="BY8" s="147"/>
+      <c r="BZ8" s="162"/>
+      <c r="CA8" s="203"/>
+      <c r="CB8" s="204"/>
       <c r="CC8" s="10"/>
     </row>
     <row r="9" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A9" s="286"/>
-      <c r="B9" s="286"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="208" t="s">
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="219"/>
+      <c r="E9" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="209"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="149" t="s">
-        <v>20</v>
+      <c r="F9" s="131"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="271" t="s">
+        <v>19</v>
       </c>
-      <c r="I9" s="150"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="65" t="s">
+      <c r="N9" s="191"/>
+      <c r="O9" s="155"/>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="155"/>
+      <c r="R9" s="155"/>
+      <c r="S9" s="155"/>
+      <c r="T9" s="155"/>
+      <c r="U9" s="155"/>
+      <c r="V9" s="147"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="147"/>
+      <c r="Y9" s="147"/>
+      <c r="Z9" s="147"/>
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="141" t="s">
-        <v>28</v>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="287"/>
+      <c r="AE9" s="264" t="s">
+        <v>27</v>
       </c>
-      <c r="AF9" s="142"/>
-      <c r="AG9" s="142"/>
-      <c r="AH9" s="142"/>
-      <c r="AI9" s="133"/>
-      <c r="AJ9" s="133"/>
-      <c r="AK9" s="133"/>
-      <c r="AL9" s="133"/>
-      <c r="AM9" s="133"/>
-      <c r="AN9" s="133"/>
-      <c r="AO9" s="133"/>
-      <c r="AP9" s="133"/>
-      <c r="AQ9" s="133"/>
-      <c r="AR9" s="133"/>
-      <c r="AS9" s="133"/>
-      <c r="AT9" s="133"/>
-      <c r="AU9" s="133"/>
-      <c r="AV9" s="133"/>
-      <c r="AW9" s="133"/>
-      <c r="AX9" s="133"/>
-      <c r="AY9" s="133"/>
-      <c r="AZ9" s="133"/>
-      <c r="BA9" s="133"/>
-      <c r="BB9" s="133"/>
-      <c r="BC9" s="133"/>
-      <c r="BD9" s="133"/>
-      <c r="BE9" s="133"/>
-      <c r="BF9" s="133"/>
-      <c r="BG9" s="133"/>
-      <c r="BH9" s="133"/>
-      <c r="BI9" s="133"/>
-      <c r="BJ9" s="133"/>
-      <c r="BK9" s="133"/>
-      <c r="BL9" s="133"/>
-      <c r="BM9" s="133"/>
-      <c r="BN9" s="133"/>
-      <c r="BO9" s="133"/>
-      <c r="BP9" s="133"/>
-      <c r="BQ9" s="133"/>
-      <c r="BR9" s="133"/>
-      <c r="BS9" s="133"/>
-      <c r="BT9" s="133"/>
-      <c r="BU9" s="133"/>
-      <c r="BV9" s="133"/>
-      <c r="BW9" s="133"/>
-      <c r="BX9" s="133"/>
-      <c r="BY9" s="133"/>
-      <c r="BZ9" s="133"/>
-      <c r="CA9" s="133"/>
-      <c r="CB9" s="134"/>
+      <c r="AF9" s="265"/>
+      <c r="AG9" s="265"/>
+      <c r="AH9" s="265"/>
+      <c r="AI9" s="256"/>
+      <c r="AJ9" s="256"/>
+      <c r="AK9" s="256"/>
+      <c r="AL9" s="256"/>
+      <c r="AM9" s="256"/>
+      <c r="AN9" s="256"/>
+      <c r="AO9" s="256"/>
+      <c r="AP9" s="256"/>
+      <c r="AQ9" s="256"/>
+      <c r="AR9" s="256"/>
+      <c r="AS9" s="256"/>
+      <c r="AT9" s="256"/>
+      <c r="AU9" s="256"/>
+      <c r="AV9" s="256"/>
+      <c r="AW9" s="256"/>
+      <c r="AX9" s="256"/>
+      <c r="AY9" s="256"/>
+      <c r="AZ9" s="256"/>
+      <c r="BA9" s="256"/>
+      <c r="BB9" s="256"/>
+      <c r="BC9" s="256"/>
+      <c r="BD9" s="256"/>
+      <c r="BE9" s="256"/>
+      <c r="BF9" s="256"/>
+      <c r="BG9" s="256"/>
+      <c r="BH9" s="256"/>
+      <c r="BI9" s="256"/>
+      <c r="BJ9" s="256"/>
+      <c r="BK9" s="256"/>
+      <c r="BL9" s="256"/>
+      <c r="BM9" s="256"/>
+      <c r="BN9" s="256"/>
+      <c r="BO9" s="256"/>
+      <c r="BP9" s="256"/>
+      <c r="BQ9" s="256"/>
+      <c r="BR9" s="256"/>
+      <c r="BS9" s="256"/>
+      <c r="BT9" s="256"/>
+      <c r="BU9" s="256"/>
+      <c r="BV9" s="256"/>
+      <c r="BW9" s="256"/>
+      <c r="BX9" s="256"/>
+      <c r="BY9" s="256"/>
+      <c r="BZ9" s="256"/>
+      <c r="CA9" s="256"/>
+      <c r="CB9" s="257"/>
     </row>
     <row r="10" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A10" s="286"/>
-      <c r="B10" s="286"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="212"/>
-      <c r="G10" s="213"/>
-      <c r="H10" s="222" t="s">
-        <v>19</v>
+      <c r="A10" s="99"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="148" t="s">
+        <v>18</v>
       </c>
-      <c r="I10" s="223"/>
-      <c r="J10" s="223"/>
-      <c r="K10" s="223"/>
-      <c r="L10" s="223"/>
-      <c r="M10" s="223"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="67"/>
-      <c r="AE10" s="217"/>
-      <c r="AF10" s="111"/>
-      <c r="AG10" s="111"/>
-      <c r="AH10" s="111"/>
-      <c r="AI10" s="111"/>
-      <c r="AJ10" s="111"/>
-      <c r="AK10" s="111"/>
-      <c r="AL10" s="111"/>
-      <c r="AM10" s="111"/>
-      <c r="AN10" s="111"/>
-      <c r="AO10" s="111"/>
-      <c r="AP10" s="111"/>
-      <c r="AQ10" s="111"/>
-      <c r="AR10" s="111"/>
-      <c r="AS10" s="111"/>
-      <c r="AT10" s="111"/>
-      <c r="AU10" s="111"/>
-      <c r="AV10" s="111"/>
-      <c r="AW10" s="111"/>
-      <c r="AX10" s="111"/>
-      <c r="AY10" s="111"/>
-      <c r="AZ10" s="111"/>
-      <c r="BA10" s="111"/>
-      <c r="BB10" s="111"/>
-      <c r="BC10" s="111"/>
-      <c r="BD10" s="111"/>
-      <c r="BE10" s="111"/>
-      <c r="BF10" s="111"/>
-      <c r="BG10" s="111"/>
-      <c r="BH10" s="111"/>
-      <c r="BI10" s="111"/>
-      <c r="BJ10" s="111"/>
-      <c r="BK10" s="111"/>
-      <c r="BL10" s="111"/>
-      <c r="BM10" s="111"/>
-      <c r="BN10" s="111"/>
-      <c r="BO10" s="111"/>
-      <c r="BP10" s="111"/>
-      <c r="BQ10" s="111"/>
-      <c r="BR10" s="111"/>
-      <c r="BS10" s="111"/>
-      <c r="BT10" s="111"/>
-      <c r="BU10" s="111"/>
-      <c r="BV10" s="111"/>
-      <c r="BW10" s="111"/>
-      <c r="BX10" s="111"/>
-      <c r="BY10" s="111"/>
-      <c r="BZ10" s="111"/>
-      <c r="CA10" s="111"/>
-      <c r="CB10" s="112"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="155"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="155"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="155"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="155"/>
+      <c r="X10" s="155"/>
+      <c r="Y10" s="155"/>
+      <c r="Z10" s="155"/>
+      <c r="AA10" s="164"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="88"/>
+      <c r="AD10" s="287"/>
+      <c r="AE10" s="139"/>
+      <c r="AF10" s="125"/>
+      <c r="AG10" s="125"/>
+      <c r="AH10" s="125"/>
+      <c r="AI10" s="125"/>
+      <c r="AJ10" s="125"/>
+      <c r="AK10" s="125"/>
+      <c r="AL10" s="125"/>
+      <c r="AM10" s="125"/>
+      <c r="AN10" s="125"/>
+      <c r="AO10" s="125"/>
+      <c r="AP10" s="125"/>
+      <c r="AQ10" s="125"/>
+      <c r="AR10" s="125"/>
+      <c r="AS10" s="125"/>
+      <c r="AT10" s="125"/>
+      <c r="AU10" s="125"/>
+      <c r="AV10" s="125"/>
+      <c r="AW10" s="125"/>
+      <c r="AX10" s="125"/>
+      <c r="AY10" s="125"/>
+      <c r="AZ10" s="125"/>
+      <c r="BA10" s="125"/>
+      <c r="BB10" s="125"/>
+      <c r="BC10" s="125"/>
+      <c r="BD10" s="125"/>
+      <c r="BE10" s="125"/>
+      <c r="BF10" s="125"/>
+      <c r="BG10" s="125"/>
+      <c r="BH10" s="125"/>
+      <c r="BI10" s="125"/>
+      <c r="BJ10" s="125"/>
+      <c r="BK10" s="125"/>
+      <c r="BL10" s="125"/>
+      <c r="BM10" s="125"/>
+      <c r="BN10" s="125"/>
+      <c r="BO10" s="125"/>
+      <c r="BP10" s="125"/>
+      <c r="BQ10" s="125"/>
+      <c r="BR10" s="125"/>
+      <c r="BS10" s="125"/>
+      <c r="BT10" s="125"/>
+      <c r="BU10" s="125"/>
+      <c r="BV10" s="125"/>
+      <c r="BW10" s="125"/>
+      <c r="BX10" s="125"/>
+      <c r="BY10" s="125"/>
+      <c r="BZ10" s="125"/>
+      <c r="CA10" s="125"/>
+      <c r="CB10" s="126"/>
     </row>
     <row r="11" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A11" s="286"/>
-      <c r="B11" s="286"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="214"/>
-      <c r="F11" s="215"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="224"/>
-      <c r="I11" s="225"/>
-      <c r="J11" s="225"/>
-      <c r="K11" s="225"/>
-      <c r="L11" s="225"/>
-      <c r="M11" s="225"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="218"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="64"/>
-      <c r="AI11" s="64"/>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="64"/>
-      <c r="AL11" s="64"/>
-      <c r="AM11" s="64"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-      <c r="AP11" s="64"/>
-      <c r="AQ11" s="64"/>
-      <c r="AR11" s="64"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="64"/>
-      <c r="AU11" s="64"/>
-      <c r="AV11" s="64"/>
-      <c r="AW11" s="64"/>
-      <c r="AX11" s="64"/>
-      <c r="AY11" s="64"/>
-      <c r="AZ11" s="64"/>
-      <c r="BA11" s="64"/>
-      <c r="BB11" s="64"/>
-      <c r="BC11" s="64"/>
-      <c r="BD11" s="64"/>
-      <c r="BE11" s="64"/>
-      <c r="BF11" s="64"/>
-      <c r="BG11" s="64"/>
-      <c r="BH11" s="64"/>
-      <c r="BI11" s="64"/>
-      <c r="BJ11" s="64"/>
-      <c r="BK11" s="64"/>
-      <c r="BL11" s="64"/>
-      <c r="BM11" s="64"/>
-      <c r="BN11" s="64"/>
-      <c r="BO11" s="64"/>
-      <c r="BP11" s="64"/>
-      <c r="BQ11" s="64"/>
-      <c r="BR11" s="64"/>
-      <c r="BS11" s="64"/>
-      <c r="BT11" s="64"/>
-      <c r="BU11" s="64"/>
-      <c r="BV11" s="64"/>
-      <c r="BW11" s="64"/>
-      <c r="BX11" s="64"/>
-      <c r="BY11" s="64"/>
-      <c r="BZ11" s="64"/>
-      <c r="CA11" s="64"/>
-      <c r="CB11" s="113"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="219"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="151"/>
+      <c r="N11" s="191"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="155"/>
+      <c r="Q11" s="155"/>
+      <c r="R11" s="155"/>
+      <c r="S11" s="155"/>
+      <c r="T11" s="155"/>
+      <c r="U11" s="155"/>
+      <c r="V11" s="155"/>
+      <c r="W11" s="155"/>
+      <c r="X11" s="155"/>
+      <c r="Y11" s="155"/>
+      <c r="Z11" s="155"/>
+      <c r="AA11" s="164"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="91"/>
+      <c r="AD11" s="288"/>
+      <c r="AE11" s="140"/>
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="97"/>
+      <c r="AH11" s="97"/>
+      <c r="AI11" s="97"/>
+      <c r="AJ11" s="97"/>
+      <c r="AK11" s="97"/>
+      <c r="AL11" s="97"/>
+      <c r="AM11" s="97"/>
+      <c r="AN11" s="97"/>
+      <c r="AO11" s="97"/>
+      <c r="AP11" s="97"/>
+      <c r="AQ11" s="97"/>
+      <c r="AR11" s="97"/>
+      <c r="AS11" s="97"/>
+      <c r="AT11" s="97"/>
+      <c r="AU11" s="97"/>
+      <c r="AV11" s="97"/>
+      <c r="AW11" s="97"/>
+      <c r="AX11" s="97"/>
+      <c r="AY11" s="97"/>
+      <c r="AZ11" s="97"/>
+      <c r="BA11" s="97"/>
+      <c r="BB11" s="97"/>
+      <c r="BC11" s="97"/>
+      <c r="BD11" s="97"/>
+      <c r="BE11" s="97"/>
+      <c r="BF11" s="97"/>
+      <c r="BG11" s="97"/>
+      <c r="BH11" s="97"/>
+      <c r="BI11" s="97"/>
+      <c r="BJ11" s="97"/>
+      <c r="BK11" s="97"/>
+      <c r="BL11" s="97"/>
+      <c r="BM11" s="97"/>
+      <c r="BN11" s="97"/>
+      <c r="BO11" s="97"/>
+      <c r="BP11" s="97"/>
+      <c r="BQ11" s="97"/>
+      <c r="BR11" s="97"/>
+      <c r="BS11" s="97"/>
+      <c r="BT11" s="97"/>
+      <c r="BU11" s="97"/>
+      <c r="BV11" s="97"/>
+      <c r="BW11" s="97"/>
+      <c r="BX11" s="97"/>
+      <c r="BY11" s="97"/>
+      <c r="BZ11" s="97"/>
+      <c r="CA11" s="97"/>
+      <c r="CB11" s="141"/>
     </row>
     <row r="12" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A12" s="286"/>
-      <c r="B12" s="286"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="89" t="s">
+      <c r="A12" s="99"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="219"/>
+      <c r="D12" s="219"/>
+      <c r="E12" s="299" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="254" t="s">
+      <c r="F12" s="300"/>
+      <c r="G12" s="301"/>
+      <c r="H12" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="119"/>
+      <c r="J12" s="152" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="142"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="94"/>
+      <c r="Z12" s="94"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="94"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="94"/>
+      <c r="AI12" s="94"/>
+      <c r="AJ12" s="94"/>
+      <c r="AK12" s="94"/>
+      <c r="AL12" s="94"/>
+      <c r="AM12" s="94"/>
+      <c r="AN12" s="94"/>
+      <c r="AO12" s="94"/>
+      <c r="AP12" s="94"/>
+      <c r="AQ12" s="94"/>
+      <c r="AR12" s="94"/>
+      <c r="AS12" s="94"/>
+      <c r="AT12" s="94"/>
+      <c r="AU12" s="94"/>
+      <c r="AV12" s="94"/>
+      <c r="AW12" s="94"/>
+      <c r="AX12" s="94"/>
+      <c r="AY12" s="94"/>
+      <c r="AZ12" s="94"/>
+      <c r="BA12" s="94"/>
+      <c r="BB12" s="94"/>
+      <c r="BC12" s="94"/>
+      <c r="BD12" s="94"/>
+      <c r="BE12" s="94"/>
+      <c r="BF12" s="94"/>
+      <c r="BG12" s="94"/>
+      <c r="BH12" s="94"/>
+      <c r="BI12" s="94"/>
+      <c r="BJ12" s="94"/>
+      <c r="BK12" s="94"/>
+      <c r="BL12" s="94"/>
+      <c r="BM12" s="94"/>
+      <c r="BN12" s="94"/>
+      <c r="BO12" s="94"/>
+      <c r="BP12" s="94"/>
+      <c r="BQ12" s="94"/>
+      <c r="BR12" s="94"/>
+      <c r="BS12" s="94"/>
+      <c r="BT12" s="94"/>
+      <c r="BU12" s="94"/>
+      <c r="BV12" s="94"/>
+      <c r="BW12" s="94"/>
+      <c r="BX12" s="94"/>
+      <c r="BY12" s="94"/>
+      <c r="BZ12" s="94"/>
+      <c r="CA12" s="94"/>
+      <c r="CB12" s="143"/>
+    </row>
+    <row r="13" spans="1:81" ht="15.75" customHeight="1">
+      <c r="A13" s="99"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="219"/>
+      <c r="E13" s="302"/>
+      <c r="F13" s="303"/>
+      <c r="G13" s="304"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="154"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
+      <c r="S13" s="97"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="97"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="97"/>
+      <c r="AC13" s="97"/>
+      <c r="AD13" s="97"/>
+      <c r="AE13" s="97"/>
+      <c r="AF13" s="97"/>
+      <c r="AG13" s="97"/>
+      <c r="AH13" s="97"/>
+      <c r="AI13" s="97"/>
+      <c r="AJ13" s="97"/>
+      <c r="AK13" s="97"/>
+      <c r="AL13" s="97"/>
+      <c r="AM13" s="97"/>
+      <c r="AN13" s="97"/>
+      <c r="AO13" s="97"/>
+      <c r="AP13" s="97"/>
+      <c r="AQ13" s="97"/>
+      <c r="AR13" s="97"/>
+      <c r="AS13" s="97"/>
+      <c r="AT13" s="97"/>
+      <c r="AU13" s="97"/>
+      <c r="AV13" s="97"/>
+      <c r="AW13" s="97"/>
+      <c r="AX13" s="97"/>
+      <c r="AY13" s="97"/>
+      <c r="AZ13" s="97"/>
+      <c r="BA13" s="97"/>
+      <c r="BB13" s="97"/>
+      <c r="BC13" s="97"/>
+      <c r="BD13" s="97"/>
+      <c r="BE13" s="97"/>
+      <c r="BF13" s="97"/>
+      <c r="BG13" s="97"/>
+      <c r="BH13" s="97"/>
+      <c r="BI13" s="97"/>
+      <c r="BJ13" s="97"/>
+      <c r="BK13" s="97"/>
+      <c r="BL13" s="97"/>
+      <c r="BM13" s="97"/>
+      <c r="BN13" s="97"/>
+      <c r="BO13" s="97"/>
+      <c r="BP13" s="97"/>
+      <c r="BQ13" s="97"/>
+      <c r="BR13" s="97"/>
+      <c r="BS13" s="97"/>
+      <c r="BT13" s="97"/>
+      <c r="BU13" s="97"/>
+      <c r="BV13" s="97"/>
+      <c r="BW13" s="97"/>
+      <c r="BX13" s="97"/>
+      <c r="BY13" s="97"/>
+      <c r="BZ13" s="97"/>
+      <c r="CA13" s="97"/>
+      <c r="CB13" s="141"/>
+    </row>
+    <row r="14" spans="1:81" ht="15.75" customHeight="1">
+      <c r="A14" s="99"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="295" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="295"/>
+      <c r="G14" s="295"/>
+      <c r="H14" s="295"/>
+      <c r="I14" s="295"/>
+      <c r="J14" s="296"/>
+      <c r="K14" s="169" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="170"/>
+      <c r="M14" s="170"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="172"/>
+      <c r="R14" s="157"/>
+      <c r="S14" s="157"/>
+      <c r="T14" s="158"/>
+      <c r="U14" s="172"/>
+      <c r="V14" s="157"/>
+      <c r="W14" s="157"/>
+      <c r="X14" s="158"/>
+      <c r="Y14" s="160"/>
+      <c r="Z14" s="161"/>
+      <c r="AA14" s="249"/>
+      <c r="AB14" s="250"/>
+      <c r="AC14" s="251"/>
+      <c r="AD14" s="289" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="255"/>
-      <c r="J12" s="226" t="s">
-        <v>6</v>
+      <c r="AE14" s="290"/>
+      <c r="AF14" s="290"/>
+      <c r="AG14" s="290"/>
+      <c r="AH14" s="243" t="s">
+        <v>56</v>
       </c>
-      <c r="K12" s="226"/>
-      <c r="L12" s="226"/>
-      <c r="M12" s="227"/>
-      <c r="N12" s="219"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="60"/>
-      <c r="AI12" s="60"/>
-      <c r="AJ12" s="60"/>
-      <c r="AK12" s="60"/>
-      <c r="AL12" s="60"/>
-      <c r="AM12" s="60"/>
-      <c r="AN12" s="60"/>
-      <c r="AO12" s="60"/>
-      <c r="AP12" s="60"/>
-      <c r="AQ12" s="60"/>
-      <c r="AR12" s="60"/>
-      <c r="AS12" s="60"/>
-      <c r="AT12" s="60"/>
-      <c r="AU12" s="60"/>
-      <c r="AV12" s="60"/>
-      <c r="AW12" s="60"/>
-      <c r="AX12" s="60"/>
-      <c r="AY12" s="60"/>
-      <c r="AZ12" s="60"/>
-      <c r="BA12" s="60"/>
-      <c r="BB12" s="60"/>
-      <c r="BC12" s="60"/>
-      <c r="BD12" s="60"/>
-      <c r="BE12" s="60"/>
-      <c r="BF12" s="60"/>
-      <c r="BG12" s="60"/>
-      <c r="BH12" s="60"/>
-      <c r="BI12" s="60"/>
-      <c r="BJ12" s="60"/>
-      <c r="BK12" s="60"/>
-      <c r="BL12" s="60"/>
-      <c r="BM12" s="60"/>
-      <c r="BN12" s="60"/>
-      <c r="BO12" s="60"/>
-      <c r="BP12" s="60"/>
-      <c r="BQ12" s="60"/>
-      <c r="BR12" s="60"/>
-      <c r="BS12" s="60"/>
-      <c r="BT12" s="60"/>
-      <c r="BU12" s="60"/>
-      <c r="BV12" s="60"/>
-      <c r="BW12" s="60"/>
-      <c r="BX12" s="60"/>
-      <c r="BY12" s="60"/>
-      <c r="BZ12" s="60"/>
-      <c r="CA12" s="60"/>
-      <c r="CB12" s="220"/>
-    </row>
-    <row r="13" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A13" s="286"/>
-      <c r="B13" s="286"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="225"/>
-      <c r="K13" s="225"/>
-      <c r="L13" s="225"/>
-      <c r="M13" s="228"/>
-      <c r="N13" s="218"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="64"/>
-      <c r="AL13" s="64"/>
-      <c r="AM13" s="64"/>
-      <c r="AN13" s="64"/>
-      <c r="AO13" s="64"/>
-      <c r="AP13" s="64"/>
-      <c r="AQ13" s="64"/>
-      <c r="AR13" s="64"/>
-      <c r="AS13" s="64"/>
-      <c r="AT13" s="64"/>
-      <c r="AU13" s="64"/>
-      <c r="AV13" s="64"/>
-      <c r="AW13" s="64"/>
-      <c r="AX13" s="64"/>
-      <c r="AY13" s="64"/>
-      <c r="AZ13" s="64"/>
-      <c r="BA13" s="64"/>
-      <c r="BB13" s="64"/>
-      <c r="BC13" s="64"/>
-      <c r="BD13" s="64"/>
-      <c r="BE13" s="64"/>
-      <c r="BF13" s="64"/>
-      <c r="BG13" s="64"/>
-      <c r="BH13" s="64"/>
-      <c r="BI13" s="64"/>
-      <c r="BJ13" s="64"/>
-      <c r="BK13" s="64"/>
-      <c r="BL13" s="64"/>
-      <c r="BM13" s="64"/>
-      <c r="BN13" s="64"/>
-      <c r="BO13" s="64"/>
-      <c r="BP13" s="64"/>
-      <c r="BQ13" s="64"/>
-      <c r="BR13" s="64"/>
-      <c r="BS13" s="64"/>
-      <c r="BT13" s="64"/>
-      <c r="BU13" s="64"/>
-      <c r="BV13" s="64"/>
-      <c r="BW13" s="64"/>
-      <c r="BX13" s="64"/>
-      <c r="BY13" s="64"/>
-      <c r="BZ13" s="64"/>
-      <c r="CA13" s="64"/>
-      <c r="CB13" s="113"/>
-    </row>
-    <row r="14" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A14" s="286"/>
-      <c r="B14" s="286"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="198" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="199"/>
-      <c r="M14" s="199"/>
-      <c r="N14" s="200"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="156"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="156"/>
-      <c r="Z14" s="157"/>
-      <c r="AA14" s="120"/>
-      <c r="AB14" s="121"/>
-      <c r="AC14" s="122"/>
-      <c r="AD14" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="114" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI14" s="115"/>
-      <c r="AJ14" s="115"/>
-      <c r="AK14" s="115"/>
-      <c r="AL14" s="115"/>
-      <c r="AM14" s="115"/>
-      <c r="AN14" s="115"/>
-      <c r="AO14" s="115"/>
-      <c r="AP14" s="115"/>
-      <c r="AQ14" s="115"/>
-      <c r="AR14" s="115"/>
-      <c r="AS14" s="115"/>
-      <c r="AT14" s="115"/>
-      <c r="AU14" s="115"/>
-      <c r="AV14" s="115"/>
-      <c r="AW14" s="115"/>
-      <c r="AX14" s="115"/>
-      <c r="AY14" s="115"/>
-      <c r="AZ14" s="115"/>
-      <c r="BA14" s="115"/>
-      <c r="BB14" s="115"/>
-      <c r="BC14" s="115"/>
-      <c r="BD14" s="115"/>
-      <c r="BE14" s="115"/>
-      <c r="BF14" s="115"/>
-      <c r="BG14" s="115"/>
-      <c r="BH14" s="115"/>
-      <c r="BI14" s="115"/>
-      <c r="BJ14" s="115"/>
-      <c r="BK14" s="115"/>
-      <c r="BL14" s="115"/>
-      <c r="BM14" s="116"/>
+      <c r="AI14" s="244"/>
+      <c r="AJ14" s="244"/>
+      <c r="AK14" s="244"/>
+      <c r="AL14" s="244"/>
+      <c r="AM14" s="244"/>
+      <c r="AN14" s="244"/>
+      <c r="AO14" s="244"/>
+      <c r="AP14" s="244"/>
+      <c r="AQ14" s="244"/>
+      <c r="AR14" s="244"/>
+      <c r="AS14" s="244"/>
+      <c r="AT14" s="244"/>
+      <c r="AU14" s="244"/>
+      <c r="AV14" s="244"/>
+      <c r="AW14" s="244"/>
+      <c r="AX14" s="244"/>
+      <c r="AY14" s="244"/>
+      <c r="AZ14" s="244"/>
+      <c r="BA14" s="244"/>
+      <c r="BB14" s="244"/>
+      <c r="BC14" s="244"/>
+      <c r="BD14" s="244"/>
+      <c r="BE14" s="244"/>
+      <c r="BF14" s="244"/>
+      <c r="BG14" s="244"/>
+      <c r="BH14" s="244"/>
+      <c r="BI14" s="244"/>
+      <c r="BJ14" s="244"/>
+      <c r="BK14" s="244"/>
+      <c r="BL14" s="244"/>
+      <c r="BM14" s="245"/>
       <c r="BN14" s="33"/>
       <c r="BO14" s="33"/>
       <c r="BP14" s="33"/>
@@ -6282,71 +6308,71 @@
       <c r="CB14" s="33"/>
     </row>
     <row r="15" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A15" s="286"/>
-      <c r="B15" s="286"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="199"/>
-      <c r="M15" s="199"/>
-      <c r="N15" s="200"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="105"/>
-      <c r="R15" s="108"/>
-      <c r="S15" s="108"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="105"/>
-      <c r="V15" s="108"/>
-      <c r="W15" s="108"/>
-      <c r="X15" s="109"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="123"/>
-      <c r="AB15" s="124"/>
-      <c r="AC15" s="125"/>
-      <c r="AD15" s="78"/>
-      <c r="AE15" s="79"/>
-      <c r="AF15" s="79"/>
-      <c r="AG15" s="79"/>
-      <c r="AH15" s="117"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
-      <c r="AK15" s="118"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="118"/>
-      <c r="AN15" s="118"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="118"/>
-      <c r="AQ15" s="118"/>
-      <c r="AR15" s="118"/>
-      <c r="AS15" s="118"/>
-      <c r="AT15" s="118"/>
-      <c r="AU15" s="118"/>
-      <c r="AV15" s="118"/>
-      <c r="AW15" s="118"/>
-      <c r="AX15" s="118"/>
-      <c r="AY15" s="118"/>
-      <c r="AZ15" s="118"/>
-      <c r="BA15" s="118"/>
-      <c r="BB15" s="118"/>
-      <c r="BC15" s="118"/>
-      <c r="BD15" s="118"/>
-      <c r="BE15" s="118"/>
-      <c r="BF15" s="118"/>
-      <c r="BG15" s="118"/>
-      <c r="BH15" s="118"/>
-      <c r="BI15" s="118"/>
-      <c r="BJ15" s="118"/>
-      <c r="BK15" s="118"/>
-      <c r="BL15" s="118"/>
-      <c r="BM15" s="119"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="219"/>
+      <c r="D15" s="219"/>
+      <c r="E15" s="295"/>
+      <c r="F15" s="295"/>
+      <c r="G15" s="295"/>
+      <c r="H15" s="295"/>
+      <c r="I15" s="295"/>
+      <c r="J15" s="296"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="170"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="147"/>
+      <c r="Q15" s="166"/>
+      <c r="R15" s="159"/>
+      <c r="S15" s="159"/>
+      <c r="T15" s="146"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="159"/>
+      <c r="W15" s="159"/>
+      <c r="X15" s="146"/>
+      <c r="Y15" s="147"/>
+      <c r="Z15" s="162"/>
+      <c r="AA15" s="252"/>
+      <c r="AB15" s="253"/>
+      <c r="AC15" s="254"/>
+      <c r="AD15" s="291"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="246"/>
+      <c r="AI15" s="247"/>
+      <c r="AJ15" s="247"/>
+      <c r="AK15" s="247"/>
+      <c r="AL15" s="247"/>
+      <c r="AM15" s="247"/>
+      <c r="AN15" s="247"/>
+      <c r="AO15" s="247"/>
+      <c r="AP15" s="247"/>
+      <c r="AQ15" s="247"/>
+      <c r="AR15" s="247"/>
+      <c r="AS15" s="247"/>
+      <c r="AT15" s="247"/>
+      <c r="AU15" s="247"/>
+      <c r="AV15" s="247"/>
+      <c r="AW15" s="247"/>
+      <c r="AX15" s="247"/>
+      <c r="AY15" s="247"/>
+      <c r="AZ15" s="247"/>
+      <c r="BA15" s="247"/>
+      <c r="BB15" s="247"/>
+      <c r="BC15" s="247"/>
+      <c r="BD15" s="247"/>
+      <c r="BE15" s="247"/>
+      <c r="BF15" s="247"/>
+      <c r="BG15" s="247"/>
+      <c r="BH15" s="247"/>
+      <c r="BI15" s="247"/>
+      <c r="BJ15" s="247"/>
+      <c r="BK15" s="247"/>
+      <c r="BL15" s="247"/>
+      <c r="BM15" s="248"/>
       <c r="BN15" s="5"/>
       <c r="BO15" s="9"/>
       <c r="BP15" s="9"/>
@@ -6365,10 +6391,10 @@
       <c r="CC15" s="2"/>
     </row>
     <row r="16" spans="1:81" ht="12.75" customHeight="1">
-      <c r="A16" s="286"/>
-      <c r="B16" s="286"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="219"/>
+      <c r="D16" s="219"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6399,7 +6425,7 @@
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
@@ -6449,882 +6475,882 @@
       <c r="CB16" s="9"/>
     </row>
     <row r="17" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A17" s="286"/>
-      <c r="B17" s="286"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="219"/>
+      <c r="D17" s="219"/>
       <c r="F17" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A18" s="286"/>
-      <c r="B18" s="286"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="219"/>
       <c r="F18" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
-      <c r="AN18" s="136" t="s">
-        <v>15</v>
+      <c r="AN18" s="259" t="s">
+        <v>14</v>
       </c>
-      <c r="AO18" s="136"/>
-      <c r="AP18" s="136"/>
-      <c r="AQ18" s="136"/>
-      <c r="AR18" s="136"/>
-      <c r="AS18" s="136"/>
-      <c r="AT18" s="136"/>
-      <c r="AU18" s="136"/>
-      <c r="AV18" s="136"/>
-      <c r="AW18" s="136"/>
-      <c r="AX18" s="136"/>
-      <c r="AY18" s="136"/>
-      <c r="AZ18" s="136"/>
-      <c r="BA18" s="136"/>
-      <c r="BB18" s="136"/>
-      <c r="BC18" s="136"/>
-      <c r="BD18" s="136"/>
-      <c r="BE18" s="136"/>
-      <c r="BF18" s="136"/>
-      <c r="BG18" s="136"/>
-      <c r="BH18" s="136"/>
-      <c r="BI18" s="136"/>
-      <c r="BJ18" s="136"/>
-      <c r="BK18" s="136"/>
-      <c r="BL18" s="136"/>
-      <c r="BM18" s="136"/>
-      <c r="BN18" s="136"/>
-      <c r="BO18" s="136"/>
-      <c r="BP18" s="136"/>
-      <c r="BQ18" s="136"/>
-      <c r="BR18" s="136"/>
-      <c r="BS18" s="136"/>
-      <c r="BT18" s="136"/>
-      <c r="BU18" s="136"/>
-      <c r="BV18" s="136"/>
-      <c r="BW18" s="136"/>
+      <c r="AO18" s="259"/>
+      <c r="AP18" s="259"/>
+      <c r="AQ18" s="259"/>
+      <c r="AR18" s="259"/>
+      <c r="AS18" s="259"/>
+      <c r="AT18" s="259"/>
+      <c r="AU18" s="259"/>
+      <c r="AV18" s="259"/>
+      <c r="AW18" s="259"/>
+      <c r="AX18" s="259"/>
+      <c r="AY18" s="259"/>
+      <c r="AZ18" s="259"/>
+      <c r="BA18" s="259"/>
+      <c r="BB18" s="259"/>
+      <c r="BC18" s="259"/>
+      <c r="BD18" s="259"/>
+      <c r="BE18" s="259"/>
+      <c r="BF18" s="259"/>
+      <c r="BG18" s="259"/>
+      <c r="BH18" s="259"/>
+      <c r="BI18" s="259"/>
+      <c r="BJ18" s="259"/>
+      <c r="BK18" s="259"/>
+      <c r="BL18" s="259"/>
+      <c r="BM18" s="259"/>
+      <c r="BN18" s="259"/>
+      <c r="BO18" s="259"/>
+      <c r="BP18" s="259"/>
+      <c r="BQ18" s="259"/>
+      <c r="BR18" s="259"/>
+      <c r="BS18" s="259"/>
+      <c r="BT18" s="259"/>
+      <c r="BU18" s="259"/>
+      <c r="BV18" s="259"/>
+      <c r="BW18" s="259"/>
     </row>
     <row r="19" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A19" s="286"/>
-      <c r="B19" s="286"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="256" t="s">
-        <v>55</v>
+      <c r="A19" s="99"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="120" t="s">
+        <v>54</v>
       </c>
-      <c r="F19" s="257"/>
-      <c r="G19" s="257"/>
-      <c r="H19" s="257"/>
-      <c r="I19" s="257"/>
-      <c r="J19" s="257"/>
-      <c r="K19" s="257"/>
-      <c r="L19" s="257"/>
-      <c r="M19" s="257"/>
-      <c r="N19" s="257"/>
-      <c r="O19" s="257"/>
-      <c r="P19" s="257"/>
-      <c r="Q19" s="257"/>
-      <c r="R19" s="257"/>
-      <c r="S19" s="257"/>
-      <c r="T19" s="257"/>
-      <c r="U19" s="257"/>
-      <c r="V19" s="257"/>
-      <c r="W19" s="257"/>
-      <c r="X19" s="257"/>
-      <c r="Y19" s="257"/>
-      <c r="Z19" s="257"/>
-      <c r="AA19" s="257"/>
-      <c r="AB19" s="257"/>
-      <c r="AC19" s="257"/>
-      <c r="AD19" s="257"/>
-      <c r="AE19" s="257"/>
-      <c r="AF19" s="257"/>
-      <c r="AG19" s="257"/>
-      <c r="AH19" s="257"/>
-      <c r="AI19" s="257"/>
-      <c r="AJ19" s="257"/>
-      <c r="AN19" s="136"/>
-      <c r="AO19" s="136"/>
-      <c r="AP19" s="136"/>
-      <c r="AQ19" s="136"/>
-      <c r="AR19" s="136"/>
-      <c r="AS19" s="136"/>
-      <c r="AT19" s="136"/>
-      <c r="AU19" s="136"/>
-      <c r="AV19" s="136"/>
-      <c r="AW19" s="136"/>
-      <c r="AX19" s="136"/>
-      <c r="AY19" s="136"/>
-      <c r="AZ19" s="136"/>
-      <c r="BA19" s="136"/>
-      <c r="BB19" s="136"/>
-      <c r="BC19" s="136"/>
-      <c r="BD19" s="136"/>
-      <c r="BE19" s="136"/>
-      <c r="BF19" s="136"/>
-      <c r="BG19" s="136"/>
-      <c r="BH19" s="136"/>
-      <c r="BI19" s="136"/>
-      <c r="BJ19" s="136"/>
-      <c r="BK19" s="136"/>
-      <c r="BL19" s="136"/>
-      <c r="BM19" s="136"/>
-      <c r="BN19" s="136"/>
-      <c r="BO19" s="136"/>
-      <c r="BP19" s="136"/>
-      <c r="BQ19" s="136"/>
-      <c r="BR19" s="136"/>
-      <c r="BS19" s="136"/>
-      <c r="BT19" s="136"/>
-      <c r="BU19" s="136"/>
-      <c r="BV19" s="136"/>
-      <c r="BW19" s="136"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="121"/>
+      <c r="Q19" s="121"/>
+      <c r="R19" s="121"/>
+      <c r="S19" s="121"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="121"/>
+      <c r="V19" s="121"/>
+      <c r="W19" s="121"/>
+      <c r="X19" s="121"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="121"/>
+      <c r="AA19" s="121"/>
+      <c r="AB19" s="121"/>
+      <c r="AC19" s="121"/>
+      <c r="AD19" s="121"/>
+      <c r="AE19" s="121"/>
+      <c r="AF19" s="121"/>
+      <c r="AG19" s="121"/>
+      <c r="AH19" s="121"/>
+      <c r="AI19" s="121"/>
+      <c r="AJ19" s="121"/>
+      <c r="AN19" s="259"/>
+      <c r="AO19" s="259"/>
+      <c r="AP19" s="259"/>
+      <c r="AQ19" s="259"/>
+      <c r="AR19" s="259"/>
+      <c r="AS19" s="259"/>
+      <c r="AT19" s="259"/>
+      <c r="AU19" s="259"/>
+      <c r="AV19" s="259"/>
+      <c r="AW19" s="259"/>
+      <c r="AX19" s="259"/>
+      <c r="AY19" s="259"/>
+      <c r="AZ19" s="259"/>
+      <c r="BA19" s="259"/>
+      <c r="BB19" s="259"/>
+      <c r="BC19" s="259"/>
+      <c r="BD19" s="259"/>
+      <c r="BE19" s="259"/>
+      <c r="BF19" s="259"/>
+      <c r="BG19" s="259"/>
+      <c r="BH19" s="259"/>
+      <c r="BI19" s="259"/>
+      <c r="BJ19" s="259"/>
+      <c r="BK19" s="259"/>
+      <c r="BL19" s="259"/>
+      <c r="BM19" s="259"/>
+      <c r="BN19" s="259"/>
+      <c r="BO19" s="259"/>
+      <c r="BP19" s="259"/>
+      <c r="BQ19" s="259"/>
+      <c r="BR19" s="259"/>
+      <c r="BS19" s="259"/>
+      <c r="BT19" s="259"/>
+      <c r="BU19" s="259"/>
+      <c r="BV19" s="259"/>
+      <c r="BW19" s="259"/>
     </row>
     <row r="20" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A20" s="286"/>
-      <c r="B20" s="286"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="98"/>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="98"/>
-      <c r="AA20" s="98"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="97" t="s">
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="98"/>
-      <c r="AF20" s="98"/>
-      <c r="AG20" s="98"/>
-      <c r="AH20" s="98"/>
-      <c r="AI20" s="98"/>
-      <c r="AJ20" s="98"/>
-      <c r="AK20" s="98"/>
-      <c r="AL20" s="98"/>
-      <c r="AM20" s="98"/>
-      <c r="AN20" s="98"/>
-      <c r="AO20" s="98"/>
-      <c r="AP20" s="98"/>
-      <c r="AQ20" s="98"/>
-      <c r="AR20" s="99"/>
-      <c r="AS20" s="87" t="s">
-        <v>37</v>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="112"/>
+      <c r="S20" s="112"/>
+      <c r="T20" s="112"/>
+      <c r="U20" s="112"/>
+      <c r="V20" s="112"/>
+      <c r="W20" s="112"/>
+      <c r="X20" s="112"/>
+      <c r="Y20" s="112"/>
+      <c r="Z20" s="112"/>
+      <c r="AA20" s="112"/>
+      <c r="AB20" s="113"/>
+      <c r="AC20" s="111" t="s">
+        <v>44</v>
       </c>
-      <c r="AT20" s="88"/>
+      <c r="AD20" s="112"/>
+      <c r="AE20" s="112"/>
+      <c r="AF20" s="112"/>
+      <c r="AG20" s="112"/>
+      <c r="AH20" s="112"/>
+      <c r="AI20" s="112"/>
+      <c r="AJ20" s="112"/>
+      <c r="AK20" s="112"/>
+      <c r="AL20" s="112"/>
+      <c r="AM20" s="112"/>
+      <c r="AN20" s="112"/>
+      <c r="AO20" s="112"/>
+      <c r="AP20" s="112"/>
+      <c r="AQ20" s="112"/>
+      <c r="AR20" s="113"/>
+      <c r="AS20" s="297" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT20" s="298"/>
       <c r="AU20" s="16"/>
       <c r="AV20" s="16"/>
       <c r="AW20" s="16"/>
       <c r="AX20" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AY20" s="19"/>
       <c r="AZ20" s="19"/>
-      <c r="BA20" s="126"/>
-      <c r="BB20" s="126"/>
-      <c r="BC20" s="126"/>
-      <c r="BD20" s="126"/>
-      <c r="BE20" s="126"/>
-      <c r="BF20" s="126"/>
-      <c r="BG20" s="100"/>
-      <c r="BH20" s="101"/>
-      <c r="BI20" s="101"/>
-      <c r="BJ20" s="101"/>
-      <c r="BK20" s="101"/>
-      <c r="BL20" s="101"/>
-      <c r="BM20" s="101"/>
-      <c r="BN20" s="101"/>
-      <c r="BO20" s="102"/>
+      <c r="BA20" s="255"/>
+      <c r="BB20" s="255"/>
+      <c r="BC20" s="255"/>
+      <c r="BD20" s="255"/>
+      <c r="BE20" s="255"/>
+      <c r="BF20" s="255"/>
+      <c r="BG20" s="238"/>
+      <c r="BH20" s="239"/>
+      <c r="BI20" s="239"/>
+      <c r="BJ20" s="239"/>
+      <c r="BK20" s="239"/>
+      <c r="BL20" s="239"/>
+      <c r="BM20" s="239"/>
+      <c r="BN20" s="239"/>
+      <c r="BO20" s="240"/>
     </row>
     <row r="21" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A21" s="286"/>
-      <c r="B21" s="286"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="207"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="170"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="80"/>
-      <c r="AC21" s="127" t="s">
-        <v>51</v>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="191"/>
+      <c r="O21" s="155"/>
+      <c r="P21" s="155"/>
+      <c r="Q21" s="155"/>
+      <c r="R21" s="155"/>
+      <c r="S21" s="155"/>
+      <c r="T21" s="164"/>
+      <c r="U21" s="163"/>
+      <c r="V21" s="155"/>
+      <c r="W21" s="155"/>
+      <c r="X21" s="155"/>
+      <c r="Y21" s="282"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="282"/>
+      <c r="AB21" s="107"/>
+      <c r="AC21" s="194" t="s">
+        <v>50</v>
       </c>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="128"/>
-      <c r="AF21" s="129"/>
-      <c r="AG21" s="221"/>
-      <c r="AH21" s="103"/>
-      <c r="AI21" s="103"/>
-      <c r="AJ21" s="104"/>
-      <c r="AK21" s="51"/>
-      <c r="AL21" s="52"/>
-      <c r="AM21" s="103"/>
-      <c r="AN21" s="104"/>
-      <c r="AO21" s="51"/>
-      <c r="AP21" s="52"/>
-      <c r="AQ21" s="52"/>
-      <c r="AR21" s="135"/>
-      <c r="AS21" s="171" t="s">
-        <v>44</v>
+      <c r="AD21" s="195"/>
+      <c r="AE21" s="195"/>
+      <c r="AF21" s="196"/>
+      <c r="AG21" s="144"/>
+      <c r="AH21" s="145"/>
+      <c r="AI21" s="145"/>
+      <c r="AJ21" s="165"/>
+      <c r="AK21" s="70"/>
+      <c r="AL21" s="221"/>
+      <c r="AM21" s="145"/>
+      <c r="AN21" s="165"/>
+      <c r="AO21" s="70"/>
+      <c r="AP21" s="221"/>
+      <c r="AQ21" s="221"/>
+      <c r="AR21" s="258"/>
+      <c r="AS21" s="224" t="s">
+        <v>43</v>
       </c>
-      <c r="AT21" s="172"/>
-      <c r="AU21" s="172"/>
-      <c r="AV21" s="172"/>
-      <c r="AW21" s="173"/>
+      <c r="AT21" s="225"/>
+      <c r="AU21" s="225"/>
+      <c r="AV21" s="225"/>
+      <c r="AW21" s="226"/>
       <c r="AX21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY21" s="22"/>
+      <c r="AZ21" s="167"/>
+      <c r="BA21" s="167"/>
+      <c r="BB21" s="167"/>
+      <c r="BC21" s="167"/>
+      <c r="BD21" s="167"/>
+      <c r="BE21" s="167"/>
+      <c r="BF21" s="167"/>
+      <c r="BG21" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AY21" s="22"/>
-      <c r="AZ21" s="111"/>
-      <c r="BA21" s="111"/>
-      <c r="BB21" s="111"/>
-      <c r="BC21" s="111"/>
-      <c r="BD21" s="111"/>
-      <c r="BE21" s="111"/>
-      <c r="BF21" s="111"/>
-      <c r="BG21" s="21" t="s">
-        <v>23</v>
-      </c>
       <c r="BH21" s="22"/>
-      <c r="BI21" s="111"/>
-      <c r="BJ21" s="111"/>
-      <c r="BK21" s="111"/>
-      <c r="BL21" s="111"/>
-      <c r="BM21" s="111"/>
-      <c r="BN21" s="111"/>
-      <c r="BO21" s="112"/>
+      <c r="BI21" s="167"/>
+      <c r="BJ21" s="167"/>
+      <c r="BK21" s="167"/>
+      <c r="BL21" s="167"/>
+      <c r="BM21" s="167"/>
+      <c r="BN21" s="167"/>
+      <c r="BO21" s="241"/>
     </row>
     <row r="22" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A22" s="286"/>
-      <c r="B22" s="286"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="207"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="170"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="130"/>
-      <c r="AD22" s="131"/>
-      <c r="AE22" s="131"/>
-      <c r="AF22" s="132"/>
-      <c r="AG22" s="109"/>
-      <c r="AH22" s="54"/>
-      <c r="AI22" s="54"/>
-      <c r="AJ22" s="105"/>
-      <c r="AK22" s="53"/>
-      <c r="AL22" s="54"/>
-      <c r="AM22" s="54"/>
-      <c r="AN22" s="105"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="54"/>
-      <c r="AQ22" s="54"/>
-      <c r="AR22" s="73"/>
-      <c r="AS22" s="174"/>
-      <c r="AT22" s="175"/>
-      <c r="AU22" s="175"/>
-      <c r="AV22" s="175"/>
-      <c r="AW22" s="176"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="219"/>
+      <c r="D22" s="219"/>
+      <c r="E22" s="220"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="191"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="155"/>
+      <c r="S22" s="155"/>
+      <c r="T22" s="164"/>
+      <c r="U22" s="163"/>
+      <c r="V22" s="155"/>
+      <c r="W22" s="155"/>
+      <c r="X22" s="155"/>
+      <c r="Y22" s="283"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="283"/>
+      <c r="AB22" s="108"/>
+      <c r="AC22" s="197"/>
+      <c r="AD22" s="198"/>
+      <c r="AE22" s="198"/>
+      <c r="AF22" s="199"/>
+      <c r="AG22" s="146"/>
+      <c r="AH22" s="147"/>
+      <c r="AI22" s="147"/>
+      <c r="AJ22" s="166"/>
+      <c r="AK22" s="72"/>
+      <c r="AL22" s="147"/>
+      <c r="AM22" s="147"/>
+      <c r="AN22" s="166"/>
+      <c r="AO22" s="72"/>
+      <c r="AP22" s="147"/>
+      <c r="AQ22" s="147"/>
+      <c r="AR22" s="162"/>
+      <c r="AS22" s="227"/>
+      <c r="AT22" s="228"/>
+      <c r="AU22" s="228"/>
+      <c r="AV22" s="228"/>
+      <c r="AW22" s="229"/>
       <c r="AX22" s="13"/>
       <c r="AY22" s="4"/>
-      <c r="AZ22" s="64"/>
-      <c r="BA22" s="64"/>
-      <c r="BB22" s="64"/>
-      <c r="BC22" s="64"/>
-      <c r="BD22" s="64"/>
-      <c r="BE22" s="64"/>
-      <c r="BF22" s="64"/>
+      <c r="AZ22" s="168"/>
+      <c r="BA22" s="168"/>
+      <c r="BB22" s="168"/>
+      <c r="BC22" s="168"/>
+      <c r="BD22" s="168"/>
+      <c r="BE22" s="168"/>
+      <c r="BF22" s="168"/>
       <c r="BG22" s="13"/>
       <c r="BH22" s="4"/>
-      <c r="BI22" s="64"/>
-      <c r="BJ22" s="64"/>
-      <c r="BK22" s="64"/>
-      <c r="BL22" s="64"/>
-      <c r="BM22" s="64"/>
-      <c r="BN22" s="64"/>
-      <c r="BO22" s="113"/>
+      <c r="BI22" s="168"/>
+      <c r="BJ22" s="168"/>
+      <c r="BK22" s="168"/>
+      <c r="BL22" s="168"/>
+      <c r="BM22" s="168"/>
+      <c r="BN22" s="168"/>
+      <c r="BO22" s="242"/>
     </row>
     <row r="23" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A23" s="286"/>
-      <c r="B23" s="286"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="279" t="s">
+      <c r="A23" s="99"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="219"/>
+      <c r="E23" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="280"/>
-      <c r="G23" s="281"/>
-      <c r="H23" s="48" t="s">
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="43"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="43"/>
+      <c r="AP23" s="43"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="43"/>
+      <c r="AS23" s="43"/>
+      <c r="AT23" s="43"/>
+      <c r="AU23" s="43"/>
+      <c r="AV23" s="43"/>
+      <c r="AW23" s="43"/>
+      <c r="AX23" s="43"/>
+      <c r="AY23" s="43"/>
+      <c r="AZ23" s="43"/>
+      <c r="BA23" s="43"/>
+      <c r="BB23" s="43"/>
+      <c r="BC23" s="43"/>
+      <c r="BD23" s="43"/>
+      <c r="BE23" s="43"/>
+      <c r="BF23" s="43"/>
+      <c r="BG23" s="43"/>
+      <c r="BH23" s="43"/>
+      <c r="BI23" s="43"/>
+      <c r="BJ23" s="43"/>
+      <c r="BK23" s="43"/>
+      <c r="BL23" s="43"/>
+      <c r="BM23" s="44"/>
+      <c r="BN23" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="BO23" s="112"/>
+      <c r="BP23" s="112"/>
+      <c r="BQ23" s="112"/>
+      <c r="BR23" s="112"/>
+      <c r="BS23" s="112"/>
+      <c r="BT23" s="112"/>
+      <c r="BU23" s="112"/>
+      <c r="BV23" s="112"/>
+      <c r="BW23" s="112"/>
+      <c r="BX23" s="112"/>
+      <c r="BY23" s="112"/>
+      <c r="BZ23" s="112"/>
+      <c r="CA23" s="112"/>
+      <c r="CB23" s="113"/>
+    </row>
+    <row r="24" spans="1:83" ht="15.75" customHeight="1">
+      <c r="A24" s="99"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="219"/>
+      <c r="D24" s="219"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="62"/>
+      <c r="AJ24" s="109"/>
+      <c r="AK24" s="109"/>
+      <c r="AL24" s="109"/>
+      <c r="AM24" s="109"/>
+      <c r="AN24" s="109"/>
+      <c r="AO24" s="109"/>
+      <c r="AP24" s="109"/>
+      <c r="AQ24" s="109"/>
+      <c r="AR24" s="109"/>
+      <c r="AS24" s="109"/>
+      <c r="AT24" s="109"/>
+      <c r="AU24" s="109"/>
+      <c r="AV24" s="109"/>
+      <c r="AW24" s="109"/>
+      <c r="AX24" s="109"/>
+      <c r="AY24" s="109"/>
+      <c r="AZ24" s="109"/>
+      <c r="BA24" s="109"/>
+      <c r="BB24" s="109"/>
+      <c r="BC24" s="109"/>
+      <c r="BD24" s="109"/>
+      <c r="BE24" s="109"/>
+      <c r="BF24" s="109"/>
+      <c r="BG24" s="109"/>
+      <c r="BH24" s="109"/>
+      <c r="BI24" s="109"/>
+      <c r="BJ24" s="109"/>
+      <c r="BK24" s="109"/>
+      <c r="BL24" s="109"/>
+      <c r="BM24" s="110"/>
+      <c r="BN24" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="BO24" s="115"/>
+      <c r="BP24" s="116"/>
+      <c r="BQ24" s="75"/>
+      <c r="BR24" s="76"/>
+      <c r="BS24" s="69"/>
+      <c r="BT24" s="73"/>
+      <c r="BU24" s="75"/>
+      <c r="BV24" s="76"/>
+      <c r="BW24" s="69"/>
+      <c r="BX24" s="73"/>
+      <c r="BY24" s="75"/>
+      <c r="BZ24" s="76"/>
+      <c r="CA24" s="69"/>
+      <c r="CB24" s="73"/>
+    </row>
+    <row r="25" spans="1:83" ht="15.75" customHeight="1">
+      <c r="A25" s="99"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="219"/>
+      <c r="D25" s="219"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="122"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="77"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="64"/>
+      <c r="AF25" s="124"/>
+      <c r="AG25" s="125"/>
+      <c r="AH25" s="125"/>
+      <c r="AI25" s="125"/>
+      <c r="AJ25" s="125"/>
+      <c r="AK25" s="125"/>
+      <c r="AL25" s="125"/>
+      <c r="AM25" s="125"/>
+      <c r="AN25" s="125"/>
+      <c r="AO25" s="125"/>
+      <c r="AP25" s="125"/>
+      <c r="AQ25" s="125"/>
+      <c r="AR25" s="125"/>
+      <c r="AS25" s="125"/>
+      <c r="AT25" s="125"/>
+      <c r="AU25" s="125"/>
+      <c r="AV25" s="125"/>
+      <c r="AW25" s="125"/>
+      <c r="AX25" s="125"/>
+      <c r="AY25" s="125"/>
+      <c r="AZ25" s="125"/>
+      <c r="BA25" s="125"/>
+      <c r="BB25" s="125"/>
+      <c r="BC25" s="125"/>
+      <c r="BD25" s="125"/>
+      <c r="BE25" s="125"/>
+      <c r="BF25" s="125"/>
+      <c r="BG25" s="125"/>
+      <c r="BH25" s="125"/>
+      <c r="BI25" s="125"/>
+      <c r="BJ25" s="125"/>
+      <c r="BK25" s="125"/>
+      <c r="BL25" s="125"/>
+      <c r="BM25" s="126"/>
+      <c r="BN25" s="117"/>
+      <c r="BO25" s="115"/>
+      <c r="BP25" s="116"/>
+      <c r="BQ25" s="75"/>
+      <c r="BR25" s="76"/>
+      <c r="BS25" s="69"/>
+      <c r="BT25" s="73"/>
+      <c r="BU25" s="75"/>
+      <c r="BV25" s="76"/>
+      <c r="BW25" s="69"/>
+      <c r="BX25" s="73"/>
+      <c r="BY25" s="75"/>
+      <c r="BZ25" s="76"/>
+      <c r="CA25" s="69"/>
+      <c r="CB25" s="73"/>
+    </row>
+    <row r="26" spans="1:83" ht="15.75" customHeight="1">
+      <c r="A26" s="99"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="219"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="123"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="78"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="78"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="66"/>
+      <c r="AF26" s="127"/>
+      <c r="AG26" s="128"/>
+      <c r="AH26" s="128"/>
+      <c r="AI26" s="128"/>
+      <c r="AJ26" s="128"/>
+      <c r="AK26" s="128"/>
+      <c r="AL26" s="128"/>
+      <c r="AM26" s="128"/>
+      <c r="AN26" s="128"/>
+      <c r="AO26" s="128"/>
+      <c r="AP26" s="128"/>
+      <c r="AQ26" s="128"/>
+      <c r="AR26" s="128"/>
+      <c r="AS26" s="128"/>
+      <c r="AT26" s="128"/>
+      <c r="AU26" s="128"/>
+      <c r="AV26" s="128"/>
+      <c r="AW26" s="128"/>
+      <c r="AX26" s="128"/>
+      <c r="AY26" s="128"/>
+      <c r="AZ26" s="128"/>
+      <c r="BA26" s="128"/>
+      <c r="BB26" s="128"/>
+      <c r="BC26" s="128"/>
+      <c r="BD26" s="128"/>
+      <c r="BE26" s="128"/>
+      <c r="BF26" s="128"/>
+      <c r="BG26" s="128"/>
+      <c r="BH26" s="128"/>
+      <c r="BI26" s="128"/>
+      <c r="BJ26" s="128"/>
+      <c r="BK26" s="128"/>
+      <c r="BL26" s="128"/>
+      <c r="BM26" s="129"/>
+      <c r="BN26" s="117"/>
+      <c r="BO26" s="115"/>
+      <c r="BP26" s="116"/>
+      <c r="BQ26" s="75"/>
+      <c r="BR26" s="76"/>
+      <c r="BS26" s="69"/>
+      <c r="BT26" s="74"/>
+      <c r="BU26" s="75"/>
+      <c r="BV26" s="76"/>
+      <c r="BW26" s="69"/>
+      <c r="BX26" s="74"/>
+      <c r="BY26" s="75"/>
+      <c r="BZ26" s="76"/>
+      <c r="CA26" s="69"/>
+      <c r="CB26" s="74"/>
+    </row>
+    <row r="27" spans="1:83" ht="15.75" customHeight="1">
+      <c r="A27" s="99"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="219"/>
+      <c r="D27" s="219"/>
+      <c r="E27" s="299" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="300"/>
+      <c r="G27" s="301"/>
+      <c r="H27" s="279" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="48" t="s">
-        <v>35</v>
+      <c r="I27" s="280"/>
+      <c r="J27" s="280"/>
+      <c r="K27" s="280"/>
+      <c r="L27" s="280"/>
+      <c r="M27" s="281"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="94"/>
+      <c r="Z27" s="94"/>
+      <c r="AA27" s="94"/>
+      <c r="AB27" s="94"/>
+      <c r="AC27" s="94"/>
+      <c r="AD27" s="94"/>
+      <c r="AE27" s="94"/>
+      <c r="AF27" s="94"/>
+      <c r="AG27" s="94"/>
+      <c r="AH27" s="94"/>
+      <c r="AI27" s="94"/>
+      <c r="AJ27" s="94"/>
+      <c r="AK27" s="94"/>
+      <c r="AL27" s="94"/>
+      <c r="AM27" s="94"/>
+      <c r="AN27" s="94"/>
+      <c r="AO27" s="94"/>
+      <c r="AP27" s="94"/>
+      <c r="AQ27" s="94"/>
+      <c r="AR27" s="94"/>
+      <c r="AS27" s="94"/>
+      <c r="AT27" s="94"/>
+      <c r="AU27" s="94"/>
+      <c r="AV27" s="94"/>
+      <c r="AW27" s="94"/>
+      <c r="AX27" s="94"/>
+      <c r="AY27" s="94"/>
+      <c r="AZ27" s="94"/>
+      <c r="BA27" s="94"/>
+      <c r="BB27" s="94"/>
+      <c r="BC27" s="94"/>
+      <c r="BD27" s="94"/>
+      <c r="BE27" s="94"/>
+      <c r="BF27" s="94"/>
+      <c r="BG27" s="95"/>
+      <c r="BH27" s="273" t="s">
+        <v>37</v>
       </c>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="49"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="49"/>
-      <c r="AK23" s="49"/>
-      <c r="AL23" s="49"/>
-      <c r="AM23" s="49"/>
-      <c r="AN23" s="49"/>
-      <c r="AO23" s="49"/>
-      <c r="AP23" s="49"/>
-      <c r="AQ23" s="49"/>
-      <c r="AR23" s="49"/>
-      <c r="AS23" s="49"/>
-      <c r="AT23" s="49"/>
-      <c r="AU23" s="49"/>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="49"/>
-      <c r="AZ23" s="49"/>
-      <c r="BA23" s="49"/>
-      <c r="BB23" s="49"/>
-      <c r="BC23" s="49"/>
-      <c r="BD23" s="49"/>
-      <c r="BE23" s="49"/>
-      <c r="BF23" s="49"/>
-      <c r="BG23" s="49"/>
-      <c r="BH23" s="49"/>
-      <c r="BI23" s="49"/>
-      <c r="BJ23" s="49"/>
-      <c r="BK23" s="49"/>
-      <c r="BL23" s="49"/>
-      <c r="BM23" s="50"/>
-      <c r="BN23" s="97" t="s">
-        <v>34</v>
+      <c r="BI27" s="274"/>
+      <c r="BJ27" s="275"/>
+      <c r="BK27" s="100" t="s">
+        <v>57</v>
       </c>
-      <c r="BO23" s="98"/>
-      <c r="BP23" s="98"/>
-      <c r="BQ23" s="98"/>
-      <c r="BR23" s="98"/>
-      <c r="BS23" s="98"/>
-      <c r="BT23" s="98"/>
-      <c r="BU23" s="98"/>
-      <c r="BV23" s="98"/>
-      <c r="BW23" s="98"/>
-      <c r="BX23" s="98"/>
-      <c r="BY23" s="98"/>
-      <c r="BZ23" s="98"/>
-      <c r="CA23" s="98"/>
-      <c r="CB23" s="99"/>
-    </row>
-    <row r="24" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A24" s="286"/>
-      <c r="B24" s="286"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="282"/>
-      <c r="H24" s="245"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="152"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="152"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="152"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="152"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="238" t="s">
-        <v>21</v>
-      </c>
-      <c r="W24" s="239"/>
-      <c r="X24" s="239"/>
-      <c r="Y24" s="239"/>
-      <c r="Z24" s="239"/>
-      <c r="AA24" s="239"/>
-      <c r="AB24" s="239"/>
-      <c r="AC24" s="239"/>
-      <c r="AD24" s="239"/>
-      <c r="AE24" s="240"/>
-      <c r="AF24" s="270" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG24" s="271"/>
-      <c r="AH24" s="271"/>
-      <c r="AI24" s="271"/>
-      <c r="AJ24" s="248"/>
-      <c r="AK24" s="248"/>
-      <c r="AL24" s="248"/>
-      <c r="AM24" s="248"/>
-      <c r="AN24" s="248"/>
-      <c r="AO24" s="248"/>
-      <c r="AP24" s="248"/>
-      <c r="AQ24" s="248"/>
-      <c r="AR24" s="248"/>
-      <c r="AS24" s="248"/>
-      <c r="AT24" s="248"/>
-      <c r="AU24" s="248"/>
-      <c r="AV24" s="248"/>
-      <c r="AW24" s="248"/>
-      <c r="AX24" s="248"/>
-      <c r="AY24" s="248"/>
-      <c r="AZ24" s="248"/>
-      <c r="BA24" s="248"/>
-      <c r="BB24" s="248"/>
-      <c r="BC24" s="248"/>
-      <c r="BD24" s="248"/>
-      <c r="BE24" s="248"/>
-      <c r="BF24" s="248"/>
-      <c r="BG24" s="248"/>
-      <c r="BH24" s="248"/>
-      <c r="BI24" s="248"/>
-      <c r="BJ24" s="248"/>
-      <c r="BK24" s="248"/>
-      <c r="BL24" s="248"/>
-      <c r="BM24" s="249"/>
-      <c r="BN24" s="250" t="s">
-        <v>53</v>
-      </c>
-      <c r="BO24" s="251"/>
-      <c r="BP24" s="252"/>
-      <c r="BQ24" s="232"/>
-      <c r="BR24" s="233"/>
-      <c r="BS24" s="229"/>
-      <c r="BT24" s="230"/>
-      <c r="BU24" s="232"/>
-      <c r="BV24" s="233"/>
-      <c r="BW24" s="229"/>
-      <c r="BX24" s="230"/>
-      <c r="BY24" s="232"/>
-      <c r="BZ24" s="233"/>
-      <c r="CA24" s="229"/>
-      <c r="CB24" s="230"/>
-    </row>
-    <row r="25" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A25" s="286"/>
-      <c r="B25" s="286"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="282"/>
-      <c r="H25" s="232"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="229"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="229"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="229"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="229"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="229"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="229"/>
-      <c r="U25" s="230"/>
-      <c r="V25" s="234"/>
-      <c r="W25" s="235"/>
-      <c r="X25" s="241"/>
-      <c r="Y25" s="235"/>
-      <c r="Z25" s="241"/>
-      <c r="AA25" s="235"/>
-      <c r="AB25" s="241"/>
-      <c r="AC25" s="235"/>
-      <c r="AD25" s="241"/>
-      <c r="AE25" s="272"/>
-      <c r="AF25" s="243"/>
-      <c r="AG25" s="111"/>
-      <c r="AH25" s="111"/>
-      <c r="AI25" s="111"/>
-      <c r="AJ25" s="111"/>
-      <c r="AK25" s="111"/>
-      <c r="AL25" s="111"/>
-      <c r="AM25" s="111"/>
-      <c r="AN25" s="111"/>
-      <c r="AO25" s="111"/>
-      <c r="AP25" s="111"/>
-      <c r="AQ25" s="111"/>
-      <c r="AR25" s="111"/>
-      <c r="AS25" s="111"/>
-      <c r="AT25" s="111"/>
-      <c r="AU25" s="111"/>
-      <c r="AV25" s="111"/>
-      <c r="AW25" s="111"/>
-      <c r="AX25" s="111"/>
-      <c r="AY25" s="111"/>
-      <c r="AZ25" s="111"/>
-      <c r="BA25" s="111"/>
-      <c r="BB25" s="111"/>
-      <c r="BC25" s="111"/>
-      <c r="BD25" s="111"/>
-      <c r="BE25" s="111"/>
-      <c r="BF25" s="111"/>
-      <c r="BG25" s="111"/>
-      <c r="BH25" s="111"/>
-      <c r="BI25" s="111"/>
-      <c r="BJ25" s="111"/>
-      <c r="BK25" s="111"/>
-      <c r="BL25" s="111"/>
-      <c r="BM25" s="112"/>
-      <c r="BN25" s="253"/>
-      <c r="BO25" s="251"/>
-      <c r="BP25" s="252"/>
-      <c r="BQ25" s="232"/>
-      <c r="BR25" s="233"/>
-      <c r="BS25" s="229"/>
-      <c r="BT25" s="230"/>
-      <c r="BU25" s="232"/>
-      <c r="BV25" s="233"/>
-      <c r="BW25" s="229"/>
-      <c r="BX25" s="230"/>
-      <c r="BY25" s="232"/>
-      <c r="BZ25" s="233"/>
-      <c r="CA25" s="229"/>
-      <c r="CB25" s="230"/>
-    </row>
-    <row r="26" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A26" s="286"/>
-      <c r="B26" s="286"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="283"/>
-      <c r="H26" s="246"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="247"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="247"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="247"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="247"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="247"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="247"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="236"/>
-      <c r="W26" s="237"/>
-      <c r="X26" s="242"/>
-      <c r="Y26" s="237"/>
-      <c r="Z26" s="242"/>
-      <c r="AA26" s="237"/>
-      <c r="AB26" s="242"/>
-      <c r="AC26" s="237"/>
-      <c r="AD26" s="242"/>
-      <c r="AE26" s="273"/>
-      <c r="AF26" s="61"/>
-      <c r="AG26" s="62"/>
-      <c r="AH26" s="62"/>
-      <c r="AI26" s="62"/>
-      <c r="AJ26" s="62"/>
-      <c r="AK26" s="62"/>
-      <c r="AL26" s="62"/>
-      <c r="AM26" s="62"/>
-      <c r="AN26" s="62"/>
-      <c r="AO26" s="62"/>
-      <c r="AP26" s="62"/>
-      <c r="AQ26" s="62"/>
-      <c r="AR26" s="62"/>
-      <c r="AS26" s="62"/>
-      <c r="AT26" s="62"/>
-      <c r="AU26" s="62"/>
-      <c r="AV26" s="62"/>
-      <c r="AW26" s="62"/>
-      <c r="AX26" s="62"/>
-      <c r="AY26" s="62"/>
-      <c r="AZ26" s="62"/>
-      <c r="BA26" s="62"/>
-      <c r="BB26" s="62"/>
-      <c r="BC26" s="62"/>
-      <c r="BD26" s="62"/>
-      <c r="BE26" s="62"/>
-      <c r="BF26" s="62"/>
-      <c r="BG26" s="62"/>
-      <c r="BH26" s="62"/>
-      <c r="BI26" s="62"/>
-      <c r="BJ26" s="62"/>
-      <c r="BK26" s="62"/>
-      <c r="BL26" s="62"/>
-      <c r="BM26" s="244"/>
-      <c r="BN26" s="253"/>
-      <c r="BO26" s="251"/>
-      <c r="BP26" s="252"/>
-      <c r="BQ26" s="232"/>
-      <c r="BR26" s="233"/>
-      <c r="BS26" s="229"/>
-      <c r="BT26" s="231"/>
-      <c r="BU26" s="232"/>
-      <c r="BV26" s="233"/>
-      <c r="BW26" s="229"/>
-      <c r="BX26" s="231"/>
-      <c r="BY26" s="232"/>
-      <c r="BZ26" s="233"/>
-      <c r="CA26" s="229"/>
-      <c r="CB26" s="231"/>
-    </row>
-    <row r="27" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A27" s="286"/>
-      <c r="B27" s="286"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="60"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="60"/>
-      <c r="AF27" s="60"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="60"/>
-      <c r="AJ27" s="60"/>
-      <c r="AK27" s="60"/>
-      <c r="AL27" s="60"/>
-      <c r="AM27" s="60"/>
-      <c r="AN27" s="60"/>
-      <c r="AO27" s="60"/>
-      <c r="AP27" s="60"/>
-      <c r="AQ27" s="60"/>
-      <c r="AR27" s="60"/>
-      <c r="AS27" s="60"/>
-      <c r="AT27" s="60"/>
-      <c r="AU27" s="60"/>
-      <c r="AV27" s="60"/>
-      <c r="AW27" s="60"/>
-      <c r="AX27" s="60"/>
-      <c r="AY27" s="60"/>
-      <c r="AZ27" s="60"/>
-      <c r="BA27" s="60"/>
-      <c r="BB27" s="60"/>
-      <c r="BC27" s="60"/>
-      <c r="BD27" s="60"/>
-      <c r="BE27" s="60"/>
-      <c r="BF27" s="60"/>
-      <c r="BG27" s="284"/>
-      <c r="BH27" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="BI27" s="40"/>
-      <c r="BJ27" s="41"/>
-      <c r="BK27" s="290" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL27" s="290"/>
-      <c r="BM27" s="290"/>
-      <c r="BN27" s="290"/>
-      <c r="BO27" s="290"/>
-      <c r="BP27" s="290"/>
-      <c r="BQ27" s="290"/>
-      <c r="BR27" s="290"/>
-      <c r="BS27" s="290"/>
-      <c r="BT27" s="290"/>
-      <c r="BU27" s="290"/>
-      <c r="BV27" s="290"/>
-      <c r="BW27" s="290"/>
-      <c r="BX27" s="290"/>
-      <c r="BY27" s="290"/>
-      <c r="BZ27" s="290"/>
-      <c r="CA27" s="290"/>
-      <c r="CB27" s="290"/>
-      <c r="CC27" s="290"/>
-      <c r="CD27" s="291"/>
+      <c r="BL27" s="100"/>
+      <c r="BM27" s="100"/>
+      <c r="BN27" s="100"/>
+      <c r="BO27" s="100"/>
+      <c r="BP27" s="100"/>
+      <c r="BQ27" s="100"/>
+      <c r="BR27" s="100"/>
+      <c r="BS27" s="100"/>
+      <c r="BT27" s="100"/>
+      <c r="BU27" s="100"/>
+      <c r="BV27" s="100"/>
+      <c r="BW27" s="100"/>
+      <c r="BX27" s="100"/>
+      <c r="BY27" s="100"/>
+      <c r="BZ27" s="100"/>
+      <c r="CA27" s="100"/>
+      <c r="CB27" s="100"/>
+      <c r="CC27" s="100"/>
+      <c r="CD27" s="101"/>
       <c r="CE27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:83" ht="22.5" customHeight="1">
-      <c r="A28" s="286"/>
-      <c r="B28" s="286"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="82" t="s">
-        <v>33</v>
+      <c r="A28" s="99"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="219"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="302"/>
+      <c r="F28" s="303"/>
+      <c r="G28" s="304"/>
+      <c r="H28" s="292" t="s">
+        <v>32</v>
       </c>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="64"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="64"/>
-      <c r="AF28" s="64"/>
-      <c r="AG28" s="64"/>
-      <c r="AH28" s="64"/>
-      <c r="AI28" s="64"/>
-      <c r="AJ28" s="64"/>
-      <c r="AK28" s="64"/>
-      <c r="AL28" s="64"/>
-      <c r="AM28" s="64"/>
-      <c r="AN28" s="64"/>
-      <c r="AO28" s="64"/>
-      <c r="AP28" s="64"/>
-      <c r="AQ28" s="64"/>
-      <c r="AR28" s="64"/>
-      <c r="AS28" s="64"/>
-      <c r="AT28" s="64"/>
-      <c r="AU28" s="64"/>
-      <c r="AV28" s="64"/>
-      <c r="AW28" s="64"/>
-      <c r="AX28" s="64"/>
-      <c r="AY28" s="64"/>
-      <c r="AZ28" s="64"/>
-      <c r="BA28" s="64"/>
-      <c r="BB28" s="64"/>
-      <c r="BC28" s="64"/>
-      <c r="BD28" s="64"/>
-      <c r="BE28" s="64"/>
-      <c r="BF28" s="64"/>
-      <c r="BG28" s="285"/>
-      <c r="BH28" s="42"/>
-      <c r="BI28" s="43"/>
-      <c r="BJ28" s="44"/>
-      <c r="BK28" s="292"/>
-      <c r="BL28" s="292"/>
-      <c r="BM28" s="292"/>
-      <c r="BN28" s="292"/>
-      <c r="BO28" s="292"/>
-      <c r="BP28" s="292"/>
-      <c r="BQ28" s="292"/>
-      <c r="BR28" s="292"/>
-      <c r="BS28" s="292"/>
-      <c r="BT28" s="292"/>
-      <c r="BU28" s="292"/>
-      <c r="BV28" s="292"/>
-      <c r="BW28" s="292"/>
-      <c r="BX28" s="292"/>
-      <c r="BY28" s="292"/>
-      <c r="BZ28" s="292"/>
-      <c r="CA28" s="292"/>
-      <c r="CB28" s="292"/>
-      <c r="CC28" s="292"/>
-      <c r="CD28" s="293"/>
+      <c r="I28" s="293"/>
+      <c r="J28" s="293"/>
+      <c r="K28" s="293"/>
+      <c r="L28" s="293"/>
+      <c r="M28" s="294"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="97"/>
+      <c r="T28" s="97"/>
+      <c r="U28" s="97"/>
+      <c r="V28" s="97"/>
+      <c r="W28" s="97"/>
+      <c r="X28" s="97"/>
+      <c r="Y28" s="97"/>
+      <c r="Z28" s="97"/>
+      <c r="AA28" s="97"/>
+      <c r="AB28" s="97"/>
+      <c r="AC28" s="97"/>
+      <c r="AD28" s="97"/>
+      <c r="AE28" s="97"/>
+      <c r="AF28" s="97"/>
+      <c r="AG28" s="97"/>
+      <c r="AH28" s="97"/>
+      <c r="AI28" s="97"/>
+      <c r="AJ28" s="97"/>
+      <c r="AK28" s="97"/>
+      <c r="AL28" s="97"/>
+      <c r="AM28" s="97"/>
+      <c r="AN28" s="97"/>
+      <c r="AO28" s="97"/>
+      <c r="AP28" s="97"/>
+      <c r="AQ28" s="97"/>
+      <c r="AR28" s="97"/>
+      <c r="AS28" s="97"/>
+      <c r="AT28" s="97"/>
+      <c r="AU28" s="97"/>
+      <c r="AV28" s="97"/>
+      <c r="AW28" s="97"/>
+      <c r="AX28" s="97"/>
+      <c r="AY28" s="97"/>
+      <c r="AZ28" s="97"/>
+      <c r="BA28" s="97"/>
+      <c r="BB28" s="97"/>
+      <c r="BC28" s="97"/>
+      <c r="BD28" s="97"/>
+      <c r="BE28" s="97"/>
+      <c r="BF28" s="97"/>
+      <c r="BG28" s="98"/>
+      <c r="BH28" s="276"/>
+      <c r="BI28" s="277"/>
+      <c r="BJ28" s="278"/>
+      <c r="BK28" s="102"/>
+      <c r="BL28" s="102"/>
+      <c r="BM28" s="102"/>
+      <c r="BN28" s="102"/>
+      <c r="BO28" s="102"/>
+      <c r="BP28" s="102"/>
+      <c r="BQ28" s="102"/>
+      <c r="BR28" s="102"/>
+      <c r="BS28" s="102"/>
+      <c r="BT28" s="102"/>
+      <c r="BU28" s="102"/>
+      <c r="BV28" s="102"/>
+      <c r="BW28" s="102"/>
+      <c r="BX28" s="102"/>
+      <c r="BY28" s="102"/>
+      <c r="BZ28" s="102"/>
+      <c r="CA28" s="102"/>
+      <c r="CB28" s="102"/>
+      <c r="CC28" s="102"/>
+      <c r="CD28" s="103"/>
     </row>
     <row r="29" spans="1:83" ht="10.5" customHeight="1">
       <c r="A29" s="20"/>
@@ -7434,86 +7460,86 @@
       <c r="Z30"/>
       <c r="AA30"/>
       <c r="AB30"/>
-      <c r="BQ30" s="238" t="s">
-        <v>48</v>
+      <c r="BQ30" s="39" t="s">
+        <v>47</v>
       </c>
-      <c r="BR30" s="239"/>
-      <c r="BS30" s="239"/>
-      <c r="BT30" s="239"/>
-      <c r="BU30" s="239"/>
-      <c r="BV30" s="239"/>
-      <c r="BW30" s="239"/>
-      <c r="BX30" s="239"/>
-      <c r="BY30" s="239"/>
-      <c r="BZ30" s="239"/>
-      <c r="CA30" s="239"/>
-      <c r="CB30" s="240"/>
+      <c r="BR30" s="40"/>
+      <c r="BS30" s="40"/>
+      <c r="BT30" s="40"/>
+      <c r="BU30" s="40"/>
+      <c r="BV30" s="40"/>
+      <c r="BW30" s="40"/>
+      <c r="BX30" s="40"/>
+      <c r="BY30" s="40"/>
+      <c r="BZ30" s="40"/>
+      <c r="CA30" s="40"/>
+      <c r="CB30" s="41"/>
     </row>
     <row r="31" spans="1:83" ht="15.75" customHeight="1">
       <c r="A31" s="20"/>
-      <c r="B31" s="274" t="s">
-        <v>59</v>
+      <c r="B31" s="79" t="s">
+        <v>58</v>
       </c>
-      <c r="C31" s="275"/>
-      <c r="D31" s="275"/>
-      <c r="E31" s="275"/>
-      <c r="F31" s="275"/>
-      <c r="G31" s="275"/>
-      <c r="H31" s="275"/>
-      <c r="I31" s="275"/>
-      <c r="J31" s="275"/>
-      <c r="K31" s="275"/>
-      <c r="L31" s="275"/>
-      <c r="M31" s="275"/>
-      <c r="N31" s="275"/>
-      <c r="O31" s="275"/>
-      <c r="P31" s="275"/>
-      <c r="Q31" s="275"/>
-      <c r="R31" s="275"/>
-      <c r="S31" s="275"/>
-      <c r="T31" s="275"/>
-      <c r="U31" s="275"/>
-      <c r="V31" s="275"/>
-      <c r="W31" s="275"/>
-      <c r="X31" s="275"/>
-      <c r="Y31" s="275"/>
-      <c r="Z31" s="275"/>
-      <c r="AA31" s="275"/>
-      <c r="AB31" s="276"/>
-      <c r="AU31" s="287" t="s">
-        <v>54</v>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="80"/>
+      <c r="R31" s="80"/>
+      <c r="S31" s="80"/>
+      <c r="T31" s="80"/>
+      <c r="U31" s="80"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="80"/>
+      <c r="Y31" s="80"/>
+      <c r="Z31" s="80"/>
+      <c r="AA31" s="80"/>
+      <c r="AB31" s="81"/>
+      <c r="AU31" s="104" t="s">
+        <v>53</v>
       </c>
-      <c r="AV31" s="287"/>
-      <c r="AW31" s="287"/>
-      <c r="AX31" s="287"/>
-      <c r="AY31" s="287"/>
-      <c r="AZ31" s="287"/>
-      <c r="BA31" s="287"/>
-      <c r="BB31" s="287"/>
-      <c r="BC31" s="287"/>
-      <c r="BD31" s="287"/>
-      <c r="BE31" s="287"/>
-      <c r="BF31" s="287"/>
-      <c r="BG31" s="287"/>
-      <c r="BH31" s="287"/>
-      <c r="BI31" s="287"/>
-      <c r="BJ31" s="287"/>
-      <c r="BK31" s="287"/>
-      <c r="BL31" s="287"/>
-      <c r="BM31" s="287"/>
-      <c r="BN31" s="287"/>
-      <c r="BQ31" s="48"/>
-      <c r="BR31" s="49"/>
-      <c r="BS31" s="49"/>
-      <c r="BT31" s="49"/>
-      <c r="BU31" s="49"/>
-      <c r="BV31" s="49"/>
-      <c r="BW31" s="49"/>
-      <c r="BX31" s="49"/>
-      <c r="BY31" s="49"/>
-      <c r="BZ31" s="49"/>
-      <c r="CA31" s="49"/>
-      <c r="CB31" s="50"/>
+      <c r="AV31" s="104"/>
+      <c r="AW31" s="104"/>
+      <c r="AX31" s="104"/>
+      <c r="AY31" s="104"/>
+      <c r="AZ31" s="104"/>
+      <c r="BA31" s="104"/>
+      <c r="BB31" s="104"/>
+      <c r="BC31" s="104"/>
+      <c r="BD31" s="104"/>
+      <c r="BE31" s="104"/>
+      <c r="BF31" s="104"/>
+      <c r="BG31" s="104"/>
+      <c r="BH31" s="104"/>
+      <c r="BI31" s="104"/>
+      <c r="BJ31" s="104"/>
+      <c r="BK31" s="104"/>
+      <c r="BL31" s="104"/>
+      <c r="BM31" s="104"/>
+      <c r="BN31" s="104"/>
+      <c r="BQ31" s="42"/>
+      <c r="BR31" s="43"/>
+      <c r="BS31" s="43"/>
+      <c r="BT31" s="43"/>
+      <c r="BU31" s="43"/>
+      <c r="BV31" s="43"/>
+      <c r="BW31" s="43"/>
+      <c r="BX31" s="43"/>
+      <c r="BY31" s="43"/>
+      <c r="BZ31" s="43"/>
+      <c r="CA31" s="43"/>
+      <c r="CB31" s="44"/>
     </row>
     <row r="32" spans="1:83" ht="21" customHeight="1">
       <c r="A32" s="25"/>
@@ -7550,25 +7576,25 @@
       <c r="BF32" s="24"/>
       <c r="BI32" s="24"/>
       <c r="BJ32" s="24"/>
-      <c r="BQ32" s="258"/>
-      <c r="BR32" s="259"/>
-      <c r="BS32" s="259"/>
-      <c r="BT32" s="259"/>
-      <c r="BU32" s="259"/>
-      <c r="BV32" s="259"/>
-      <c r="BW32" s="259"/>
-      <c r="BX32" s="259"/>
-      <c r="BY32" s="259"/>
-      <c r="BZ32" s="259"/>
-      <c r="CA32" s="259"/>
-      <c r="CB32" s="260"/>
+      <c r="BQ32" s="45"/>
+      <c r="BR32" s="46"/>
+      <c r="BS32" s="46"/>
+      <c r="BT32" s="46"/>
+      <c r="BU32" s="46"/>
+      <c r="BV32" s="46"/>
+      <c r="BW32" s="46"/>
+      <c r="BX32" s="46"/>
+      <c r="BY32" s="46"/>
+      <c r="BZ32" s="46"/>
+      <c r="CA32" s="46"/>
+      <c r="CB32" s="47"/>
     </row>
     <row r="33" spans="1:81" ht="21" customHeight="1">
       <c r="A33" s="20"/>
-      <c r="B33" s="261" t="s">
+      <c r="B33" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="262"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="29" t="s">
         <v>10</v>
       </c>
@@ -7578,26 +7604,26 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="267"/>
-      <c r="L33" s="267"/>
-      <c r="M33" s="267"/>
-      <c r="N33" s="267"/>
-      <c r="O33" s="267"/>
-      <c r="P33" s="267"/>
-      <c r="Q33" s="267"/>
-      <c r="R33" s="267"/>
-      <c r="S33" s="267"/>
-      <c r="T33" s="267"/>
-      <c r="U33" s="267"/>
-      <c r="V33" s="267"/>
-      <c r="W33" s="267"/>
-      <c r="X33" s="267"/>
-      <c r="Y33" s="267"/>
-      <c r="Z33" s="267"/>
-      <c r="AA33" s="267"/>
-      <c r="AB33" s="268"/>
-      <c r="AG33" s="58"/>
-      <c r="AH33" s="58"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57"/>
+      <c r="AB33" s="58"/>
+      <c r="AG33" s="284"/>
+      <c r="AH33" s="284"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9"/>
@@ -7626,23 +7652,23 @@
       <c r="BH33" s="2"/>
       <c r="BI33" s="2"/>
       <c r="BJ33" s="2"/>
-      <c r="BQ33" s="258"/>
-      <c r="BR33" s="259"/>
-      <c r="BS33" s="259"/>
-      <c r="BT33" s="259"/>
-      <c r="BU33" s="259"/>
-      <c r="BV33" s="259"/>
-      <c r="BW33" s="259"/>
-      <c r="BX33" s="259"/>
-      <c r="BY33" s="259"/>
-      <c r="BZ33" s="259"/>
-      <c r="CA33" s="259"/>
-      <c r="CB33" s="260"/>
+      <c r="BQ33" s="45"/>
+      <c r="BR33" s="46"/>
+      <c r="BS33" s="46"/>
+      <c r="BT33" s="46"/>
+      <c r="BU33" s="46"/>
+      <c r="BV33" s="46"/>
+      <c r="BW33" s="46"/>
+      <c r="BX33" s="46"/>
+      <c r="BY33" s="46"/>
+      <c r="BZ33" s="46"/>
+      <c r="CA33" s="46"/>
+      <c r="CB33" s="47"/>
     </row>
     <row r="34" spans="1:81" ht="21" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="261"/>
-      <c r="C34" s="262"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="29" t="s">
         <v>9</v>
       </c>
@@ -7652,38 +7678,38 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="267"/>
-      <c r="L34" s="267"/>
-      <c r="M34" s="267"/>
-      <c r="N34" s="267"/>
-      <c r="O34" s="267"/>
-      <c r="P34" s="267"/>
-      <c r="Q34" s="267"/>
-      <c r="R34" s="267"/>
-      <c r="S34" s="267"/>
-      <c r="T34" s="267"/>
-      <c r="U34" s="267"/>
-      <c r="V34" s="267"/>
-      <c r="W34" s="267"/>
-      <c r="X34" s="267"/>
-      <c r="Y34" s="267"/>
-      <c r="Z34" s="267"/>
-      <c r="AA34" s="267"/>
-      <c r="AB34" s="268"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="49"/>
-      <c r="AK34" s="49"/>
-      <c r="AL34" s="49"/>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="49"/>
-      <c r="AO34" s="49"/>
-      <c r="AP34" s="49"/>
-      <c r="AQ34" s="49"/>
-      <c r="AR34" s="49"/>
-      <c r="AS34" s="49"/>
-      <c r="AT34" s="50"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="58"/>
+      <c r="AG34" s="284"/>
+      <c r="AH34" s="284"/>
+      <c r="AI34" s="42"/>
+      <c r="AJ34" s="43"/>
+      <c r="AK34" s="43"/>
+      <c r="AL34" s="43"/>
+      <c r="AM34" s="43"/>
+      <c r="AN34" s="43"/>
+      <c r="AO34" s="43"/>
+      <c r="AP34" s="43"/>
+      <c r="AQ34" s="43"/>
+      <c r="AR34" s="43"/>
+      <c r="AS34" s="43"/>
+      <c r="AT34" s="44"/>
       <c r="AU34" s="9"/>
       <c r="AV34" s="9"/>
       <c r="AW34" s="9"/>
@@ -7700,23 +7726,23 @@
       <c r="BH34" s="9"/>
       <c r="BI34" s="9"/>
       <c r="BJ34" s="9"/>
-      <c r="BQ34" s="258"/>
-      <c r="BR34" s="259"/>
-      <c r="BS34" s="259"/>
-      <c r="BT34" s="259"/>
-      <c r="BU34" s="259"/>
-      <c r="BV34" s="259"/>
-      <c r="BW34" s="259"/>
-      <c r="BX34" s="259"/>
-      <c r="BY34" s="259"/>
-      <c r="BZ34" s="259"/>
-      <c r="CA34" s="259"/>
-      <c r="CB34" s="260"/>
+      <c r="BQ34" s="45"/>
+      <c r="BR34" s="46"/>
+      <c r="BS34" s="46"/>
+      <c r="BT34" s="46"/>
+      <c r="BU34" s="46"/>
+      <c r="BV34" s="46"/>
+      <c r="BW34" s="46"/>
+      <c r="BX34" s="46"/>
+      <c r="BY34" s="46"/>
+      <c r="BZ34" s="46"/>
+      <c r="CA34" s="46"/>
+      <c r="CB34" s="47"/>
     </row>
     <row r="35" spans="1:81" ht="21" customHeight="1">
       <c r="A35" s="20"/>
-      <c r="B35" s="261"/>
-      <c r="C35" s="262"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="29" t="s">
         <v>11</v>
       </c>
@@ -7726,52 +7752,52 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="267"/>
-      <c r="L35" s="267"/>
-      <c r="M35" s="267"/>
-      <c r="N35" s="267"/>
-      <c r="O35" s="267"/>
-      <c r="P35" s="267"/>
-      <c r="Q35" s="267"/>
-      <c r="R35" s="267"/>
-      <c r="S35" s="267"/>
-      <c r="T35" s="267"/>
-      <c r="U35" s="267"/>
-      <c r="V35" s="267"/>
-      <c r="W35" s="267"/>
-      <c r="X35" s="267"/>
-      <c r="Y35" s="267"/>
-      <c r="Z35" s="267"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="57"/>
       <c r="AA35" s="35" t="s">
         <v>7</v>
       </c>
       <c r="AB35" s="3"/>
-      <c r="AG35" s="58"/>
-      <c r="AH35" s="58"/>
-      <c r="AI35" s="59"/>
-      <c r="AJ35" s="60"/>
-      <c r="AK35" s="60"/>
-      <c r="AL35" s="60"/>
-      <c r="AM35" s="60"/>
-      <c r="AN35" s="60"/>
-      <c r="AO35" s="60"/>
-      <c r="AP35" s="60"/>
-      <c r="AQ35" s="60"/>
-      <c r="AR35" s="60"/>
-      <c r="AS35" s="60"/>
-      <c r="AT35" s="60"/>
-      <c r="AU35" s="60"/>
-      <c r="AV35" s="60"/>
-      <c r="AW35" s="60"/>
-      <c r="AX35" s="60"/>
-      <c r="AY35" s="60"/>
-      <c r="AZ35" s="60"/>
-      <c r="BA35" s="60"/>
-      <c r="BB35" s="60"/>
-      <c r="BC35" s="60"/>
-      <c r="BD35" s="60"/>
-      <c r="BE35" s="60"/>
-      <c r="BF35" s="239" t="s">
+      <c r="AG35" s="284"/>
+      <c r="AH35" s="284"/>
+      <c r="AI35" s="285"/>
+      <c r="AJ35" s="231"/>
+      <c r="AK35" s="231"/>
+      <c r="AL35" s="231"/>
+      <c r="AM35" s="231"/>
+      <c r="AN35" s="231"/>
+      <c r="AO35" s="231"/>
+      <c r="AP35" s="231"/>
+      <c r="AQ35" s="231"/>
+      <c r="AR35" s="231"/>
+      <c r="AS35" s="231"/>
+      <c r="AT35" s="231"/>
+      <c r="AU35" s="231"/>
+      <c r="AV35" s="231"/>
+      <c r="AW35" s="231"/>
+      <c r="AX35" s="231"/>
+      <c r="AY35" s="231"/>
+      <c r="AZ35" s="231"/>
+      <c r="BA35" s="231"/>
+      <c r="BB35" s="231"/>
+      <c r="BC35" s="231"/>
+      <c r="BD35" s="231"/>
+      <c r="BE35" s="231"/>
+      <c r="BF35" s="40" t="s">
         <v>7</v>
       </c>
       <c r="BG35" s="36"/>
@@ -7782,76 +7808,76 @@
       <c r="BN35"/>
       <c r="BO35"/>
       <c r="BP35"/>
-      <c r="BQ35" s="258"/>
-      <c r="BR35" s="259"/>
-      <c r="BS35" s="259"/>
-      <c r="BT35" s="259"/>
-      <c r="BU35" s="259"/>
-      <c r="BV35" s="259"/>
-      <c r="BW35" s="259"/>
-      <c r="BX35" s="259"/>
-      <c r="BY35" s="259"/>
-      <c r="BZ35" s="259"/>
-      <c r="CA35" s="259"/>
-      <c r="CB35" s="260"/>
+      <c r="BQ35" s="45"/>
+      <c r="BR35" s="46"/>
+      <c r="BS35" s="46"/>
+      <c r="BT35" s="46"/>
+      <c r="BU35" s="46"/>
+      <c r="BV35" s="46"/>
+      <c r="BW35" s="46"/>
+      <c r="BX35" s="46"/>
+      <c r="BY35" s="46"/>
+      <c r="BZ35" s="46"/>
+      <c r="CA35" s="46"/>
+      <c r="CB35" s="47"/>
     </row>
     <row r="36" spans="1:81" ht="12.75" customHeight="1">
       <c r="A36" s="20"/>
-      <c r="B36" s="261"/>
-      <c r="C36" s="262"/>
-      <c r="D36" s="265" t="s">
-        <v>12</v>
+      <c r="B36" s="51"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="55" t="s">
+        <v>60</v>
       </c>
-      <c r="E36" s="265"/>
-      <c r="F36" s="265"/>
-      <c r="G36" s="265"/>
-      <c r="H36" s="265"/>
-      <c r="I36" s="265"/>
-      <c r="J36" s="265"/>
-      <c r="K36" s="267"/>
-      <c r="L36" s="267"/>
-      <c r="M36" s="267"/>
-      <c r="N36" s="267"/>
-      <c r="O36" s="267"/>
-      <c r="P36" s="267"/>
-      <c r="Q36" s="267"/>
-      <c r="R36" s="267"/>
-      <c r="S36" s="267"/>
-      <c r="T36" s="267"/>
-      <c r="U36" s="267"/>
-      <c r="V36" s="267"/>
-      <c r="W36" s="267"/>
-      <c r="X36" s="267"/>
-      <c r="Y36" s="267"/>
-      <c r="Z36" s="267"/>
-      <c r="AA36" s="267"/>
-      <c r="AB36" s="268"/>
-      <c r="AG36" s="58"/>
-      <c r="AH36" s="58"/>
-      <c r="AI36" s="61"/>
-      <c r="AJ36" s="62"/>
-      <c r="AK36" s="62"/>
-      <c r="AL36" s="62"/>
-      <c r="AM36" s="62"/>
-      <c r="AN36" s="62"/>
-      <c r="AO36" s="62"/>
-      <c r="AP36" s="62"/>
-      <c r="AQ36" s="62"/>
-      <c r="AR36" s="62"/>
-      <c r="AS36" s="62"/>
-      <c r="AT36" s="62"/>
-      <c r="AU36" s="62"/>
-      <c r="AV36" s="62"/>
-      <c r="AW36" s="62"/>
-      <c r="AX36" s="62"/>
-      <c r="AY36" s="62"/>
-      <c r="AZ36" s="62"/>
-      <c r="BA36" s="62"/>
-      <c r="BB36" s="62"/>
-      <c r="BC36" s="62"/>
-      <c r="BD36" s="62"/>
-      <c r="BE36" s="62"/>
-      <c r="BF36" s="277"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="58"/>
+      <c r="AG36" s="284"/>
+      <c r="AH36" s="284"/>
+      <c r="AI36" s="235"/>
+      <c r="AJ36" s="286"/>
+      <c r="AK36" s="286"/>
+      <c r="AL36" s="286"/>
+      <c r="AM36" s="286"/>
+      <c r="AN36" s="286"/>
+      <c r="AO36" s="286"/>
+      <c r="AP36" s="286"/>
+      <c r="AQ36" s="286"/>
+      <c r="AR36" s="286"/>
+      <c r="AS36" s="286"/>
+      <c r="AT36" s="286"/>
+      <c r="AU36" s="286"/>
+      <c r="AV36" s="286"/>
+      <c r="AW36" s="286"/>
+      <c r="AX36" s="286"/>
+      <c r="AY36" s="286"/>
+      <c r="AZ36" s="286"/>
+      <c r="BA36" s="286"/>
+      <c r="BB36" s="286"/>
+      <c r="BC36" s="286"/>
+      <c r="BD36" s="286"/>
+      <c r="BE36" s="286"/>
+      <c r="BF36" s="82"/>
       <c r="BG36" s="9"/>
       <c r="BH36" s="9"/>
       <c r="BI36" s="38"/>
@@ -7859,78 +7885,78 @@
       <c r="BN36"/>
       <c r="BO36"/>
       <c r="BP36"/>
-      <c r="BQ36" s="258"/>
-      <c r="BR36" s="259"/>
-      <c r="BS36" s="259"/>
-      <c r="BT36" s="259"/>
-      <c r="BU36" s="259"/>
-      <c r="BV36" s="259"/>
-      <c r="BW36" s="259"/>
-      <c r="BX36" s="259"/>
-      <c r="BY36" s="259"/>
-      <c r="BZ36" s="259"/>
-      <c r="CA36" s="259"/>
-      <c r="CB36" s="260"/>
+      <c r="BQ36" s="45"/>
+      <c r="BR36" s="46"/>
+      <c r="BS36" s="46"/>
+      <c r="BT36" s="46"/>
+      <c r="BU36" s="46"/>
+      <c r="BV36" s="46"/>
+      <c r="BW36" s="46"/>
+      <c r="BX36" s="46"/>
+      <c r="BY36" s="46"/>
+      <c r="BZ36" s="46"/>
+      <c r="CA36" s="46"/>
+      <c r="CB36" s="47"/>
     </row>
     <row r="37" spans="1:81" ht="12.75" customHeight="1">
       <c r="A37"/>
-      <c r="B37" s="263"/>
-      <c r="C37" s="264"/>
-      <c r="D37" s="266"/>
-      <c r="E37" s="266"/>
-      <c r="F37" s="266"/>
-      <c r="G37" s="266"/>
-      <c r="H37" s="266"/>
-      <c r="I37" s="266"/>
-      <c r="J37" s="266"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="79"/>
-      <c r="W37" s="79"/>
-      <c r="X37" s="79"/>
-      <c r="Y37" s="79"/>
-      <c r="Z37" s="79"/>
-      <c r="AA37" s="79"/>
-      <c r="AB37" s="269"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="60"/>
       <c r="AC37"/>
       <c r="AD37"/>
       <c r="AE37"/>
       <c r="AF37"/>
-      <c r="AG37" s="58"/>
-      <c r="AH37" s="58"/>
-      <c r="AI37" s="63"/>
-      <c r="AJ37" s="64"/>
-      <c r="AK37" s="64"/>
-      <c r="AL37" s="64"/>
-      <c r="AM37" s="64"/>
-      <c r="AN37" s="64"/>
-      <c r="AO37" s="64"/>
-      <c r="AP37" s="64"/>
-      <c r="AQ37" s="64"/>
-      <c r="AR37" s="64"/>
-      <c r="AS37" s="64"/>
-      <c r="AT37" s="64"/>
-      <c r="AU37" s="64"/>
-      <c r="AV37" s="64"/>
-      <c r="AW37" s="64"/>
-      <c r="AX37" s="64"/>
-      <c r="AY37" s="64"/>
-      <c r="AZ37" s="64"/>
-      <c r="BA37" s="64"/>
-      <c r="BB37" s="64"/>
-      <c r="BC37" s="64"/>
-      <c r="BD37" s="64"/>
-      <c r="BE37" s="64"/>
-      <c r="BF37" s="278"/>
+      <c r="AG37" s="284"/>
+      <c r="AH37" s="284"/>
+      <c r="AI37" s="232"/>
+      <c r="AJ37" s="168"/>
+      <c r="AK37" s="168"/>
+      <c r="AL37" s="168"/>
+      <c r="AM37" s="168"/>
+      <c r="AN37" s="168"/>
+      <c r="AO37" s="168"/>
+      <c r="AP37" s="168"/>
+      <c r="AQ37" s="168"/>
+      <c r="AR37" s="168"/>
+      <c r="AS37" s="168"/>
+      <c r="AT37" s="168"/>
+      <c r="AU37" s="168"/>
+      <c r="AV37" s="168"/>
+      <c r="AW37" s="168"/>
+      <c r="AX37" s="168"/>
+      <c r="AY37" s="168"/>
+      <c r="AZ37" s="168"/>
+      <c r="BA37" s="168"/>
+      <c r="BB37" s="168"/>
+      <c r="BC37" s="168"/>
+      <c r="BD37" s="168"/>
+      <c r="BE37" s="168"/>
+      <c r="BF37" s="83"/>
       <c r="BG37" s="26"/>
       <c r="BH37" s="26"/>
       <c r="BI37" s="27"/>
@@ -7941,18 +7967,18 @@
       <c r="BN37"/>
       <c r="BO37"/>
       <c r="BP37"/>
-      <c r="BQ37" s="185"/>
-      <c r="BR37" s="186"/>
-      <c r="BS37" s="186"/>
-      <c r="BT37" s="186"/>
-      <c r="BU37" s="186"/>
-      <c r="BV37" s="186"/>
-      <c r="BW37" s="186"/>
-      <c r="BX37" s="186"/>
-      <c r="BY37" s="186"/>
-      <c r="BZ37" s="186"/>
-      <c r="CA37" s="186"/>
-      <c r="CB37" s="187"/>
+      <c r="BQ37" s="48"/>
+      <c r="BR37" s="49"/>
+      <c r="BS37" s="49"/>
+      <c r="BT37" s="49"/>
+      <c r="BU37" s="49"/>
+      <c r="BV37" s="49"/>
+      <c r="BW37" s="49"/>
+      <c r="BX37" s="49"/>
+      <c r="BY37" s="49"/>
+      <c r="BZ37" s="49"/>
+      <c r="CA37" s="49"/>
+      <c r="CB37" s="50"/>
       <c r="CC37"/>
     </row>
     <row r="38" spans="1:81" ht="17.25" customHeight="1">
@@ -10794,6 +10820,145 @@
     </row>
   </sheetData>
   <mergeCells count="163">
+    <mergeCell ref="BH27:BJ28"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H23:U23"/>
+    <mergeCell ref="AK21:AL22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="AG33:AH37"/>
+    <mergeCell ref="AI35:BE37"/>
+    <mergeCell ref="AB9:AD11"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="AD14:AG15"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="V9:W11"/>
+    <mergeCell ref="E14:J15"/>
+    <mergeCell ref="N9:O11"/>
+    <mergeCell ref="R9:S11"/>
+    <mergeCell ref="T9:U11"/>
+    <mergeCell ref="AS20:AT20"/>
+    <mergeCell ref="E27:G28"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="V7:W8"/>
+    <mergeCell ref="V6:AS6"/>
+    <mergeCell ref="BG20:BO20"/>
+    <mergeCell ref="AM21:AN22"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="BI21:BO22"/>
+    <mergeCell ref="AH14:BM15"/>
+    <mergeCell ref="AA14:AC15"/>
+    <mergeCell ref="BA20:BF20"/>
+    <mergeCell ref="AC21:AF22"/>
+    <mergeCell ref="AI9:CB9"/>
+    <mergeCell ref="AQ21:AR22"/>
+    <mergeCell ref="AN18:BW19"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="BD8:BI8"/>
+    <mergeCell ref="AE9:AH9"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="AR7:AS8"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="E20:AB20"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="BJ6:BZ6"/>
+    <mergeCell ref="BQ7:BR8"/>
+    <mergeCell ref="BU7:BV8"/>
+    <mergeCell ref="BW7:BX8"/>
+    <mergeCell ref="BY7:BZ8"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C6:D28"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="AO21:AP22"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="AS21:AW22"/>
+    <mergeCell ref="Q7:U8"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="BY2:CC2"/>
+    <mergeCell ref="BT2:BX2"/>
+    <mergeCell ref="BN2:BS2"/>
+    <mergeCell ref="BI2:BM2"/>
+    <mergeCell ref="BN3:BS4"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="BY3:CC4"/>
+    <mergeCell ref="W4:AH4"/>
+    <mergeCell ref="W3:AH3"/>
+    <mergeCell ref="AK3:BB4"/>
+    <mergeCell ref="BI3:BM4"/>
+    <mergeCell ref="BJ7:BM8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="BT3:BX4"/>
+    <mergeCell ref="BS7:BT8"/>
+    <mergeCell ref="AT6:BI6"/>
+    <mergeCell ref="BN7:BP8"/>
+    <mergeCell ref="BB7:BI7"/>
+    <mergeCell ref="CA6:CB8"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="E9:G11"/>
+    <mergeCell ref="AE10:CB11"/>
+    <mergeCell ref="N12:CB13"/>
+    <mergeCell ref="AG21:AH22"/>
+    <mergeCell ref="H10:M11"/>
+    <mergeCell ref="J12:M13"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="AI21:AJ22"/>
+    <mergeCell ref="AZ21:BF22"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="K14:N15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="AV7:BA7"/>
+    <mergeCell ref="AV8:BA8"/>
+    <mergeCell ref="BB8:BC8"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="H24:I26"/>
+    <mergeCell ref="L24:M26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="T24:U26"/>
+    <mergeCell ref="R24:S26"/>
+    <mergeCell ref="AJ24:BM24"/>
+    <mergeCell ref="BN23:CB23"/>
+    <mergeCell ref="BN24:BP26"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E19:AJ19"/>
+    <mergeCell ref="CA24:CB26"/>
+    <mergeCell ref="BY24:BZ26"/>
+    <mergeCell ref="V25:W26"/>
+    <mergeCell ref="V24:AE24"/>
+    <mergeCell ref="X25:Y26"/>
+    <mergeCell ref="V23:BM23"/>
+    <mergeCell ref="AF25:BM26"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="Z25:AA26"/>
+    <mergeCell ref="AC20:AR20"/>
     <mergeCell ref="BQ30:CB30"/>
     <mergeCell ref="BQ31:CB37"/>
     <mergeCell ref="B33:C37"/>
@@ -10818,145 +10983,6 @@
     <mergeCell ref="A6:B28"/>
     <mergeCell ref="BK27:CD28"/>
     <mergeCell ref="AU31:BN31"/>
-    <mergeCell ref="H24:I26"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="T24:U26"/>
-    <mergeCell ref="R24:S26"/>
-    <mergeCell ref="AJ24:BM24"/>
-    <mergeCell ref="BN23:CB23"/>
-    <mergeCell ref="BN24:BP26"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E19:AJ19"/>
-    <mergeCell ref="CA24:CB26"/>
-    <mergeCell ref="BY24:BZ26"/>
-    <mergeCell ref="V25:W26"/>
-    <mergeCell ref="V24:AE24"/>
-    <mergeCell ref="X25:Y26"/>
-    <mergeCell ref="V23:BM23"/>
-    <mergeCell ref="AF25:BM26"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="Z25:AA26"/>
-    <mergeCell ref="E9:G11"/>
-    <mergeCell ref="AE10:CB11"/>
-    <mergeCell ref="N12:CB13"/>
-    <mergeCell ref="AG21:AH22"/>
-    <mergeCell ref="H10:M11"/>
-    <mergeCell ref="J12:M13"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AZ21:BF22"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="K14:N15"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="AV7:BA7"/>
-    <mergeCell ref="AV8:BA8"/>
-    <mergeCell ref="BB8:BC8"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="AC20:AR20"/>
-    <mergeCell ref="BY2:CC2"/>
-    <mergeCell ref="BT2:BX2"/>
-    <mergeCell ref="BN2:BS2"/>
-    <mergeCell ref="BI2:BM2"/>
-    <mergeCell ref="BN3:BS4"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="BY3:CC4"/>
-    <mergeCell ref="W4:AH4"/>
-    <mergeCell ref="W3:AH3"/>
-    <mergeCell ref="AK3:BB4"/>
-    <mergeCell ref="BI3:BM4"/>
-    <mergeCell ref="BJ7:BM8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="BT3:BX4"/>
-    <mergeCell ref="BS7:BT8"/>
-    <mergeCell ref="AT6:BI6"/>
-    <mergeCell ref="BN7:BP8"/>
-    <mergeCell ref="BB7:BI7"/>
-    <mergeCell ref="CA6:CB8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="BJ6:BZ6"/>
-    <mergeCell ref="BQ7:BR8"/>
-    <mergeCell ref="BU7:BV8"/>
-    <mergeCell ref="BW7:BX8"/>
-    <mergeCell ref="BY7:BZ8"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C6:D28"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="AO21:AP22"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="AS21:AW22"/>
-    <mergeCell ref="Q7:U8"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="V7:W8"/>
-    <mergeCell ref="V6:AS6"/>
-    <mergeCell ref="BG20:BO20"/>
-    <mergeCell ref="AM21:AN22"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="BI21:BO22"/>
-    <mergeCell ref="AH14:BM15"/>
-    <mergeCell ref="AA14:AC15"/>
-    <mergeCell ref="BA20:BF20"/>
-    <mergeCell ref="AC21:AF22"/>
-    <mergeCell ref="AI9:CB9"/>
-    <mergeCell ref="AQ21:AR22"/>
-    <mergeCell ref="AN18:BW19"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="BD8:BI8"/>
-    <mergeCell ref="AE9:AH9"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="E20:AB20"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="BH27:BJ28"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H23:U23"/>
-    <mergeCell ref="AK21:AL22"/>
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="AG33:AH37"/>
-    <mergeCell ref="AI35:BE37"/>
-    <mergeCell ref="AB9:AD11"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="W21:X22"/>
-    <mergeCell ref="AD14:AG15"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="V9:W11"/>
-    <mergeCell ref="E14:J15"/>
-    <mergeCell ref="N9:O11"/>
-    <mergeCell ref="R9:S11"/>
-    <mergeCell ref="T9:U11"/>
-    <mergeCell ref="AS20:AT20"/>
-    <mergeCell ref="E27:G28"/>
-    <mergeCell ref="E12:G13"/>
-    <mergeCell ref="X9:Y11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.51181102362204722"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
@@ -4197,15 +4197,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4220,7 +4220,73 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7562850" y="1514475"/>
+          <a:off x="7572375" y="1485900"/>
+          <a:ext cx="409575" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="A1_52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581900" y="1628775"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4264,80 +4330,14 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="A1_52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7572375" y="1657350"/>
-          <a:ext cx="409575" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4352,7 +4352,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7562850" y="1800225"/>
+          <a:off x="7572375" y="1771650"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4945,7 +4945,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
+        <a:ln w="6350" cmpd="sng">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -5333,7 +5333,7 @@
   <dimension ref="A1:CE76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:AH4"/>
+      <selection activeCell="AU31" sqref="AU31:BN31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5265"/>
   </bookViews>
   <sheets>
     <sheet name="被保険者住所変更届（一枚目）" sheetId="6" r:id="rId1"/>
@@ -2840,8 +2840,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3269796" y="2630575"/>
-          <a:ext cx="206829" cy="375557"/>
+          <a:off x="3305175" y="2947621"/>
+          <a:ext cx="209550" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2910,7 +2910,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9553575" y="847725"/>
+          <a:off x="9582150" y="1238250"/>
           <a:ext cx="209550" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3055,8 +3055,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="9525"/>
-          <a:ext cx="2133600" cy="504825"/>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="2133600" cy="499855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3116,8 +3116,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1266825" cy="695325"/>
+          <a:off x="0" y="333375"/>
+          <a:ext cx="1266825" cy="687456"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3872,68 +3872,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="A2_19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8905875" y="5762625"/>
-          <a:ext cx="609600" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
@@ -4980,15 +4918,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>73</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>80</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5003,7 +4941,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9039225" y="5743574"/>
+          <a:off x="9010650" y="5772149"/>
           <a:ext cx="800100" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5332,8 +5270,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CE76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AU31" sqref="AU31:BN31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12:CB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
@@ -194,16 +194,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(事業主等）</t>
-    <rPh sb="1" eb="4">
-      <t>ジギョウヌシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>事業所等名称</t>
     <rPh sb="3" eb="4">
       <t>トウ</t>
@@ -233,25 +223,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>◎記入方法は裏面に書いてありますからよく読んでください。</t>
-    <rPh sb="1" eb="3">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リメン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -685,14 +656,6 @@
  整理番号</t>
   </si>
   <si>
-    <t xml:space="preserve">   短期在留　　 住民票住所以外の居所注１　
-   海外居住     その他（　　　　　　　　　）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   短期在留　　住民票住所以外の居所注１　
-   海外居住    その他（　　　　　　　　）  </t>
-  </si>
-  <si>
     <t>　被保険者の個人番号に誤りがないことを確認しました。</t>
   </si>
   <si>
@@ -702,12 +665,26 @@
   <si>
     <t>電 話</t>
   </si>
+  <si>
+    <t xml:space="preserve">    短期在留　　   住民票住所以外の居所注１　
+    海外居住       その他（　　　　　　　　　）</t>
+  </si>
+  <si>
+    <t>(事業主等）</t>
+  </si>
+  <si>
+    <t>◎記入方法は裏面に書いてありますからよく読んでください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   短期在留　  住民票住所以外の居所注１　
+   海外居住   その他（　　　　　　　　　）  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -820,6 +797,15 @@
       <name val="MS Gothic"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐ明朝"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐ明朝"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1843,7 +1829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="305">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1959,6 +1945,660 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1968,14 +2608,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1986,27 +2635,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2019,9 +2647,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2031,54 +2656,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2103,39 +2686,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2157,605 +2722,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3164,6 +3153,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -3181,12 +3173,19 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>エ</a:t>
           </a:r>
         </a:p>
@@ -3340,14 +3339,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>43</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
@@ -3474,14 +3473,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>40</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:col>41</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>43</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -3542,13 +3541,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>61</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>64</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
@@ -3609,13 +3608,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>61</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>64</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -3675,14 +3674,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>68</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:col>67</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>70</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
@@ -3742,14 +3741,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>68</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>67</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>70</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
@@ -3809,14 +3808,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -4137,13 +4136,13 @@
       <xdr:col>61</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4158,7 +4157,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7572375" y="1485900"/>
+          <a:off x="7572375" y="1514475"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4203,13 +4202,13 @@
       <xdr:col>61</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4224,7 +4223,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7581900" y="1628775"/>
+          <a:off x="7581900" y="1657350"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4269,13 +4268,13 @@
       <xdr:col>61</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4290,7 +4289,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7572375" y="1771650"/>
+          <a:off x="7572375" y="1800225"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4463,15 +4462,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>66676</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>2571</xdr:rowOff>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>183546</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4486,7 +4485,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5076826" y="2990850"/>
+          <a:off x="5143501" y="2971800"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4528,15 +4527,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:colOff>57151</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:colOff>85726</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>193071</xdr:rowOff>
+      <xdr:rowOff>164496</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4551,7 +4550,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5095876" y="3181350"/>
+          <a:off x="5133976" y="3152775"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4593,13 +4592,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>31146</xdr:rowOff>
     </xdr:to>
@@ -4616,7 +4615,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7724775" y="5581650"/>
+          <a:off x="7705725" y="5581650"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4658,13 +4657,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>50196</xdr:rowOff>
     </xdr:to>
@@ -4681,7 +4680,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8401050" y="5600700"/>
+          <a:off x="8334375" y="5600700"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4723,13 +4722,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>183546</xdr:rowOff>
     </xdr:to>
@@ -4746,7 +4745,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7724775" y="5734050"/>
+          <a:off x="7705725" y="5734050"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4788,13 +4787,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>202596</xdr:rowOff>
     </xdr:to>
@@ -4811,7 +4810,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8410575" y="5753100"/>
+          <a:off x="8343900" y="5753100"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4852,16 +4851,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>135921</xdr:rowOff>
+      <xdr:rowOff>145446</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4876,7 +4875,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1638300" y="3886200"/>
+          <a:off x="1343025" y="3895725"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4975,6 +4974,126 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85501</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>87785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>105833</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165234</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E92B99-4293-4E41-A824-FAD99FACFBA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="974501" y="680452"/>
+          <a:ext cx="274332" cy="310282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95194</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="1181100"/>
+          <a:ext cx="447619" cy="4485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="6715125"/>
+          <a:ext cx="161925" cy="1142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5270,8 +5389,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CE76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:CB13"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AF25" sqref="AF25:BM26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -5287,948 +5406,948 @@
   <sheetData>
     <row r="1" spans="1:81" ht="26.25" customHeight="1"/>
     <row r="2" spans="1:81" ht="20.25" customHeight="1">
-      <c r="A2" s="207"/>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="BI2" s="188" t="s">
-        <v>59</v>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="BI2" s="184" t="s">
+        <v>55</v>
       </c>
-      <c r="BJ2" s="184"/>
-      <c r="BK2" s="184"/>
-      <c r="BL2" s="184"/>
-      <c r="BM2" s="184"/>
-      <c r="BN2" s="185" t="s">
+      <c r="BJ2" s="180"/>
+      <c r="BK2" s="180"/>
+      <c r="BL2" s="180"/>
+      <c r="BM2" s="180"/>
+      <c r="BN2" s="181" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO2" s="182"/>
+      <c r="BP2" s="182"/>
+      <c r="BQ2" s="182"/>
+      <c r="BR2" s="182"/>
+      <c r="BS2" s="183"/>
+      <c r="BT2" s="180" t="s">
+        <v>22</v>
+      </c>
+      <c r="BU2" s="180"/>
+      <c r="BV2" s="180"/>
+      <c r="BW2" s="180"/>
+      <c r="BX2" s="180"/>
+      <c r="BY2" s="177" t="s">
         <v>23</v>
       </c>
-      <c r="BO2" s="186"/>
-      <c r="BP2" s="186"/>
-      <c r="BQ2" s="186"/>
-      <c r="BR2" s="186"/>
-      <c r="BS2" s="187"/>
-      <c r="BT2" s="184" t="s">
+      <c r="BZ2" s="178"/>
+      <c r="CA2" s="178"/>
+      <c r="CB2" s="178"/>
+      <c r="CC2" s="179"/>
+    </row>
+    <row r="3" spans="1:81" ht="18" customHeight="1">
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="W3" s="191"/>
+      <c r="X3" s="191"/>
+      <c r="Y3" s="191"/>
+      <c r="Z3" s="191"/>
+      <c r="AA3" s="191"/>
+      <c r="AB3" s="191"/>
+      <c r="AC3" s="191"/>
+      <c r="AD3" s="191"/>
+      <c r="AE3" s="191"/>
+      <c r="AF3" s="191"/>
+      <c r="AG3" s="191"/>
+      <c r="AH3" s="191"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="190" t="s">
         <v>24</v>
       </c>
-      <c r="BU2" s="184"/>
-      <c r="BV2" s="184"/>
-      <c r="BW2" s="184"/>
-      <c r="BX2" s="184"/>
-      <c r="BY2" s="181" t="s">
-        <v>25</v>
-      </c>
-      <c r="BZ2" s="182"/>
-      <c r="CA2" s="182"/>
-      <c r="CB2" s="182"/>
-      <c r="CC2" s="183"/>
-    </row>
-    <row r="3" spans="1:81" ht="18" customHeight="1">
-      <c r="A3" s="207"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="193"/>
-      <c r="AB3" s="193"/>
-      <c r="AC3" s="193"/>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="193"/>
-      <c r="AG3" s="193"/>
-      <c r="AH3" s="193"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="192" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL3" s="192"/>
-      <c r="AM3" s="192"/>
-      <c r="AN3" s="192"/>
-      <c r="AO3" s="192"/>
-      <c r="AP3" s="192"/>
-      <c r="AQ3" s="192"/>
-      <c r="AR3" s="192"/>
-      <c r="AS3" s="192"/>
-      <c r="AT3" s="192"/>
-      <c r="AU3" s="192"/>
-      <c r="AV3" s="192"/>
-      <c r="AW3" s="192"/>
-      <c r="AX3" s="192"/>
-      <c r="AY3" s="192"/>
-      <c r="AZ3" s="192"/>
-      <c r="BA3" s="192"/>
-      <c r="BB3" s="192"/>
+      <c r="AL3" s="190"/>
+      <c r="AM3" s="190"/>
+      <c r="AN3" s="190"/>
+      <c r="AO3" s="190"/>
+      <c r="AP3" s="190"/>
+      <c r="AQ3" s="190"/>
+      <c r="AR3" s="190"/>
+      <c r="AS3" s="190"/>
+      <c r="AT3" s="190"/>
+      <c r="AU3" s="190"/>
+      <c r="AV3" s="190"/>
+      <c r="AW3" s="190"/>
+      <c r="AX3" s="190"/>
+      <c r="AY3" s="190"/>
+      <c r="AZ3" s="190"/>
+      <c r="BA3" s="190"/>
+      <c r="BB3" s="190"/>
       <c r="BC3" s="6"/>
       <c r="BD3" s="6"/>
       <c r="BE3" s="6"/>
       <c r="BF3" s="6"/>
       <c r="BG3" s="6"/>
       <c r="BH3" s="7"/>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="43"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="44"/>
-      <c r="BN3" s="42"/>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43"/>
-      <c r="BR3" s="43"/>
-      <c r="BS3" s="44"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="43"/>
-      <c r="BV3" s="43"/>
-      <c r="BW3" s="43"/>
-      <c r="BX3" s="44"/>
-      <c r="BY3" s="42"/>
-      <c r="BZ3" s="43"/>
-      <c r="CA3" s="43"/>
-      <c r="CB3" s="43"/>
-      <c r="CC3" s="44"/>
+      <c r="BI3" s="48"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="49"/>
+      <c r="BL3" s="49"/>
+      <c r="BM3" s="50"/>
+      <c r="BN3" s="48"/>
+      <c r="BO3" s="49"/>
+      <c r="BP3" s="49"/>
+      <c r="BQ3" s="49"/>
+      <c r="BR3" s="49"/>
+      <c r="BS3" s="50"/>
+      <c r="BT3" s="48"/>
+      <c r="BU3" s="49"/>
+      <c r="BV3" s="49"/>
+      <c r="BW3" s="49"/>
+      <c r="BX3" s="50"/>
+      <c r="BY3" s="48"/>
+      <c r="BZ3" s="49"/>
+      <c r="CA3" s="49"/>
+      <c r="CB3" s="49"/>
+      <c r="CC3" s="50"/>
     </row>
     <row r="4" spans="1:81" ht="18" customHeight="1">
-      <c r="W4" s="192"/>
-      <c r="X4" s="192"/>
-      <c r="Y4" s="192"/>
-      <c r="Z4" s="192"/>
-      <c r="AA4" s="192"/>
-      <c r="AB4" s="192"/>
-      <c r="AC4" s="192"/>
-      <c r="AD4" s="192"/>
-      <c r="AE4" s="192"/>
-      <c r="AF4" s="192"/>
-      <c r="AG4" s="192"/>
-      <c r="AH4" s="192"/>
+      <c r="W4" s="190"/>
+      <c r="X4" s="190"/>
+      <c r="Y4" s="190"/>
+      <c r="Z4" s="190"/>
+      <c r="AA4" s="190"/>
+      <c r="AB4" s="190"/>
+      <c r="AC4" s="190"/>
+      <c r="AD4" s="190"/>
+      <c r="AE4" s="190"/>
+      <c r="AF4" s="190"/>
+      <c r="AG4" s="190"/>
+      <c r="AH4" s="190"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="192"/>
-      <c r="AL4" s="192"/>
-      <c r="AM4" s="192"/>
-      <c r="AN4" s="192"/>
-      <c r="AO4" s="192"/>
-      <c r="AP4" s="192"/>
-      <c r="AQ4" s="192"/>
-      <c r="AR4" s="192"/>
-      <c r="AS4" s="192"/>
-      <c r="AT4" s="192"/>
-      <c r="AU4" s="192"/>
-      <c r="AV4" s="192"/>
-      <c r="AW4" s="192"/>
-      <c r="AX4" s="192"/>
-      <c r="AY4" s="192"/>
-      <c r="AZ4" s="192"/>
-      <c r="BA4" s="192"/>
-      <c r="BB4" s="192"/>
+      <c r="AK4" s="190"/>
+      <c r="AL4" s="190"/>
+      <c r="AM4" s="190"/>
+      <c r="AN4" s="190"/>
+      <c r="AO4" s="190"/>
+      <c r="AP4" s="190"/>
+      <c r="AQ4" s="190"/>
+      <c r="AR4" s="190"/>
+      <c r="AS4" s="190"/>
+      <c r="AT4" s="190"/>
+      <c r="AU4" s="190"/>
+      <c r="AV4" s="190"/>
+      <c r="AW4" s="190"/>
+      <c r="AX4" s="190"/>
+      <c r="AY4" s="190"/>
+      <c r="AZ4" s="190"/>
+      <c r="BA4" s="190"/>
+      <c r="BB4" s="190"/>
       <c r="BC4" s="6"/>
       <c r="BD4" s="6"/>
       <c r="BE4" s="6"/>
       <c r="BF4" s="6"/>
       <c r="BG4" s="6"/>
       <c r="BH4" s="7"/>
-      <c r="BI4" s="48"/>
-      <c r="BJ4" s="49"/>
-      <c r="BK4" s="49"/>
-      <c r="BL4" s="49"/>
-      <c r="BM4" s="50"/>
-      <c r="BN4" s="48"/>
-      <c r="BO4" s="49"/>
-      <c r="BP4" s="49"/>
-      <c r="BQ4" s="49"/>
-      <c r="BR4" s="49"/>
-      <c r="BS4" s="50"/>
-      <c r="BT4" s="48"/>
-      <c r="BU4" s="49"/>
-      <c r="BV4" s="49"/>
-      <c r="BW4" s="49"/>
-      <c r="BX4" s="50"/>
-      <c r="BY4" s="48"/>
-      <c r="BZ4" s="49"/>
-      <c r="CA4" s="49"/>
-      <c r="CB4" s="49"/>
-      <c r="CC4" s="50"/>
+      <c r="BI4" s="185"/>
+      <c r="BJ4" s="186"/>
+      <c r="BK4" s="186"/>
+      <c r="BL4" s="186"/>
+      <c r="BM4" s="187"/>
+      <c r="BN4" s="185"/>
+      <c r="BO4" s="186"/>
+      <c r="BP4" s="186"/>
+      <c r="BQ4" s="186"/>
+      <c r="BR4" s="186"/>
+      <c r="BS4" s="187"/>
+      <c r="BT4" s="185"/>
+      <c r="BU4" s="186"/>
+      <c r="BV4" s="186"/>
+      <c r="BW4" s="186"/>
+      <c r="BX4" s="187"/>
+      <c r="BY4" s="185"/>
+      <c r="BZ4" s="186"/>
+      <c r="CA4" s="186"/>
+      <c r="CB4" s="186"/>
+      <c r="CC4" s="187"/>
     </row>
     <row r="5" spans="1:81" ht="9" customHeight="1"/>
     <row r="6" spans="1:81" ht="24" customHeight="1">
-      <c r="A6" s="99" t="s">
-        <v>13</v>
+      <c r="A6" s="292" t="s">
+        <v>11</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="219" t="s">
-        <v>12</v>
+      <c r="B6" s="292"/>
+      <c r="C6" s="165" t="s">
+        <v>59</v>
       </c>
-      <c r="D6" s="219"/>
-      <c r="E6" s="214" t="s">
+      <c r="D6" s="165"/>
+      <c r="E6" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="214"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="214"/>
-      <c r="K6" s="214"/>
-      <c r="L6" s="214"/>
-      <c r="M6" s="214"/>
-      <c r="N6" s="214"/>
-      <c r="O6" s="214"/>
-      <c r="P6" s="214"/>
-      <c r="Q6" s="233" t="s">
-        <v>55</v>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="160"/>
+      <c r="Q6" s="95" t="s">
+        <v>53</v>
       </c>
-      <c r="R6" s="234"/>
-      <c r="S6" s="234"/>
-      <c r="T6" s="234"/>
-      <c r="U6" s="234"/>
-      <c r="V6" s="111" t="s">
-        <v>42</v>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="99" t="s">
+        <v>40</v>
       </c>
-      <c r="W6" s="112"/>
-      <c r="X6" s="112"/>
-      <c r="Y6" s="112"/>
-      <c r="Z6" s="112"/>
-      <c r="AA6" s="112"/>
-      <c r="AB6" s="112"/>
-      <c r="AC6" s="112"/>
-      <c r="AD6" s="112"/>
-      <c r="AE6" s="112"/>
-      <c r="AF6" s="112"/>
-      <c r="AG6" s="112"/>
-      <c r="AH6" s="112"/>
-      <c r="AI6" s="112"/>
-      <c r="AJ6" s="112"/>
-      <c r="AK6" s="112"/>
-      <c r="AL6" s="112"/>
-      <c r="AM6" s="112"/>
-      <c r="AN6" s="112"/>
-      <c r="AO6" s="112"/>
-      <c r="AP6" s="112"/>
-      <c r="AQ6" s="112"/>
-      <c r="AR6" s="112"/>
-      <c r="AS6" s="113"/>
-      <c r="AT6" s="112" t="s">
-        <v>41</v>
+      <c r="W6" s="100"/>
+      <c r="X6" s="100"/>
+      <c r="Y6" s="100"/>
+      <c r="Z6" s="100"/>
+      <c r="AA6" s="100"/>
+      <c r="AB6" s="100"/>
+      <c r="AC6" s="100"/>
+      <c r="AD6" s="100"/>
+      <c r="AE6" s="100"/>
+      <c r="AF6" s="100"/>
+      <c r="AG6" s="100"/>
+      <c r="AH6" s="100"/>
+      <c r="AI6" s="100"/>
+      <c r="AJ6" s="100"/>
+      <c r="AK6" s="100"/>
+      <c r="AL6" s="100"/>
+      <c r="AM6" s="100"/>
+      <c r="AN6" s="100"/>
+      <c r="AO6" s="100"/>
+      <c r="AP6" s="100"/>
+      <c r="AQ6" s="100"/>
+      <c r="AR6" s="100"/>
+      <c r="AS6" s="101"/>
+      <c r="AT6" s="100" t="s">
+        <v>39</v>
       </c>
-      <c r="AU6" s="112"/>
-      <c r="AV6" s="112"/>
-      <c r="AW6" s="112"/>
-      <c r="AX6" s="112"/>
-      <c r="AY6" s="112"/>
-      <c r="AZ6" s="112"/>
-      <c r="BA6" s="112"/>
-      <c r="BB6" s="112"/>
-      <c r="BC6" s="112"/>
-      <c r="BD6" s="112"/>
-      <c r="BE6" s="112"/>
-      <c r="BF6" s="112"/>
-      <c r="BG6" s="112"/>
-      <c r="BH6" s="112"/>
-      <c r="BI6" s="113"/>
-      <c r="BJ6" s="42" t="s">
+      <c r="AU6" s="100"/>
+      <c r="AV6" s="100"/>
+      <c r="AW6" s="100"/>
+      <c r="AX6" s="100"/>
+      <c r="AY6" s="100"/>
+      <c r="AZ6" s="100"/>
+      <c r="BA6" s="100"/>
+      <c r="BB6" s="100"/>
+      <c r="BC6" s="100"/>
+      <c r="BD6" s="100"/>
+      <c r="BE6" s="100"/>
+      <c r="BF6" s="100"/>
+      <c r="BG6" s="100"/>
+      <c r="BH6" s="100"/>
+      <c r="BI6" s="101"/>
+      <c r="BJ6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="BK6" s="43"/>
-      <c r="BL6" s="43"/>
-      <c r="BM6" s="43"/>
-      <c r="BN6" s="43"/>
-      <c r="BO6" s="43"/>
-      <c r="BP6" s="43"/>
-      <c r="BQ6" s="43"/>
-      <c r="BR6" s="43"/>
-      <c r="BS6" s="43"/>
-      <c r="BT6" s="43"/>
-      <c r="BU6" s="43"/>
-      <c r="BV6" s="43"/>
-      <c r="BW6" s="43"/>
-      <c r="BX6" s="43"/>
-      <c r="BY6" s="43"/>
-      <c r="BZ6" s="44"/>
-      <c r="CA6" s="203"/>
-      <c r="CB6" s="204"/>
+      <c r="BK6" s="49"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="49"/>
+      <c r="BN6" s="49"/>
+      <c r="BO6" s="49"/>
+      <c r="BP6" s="49"/>
+      <c r="BQ6" s="49"/>
+      <c r="BR6" s="49"/>
+      <c r="BS6" s="49"/>
+      <c r="BT6" s="49"/>
+      <c r="BU6" s="49"/>
+      <c r="BV6" s="49"/>
+      <c r="BW6" s="49"/>
+      <c r="BX6" s="49"/>
+      <c r="BY6" s="49"/>
+      <c r="BZ6" s="50"/>
+      <c r="CA6" s="195"/>
+      <c r="CB6" s="196"/>
       <c r="CC6" s="10"/>
     </row>
     <row r="7" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="212"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="213"/>
-      <c r="I7" s="216"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="230"/>
-      <c r="R7" s="231"/>
-      <c r="S7" s="231"/>
-      <c r="T7" s="231"/>
-      <c r="U7" s="231"/>
-      <c r="V7" s="235"/>
-      <c r="W7" s="236"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="147"/>
-      <c r="Z7" s="147"/>
-      <c r="AA7" s="147"/>
-      <c r="AB7" s="147"/>
-      <c r="AC7" s="162"/>
-      <c r="AD7" s="189"/>
-      <c r="AE7" s="146"/>
-      <c r="AF7" s="205"/>
-      <c r="AG7" s="146"/>
-      <c r="AH7" s="147"/>
-      <c r="AI7" s="147"/>
-      <c r="AJ7" s="147"/>
-      <c r="AK7" s="162"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="147"/>
-      <c r="AN7" s="147"/>
-      <c r="AO7" s="147"/>
-      <c r="AP7" s="147"/>
-      <c r="AQ7" s="147"/>
-      <c r="AR7" s="266"/>
-      <c r="AS7" s="267"/>
-      <c r="AT7" s="269" t="s">
-        <v>39</v>
+      <c r="A7" s="292"/>
+      <c r="B7" s="292"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="176"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="188"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="197"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="73"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="54"/>
+      <c r="AQ7" s="54"/>
+      <c r="AR7" s="142"/>
+      <c r="AS7" s="143"/>
+      <c r="AT7" s="145" t="s">
+        <v>37</v>
       </c>
-      <c r="AU7" s="270"/>
-      <c r="AV7" s="173"/>
-      <c r="AW7" s="173"/>
-      <c r="AX7" s="173"/>
-      <c r="AY7" s="173"/>
-      <c r="AZ7" s="173"/>
-      <c r="BA7" s="174"/>
-      <c r="BB7" s="200"/>
-      <c r="BC7" s="201"/>
-      <c r="BD7" s="201"/>
-      <c r="BE7" s="201"/>
-      <c r="BF7" s="201"/>
-      <c r="BG7" s="201"/>
-      <c r="BH7" s="201"/>
-      <c r="BI7" s="202"/>
-      <c r="BJ7" s="194" t="s">
-        <v>50</v>
+      <c r="AU7" s="146"/>
+      <c r="AV7" s="228"/>
+      <c r="AW7" s="228"/>
+      <c r="AX7" s="228"/>
+      <c r="AY7" s="228"/>
+      <c r="AZ7" s="228"/>
+      <c r="BA7" s="229"/>
+      <c r="BB7" s="192"/>
+      <c r="BC7" s="193"/>
+      <c r="BD7" s="193"/>
+      <c r="BE7" s="193"/>
+      <c r="BF7" s="193"/>
+      <c r="BG7" s="193"/>
+      <c r="BH7" s="193"/>
+      <c r="BI7" s="194"/>
+      <c r="BJ7" s="126" t="s">
+        <v>48</v>
       </c>
-      <c r="BK7" s="195"/>
-      <c r="BL7" s="195"/>
-      <c r="BM7" s="196"/>
-      <c r="BN7" s="158"/>
-      <c r="BO7" s="68"/>
-      <c r="BP7" s="160"/>
-      <c r="BQ7" s="67"/>
-      <c r="BR7" s="208"/>
-      <c r="BS7" s="68"/>
-      <c r="BT7" s="160"/>
-      <c r="BU7" s="160"/>
-      <c r="BV7" s="172"/>
-      <c r="BW7" s="68"/>
-      <c r="BX7" s="160"/>
-      <c r="BY7" s="160"/>
-      <c r="BZ7" s="161"/>
-      <c r="CA7" s="203"/>
-      <c r="CB7" s="204"/>
+      <c r="BK7" s="127"/>
+      <c r="BL7" s="127"/>
+      <c r="BM7" s="128"/>
+      <c r="BN7" s="109"/>
+      <c r="BO7" s="56"/>
+      <c r="BP7" s="155"/>
+      <c r="BQ7" s="151"/>
+      <c r="BR7" s="152"/>
+      <c r="BS7" s="56"/>
+      <c r="BT7" s="155"/>
+      <c r="BU7" s="155"/>
+      <c r="BV7" s="112"/>
+      <c r="BW7" s="56"/>
+      <c r="BX7" s="155"/>
+      <c r="BY7" s="155"/>
+      <c r="BZ7" s="156"/>
+      <c r="CA7" s="195"/>
+      <c r="CB7" s="196"/>
       <c r="CC7" s="10"/>
     </row>
     <row r="8" spans="1:81" ht="21.75" customHeight="1">
-      <c r="A8" s="99"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="222"/>
-      <c r="H8" s="223"/>
-      <c r="I8" s="216"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="215"/>
-      <c r="Q8" s="232"/>
-      <c r="R8" s="168"/>
-      <c r="S8" s="168"/>
-      <c r="T8" s="168"/>
-      <c r="U8" s="168"/>
-      <c r="V8" s="232"/>
-      <c r="W8" s="237"/>
-      <c r="X8" s="163"/>
-      <c r="Y8" s="155"/>
-      <c r="Z8" s="155"/>
-      <c r="AA8" s="155"/>
-      <c r="AB8" s="155"/>
-      <c r="AC8" s="164"/>
-      <c r="AD8" s="190"/>
-      <c r="AE8" s="191"/>
-      <c r="AF8" s="206"/>
-      <c r="AG8" s="191"/>
-      <c r="AH8" s="155"/>
-      <c r="AI8" s="155"/>
-      <c r="AJ8" s="155"/>
-      <c r="AK8" s="164"/>
-      <c r="AL8" s="163"/>
-      <c r="AM8" s="155"/>
-      <c r="AN8" s="155"/>
-      <c r="AO8" s="155"/>
-      <c r="AP8" s="155"/>
-      <c r="AQ8" s="155"/>
-      <c r="AR8" s="268"/>
-      <c r="AS8" s="242"/>
-      <c r="AT8" s="260" t="s">
-        <v>40</v>
+      <c r="A8" s="292"/>
+      <c r="B8" s="292"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="169"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="189"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="198"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="169"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="144"/>
+      <c r="AS8" s="115"/>
+      <c r="AT8" s="136" t="s">
+        <v>38</v>
       </c>
-      <c r="AU8" s="261"/>
-      <c r="AV8" s="175"/>
-      <c r="AW8" s="175"/>
-      <c r="AX8" s="175"/>
-      <c r="AY8" s="175"/>
-      <c r="AZ8" s="175"/>
-      <c r="BA8" s="176"/>
-      <c r="BB8" s="177" t="s">
-        <v>22</v>
+      <c r="AU8" s="137"/>
+      <c r="AV8" s="230"/>
+      <c r="AW8" s="230"/>
+      <c r="AX8" s="230"/>
+      <c r="AY8" s="230"/>
+      <c r="AZ8" s="230"/>
+      <c r="BA8" s="231"/>
+      <c r="BB8" s="232" t="s">
+        <v>20</v>
       </c>
-      <c r="BC8" s="178"/>
-      <c r="BD8" s="262"/>
-      <c r="BE8" s="262"/>
-      <c r="BF8" s="262"/>
-      <c r="BG8" s="262"/>
-      <c r="BH8" s="262"/>
-      <c r="BI8" s="263"/>
-      <c r="BJ8" s="197"/>
-      <c r="BK8" s="198"/>
-      <c r="BL8" s="198"/>
-      <c r="BM8" s="199"/>
-      <c r="BN8" s="146"/>
-      <c r="BO8" s="72"/>
-      <c r="BP8" s="147"/>
-      <c r="BQ8" s="209"/>
-      <c r="BR8" s="210"/>
-      <c r="BS8" s="72"/>
-      <c r="BT8" s="147"/>
-      <c r="BU8" s="147"/>
-      <c r="BV8" s="166"/>
-      <c r="BW8" s="72"/>
-      <c r="BX8" s="147"/>
-      <c r="BY8" s="147"/>
-      <c r="BZ8" s="162"/>
-      <c r="CA8" s="203"/>
-      <c r="CB8" s="204"/>
+      <c r="BC8" s="233"/>
+      <c r="BD8" s="138"/>
+      <c r="BE8" s="138"/>
+      <c r="BF8" s="138"/>
+      <c r="BG8" s="138"/>
+      <c r="BH8" s="138"/>
+      <c r="BI8" s="139"/>
+      <c r="BJ8" s="129"/>
+      <c r="BK8" s="130"/>
+      <c r="BL8" s="130"/>
+      <c r="BM8" s="131"/>
+      <c r="BN8" s="111"/>
+      <c r="BO8" s="53"/>
+      <c r="BP8" s="54"/>
+      <c r="BQ8" s="153"/>
+      <c r="BR8" s="154"/>
+      <c r="BS8" s="53"/>
+      <c r="BT8" s="54"/>
+      <c r="BU8" s="54"/>
+      <c r="BV8" s="107"/>
+      <c r="BW8" s="53"/>
+      <c r="BX8" s="54"/>
+      <c r="BY8" s="54"/>
+      <c r="BZ8" s="73"/>
+      <c r="CA8" s="195"/>
+      <c r="CB8" s="196"/>
       <c r="CC8" s="10"/>
     </row>
     <row r="9" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A9" s="99"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="130" t="s">
+      <c r="A9" s="292"/>
+      <c r="B9" s="292"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="131"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="271" t="s">
-        <v>19</v>
+      <c r="F9" s="200"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="148" t="s">
+        <v>17</v>
       </c>
-      <c r="I9" s="272"/>
+      <c r="I9" s="149"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="191"/>
-      <c r="O9" s="155"/>
-      <c r="P9" s="155"/>
-      <c r="Q9" s="155"/>
-      <c r="R9" s="155"/>
-      <c r="S9" s="155"/>
-      <c r="T9" s="155"/>
-      <c r="U9" s="155"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="147"/>
-      <c r="AA9" s="162"/>
-      <c r="AB9" s="87" t="s">
+      <c r="N9" s="72"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="287"/>
-      <c r="AE9" s="264" t="s">
-        <v>27</v>
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="140" t="s">
+        <v>25</v>
       </c>
-      <c r="AF9" s="265"/>
-      <c r="AG9" s="265"/>
-      <c r="AH9" s="265"/>
-      <c r="AI9" s="256"/>
-      <c r="AJ9" s="256"/>
-      <c r="AK9" s="256"/>
-      <c r="AL9" s="256"/>
-      <c r="AM9" s="256"/>
-      <c r="AN9" s="256"/>
-      <c r="AO9" s="256"/>
-      <c r="AP9" s="256"/>
-      <c r="AQ9" s="256"/>
-      <c r="AR9" s="256"/>
-      <c r="AS9" s="256"/>
-      <c r="AT9" s="256"/>
-      <c r="AU9" s="256"/>
-      <c r="AV9" s="256"/>
-      <c r="AW9" s="256"/>
-      <c r="AX9" s="256"/>
-      <c r="AY9" s="256"/>
-      <c r="AZ9" s="256"/>
-      <c r="BA9" s="256"/>
-      <c r="BB9" s="256"/>
-      <c r="BC9" s="256"/>
-      <c r="BD9" s="256"/>
-      <c r="BE9" s="256"/>
-      <c r="BF9" s="256"/>
-      <c r="BG9" s="256"/>
-      <c r="BH9" s="256"/>
-      <c r="BI9" s="256"/>
-      <c r="BJ9" s="256"/>
-      <c r="BK9" s="256"/>
-      <c r="BL9" s="256"/>
-      <c r="BM9" s="256"/>
-      <c r="BN9" s="256"/>
-      <c r="BO9" s="256"/>
-      <c r="BP9" s="256"/>
-      <c r="BQ9" s="256"/>
-      <c r="BR9" s="256"/>
-      <c r="BS9" s="256"/>
-      <c r="BT9" s="256"/>
-      <c r="BU9" s="256"/>
-      <c r="BV9" s="256"/>
-      <c r="BW9" s="256"/>
-      <c r="BX9" s="256"/>
-      <c r="BY9" s="256"/>
-      <c r="BZ9" s="256"/>
-      <c r="CA9" s="256"/>
-      <c r="CB9" s="257"/>
+      <c r="AF9" s="141"/>
+      <c r="AG9" s="141"/>
+      <c r="AH9" s="141"/>
+      <c r="AI9" s="132"/>
+      <c r="AJ9" s="132"/>
+      <c r="AK9" s="132"/>
+      <c r="AL9" s="132"/>
+      <c r="AM9" s="132"/>
+      <c r="AN9" s="132"/>
+      <c r="AO9" s="132"/>
+      <c r="AP9" s="132"/>
+      <c r="AQ9" s="132"/>
+      <c r="AR9" s="132"/>
+      <c r="AS9" s="132"/>
+      <c r="AT9" s="132"/>
+      <c r="AU9" s="132"/>
+      <c r="AV9" s="132"/>
+      <c r="AW9" s="132"/>
+      <c r="AX9" s="132"/>
+      <c r="AY9" s="132"/>
+      <c r="AZ9" s="132"/>
+      <c r="BA9" s="132"/>
+      <c r="BB9" s="132"/>
+      <c r="BC9" s="132"/>
+      <c r="BD9" s="132"/>
+      <c r="BE9" s="132"/>
+      <c r="BF9" s="132"/>
+      <c r="BG9" s="132"/>
+      <c r="BH9" s="132"/>
+      <c r="BI9" s="132"/>
+      <c r="BJ9" s="132"/>
+      <c r="BK9" s="132"/>
+      <c r="BL9" s="132"/>
+      <c r="BM9" s="132"/>
+      <c r="BN9" s="132"/>
+      <c r="BO9" s="132"/>
+      <c r="BP9" s="132"/>
+      <c r="BQ9" s="132"/>
+      <c r="BR9" s="132"/>
+      <c r="BS9" s="132"/>
+      <c r="BT9" s="132"/>
+      <c r="BU9" s="132"/>
+      <c r="BV9" s="132"/>
+      <c r="BW9" s="132"/>
+      <c r="BX9" s="132"/>
+      <c r="BY9" s="132"/>
+      <c r="BZ9" s="132"/>
+      <c r="CA9" s="132"/>
+      <c r="CB9" s="133"/>
     </row>
     <row r="10" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A10" s="99"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="219"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="148" t="s">
-        <v>18</v>
+      <c r="A10" s="292"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="218" t="s">
+        <v>16</v>
       </c>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="149"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="191"/>
-      <c r="O10" s="155"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="155"/>
-      <c r="T10" s="155"/>
-      <c r="U10" s="155"/>
-      <c r="V10" s="155"/>
-      <c r="W10" s="155"/>
-      <c r="X10" s="155"/>
-      <c r="Y10" s="155"/>
-      <c r="Z10" s="155"/>
-      <c r="AA10" s="164"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="88"/>
-      <c r="AD10" s="287"/>
-      <c r="AE10" s="139"/>
-      <c r="AF10" s="125"/>
-      <c r="AG10" s="125"/>
-      <c r="AH10" s="125"/>
-      <c r="AI10" s="125"/>
-      <c r="AJ10" s="125"/>
-      <c r="AK10" s="125"/>
-      <c r="AL10" s="125"/>
-      <c r="AM10" s="125"/>
-      <c r="AN10" s="125"/>
-      <c r="AO10" s="125"/>
-      <c r="AP10" s="125"/>
-      <c r="AQ10" s="125"/>
-      <c r="AR10" s="125"/>
-      <c r="AS10" s="125"/>
-      <c r="AT10" s="125"/>
-      <c r="AU10" s="125"/>
-      <c r="AV10" s="125"/>
-      <c r="AW10" s="125"/>
-      <c r="AX10" s="125"/>
-      <c r="AY10" s="125"/>
-      <c r="AZ10" s="125"/>
-      <c r="BA10" s="125"/>
-      <c r="BB10" s="125"/>
-      <c r="BC10" s="125"/>
-      <c r="BD10" s="125"/>
-      <c r="BE10" s="125"/>
-      <c r="BF10" s="125"/>
-      <c r="BG10" s="125"/>
-      <c r="BH10" s="125"/>
-      <c r="BI10" s="125"/>
-      <c r="BJ10" s="125"/>
-      <c r="BK10" s="125"/>
-      <c r="BL10" s="125"/>
-      <c r="BM10" s="125"/>
-      <c r="BN10" s="125"/>
-      <c r="BO10" s="125"/>
-      <c r="BP10" s="125"/>
-      <c r="BQ10" s="125"/>
-      <c r="BR10" s="125"/>
-      <c r="BS10" s="125"/>
-      <c r="BT10" s="125"/>
-      <c r="BU10" s="125"/>
-      <c r="BV10" s="125"/>
-      <c r="BW10" s="125"/>
-      <c r="BX10" s="125"/>
-      <c r="BY10" s="125"/>
-      <c r="BZ10" s="125"/>
-      <c r="CA10" s="125"/>
-      <c r="CB10" s="126"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="219"/>
+      <c r="K10" s="219"/>
+      <c r="L10" s="219"/>
+      <c r="M10" s="219"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="208"/>
+      <c r="AF10" s="209"/>
+      <c r="AG10" s="209"/>
+      <c r="AH10" s="209"/>
+      <c r="AI10" s="209"/>
+      <c r="AJ10" s="209"/>
+      <c r="AK10" s="209"/>
+      <c r="AL10" s="209"/>
+      <c r="AM10" s="209"/>
+      <c r="AN10" s="209"/>
+      <c r="AO10" s="209"/>
+      <c r="AP10" s="209"/>
+      <c r="AQ10" s="209"/>
+      <c r="AR10" s="209"/>
+      <c r="AS10" s="209"/>
+      <c r="AT10" s="209"/>
+      <c r="AU10" s="209"/>
+      <c r="AV10" s="209"/>
+      <c r="AW10" s="209"/>
+      <c r="AX10" s="209"/>
+      <c r="AY10" s="209"/>
+      <c r="AZ10" s="209"/>
+      <c r="BA10" s="209"/>
+      <c r="BB10" s="209"/>
+      <c r="BC10" s="209"/>
+      <c r="BD10" s="209"/>
+      <c r="BE10" s="209"/>
+      <c r="BF10" s="209"/>
+      <c r="BG10" s="209"/>
+      <c r="BH10" s="209"/>
+      <c r="BI10" s="209"/>
+      <c r="BJ10" s="209"/>
+      <c r="BK10" s="209"/>
+      <c r="BL10" s="209"/>
+      <c r="BM10" s="209"/>
+      <c r="BN10" s="209"/>
+      <c r="BO10" s="209"/>
+      <c r="BP10" s="209"/>
+      <c r="BQ10" s="209"/>
+      <c r="BR10" s="209"/>
+      <c r="BS10" s="209"/>
+      <c r="BT10" s="209"/>
+      <c r="BU10" s="209"/>
+      <c r="BV10" s="209"/>
+      <c r="BW10" s="209"/>
+      <c r="BX10" s="209"/>
+      <c r="BY10" s="209"/>
+      <c r="BZ10" s="209"/>
+      <c r="CA10" s="209"/>
+      <c r="CB10" s="210"/>
     </row>
     <row r="11" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A11" s="99"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="219"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="191"/>
-      <c r="O11" s="155"/>
-      <c r="P11" s="155"/>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="155"/>
-      <c r="S11" s="155"/>
-      <c r="T11" s="155"/>
-      <c r="U11" s="155"/>
-      <c r="V11" s="155"/>
-      <c r="W11" s="155"/>
-      <c r="X11" s="155"/>
-      <c r="Y11" s="155"/>
-      <c r="Z11" s="155"/>
-      <c r="AA11" s="164"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="91"/>
-      <c r="AD11" s="288"/>
-      <c r="AE11" s="140"/>
-      <c r="AF11" s="97"/>
-      <c r="AG11" s="97"/>
-      <c r="AH11" s="97"/>
-      <c r="AI11" s="97"/>
-      <c r="AJ11" s="97"/>
-      <c r="AK11" s="97"/>
-      <c r="AL11" s="97"/>
-      <c r="AM11" s="97"/>
-      <c r="AN11" s="97"/>
-      <c r="AO11" s="97"/>
-      <c r="AP11" s="97"/>
-      <c r="AQ11" s="97"/>
-      <c r="AR11" s="97"/>
-      <c r="AS11" s="97"/>
-      <c r="AT11" s="97"/>
-      <c r="AU11" s="97"/>
-      <c r="AV11" s="97"/>
-      <c r="AW11" s="97"/>
-      <c r="AX11" s="97"/>
-      <c r="AY11" s="97"/>
-      <c r="AZ11" s="97"/>
-      <c r="BA11" s="97"/>
-      <c r="BB11" s="97"/>
-      <c r="BC11" s="97"/>
-      <c r="BD11" s="97"/>
-      <c r="BE11" s="97"/>
-      <c r="BF11" s="97"/>
-      <c r="BG11" s="97"/>
-      <c r="BH11" s="97"/>
-      <c r="BI11" s="97"/>
-      <c r="BJ11" s="97"/>
-      <c r="BK11" s="97"/>
-      <c r="BL11" s="97"/>
-      <c r="BM11" s="97"/>
-      <c r="BN11" s="97"/>
-      <c r="BO11" s="97"/>
-      <c r="BP11" s="97"/>
-      <c r="BQ11" s="97"/>
-      <c r="BR11" s="97"/>
-      <c r="BS11" s="97"/>
-      <c r="BT11" s="97"/>
-      <c r="BU11" s="97"/>
-      <c r="BV11" s="97"/>
-      <c r="BW11" s="97"/>
-      <c r="BX11" s="97"/>
-      <c r="BY11" s="97"/>
-      <c r="BZ11" s="97"/>
-      <c r="CA11" s="97"/>
-      <c r="CB11" s="141"/>
+      <c r="A11" s="292"/>
+      <c r="B11" s="292"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="207"/>
+      <c r="H11" s="220"/>
+      <c r="I11" s="221"/>
+      <c r="J11" s="221"/>
+      <c r="K11" s="221"/>
+      <c r="L11" s="221"/>
+      <c r="M11" s="221"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="211"/>
+      <c r="AF11" s="212"/>
+      <c r="AG11" s="212"/>
+      <c r="AH11" s="212"/>
+      <c r="AI11" s="212"/>
+      <c r="AJ11" s="212"/>
+      <c r="AK11" s="212"/>
+      <c r="AL11" s="212"/>
+      <c r="AM11" s="212"/>
+      <c r="AN11" s="212"/>
+      <c r="AO11" s="212"/>
+      <c r="AP11" s="212"/>
+      <c r="AQ11" s="212"/>
+      <c r="AR11" s="212"/>
+      <c r="AS11" s="212"/>
+      <c r="AT11" s="212"/>
+      <c r="AU11" s="212"/>
+      <c r="AV11" s="212"/>
+      <c r="AW11" s="212"/>
+      <c r="AX11" s="212"/>
+      <c r="AY11" s="212"/>
+      <c r="AZ11" s="212"/>
+      <c r="BA11" s="212"/>
+      <c r="BB11" s="212"/>
+      <c r="BC11" s="212"/>
+      <c r="BD11" s="212"/>
+      <c r="BE11" s="212"/>
+      <c r="BF11" s="212"/>
+      <c r="BG11" s="212"/>
+      <c r="BH11" s="212"/>
+      <c r="BI11" s="212"/>
+      <c r="BJ11" s="212"/>
+      <c r="BK11" s="212"/>
+      <c r="BL11" s="212"/>
+      <c r="BM11" s="212"/>
+      <c r="BN11" s="212"/>
+      <c r="BO11" s="212"/>
+      <c r="BP11" s="212"/>
+      <c r="BQ11" s="212"/>
+      <c r="BR11" s="212"/>
+      <c r="BS11" s="212"/>
+      <c r="BT11" s="212"/>
+      <c r="BU11" s="212"/>
+      <c r="BV11" s="212"/>
+      <c r="BW11" s="212"/>
+      <c r="BX11" s="212"/>
+      <c r="BY11" s="212"/>
+      <c r="BZ11" s="212"/>
+      <c r="CA11" s="212"/>
+      <c r="CB11" s="213"/>
     </row>
     <row r="12" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A12" s="99"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="219"/>
-      <c r="D12" s="219"/>
-      <c r="E12" s="299" t="s">
+      <c r="A12" s="292"/>
+      <c r="B12" s="292"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="300"/>
-      <c r="G12" s="301"/>
-      <c r="H12" s="118" t="s">
-        <v>15</v>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="247" t="s">
+        <v>13</v>
       </c>
-      <c r="I12" s="119"/>
-      <c r="J12" s="152" t="s">
+      <c r="I12" s="248"/>
+      <c r="J12" s="222" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="142"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="94"/>
-      <c r="AF12" s="94"/>
-      <c r="AG12" s="94"/>
-      <c r="AH12" s="94"/>
-      <c r="AI12" s="94"/>
-      <c r="AJ12" s="94"/>
-      <c r="AK12" s="94"/>
-      <c r="AL12" s="94"/>
-      <c r="AM12" s="94"/>
-      <c r="AN12" s="94"/>
-      <c r="AO12" s="94"/>
-      <c r="AP12" s="94"/>
-      <c r="AQ12" s="94"/>
-      <c r="AR12" s="94"/>
-      <c r="AS12" s="94"/>
-      <c r="AT12" s="94"/>
-      <c r="AU12" s="94"/>
-      <c r="AV12" s="94"/>
-      <c r="AW12" s="94"/>
-      <c r="AX12" s="94"/>
-      <c r="AY12" s="94"/>
-      <c r="AZ12" s="94"/>
-      <c r="BA12" s="94"/>
-      <c r="BB12" s="94"/>
-      <c r="BC12" s="94"/>
-      <c r="BD12" s="94"/>
-      <c r="BE12" s="94"/>
-      <c r="BF12" s="94"/>
-      <c r="BG12" s="94"/>
-      <c r="BH12" s="94"/>
-      <c r="BI12" s="94"/>
-      <c r="BJ12" s="94"/>
-      <c r="BK12" s="94"/>
-      <c r="BL12" s="94"/>
-      <c r="BM12" s="94"/>
-      <c r="BN12" s="94"/>
-      <c r="BO12" s="94"/>
-      <c r="BP12" s="94"/>
-      <c r="BQ12" s="94"/>
-      <c r="BR12" s="94"/>
-      <c r="BS12" s="94"/>
-      <c r="BT12" s="94"/>
-      <c r="BU12" s="94"/>
-      <c r="BV12" s="94"/>
-      <c r="BW12" s="94"/>
-      <c r="BX12" s="94"/>
-      <c r="BY12" s="94"/>
-      <c r="BZ12" s="94"/>
-      <c r="CA12" s="94"/>
-      <c r="CB12" s="143"/>
+      <c r="K12" s="222"/>
+      <c r="L12" s="222"/>
+      <c r="M12" s="223"/>
+      <c r="N12" s="214"/>
+      <c r="O12" s="215"/>
+      <c r="P12" s="215"/>
+      <c r="Q12" s="215"/>
+      <c r="R12" s="215"/>
+      <c r="S12" s="215"/>
+      <c r="T12" s="215"/>
+      <c r="U12" s="215"/>
+      <c r="V12" s="215"/>
+      <c r="W12" s="215"/>
+      <c r="X12" s="215"/>
+      <c r="Y12" s="215"/>
+      <c r="Z12" s="215"/>
+      <c r="AA12" s="215"/>
+      <c r="AB12" s="215"/>
+      <c r="AC12" s="215"/>
+      <c r="AD12" s="215"/>
+      <c r="AE12" s="215"/>
+      <c r="AF12" s="215"/>
+      <c r="AG12" s="215"/>
+      <c r="AH12" s="215"/>
+      <c r="AI12" s="215"/>
+      <c r="AJ12" s="215"/>
+      <c r="AK12" s="215"/>
+      <c r="AL12" s="215"/>
+      <c r="AM12" s="215"/>
+      <c r="AN12" s="215"/>
+      <c r="AO12" s="215"/>
+      <c r="AP12" s="215"/>
+      <c r="AQ12" s="215"/>
+      <c r="AR12" s="215"/>
+      <c r="AS12" s="215"/>
+      <c r="AT12" s="215"/>
+      <c r="AU12" s="215"/>
+      <c r="AV12" s="215"/>
+      <c r="AW12" s="215"/>
+      <c r="AX12" s="215"/>
+      <c r="AY12" s="215"/>
+      <c r="AZ12" s="215"/>
+      <c r="BA12" s="215"/>
+      <c r="BB12" s="215"/>
+      <c r="BC12" s="215"/>
+      <c r="BD12" s="215"/>
+      <c r="BE12" s="215"/>
+      <c r="BF12" s="215"/>
+      <c r="BG12" s="215"/>
+      <c r="BH12" s="215"/>
+      <c r="BI12" s="215"/>
+      <c r="BJ12" s="215"/>
+      <c r="BK12" s="215"/>
+      <c r="BL12" s="215"/>
+      <c r="BM12" s="215"/>
+      <c r="BN12" s="215"/>
+      <c r="BO12" s="215"/>
+      <c r="BP12" s="215"/>
+      <c r="BQ12" s="215"/>
+      <c r="BR12" s="215"/>
+      <c r="BS12" s="215"/>
+      <c r="BT12" s="215"/>
+      <c r="BU12" s="215"/>
+      <c r="BV12" s="215"/>
+      <c r="BW12" s="215"/>
+      <c r="BX12" s="215"/>
+      <c r="BY12" s="215"/>
+      <c r="BZ12" s="215"/>
+      <c r="CA12" s="215"/>
+      <c r="CB12" s="216"/>
     </row>
     <row r="13" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A13" s="99"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="219"/>
-      <c r="D13" s="219"/>
-      <c r="E13" s="302"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="304"/>
+      <c r="A13" s="292"/>
+      <c r="B13" s="292"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="15"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="140"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="97"/>
-      <c r="AL13" s="97"/>
-      <c r="AM13" s="97"/>
-      <c r="AN13" s="97"/>
-      <c r="AO13" s="97"/>
-      <c r="AP13" s="97"/>
-      <c r="AQ13" s="97"/>
-      <c r="AR13" s="97"/>
-      <c r="AS13" s="97"/>
-      <c r="AT13" s="97"/>
-      <c r="AU13" s="97"/>
-      <c r="AV13" s="97"/>
-      <c r="AW13" s="97"/>
-      <c r="AX13" s="97"/>
-      <c r="AY13" s="97"/>
-      <c r="AZ13" s="97"/>
-      <c r="BA13" s="97"/>
-      <c r="BB13" s="97"/>
-      <c r="BC13" s="97"/>
-      <c r="BD13" s="97"/>
-      <c r="BE13" s="97"/>
-      <c r="BF13" s="97"/>
-      <c r="BG13" s="97"/>
-      <c r="BH13" s="97"/>
-      <c r="BI13" s="97"/>
-      <c r="BJ13" s="97"/>
-      <c r="BK13" s="97"/>
-      <c r="BL13" s="97"/>
-      <c r="BM13" s="97"/>
-      <c r="BN13" s="97"/>
-      <c r="BO13" s="97"/>
-      <c r="BP13" s="97"/>
-      <c r="BQ13" s="97"/>
-      <c r="BR13" s="97"/>
-      <c r="BS13" s="97"/>
-      <c r="BT13" s="97"/>
-      <c r="BU13" s="97"/>
-      <c r="BV13" s="97"/>
-      <c r="BW13" s="97"/>
-      <c r="BX13" s="97"/>
-      <c r="BY13" s="97"/>
-      <c r="BZ13" s="97"/>
-      <c r="CA13" s="97"/>
-      <c r="CB13" s="141"/>
+      <c r="J13" s="221"/>
+      <c r="K13" s="221"/>
+      <c r="L13" s="221"/>
+      <c r="M13" s="224"/>
+      <c r="N13" s="211"/>
+      <c r="O13" s="212"/>
+      <c r="P13" s="212"/>
+      <c r="Q13" s="212"/>
+      <c r="R13" s="212"/>
+      <c r="S13" s="212"/>
+      <c r="T13" s="212"/>
+      <c r="U13" s="212"/>
+      <c r="V13" s="212"/>
+      <c r="W13" s="212"/>
+      <c r="X13" s="212"/>
+      <c r="Y13" s="212"/>
+      <c r="Z13" s="212"/>
+      <c r="AA13" s="212"/>
+      <c r="AB13" s="212"/>
+      <c r="AC13" s="212"/>
+      <c r="AD13" s="212"/>
+      <c r="AE13" s="212"/>
+      <c r="AF13" s="212"/>
+      <c r="AG13" s="212"/>
+      <c r="AH13" s="212"/>
+      <c r="AI13" s="212"/>
+      <c r="AJ13" s="212"/>
+      <c r="AK13" s="212"/>
+      <c r="AL13" s="212"/>
+      <c r="AM13" s="212"/>
+      <c r="AN13" s="212"/>
+      <c r="AO13" s="212"/>
+      <c r="AP13" s="212"/>
+      <c r="AQ13" s="212"/>
+      <c r="AR13" s="212"/>
+      <c r="AS13" s="212"/>
+      <c r="AT13" s="212"/>
+      <c r="AU13" s="212"/>
+      <c r="AV13" s="212"/>
+      <c r="AW13" s="212"/>
+      <c r="AX13" s="212"/>
+      <c r="AY13" s="212"/>
+      <c r="AZ13" s="212"/>
+      <c r="BA13" s="212"/>
+      <c r="BB13" s="212"/>
+      <c r="BC13" s="212"/>
+      <c r="BD13" s="212"/>
+      <c r="BE13" s="212"/>
+      <c r="BF13" s="212"/>
+      <c r="BG13" s="212"/>
+      <c r="BH13" s="212"/>
+      <c r="BI13" s="212"/>
+      <c r="BJ13" s="212"/>
+      <c r="BK13" s="212"/>
+      <c r="BL13" s="212"/>
+      <c r="BM13" s="212"/>
+      <c r="BN13" s="212"/>
+      <c r="BO13" s="212"/>
+      <c r="BP13" s="212"/>
+      <c r="BQ13" s="212"/>
+      <c r="BR13" s="212"/>
+      <c r="BS13" s="212"/>
+      <c r="BT13" s="212"/>
+      <c r="BU13" s="212"/>
+      <c r="BV13" s="212"/>
+      <c r="BW13" s="212"/>
+      <c r="BX13" s="212"/>
+      <c r="BY13" s="212"/>
+      <c r="BZ13" s="212"/>
+      <c r="CA13" s="212"/>
+      <c r="CB13" s="213"/>
     </row>
     <row r="14" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A14" s="99"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="219"/>
-      <c r="E14" s="295" t="s">
+      <c r="A14" s="292"/>
+      <c r="B14" s="292"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="295"/>
-      <c r="G14" s="295"/>
-      <c r="H14" s="295"/>
-      <c r="I14" s="295"/>
-      <c r="J14" s="296"/>
-      <c r="K14" s="169" t="s">
-        <v>51</v>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="225" t="s">
+        <v>49</v>
       </c>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="171"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="160"/>
-      <c r="Q14" s="172"/>
-      <c r="R14" s="157"/>
-      <c r="S14" s="157"/>
-      <c r="T14" s="158"/>
-      <c r="U14" s="172"/>
-      <c r="V14" s="157"/>
-      <c r="W14" s="157"/>
-      <c r="X14" s="158"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="161"/>
-      <c r="AA14" s="249"/>
-      <c r="AB14" s="250"/>
-      <c r="AC14" s="251"/>
-      <c r="AD14" s="289" t="s">
-        <v>16</v>
+      <c r="L14" s="226"/>
+      <c r="M14" s="226"/>
+      <c r="N14" s="227"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="108"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="155"/>
+      <c r="Z14" s="156"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="120"/>
+      <c r="AC14" s="121"/>
+      <c r="AD14" s="76" t="s">
+        <v>14</v>
       </c>
-      <c r="AE14" s="290"/>
-      <c r="AF14" s="290"/>
-      <c r="AG14" s="290"/>
-      <c r="AH14" s="243" t="s">
-        <v>56</v>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="303" t="s">
+        <v>57</v>
       </c>
-      <c r="AI14" s="244"/>
-      <c r="AJ14" s="244"/>
-      <c r="AK14" s="244"/>
-      <c r="AL14" s="244"/>
-      <c r="AM14" s="244"/>
-      <c r="AN14" s="244"/>
-      <c r="AO14" s="244"/>
-      <c r="AP14" s="244"/>
-      <c r="AQ14" s="244"/>
-      <c r="AR14" s="244"/>
-      <c r="AS14" s="244"/>
-      <c r="AT14" s="244"/>
-      <c r="AU14" s="244"/>
-      <c r="AV14" s="244"/>
-      <c r="AW14" s="244"/>
-      <c r="AX14" s="244"/>
-      <c r="AY14" s="244"/>
-      <c r="AZ14" s="244"/>
-      <c r="BA14" s="244"/>
-      <c r="BB14" s="244"/>
-      <c r="BC14" s="244"/>
-      <c r="BD14" s="244"/>
-      <c r="BE14" s="244"/>
-      <c r="BF14" s="244"/>
-      <c r="BG14" s="244"/>
-      <c r="BH14" s="244"/>
-      <c r="BI14" s="244"/>
-      <c r="BJ14" s="244"/>
-      <c r="BK14" s="244"/>
-      <c r="BL14" s="244"/>
-      <c r="BM14" s="245"/>
+      <c r="AI14" s="304"/>
+      <c r="AJ14" s="304"/>
+      <c r="AK14" s="304"/>
+      <c r="AL14" s="304"/>
+      <c r="AM14" s="304"/>
+      <c r="AN14" s="304"/>
+      <c r="AO14" s="304"/>
+      <c r="AP14" s="304"/>
+      <c r="AQ14" s="304"/>
+      <c r="AR14" s="304"/>
+      <c r="AS14" s="304"/>
+      <c r="AT14" s="304"/>
+      <c r="AU14" s="304"/>
+      <c r="AV14" s="304"/>
+      <c r="AW14" s="304"/>
+      <c r="AX14" s="304"/>
+      <c r="AY14" s="304"/>
+      <c r="AZ14" s="304"/>
+      <c r="BA14" s="304"/>
+      <c r="BB14" s="304"/>
+      <c r="BC14" s="304"/>
+      <c r="BD14" s="304"/>
+      <c r="BE14" s="304"/>
+      <c r="BF14" s="304"/>
+      <c r="BG14" s="304"/>
+      <c r="BH14" s="304"/>
+      <c r="BI14" s="304"/>
+      <c r="BJ14" s="304"/>
+      <c r="BK14" s="304"/>
+      <c r="BL14" s="304"/>
+      <c r="BM14" s="305"/>
       <c r="BN14" s="33"/>
       <c r="BO14" s="33"/>
       <c r="BP14" s="33"/>
@@ -6246,71 +6365,71 @@
       <c r="CB14" s="33"/>
     </row>
     <row r="15" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A15" s="99"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="219"/>
-      <c r="D15" s="219"/>
-      <c r="E15" s="295"/>
-      <c r="F15" s="295"/>
-      <c r="G15" s="295"/>
-      <c r="H15" s="295"/>
-      <c r="I15" s="295"/>
-      <c r="J15" s="296"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="147"/>
-      <c r="Q15" s="166"/>
-      <c r="R15" s="159"/>
-      <c r="S15" s="159"/>
-      <c r="T15" s="146"/>
-      <c r="U15" s="166"/>
-      <c r="V15" s="159"/>
-      <c r="W15" s="159"/>
-      <c r="X15" s="146"/>
-      <c r="Y15" s="147"/>
-      <c r="Z15" s="162"/>
-      <c r="AA15" s="252"/>
-      <c r="AB15" s="253"/>
-      <c r="AC15" s="254"/>
-      <c r="AD15" s="291"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="59"/>
-      <c r="AH15" s="246"/>
-      <c r="AI15" s="247"/>
-      <c r="AJ15" s="247"/>
-      <c r="AK15" s="247"/>
-      <c r="AL15" s="247"/>
-      <c r="AM15" s="247"/>
-      <c r="AN15" s="247"/>
-      <c r="AO15" s="247"/>
-      <c r="AP15" s="247"/>
-      <c r="AQ15" s="247"/>
-      <c r="AR15" s="247"/>
-      <c r="AS15" s="247"/>
-      <c r="AT15" s="247"/>
-      <c r="AU15" s="247"/>
-      <c r="AV15" s="247"/>
-      <c r="AW15" s="247"/>
-      <c r="AX15" s="247"/>
-      <c r="AY15" s="247"/>
-      <c r="AZ15" s="247"/>
-      <c r="BA15" s="247"/>
-      <c r="BB15" s="247"/>
-      <c r="BC15" s="247"/>
-      <c r="BD15" s="247"/>
-      <c r="BE15" s="247"/>
-      <c r="BF15" s="247"/>
-      <c r="BG15" s="247"/>
-      <c r="BH15" s="247"/>
-      <c r="BI15" s="247"/>
-      <c r="BJ15" s="247"/>
-      <c r="BK15" s="247"/>
-      <c r="BL15" s="247"/>
-      <c r="BM15" s="248"/>
+      <c r="A15" s="292"/>
+      <c r="B15" s="292"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="225"/>
+      <c r="L15" s="226"/>
+      <c r="M15" s="226"/>
+      <c r="N15" s="227"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="110"/>
+      <c r="W15" s="110"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="122"/>
+      <c r="AB15" s="123"/>
+      <c r="AC15" s="124"/>
+      <c r="AD15" s="78"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="79"/>
+      <c r="AH15" s="116"/>
+      <c r="AI15" s="117"/>
+      <c r="AJ15" s="117"/>
+      <c r="AK15" s="117"/>
+      <c r="AL15" s="117"/>
+      <c r="AM15" s="117"/>
+      <c r="AN15" s="117"/>
+      <c r="AO15" s="117"/>
+      <c r="AP15" s="117"/>
+      <c r="AQ15" s="117"/>
+      <c r="AR15" s="117"/>
+      <c r="AS15" s="117"/>
+      <c r="AT15" s="117"/>
+      <c r="AU15" s="117"/>
+      <c r="AV15" s="117"/>
+      <c r="AW15" s="117"/>
+      <c r="AX15" s="117"/>
+      <c r="AY15" s="117"/>
+      <c r="AZ15" s="117"/>
+      <c r="BA15" s="117"/>
+      <c r="BB15" s="117"/>
+      <c r="BC15" s="117"/>
+      <c r="BD15" s="117"/>
+      <c r="BE15" s="117"/>
+      <c r="BF15" s="117"/>
+      <c r="BG15" s="117"/>
+      <c r="BH15" s="117"/>
+      <c r="BI15" s="117"/>
+      <c r="BJ15" s="117"/>
+      <c r="BK15" s="117"/>
+      <c r="BL15" s="117"/>
+      <c r="BM15" s="118"/>
       <c r="BN15" s="5"/>
       <c r="BO15" s="9"/>
       <c r="BP15" s="9"/>
@@ -6329,10 +6448,10 @@
       <c r="CC15" s="2"/>
     </row>
     <row r="16" spans="1:81" ht="12.75" customHeight="1">
-      <c r="A16" s="99"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="219"/>
-      <c r="D16" s="219"/>
+      <c r="A16" s="292"/>
+      <c r="B16" s="292"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6363,7 +6482,7 @@
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
@@ -6413,882 +6532,882 @@
       <c r="CB16" s="9"/>
     </row>
     <row r="17" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A17" s="99"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="219"/>
+      <c r="A17" s="292"/>
+      <c r="B17" s="292"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="165"/>
       <c r="F17" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A18" s="99"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="219"/>
-      <c r="D18" s="219"/>
+      <c r="A18" s="292"/>
+      <c r="B18" s="292"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
       <c r="F18" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
-      <c r="AN18" s="259" t="s">
-        <v>14</v>
+      <c r="AN18" s="135" t="s">
+        <v>12</v>
       </c>
-      <c r="AO18" s="259"/>
-      <c r="AP18" s="259"/>
-      <c r="AQ18" s="259"/>
-      <c r="AR18" s="259"/>
-      <c r="AS18" s="259"/>
-      <c r="AT18" s="259"/>
-      <c r="AU18" s="259"/>
-      <c r="AV18" s="259"/>
-      <c r="AW18" s="259"/>
-      <c r="AX18" s="259"/>
-      <c r="AY18" s="259"/>
-      <c r="AZ18" s="259"/>
-      <c r="BA18" s="259"/>
-      <c r="BB18" s="259"/>
-      <c r="BC18" s="259"/>
-      <c r="BD18" s="259"/>
-      <c r="BE18" s="259"/>
-      <c r="BF18" s="259"/>
-      <c r="BG18" s="259"/>
-      <c r="BH18" s="259"/>
-      <c r="BI18" s="259"/>
-      <c r="BJ18" s="259"/>
-      <c r="BK18" s="259"/>
-      <c r="BL18" s="259"/>
-      <c r="BM18" s="259"/>
-      <c r="BN18" s="259"/>
-      <c r="BO18" s="259"/>
-      <c r="BP18" s="259"/>
-      <c r="BQ18" s="259"/>
-      <c r="BR18" s="259"/>
-      <c r="BS18" s="259"/>
-      <c r="BT18" s="259"/>
-      <c r="BU18" s="259"/>
-      <c r="BV18" s="259"/>
-      <c r="BW18" s="259"/>
+      <c r="AO18" s="135"/>
+      <c r="AP18" s="135"/>
+      <c r="AQ18" s="135"/>
+      <c r="AR18" s="135"/>
+      <c r="AS18" s="135"/>
+      <c r="AT18" s="135"/>
+      <c r="AU18" s="135"/>
+      <c r="AV18" s="135"/>
+      <c r="AW18" s="135"/>
+      <c r="AX18" s="135"/>
+      <c r="AY18" s="135"/>
+      <c r="AZ18" s="135"/>
+      <c r="BA18" s="135"/>
+      <c r="BB18" s="135"/>
+      <c r="BC18" s="135"/>
+      <c r="BD18" s="135"/>
+      <c r="BE18" s="135"/>
+      <c r="BF18" s="135"/>
+      <c r="BG18" s="135"/>
+      <c r="BH18" s="135"/>
+      <c r="BI18" s="135"/>
+      <c r="BJ18" s="135"/>
+      <c r="BK18" s="135"/>
+      <c r="BL18" s="135"/>
+      <c r="BM18" s="135"/>
+      <c r="BN18" s="135"/>
+      <c r="BO18" s="135"/>
+      <c r="BP18" s="135"/>
+      <c r="BQ18" s="135"/>
+      <c r="BR18" s="135"/>
+      <c r="BS18" s="135"/>
+      <c r="BT18" s="135"/>
+      <c r="BU18" s="135"/>
+      <c r="BV18" s="135"/>
+      <c r="BW18" s="135"/>
     </row>
     <row r="19" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A19" s="99"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="219"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="120" t="s">
-        <v>54</v>
+      <c r="A19" s="292"/>
+      <c r="B19" s="292"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="249" t="s">
+        <v>52</v>
       </c>
-      <c r="F19" s="121"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="121"/>
-      <c r="Q19" s="121"/>
-      <c r="R19" s="121"/>
-      <c r="S19" s="121"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="121"/>
-      <c r="W19" s="121"/>
-      <c r="X19" s="121"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="121"/>
-      <c r="AA19" s="121"/>
-      <c r="AB19" s="121"/>
-      <c r="AC19" s="121"/>
-      <c r="AD19" s="121"/>
-      <c r="AE19" s="121"/>
-      <c r="AF19" s="121"/>
-      <c r="AG19" s="121"/>
-      <c r="AH19" s="121"/>
-      <c r="AI19" s="121"/>
-      <c r="AJ19" s="121"/>
-      <c r="AN19" s="259"/>
-      <c r="AO19" s="259"/>
-      <c r="AP19" s="259"/>
-      <c r="AQ19" s="259"/>
-      <c r="AR19" s="259"/>
-      <c r="AS19" s="259"/>
-      <c r="AT19" s="259"/>
-      <c r="AU19" s="259"/>
-      <c r="AV19" s="259"/>
-      <c r="AW19" s="259"/>
-      <c r="AX19" s="259"/>
-      <c r="AY19" s="259"/>
-      <c r="AZ19" s="259"/>
-      <c r="BA19" s="259"/>
-      <c r="BB19" s="259"/>
-      <c r="BC19" s="259"/>
-      <c r="BD19" s="259"/>
-      <c r="BE19" s="259"/>
-      <c r="BF19" s="259"/>
-      <c r="BG19" s="259"/>
-      <c r="BH19" s="259"/>
-      <c r="BI19" s="259"/>
-      <c r="BJ19" s="259"/>
-      <c r="BK19" s="259"/>
-      <c r="BL19" s="259"/>
-      <c r="BM19" s="259"/>
-      <c r="BN19" s="259"/>
-      <c r="BO19" s="259"/>
-      <c r="BP19" s="259"/>
-      <c r="BQ19" s="259"/>
-      <c r="BR19" s="259"/>
-      <c r="BS19" s="259"/>
-      <c r="BT19" s="259"/>
-      <c r="BU19" s="259"/>
-      <c r="BV19" s="259"/>
-      <c r="BW19" s="259"/>
+      <c r="F19" s="250"/>
+      <c r="G19" s="250"/>
+      <c r="H19" s="250"/>
+      <c r="I19" s="250"/>
+      <c r="J19" s="250"/>
+      <c r="K19" s="250"/>
+      <c r="L19" s="250"/>
+      <c r="M19" s="250"/>
+      <c r="N19" s="250"/>
+      <c r="O19" s="250"/>
+      <c r="P19" s="250"/>
+      <c r="Q19" s="250"/>
+      <c r="R19" s="250"/>
+      <c r="S19" s="250"/>
+      <c r="T19" s="250"/>
+      <c r="U19" s="250"/>
+      <c r="V19" s="250"/>
+      <c r="W19" s="250"/>
+      <c r="X19" s="250"/>
+      <c r="Y19" s="250"/>
+      <c r="Z19" s="250"/>
+      <c r="AA19" s="250"/>
+      <c r="AB19" s="250"/>
+      <c r="AC19" s="250"/>
+      <c r="AD19" s="250"/>
+      <c r="AE19" s="250"/>
+      <c r="AF19" s="250"/>
+      <c r="AG19" s="250"/>
+      <c r="AH19" s="250"/>
+      <c r="AI19" s="250"/>
+      <c r="AJ19" s="250"/>
+      <c r="AN19" s="135"/>
+      <c r="AO19" s="135"/>
+      <c r="AP19" s="135"/>
+      <c r="AQ19" s="135"/>
+      <c r="AR19" s="135"/>
+      <c r="AS19" s="135"/>
+      <c r="AT19" s="135"/>
+      <c r="AU19" s="135"/>
+      <c r="AV19" s="135"/>
+      <c r="AW19" s="135"/>
+      <c r="AX19" s="135"/>
+      <c r="AY19" s="135"/>
+      <c r="AZ19" s="135"/>
+      <c r="BA19" s="135"/>
+      <c r="BB19" s="135"/>
+      <c r="BC19" s="135"/>
+      <c r="BD19" s="135"/>
+      <c r="BE19" s="135"/>
+      <c r="BF19" s="135"/>
+      <c r="BG19" s="135"/>
+      <c r="BH19" s="135"/>
+      <c r="BI19" s="135"/>
+      <c r="BJ19" s="135"/>
+      <c r="BK19" s="135"/>
+      <c r="BL19" s="135"/>
+      <c r="BM19" s="135"/>
+      <c r="BN19" s="135"/>
+      <c r="BO19" s="135"/>
+      <c r="BP19" s="135"/>
+      <c r="BQ19" s="135"/>
+      <c r="BR19" s="135"/>
+      <c r="BS19" s="135"/>
+      <c r="BT19" s="135"/>
+      <c r="BU19" s="135"/>
+      <c r="BV19" s="135"/>
+      <c r="BW19" s="135"/>
     </row>
     <row r="20" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="219"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="111" t="s">
-        <v>45</v>
+      <c r="A20" s="292"/>
+      <c r="B20" s="292"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="99" t="s">
+        <v>43</v>
       </c>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="112"/>
-      <c r="S20" s="112"/>
-      <c r="T20" s="112"/>
-      <c r="U20" s="112"/>
-      <c r="V20" s="112"/>
-      <c r="W20" s="112"/>
-      <c r="X20" s="112"/>
-      <c r="Y20" s="112"/>
-      <c r="Z20" s="112"/>
-      <c r="AA20" s="112"/>
-      <c r="AB20" s="113"/>
-      <c r="AC20" s="111" t="s">
-        <v>44</v>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="100"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="100"/>
+      <c r="Z20" s="100"/>
+      <c r="AA20" s="100"/>
+      <c r="AB20" s="101"/>
+      <c r="AC20" s="99" t="s">
+        <v>42</v>
       </c>
-      <c r="AD20" s="112"/>
-      <c r="AE20" s="112"/>
-      <c r="AF20" s="112"/>
-      <c r="AG20" s="112"/>
-      <c r="AH20" s="112"/>
-      <c r="AI20" s="112"/>
-      <c r="AJ20" s="112"/>
-      <c r="AK20" s="112"/>
-      <c r="AL20" s="112"/>
-      <c r="AM20" s="112"/>
-      <c r="AN20" s="112"/>
-      <c r="AO20" s="112"/>
-      <c r="AP20" s="112"/>
-      <c r="AQ20" s="112"/>
-      <c r="AR20" s="113"/>
-      <c r="AS20" s="297" t="s">
-        <v>36</v>
+      <c r="AD20" s="100"/>
+      <c r="AE20" s="100"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="100"/>
+      <c r="AH20" s="100"/>
+      <c r="AI20" s="100"/>
+      <c r="AJ20" s="100"/>
+      <c r="AK20" s="100"/>
+      <c r="AL20" s="100"/>
+      <c r="AM20" s="100"/>
+      <c r="AN20" s="100"/>
+      <c r="AO20" s="100"/>
+      <c r="AP20" s="100"/>
+      <c r="AQ20" s="100"/>
+      <c r="AR20" s="101"/>
+      <c r="AS20" s="87" t="s">
+        <v>34</v>
       </c>
-      <c r="AT20" s="298"/>
+      <c r="AT20" s="88"/>
       <c r="AU20" s="16"/>
       <c r="AV20" s="16"/>
       <c r="AW20" s="16"/>
       <c r="AX20" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AY20" s="19"/>
       <c r="AZ20" s="19"/>
-      <c r="BA20" s="255"/>
-      <c r="BB20" s="255"/>
-      <c r="BC20" s="255"/>
-      <c r="BD20" s="255"/>
-      <c r="BE20" s="255"/>
-      <c r="BF20" s="255"/>
-      <c r="BG20" s="238"/>
-      <c r="BH20" s="239"/>
-      <c r="BI20" s="239"/>
-      <c r="BJ20" s="239"/>
-      <c r="BK20" s="239"/>
-      <c r="BL20" s="239"/>
-      <c r="BM20" s="239"/>
-      <c r="BN20" s="239"/>
-      <c r="BO20" s="240"/>
+      <c r="BA20" s="125"/>
+      <c r="BB20" s="125"/>
+      <c r="BC20" s="125"/>
+      <c r="BD20" s="125"/>
+      <c r="BE20" s="125"/>
+      <c r="BF20" s="125"/>
+      <c r="BG20" s="102"/>
+      <c r="BH20" s="103"/>
+      <c r="BI20" s="103"/>
+      <c r="BJ20" s="103"/>
+      <c r="BK20" s="103"/>
+      <c r="BL20" s="103"/>
+      <c r="BM20" s="103"/>
+      <c r="BN20" s="103"/>
+      <c r="BO20" s="104"/>
     </row>
     <row r="21" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="191"/>
-      <c r="O21" s="155"/>
-      <c r="P21" s="155"/>
-      <c r="Q21" s="155"/>
-      <c r="R21" s="155"/>
-      <c r="S21" s="155"/>
-      <c r="T21" s="164"/>
-      <c r="U21" s="163"/>
-      <c r="V21" s="155"/>
-      <c r="W21" s="155"/>
-      <c r="X21" s="155"/>
-      <c r="Y21" s="282"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="282"/>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="194" t="s">
+      <c r="A21" s="292"/>
+      <c r="B21" s="292"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="234"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="169"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="126" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD21" s="127"/>
+      <c r="AE21" s="127"/>
+      <c r="AF21" s="128"/>
+      <c r="AG21" s="217"/>
+      <c r="AH21" s="105"/>
+      <c r="AI21" s="105"/>
+      <c r="AJ21" s="106"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="105"/>
+      <c r="AN21" s="106"/>
+      <c r="AO21" s="51"/>
+      <c r="AP21" s="52"/>
+      <c r="AQ21" s="52"/>
+      <c r="AR21" s="134"/>
+      <c r="AS21" s="170" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT21" s="171"/>
+      <c r="AU21" s="171"/>
+      <c r="AV21" s="171"/>
+      <c r="AW21" s="172"/>
+      <c r="AX21" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY21" s="22"/>
+      <c r="AZ21" s="113"/>
+      <c r="BA21" s="113"/>
+      <c r="BB21" s="113"/>
+      <c r="BC21" s="113"/>
+      <c r="BD21" s="113"/>
+      <c r="BE21" s="113"/>
+      <c r="BF21" s="113"/>
+      <c r="BG21" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH21" s="22"/>
+      <c r="BI21" s="113"/>
+      <c r="BJ21" s="113"/>
+      <c r="BK21" s="113"/>
+      <c r="BL21" s="113"/>
+      <c r="BM21" s="113"/>
+      <c r="BN21" s="113"/>
+      <c r="BO21" s="114"/>
+    </row>
+    <row r="22" spans="1:83" ht="15.75" customHeight="1">
+      <c r="A22" s="292"/>
+      <c r="B22" s="292"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="234"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="169"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="129"/>
+      <c r="AD22" s="130"/>
+      <c r="AE22" s="130"/>
+      <c r="AF22" s="131"/>
+      <c r="AG22" s="111"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="54"/>
+      <c r="AJ22" s="107"/>
+      <c r="AK22" s="53"/>
+      <c r="AL22" s="54"/>
+      <c r="AM22" s="54"/>
+      <c r="AN22" s="107"/>
+      <c r="AO22" s="53"/>
+      <c r="AP22" s="54"/>
+      <c r="AQ22" s="54"/>
+      <c r="AR22" s="73"/>
+      <c r="AS22" s="173"/>
+      <c r="AT22" s="174"/>
+      <c r="AU22" s="174"/>
+      <c r="AV22" s="174"/>
+      <c r="AW22" s="175"/>
+      <c r="AX22" s="13"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="64"/>
+      <c r="BA22" s="64"/>
+      <c r="BB22" s="64"/>
+      <c r="BC22" s="64"/>
+      <c r="BD22" s="64"/>
+      <c r="BE22" s="64"/>
+      <c r="BF22" s="64"/>
+      <c r="BG22" s="13"/>
+      <c r="BH22" s="4"/>
+      <c r="BI22" s="64"/>
+      <c r="BJ22" s="64"/>
+      <c r="BK22" s="64"/>
+      <c r="BL22" s="64"/>
+      <c r="BM22" s="64"/>
+      <c r="BN22" s="64"/>
+      <c r="BO22" s="115"/>
+    </row>
+    <row r="23" spans="1:83" ht="15.75" customHeight="1">
+      <c r="A23" s="292"/>
+      <c r="B23" s="292"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="283" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="284"/>
+      <c r="G23" s="285"/>
+      <c r="H23" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="49"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="49"/>
+      <c r="AK23" s="49"/>
+      <c r="AL23" s="49"/>
+      <c r="AM23" s="49"/>
+      <c r="AN23" s="49"/>
+      <c r="AO23" s="49"/>
+      <c r="AP23" s="49"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="49"/>
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="49"/>
+      <c r="AU23" s="49"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
+      <c r="BB23" s="49"/>
+      <c r="BC23" s="49"/>
+      <c r="BD23" s="49"/>
+      <c r="BE23" s="49"/>
+      <c r="BF23" s="49"/>
+      <c r="BG23" s="49"/>
+      <c r="BH23" s="49"/>
+      <c r="BI23" s="49"/>
+      <c r="BJ23" s="49"/>
+      <c r="BK23" s="49"/>
+      <c r="BL23" s="49"/>
+      <c r="BM23" s="50"/>
+      <c r="BN23" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO23" s="100"/>
+      <c r="BP23" s="100"/>
+      <c r="BQ23" s="100"/>
+      <c r="BR23" s="100"/>
+      <c r="BS23" s="100"/>
+      <c r="BT23" s="100"/>
+      <c r="BU23" s="100"/>
+      <c r="BV23" s="100"/>
+      <c r="BW23" s="100"/>
+      <c r="BX23" s="100"/>
+      <c r="BY23" s="100"/>
+      <c r="BZ23" s="100"/>
+      <c r="CA23" s="100"/>
+      <c r="CB23" s="101"/>
+    </row>
+    <row r="24" spans="1:83" ht="15.75" customHeight="1">
+      <c r="A24" s="292"/>
+      <c r="B24" s="292"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="286"/>
+      <c r="H24" s="235"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="151"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="151"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="257" t="s">
+        <v>18</v>
+      </c>
+      <c r="W24" s="258"/>
+      <c r="X24" s="258"/>
+      <c r="Y24" s="258"/>
+      <c r="Z24" s="258"/>
+      <c r="AA24" s="258"/>
+      <c r="AB24" s="258"/>
+      <c r="AC24" s="258"/>
+      <c r="AD24" s="258"/>
+      <c r="AE24" s="259"/>
+      <c r="AF24" s="274" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG24" s="275"/>
+      <c r="AH24" s="275"/>
+      <c r="AI24" s="275"/>
+      <c r="AJ24" s="241"/>
+      <c r="AK24" s="241"/>
+      <c r="AL24" s="241"/>
+      <c r="AM24" s="241"/>
+      <c r="AN24" s="241"/>
+      <c r="AO24" s="241"/>
+      <c r="AP24" s="241"/>
+      <c r="AQ24" s="241"/>
+      <c r="AR24" s="241"/>
+      <c r="AS24" s="241"/>
+      <c r="AT24" s="241"/>
+      <c r="AU24" s="241"/>
+      <c r="AV24" s="241"/>
+      <c r="AW24" s="241"/>
+      <c r="AX24" s="241"/>
+      <c r="AY24" s="241"/>
+      <c r="AZ24" s="241"/>
+      <c r="BA24" s="241"/>
+      <c r="BB24" s="241"/>
+      <c r="BC24" s="241"/>
+      <c r="BD24" s="241"/>
+      <c r="BE24" s="241"/>
+      <c r="BF24" s="241"/>
+      <c r="BG24" s="241"/>
+      <c r="BH24" s="241"/>
+      <c r="BI24" s="241"/>
+      <c r="BJ24" s="241"/>
+      <c r="BK24" s="241"/>
+      <c r="BL24" s="241"/>
+      <c r="BM24" s="242"/>
+      <c r="BN24" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="AD21" s="195"/>
-      <c r="AE21" s="195"/>
-      <c r="AF21" s="196"/>
-      <c r="AG21" s="144"/>
-      <c r="AH21" s="145"/>
-      <c r="AI21" s="145"/>
-      <c r="AJ21" s="165"/>
-      <c r="AK21" s="70"/>
-      <c r="AL21" s="221"/>
-      <c r="AM21" s="145"/>
-      <c r="AN21" s="165"/>
-      <c r="AO21" s="70"/>
-      <c r="AP21" s="221"/>
-      <c r="AQ21" s="221"/>
-      <c r="AR21" s="258"/>
-      <c r="AS21" s="224" t="s">
-        <v>43</v>
+      <c r="BO24" s="244"/>
+      <c r="BP24" s="245"/>
+      <c r="BQ24" s="236"/>
+      <c r="BR24" s="252"/>
+      <c r="BS24" s="238"/>
+      <c r="BT24" s="240"/>
+      <c r="BU24" s="236"/>
+      <c r="BV24" s="252"/>
+      <c r="BW24" s="238"/>
+      <c r="BX24" s="240"/>
+      <c r="BY24" s="236"/>
+      <c r="BZ24" s="252"/>
+      <c r="CA24" s="238"/>
+      <c r="CB24" s="240"/>
+    </row>
+    <row r="25" spans="1:83" ht="15.75" customHeight="1">
+      <c r="A25" s="292"/>
+      <c r="B25" s="292"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="286"/>
+      <c r="H25" s="236"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="238"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="238"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="238"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="238"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="238"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="238"/>
+      <c r="U25" s="240"/>
+      <c r="V25" s="253"/>
+      <c r="W25" s="254"/>
+      <c r="X25" s="260"/>
+      <c r="Y25" s="254"/>
+      <c r="Z25" s="260"/>
+      <c r="AA25" s="254"/>
+      <c r="AB25" s="260"/>
+      <c r="AC25" s="254"/>
+      <c r="AD25" s="260"/>
+      <c r="AE25" s="276"/>
+      <c r="AF25" s="262"/>
+      <c r="AG25" s="209"/>
+      <c r="AH25" s="209"/>
+      <c r="AI25" s="209"/>
+      <c r="AJ25" s="209"/>
+      <c r="AK25" s="209"/>
+      <c r="AL25" s="209"/>
+      <c r="AM25" s="209"/>
+      <c r="AN25" s="209"/>
+      <c r="AO25" s="209"/>
+      <c r="AP25" s="209"/>
+      <c r="AQ25" s="209"/>
+      <c r="AR25" s="209"/>
+      <c r="AS25" s="209"/>
+      <c r="AT25" s="209"/>
+      <c r="AU25" s="209"/>
+      <c r="AV25" s="209"/>
+      <c r="AW25" s="209"/>
+      <c r="AX25" s="209"/>
+      <c r="AY25" s="209"/>
+      <c r="AZ25" s="209"/>
+      <c r="BA25" s="209"/>
+      <c r="BB25" s="209"/>
+      <c r="BC25" s="209"/>
+      <c r="BD25" s="209"/>
+      <c r="BE25" s="209"/>
+      <c r="BF25" s="209"/>
+      <c r="BG25" s="209"/>
+      <c r="BH25" s="209"/>
+      <c r="BI25" s="209"/>
+      <c r="BJ25" s="209"/>
+      <c r="BK25" s="209"/>
+      <c r="BL25" s="209"/>
+      <c r="BM25" s="210"/>
+      <c r="BN25" s="246"/>
+      <c r="BO25" s="244"/>
+      <c r="BP25" s="245"/>
+      <c r="BQ25" s="236"/>
+      <c r="BR25" s="252"/>
+      <c r="BS25" s="238"/>
+      <c r="BT25" s="240"/>
+      <c r="BU25" s="236"/>
+      <c r="BV25" s="252"/>
+      <c r="BW25" s="238"/>
+      <c r="BX25" s="240"/>
+      <c r="BY25" s="236"/>
+      <c r="BZ25" s="252"/>
+      <c r="CA25" s="238"/>
+      <c r="CB25" s="240"/>
+    </row>
+    <row r="26" spans="1:83" ht="15.75" customHeight="1">
+      <c r="A26" s="292"/>
+      <c r="B26" s="292"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="165"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="287"/>
+      <c r="H26" s="237"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="239"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="239"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="239"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="239"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="239"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="239"/>
+      <c r="U26" s="81"/>
+      <c r="V26" s="255"/>
+      <c r="W26" s="256"/>
+      <c r="X26" s="261"/>
+      <c r="Y26" s="256"/>
+      <c r="Z26" s="261"/>
+      <c r="AA26" s="256"/>
+      <c r="AB26" s="261"/>
+      <c r="AC26" s="256"/>
+      <c r="AD26" s="261"/>
+      <c r="AE26" s="277"/>
+      <c r="AF26" s="263"/>
+      <c r="AG26" s="264"/>
+      <c r="AH26" s="264"/>
+      <c r="AI26" s="264"/>
+      <c r="AJ26" s="264"/>
+      <c r="AK26" s="264"/>
+      <c r="AL26" s="264"/>
+      <c r="AM26" s="264"/>
+      <c r="AN26" s="264"/>
+      <c r="AO26" s="264"/>
+      <c r="AP26" s="264"/>
+      <c r="AQ26" s="264"/>
+      <c r="AR26" s="264"/>
+      <c r="AS26" s="264"/>
+      <c r="AT26" s="264"/>
+      <c r="AU26" s="264"/>
+      <c r="AV26" s="264"/>
+      <c r="AW26" s="264"/>
+      <c r="AX26" s="264"/>
+      <c r="AY26" s="264"/>
+      <c r="AZ26" s="264"/>
+      <c r="BA26" s="264"/>
+      <c r="BB26" s="264"/>
+      <c r="BC26" s="264"/>
+      <c r="BD26" s="264"/>
+      <c r="BE26" s="264"/>
+      <c r="BF26" s="264"/>
+      <c r="BG26" s="264"/>
+      <c r="BH26" s="264"/>
+      <c r="BI26" s="264"/>
+      <c r="BJ26" s="264"/>
+      <c r="BK26" s="264"/>
+      <c r="BL26" s="264"/>
+      <c r="BM26" s="265"/>
+      <c r="BN26" s="246"/>
+      <c r="BO26" s="244"/>
+      <c r="BP26" s="245"/>
+      <c r="BQ26" s="236"/>
+      <c r="BR26" s="252"/>
+      <c r="BS26" s="238"/>
+      <c r="BT26" s="251"/>
+      <c r="BU26" s="236"/>
+      <c r="BV26" s="252"/>
+      <c r="BW26" s="238"/>
+      <c r="BX26" s="251"/>
+      <c r="BY26" s="236"/>
+      <c r="BZ26" s="252"/>
+      <c r="CA26" s="238"/>
+      <c r="CB26" s="251"/>
+    </row>
+    <row r="27" spans="1:83" ht="15.75" customHeight="1">
+      <c r="A27" s="292"/>
+      <c r="B27" s="292"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="89" t="s">
+        <v>26</v>
       </c>
-      <c r="AT21" s="225"/>
-      <c r="AU21" s="225"/>
-      <c r="AV21" s="225"/>
-      <c r="AW21" s="226"/>
-      <c r="AX21" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY21" s="22"/>
-      <c r="AZ21" s="167"/>
-      <c r="BA21" s="167"/>
-      <c r="BB21" s="167"/>
-      <c r="BC21" s="167"/>
-      <c r="BD21" s="167"/>
-      <c r="BE21" s="167"/>
-      <c r="BF21" s="167"/>
-      <c r="BG21" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="BH21" s="22"/>
-      <c r="BI21" s="167"/>
-      <c r="BJ21" s="167"/>
-      <c r="BK21" s="167"/>
-      <c r="BL21" s="167"/>
-      <c r="BM21" s="167"/>
-      <c r="BN21" s="167"/>
-      <c r="BO21" s="241"/>
-    </row>
-    <row r="22" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A22" s="99"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="219"/>
-      <c r="D22" s="219"/>
-      <c r="E22" s="220"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="191"/>
-      <c r="O22" s="155"/>
-      <c r="P22" s="155"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="155"/>
-      <c r="S22" s="155"/>
-      <c r="T22" s="164"/>
-      <c r="U22" s="163"/>
-      <c r="V22" s="155"/>
-      <c r="W22" s="155"/>
-      <c r="X22" s="155"/>
-      <c r="Y22" s="283"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="283"/>
-      <c r="AB22" s="108"/>
-      <c r="AC22" s="197"/>
-      <c r="AD22" s="198"/>
-      <c r="AE22" s="198"/>
-      <c r="AF22" s="199"/>
-      <c r="AG22" s="146"/>
-      <c r="AH22" s="147"/>
-      <c r="AI22" s="147"/>
-      <c r="AJ22" s="166"/>
-      <c r="AK22" s="72"/>
-      <c r="AL22" s="147"/>
-      <c r="AM22" s="147"/>
-      <c r="AN22" s="166"/>
-      <c r="AO22" s="72"/>
-      <c r="AP22" s="147"/>
-      <c r="AQ22" s="147"/>
-      <c r="AR22" s="162"/>
-      <c r="AS22" s="227"/>
-      <c r="AT22" s="228"/>
-      <c r="AU22" s="228"/>
-      <c r="AV22" s="228"/>
-      <c r="AW22" s="229"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="4"/>
-      <c r="AZ22" s="168"/>
-      <c r="BA22" s="168"/>
-      <c r="BB22" s="168"/>
-      <c r="BC22" s="168"/>
-      <c r="BD22" s="168"/>
-      <c r="BE22" s="168"/>
-      <c r="BF22" s="168"/>
-      <c r="BG22" s="13"/>
-      <c r="BH22" s="4"/>
-      <c r="BI22" s="168"/>
-      <c r="BJ22" s="168"/>
-      <c r="BK22" s="168"/>
-      <c r="BL22" s="168"/>
-      <c r="BM22" s="168"/>
-      <c r="BN22" s="168"/>
-      <c r="BO22" s="242"/>
-    </row>
-    <row r="23" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A23" s="99"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="219"/>
-      <c r="D23" s="219"/>
-      <c r="E23" s="84" t="s">
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="42" t="s">
-        <v>30</v>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="288"/>
+      <c r="O27" s="215"/>
+      <c r="P27" s="215"/>
+      <c r="Q27" s="215"/>
+      <c r="R27" s="215"/>
+      <c r="S27" s="215"/>
+      <c r="T27" s="215"/>
+      <c r="U27" s="215"/>
+      <c r="V27" s="215"/>
+      <c r="W27" s="215"/>
+      <c r="X27" s="215"/>
+      <c r="Y27" s="215"/>
+      <c r="Z27" s="215"/>
+      <c r="AA27" s="215"/>
+      <c r="AB27" s="215"/>
+      <c r="AC27" s="215"/>
+      <c r="AD27" s="215"/>
+      <c r="AE27" s="215"/>
+      <c r="AF27" s="215"/>
+      <c r="AG27" s="215"/>
+      <c r="AH27" s="215"/>
+      <c r="AI27" s="215"/>
+      <c r="AJ27" s="215"/>
+      <c r="AK27" s="215"/>
+      <c r="AL27" s="215"/>
+      <c r="AM27" s="215"/>
+      <c r="AN27" s="215"/>
+      <c r="AO27" s="215"/>
+      <c r="AP27" s="215"/>
+      <c r="AQ27" s="215"/>
+      <c r="AR27" s="215"/>
+      <c r="AS27" s="215"/>
+      <c r="AT27" s="215"/>
+      <c r="AU27" s="215"/>
+      <c r="AV27" s="215"/>
+      <c r="AW27" s="215"/>
+      <c r="AX27" s="215"/>
+      <c r="AY27" s="215"/>
+      <c r="AZ27" s="215"/>
+      <c r="BA27" s="215"/>
+      <c r="BB27" s="215"/>
+      <c r="BC27" s="215"/>
+      <c r="BD27" s="215"/>
+      <c r="BE27" s="215"/>
+      <c r="BF27" s="215"/>
+      <c r="BG27" s="289"/>
+      <c r="BH27" s="39" t="s">
+        <v>35</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="42" t="s">
-        <v>34</v>
+      <c r="BI27" s="40"/>
+      <c r="BJ27" s="41"/>
+      <c r="BK27" s="293" t="s">
+        <v>60</v>
       </c>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="43"/>
-      <c r="AH23" s="43"/>
-      <c r="AI23" s="43"/>
-      <c r="AJ23" s="43"/>
-      <c r="AK23" s="43"/>
-      <c r="AL23" s="43"/>
-      <c r="AM23" s="43"/>
-      <c r="AN23" s="43"/>
-      <c r="AO23" s="43"/>
-      <c r="AP23" s="43"/>
-      <c r="AQ23" s="43"/>
-      <c r="AR23" s="43"/>
-      <c r="AS23" s="43"/>
-      <c r="AT23" s="43"/>
-      <c r="AU23" s="43"/>
-      <c r="AV23" s="43"/>
-      <c r="AW23" s="43"/>
-      <c r="AX23" s="43"/>
-      <c r="AY23" s="43"/>
-      <c r="AZ23" s="43"/>
-      <c r="BA23" s="43"/>
-      <c r="BB23" s="43"/>
-      <c r="BC23" s="43"/>
-      <c r="BD23" s="43"/>
-      <c r="BE23" s="43"/>
-      <c r="BF23" s="43"/>
-      <c r="BG23" s="43"/>
-      <c r="BH23" s="43"/>
-      <c r="BI23" s="43"/>
-      <c r="BJ23" s="43"/>
-      <c r="BK23" s="43"/>
-      <c r="BL23" s="43"/>
-      <c r="BM23" s="44"/>
-      <c r="BN23" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="BO23" s="112"/>
-      <c r="BP23" s="112"/>
-      <c r="BQ23" s="112"/>
-      <c r="BR23" s="112"/>
-      <c r="BS23" s="112"/>
-      <c r="BT23" s="112"/>
-      <c r="BU23" s="112"/>
-      <c r="BV23" s="112"/>
-      <c r="BW23" s="112"/>
-      <c r="BX23" s="112"/>
-      <c r="BY23" s="112"/>
-      <c r="BZ23" s="112"/>
-      <c r="CA23" s="112"/>
-      <c r="CB23" s="113"/>
-    </row>
-    <row r="24" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A24" s="99"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="219"/>
-      <c r="D24" s="219"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG24" s="62"/>
-      <c r="AH24" s="62"/>
-      <c r="AI24" s="62"/>
-      <c r="AJ24" s="109"/>
-      <c r="AK24" s="109"/>
-      <c r="AL24" s="109"/>
-      <c r="AM24" s="109"/>
-      <c r="AN24" s="109"/>
-      <c r="AO24" s="109"/>
-      <c r="AP24" s="109"/>
-      <c r="AQ24" s="109"/>
-      <c r="AR24" s="109"/>
-      <c r="AS24" s="109"/>
-      <c r="AT24" s="109"/>
-      <c r="AU24" s="109"/>
-      <c r="AV24" s="109"/>
-      <c r="AW24" s="109"/>
-      <c r="AX24" s="109"/>
-      <c r="AY24" s="109"/>
-      <c r="AZ24" s="109"/>
-      <c r="BA24" s="109"/>
-      <c r="BB24" s="109"/>
-      <c r="BC24" s="109"/>
-      <c r="BD24" s="109"/>
-      <c r="BE24" s="109"/>
-      <c r="BF24" s="109"/>
-      <c r="BG24" s="109"/>
-      <c r="BH24" s="109"/>
-      <c r="BI24" s="109"/>
-      <c r="BJ24" s="109"/>
-      <c r="BK24" s="109"/>
-      <c r="BL24" s="109"/>
-      <c r="BM24" s="110"/>
-      <c r="BN24" s="114" t="s">
-        <v>52</v>
-      </c>
-      <c r="BO24" s="115"/>
-      <c r="BP24" s="116"/>
-      <c r="BQ24" s="75"/>
-      <c r="BR24" s="76"/>
-      <c r="BS24" s="69"/>
-      <c r="BT24" s="73"/>
-      <c r="BU24" s="75"/>
-      <c r="BV24" s="76"/>
-      <c r="BW24" s="69"/>
-      <c r="BX24" s="73"/>
-      <c r="BY24" s="75"/>
-      <c r="BZ24" s="76"/>
-      <c r="CA24" s="69"/>
-      <c r="CB24" s="73"/>
-    </row>
-    <row r="25" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A25" s="99"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="219"/>
-      <c r="D25" s="219"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="122"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="63"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="77"/>
-      <c r="AB25" s="63"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="63"/>
-      <c r="AE25" s="64"/>
-      <c r="AF25" s="124"/>
-      <c r="AG25" s="125"/>
-      <c r="AH25" s="125"/>
-      <c r="AI25" s="125"/>
-      <c r="AJ25" s="125"/>
-      <c r="AK25" s="125"/>
-      <c r="AL25" s="125"/>
-      <c r="AM25" s="125"/>
-      <c r="AN25" s="125"/>
-      <c r="AO25" s="125"/>
-      <c r="AP25" s="125"/>
-      <c r="AQ25" s="125"/>
-      <c r="AR25" s="125"/>
-      <c r="AS25" s="125"/>
-      <c r="AT25" s="125"/>
-      <c r="AU25" s="125"/>
-      <c r="AV25" s="125"/>
-      <c r="AW25" s="125"/>
-      <c r="AX25" s="125"/>
-      <c r="AY25" s="125"/>
-      <c r="AZ25" s="125"/>
-      <c r="BA25" s="125"/>
-      <c r="BB25" s="125"/>
-      <c r="BC25" s="125"/>
-      <c r="BD25" s="125"/>
-      <c r="BE25" s="125"/>
-      <c r="BF25" s="125"/>
-      <c r="BG25" s="125"/>
-      <c r="BH25" s="125"/>
-      <c r="BI25" s="125"/>
-      <c r="BJ25" s="125"/>
-      <c r="BK25" s="125"/>
-      <c r="BL25" s="125"/>
-      <c r="BM25" s="126"/>
-      <c r="BN25" s="117"/>
-      <c r="BO25" s="115"/>
-      <c r="BP25" s="116"/>
-      <c r="BQ25" s="75"/>
-      <c r="BR25" s="76"/>
-      <c r="BS25" s="69"/>
-      <c r="BT25" s="73"/>
-      <c r="BU25" s="75"/>
-      <c r="BV25" s="76"/>
-      <c r="BW25" s="69"/>
-      <c r="BX25" s="73"/>
-      <c r="BY25" s="75"/>
-      <c r="BZ25" s="76"/>
-      <c r="CA25" s="69"/>
-      <c r="CB25" s="73"/>
-    </row>
-    <row r="26" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A26" s="99"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="219"/>
-      <c r="D26" s="219"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="108"/>
-      <c r="V26" s="123"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="78"/>
-      <c r="Z26" s="65"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="65"/>
-      <c r="AC26" s="78"/>
-      <c r="AD26" s="65"/>
-      <c r="AE26" s="66"/>
-      <c r="AF26" s="127"/>
-      <c r="AG26" s="128"/>
-      <c r="AH26" s="128"/>
-      <c r="AI26" s="128"/>
-      <c r="AJ26" s="128"/>
-      <c r="AK26" s="128"/>
-      <c r="AL26" s="128"/>
-      <c r="AM26" s="128"/>
-      <c r="AN26" s="128"/>
-      <c r="AO26" s="128"/>
-      <c r="AP26" s="128"/>
-      <c r="AQ26" s="128"/>
-      <c r="AR26" s="128"/>
-      <c r="AS26" s="128"/>
-      <c r="AT26" s="128"/>
-      <c r="AU26" s="128"/>
-      <c r="AV26" s="128"/>
-      <c r="AW26" s="128"/>
-      <c r="AX26" s="128"/>
-      <c r="AY26" s="128"/>
-      <c r="AZ26" s="128"/>
-      <c r="BA26" s="128"/>
-      <c r="BB26" s="128"/>
-      <c r="BC26" s="128"/>
-      <c r="BD26" s="128"/>
-      <c r="BE26" s="128"/>
-      <c r="BF26" s="128"/>
-      <c r="BG26" s="128"/>
-      <c r="BH26" s="128"/>
-      <c r="BI26" s="128"/>
-      <c r="BJ26" s="128"/>
-      <c r="BK26" s="128"/>
-      <c r="BL26" s="128"/>
-      <c r="BM26" s="129"/>
-      <c r="BN26" s="117"/>
-      <c r="BO26" s="115"/>
-      <c r="BP26" s="116"/>
-      <c r="BQ26" s="75"/>
-      <c r="BR26" s="76"/>
-      <c r="BS26" s="69"/>
-      <c r="BT26" s="74"/>
-      <c r="BU26" s="75"/>
-      <c r="BV26" s="76"/>
-      <c r="BW26" s="69"/>
-      <c r="BX26" s="74"/>
-      <c r="BY26" s="75"/>
-      <c r="BZ26" s="76"/>
-      <c r="CA26" s="69"/>
-      <c r="CB26" s="74"/>
-    </row>
-    <row r="27" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A27" s="99"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="219"/>
-      <c r="D27" s="219"/>
-      <c r="E27" s="299" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="300"/>
-      <c r="G27" s="301"/>
-      <c r="H27" s="279" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="280"/>
-      <c r="J27" s="280"/>
-      <c r="K27" s="280"/>
-      <c r="L27" s="280"/>
-      <c r="M27" s="281"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="94"/>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="94"/>
-      <c r="AC27" s="94"/>
-      <c r="AD27" s="94"/>
-      <c r="AE27" s="94"/>
-      <c r="AF27" s="94"/>
-      <c r="AG27" s="94"/>
-      <c r="AH27" s="94"/>
-      <c r="AI27" s="94"/>
-      <c r="AJ27" s="94"/>
-      <c r="AK27" s="94"/>
-      <c r="AL27" s="94"/>
-      <c r="AM27" s="94"/>
-      <c r="AN27" s="94"/>
-      <c r="AO27" s="94"/>
-      <c r="AP27" s="94"/>
-      <c r="AQ27" s="94"/>
-      <c r="AR27" s="94"/>
-      <c r="AS27" s="94"/>
-      <c r="AT27" s="94"/>
-      <c r="AU27" s="94"/>
-      <c r="AV27" s="94"/>
-      <c r="AW27" s="94"/>
-      <c r="AX27" s="94"/>
-      <c r="AY27" s="94"/>
-      <c r="AZ27" s="94"/>
-      <c r="BA27" s="94"/>
-      <c r="BB27" s="94"/>
-      <c r="BC27" s="94"/>
-      <c r="BD27" s="94"/>
-      <c r="BE27" s="94"/>
-      <c r="BF27" s="94"/>
-      <c r="BG27" s="95"/>
-      <c r="BH27" s="273" t="s">
-        <v>37</v>
-      </c>
-      <c r="BI27" s="274"/>
-      <c r="BJ27" s="275"/>
-      <c r="BK27" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL27" s="100"/>
-      <c r="BM27" s="100"/>
-      <c r="BN27" s="100"/>
-      <c r="BO27" s="100"/>
-      <c r="BP27" s="100"/>
-      <c r="BQ27" s="100"/>
-      <c r="BR27" s="100"/>
-      <c r="BS27" s="100"/>
-      <c r="BT27" s="100"/>
-      <c r="BU27" s="100"/>
-      <c r="BV27" s="100"/>
-      <c r="BW27" s="100"/>
-      <c r="BX27" s="100"/>
-      <c r="BY27" s="100"/>
-      <c r="BZ27" s="100"/>
-      <c r="CA27" s="100"/>
-      <c r="CB27" s="100"/>
-      <c r="CC27" s="100"/>
-      <c r="CD27" s="101"/>
+      <c r="BL27" s="293"/>
+      <c r="BM27" s="293"/>
+      <c r="BN27" s="293"/>
+      <c r="BO27" s="293"/>
+      <c r="BP27" s="293"/>
+      <c r="BQ27" s="293"/>
+      <c r="BR27" s="293"/>
+      <c r="BS27" s="293"/>
+      <c r="BT27" s="293"/>
+      <c r="BU27" s="293"/>
+      <c r="BV27" s="293"/>
+      <c r="BW27" s="293"/>
+      <c r="BX27" s="293"/>
+      <c r="BY27" s="293"/>
+      <c r="BZ27" s="293"/>
+      <c r="CA27" s="293"/>
+      <c r="CB27" s="293"/>
+      <c r="CC27" s="293"/>
+      <c r="CD27" s="294"/>
       <c r="CE27" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:83" ht="22.5" customHeight="1">
-      <c r="A28" s="99"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="219"/>
-      <c r="D28" s="219"/>
-      <c r="E28" s="302"/>
-      <c r="F28" s="303"/>
-      <c r="G28" s="304"/>
-      <c r="H28" s="292" t="s">
-        <v>32</v>
+      <c r="A28" s="292"/>
+      <c r="B28" s="292"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="82" t="s">
+        <v>30</v>
       </c>
-      <c r="I28" s="293"/>
-      <c r="J28" s="293"/>
-      <c r="K28" s="293"/>
-      <c r="L28" s="293"/>
-      <c r="M28" s="294"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="97"/>
-      <c r="S28" s="97"/>
-      <c r="T28" s="97"/>
-      <c r="U28" s="97"/>
-      <c r="V28" s="97"/>
-      <c r="W28" s="97"/>
-      <c r="X28" s="97"/>
-      <c r="Y28" s="97"/>
-      <c r="Z28" s="97"/>
-      <c r="AA28" s="97"/>
-      <c r="AB28" s="97"/>
-      <c r="AC28" s="97"/>
-      <c r="AD28" s="97"/>
-      <c r="AE28" s="97"/>
-      <c r="AF28" s="97"/>
-      <c r="AG28" s="97"/>
-      <c r="AH28" s="97"/>
-      <c r="AI28" s="97"/>
-      <c r="AJ28" s="97"/>
-      <c r="AK28" s="97"/>
-      <c r="AL28" s="97"/>
-      <c r="AM28" s="97"/>
-      <c r="AN28" s="97"/>
-      <c r="AO28" s="97"/>
-      <c r="AP28" s="97"/>
-      <c r="AQ28" s="97"/>
-      <c r="AR28" s="97"/>
-      <c r="AS28" s="97"/>
-      <c r="AT28" s="97"/>
-      <c r="AU28" s="97"/>
-      <c r="AV28" s="97"/>
-      <c r="AW28" s="97"/>
-      <c r="AX28" s="97"/>
-      <c r="AY28" s="97"/>
-      <c r="AZ28" s="97"/>
-      <c r="BA28" s="97"/>
-      <c r="BB28" s="97"/>
-      <c r="BC28" s="97"/>
-      <c r="BD28" s="97"/>
-      <c r="BE28" s="97"/>
-      <c r="BF28" s="97"/>
-      <c r="BG28" s="98"/>
-      <c r="BH28" s="276"/>
-      <c r="BI28" s="277"/>
-      <c r="BJ28" s="278"/>
-      <c r="BK28" s="102"/>
-      <c r="BL28" s="102"/>
-      <c r="BM28" s="102"/>
-      <c r="BN28" s="102"/>
-      <c r="BO28" s="102"/>
-      <c r="BP28" s="102"/>
-      <c r="BQ28" s="102"/>
-      <c r="BR28" s="102"/>
-      <c r="BS28" s="102"/>
-      <c r="BT28" s="102"/>
-      <c r="BU28" s="102"/>
-      <c r="BV28" s="102"/>
-      <c r="BW28" s="102"/>
-      <c r="BX28" s="102"/>
-      <c r="BY28" s="102"/>
-      <c r="BZ28" s="102"/>
-      <c r="CA28" s="102"/>
-      <c r="CB28" s="102"/>
-      <c r="CC28" s="102"/>
-      <c r="CD28" s="103"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="290"/>
+      <c r="O28" s="212"/>
+      <c r="P28" s="212"/>
+      <c r="Q28" s="212"/>
+      <c r="R28" s="212"/>
+      <c r="S28" s="212"/>
+      <c r="T28" s="212"/>
+      <c r="U28" s="212"/>
+      <c r="V28" s="212"/>
+      <c r="W28" s="212"/>
+      <c r="X28" s="212"/>
+      <c r="Y28" s="212"/>
+      <c r="Z28" s="212"/>
+      <c r="AA28" s="212"/>
+      <c r="AB28" s="212"/>
+      <c r="AC28" s="212"/>
+      <c r="AD28" s="212"/>
+      <c r="AE28" s="212"/>
+      <c r="AF28" s="212"/>
+      <c r="AG28" s="212"/>
+      <c r="AH28" s="212"/>
+      <c r="AI28" s="212"/>
+      <c r="AJ28" s="212"/>
+      <c r="AK28" s="212"/>
+      <c r="AL28" s="212"/>
+      <c r="AM28" s="212"/>
+      <c r="AN28" s="212"/>
+      <c r="AO28" s="212"/>
+      <c r="AP28" s="212"/>
+      <c r="AQ28" s="212"/>
+      <c r="AR28" s="212"/>
+      <c r="AS28" s="212"/>
+      <c r="AT28" s="212"/>
+      <c r="AU28" s="212"/>
+      <c r="AV28" s="212"/>
+      <c r="AW28" s="212"/>
+      <c r="AX28" s="212"/>
+      <c r="AY28" s="212"/>
+      <c r="AZ28" s="212"/>
+      <c r="BA28" s="212"/>
+      <c r="BB28" s="212"/>
+      <c r="BC28" s="212"/>
+      <c r="BD28" s="212"/>
+      <c r="BE28" s="212"/>
+      <c r="BF28" s="212"/>
+      <c r="BG28" s="291"/>
+      <c r="BH28" s="42"/>
+      <c r="BI28" s="43"/>
+      <c r="BJ28" s="44"/>
+      <c r="BK28" s="295"/>
+      <c r="BL28" s="295"/>
+      <c r="BM28" s="295"/>
+      <c r="BN28" s="295"/>
+      <c r="BO28" s="295"/>
+      <c r="BP28" s="295"/>
+      <c r="BQ28" s="295"/>
+      <c r="BR28" s="295"/>
+      <c r="BS28" s="295"/>
+      <c r="BT28" s="295"/>
+      <c r="BU28" s="295"/>
+      <c r="BV28" s="295"/>
+      <c r="BW28" s="295"/>
+      <c r="BX28" s="295"/>
+      <c r="BY28" s="295"/>
+      <c r="BZ28" s="295"/>
+      <c r="CA28" s="295"/>
+      <c r="CB28" s="295"/>
+      <c r="CC28" s="295"/>
+      <c r="CD28" s="296"/>
     </row>
     <row r="29" spans="1:83" ht="10.5" customHeight="1">
       <c r="A29" s="20"/>
@@ -7398,86 +7517,86 @@
       <c r="Z30"/>
       <c r="AA30"/>
       <c r="AB30"/>
-      <c r="BQ30" s="39" t="s">
-        <v>47</v>
+      <c r="BQ30" s="257" t="s">
+        <v>45</v>
       </c>
-      <c r="BR30" s="40"/>
-      <c r="BS30" s="40"/>
-      <c r="BT30" s="40"/>
-      <c r="BU30" s="40"/>
-      <c r="BV30" s="40"/>
-      <c r="BW30" s="40"/>
-      <c r="BX30" s="40"/>
-      <c r="BY30" s="40"/>
-      <c r="BZ30" s="40"/>
-      <c r="CA30" s="40"/>
-      <c r="CB30" s="41"/>
+      <c r="BR30" s="258"/>
+      <c r="BS30" s="258"/>
+      <c r="BT30" s="258"/>
+      <c r="BU30" s="258"/>
+      <c r="BV30" s="258"/>
+      <c r="BW30" s="258"/>
+      <c r="BX30" s="258"/>
+      <c r="BY30" s="258"/>
+      <c r="BZ30" s="258"/>
+      <c r="CA30" s="258"/>
+      <c r="CB30" s="259"/>
     </row>
     <row r="31" spans="1:83" ht="15.75" customHeight="1">
       <c r="A31" s="20"/>
-      <c r="B31" s="79" t="s">
-        <v>58</v>
+      <c r="B31" s="278" t="s">
+        <v>54</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="80"/>
-      <c r="T31" s="80"/>
-      <c r="U31" s="80"/>
-      <c r="V31" s="80"/>
-      <c r="W31" s="80"/>
-      <c r="X31" s="80"/>
-      <c r="Y31" s="80"/>
-      <c r="Z31" s="80"/>
-      <c r="AA31" s="80"/>
-      <c r="AB31" s="81"/>
-      <c r="AU31" s="104" t="s">
-        <v>53</v>
+      <c r="C31" s="279"/>
+      <c r="D31" s="279"/>
+      <c r="E31" s="279"/>
+      <c r="F31" s="279"/>
+      <c r="G31" s="279"/>
+      <c r="H31" s="279"/>
+      <c r="I31" s="279"/>
+      <c r="J31" s="279"/>
+      <c r="K31" s="279"/>
+      <c r="L31" s="279"/>
+      <c r="M31" s="279"/>
+      <c r="N31" s="279"/>
+      <c r="O31" s="279"/>
+      <c r="P31" s="279"/>
+      <c r="Q31" s="279"/>
+      <c r="R31" s="279"/>
+      <c r="S31" s="279"/>
+      <c r="T31" s="279"/>
+      <c r="U31" s="279"/>
+      <c r="V31" s="279"/>
+      <c r="W31" s="279"/>
+      <c r="X31" s="279"/>
+      <c r="Y31" s="279"/>
+      <c r="Z31" s="279"/>
+      <c r="AA31" s="279"/>
+      <c r="AB31" s="280"/>
+      <c r="AU31" s="297" t="s">
+        <v>51</v>
       </c>
-      <c r="AV31" s="104"/>
-      <c r="AW31" s="104"/>
-      <c r="AX31" s="104"/>
-      <c r="AY31" s="104"/>
-      <c r="AZ31" s="104"/>
-      <c r="BA31" s="104"/>
-      <c r="BB31" s="104"/>
-      <c r="BC31" s="104"/>
-      <c r="BD31" s="104"/>
-      <c r="BE31" s="104"/>
-      <c r="BF31" s="104"/>
-      <c r="BG31" s="104"/>
-      <c r="BH31" s="104"/>
-      <c r="BI31" s="104"/>
-      <c r="BJ31" s="104"/>
-      <c r="BK31" s="104"/>
-      <c r="BL31" s="104"/>
-      <c r="BM31" s="104"/>
-      <c r="BN31" s="104"/>
-      <c r="BQ31" s="42"/>
-      <c r="BR31" s="43"/>
-      <c r="BS31" s="43"/>
-      <c r="BT31" s="43"/>
-      <c r="BU31" s="43"/>
-      <c r="BV31" s="43"/>
-      <c r="BW31" s="43"/>
-      <c r="BX31" s="43"/>
-      <c r="BY31" s="43"/>
-      <c r="BZ31" s="43"/>
-      <c r="CA31" s="43"/>
-      <c r="CB31" s="44"/>
+      <c r="AV31" s="297"/>
+      <c r="AW31" s="297"/>
+      <c r="AX31" s="297"/>
+      <c r="AY31" s="297"/>
+      <c r="AZ31" s="297"/>
+      <c r="BA31" s="297"/>
+      <c r="BB31" s="297"/>
+      <c r="BC31" s="297"/>
+      <c r="BD31" s="297"/>
+      <c r="BE31" s="297"/>
+      <c r="BF31" s="297"/>
+      <c r="BG31" s="297"/>
+      <c r="BH31" s="297"/>
+      <c r="BI31" s="297"/>
+      <c r="BJ31" s="297"/>
+      <c r="BK31" s="297"/>
+      <c r="BL31" s="297"/>
+      <c r="BM31" s="297"/>
+      <c r="BN31" s="297"/>
+      <c r="BQ31" s="48"/>
+      <c r="BR31" s="49"/>
+      <c r="BS31" s="49"/>
+      <c r="BT31" s="49"/>
+      <c r="BU31" s="49"/>
+      <c r="BV31" s="49"/>
+      <c r="BW31" s="49"/>
+      <c r="BX31" s="49"/>
+      <c r="BY31" s="49"/>
+      <c r="BZ31" s="49"/>
+      <c r="CA31" s="49"/>
+      <c r="CB31" s="50"/>
     </row>
     <row r="32" spans="1:83" ht="21" customHeight="1">
       <c r="A32" s="25"/>
@@ -7514,27 +7633,27 @@
       <c r="BF32" s="24"/>
       <c r="BI32" s="24"/>
       <c r="BJ32" s="24"/>
-      <c r="BQ32" s="45"/>
-      <c r="BR32" s="46"/>
-      <c r="BS32" s="46"/>
-      <c r="BT32" s="46"/>
-      <c r="BU32" s="46"/>
-      <c r="BV32" s="46"/>
-      <c r="BW32" s="46"/>
-      <c r="BX32" s="46"/>
-      <c r="BY32" s="46"/>
-      <c r="BZ32" s="46"/>
-      <c r="CA32" s="46"/>
-      <c r="CB32" s="47"/>
+      <c r="BQ32" s="266"/>
+      <c r="BR32" s="267"/>
+      <c r="BS32" s="267"/>
+      <c r="BT32" s="267"/>
+      <c r="BU32" s="267"/>
+      <c r="BV32" s="267"/>
+      <c r="BW32" s="267"/>
+      <c r="BX32" s="267"/>
+      <c r="BY32" s="267"/>
+      <c r="BZ32" s="267"/>
+      <c r="CA32" s="267"/>
+      <c r="CB32" s="268"/>
     </row>
     <row r="33" spans="1:81" ht="21" customHeight="1">
       <c r="A33" s="20"/>
-      <c r="B33" s="51" t="s">
-        <v>8</v>
+      <c r="B33" s="302" t="s">
+        <v>58</v>
       </c>
-      <c r="C33" s="52"/>
+      <c r="C33" s="299"/>
       <c r="D33" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -7542,26 +7661,26 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="58"/>
-      <c r="AG33" s="284"/>
-      <c r="AH33" s="284"/>
+      <c r="K33" s="271"/>
+      <c r="L33" s="271"/>
+      <c r="M33" s="271"/>
+      <c r="N33" s="271"/>
+      <c r="O33" s="271"/>
+      <c r="P33" s="271"/>
+      <c r="Q33" s="271"/>
+      <c r="R33" s="271"/>
+      <c r="S33" s="271"/>
+      <c r="T33" s="271"/>
+      <c r="U33" s="271"/>
+      <c r="V33" s="271"/>
+      <c r="W33" s="271"/>
+      <c r="X33" s="271"/>
+      <c r="Y33" s="271"/>
+      <c r="Z33" s="271"/>
+      <c r="AA33" s="271"/>
+      <c r="AB33" s="272"/>
+      <c r="AG33" s="58"/>
+      <c r="AH33" s="58"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9"/>
@@ -7590,25 +7709,25 @@
       <c r="BH33" s="2"/>
       <c r="BI33" s="2"/>
       <c r="BJ33" s="2"/>
-      <c r="BQ33" s="45"/>
-      <c r="BR33" s="46"/>
-      <c r="BS33" s="46"/>
-      <c r="BT33" s="46"/>
-      <c r="BU33" s="46"/>
-      <c r="BV33" s="46"/>
-      <c r="BW33" s="46"/>
-      <c r="BX33" s="46"/>
-      <c r="BY33" s="46"/>
-      <c r="BZ33" s="46"/>
-      <c r="CA33" s="46"/>
-      <c r="CB33" s="47"/>
+      <c r="BQ33" s="266"/>
+      <c r="BR33" s="267"/>
+      <c r="BS33" s="267"/>
+      <c r="BT33" s="267"/>
+      <c r="BU33" s="267"/>
+      <c r="BV33" s="267"/>
+      <c r="BW33" s="267"/>
+      <c r="BX33" s="267"/>
+      <c r="BY33" s="267"/>
+      <c r="BZ33" s="267"/>
+      <c r="CA33" s="267"/>
+      <c r="CB33" s="268"/>
     </row>
     <row r="34" spans="1:81" ht="21" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="52"/>
+      <c r="B34" s="298"/>
+      <c r="C34" s="299"/>
       <c r="D34" s="29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -7616,38 +7735,38 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="58"/>
-      <c r="AG34" s="284"/>
-      <c r="AH34" s="284"/>
-      <c r="AI34" s="42"/>
-      <c r="AJ34" s="43"/>
-      <c r="AK34" s="43"/>
-      <c r="AL34" s="43"/>
-      <c r="AM34" s="43"/>
-      <c r="AN34" s="43"/>
-      <c r="AO34" s="43"/>
-      <c r="AP34" s="43"/>
-      <c r="AQ34" s="43"/>
-      <c r="AR34" s="43"/>
-      <c r="AS34" s="43"/>
-      <c r="AT34" s="44"/>
+      <c r="K34" s="271"/>
+      <c r="L34" s="271"/>
+      <c r="M34" s="271"/>
+      <c r="N34" s="271"/>
+      <c r="O34" s="271"/>
+      <c r="P34" s="271"/>
+      <c r="Q34" s="271"/>
+      <c r="R34" s="271"/>
+      <c r="S34" s="271"/>
+      <c r="T34" s="271"/>
+      <c r="U34" s="271"/>
+      <c r="V34" s="271"/>
+      <c r="W34" s="271"/>
+      <c r="X34" s="271"/>
+      <c r="Y34" s="271"/>
+      <c r="Z34" s="271"/>
+      <c r="AA34" s="271"/>
+      <c r="AB34" s="272"/>
+      <c r="AG34" s="58"/>
+      <c r="AH34" s="58"/>
+      <c r="AI34" s="48"/>
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="49"/>
+      <c r="AL34" s="49"/>
+      <c r="AM34" s="49"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="49"/>
+      <c r="AS34" s="49"/>
+      <c r="AT34" s="50"/>
       <c r="AU34" s="9"/>
       <c r="AV34" s="9"/>
       <c r="AW34" s="9"/>
@@ -7664,25 +7783,25 @@
       <c r="BH34" s="9"/>
       <c r="BI34" s="9"/>
       <c r="BJ34" s="9"/>
-      <c r="BQ34" s="45"/>
-      <c r="BR34" s="46"/>
-      <c r="BS34" s="46"/>
-      <c r="BT34" s="46"/>
-      <c r="BU34" s="46"/>
-      <c r="BV34" s="46"/>
-      <c r="BW34" s="46"/>
-      <c r="BX34" s="46"/>
-      <c r="BY34" s="46"/>
-      <c r="BZ34" s="46"/>
-      <c r="CA34" s="46"/>
-      <c r="CB34" s="47"/>
+      <c r="BQ34" s="266"/>
+      <c r="BR34" s="267"/>
+      <c r="BS34" s="267"/>
+      <c r="BT34" s="267"/>
+      <c r="BU34" s="267"/>
+      <c r="BV34" s="267"/>
+      <c r="BW34" s="267"/>
+      <c r="BX34" s="267"/>
+      <c r="BY34" s="267"/>
+      <c r="BZ34" s="267"/>
+      <c r="CA34" s="267"/>
+      <c r="CB34" s="268"/>
     </row>
     <row r="35" spans="1:81" ht="21" customHeight="1">
       <c r="A35" s="20"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="52"/>
+      <c r="B35" s="298"/>
+      <c r="C35" s="299"/>
       <c r="D35" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -7690,52 +7809,52 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57"/>
-      <c r="Y35" s="57"/>
-      <c r="Z35" s="57"/>
+      <c r="K35" s="271"/>
+      <c r="L35" s="271"/>
+      <c r="M35" s="271"/>
+      <c r="N35" s="271"/>
+      <c r="O35" s="271"/>
+      <c r="P35" s="271"/>
+      <c r="Q35" s="271"/>
+      <c r="R35" s="271"/>
+      <c r="S35" s="271"/>
+      <c r="T35" s="271"/>
+      <c r="U35" s="271"/>
+      <c r="V35" s="271"/>
+      <c r="W35" s="271"/>
+      <c r="X35" s="271"/>
+      <c r="Y35" s="271"/>
+      <c r="Z35" s="271"/>
       <c r="AA35" s="35" t="s">
         <v>7</v>
       </c>
       <c r="AB35" s="3"/>
-      <c r="AG35" s="284"/>
-      <c r="AH35" s="284"/>
-      <c r="AI35" s="285"/>
-      <c r="AJ35" s="231"/>
-      <c r="AK35" s="231"/>
-      <c r="AL35" s="231"/>
-      <c r="AM35" s="231"/>
-      <c r="AN35" s="231"/>
-      <c r="AO35" s="231"/>
-      <c r="AP35" s="231"/>
-      <c r="AQ35" s="231"/>
-      <c r="AR35" s="231"/>
-      <c r="AS35" s="231"/>
-      <c r="AT35" s="231"/>
-      <c r="AU35" s="231"/>
-      <c r="AV35" s="231"/>
-      <c r="AW35" s="231"/>
-      <c r="AX35" s="231"/>
-      <c r="AY35" s="231"/>
-      <c r="AZ35" s="231"/>
-      <c r="BA35" s="231"/>
-      <c r="BB35" s="231"/>
-      <c r="BC35" s="231"/>
-      <c r="BD35" s="231"/>
-      <c r="BE35" s="231"/>
-      <c r="BF35" s="40" t="s">
+      <c r="AG35" s="58"/>
+      <c r="AH35" s="58"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="60"/>
+      <c r="AK35" s="60"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="60"/>
+      <c r="AN35" s="60"/>
+      <c r="AO35" s="60"/>
+      <c r="AP35" s="60"/>
+      <c r="AQ35" s="60"/>
+      <c r="AR35" s="60"/>
+      <c r="AS35" s="60"/>
+      <c r="AT35" s="60"/>
+      <c r="AU35" s="60"/>
+      <c r="AV35" s="60"/>
+      <c r="AW35" s="60"/>
+      <c r="AX35" s="60"/>
+      <c r="AY35" s="60"/>
+      <c r="AZ35" s="60"/>
+      <c r="BA35" s="60"/>
+      <c r="BB35" s="60"/>
+      <c r="BC35" s="60"/>
+      <c r="BD35" s="60"/>
+      <c r="BE35" s="60"/>
+      <c r="BF35" s="258" t="s">
         <v>7</v>
       </c>
       <c r="BG35" s="36"/>
@@ -7746,76 +7865,76 @@
       <c r="BN35"/>
       <c r="BO35"/>
       <c r="BP35"/>
-      <c r="BQ35" s="45"/>
-      <c r="BR35" s="46"/>
-      <c r="BS35" s="46"/>
-      <c r="BT35" s="46"/>
-      <c r="BU35" s="46"/>
-      <c r="BV35" s="46"/>
-      <c r="BW35" s="46"/>
-      <c r="BX35" s="46"/>
-      <c r="BY35" s="46"/>
-      <c r="BZ35" s="46"/>
-      <c r="CA35" s="46"/>
-      <c r="CB35" s="47"/>
+      <c r="BQ35" s="266"/>
+      <c r="BR35" s="267"/>
+      <c r="BS35" s="267"/>
+      <c r="BT35" s="267"/>
+      <c r="BU35" s="267"/>
+      <c r="BV35" s="267"/>
+      <c r="BW35" s="267"/>
+      <c r="BX35" s="267"/>
+      <c r="BY35" s="267"/>
+      <c r="BZ35" s="267"/>
+      <c r="CA35" s="267"/>
+      <c r="CB35" s="268"/>
     </row>
     <row r="36" spans="1:81" ht="12.75" customHeight="1">
       <c r="A36" s="20"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="55" t="s">
-        <v>60</v>
+      <c r="B36" s="298"/>
+      <c r="C36" s="299"/>
+      <c r="D36" s="269" t="s">
+        <v>56</v>
       </c>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57"/>
-      <c r="AB36" s="58"/>
-      <c r="AG36" s="284"/>
-      <c r="AH36" s="284"/>
-      <c r="AI36" s="235"/>
-      <c r="AJ36" s="286"/>
-      <c r="AK36" s="286"/>
-      <c r="AL36" s="286"/>
-      <c r="AM36" s="286"/>
-      <c r="AN36" s="286"/>
-      <c r="AO36" s="286"/>
-      <c r="AP36" s="286"/>
-      <c r="AQ36" s="286"/>
-      <c r="AR36" s="286"/>
-      <c r="AS36" s="286"/>
-      <c r="AT36" s="286"/>
-      <c r="AU36" s="286"/>
-      <c r="AV36" s="286"/>
-      <c r="AW36" s="286"/>
-      <c r="AX36" s="286"/>
-      <c r="AY36" s="286"/>
-      <c r="AZ36" s="286"/>
-      <c r="BA36" s="286"/>
-      <c r="BB36" s="286"/>
-      <c r="BC36" s="286"/>
-      <c r="BD36" s="286"/>
-      <c r="BE36" s="286"/>
-      <c r="BF36" s="82"/>
+      <c r="E36" s="269"/>
+      <c r="F36" s="269"/>
+      <c r="G36" s="269"/>
+      <c r="H36" s="269"/>
+      <c r="I36" s="269"/>
+      <c r="J36" s="269"/>
+      <c r="K36" s="271"/>
+      <c r="L36" s="271"/>
+      <c r="M36" s="271"/>
+      <c r="N36" s="271"/>
+      <c r="O36" s="271"/>
+      <c r="P36" s="271"/>
+      <c r="Q36" s="271"/>
+      <c r="R36" s="271"/>
+      <c r="S36" s="271"/>
+      <c r="T36" s="271"/>
+      <c r="U36" s="271"/>
+      <c r="V36" s="271"/>
+      <c r="W36" s="271"/>
+      <c r="X36" s="271"/>
+      <c r="Y36" s="271"/>
+      <c r="Z36" s="271"/>
+      <c r="AA36" s="271"/>
+      <c r="AB36" s="272"/>
+      <c r="AG36" s="58"/>
+      <c r="AH36" s="58"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="62"/>
+      <c r="AK36" s="62"/>
+      <c r="AL36" s="62"/>
+      <c r="AM36" s="62"/>
+      <c r="AN36" s="62"/>
+      <c r="AO36" s="62"/>
+      <c r="AP36" s="62"/>
+      <c r="AQ36" s="62"/>
+      <c r="AR36" s="62"/>
+      <c r="AS36" s="62"/>
+      <c r="AT36" s="62"/>
+      <c r="AU36" s="62"/>
+      <c r="AV36" s="62"/>
+      <c r="AW36" s="62"/>
+      <c r="AX36" s="62"/>
+      <c r="AY36" s="62"/>
+      <c r="AZ36" s="62"/>
+      <c r="BA36" s="62"/>
+      <c r="BB36" s="62"/>
+      <c r="BC36" s="62"/>
+      <c r="BD36" s="62"/>
+      <c r="BE36" s="62"/>
+      <c r="BF36" s="281"/>
       <c r="BG36" s="9"/>
       <c r="BH36" s="9"/>
       <c r="BI36" s="38"/>
@@ -7823,78 +7942,78 @@
       <c r="BN36"/>
       <c r="BO36"/>
       <c r="BP36"/>
-      <c r="BQ36" s="45"/>
-      <c r="BR36" s="46"/>
-      <c r="BS36" s="46"/>
-      <c r="BT36" s="46"/>
-      <c r="BU36" s="46"/>
-      <c r="BV36" s="46"/>
-      <c r="BW36" s="46"/>
-      <c r="BX36" s="46"/>
-      <c r="BY36" s="46"/>
-      <c r="BZ36" s="46"/>
-      <c r="CA36" s="46"/>
-      <c r="CB36" s="47"/>
+      <c r="BQ36" s="266"/>
+      <c r="BR36" s="267"/>
+      <c r="BS36" s="267"/>
+      <c r="BT36" s="267"/>
+      <c r="BU36" s="267"/>
+      <c r="BV36" s="267"/>
+      <c r="BW36" s="267"/>
+      <c r="BX36" s="267"/>
+      <c r="BY36" s="267"/>
+      <c r="BZ36" s="267"/>
+      <c r="CA36" s="267"/>
+      <c r="CB36" s="268"/>
     </row>
     <row r="37" spans="1:81" ht="12.75" customHeight="1">
       <c r="A37"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
-      <c r="Z37" s="59"/>
-      <c r="AA37" s="59"/>
-      <c r="AB37" s="60"/>
+      <c r="B37" s="300"/>
+      <c r="C37" s="301"/>
+      <c r="D37" s="270"/>
+      <c r="E37" s="270"/>
+      <c r="F37" s="270"/>
+      <c r="G37" s="270"/>
+      <c r="H37" s="270"/>
+      <c r="I37" s="270"/>
+      <c r="J37" s="270"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="273"/>
       <c r="AC37"/>
       <c r="AD37"/>
       <c r="AE37"/>
       <c r="AF37"/>
-      <c r="AG37" s="284"/>
-      <c r="AH37" s="284"/>
-      <c r="AI37" s="232"/>
-      <c r="AJ37" s="168"/>
-      <c r="AK37" s="168"/>
-      <c r="AL37" s="168"/>
-      <c r="AM37" s="168"/>
-      <c r="AN37" s="168"/>
-      <c r="AO37" s="168"/>
-      <c r="AP37" s="168"/>
-      <c r="AQ37" s="168"/>
-      <c r="AR37" s="168"/>
-      <c r="AS37" s="168"/>
-      <c r="AT37" s="168"/>
-      <c r="AU37" s="168"/>
-      <c r="AV37" s="168"/>
-      <c r="AW37" s="168"/>
-      <c r="AX37" s="168"/>
-      <c r="AY37" s="168"/>
-      <c r="AZ37" s="168"/>
-      <c r="BA37" s="168"/>
-      <c r="BB37" s="168"/>
-      <c r="BC37" s="168"/>
-      <c r="BD37" s="168"/>
-      <c r="BE37" s="168"/>
-      <c r="BF37" s="83"/>
+      <c r="AG37" s="58"/>
+      <c r="AH37" s="58"/>
+      <c r="AI37" s="63"/>
+      <c r="AJ37" s="64"/>
+      <c r="AK37" s="64"/>
+      <c r="AL37" s="64"/>
+      <c r="AM37" s="64"/>
+      <c r="AN37" s="64"/>
+      <c r="AO37" s="64"/>
+      <c r="AP37" s="64"/>
+      <c r="AQ37" s="64"/>
+      <c r="AR37" s="64"/>
+      <c r="AS37" s="64"/>
+      <c r="AT37" s="64"/>
+      <c r="AU37" s="64"/>
+      <c r="AV37" s="64"/>
+      <c r="AW37" s="64"/>
+      <c r="AX37" s="64"/>
+      <c r="AY37" s="64"/>
+      <c r="AZ37" s="64"/>
+      <c r="BA37" s="64"/>
+      <c r="BB37" s="64"/>
+      <c r="BC37" s="64"/>
+      <c r="BD37" s="64"/>
+      <c r="BE37" s="64"/>
+      <c r="BF37" s="282"/>
       <c r="BG37" s="26"/>
       <c r="BH37" s="26"/>
       <c r="BI37" s="27"/>
@@ -7905,18 +8024,18 @@
       <c r="BN37"/>
       <c r="BO37"/>
       <c r="BP37"/>
-      <c r="BQ37" s="48"/>
-      <c r="BR37" s="49"/>
-      <c r="BS37" s="49"/>
-      <c r="BT37" s="49"/>
-      <c r="BU37" s="49"/>
-      <c r="BV37" s="49"/>
-      <c r="BW37" s="49"/>
-      <c r="BX37" s="49"/>
-      <c r="BY37" s="49"/>
-      <c r="BZ37" s="49"/>
-      <c r="CA37" s="49"/>
-      <c r="CB37" s="50"/>
+      <c r="BQ37" s="185"/>
+      <c r="BR37" s="186"/>
+      <c r="BS37" s="186"/>
+      <c r="BT37" s="186"/>
+      <c r="BU37" s="186"/>
+      <c r="BV37" s="186"/>
+      <c r="BW37" s="186"/>
+      <c r="BX37" s="186"/>
+      <c r="BY37" s="186"/>
+      <c r="BZ37" s="186"/>
+      <c r="CA37" s="186"/>
+      <c r="CB37" s="187"/>
       <c r="CC37"/>
     </row>
     <row r="38" spans="1:81" ht="17.25" customHeight="1">
@@ -10758,6 +10877,145 @@
     </row>
   </sheetData>
   <mergeCells count="163">
+    <mergeCell ref="BQ30:CB30"/>
+    <mergeCell ref="BQ31:CB37"/>
+    <mergeCell ref="B33:C37"/>
+    <mergeCell ref="D36:J37"/>
+    <mergeCell ref="K36:AB37"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="K33:AB33"/>
+    <mergeCell ref="K34:AB34"/>
+    <mergeCell ref="K35:Z35"/>
+    <mergeCell ref="AD25:AE26"/>
+    <mergeCell ref="P24:Q26"/>
+    <mergeCell ref="N24:O26"/>
+    <mergeCell ref="BW24:BX26"/>
+    <mergeCell ref="BU24:BV26"/>
+    <mergeCell ref="AB25:AC26"/>
+    <mergeCell ref="AI34:AT34"/>
+    <mergeCell ref="B31:AB31"/>
+    <mergeCell ref="BF35:BF37"/>
+    <mergeCell ref="BS24:BT26"/>
+    <mergeCell ref="E23:G26"/>
+    <mergeCell ref="N27:BG28"/>
+    <mergeCell ref="A6:B28"/>
+    <mergeCell ref="BK27:CD28"/>
+    <mergeCell ref="AU31:BN31"/>
+    <mergeCell ref="H24:I26"/>
+    <mergeCell ref="L24:M26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="T24:U26"/>
+    <mergeCell ref="R24:S26"/>
+    <mergeCell ref="AJ24:BM24"/>
+    <mergeCell ref="BN23:CB23"/>
+    <mergeCell ref="BN24:BP26"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E19:AJ19"/>
+    <mergeCell ref="CA24:CB26"/>
+    <mergeCell ref="BY24:BZ26"/>
+    <mergeCell ref="V25:W26"/>
+    <mergeCell ref="V24:AE24"/>
+    <mergeCell ref="X25:Y26"/>
+    <mergeCell ref="V23:BM23"/>
+    <mergeCell ref="AF25:BM26"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="Z25:AA26"/>
+    <mergeCell ref="AC20:AR20"/>
+    <mergeCell ref="E9:G11"/>
+    <mergeCell ref="AE10:CB11"/>
+    <mergeCell ref="N12:CB13"/>
+    <mergeCell ref="AG21:AH22"/>
+    <mergeCell ref="H10:M11"/>
+    <mergeCell ref="J12:M13"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="AI21:AJ22"/>
+    <mergeCell ref="AZ21:BF22"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="K14:N15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="AV7:BA7"/>
+    <mergeCell ref="AV8:BA8"/>
+    <mergeCell ref="BB8:BC8"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="BY2:CC2"/>
+    <mergeCell ref="BT2:BX2"/>
+    <mergeCell ref="BN2:BS2"/>
+    <mergeCell ref="BI2:BM2"/>
+    <mergeCell ref="BN3:BS4"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="BY3:CC4"/>
+    <mergeCell ref="W4:AH4"/>
+    <mergeCell ref="W3:AH3"/>
+    <mergeCell ref="AK3:BB4"/>
+    <mergeCell ref="BI3:BM4"/>
+    <mergeCell ref="BJ7:BM8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="BT3:BX4"/>
+    <mergeCell ref="BS7:BT8"/>
+    <mergeCell ref="AT6:BI6"/>
+    <mergeCell ref="BN7:BP8"/>
+    <mergeCell ref="BB7:BI7"/>
+    <mergeCell ref="CA6:CB8"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="BJ6:BZ6"/>
+    <mergeCell ref="BQ7:BR8"/>
+    <mergeCell ref="BU7:BV8"/>
+    <mergeCell ref="BW7:BX8"/>
+    <mergeCell ref="BY7:BZ8"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C6:D28"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="AO21:AP22"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="AS21:AW22"/>
+    <mergeCell ref="Q7:U8"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="V7:W8"/>
+    <mergeCell ref="V6:AS6"/>
+    <mergeCell ref="BG20:BO20"/>
+    <mergeCell ref="AM21:AN22"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="BI21:BO22"/>
+    <mergeCell ref="AH14:BM15"/>
+    <mergeCell ref="AA14:AC15"/>
+    <mergeCell ref="BA20:BF20"/>
+    <mergeCell ref="AC21:AF22"/>
+    <mergeCell ref="AI9:CB9"/>
+    <mergeCell ref="AQ21:AR22"/>
+    <mergeCell ref="AN18:BW19"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="BD8:BI8"/>
+    <mergeCell ref="AE9:AH9"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="AR7:AS8"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="E20:AB20"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="BH27:BJ28"/>
     <mergeCell ref="H27:M27"/>
     <mergeCell ref="H23:U23"/>
@@ -10782,145 +11040,6 @@
     <mergeCell ref="E27:G28"/>
     <mergeCell ref="E12:G13"/>
     <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="V7:W8"/>
-    <mergeCell ref="V6:AS6"/>
-    <mergeCell ref="BG20:BO20"/>
-    <mergeCell ref="AM21:AN22"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="BI21:BO22"/>
-    <mergeCell ref="AH14:BM15"/>
-    <mergeCell ref="AA14:AC15"/>
-    <mergeCell ref="BA20:BF20"/>
-    <mergeCell ref="AC21:AF22"/>
-    <mergeCell ref="AI9:CB9"/>
-    <mergeCell ref="AQ21:AR22"/>
-    <mergeCell ref="AN18:BW19"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="BD8:BI8"/>
-    <mergeCell ref="AE9:AH9"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="E20:AB20"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="BJ6:BZ6"/>
-    <mergeCell ref="BQ7:BR8"/>
-    <mergeCell ref="BU7:BV8"/>
-    <mergeCell ref="BW7:BX8"/>
-    <mergeCell ref="BY7:BZ8"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C6:D28"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="AO21:AP22"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="AS21:AW22"/>
-    <mergeCell ref="Q7:U8"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="BY2:CC2"/>
-    <mergeCell ref="BT2:BX2"/>
-    <mergeCell ref="BN2:BS2"/>
-    <mergeCell ref="BI2:BM2"/>
-    <mergeCell ref="BN3:BS4"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="BY3:CC4"/>
-    <mergeCell ref="W4:AH4"/>
-    <mergeCell ref="W3:AH3"/>
-    <mergeCell ref="AK3:BB4"/>
-    <mergeCell ref="BI3:BM4"/>
-    <mergeCell ref="BJ7:BM8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="BT3:BX4"/>
-    <mergeCell ref="BS7:BT8"/>
-    <mergeCell ref="AT6:BI6"/>
-    <mergeCell ref="BN7:BP8"/>
-    <mergeCell ref="BB7:BI7"/>
-    <mergeCell ref="CA6:CB8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="E9:G11"/>
-    <mergeCell ref="AE10:CB11"/>
-    <mergeCell ref="N12:CB13"/>
-    <mergeCell ref="AG21:AH22"/>
-    <mergeCell ref="H10:M11"/>
-    <mergeCell ref="J12:M13"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AZ21:BF22"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="K14:N15"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="AV7:BA7"/>
-    <mergeCell ref="AV8:BA8"/>
-    <mergeCell ref="BB8:BC8"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="H24:I26"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="T24:U26"/>
-    <mergeCell ref="R24:S26"/>
-    <mergeCell ref="AJ24:BM24"/>
-    <mergeCell ref="BN23:CB23"/>
-    <mergeCell ref="BN24:BP26"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E19:AJ19"/>
-    <mergeCell ref="CA24:CB26"/>
-    <mergeCell ref="BY24:BZ26"/>
-    <mergeCell ref="V25:W26"/>
-    <mergeCell ref="V24:AE24"/>
-    <mergeCell ref="X25:Y26"/>
-    <mergeCell ref="V23:BM23"/>
-    <mergeCell ref="AF25:BM26"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="Z25:AA26"/>
-    <mergeCell ref="AC20:AR20"/>
-    <mergeCell ref="BQ30:CB30"/>
-    <mergeCell ref="BQ31:CB37"/>
-    <mergeCell ref="B33:C37"/>
-    <mergeCell ref="D36:J37"/>
-    <mergeCell ref="K36:AB37"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="K33:AB33"/>
-    <mergeCell ref="K34:AB34"/>
-    <mergeCell ref="K35:Z35"/>
-    <mergeCell ref="AD25:AE26"/>
-    <mergeCell ref="P24:Q26"/>
-    <mergeCell ref="N24:O26"/>
-    <mergeCell ref="BW24:BX26"/>
-    <mergeCell ref="BU24:BV26"/>
-    <mergeCell ref="AB25:AC26"/>
-    <mergeCell ref="AI34:AT34"/>
-    <mergeCell ref="B31:AB31"/>
-    <mergeCell ref="BF35:BF37"/>
-    <mergeCell ref="BS24:BT26"/>
-    <mergeCell ref="E23:G26"/>
-    <mergeCell ref="N27:BG28"/>
-    <mergeCell ref="A6:B28"/>
-    <mergeCell ref="BK27:CD28"/>
-    <mergeCell ref="AU31:BN31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.51181102362204722"/>
@@ -10959,14 +11078,14 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>40</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:col>41</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>43</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </to>
@@ -11003,14 +11122,14 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>40</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:col>41</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>43</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
@@ -11026,13 +11145,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>61</xdr:col>
-                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>64</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>76200</xdr:rowOff>
                   </to>
@@ -11048,13 +11167,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>61</xdr:col>
-                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>64</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -11069,14 +11188,14 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>68</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:col>67</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>85725</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>70</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>95250</xdr:rowOff>
                   </to>
@@ -11091,14 +11210,14 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>68</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:col>67</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>70</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
                   </to>
@@ -11113,14 +11232,14 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>12</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>180975</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>15</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
@@ -676,8 +676,8 @@
     <t>◎記入方法は裏面に書いてありますからよく読んでください。</t>
   </si>
   <si>
-    <t xml:space="preserve">   短期在留　  住民票住所以外の居所注１　
-   海外居住   その他（　　　　　　　　　）  </t>
+    <t xml:space="preserve">      短期在留　   住民票住所以外の居所注１　
+      海外居住       その他（　　　　　　　　）  </t>
   </si>
 </sst>
 </file>
@@ -792,18 +792,17 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="8.5"/>
-      <color theme="1"/>
-      <name val="MS Gothic"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="ＭＳ Ｐ明朝"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="ＭＳ Ｐ明朝"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐ明朝"/>
     </font>
   </fonts>
@@ -1829,7 +1828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2176,6 +2175,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2635,6 +2643,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2707,43 +2730,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3540,274 +3545,6 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>61</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>64</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1033" name="221" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1033"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>61</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>64</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1034" name="223" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1034"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>67</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>26</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>70</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1035" name="222" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1035"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>67</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>70</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1036" name="224" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1036"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
           <xdr:col>10</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
           <xdr:row>17</xdr:row>
@@ -4071,16 +3808,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4095,7 +3832,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5981700" y="3152775"/>
+          <a:off x="6229350" y="3133725"/>
           <a:ext cx="1247775" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4591,266 +4328,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>31146</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="A4_221">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7705725" y="5581650"/>
-          <a:ext cx="152400" cy="154971"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>✔</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>50196</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="A4_222">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334375" y="5600700"/>
-          <a:ext cx="152400" cy="154971"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>✔</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>183546</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="A4_223">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7705725" y="5734050"/>
-          <a:ext cx="152400" cy="154971"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>✔</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>202596</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="A4_224">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8343900" y="5753100"/>
-          <a:ext cx="152400" cy="154971"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>✔</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -5094,6 +4571,658 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>61</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>64</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1039" name="221" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1039"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>61</xdr:col>
+          <xdr:colOff>95250</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>64</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1040" name="223" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1040"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>67</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>70</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1041" name="222" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1041"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>67</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>70</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>219075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1042" name="224" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1042"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="A2_19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001124" y="5753100"/>
+          <a:ext cx="866775" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>21621</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="A4_221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8220075" y="5553075"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12096</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="A4_222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="5562600"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>193071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="A4_223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="5724525"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>183546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="A4_224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9010650" y="5715000"/>
+          <a:ext cx="152400" cy="154971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>✔</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>238126</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="A2_19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9686925" y="5724525"/>
+          <a:ext cx="809626" cy="200026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5390,7 +5519,7 @@
   <dimension ref="A1:CE76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF25" sqref="AF25:BM26"/>
+      <selection activeCell="N12" sqref="N12:CB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -5406,87 +5535,87 @@
   <sheetData>
     <row r="1" spans="1:81" ht="26.25" customHeight="1"/>
     <row r="2" spans="1:81" ht="20.25" customHeight="1">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="BI2" s="184" t="s">
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="BI2" s="187" t="s">
         <v>55</v>
       </c>
-      <c r="BJ2" s="180"/>
-      <c r="BK2" s="180"/>
-      <c r="BL2" s="180"/>
-      <c r="BM2" s="180"/>
-      <c r="BN2" s="181" t="s">
+      <c r="BJ2" s="183"/>
+      <c r="BK2" s="183"/>
+      <c r="BL2" s="183"/>
+      <c r="BM2" s="183"/>
+      <c r="BN2" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="BO2" s="182"/>
-      <c r="BP2" s="182"/>
-      <c r="BQ2" s="182"/>
-      <c r="BR2" s="182"/>
-      <c r="BS2" s="183"/>
-      <c r="BT2" s="180" t="s">
+      <c r="BO2" s="185"/>
+      <c r="BP2" s="185"/>
+      <c r="BQ2" s="185"/>
+      <c r="BR2" s="185"/>
+      <c r="BS2" s="186"/>
+      <c r="BT2" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="BU2" s="180"/>
-      <c r="BV2" s="180"/>
-      <c r="BW2" s="180"/>
-      <c r="BX2" s="180"/>
-      <c r="BY2" s="177" t="s">
+      <c r="BU2" s="183"/>
+      <c r="BV2" s="183"/>
+      <c r="BW2" s="183"/>
+      <c r="BX2" s="183"/>
+      <c r="BY2" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="BZ2" s="178"/>
-      <c r="CA2" s="178"/>
-      <c r="CB2" s="178"/>
-      <c r="CC2" s="179"/>
+      <c r="BZ2" s="181"/>
+      <c r="CA2" s="181"/>
+      <c r="CB2" s="181"/>
+      <c r="CC2" s="182"/>
     </row>
     <row r="3" spans="1:81" ht="18" customHeight="1">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="W3" s="191"/>
-      <c r="X3" s="191"/>
-      <c r="Y3" s="191"/>
-      <c r="Z3" s="191"/>
-      <c r="AA3" s="191"/>
-      <c r="AB3" s="191"/>
-      <c r="AC3" s="191"/>
-      <c r="AD3" s="191"/>
-      <c r="AE3" s="191"/>
-      <c r="AF3" s="191"/>
-      <c r="AG3" s="191"/>
-      <c r="AH3" s="191"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="W3" s="194"/>
+      <c r="X3" s="194"/>
+      <c r="Y3" s="194"/>
+      <c r="Z3" s="194"/>
+      <c r="AA3" s="194"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="194"/>
+      <c r="AD3" s="194"/>
+      <c r="AE3" s="194"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="194"/>
+      <c r="AH3" s="194"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
-      <c r="AK3" s="190" t="s">
+      <c r="AK3" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="AL3" s="190"/>
-      <c r="AM3" s="190"/>
-      <c r="AN3" s="190"/>
-      <c r="AO3" s="190"/>
-      <c r="AP3" s="190"/>
-      <c r="AQ3" s="190"/>
-      <c r="AR3" s="190"/>
-      <c r="AS3" s="190"/>
-      <c r="AT3" s="190"/>
-      <c r="AU3" s="190"/>
-      <c r="AV3" s="190"/>
-      <c r="AW3" s="190"/>
-      <c r="AX3" s="190"/>
-      <c r="AY3" s="190"/>
-      <c r="AZ3" s="190"/>
-      <c r="BA3" s="190"/>
-      <c r="BB3" s="190"/>
+      <c r="AL3" s="193"/>
+      <c r="AM3" s="193"/>
+      <c r="AN3" s="193"/>
+      <c r="AO3" s="193"/>
+      <c r="AP3" s="193"/>
+      <c r="AQ3" s="193"/>
+      <c r="AR3" s="193"/>
+      <c r="AS3" s="193"/>
+      <c r="AT3" s="193"/>
+      <c r="AU3" s="193"/>
+      <c r="AV3" s="193"/>
+      <c r="AW3" s="193"/>
+      <c r="AX3" s="193"/>
+      <c r="AY3" s="193"/>
+      <c r="AZ3" s="193"/>
+      <c r="BA3" s="193"/>
+      <c r="BB3" s="193"/>
       <c r="BC3" s="6"/>
       <c r="BD3" s="6"/>
       <c r="BE3" s="6"/>
@@ -5516,90 +5645,90 @@
       <c r="CC3" s="50"/>
     </row>
     <row r="4" spans="1:81" ht="18" customHeight="1">
-      <c r="W4" s="190"/>
-      <c r="X4" s="190"/>
-      <c r="Y4" s="190"/>
-      <c r="Z4" s="190"/>
-      <c r="AA4" s="190"/>
-      <c r="AB4" s="190"/>
-      <c r="AC4" s="190"/>
-      <c r="AD4" s="190"/>
-      <c r="AE4" s="190"/>
-      <c r="AF4" s="190"/>
-      <c r="AG4" s="190"/>
-      <c r="AH4" s="190"/>
+      <c r="W4" s="193"/>
+      <c r="X4" s="193"/>
+      <c r="Y4" s="193"/>
+      <c r="Z4" s="193"/>
+      <c r="AA4" s="193"/>
+      <c r="AB4" s="193"/>
+      <c r="AC4" s="193"/>
+      <c r="AD4" s="193"/>
+      <c r="AE4" s="193"/>
+      <c r="AF4" s="193"/>
+      <c r="AG4" s="193"/>
+      <c r="AH4" s="193"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="190"/>
-      <c r="AL4" s="190"/>
-      <c r="AM4" s="190"/>
-      <c r="AN4" s="190"/>
-      <c r="AO4" s="190"/>
-      <c r="AP4" s="190"/>
-      <c r="AQ4" s="190"/>
-      <c r="AR4" s="190"/>
-      <c r="AS4" s="190"/>
-      <c r="AT4" s="190"/>
-      <c r="AU4" s="190"/>
-      <c r="AV4" s="190"/>
-      <c r="AW4" s="190"/>
-      <c r="AX4" s="190"/>
-      <c r="AY4" s="190"/>
-      <c r="AZ4" s="190"/>
-      <c r="BA4" s="190"/>
-      <c r="BB4" s="190"/>
+      <c r="AK4" s="193"/>
+      <c r="AL4" s="193"/>
+      <c r="AM4" s="193"/>
+      <c r="AN4" s="193"/>
+      <c r="AO4" s="193"/>
+      <c r="AP4" s="193"/>
+      <c r="AQ4" s="193"/>
+      <c r="AR4" s="193"/>
+      <c r="AS4" s="193"/>
+      <c r="AT4" s="193"/>
+      <c r="AU4" s="193"/>
+      <c r="AV4" s="193"/>
+      <c r="AW4" s="193"/>
+      <c r="AX4" s="193"/>
+      <c r="AY4" s="193"/>
+      <c r="AZ4" s="193"/>
+      <c r="BA4" s="193"/>
+      <c r="BB4" s="193"/>
       <c r="BC4" s="6"/>
       <c r="BD4" s="6"/>
       <c r="BE4" s="6"/>
       <c r="BF4" s="6"/>
       <c r="BG4" s="6"/>
       <c r="BH4" s="7"/>
-      <c r="BI4" s="185"/>
-      <c r="BJ4" s="186"/>
-      <c r="BK4" s="186"/>
-      <c r="BL4" s="186"/>
-      <c r="BM4" s="187"/>
-      <c r="BN4" s="185"/>
-      <c r="BO4" s="186"/>
-      <c r="BP4" s="186"/>
-      <c r="BQ4" s="186"/>
-      <c r="BR4" s="186"/>
-      <c r="BS4" s="187"/>
-      <c r="BT4" s="185"/>
-      <c r="BU4" s="186"/>
-      <c r="BV4" s="186"/>
-      <c r="BW4" s="186"/>
-      <c r="BX4" s="187"/>
-      <c r="BY4" s="185"/>
-      <c r="BZ4" s="186"/>
-      <c r="CA4" s="186"/>
-      <c r="CB4" s="186"/>
-      <c r="CC4" s="187"/>
+      <c r="BI4" s="188"/>
+      <c r="BJ4" s="189"/>
+      <c r="BK4" s="189"/>
+      <c r="BL4" s="189"/>
+      <c r="BM4" s="190"/>
+      <c r="BN4" s="188"/>
+      <c r="BO4" s="189"/>
+      <c r="BP4" s="189"/>
+      <c r="BQ4" s="189"/>
+      <c r="BR4" s="189"/>
+      <c r="BS4" s="190"/>
+      <c r="BT4" s="188"/>
+      <c r="BU4" s="189"/>
+      <c r="BV4" s="189"/>
+      <c r="BW4" s="189"/>
+      <c r="BX4" s="190"/>
+      <c r="BY4" s="188"/>
+      <c r="BZ4" s="189"/>
+      <c r="CA4" s="189"/>
+      <c r="CB4" s="189"/>
+      <c r="CC4" s="190"/>
     </row>
     <row r="5" spans="1:81" ht="9" customHeight="1"/>
     <row r="6" spans="1:81" ht="24" customHeight="1">
-      <c r="A6" s="292" t="s">
+      <c r="A6" s="300" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="292"/>
-      <c r="C6" s="165" t="s">
+      <c r="B6" s="300"/>
+      <c r="C6" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="165"/>
-      <c r="E6" s="160" t="s">
+      <c r="D6" s="168"/>
+      <c r="E6" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="160"/>
-      <c r="P6" s="160"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
       <c r="Q6" s="95" t="s">
         <v>53</v>
       </c>
@@ -5670,28 +5799,28 @@
       <c r="BX6" s="49"/>
       <c r="BY6" s="49"/>
       <c r="BZ6" s="50"/>
-      <c r="CA6" s="195"/>
-      <c r="CB6" s="196"/>
+      <c r="CA6" s="198"/>
+      <c r="CB6" s="199"/>
       <c r="CC6" s="10"/>
     </row>
     <row r="7" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A7" s="292"/>
-      <c r="B7" s="292"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="176"/>
+      <c r="A7" s="300"/>
+      <c r="B7" s="300"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="179"/>
       <c r="R7" s="60"/>
       <c r="S7" s="60"/>
       <c r="T7" s="60"/>
@@ -5704,9 +5833,9 @@
       <c r="AA7" s="54"/>
       <c r="AB7" s="54"/>
       <c r="AC7" s="73"/>
-      <c r="AD7" s="188"/>
+      <c r="AD7" s="191"/>
       <c r="AE7" s="111"/>
-      <c r="AF7" s="197"/>
+      <c r="AF7" s="200"/>
       <c r="AG7" s="111"/>
       <c r="AH7" s="54"/>
       <c r="AI7" s="54"/>
@@ -5718,66 +5847,66 @@
       <c r="AO7" s="54"/>
       <c r="AP7" s="54"/>
       <c r="AQ7" s="54"/>
-      <c r="AR7" s="142"/>
-      <c r="AS7" s="143"/>
-      <c r="AT7" s="145" t="s">
+      <c r="AR7" s="145"/>
+      <c r="AS7" s="146"/>
+      <c r="AT7" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="AU7" s="146"/>
-      <c r="AV7" s="228"/>
-      <c r="AW7" s="228"/>
-      <c r="AX7" s="228"/>
-      <c r="AY7" s="228"/>
-      <c r="AZ7" s="228"/>
-      <c r="BA7" s="229"/>
-      <c r="BB7" s="192"/>
-      <c r="BC7" s="193"/>
-      <c r="BD7" s="193"/>
-      <c r="BE7" s="193"/>
-      <c r="BF7" s="193"/>
-      <c r="BG7" s="193"/>
-      <c r="BH7" s="193"/>
-      <c r="BI7" s="194"/>
-      <c r="BJ7" s="126" t="s">
+      <c r="AU7" s="149"/>
+      <c r="AV7" s="231"/>
+      <c r="AW7" s="231"/>
+      <c r="AX7" s="231"/>
+      <c r="AY7" s="231"/>
+      <c r="AZ7" s="231"/>
+      <c r="BA7" s="232"/>
+      <c r="BB7" s="195"/>
+      <c r="BC7" s="196"/>
+      <c r="BD7" s="196"/>
+      <c r="BE7" s="196"/>
+      <c r="BF7" s="196"/>
+      <c r="BG7" s="196"/>
+      <c r="BH7" s="196"/>
+      <c r="BI7" s="197"/>
+      <c r="BJ7" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="BK7" s="127"/>
-      <c r="BL7" s="127"/>
-      <c r="BM7" s="128"/>
+      <c r="BK7" s="130"/>
+      <c r="BL7" s="130"/>
+      <c r="BM7" s="131"/>
       <c r="BN7" s="109"/>
       <c r="BO7" s="56"/>
-      <c r="BP7" s="155"/>
-      <c r="BQ7" s="151"/>
-      <c r="BR7" s="152"/>
+      <c r="BP7" s="158"/>
+      <c r="BQ7" s="154"/>
+      <c r="BR7" s="155"/>
       <c r="BS7" s="56"/>
-      <c r="BT7" s="155"/>
-      <c r="BU7" s="155"/>
+      <c r="BT7" s="158"/>
+      <c r="BU7" s="158"/>
       <c r="BV7" s="112"/>
       <c r="BW7" s="56"/>
-      <c r="BX7" s="155"/>
-      <c r="BY7" s="155"/>
-      <c r="BZ7" s="156"/>
-      <c r="CA7" s="195"/>
-      <c r="CB7" s="196"/>
+      <c r="BX7" s="158"/>
+      <c r="BY7" s="158"/>
+      <c r="BZ7" s="159"/>
+      <c r="CA7" s="198"/>
+      <c r="CB7" s="199"/>
       <c r="CC7" s="10"/>
     </row>
     <row r="8" spans="1:81" ht="21.75" customHeight="1">
-      <c r="A8" s="292"/>
-      <c r="B8" s="292"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="161"/>
+      <c r="A8" s="300"/>
+      <c r="B8" s="300"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="164"/>
       <c r="Q8" s="63"/>
       <c r="R8" s="64"/>
       <c r="S8" s="64"/>
@@ -5785,57 +5914,57 @@
       <c r="U8" s="64"/>
       <c r="V8" s="63"/>
       <c r="W8" s="98"/>
-      <c r="X8" s="169"/>
+      <c r="X8" s="172"/>
       <c r="Y8" s="74"/>
       <c r="Z8" s="74"/>
       <c r="AA8" s="74"/>
       <c r="AB8" s="74"/>
       <c r="AC8" s="75"/>
-      <c r="AD8" s="189"/>
+      <c r="AD8" s="192"/>
       <c r="AE8" s="72"/>
-      <c r="AF8" s="198"/>
+      <c r="AF8" s="201"/>
       <c r="AG8" s="72"/>
       <c r="AH8" s="74"/>
       <c r="AI8" s="74"/>
       <c r="AJ8" s="74"/>
       <c r="AK8" s="75"/>
-      <c r="AL8" s="169"/>
+      <c r="AL8" s="172"/>
       <c r="AM8" s="74"/>
       <c r="AN8" s="74"/>
       <c r="AO8" s="74"/>
       <c r="AP8" s="74"/>
       <c r="AQ8" s="74"/>
-      <c r="AR8" s="144"/>
+      <c r="AR8" s="147"/>
       <c r="AS8" s="115"/>
-      <c r="AT8" s="136" t="s">
+      <c r="AT8" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="AU8" s="137"/>
-      <c r="AV8" s="230"/>
-      <c r="AW8" s="230"/>
-      <c r="AX8" s="230"/>
-      <c r="AY8" s="230"/>
-      <c r="AZ8" s="230"/>
-      <c r="BA8" s="231"/>
-      <c r="BB8" s="232" t="s">
+      <c r="AU8" s="140"/>
+      <c r="AV8" s="233"/>
+      <c r="AW8" s="233"/>
+      <c r="AX8" s="233"/>
+      <c r="AY8" s="233"/>
+      <c r="AZ8" s="233"/>
+      <c r="BA8" s="234"/>
+      <c r="BB8" s="235" t="s">
         <v>20</v>
       </c>
-      <c r="BC8" s="233"/>
-      <c r="BD8" s="138"/>
-      <c r="BE8" s="138"/>
-      <c r="BF8" s="138"/>
-      <c r="BG8" s="138"/>
-      <c r="BH8" s="138"/>
-      <c r="BI8" s="139"/>
-      <c r="BJ8" s="129"/>
-      <c r="BK8" s="130"/>
-      <c r="BL8" s="130"/>
-      <c r="BM8" s="131"/>
+      <c r="BC8" s="236"/>
+      <c r="BD8" s="141"/>
+      <c r="BE8" s="141"/>
+      <c r="BF8" s="141"/>
+      <c r="BG8" s="141"/>
+      <c r="BH8" s="141"/>
+      <c r="BI8" s="142"/>
+      <c r="BJ8" s="132"/>
+      <c r="BK8" s="133"/>
+      <c r="BL8" s="133"/>
+      <c r="BM8" s="134"/>
       <c r="BN8" s="111"/>
       <c r="BO8" s="53"/>
       <c r="BP8" s="54"/>
-      <c r="BQ8" s="153"/>
-      <c r="BR8" s="154"/>
+      <c r="BQ8" s="156"/>
+      <c r="BR8" s="157"/>
       <c r="BS8" s="53"/>
       <c r="BT8" s="54"/>
       <c r="BU8" s="54"/>
@@ -5844,24 +5973,24 @@
       <c r="BX8" s="54"/>
       <c r="BY8" s="54"/>
       <c r="BZ8" s="73"/>
-      <c r="CA8" s="195"/>
-      <c r="CB8" s="196"/>
+      <c r="CA8" s="198"/>
+      <c r="CB8" s="199"/>
       <c r="CC8" s="10"/>
     </row>
     <row r="9" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A9" s="292"/>
-      <c r="B9" s="292"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="199" t="s">
+      <c r="A9" s="300"/>
+      <c r="B9" s="300"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="200"/>
-      <c r="G9" s="201"/>
-      <c r="H9" s="148" t="s">
+      <c r="F9" s="203"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="149"/>
+      <c r="I9" s="152"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -5885,75 +6014,75 @@
       </c>
       <c r="AC9" s="66"/>
       <c r="AD9" s="67"/>
-      <c r="AE9" s="140" t="s">
+      <c r="AE9" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="AF9" s="141"/>
-      <c r="AG9" s="141"/>
-      <c r="AH9" s="141"/>
-      <c r="AI9" s="132"/>
-      <c r="AJ9" s="132"/>
-      <c r="AK9" s="132"/>
-      <c r="AL9" s="132"/>
-      <c r="AM9" s="132"/>
-      <c r="AN9" s="132"/>
-      <c r="AO9" s="132"/>
-      <c r="AP9" s="132"/>
-      <c r="AQ9" s="132"/>
-      <c r="AR9" s="132"/>
-      <c r="AS9" s="132"/>
-      <c r="AT9" s="132"/>
-      <c r="AU9" s="132"/>
-      <c r="AV9" s="132"/>
-      <c r="AW9" s="132"/>
-      <c r="AX9" s="132"/>
-      <c r="AY9" s="132"/>
-      <c r="AZ9" s="132"/>
-      <c r="BA9" s="132"/>
-      <c r="BB9" s="132"/>
-      <c r="BC9" s="132"/>
-      <c r="BD9" s="132"/>
-      <c r="BE9" s="132"/>
-      <c r="BF9" s="132"/>
-      <c r="BG9" s="132"/>
-      <c r="BH9" s="132"/>
-      <c r="BI9" s="132"/>
-      <c r="BJ9" s="132"/>
-      <c r="BK9" s="132"/>
-      <c r="BL9" s="132"/>
-      <c r="BM9" s="132"/>
-      <c r="BN9" s="132"/>
-      <c r="BO9" s="132"/>
-      <c r="BP9" s="132"/>
-      <c r="BQ9" s="132"/>
-      <c r="BR9" s="132"/>
-      <c r="BS9" s="132"/>
-      <c r="BT9" s="132"/>
-      <c r="BU9" s="132"/>
-      <c r="BV9" s="132"/>
-      <c r="BW9" s="132"/>
-      <c r="BX9" s="132"/>
-      <c r="BY9" s="132"/>
-      <c r="BZ9" s="132"/>
-      <c r="CA9" s="132"/>
-      <c r="CB9" s="133"/>
+      <c r="AF9" s="144"/>
+      <c r="AG9" s="144"/>
+      <c r="AH9" s="144"/>
+      <c r="AI9" s="135"/>
+      <c r="AJ9" s="135"/>
+      <c r="AK9" s="135"/>
+      <c r="AL9" s="135"/>
+      <c r="AM9" s="135"/>
+      <c r="AN9" s="135"/>
+      <c r="AO9" s="135"/>
+      <c r="AP9" s="135"/>
+      <c r="AQ9" s="135"/>
+      <c r="AR9" s="135"/>
+      <c r="AS9" s="135"/>
+      <c r="AT9" s="135"/>
+      <c r="AU9" s="135"/>
+      <c r="AV9" s="135"/>
+      <c r="AW9" s="135"/>
+      <c r="AX9" s="135"/>
+      <c r="AY9" s="135"/>
+      <c r="AZ9" s="135"/>
+      <c r="BA9" s="135"/>
+      <c r="BB9" s="135"/>
+      <c r="BC9" s="135"/>
+      <c r="BD9" s="135"/>
+      <c r="BE9" s="135"/>
+      <c r="BF9" s="135"/>
+      <c r="BG9" s="135"/>
+      <c r="BH9" s="135"/>
+      <c r="BI9" s="135"/>
+      <c r="BJ9" s="135"/>
+      <c r="BK9" s="135"/>
+      <c r="BL9" s="135"/>
+      <c r="BM9" s="135"/>
+      <c r="BN9" s="135"/>
+      <c r="BO9" s="135"/>
+      <c r="BP9" s="135"/>
+      <c r="BQ9" s="135"/>
+      <c r="BR9" s="135"/>
+      <c r="BS9" s="135"/>
+      <c r="BT9" s="135"/>
+      <c r="BU9" s="135"/>
+      <c r="BV9" s="135"/>
+      <c r="BW9" s="135"/>
+      <c r="BX9" s="135"/>
+      <c r="BY9" s="135"/>
+      <c r="BZ9" s="135"/>
+      <c r="CA9" s="135"/>
+      <c r="CB9" s="136"/>
     </row>
     <row r="10" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A10" s="292"/>
-      <c r="B10" s="292"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="202"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="218" t="s">
+      <c r="A10" s="300"/>
+      <c r="B10" s="300"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="221" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="219"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="219"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="219"/>
+      <c r="I10" s="222"/>
+      <c r="J10" s="222"/>
+      <c r="K10" s="222"/>
+      <c r="L10" s="222"/>
+      <c r="M10" s="222"/>
       <c r="N10" s="72"/>
       <c r="O10" s="74"/>
       <c r="P10" s="74"/>
@@ -5971,71 +6100,71 @@
       <c r="AB10" s="65"/>
       <c r="AC10" s="66"/>
       <c r="AD10" s="67"/>
-      <c r="AE10" s="208"/>
-      <c r="AF10" s="209"/>
-      <c r="AG10" s="209"/>
-      <c r="AH10" s="209"/>
-      <c r="AI10" s="209"/>
-      <c r="AJ10" s="209"/>
-      <c r="AK10" s="209"/>
-      <c r="AL10" s="209"/>
-      <c r="AM10" s="209"/>
-      <c r="AN10" s="209"/>
-      <c r="AO10" s="209"/>
-      <c r="AP10" s="209"/>
-      <c r="AQ10" s="209"/>
-      <c r="AR10" s="209"/>
-      <c r="AS10" s="209"/>
-      <c r="AT10" s="209"/>
-      <c r="AU10" s="209"/>
-      <c r="AV10" s="209"/>
-      <c r="AW10" s="209"/>
-      <c r="AX10" s="209"/>
-      <c r="AY10" s="209"/>
-      <c r="AZ10" s="209"/>
-      <c r="BA10" s="209"/>
-      <c r="BB10" s="209"/>
-      <c r="BC10" s="209"/>
-      <c r="BD10" s="209"/>
-      <c r="BE10" s="209"/>
-      <c r="BF10" s="209"/>
-      <c r="BG10" s="209"/>
-      <c r="BH10" s="209"/>
-      <c r="BI10" s="209"/>
-      <c r="BJ10" s="209"/>
-      <c r="BK10" s="209"/>
-      <c r="BL10" s="209"/>
-      <c r="BM10" s="209"/>
-      <c r="BN10" s="209"/>
-      <c r="BO10" s="209"/>
-      <c r="BP10" s="209"/>
-      <c r="BQ10" s="209"/>
-      <c r="BR10" s="209"/>
-      <c r="BS10" s="209"/>
-      <c r="BT10" s="209"/>
-      <c r="BU10" s="209"/>
-      <c r="BV10" s="209"/>
-      <c r="BW10" s="209"/>
-      <c r="BX10" s="209"/>
-      <c r="BY10" s="209"/>
-      <c r="BZ10" s="209"/>
-      <c r="CA10" s="209"/>
-      <c r="CB10" s="210"/>
+      <c r="AE10" s="211"/>
+      <c r="AF10" s="212"/>
+      <c r="AG10" s="212"/>
+      <c r="AH10" s="212"/>
+      <c r="AI10" s="212"/>
+      <c r="AJ10" s="212"/>
+      <c r="AK10" s="212"/>
+      <c r="AL10" s="212"/>
+      <c r="AM10" s="212"/>
+      <c r="AN10" s="212"/>
+      <c r="AO10" s="212"/>
+      <c r="AP10" s="212"/>
+      <c r="AQ10" s="212"/>
+      <c r="AR10" s="212"/>
+      <c r="AS10" s="212"/>
+      <c r="AT10" s="212"/>
+      <c r="AU10" s="212"/>
+      <c r="AV10" s="212"/>
+      <c r="AW10" s="212"/>
+      <c r="AX10" s="212"/>
+      <c r="AY10" s="212"/>
+      <c r="AZ10" s="212"/>
+      <c r="BA10" s="212"/>
+      <c r="BB10" s="212"/>
+      <c r="BC10" s="212"/>
+      <c r="BD10" s="212"/>
+      <c r="BE10" s="212"/>
+      <c r="BF10" s="212"/>
+      <c r="BG10" s="212"/>
+      <c r="BH10" s="212"/>
+      <c r="BI10" s="212"/>
+      <c r="BJ10" s="212"/>
+      <c r="BK10" s="212"/>
+      <c r="BL10" s="212"/>
+      <c r="BM10" s="212"/>
+      <c r="BN10" s="212"/>
+      <c r="BO10" s="212"/>
+      <c r="BP10" s="212"/>
+      <c r="BQ10" s="212"/>
+      <c r="BR10" s="212"/>
+      <c r="BS10" s="212"/>
+      <c r="BT10" s="212"/>
+      <c r="BU10" s="212"/>
+      <c r="BV10" s="212"/>
+      <c r="BW10" s="212"/>
+      <c r="BX10" s="212"/>
+      <c r="BY10" s="212"/>
+      <c r="BZ10" s="212"/>
+      <c r="CA10" s="212"/>
+      <c r="CB10" s="213"/>
     </row>
     <row r="11" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A11" s="292"/>
-      <c r="B11" s="292"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="206"/>
-      <c r="G11" s="207"/>
-      <c r="H11" s="220"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="221"/>
-      <c r="K11" s="221"/>
-      <c r="L11" s="221"/>
-      <c r="M11" s="221"/>
+      <c r="A11" s="300"/>
+      <c r="B11" s="300"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="208"/>
+      <c r="F11" s="209"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="223"/>
+      <c r="I11" s="224"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="224"/>
+      <c r="L11" s="224"/>
+      <c r="M11" s="224"/>
       <c r="N11" s="72"/>
       <c r="O11" s="74"/>
       <c r="P11" s="74"/>
@@ -6053,232 +6182,232 @@
       <c r="AB11" s="68"/>
       <c r="AC11" s="69"/>
       <c r="AD11" s="70"/>
-      <c r="AE11" s="211"/>
-      <c r="AF11" s="212"/>
-      <c r="AG11" s="212"/>
-      <c r="AH11" s="212"/>
-      <c r="AI11" s="212"/>
-      <c r="AJ11" s="212"/>
-      <c r="AK11" s="212"/>
-      <c r="AL11" s="212"/>
-      <c r="AM11" s="212"/>
-      <c r="AN11" s="212"/>
-      <c r="AO11" s="212"/>
-      <c r="AP11" s="212"/>
-      <c r="AQ11" s="212"/>
-      <c r="AR11" s="212"/>
-      <c r="AS11" s="212"/>
-      <c r="AT11" s="212"/>
-      <c r="AU11" s="212"/>
-      <c r="AV11" s="212"/>
-      <c r="AW11" s="212"/>
-      <c r="AX11" s="212"/>
-      <c r="AY11" s="212"/>
-      <c r="AZ11" s="212"/>
-      <c r="BA11" s="212"/>
-      <c r="BB11" s="212"/>
-      <c r="BC11" s="212"/>
-      <c r="BD11" s="212"/>
-      <c r="BE11" s="212"/>
-      <c r="BF11" s="212"/>
-      <c r="BG11" s="212"/>
-      <c r="BH11" s="212"/>
-      <c r="BI11" s="212"/>
-      <c r="BJ11" s="212"/>
-      <c r="BK11" s="212"/>
-      <c r="BL11" s="212"/>
-      <c r="BM11" s="212"/>
-      <c r="BN11" s="212"/>
-      <c r="BO11" s="212"/>
-      <c r="BP11" s="212"/>
-      <c r="BQ11" s="212"/>
-      <c r="BR11" s="212"/>
-      <c r="BS11" s="212"/>
-      <c r="BT11" s="212"/>
-      <c r="BU11" s="212"/>
-      <c r="BV11" s="212"/>
-      <c r="BW11" s="212"/>
-      <c r="BX11" s="212"/>
-      <c r="BY11" s="212"/>
-      <c r="BZ11" s="212"/>
-      <c r="CA11" s="212"/>
-      <c r="CB11" s="213"/>
+      <c r="AE11" s="214"/>
+      <c r="AF11" s="215"/>
+      <c r="AG11" s="215"/>
+      <c r="AH11" s="215"/>
+      <c r="AI11" s="215"/>
+      <c r="AJ11" s="215"/>
+      <c r="AK11" s="215"/>
+      <c r="AL11" s="215"/>
+      <c r="AM11" s="215"/>
+      <c r="AN11" s="215"/>
+      <c r="AO11" s="215"/>
+      <c r="AP11" s="215"/>
+      <c r="AQ11" s="215"/>
+      <c r="AR11" s="215"/>
+      <c r="AS11" s="215"/>
+      <c r="AT11" s="215"/>
+      <c r="AU11" s="215"/>
+      <c r="AV11" s="215"/>
+      <c r="AW11" s="215"/>
+      <c r="AX11" s="215"/>
+      <c r="AY11" s="215"/>
+      <c r="AZ11" s="215"/>
+      <c r="BA11" s="215"/>
+      <c r="BB11" s="215"/>
+      <c r="BC11" s="215"/>
+      <c r="BD11" s="215"/>
+      <c r="BE11" s="215"/>
+      <c r="BF11" s="215"/>
+      <c r="BG11" s="215"/>
+      <c r="BH11" s="215"/>
+      <c r="BI11" s="215"/>
+      <c r="BJ11" s="215"/>
+      <c r="BK11" s="215"/>
+      <c r="BL11" s="215"/>
+      <c r="BM11" s="215"/>
+      <c r="BN11" s="215"/>
+      <c r="BO11" s="215"/>
+      <c r="BP11" s="215"/>
+      <c r="BQ11" s="215"/>
+      <c r="BR11" s="215"/>
+      <c r="BS11" s="215"/>
+      <c r="BT11" s="215"/>
+      <c r="BU11" s="215"/>
+      <c r="BV11" s="215"/>
+      <c r="BW11" s="215"/>
+      <c r="BX11" s="215"/>
+      <c r="BY11" s="215"/>
+      <c r="BZ11" s="215"/>
+      <c r="CA11" s="215"/>
+      <c r="CB11" s="216"/>
     </row>
     <row r="12" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A12" s="292"/>
-      <c r="B12" s="292"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
+      <c r="A12" s="300"/>
+      <c r="B12" s="300"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
       <c r="E12" s="89" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="90"/>
       <c r="G12" s="91"/>
-      <c r="H12" s="247" t="s">
+      <c r="H12" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="248"/>
-      <c r="J12" s="222" t="s">
+      <c r="I12" s="251"/>
+      <c r="J12" s="225" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="222"/>
-      <c r="L12" s="222"/>
-      <c r="M12" s="223"/>
-      <c r="N12" s="214"/>
-      <c r="O12" s="215"/>
-      <c r="P12" s="215"/>
-      <c r="Q12" s="215"/>
-      <c r="R12" s="215"/>
-      <c r="S12" s="215"/>
-      <c r="T12" s="215"/>
-      <c r="U12" s="215"/>
-      <c r="V12" s="215"/>
-      <c r="W12" s="215"/>
-      <c r="X12" s="215"/>
-      <c r="Y12" s="215"/>
-      <c r="Z12" s="215"/>
-      <c r="AA12" s="215"/>
-      <c r="AB12" s="215"/>
-      <c r="AC12" s="215"/>
-      <c r="AD12" s="215"/>
-      <c r="AE12" s="215"/>
-      <c r="AF12" s="215"/>
-      <c r="AG12" s="215"/>
-      <c r="AH12" s="215"/>
-      <c r="AI12" s="215"/>
-      <c r="AJ12" s="215"/>
-      <c r="AK12" s="215"/>
-      <c r="AL12" s="215"/>
-      <c r="AM12" s="215"/>
-      <c r="AN12" s="215"/>
-      <c r="AO12" s="215"/>
-      <c r="AP12" s="215"/>
-      <c r="AQ12" s="215"/>
-      <c r="AR12" s="215"/>
-      <c r="AS12" s="215"/>
-      <c r="AT12" s="215"/>
-      <c r="AU12" s="215"/>
-      <c r="AV12" s="215"/>
-      <c r="AW12" s="215"/>
-      <c r="AX12" s="215"/>
-      <c r="AY12" s="215"/>
-      <c r="AZ12" s="215"/>
-      <c r="BA12" s="215"/>
-      <c r="BB12" s="215"/>
-      <c r="BC12" s="215"/>
-      <c r="BD12" s="215"/>
-      <c r="BE12" s="215"/>
-      <c r="BF12" s="215"/>
-      <c r="BG12" s="215"/>
-      <c r="BH12" s="215"/>
-      <c r="BI12" s="215"/>
-      <c r="BJ12" s="215"/>
-      <c r="BK12" s="215"/>
-      <c r="BL12" s="215"/>
-      <c r="BM12" s="215"/>
-      <c r="BN12" s="215"/>
-      <c r="BO12" s="215"/>
-      <c r="BP12" s="215"/>
-      <c r="BQ12" s="215"/>
-      <c r="BR12" s="215"/>
-      <c r="BS12" s="215"/>
-      <c r="BT12" s="215"/>
-      <c r="BU12" s="215"/>
-      <c r="BV12" s="215"/>
-      <c r="BW12" s="215"/>
-      <c r="BX12" s="215"/>
-      <c r="BY12" s="215"/>
-      <c r="BZ12" s="215"/>
-      <c r="CA12" s="215"/>
-      <c r="CB12" s="216"/>
+      <c r="K12" s="225"/>
+      <c r="L12" s="225"/>
+      <c r="M12" s="226"/>
+      <c r="N12" s="217"/>
+      <c r="O12" s="218"/>
+      <c r="P12" s="218"/>
+      <c r="Q12" s="218"/>
+      <c r="R12" s="218"/>
+      <c r="S12" s="218"/>
+      <c r="T12" s="218"/>
+      <c r="U12" s="218"/>
+      <c r="V12" s="218"/>
+      <c r="W12" s="218"/>
+      <c r="X12" s="218"/>
+      <c r="Y12" s="218"/>
+      <c r="Z12" s="218"/>
+      <c r="AA12" s="218"/>
+      <c r="AB12" s="218"/>
+      <c r="AC12" s="218"/>
+      <c r="AD12" s="218"/>
+      <c r="AE12" s="218"/>
+      <c r="AF12" s="218"/>
+      <c r="AG12" s="218"/>
+      <c r="AH12" s="218"/>
+      <c r="AI12" s="218"/>
+      <c r="AJ12" s="218"/>
+      <c r="AK12" s="218"/>
+      <c r="AL12" s="218"/>
+      <c r="AM12" s="218"/>
+      <c r="AN12" s="218"/>
+      <c r="AO12" s="218"/>
+      <c r="AP12" s="218"/>
+      <c r="AQ12" s="218"/>
+      <c r="AR12" s="218"/>
+      <c r="AS12" s="218"/>
+      <c r="AT12" s="218"/>
+      <c r="AU12" s="218"/>
+      <c r="AV12" s="218"/>
+      <c r="AW12" s="218"/>
+      <c r="AX12" s="218"/>
+      <c r="AY12" s="218"/>
+      <c r="AZ12" s="218"/>
+      <c r="BA12" s="218"/>
+      <c r="BB12" s="218"/>
+      <c r="BC12" s="218"/>
+      <c r="BD12" s="218"/>
+      <c r="BE12" s="218"/>
+      <c r="BF12" s="218"/>
+      <c r="BG12" s="218"/>
+      <c r="BH12" s="218"/>
+      <c r="BI12" s="218"/>
+      <c r="BJ12" s="218"/>
+      <c r="BK12" s="218"/>
+      <c r="BL12" s="218"/>
+      <c r="BM12" s="218"/>
+      <c r="BN12" s="218"/>
+      <c r="BO12" s="218"/>
+      <c r="BP12" s="218"/>
+      <c r="BQ12" s="218"/>
+      <c r="BR12" s="218"/>
+      <c r="BS12" s="218"/>
+      <c r="BT12" s="218"/>
+      <c r="BU12" s="218"/>
+      <c r="BV12" s="218"/>
+      <c r="BW12" s="218"/>
+      <c r="BX12" s="218"/>
+      <c r="BY12" s="218"/>
+      <c r="BZ12" s="218"/>
+      <c r="CA12" s="218"/>
+      <c r="CB12" s="219"/>
     </row>
     <row r="13" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A13" s="292"/>
-      <c r="B13" s="292"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
+      <c r="A13" s="300"/>
+      <c r="B13" s="300"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
       <c r="E13" s="92"/>
       <c r="F13" s="93"/>
       <c r="G13" s="94"/>
       <c r="H13" s="15"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="221"/>
-      <c r="K13" s="221"/>
-      <c r="L13" s="221"/>
-      <c r="M13" s="224"/>
-      <c r="N13" s="211"/>
-      <c r="O13" s="212"/>
-      <c r="P13" s="212"/>
-      <c r="Q13" s="212"/>
-      <c r="R13" s="212"/>
-      <c r="S13" s="212"/>
-      <c r="T13" s="212"/>
-      <c r="U13" s="212"/>
-      <c r="V13" s="212"/>
-      <c r="W13" s="212"/>
-      <c r="X13" s="212"/>
-      <c r="Y13" s="212"/>
-      <c r="Z13" s="212"/>
-      <c r="AA13" s="212"/>
-      <c r="AB13" s="212"/>
-      <c r="AC13" s="212"/>
-      <c r="AD13" s="212"/>
-      <c r="AE13" s="212"/>
-      <c r="AF13" s="212"/>
-      <c r="AG13" s="212"/>
-      <c r="AH13" s="212"/>
-      <c r="AI13" s="212"/>
-      <c r="AJ13" s="212"/>
-      <c r="AK13" s="212"/>
-      <c r="AL13" s="212"/>
-      <c r="AM13" s="212"/>
-      <c r="AN13" s="212"/>
-      <c r="AO13" s="212"/>
-      <c r="AP13" s="212"/>
-      <c r="AQ13" s="212"/>
-      <c r="AR13" s="212"/>
-      <c r="AS13" s="212"/>
-      <c r="AT13" s="212"/>
-      <c r="AU13" s="212"/>
-      <c r="AV13" s="212"/>
-      <c r="AW13" s="212"/>
-      <c r="AX13" s="212"/>
-      <c r="AY13" s="212"/>
-      <c r="AZ13" s="212"/>
-      <c r="BA13" s="212"/>
-      <c r="BB13" s="212"/>
-      <c r="BC13" s="212"/>
-      <c r="BD13" s="212"/>
-      <c r="BE13" s="212"/>
-      <c r="BF13" s="212"/>
-      <c r="BG13" s="212"/>
-      <c r="BH13" s="212"/>
-      <c r="BI13" s="212"/>
-      <c r="BJ13" s="212"/>
-      <c r="BK13" s="212"/>
-      <c r="BL13" s="212"/>
-      <c r="BM13" s="212"/>
-      <c r="BN13" s="212"/>
-      <c r="BO13" s="212"/>
-      <c r="BP13" s="212"/>
-      <c r="BQ13" s="212"/>
-      <c r="BR13" s="212"/>
-      <c r="BS13" s="212"/>
-      <c r="BT13" s="212"/>
-      <c r="BU13" s="212"/>
-      <c r="BV13" s="212"/>
-      <c r="BW13" s="212"/>
-      <c r="BX13" s="212"/>
-      <c r="BY13" s="212"/>
-      <c r="BZ13" s="212"/>
-      <c r="CA13" s="212"/>
-      <c r="CB13" s="213"/>
+      <c r="J13" s="224"/>
+      <c r="K13" s="224"/>
+      <c r="L13" s="224"/>
+      <c r="M13" s="227"/>
+      <c r="N13" s="214"/>
+      <c r="O13" s="215"/>
+      <c r="P13" s="215"/>
+      <c r="Q13" s="215"/>
+      <c r="R13" s="215"/>
+      <c r="S13" s="215"/>
+      <c r="T13" s="215"/>
+      <c r="U13" s="215"/>
+      <c r="V13" s="215"/>
+      <c r="W13" s="215"/>
+      <c r="X13" s="215"/>
+      <c r="Y13" s="215"/>
+      <c r="Z13" s="215"/>
+      <c r="AA13" s="215"/>
+      <c r="AB13" s="215"/>
+      <c r="AC13" s="215"/>
+      <c r="AD13" s="215"/>
+      <c r="AE13" s="215"/>
+      <c r="AF13" s="215"/>
+      <c r="AG13" s="215"/>
+      <c r="AH13" s="215"/>
+      <c r="AI13" s="215"/>
+      <c r="AJ13" s="215"/>
+      <c r="AK13" s="215"/>
+      <c r="AL13" s="215"/>
+      <c r="AM13" s="215"/>
+      <c r="AN13" s="215"/>
+      <c r="AO13" s="215"/>
+      <c r="AP13" s="215"/>
+      <c r="AQ13" s="215"/>
+      <c r="AR13" s="215"/>
+      <c r="AS13" s="215"/>
+      <c r="AT13" s="215"/>
+      <c r="AU13" s="215"/>
+      <c r="AV13" s="215"/>
+      <c r="AW13" s="215"/>
+      <c r="AX13" s="215"/>
+      <c r="AY13" s="215"/>
+      <c r="AZ13" s="215"/>
+      <c r="BA13" s="215"/>
+      <c r="BB13" s="215"/>
+      <c r="BC13" s="215"/>
+      <c r="BD13" s="215"/>
+      <c r="BE13" s="215"/>
+      <c r="BF13" s="215"/>
+      <c r="BG13" s="215"/>
+      <c r="BH13" s="215"/>
+      <c r="BI13" s="215"/>
+      <c r="BJ13" s="215"/>
+      <c r="BK13" s="215"/>
+      <c r="BL13" s="215"/>
+      <c r="BM13" s="215"/>
+      <c r="BN13" s="215"/>
+      <c r="BO13" s="215"/>
+      <c r="BP13" s="215"/>
+      <c r="BQ13" s="215"/>
+      <c r="BR13" s="215"/>
+      <c r="BS13" s="215"/>
+      <c r="BT13" s="215"/>
+      <c r="BU13" s="215"/>
+      <c r="BV13" s="215"/>
+      <c r="BW13" s="215"/>
+      <c r="BX13" s="215"/>
+      <c r="BY13" s="215"/>
+      <c r="BZ13" s="215"/>
+      <c r="CA13" s="215"/>
+      <c r="CB13" s="216"/>
     </row>
     <row r="14" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A14" s="292"/>
-      <c r="B14" s="292"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
+      <c r="A14" s="300"/>
+      <c r="B14" s="300"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
       <c r="E14" s="85" t="s">
         <v>5</v>
       </c>
@@ -6287,14 +6416,14 @@
       <c r="H14" s="85"/>
       <c r="I14" s="85"/>
       <c r="J14" s="86"/>
-      <c r="K14" s="225" t="s">
+      <c r="K14" s="228" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="226"/>
-      <c r="M14" s="226"/>
-      <c r="N14" s="227"/>
+      <c r="L14" s="229"/>
+      <c r="M14" s="229"/>
+      <c r="N14" s="230"/>
       <c r="O14" s="56"/>
-      <c r="P14" s="155"/>
+      <c r="P14" s="158"/>
       <c r="Q14" s="112"/>
       <c r="R14" s="108"/>
       <c r="S14" s="108"/>
@@ -6303,51 +6432,51 @@
       <c r="V14" s="108"/>
       <c r="W14" s="108"/>
       <c r="X14" s="109"/>
-      <c r="Y14" s="155"/>
-      <c r="Z14" s="156"/>
-      <c r="AA14" s="119"/>
-      <c r="AB14" s="120"/>
-      <c r="AC14" s="121"/>
+      <c r="Y14" s="158"/>
+      <c r="Z14" s="159"/>
+      <c r="AA14" s="122"/>
+      <c r="AB14" s="123"/>
+      <c r="AC14" s="124"/>
       <c r="AD14" s="76" t="s">
         <v>14</v>
       </c>
       <c r="AE14" s="77"/>
       <c r="AF14" s="77"/>
       <c r="AG14" s="77"/>
-      <c r="AH14" s="303" t="s">
+      <c r="AH14" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="AI14" s="304"/>
-      <c r="AJ14" s="304"/>
-      <c r="AK14" s="304"/>
-      <c r="AL14" s="304"/>
-      <c r="AM14" s="304"/>
-      <c r="AN14" s="304"/>
-      <c r="AO14" s="304"/>
-      <c r="AP14" s="304"/>
-      <c r="AQ14" s="304"/>
-      <c r="AR14" s="304"/>
-      <c r="AS14" s="304"/>
-      <c r="AT14" s="304"/>
-      <c r="AU14" s="304"/>
-      <c r="AV14" s="304"/>
-      <c r="AW14" s="304"/>
-      <c r="AX14" s="304"/>
-      <c r="AY14" s="304"/>
-      <c r="AZ14" s="304"/>
-      <c r="BA14" s="304"/>
-      <c r="BB14" s="304"/>
-      <c r="BC14" s="304"/>
-      <c r="BD14" s="304"/>
-      <c r="BE14" s="304"/>
-      <c r="BF14" s="304"/>
-      <c r="BG14" s="304"/>
-      <c r="BH14" s="304"/>
-      <c r="BI14" s="304"/>
-      <c r="BJ14" s="304"/>
-      <c r="BK14" s="304"/>
-      <c r="BL14" s="304"/>
-      <c r="BM14" s="305"/>
+      <c r="AI14" s="117"/>
+      <c r="AJ14" s="117"/>
+      <c r="AK14" s="117"/>
+      <c r="AL14" s="117"/>
+      <c r="AM14" s="117"/>
+      <c r="AN14" s="117"/>
+      <c r="AO14" s="117"/>
+      <c r="AP14" s="117"/>
+      <c r="AQ14" s="117"/>
+      <c r="AR14" s="117"/>
+      <c r="AS14" s="117"/>
+      <c r="AT14" s="117"/>
+      <c r="AU14" s="117"/>
+      <c r="AV14" s="117"/>
+      <c r="AW14" s="117"/>
+      <c r="AX14" s="117"/>
+      <c r="AY14" s="117"/>
+      <c r="AZ14" s="117"/>
+      <c r="BA14" s="117"/>
+      <c r="BB14" s="117"/>
+      <c r="BC14" s="117"/>
+      <c r="BD14" s="117"/>
+      <c r="BE14" s="117"/>
+      <c r="BF14" s="117"/>
+      <c r="BG14" s="117"/>
+      <c r="BH14" s="117"/>
+      <c r="BI14" s="117"/>
+      <c r="BJ14" s="117"/>
+      <c r="BK14" s="117"/>
+      <c r="BL14" s="117"/>
+      <c r="BM14" s="118"/>
       <c r="BN14" s="33"/>
       <c r="BO14" s="33"/>
       <c r="BP14" s="33"/>
@@ -6365,20 +6494,20 @@
       <c r="CB14" s="33"/>
     </row>
     <row r="15" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A15" s="292"/>
-      <c r="B15" s="292"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
+      <c r="A15" s="300"/>
+      <c r="B15" s="300"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="168"/>
       <c r="E15" s="85"/>
       <c r="F15" s="85"/>
       <c r="G15" s="85"/>
       <c r="H15" s="85"/>
       <c r="I15" s="85"/>
       <c r="J15" s="86"/>
-      <c r="K15" s="225"/>
-      <c r="L15" s="226"/>
-      <c r="M15" s="226"/>
-      <c r="N15" s="227"/>
+      <c r="K15" s="228"/>
+      <c r="L15" s="229"/>
+      <c r="M15" s="229"/>
+      <c r="N15" s="230"/>
       <c r="O15" s="53"/>
       <c r="P15" s="54"/>
       <c r="Q15" s="107"/>
@@ -6391,45 +6520,45 @@
       <c r="X15" s="111"/>
       <c r="Y15" s="54"/>
       <c r="Z15" s="73"/>
-      <c r="AA15" s="122"/>
-      <c r="AB15" s="123"/>
-      <c r="AC15" s="124"/>
+      <c r="AA15" s="125"/>
+      <c r="AB15" s="126"/>
+      <c r="AC15" s="127"/>
       <c r="AD15" s="78"/>
       <c r="AE15" s="79"/>
       <c r="AF15" s="79"/>
       <c r="AG15" s="79"/>
-      <c r="AH15" s="116"/>
-      <c r="AI15" s="117"/>
-      <c r="AJ15" s="117"/>
-      <c r="AK15" s="117"/>
-      <c r="AL15" s="117"/>
-      <c r="AM15" s="117"/>
-      <c r="AN15" s="117"/>
-      <c r="AO15" s="117"/>
-      <c r="AP15" s="117"/>
-      <c r="AQ15" s="117"/>
-      <c r="AR15" s="117"/>
-      <c r="AS15" s="117"/>
-      <c r="AT15" s="117"/>
-      <c r="AU15" s="117"/>
-      <c r="AV15" s="117"/>
-      <c r="AW15" s="117"/>
-      <c r="AX15" s="117"/>
-      <c r="AY15" s="117"/>
-      <c r="AZ15" s="117"/>
-      <c r="BA15" s="117"/>
-      <c r="BB15" s="117"/>
-      <c r="BC15" s="117"/>
-      <c r="BD15" s="117"/>
-      <c r="BE15" s="117"/>
-      <c r="BF15" s="117"/>
-      <c r="BG15" s="117"/>
-      <c r="BH15" s="117"/>
-      <c r="BI15" s="117"/>
-      <c r="BJ15" s="117"/>
-      <c r="BK15" s="117"/>
-      <c r="BL15" s="117"/>
-      <c r="BM15" s="118"/>
+      <c r="AH15" s="119"/>
+      <c r="AI15" s="120"/>
+      <c r="AJ15" s="120"/>
+      <c r="AK15" s="120"/>
+      <c r="AL15" s="120"/>
+      <c r="AM15" s="120"/>
+      <c r="AN15" s="120"/>
+      <c r="AO15" s="120"/>
+      <c r="AP15" s="120"/>
+      <c r="AQ15" s="120"/>
+      <c r="AR15" s="120"/>
+      <c r="AS15" s="120"/>
+      <c r="AT15" s="120"/>
+      <c r="AU15" s="120"/>
+      <c r="AV15" s="120"/>
+      <c r="AW15" s="120"/>
+      <c r="AX15" s="120"/>
+      <c r="AY15" s="120"/>
+      <c r="AZ15" s="120"/>
+      <c r="BA15" s="120"/>
+      <c r="BB15" s="120"/>
+      <c r="BC15" s="120"/>
+      <c r="BD15" s="120"/>
+      <c r="BE15" s="120"/>
+      <c r="BF15" s="120"/>
+      <c r="BG15" s="120"/>
+      <c r="BH15" s="120"/>
+      <c r="BI15" s="120"/>
+      <c r="BJ15" s="120"/>
+      <c r="BK15" s="120"/>
+      <c r="BL15" s="120"/>
+      <c r="BM15" s="121"/>
       <c r="BN15" s="5"/>
       <c r="BO15" s="9"/>
       <c r="BP15" s="9"/>
@@ -6448,10 +6577,10 @@
       <c r="CC15" s="2"/>
     </row>
     <row r="16" spans="1:81" ht="12.75" customHeight="1">
-      <c r="A16" s="292"/>
-      <c r="B16" s="292"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="165"/>
+      <c r="A16" s="300"/>
+      <c r="B16" s="300"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6532,142 +6661,142 @@
       <c r="CB16" s="9"/>
     </row>
     <row r="17" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A17" s="292"/>
-      <c r="B17" s="292"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
+      <c r="A17" s="300"/>
+      <c r="B17" s="300"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="168"/>
       <c r="F17" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A18" s="292"/>
-      <c r="B18" s="292"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="165"/>
+      <c r="A18" s="300"/>
+      <c r="B18" s="300"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="168"/>
       <c r="F18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AN18" s="135" t="s">
+      <c r="AN18" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="AO18" s="135"/>
-      <c r="AP18" s="135"/>
-      <c r="AQ18" s="135"/>
-      <c r="AR18" s="135"/>
-      <c r="AS18" s="135"/>
-      <c r="AT18" s="135"/>
-      <c r="AU18" s="135"/>
-      <c r="AV18" s="135"/>
-      <c r="AW18" s="135"/>
-      <c r="AX18" s="135"/>
-      <c r="AY18" s="135"/>
-      <c r="AZ18" s="135"/>
-      <c r="BA18" s="135"/>
-      <c r="BB18" s="135"/>
-      <c r="BC18" s="135"/>
-      <c r="BD18" s="135"/>
-      <c r="BE18" s="135"/>
-      <c r="BF18" s="135"/>
-      <c r="BG18" s="135"/>
-      <c r="BH18" s="135"/>
-      <c r="BI18" s="135"/>
-      <c r="BJ18" s="135"/>
-      <c r="BK18" s="135"/>
-      <c r="BL18" s="135"/>
-      <c r="BM18" s="135"/>
-      <c r="BN18" s="135"/>
-      <c r="BO18" s="135"/>
-      <c r="BP18" s="135"/>
-      <c r="BQ18" s="135"/>
-      <c r="BR18" s="135"/>
-      <c r="BS18" s="135"/>
-      <c r="BT18" s="135"/>
-      <c r="BU18" s="135"/>
-      <c r="BV18" s="135"/>
-      <c r="BW18" s="135"/>
+      <c r="AO18" s="138"/>
+      <c r="AP18" s="138"/>
+      <c r="AQ18" s="138"/>
+      <c r="AR18" s="138"/>
+      <c r="AS18" s="138"/>
+      <c r="AT18" s="138"/>
+      <c r="AU18" s="138"/>
+      <c r="AV18" s="138"/>
+      <c r="AW18" s="138"/>
+      <c r="AX18" s="138"/>
+      <c r="AY18" s="138"/>
+      <c r="AZ18" s="138"/>
+      <c r="BA18" s="138"/>
+      <c r="BB18" s="138"/>
+      <c r="BC18" s="138"/>
+      <c r="BD18" s="138"/>
+      <c r="BE18" s="138"/>
+      <c r="BF18" s="138"/>
+      <c r="BG18" s="138"/>
+      <c r="BH18" s="138"/>
+      <c r="BI18" s="138"/>
+      <c r="BJ18" s="138"/>
+      <c r="BK18" s="138"/>
+      <c r="BL18" s="138"/>
+      <c r="BM18" s="138"/>
+      <c r="BN18" s="138"/>
+      <c r="BO18" s="138"/>
+      <c r="BP18" s="138"/>
+      <c r="BQ18" s="138"/>
+      <c r="BR18" s="138"/>
+      <c r="BS18" s="138"/>
+      <c r="BT18" s="138"/>
+      <c r="BU18" s="138"/>
+      <c r="BV18" s="138"/>
+      <c r="BW18" s="138"/>
     </row>
     <row r="19" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A19" s="292"/>
-      <c r="B19" s="292"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="249" t="s">
+      <c r="A19" s="300"/>
+      <c r="B19" s="300"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="252" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="250"/>
-      <c r="G19" s="250"/>
-      <c r="H19" s="250"/>
-      <c r="I19" s="250"/>
-      <c r="J19" s="250"/>
-      <c r="K19" s="250"/>
-      <c r="L19" s="250"/>
-      <c r="M19" s="250"/>
-      <c r="N19" s="250"/>
-      <c r="O19" s="250"/>
-      <c r="P19" s="250"/>
-      <c r="Q19" s="250"/>
-      <c r="R19" s="250"/>
-      <c r="S19" s="250"/>
-      <c r="T19" s="250"/>
-      <c r="U19" s="250"/>
-      <c r="V19" s="250"/>
-      <c r="W19" s="250"/>
-      <c r="X19" s="250"/>
-      <c r="Y19" s="250"/>
-      <c r="Z19" s="250"/>
-      <c r="AA19" s="250"/>
-      <c r="AB19" s="250"/>
-      <c r="AC19" s="250"/>
-      <c r="AD19" s="250"/>
-      <c r="AE19" s="250"/>
-      <c r="AF19" s="250"/>
-      <c r="AG19" s="250"/>
-      <c r="AH19" s="250"/>
-      <c r="AI19" s="250"/>
-      <c r="AJ19" s="250"/>
-      <c r="AN19" s="135"/>
-      <c r="AO19" s="135"/>
-      <c r="AP19" s="135"/>
-      <c r="AQ19" s="135"/>
-      <c r="AR19" s="135"/>
-      <c r="AS19" s="135"/>
-      <c r="AT19" s="135"/>
-      <c r="AU19" s="135"/>
-      <c r="AV19" s="135"/>
-      <c r="AW19" s="135"/>
-      <c r="AX19" s="135"/>
-      <c r="AY19" s="135"/>
-      <c r="AZ19" s="135"/>
-      <c r="BA19" s="135"/>
-      <c r="BB19" s="135"/>
-      <c r="BC19" s="135"/>
-      <c r="BD19" s="135"/>
-      <c r="BE19" s="135"/>
-      <c r="BF19" s="135"/>
-      <c r="BG19" s="135"/>
-      <c r="BH19" s="135"/>
-      <c r="BI19" s="135"/>
-      <c r="BJ19" s="135"/>
-      <c r="BK19" s="135"/>
-      <c r="BL19" s="135"/>
-      <c r="BM19" s="135"/>
-      <c r="BN19" s="135"/>
-      <c r="BO19" s="135"/>
-      <c r="BP19" s="135"/>
-      <c r="BQ19" s="135"/>
-      <c r="BR19" s="135"/>
-      <c r="BS19" s="135"/>
-      <c r="BT19" s="135"/>
-      <c r="BU19" s="135"/>
-      <c r="BV19" s="135"/>
-      <c r="BW19" s="135"/>
+      <c r="F19" s="253"/>
+      <c r="G19" s="253"/>
+      <c r="H19" s="253"/>
+      <c r="I19" s="253"/>
+      <c r="J19" s="253"/>
+      <c r="K19" s="253"/>
+      <c r="L19" s="253"/>
+      <c r="M19" s="253"/>
+      <c r="N19" s="253"/>
+      <c r="O19" s="253"/>
+      <c r="P19" s="253"/>
+      <c r="Q19" s="253"/>
+      <c r="R19" s="253"/>
+      <c r="S19" s="253"/>
+      <c r="T19" s="253"/>
+      <c r="U19" s="253"/>
+      <c r="V19" s="253"/>
+      <c r="W19" s="253"/>
+      <c r="X19" s="253"/>
+      <c r="Y19" s="253"/>
+      <c r="Z19" s="253"/>
+      <c r="AA19" s="253"/>
+      <c r="AB19" s="253"/>
+      <c r="AC19" s="253"/>
+      <c r="AD19" s="253"/>
+      <c r="AE19" s="253"/>
+      <c r="AF19" s="253"/>
+      <c r="AG19" s="253"/>
+      <c r="AH19" s="253"/>
+      <c r="AI19" s="253"/>
+      <c r="AJ19" s="253"/>
+      <c r="AN19" s="138"/>
+      <c r="AO19" s="138"/>
+      <c r="AP19" s="138"/>
+      <c r="AQ19" s="138"/>
+      <c r="AR19" s="138"/>
+      <c r="AS19" s="138"/>
+      <c r="AT19" s="138"/>
+      <c r="AU19" s="138"/>
+      <c r="AV19" s="138"/>
+      <c r="AW19" s="138"/>
+      <c r="AX19" s="138"/>
+      <c r="AY19" s="138"/>
+      <c r="AZ19" s="138"/>
+      <c r="BA19" s="138"/>
+      <c r="BB19" s="138"/>
+      <c r="BC19" s="138"/>
+      <c r="BD19" s="138"/>
+      <c r="BE19" s="138"/>
+      <c r="BF19" s="138"/>
+      <c r="BG19" s="138"/>
+      <c r="BH19" s="138"/>
+      <c r="BI19" s="138"/>
+      <c r="BJ19" s="138"/>
+      <c r="BK19" s="138"/>
+      <c r="BL19" s="138"/>
+      <c r="BM19" s="138"/>
+      <c r="BN19" s="138"/>
+      <c r="BO19" s="138"/>
+      <c r="BP19" s="138"/>
+      <c r="BQ19" s="138"/>
+      <c r="BR19" s="138"/>
+      <c r="BS19" s="138"/>
+      <c r="BT19" s="138"/>
+      <c r="BU19" s="138"/>
+      <c r="BV19" s="138"/>
+      <c r="BW19" s="138"/>
     </row>
     <row r="20" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A20" s="292"/>
-      <c r="B20" s="292"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
+      <c r="A20" s="300"/>
+      <c r="B20" s="300"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
       <c r="E20" s="99" t="s">
         <v>43</v>
       </c>
@@ -6724,12 +6853,12 @@
       </c>
       <c r="AY20" s="19"/>
       <c r="AZ20" s="19"/>
-      <c r="BA20" s="125"/>
-      <c r="BB20" s="125"/>
-      <c r="BC20" s="125"/>
-      <c r="BD20" s="125"/>
-      <c r="BE20" s="125"/>
-      <c r="BF20" s="125"/>
+      <c r="BA20" s="128"/>
+      <c r="BB20" s="128"/>
+      <c r="BC20" s="128"/>
+      <c r="BD20" s="128"/>
+      <c r="BE20" s="128"/>
+      <c r="BF20" s="128"/>
       <c r="BG20" s="102"/>
       <c r="BH20" s="103"/>
       <c r="BI20" s="103"/>
@@ -6741,17 +6870,17 @@
       <c r="BO20" s="104"/>
     </row>
     <row r="21" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A21" s="292"/>
-      <c r="B21" s="292"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="166"/>
+      <c r="A21" s="300"/>
+      <c r="B21" s="300"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="169"/>
       <c r="F21" s="74"/>
       <c r="G21" s="74"/>
       <c r="H21" s="74"/>
       <c r="I21" s="74"/>
       <c r="J21" s="74"/>
-      <c r="K21" s="234"/>
+      <c r="K21" s="237"/>
       <c r="L21" s="71"/>
       <c r="M21" s="71"/>
       <c r="N21" s="72"/>
@@ -6761,7 +6890,7 @@
       <c r="R21" s="74"/>
       <c r="S21" s="74"/>
       <c r="T21" s="75"/>
-      <c r="U21" s="169"/>
+      <c r="U21" s="172"/>
       <c r="V21" s="74"/>
       <c r="W21" s="74"/>
       <c r="X21" s="74"/>
@@ -6769,13 +6898,13 @@
       <c r="Z21" s="56"/>
       <c r="AA21" s="55"/>
       <c r="AB21" s="80"/>
-      <c r="AC21" s="126" t="s">
+      <c r="AC21" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="AD21" s="127"/>
-      <c r="AE21" s="127"/>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="217"/>
+      <c r="AD21" s="130"/>
+      <c r="AE21" s="130"/>
+      <c r="AF21" s="131"/>
+      <c r="AG21" s="220"/>
       <c r="AH21" s="105"/>
       <c r="AI21" s="105"/>
       <c r="AJ21" s="106"/>
@@ -6786,14 +6915,14 @@
       <c r="AO21" s="51"/>
       <c r="AP21" s="52"/>
       <c r="AQ21" s="52"/>
-      <c r="AR21" s="134"/>
-      <c r="AS21" s="170" t="s">
+      <c r="AR21" s="137"/>
+      <c r="AS21" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="AT21" s="171"/>
-      <c r="AU21" s="171"/>
-      <c r="AV21" s="171"/>
-      <c r="AW21" s="172"/>
+      <c r="AT21" s="174"/>
+      <c r="AU21" s="174"/>
+      <c r="AV21" s="174"/>
+      <c r="AW21" s="175"/>
       <c r="AX21" s="21" t="s">
         <v>19</v>
       </c>
@@ -6818,17 +6947,17 @@
       <c r="BO21" s="114"/>
     </row>
     <row r="22" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A22" s="292"/>
-      <c r="B22" s="292"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="166"/>
+      <c r="A22" s="300"/>
+      <c r="B22" s="300"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="169"/>
       <c r="F22" s="74"/>
       <c r="G22" s="74"/>
       <c r="H22" s="74"/>
       <c r="I22" s="74"/>
       <c r="J22" s="74"/>
-      <c r="K22" s="234"/>
+      <c r="K22" s="237"/>
       <c r="L22" s="71"/>
       <c r="M22" s="71"/>
       <c r="N22" s="72"/>
@@ -6838,7 +6967,7 @@
       <c r="R22" s="74"/>
       <c r="S22" s="74"/>
       <c r="T22" s="75"/>
-      <c r="U22" s="169"/>
+      <c r="U22" s="172"/>
       <c r="V22" s="74"/>
       <c r="W22" s="74"/>
       <c r="X22" s="74"/>
@@ -6846,10 +6975,10 @@
       <c r="Z22" s="53"/>
       <c r="AA22" s="57"/>
       <c r="AB22" s="81"/>
-      <c r="AC22" s="129"/>
-      <c r="AD22" s="130"/>
-      <c r="AE22" s="130"/>
-      <c r="AF22" s="131"/>
+      <c r="AC22" s="132"/>
+      <c r="AD22" s="133"/>
+      <c r="AE22" s="133"/>
+      <c r="AF22" s="134"/>
       <c r="AG22" s="111"/>
       <c r="AH22" s="54"/>
       <c r="AI22" s="54"/>
@@ -6862,11 +6991,11 @@
       <c r="AP22" s="54"/>
       <c r="AQ22" s="54"/>
       <c r="AR22" s="73"/>
-      <c r="AS22" s="173"/>
-      <c r="AT22" s="174"/>
-      <c r="AU22" s="174"/>
-      <c r="AV22" s="174"/>
-      <c r="AW22" s="175"/>
+      <c r="AS22" s="176"/>
+      <c r="AT22" s="177"/>
+      <c r="AU22" s="177"/>
+      <c r="AV22" s="177"/>
+      <c r="AW22" s="178"/>
       <c r="AX22" s="13"/>
       <c r="AY22" s="4"/>
       <c r="AZ22" s="64"/>
@@ -6887,15 +7016,15 @@
       <c r="BO22" s="115"/>
     </row>
     <row r="23" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A23" s="292"/>
-      <c r="B23" s="292"/>
-      <c r="C23" s="165"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="283" t="s">
+      <c r="A23" s="300"/>
+      <c r="B23" s="300"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="291" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="284"/>
-      <c r="G23" s="285"/>
+      <c r="F23" s="292"/>
+      <c r="G23" s="293"/>
       <c r="H23" s="48" t="s">
         <v>28</v>
       </c>
@@ -6977,262 +7106,262 @@
       <c r="CB23" s="101"/>
     </row>
     <row r="24" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A24" s="292"/>
-      <c r="B24" s="292"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="165"/>
+      <c r="A24" s="300"/>
+      <c r="B24" s="300"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
       <c r="E24" s="65"/>
       <c r="F24" s="66"/>
-      <c r="G24" s="286"/>
-      <c r="H24" s="235"/>
+      <c r="G24" s="294"/>
+      <c r="H24" s="238"/>
       <c r="I24" s="56"/>
-      <c r="J24" s="151"/>
+      <c r="J24" s="154"/>
       <c r="K24" s="56"/>
-      <c r="L24" s="151"/>
+      <c r="L24" s="154"/>
       <c r="M24" s="56"/>
-      <c r="N24" s="151"/>
+      <c r="N24" s="154"/>
       <c r="O24" s="56"/>
-      <c r="P24" s="151"/>
+      <c r="P24" s="154"/>
       <c r="Q24" s="56"/>
-      <c r="R24" s="151"/>
+      <c r="R24" s="154"/>
       <c r="S24" s="56"/>
-      <c r="T24" s="151"/>
+      <c r="T24" s="154"/>
       <c r="U24" s="80"/>
-      <c r="V24" s="257" t="s">
+      <c r="V24" s="260" t="s">
         <v>18</v>
       </c>
-      <c r="W24" s="258"/>
-      <c r="X24" s="258"/>
-      <c r="Y24" s="258"/>
-      <c r="Z24" s="258"/>
-      <c r="AA24" s="258"/>
-      <c r="AB24" s="258"/>
-      <c r="AC24" s="258"/>
-      <c r="AD24" s="258"/>
-      <c r="AE24" s="259"/>
-      <c r="AF24" s="274" t="s">
+      <c r="W24" s="261"/>
+      <c r="X24" s="261"/>
+      <c r="Y24" s="261"/>
+      <c r="Z24" s="261"/>
+      <c r="AA24" s="261"/>
+      <c r="AB24" s="261"/>
+      <c r="AC24" s="261"/>
+      <c r="AD24" s="261"/>
+      <c r="AE24" s="262"/>
+      <c r="AF24" s="282" t="s">
         <v>15</v>
       </c>
-      <c r="AG24" s="275"/>
-      <c r="AH24" s="275"/>
-      <c r="AI24" s="275"/>
-      <c r="AJ24" s="241"/>
-      <c r="AK24" s="241"/>
-      <c r="AL24" s="241"/>
-      <c r="AM24" s="241"/>
-      <c r="AN24" s="241"/>
-      <c r="AO24" s="241"/>
-      <c r="AP24" s="241"/>
-      <c r="AQ24" s="241"/>
-      <c r="AR24" s="241"/>
-      <c r="AS24" s="241"/>
-      <c r="AT24" s="241"/>
-      <c r="AU24" s="241"/>
-      <c r="AV24" s="241"/>
-      <c r="AW24" s="241"/>
-      <c r="AX24" s="241"/>
-      <c r="AY24" s="241"/>
-      <c r="AZ24" s="241"/>
-      <c r="BA24" s="241"/>
-      <c r="BB24" s="241"/>
-      <c r="BC24" s="241"/>
-      <c r="BD24" s="241"/>
-      <c r="BE24" s="241"/>
-      <c r="BF24" s="241"/>
-      <c r="BG24" s="241"/>
-      <c r="BH24" s="241"/>
-      <c r="BI24" s="241"/>
-      <c r="BJ24" s="241"/>
-      <c r="BK24" s="241"/>
-      <c r="BL24" s="241"/>
-      <c r="BM24" s="242"/>
-      <c r="BN24" s="243" t="s">
+      <c r="AG24" s="283"/>
+      <c r="AH24" s="283"/>
+      <c r="AI24" s="283"/>
+      <c r="AJ24" s="244"/>
+      <c r="AK24" s="244"/>
+      <c r="AL24" s="244"/>
+      <c r="AM24" s="244"/>
+      <c r="AN24" s="244"/>
+      <c r="AO24" s="244"/>
+      <c r="AP24" s="244"/>
+      <c r="AQ24" s="244"/>
+      <c r="AR24" s="244"/>
+      <c r="AS24" s="244"/>
+      <c r="AT24" s="244"/>
+      <c r="AU24" s="244"/>
+      <c r="AV24" s="244"/>
+      <c r="AW24" s="244"/>
+      <c r="AX24" s="244"/>
+      <c r="AY24" s="244"/>
+      <c r="AZ24" s="244"/>
+      <c r="BA24" s="244"/>
+      <c r="BB24" s="244"/>
+      <c r="BC24" s="244"/>
+      <c r="BD24" s="244"/>
+      <c r="BE24" s="244"/>
+      <c r="BF24" s="244"/>
+      <c r="BG24" s="244"/>
+      <c r="BH24" s="244"/>
+      <c r="BI24" s="244"/>
+      <c r="BJ24" s="244"/>
+      <c r="BK24" s="244"/>
+      <c r="BL24" s="244"/>
+      <c r="BM24" s="245"/>
+      <c r="BN24" s="246" t="s">
         <v>50</v>
       </c>
-      <c r="BO24" s="244"/>
-      <c r="BP24" s="245"/>
-      <c r="BQ24" s="236"/>
-      <c r="BR24" s="252"/>
-      <c r="BS24" s="238"/>
-      <c r="BT24" s="240"/>
-      <c r="BU24" s="236"/>
-      <c r="BV24" s="252"/>
-      <c r="BW24" s="238"/>
-      <c r="BX24" s="240"/>
-      <c r="BY24" s="236"/>
-      <c r="BZ24" s="252"/>
-      <c r="CA24" s="238"/>
-      <c r="CB24" s="240"/>
+      <c r="BO24" s="247"/>
+      <c r="BP24" s="248"/>
+      <c r="BQ24" s="239"/>
+      <c r="BR24" s="255"/>
+      <c r="BS24" s="241"/>
+      <c r="BT24" s="243"/>
+      <c r="BU24" s="239"/>
+      <c r="BV24" s="255"/>
+      <c r="BW24" s="241"/>
+      <c r="BX24" s="243"/>
+      <c r="BY24" s="239"/>
+      <c r="BZ24" s="255"/>
+      <c r="CA24" s="241"/>
+      <c r="CB24" s="243"/>
     </row>
     <row r="25" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A25" s="292"/>
-      <c r="B25" s="292"/>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
+      <c r="A25" s="300"/>
+      <c r="B25" s="300"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
       <c r="E25" s="65"/>
       <c r="F25" s="66"/>
-      <c r="G25" s="286"/>
-      <c r="H25" s="236"/>
+      <c r="G25" s="294"/>
+      <c r="H25" s="239"/>
       <c r="I25" s="51"/>
-      <c r="J25" s="238"/>
+      <c r="J25" s="241"/>
       <c r="K25" s="51"/>
-      <c r="L25" s="238"/>
+      <c r="L25" s="241"/>
       <c r="M25" s="51"/>
-      <c r="N25" s="238"/>
+      <c r="N25" s="241"/>
       <c r="O25" s="51"/>
-      <c r="P25" s="238"/>
+      <c r="P25" s="241"/>
       <c r="Q25" s="51"/>
-      <c r="R25" s="238"/>
+      <c r="R25" s="241"/>
       <c r="S25" s="51"/>
-      <c r="T25" s="238"/>
-      <c r="U25" s="240"/>
-      <c r="V25" s="253"/>
-      <c r="W25" s="254"/>
-      <c r="X25" s="260"/>
-      <c r="Y25" s="254"/>
-      <c r="Z25" s="260"/>
-      <c r="AA25" s="254"/>
-      <c r="AB25" s="260"/>
-      <c r="AC25" s="254"/>
-      <c r="AD25" s="260"/>
-      <c r="AE25" s="276"/>
-      <c r="AF25" s="262"/>
-      <c r="AG25" s="209"/>
-      <c r="AH25" s="209"/>
-      <c r="AI25" s="209"/>
-      <c r="AJ25" s="209"/>
-      <c r="AK25" s="209"/>
-      <c r="AL25" s="209"/>
-      <c r="AM25" s="209"/>
-      <c r="AN25" s="209"/>
-      <c r="AO25" s="209"/>
-      <c r="AP25" s="209"/>
-      <c r="AQ25" s="209"/>
-      <c r="AR25" s="209"/>
-      <c r="AS25" s="209"/>
-      <c r="AT25" s="209"/>
-      <c r="AU25" s="209"/>
-      <c r="AV25" s="209"/>
-      <c r="AW25" s="209"/>
-      <c r="AX25" s="209"/>
-      <c r="AY25" s="209"/>
-      <c r="AZ25" s="209"/>
-      <c r="BA25" s="209"/>
-      <c r="BB25" s="209"/>
-      <c r="BC25" s="209"/>
-      <c r="BD25" s="209"/>
-      <c r="BE25" s="209"/>
-      <c r="BF25" s="209"/>
-      <c r="BG25" s="209"/>
-      <c r="BH25" s="209"/>
-      <c r="BI25" s="209"/>
-      <c r="BJ25" s="209"/>
-      <c r="BK25" s="209"/>
-      <c r="BL25" s="209"/>
-      <c r="BM25" s="210"/>
-      <c r="BN25" s="246"/>
-      <c r="BO25" s="244"/>
-      <c r="BP25" s="245"/>
-      <c r="BQ25" s="236"/>
-      <c r="BR25" s="252"/>
-      <c r="BS25" s="238"/>
-      <c r="BT25" s="240"/>
-      <c r="BU25" s="236"/>
-      <c r="BV25" s="252"/>
-      <c r="BW25" s="238"/>
-      <c r="BX25" s="240"/>
-      <c r="BY25" s="236"/>
-      <c r="BZ25" s="252"/>
-      <c r="CA25" s="238"/>
-      <c r="CB25" s="240"/>
+      <c r="T25" s="241"/>
+      <c r="U25" s="243"/>
+      <c r="V25" s="256"/>
+      <c r="W25" s="257"/>
+      <c r="X25" s="263"/>
+      <c r="Y25" s="257"/>
+      <c r="Z25" s="263"/>
+      <c r="AA25" s="257"/>
+      <c r="AB25" s="263"/>
+      <c r="AC25" s="257"/>
+      <c r="AD25" s="263"/>
+      <c r="AE25" s="284"/>
+      <c r="AF25" s="265"/>
+      <c r="AG25" s="212"/>
+      <c r="AH25" s="212"/>
+      <c r="AI25" s="212"/>
+      <c r="AJ25" s="212"/>
+      <c r="AK25" s="212"/>
+      <c r="AL25" s="212"/>
+      <c r="AM25" s="212"/>
+      <c r="AN25" s="212"/>
+      <c r="AO25" s="212"/>
+      <c r="AP25" s="212"/>
+      <c r="AQ25" s="212"/>
+      <c r="AR25" s="212"/>
+      <c r="AS25" s="212"/>
+      <c r="AT25" s="212"/>
+      <c r="AU25" s="212"/>
+      <c r="AV25" s="212"/>
+      <c r="AW25" s="212"/>
+      <c r="AX25" s="212"/>
+      <c r="AY25" s="212"/>
+      <c r="AZ25" s="212"/>
+      <c r="BA25" s="212"/>
+      <c r="BB25" s="212"/>
+      <c r="BC25" s="212"/>
+      <c r="BD25" s="212"/>
+      <c r="BE25" s="212"/>
+      <c r="BF25" s="212"/>
+      <c r="BG25" s="212"/>
+      <c r="BH25" s="212"/>
+      <c r="BI25" s="212"/>
+      <c r="BJ25" s="212"/>
+      <c r="BK25" s="212"/>
+      <c r="BL25" s="212"/>
+      <c r="BM25" s="213"/>
+      <c r="BN25" s="249"/>
+      <c r="BO25" s="247"/>
+      <c r="BP25" s="248"/>
+      <c r="BQ25" s="239"/>
+      <c r="BR25" s="255"/>
+      <c r="BS25" s="241"/>
+      <c r="BT25" s="243"/>
+      <c r="BU25" s="239"/>
+      <c r="BV25" s="255"/>
+      <c r="BW25" s="241"/>
+      <c r="BX25" s="243"/>
+      <c r="BY25" s="239"/>
+      <c r="BZ25" s="255"/>
+      <c r="CA25" s="241"/>
+      <c r="CB25" s="243"/>
     </row>
     <row r="26" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A26" s="292"/>
-      <c r="B26" s="292"/>
-      <c r="C26" s="165"/>
-      <c r="D26" s="165"/>
+      <c r="A26" s="300"/>
+      <c r="B26" s="300"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
       <c r="E26" s="68"/>
       <c r="F26" s="69"/>
-      <c r="G26" s="287"/>
-      <c r="H26" s="237"/>
+      <c r="G26" s="295"/>
+      <c r="H26" s="240"/>
       <c r="I26" s="53"/>
-      <c r="J26" s="239"/>
+      <c r="J26" s="242"/>
       <c r="K26" s="53"/>
-      <c r="L26" s="239"/>
+      <c r="L26" s="242"/>
       <c r="M26" s="53"/>
-      <c r="N26" s="239"/>
+      <c r="N26" s="242"/>
       <c r="O26" s="53"/>
-      <c r="P26" s="239"/>
+      <c r="P26" s="242"/>
       <c r="Q26" s="53"/>
-      <c r="R26" s="239"/>
+      <c r="R26" s="242"/>
       <c r="S26" s="53"/>
-      <c r="T26" s="239"/>
+      <c r="T26" s="242"/>
       <c r="U26" s="81"/>
-      <c r="V26" s="255"/>
-      <c r="W26" s="256"/>
-      <c r="X26" s="261"/>
-      <c r="Y26" s="256"/>
-      <c r="Z26" s="261"/>
-      <c r="AA26" s="256"/>
-      <c r="AB26" s="261"/>
-      <c r="AC26" s="256"/>
-      <c r="AD26" s="261"/>
-      <c r="AE26" s="277"/>
-      <c r="AF26" s="263"/>
-      <c r="AG26" s="264"/>
-      <c r="AH26" s="264"/>
-      <c r="AI26" s="264"/>
-      <c r="AJ26" s="264"/>
-      <c r="AK26" s="264"/>
-      <c r="AL26" s="264"/>
-      <c r="AM26" s="264"/>
-      <c r="AN26" s="264"/>
-      <c r="AO26" s="264"/>
-      <c r="AP26" s="264"/>
-      <c r="AQ26" s="264"/>
-      <c r="AR26" s="264"/>
-      <c r="AS26" s="264"/>
-      <c r="AT26" s="264"/>
-      <c r="AU26" s="264"/>
-      <c r="AV26" s="264"/>
-      <c r="AW26" s="264"/>
-      <c r="AX26" s="264"/>
-      <c r="AY26" s="264"/>
-      <c r="AZ26" s="264"/>
-      <c r="BA26" s="264"/>
-      <c r="BB26" s="264"/>
-      <c r="BC26" s="264"/>
-      <c r="BD26" s="264"/>
-      <c r="BE26" s="264"/>
-      <c r="BF26" s="264"/>
-      <c r="BG26" s="264"/>
-      <c r="BH26" s="264"/>
-      <c r="BI26" s="264"/>
-      <c r="BJ26" s="264"/>
-      <c r="BK26" s="264"/>
-      <c r="BL26" s="264"/>
-      <c r="BM26" s="265"/>
-      <c r="BN26" s="246"/>
-      <c r="BO26" s="244"/>
-      <c r="BP26" s="245"/>
-      <c r="BQ26" s="236"/>
-      <c r="BR26" s="252"/>
-      <c r="BS26" s="238"/>
-      <c r="BT26" s="251"/>
-      <c r="BU26" s="236"/>
-      <c r="BV26" s="252"/>
-      <c r="BW26" s="238"/>
-      <c r="BX26" s="251"/>
-      <c r="BY26" s="236"/>
-      <c r="BZ26" s="252"/>
-      <c r="CA26" s="238"/>
-      <c r="CB26" s="251"/>
+      <c r="V26" s="258"/>
+      <c r="W26" s="259"/>
+      <c r="X26" s="264"/>
+      <c r="Y26" s="259"/>
+      <c r="Z26" s="264"/>
+      <c r="AA26" s="259"/>
+      <c r="AB26" s="264"/>
+      <c r="AC26" s="259"/>
+      <c r="AD26" s="264"/>
+      <c r="AE26" s="285"/>
+      <c r="AF26" s="266"/>
+      <c r="AG26" s="267"/>
+      <c r="AH26" s="267"/>
+      <c r="AI26" s="267"/>
+      <c r="AJ26" s="267"/>
+      <c r="AK26" s="267"/>
+      <c r="AL26" s="267"/>
+      <c r="AM26" s="267"/>
+      <c r="AN26" s="267"/>
+      <c r="AO26" s="267"/>
+      <c r="AP26" s="267"/>
+      <c r="AQ26" s="267"/>
+      <c r="AR26" s="267"/>
+      <c r="AS26" s="267"/>
+      <c r="AT26" s="267"/>
+      <c r="AU26" s="267"/>
+      <c r="AV26" s="267"/>
+      <c r="AW26" s="267"/>
+      <c r="AX26" s="267"/>
+      <c r="AY26" s="267"/>
+      <c r="AZ26" s="267"/>
+      <c r="BA26" s="267"/>
+      <c r="BB26" s="267"/>
+      <c r="BC26" s="267"/>
+      <c r="BD26" s="267"/>
+      <c r="BE26" s="267"/>
+      <c r="BF26" s="267"/>
+      <c r="BG26" s="267"/>
+      <c r="BH26" s="267"/>
+      <c r="BI26" s="267"/>
+      <c r="BJ26" s="267"/>
+      <c r="BK26" s="267"/>
+      <c r="BL26" s="267"/>
+      <c r="BM26" s="268"/>
+      <c r="BN26" s="249"/>
+      <c r="BO26" s="247"/>
+      <c r="BP26" s="248"/>
+      <c r="BQ26" s="239"/>
+      <c r="BR26" s="255"/>
+      <c r="BS26" s="241"/>
+      <c r="BT26" s="254"/>
+      <c r="BU26" s="239"/>
+      <c r="BV26" s="255"/>
+      <c r="BW26" s="241"/>
+      <c r="BX26" s="254"/>
+      <c r="BY26" s="239"/>
+      <c r="BZ26" s="255"/>
+      <c r="CA26" s="241"/>
+      <c r="CB26" s="254"/>
     </row>
     <row r="27" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A27" s="292"/>
-      <c r="B27" s="292"/>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
+      <c r="A27" s="300"/>
+      <c r="B27" s="300"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
       <c r="E27" s="89" t="s">
         <v>26</v>
       </c>
@@ -7246,88 +7375,88 @@
       <c r="K27" s="46"/>
       <c r="L27" s="46"/>
       <c r="M27" s="47"/>
-      <c r="N27" s="288"/>
-      <c r="O27" s="215"/>
-      <c r="P27" s="215"/>
-      <c r="Q27" s="215"/>
-      <c r="R27" s="215"/>
-      <c r="S27" s="215"/>
-      <c r="T27" s="215"/>
-      <c r="U27" s="215"/>
-      <c r="V27" s="215"/>
-      <c r="W27" s="215"/>
-      <c r="X27" s="215"/>
-      <c r="Y27" s="215"/>
-      <c r="Z27" s="215"/>
-      <c r="AA27" s="215"/>
-      <c r="AB27" s="215"/>
-      <c r="AC27" s="215"/>
-      <c r="AD27" s="215"/>
-      <c r="AE27" s="215"/>
-      <c r="AF27" s="215"/>
-      <c r="AG27" s="215"/>
-      <c r="AH27" s="215"/>
-      <c r="AI27" s="215"/>
-      <c r="AJ27" s="215"/>
-      <c r="AK27" s="215"/>
-      <c r="AL27" s="215"/>
-      <c r="AM27" s="215"/>
-      <c r="AN27" s="215"/>
-      <c r="AO27" s="215"/>
-      <c r="AP27" s="215"/>
-      <c r="AQ27" s="215"/>
-      <c r="AR27" s="215"/>
-      <c r="AS27" s="215"/>
-      <c r="AT27" s="215"/>
-      <c r="AU27" s="215"/>
-      <c r="AV27" s="215"/>
-      <c r="AW27" s="215"/>
-      <c r="AX27" s="215"/>
-      <c r="AY27" s="215"/>
-      <c r="AZ27" s="215"/>
-      <c r="BA27" s="215"/>
-      <c r="BB27" s="215"/>
-      <c r="BC27" s="215"/>
-      <c r="BD27" s="215"/>
-      <c r="BE27" s="215"/>
-      <c r="BF27" s="215"/>
-      <c r="BG27" s="289"/>
+      <c r="N27" s="296"/>
+      <c r="O27" s="218"/>
+      <c r="P27" s="218"/>
+      <c r="Q27" s="218"/>
+      <c r="R27" s="218"/>
+      <c r="S27" s="218"/>
+      <c r="T27" s="218"/>
+      <c r="U27" s="218"/>
+      <c r="V27" s="218"/>
+      <c r="W27" s="218"/>
+      <c r="X27" s="218"/>
+      <c r="Y27" s="218"/>
+      <c r="Z27" s="218"/>
+      <c r="AA27" s="218"/>
+      <c r="AB27" s="218"/>
+      <c r="AC27" s="218"/>
+      <c r="AD27" s="218"/>
+      <c r="AE27" s="218"/>
+      <c r="AF27" s="218"/>
+      <c r="AG27" s="218"/>
+      <c r="AH27" s="218"/>
+      <c r="AI27" s="218"/>
+      <c r="AJ27" s="218"/>
+      <c r="AK27" s="218"/>
+      <c r="AL27" s="218"/>
+      <c r="AM27" s="218"/>
+      <c r="AN27" s="218"/>
+      <c r="AO27" s="218"/>
+      <c r="AP27" s="218"/>
+      <c r="AQ27" s="218"/>
+      <c r="AR27" s="218"/>
+      <c r="AS27" s="218"/>
+      <c r="AT27" s="218"/>
+      <c r="AU27" s="218"/>
+      <c r="AV27" s="218"/>
+      <c r="AW27" s="218"/>
+      <c r="AX27" s="218"/>
+      <c r="AY27" s="218"/>
+      <c r="AZ27" s="218"/>
+      <c r="BA27" s="218"/>
+      <c r="BB27" s="218"/>
+      <c r="BC27" s="218"/>
+      <c r="BD27" s="218"/>
+      <c r="BE27" s="218"/>
+      <c r="BF27" s="218"/>
+      <c r="BG27" s="297"/>
       <c r="BH27" s="39" t="s">
         <v>35</v>
       </c>
       <c r="BI27" s="40"/>
       <c r="BJ27" s="41"/>
-      <c r="BK27" s="293" t="s">
+      <c r="BK27" s="302" t="s">
         <v>60</v>
       </c>
-      <c r="BL27" s="293"/>
-      <c r="BM27" s="293"/>
-      <c r="BN27" s="293"/>
-      <c r="BO27" s="293"/>
-      <c r="BP27" s="293"/>
-      <c r="BQ27" s="293"/>
-      <c r="BR27" s="293"/>
-      <c r="BS27" s="293"/>
-      <c r="BT27" s="293"/>
-      <c r="BU27" s="293"/>
-      <c r="BV27" s="293"/>
-      <c r="BW27" s="293"/>
-      <c r="BX27" s="293"/>
-      <c r="BY27" s="293"/>
-      <c r="BZ27" s="293"/>
-      <c r="CA27" s="293"/>
-      <c r="CB27" s="293"/>
-      <c r="CC27" s="293"/>
-      <c r="CD27" s="294"/>
+      <c r="BL27" s="303"/>
+      <c r="BM27" s="303"/>
+      <c r="BN27" s="303"/>
+      <c r="BO27" s="303"/>
+      <c r="BP27" s="303"/>
+      <c r="BQ27" s="303"/>
+      <c r="BR27" s="303"/>
+      <c r="BS27" s="303"/>
+      <c r="BT27" s="303"/>
+      <c r="BU27" s="303"/>
+      <c r="BV27" s="303"/>
+      <c r="BW27" s="303"/>
+      <c r="BX27" s="303"/>
+      <c r="BY27" s="303"/>
+      <c r="BZ27" s="303"/>
+      <c r="CA27" s="303"/>
+      <c r="CB27" s="303"/>
+      <c r="CC27" s="303"/>
+      <c r="CD27" s="304"/>
       <c r="CE27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:83" ht="22.5" customHeight="1">
-      <c r="A28" s="292"/>
-      <c r="B28" s="292"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
+      <c r="A28" s="300"/>
+      <c r="B28" s="300"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
       <c r="E28" s="92"/>
       <c r="F28" s="93"/>
       <c r="G28" s="94"/>
@@ -7339,75 +7468,75 @@
       <c r="K28" s="83"/>
       <c r="L28" s="83"/>
       <c r="M28" s="84"/>
-      <c r="N28" s="290"/>
-      <c r="O28" s="212"/>
-      <c r="P28" s="212"/>
-      <c r="Q28" s="212"/>
-      <c r="R28" s="212"/>
-      <c r="S28" s="212"/>
-      <c r="T28" s="212"/>
-      <c r="U28" s="212"/>
-      <c r="V28" s="212"/>
-      <c r="W28" s="212"/>
-      <c r="X28" s="212"/>
-      <c r="Y28" s="212"/>
-      <c r="Z28" s="212"/>
-      <c r="AA28" s="212"/>
-      <c r="AB28" s="212"/>
-      <c r="AC28" s="212"/>
-      <c r="AD28" s="212"/>
-      <c r="AE28" s="212"/>
-      <c r="AF28" s="212"/>
-      <c r="AG28" s="212"/>
-      <c r="AH28" s="212"/>
-      <c r="AI28" s="212"/>
-      <c r="AJ28" s="212"/>
-      <c r="AK28" s="212"/>
-      <c r="AL28" s="212"/>
-      <c r="AM28" s="212"/>
-      <c r="AN28" s="212"/>
-      <c r="AO28" s="212"/>
-      <c r="AP28" s="212"/>
-      <c r="AQ28" s="212"/>
-      <c r="AR28" s="212"/>
-      <c r="AS28" s="212"/>
-      <c r="AT28" s="212"/>
-      <c r="AU28" s="212"/>
-      <c r="AV28" s="212"/>
-      <c r="AW28" s="212"/>
-      <c r="AX28" s="212"/>
-      <c r="AY28" s="212"/>
-      <c r="AZ28" s="212"/>
-      <c r="BA28" s="212"/>
-      <c r="BB28" s="212"/>
-      <c r="BC28" s="212"/>
-      <c r="BD28" s="212"/>
-      <c r="BE28" s="212"/>
-      <c r="BF28" s="212"/>
-      <c r="BG28" s="291"/>
+      <c r="N28" s="298"/>
+      <c r="O28" s="215"/>
+      <c r="P28" s="215"/>
+      <c r="Q28" s="215"/>
+      <c r="R28" s="215"/>
+      <c r="S28" s="215"/>
+      <c r="T28" s="215"/>
+      <c r="U28" s="215"/>
+      <c r="V28" s="215"/>
+      <c r="W28" s="215"/>
+      <c r="X28" s="215"/>
+      <c r="Y28" s="215"/>
+      <c r="Z28" s="215"/>
+      <c r="AA28" s="215"/>
+      <c r="AB28" s="215"/>
+      <c r="AC28" s="215"/>
+      <c r="AD28" s="215"/>
+      <c r="AE28" s="215"/>
+      <c r="AF28" s="215"/>
+      <c r="AG28" s="215"/>
+      <c r="AH28" s="215"/>
+      <c r="AI28" s="215"/>
+      <c r="AJ28" s="215"/>
+      <c r="AK28" s="215"/>
+      <c r="AL28" s="215"/>
+      <c r="AM28" s="215"/>
+      <c r="AN28" s="215"/>
+      <c r="AO28" s="215"/>
+      <c r="AP28" s="215"/>
+      <c r="AQ28" s="215"/>
+      <c r="AR28" s="215"/>
+      <c r="AS28" s="215"/>
+      <c r="AT28" s="215"/>
+      <c r="AU28" s="215"/>
+      <c r="AV28" s="215"/>
+      <c r="AW28" s="215"/>
+      <c r="AX28" s="215"/>
+      <c r="AY28" s="215"/>
+      <c r="AZ28" s="215"/>
+      <c r="BA28" s="215"/>
+      <c r="BB28" s="215"/>
+      <c r="BC28" s="215"/>
+      <c r="BD28" s="215"/>
+      <c r="BE28" s="215"/>
+      <c r="BF28" s="215"/>
+      <c r="BG28" s="299"/>
       <c r="BH28" s="42"/>
       <c r="BI28" s="43"/>
       <c r="BJ28" s="44"/>
-      <c r="BK28" s="295"/>
-      <c r="BL28" s="295"/>
-      <c r="BM28" s="295"/>
-      <c r="BN28" s="295"/>
-      <c r="BO28" s="295"/>
-      <c r="BP28" s="295"/>
-      <c r="BQ28" s="295"/>
-      <c r="BR28" s="295"/>
-      <c r="BS28" s="295"/>
-      <c r="BT28" s="295"/>
-      <c r="BU28" s="295"/>
-      <c r="BV28" s="295"/>
-      <c r="BW28" s="295"/>
-      <c r="BX28" s="295"/>
-      <c r="BY28" s="295"/>
-      <c r="BZ28" s="295"/>
-      <c r="CA28" s="295"/>
-      <c r="CB28" s="295"/>
-      <c r="CC28" s="295"/>
-      <c r="CD28" s="296"/>
+      <c r="BK28" s="305"/>
+      <c r="BL28" s="306"/>
+      <c r="BM28" s="306"/>
+      <c r="BN28" s="306"/>
+      <c r="BO28" s="306"/>
+      <c r="BP28" s="306"/>
+      <c r="BQ28" s="306"/>
+      <c r="BR28" s="306"/>
+      <c r="BS28" s="306"/>
+      <c r="BT28" s="306"/>
+      <c r="BU28" s="306"/>
+      <c r="BV28" s="306"/>
+      <c r="BW28" s="306"/>
+      <c r="BX28" s="306"/>
+      <c r="BY28" s="306"/>
+      <c r="BZ28" s="306"/>
+      <c r="CA28" s="306"/>
+      <c r="CB28" s="306"/>
+      <c r="CC28" s="306"/>
+      <c r="CD28" s="307"/>
     </row>
     <row r="29" spans="1:83" ht="10.5" customHeight="1">
       <c r="A29" s="20"/>
@@ -7517,74 +7646,74 @@
       <c r="Z30"/>
       <c r="AA30"/>
       <c r="AB30"/>
-      <c r="BQ30" s="257" t="s">
+      <c r="BQ30" s="260" t="s">
         <v>45</v>
       </c>
-      <c r="BR30" s="258"/>
-      <c r="BS30" s="258"/>
-      <c r="BT30" s="258"/>
-      <c r="BU30" s="258"/>
-      <c r="BV30" s="258"/>
-      <c r="BW30" s="258"/>
-      <c r="BX30" s="258"/>
-      <c r="BY30" s="258"/>
-      <c r="BZ30" s="258"/>
-      <c r="CA30" s="258"/>
-      <c r="CB30" s="259"/>
+      <c r="BR30" s="261"/>
+      <c r="BS30" s="261"/>
+      <c r="BT30" s="261"/>
+      <c r="BU30" s="261"/>
+      <c r="BV30" s="261"/>
+      <c r="BW30" s="261"/>
+      <c r="BX30" s="261"/>
+      <c r="BY30" s="261"/>
+      <c r="BZ30" s="261"/>
+      <c r="CA30" s="261"/>
+      <c r="CB30" s="262"/>
     </row>
     <row r="31" spans="1:83" ht="15.75" customHeight="1">
       <c r="A31" s="20"/>
-      <c r="B31" s="278" t="s">
+      <c r="B31" s="286" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="279"/>
-      <c r="D31" s="279"/>
-      <c r="E31" s="279"/>
-      <c r="F31" s="279"/>
-      <c r="G31" s="279"/>
-      <c r="H31" s="279"/>
-      <c r="I31" s="279"/>
-      <c r="J31" s="279"/>
-      <c r="K31" s="279"/>
-      <c r="L31" s="279"/>
-      <c r="M31" s="279"/>
-      <c r="N31" s="279"/>
-      <c r="O31" s="279"/>
-      <c r="P31" s="279"/>
-      <c r="Q31" s="279"/>
-      <c r="R31" s="279"/>
-      <c r="S31" s="279"/>
-      <c r="T31" s="279"/>
-      <c r="U31" s="279"/>
-      <c r="V31" s="279"/>
-      <c r="W31" s="279"/>
-      <c r="X31" s="279"/>
-      <c r="Y31" s="279"/>
-      <c r="Z31" s="279"/>
-      <c r="AA31" s="279"/>
-      <c r="AB31" s="280"/>
-      <c r="AU31" s="297" t="s">
+      <c r="C31" s="287"/>
+      <c r="D31" s="287"/>
+      <c r="E31" s="287"/>
+      <c r="F31" s="287"/>
+      <c r="G31" s="287"/>
+      <c r="H31" s="287"/>
+      <c r="I31" s="287"/>
+      <c r="J31" s="287"/>
+      <c r="K31" s="287"/>
+      <c r="L31" s="287"/>
+      <c r="M31" s="287"/>
+      <c r="N31" s="287"/>
+      <c r="O31" s="287"/>
+      <c r="P31" s="287"/>
+      <c r="Q31" s="287"/>
+      <c r="R31" s="287"/>
+      <c r="S31" s="287"/>
+      <c r="T31" s="287"/>
+      <c r="U31" s="287"/>
+      <c r="V31" s="287"/>
+      <c r="W31" s="287"/>
+      <c r="X31" s="287"/>
+      <c r="Y31" s="287"/>
+      <c r="Z31" s="287"/>
+      <c r="AA31" s="287"/>
+      <c r="AB31" s="288"/>
+      <c r="AU31" s="301" t="s">
         <v>51</v>
       </c>
-      <c r="AV31" s="297"/>
-      <c r="AW31" s="297"/>
-      <c r="AX31" s="297"/>
-      <c r="AY31" s="297"/>
-      <c r="AZ31" s="297"/>
-      <c r="BA31" s="297"/>
-      <c r="BB31" s="297"/>
-      <c r="BC31" s="297"/>
-      <c r="BD31" s="297"/>
-      <c r="BE31" s="297"/>
-      <c r="BF31" s="297"/>
-      <c r="BG31" s="297"/>
-      <c r="BH31" s="297"/>
-      <c r="BI31" s="297"/>
-      <c r="BJ31" s="297"/>
-      <c r="BK31" s="297"/>
-      <c r="BL31" s="297"/>
-      <c r="BM31" s="297"/>
-      <c r="BN31" s="297"/>
+      <c r="AV31" s="301"/>
+      <c r="AW31" s="301"/>
+      <c r="AX31" s="301"/>
+      <c r="AY31" s="301"/>
+      <c r="AZ31" s="301"/>
+      <c r="BA31" s="301"/>
+      <c r="BB31" s="301"/>
+      <c r="BC31" s="301"/>
+      <c r="BD31" s="301"/>
+      <c r="BE31" s="301"/>
+      <c r="BF31" s="301"/>
+      <c r="BG31" s="301"/>
+      <c r="BH31" s="301"/>
+      <c r="BI31" s="301"/>
+      <c r="BJ31" s="301"/>
+      <c r="BK31" s="301"/>
+      <c r="BL31" s="301"/>
+      <c r="BM31" s="301"/>
+      <c r="BN31" s="301"/>
       <c r="BQ31" s="48"/>
       <c r="BR31" s="49"/>
       <c r="BS31" s="49"/>
@@ -7633,25 +7762,25 @@
       <c r="BF32" s="24"/>
       <c r="BI32" s="24"/>
       <c r="BJ32" s="24"/>
-      <c r="BQ32" s="266"/>
-      <c r="BR32" s="267"/>
-      <c r="BS32" s="267"/>
-      <c r="BT32" s="267"/>
-      <c r="BU32" s="267"/>
-      <c r="BV32" s="267"/>
-      <c r="BW32" s="267"/>
-      <c r="BX32" s="267"/>
-      <c r="BY32" s="267"/>
-      <c r="BZ32" s="267"/>
-      <c r="CA32" s="267"/>
-      <c r="CB32" s="268"/>
+      <c r="BQ32" s="269"/>
+      <c r="BR32" s="270"/>
+      <c r="BS32" s="270"/>
+      <c r="BT32" s="270"/>
+      <c r="BU32" s="270"/>
+      <c r="BV32" s="270"/>
+      <c r="BW32" s="270"/>
+      <c r="BX32" s="270"/>
+      <c r="BY32" s="270"/>
+      <c r="BZ32" s="270"/>
+      <c r="CA32" s="270"/>
+      <c r="CB32" s="271"/>
     </row>
     <row r="33" spans="1:81" ht="21" customHeight="1">
       <c r="A33" s="20"/>
-      <c r="B33" s="302" t="s">
+      <c r="B33" s="272" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="299"/>
+      <c r="C33" s="273"/>
       <c r="D33" s="29" t="s">
         <v>9</v>
       </c>
@@ -7661,24 +7790,24 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="271"/>
-      <c r="L33" s="271"/>
-      <c r="M33" s="271"/>
-      <c r="N33" s="271"/>
-      <c r="O33" s="271"/>
-      <c r="P33" s="271"/>
-      <c r="Q33" s="271"/>
-      <c r="R33" s="271"/>
-      <c r="S33" s="271"/>
-      <c r="T33" s="271"/>
-      <c r="U33" s="271"/>
-      <c r="V33" s="271"/>
-      <c r="W33" s="271"/>
-      <c r="X33" s="271"/>
-      <c r="Y33" s="271"/>
-      <c r="Z33" s="271"/>
-      <c r="AA33" s="271"/>
-      <c r="AB33" s="272"/>
+      <c r="K33" s="279"/>
+      <c r="L33" s="279"/>
+      <c r="M33" s="279"/>
+      <c r="N33" s="279"/>
+      <c r="O33" s="279"/>
+      <c r="P33" s="279"/>
+      <c r="Q33" s="279"/>
+      <c r="R33" s="279"/>
+      <c r="S33" s="279"/>
+      <c r="T33" s="279"/>
+      <c r="U33" s="279"/>
+      <c r="V33" s="279"/>
+      <c r="W33" s="279"/>
+      <c r="X33" s="279"/>
+      <c r="Y33" s="279"/>
+      <c r="Z33" s="279"/>
+      <c r="AA33" s="279"/>
+      <c r="AB33" s="280"/>
       <c r="AG33" s="58"/>
       <c r="AH33" s="58"/>
       <c r="AI33" s="9"/>
@@ -7709,23 +7838,23 @@
       <c r="BH33" s="2"/>
       <c r="BI33" s="2"/>
       <c r="BJ33" s="2"/>
-      <c r="BQ33" s="266"/>
-      <c r="BR33" s="267"/>
-      <c r="BS33" s="267"/>
-      <c r="BT33" s="267"/>
-      <c r="BU33" s="267"/>
-      <c r="BV33" s="267"/>
-      <c r="BW33" s="267"/>
-      <c r="BX33" s="267"/>
-      <c r="BY33" s="267"/>
-      <c r="BZ33" s="267"/>
-      <c r="CA33" s="267"/>
-      <c r="CB33" s="268"/>
+      <c r="BQ33" s="269"/>
+      <c r="BR33" s="270"/>
+      <c r="BS33" s="270"/>
+      <c r="BT33" s="270"/>
+      <c r="BU33" s="270"/>
+      <c r="BV33" s="270"/>
+      <c r="BW33" s="270"/>
+      <c r="BX33" s="270"/>
+      <c r="BY33" s="270"/>
+      <c r="BZ33" s="270"/>
+      <c r="CA33" s="270"/>
+      <c r="CB33" s="271"/>
     </row>
     <row r="34" spans="1:81" ht="21" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="298"/>
-      <c r="C34" s="299"/>
+      <c r="B34" s="274"/>
+      <c r="C34" s="273"/>
       <c r="D34" s="29" t="s">
         <v>8</v>
       </c>
@@ -7735,24 +7864,24 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="271"/>
-      <c r="L34" s="271"/>
-      <c r="M34" s="271"/>
-      <c r="N34" s="271"/>
-      <c r="O34" s="271"/>
-      <c r="P34" s="271"/>
-      <c r="Q34" s="271"/>
-      <c r="R34" s="271"/>
-      <c r="S34" s="271"/>
-      <c r="T34" s="271"/>
-      <c r="U34" s="271"/>
-      <c r="V34" s="271"/>
-      <c r="W34" s="271"/>
-      <c r="X34" s="271"/>
-      <c r="Y34" s="271"/>
-      <c r="Z34" s="271"/>
-      <c r="AA34" s="271"/>
-      <c r="AB34" s="272"/>
+      <c r="K34" s="279"/>
+      <c r="L34" s="279"/>
+      <c r="M34" s="279"/>
+      <c r="N34" s="279"/>
+      <c r="O34" s="279"/>
+      <c r="P34" s="279"/>
+      <c r="Q34" s="279"/>
+      <c r="R34" s="279"/>
+      <c r="S34" s="279"/>
+      <c r="T34" s="279"/>
+      <c r="U34" s="279"/>
+      <c r="V34" s="279"/>
+      <c r="W34" s="279"/>
+      <c r="X34" s="279"/>
+      <c r="Y34" s="279"/>
+      <c r="Z34" s="279"/>
+      <c r="AA34" s="279"/>
+      <c r="AB34" s="280"/>
       <c r="AG34" s="58"/>
       <c r="AH34" s="58"/>
       <c r="AI34" s="48"/>
@@ -7783,23 +7912,23 @@
       <c r="BH34" s="9"/>
       <c r="BI34" s="9"/>
       <c r="BJ34" s="9"/>
-      <c r="BQ34" s="266"/>
-      <c r="BR34" s="267"/>
-      <c r="BS34" s="267"/>
-      <c r="BT34" s="267"/>
-      <c r="BU34" s="267"/>
-      <c r="BV34" s="267"/>
-      <c r="BW34" s="267"/>
-      <c r="BX34" s="267"/>
-      <c r="BY34" s="267"/>
-      <c r="BZ34" s="267"/>
-      <c r="CA34" s="267"/>
-      <c r="CB34" s="268"/>
+      <c r="BQ34" s="269"/>
+      <c r="BR34" s="270"/>
+      <c r="BS34" s="270"/>
+      <c r="BT34" s="270"/>
+      <c r="BU34" s="270"/>
+      <c r="BV34" s="270"/>
+      <c r="BW34" s="270"/>
+      <c r="BX34" s="270"/>
+      <c r="BY34" s="270"/>
+      <c r="BZ34" s="270"/>
+      <c r="CA34" s="270"/>
+      <c r="CB34" s="271"/>
     </row>
     <row r="35" spans="1:81" ht="21" customHeight="1">
       <c r="A35" s="20"/>
-      <c r="B35" s="298"/>
-      <c r="C35" s="299"/>
+      <c r="B35" s="274"/>
+      <c r="C35" s="273"/>
       <c r="D35" s="29" t="s">
         <v>10</v>
       </c>
@@ -7809,22 +7938,22 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="271"/>
-      <c r="L35" s="271"/>
-      <c r="M35" s="271"/>
-      <c r="N35" s="271"/>
-      <c r="O35" s="271"/>
-      <c r="P35" s="271"/>
-      <c r="Q35" s="271"/>
-      <c r="R35" s="271"/>
-      <c r="S35" s="271"/>
-      <c r="T35" s="271"/>
-      <c r="U35" s="271"/>
-      <c r="V35" s="271"/>
-      <c r="W35" s="271"/>
-      <c r="X35" s="271"/>
-      <c r="Y35" s="271"/>
-      <c r="Z35" s="271"/>
+      <c r="K35" s="279"/>
+      <c r="L35" s="279"/>
+      <c r="M35" s="279"/>
+      <c r="N35" s="279"/>
+      <c r="O35" s="279"/>
+      <c r="P35" s="279"/>
+      <c r="Q35" s="279"/>
+      <c r="R35" s="279"/>
+      <c r="S35" s="279"/>
+      <c r="T35" s="279"/>
+      <c r="U35" s="279"/>
+      <c r="V35" s="279"/>
+      <c r="W35" s="279"/>
+      <c r="X35" s="279"/>
+      <c r="Y35" s="279"/>
+      <c r="Z35" s="279"/>
       <c r="AA35" s="35" t="s">
         <v>7</v>
       </c>
@@ -7854,7 +7983,7 @@
       <c r="BC35" s="60"/>
       <c r="BD35" s="60"/>
       <c r="BE35" s="60"/>
-      <c r="BF35" s="258" t="s">
+      <c r="BF35" s="261" t="s">
         <v>7</v>
       </c>
       <c r="BG35" s="36"/>
@@ -7865,50 +7994,50 @@
       <c r="BN35"/>
       <c r="BO35"/>
       <c r="BP35"/>
-      <c r="BQ35" s="266"/>
-      <c r="BR35" s="267"/>
-      <c r="BS35" s="267"/>
-      <c r="BT35" s="267"/>
-      <c r="BU35" s="267"/>
-      <c r="BV35" s="267"/>
-      <c r="BW35" s="267"/>
-      <c r="BX35" s="267"/>
-      <c r="BY35" s="267"/>
-      <c r="BZ35" s="267"/>
-      <c r="CA35" s="267"/>
-      <c r="CB35" s="268"/>
+      <c r="BQ35" s="269"/>
+      <c r="BR35" s="270"/>
+      <c r="BS35" s="270"/>
+      <c r="BT35" s="270"/>
+      <c r="BU35" s="270"/>
+      <c r="BV35" s="270"/>
+      <c r="BW35" s="270"/>
+      <c r="BX35" s="270"/>
+      <c r="BY35" s="270"/>
+      <c r="BZ35" s="270"/>
+      <c r="CA35" s="270"/>
+      <c r="CB35" s="271"/>
     </row>
     <row r="36" spans="1:81" ht="12.75" customHeight="1">
       <c r="A36" s="20"/>
-      <c r="B36" s="298"/>
-      <c r="C36" s="299"/>
-      <c r="D36" s="269" t="s">
+      <c r="B36" s="274"/>
+      <c r="C36" s="273"/>
+      <c r="D36" s="277" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="269"/>
-      <c r="F36" s="269"/>
-      <c r="G36" s="269"/>
-      <c r="H36" s="269"/>
-      <c r="I36" s="269"/>
-      <c r="J36" s="269"/>
-      <c r="K36" s="271"/>
-      <c r="L36" s="271"/>
-      <c r="M36" s="271"/>
-      <c r="N36" s="271"/>
-      <c r="O36" s="271"/>
-      <c r="P36" s="271"/>
-      <c r="Q36" s="271"/>
-      <c r="R36" s="271"/>
-      <c r="S36" s="271"/>
-      <c r="T36" s="271"/>
-      <c r="U36" s="271"/>
-      <c r="V36" s="271"/>
-      <c r="W36" s="271"/>
-      <c r="X36" s="271"/>
-      <c r="Y36" s="271"/>
-      <c r="Z36" s="271"/>
-      <c r="AA36" s="271"/>
-      <c r="AB36" s="272"/>
+      <c r="E36" s="277"/>
+      <c r="F36" s="277"/>
+      <c r="G36" s="277"/>
+      <c r="H36" s="277"/>
+      <c r="I36" s="277"/>
+      <c r="J36" s="277"/>
+      <c r="K36" s="279"/>
+      <c r="L36" s="279"/>
+      <c r="M36" s="279"/>
+      <c r="N36" s="279"/>
+      <c r="O36" s="279"/>
+      <c r="P36" s="279"/>
+      <c r="Q36" s="279"/>
+      <c r="R36" s="279"/>
+      <c r="S36" s="279"/>
+      <c r="T36" s="279"/>
+      <c r="U36" s="279"/>
+      <c r="V36" s="279"/>
+      <c r="W36" s="279"/>
+      <c r="X36" s="279"/>
+      <c r="Y36" s="279"/>
+      <c r="Z36" s="279"/>
+      <c r="AA36" s="279"/>
+      <c r="AB36" s="280"/>
       <c r="AG36" s="58"/>
       <c r="AH36" s="58"/>
       <c r="AI36" s="61"/>
@@ -7934,7 +8063,7 @@
       <c r="BC36" s="62"/>
       <c r="BD36" s="62"/>
       <c r="BE36" s="62"/>
-      <c r="BF36" s="281"/>
+      <c r="BF36" s="289"/>
       <c r="BG36" s="9"/>
       <c r="BH36" s="9"/>
       <c r="BI36" s="38"/>
@@ -7942,30 +8071,30 @@
       <c r="BN36"/>
       <c r="BO36"/>
       <c r="BP36"/>
-      <c r="BQ36" s="266"/>
-      <c r="BR36" s="267"/>
-      <c r="BS36" s="267"/>
-      <c r="BT36" s="267"/>
-      <c r="BU36" s="267"/>
-      <c r="BV36" s="267"/>
-      <c r="BW36" s="267"/>
-      <c r="BX36" s="267"/>
-      <c r="BY36" s="267"/>
-      <c r="BZ36" s="267"/>
-      <c r="CA36" s="267"/>
-      <c r="CB36" s="268"/>
+      <c r="BQ36" s="269"/>
+      <c r="BR36" s="270"/>
+      <c r="BS36" s="270"/>
+      <c r="BT36" s="270"/>
+      <c r="BU36" s="270"/>
+      <c r="BV36" s="270"/>
+      <c r="BW36" s="270"/>
+      <c r="BX36" s="270"/>
+      <c r="BY36" s="270"/>
+      <c r="BZ36" s="270"/>
+      <c r="CA36" s="270"/>
+      <c r="CB36" s="271"/>
     </row>
     <row r="37" spans="1:81" ht="12.75" customHeight="1">
       <c r="A37"/>
-      <c r="B37" s="300"/>
-      <c r="C37" s="301"/>
-      <c r="D37" s="270"/>
-      <c r="E37" s="270"/>
-      <c r="F37" s="270"/>
-      <c r="G37" s="270"/>
-      <c r="H37" s="270"/>
-      <c r="I37" s="270"/>
-      <c r="J37" s="270"/>
+      <c r="B37" s="275"/>
+      <c r="C37" s="276"/>
+      <c r="D37" s="278"/>
+      <c r="E37" s="278"/>
+      <c r="F37" s="278"/>
+      <c r="G37" s="278"/>
+      <c r="H37" s="278"/>
+      <c r="I37" s="278"/>
+      <c r="J37" s="278"/>
       <c r="K37" s="79"/>
       <c r="L37" s="79"/>
       <c r="M37" s="79"/>
@@ -7983,7 +8112,7 @@
       <c r="Y37" s="79"/>
       <c r="Z37" s="79"/>
       <c r="AA37" s="79"/>
-      <c r="AB37" s="273"/>
+      <c r="AB37" s="281"/>
       <c r="AC37"/>
       <c r="AD37"/>
       <c r="AE37"/>
@@ -8013,7 +8142,7 @@
       <c r="BC37" s="64"/>
       <c r="BD37" s="64"/>
       <c r="BE37" s="64"/>
-      <c r="BF37" s="282"/>
+      <c r="BF37" s="290"/>
       <c r="BG37" s="26"/>
       <c r="BH37" s="26"/>
       <c r="BI37" s="27"/>
@@ -8024,18 +8153,18 @@
       <c r="BN37"/>
       <c r="BO37"/>
       <c r="BP37"/>
-      <c r="BQ37" s="185"/>
-      <c r="BR37" s="186"/>
-      <c r="BS37" s="186"/>
-      <c r="BT37" s="186"/>
-      <c r="BU37" s="186"/>
-      <c r="BV37" s="186"/>
-      <c r="BW37" s="186"/>
-      <c r="BX37" s="186"/>
-      <c r="BY37" s="186"/>
-      <c r="BZ37" s="186"/>
-      <c r="CA37" s="186"/>
-      <c r="CB37" s="187"/>
+      <c r="BQ37" s="188"/>
+      <c r="BR37" s="189"/>
+      <c r="BS37" s="189"/>
+      <c r="BT37" s="189"/>
+      <c r="BU37" s="189"/>
+      <c r="BV37" s="189"/>
+      <c r="BW37" s="189"/>
+      <c r="BX37" s="189"/>
+      <c r="BY37" s="189"/>
+      <c r="BZ37" s="189"/>
+      <c r="CA37" s="189"/>
+      <c r="CB37" s="190"/>
       <c r="CC37"/>
     </row>
     <row r="38" spans="1:81" ht="17.25" customHeight="1">
@@ -11140,20 +11269,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1033" r:id="rId8" name="221">
+            <control shapeId="1038" r:id="rId8" name="333">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>61</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
-                    <xdr:row>26</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>64</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
-                    <xdr:row>27</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11162,7 +11291,29 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1034" r:id="rId9" name="223">
+            <control shapeId="1039" r:id="rId9" name="221">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>61</xdr:col>
+                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:row>26</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>64</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1040" r:id="rId10" name="223">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -11184,20 +11335,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId10" name="222">
+            <control shapeId="1041" r:id="rId11" name="222">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>67</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>85725</xdr:rowOff>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>70</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>95250</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11206,42 +11357,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1036" r:id="rId11" name="224">
+            <control shapeId="1042" r:id="rId12" name="224">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>67</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>70</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>57150</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1038" r:id="rId12" name="333">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>10</xdr:col>
-                    <xdr:colOff>66675</xdr:colOff>
-                    <xdr:row>17</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>18</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>219075</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
@@ -1828,7 +1828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1944,6 +1944,714 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1971,33 +2679,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2007,54 +2691,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2064,15 +2709,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2111,645 +2747,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5519,7 +5516,7 @@
   <dimension ref="A1:CE76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12:CB13"/>
+      <selection activeCell="AE10" sqref="AE10:CB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -5535,948 +5532,948 @@
   <sheetData>
     <row r="1" spans="1:81" ht="26.25" customHeight="1"/>
     <row r="2" spans="1:81" ht="20.25" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="BI2" s="187" t="s">
+      <c r="A2" s="209"/>
+      <c r="B2" s="209"/>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="209"/>
+      <c r="G2" s="213"/>
+      <c r="H2" s="213"/>
+      <c r="BI2" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="BJ2" s="183"/>
-      <c r="BK2" s="183"/>
-      <c r="BL2" s="183"/>
-      <c r="BM2" s="183"/>
-      <c r="BN2" s="184" t="s">
+      <c r="BJ2" s="187"/>
+      <c r="BK2" s="187"/>
+      <c r="BL2" s="187"/>
+      <c r="BM2" s="187"/>
+      <c r="BN2" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="BO2" s="185"/>
-      <c r="BP2" s="185"/>
-      <c r="BQ2" s="185"/>
-      <c r="BR2" s="185"/>
-      <c r="BS2" s="186"/>
-      <c r="BT2" s="183" t="s">
+      <c r="BO2" s="189"/>
+      <c r="BP2" s="189"/>
+      <c r="BQ2" s="189"/>
+      <c r="BR2" s="189"/>
+      <c r="BS2" s="190"/>
+      <c r="BT2" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="BU2" s="183"/>
-      <c r="BV2" s="183"/>
-      <c r="BW2" s="183"/>
-      <c r="BX2" s="183"/>
-      <c r="BY2" s="180" t="s">
+      <c r="BU2" s="187"/>
+      <c r="BV2" s="187"/>
+      <c r="BW2" s="187"/>
+      <c r="BX2" s="187"/>
+      <c r="BY2" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="BZ2" s="181"/>
-      <c r="CA2" s="181"/>
-      <c r="CB2" s="181"/>
-      <c r="CC2" s="182"/>
+      <c r="BZ2" s="185"/>
+      <c r="CA2" s="185"/>
+      <c r="CB2" s="185"/>
+      <c r="CC2" s="186"/>
     </row>
     <row r="3" spans="1:81" ht="18" customHeight="1">
-      <c r="A3" s="153"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="W3" s="194"/>
-      <c r="X3" s="194"/>
-      <c r="Y3" s="194"/>
-      <c r="Z3" s="194"/>
-      <c r="AA3" s="194"/>
-      <c r="AB3" s="194"/>
-      <c r="AC3" s="194"/>
-      <c r="AD3" s="194"/>
-      <c r="AE3" s="194"/>
-      <c r="AF3" s="194"/>
-      <c r="AG3" s="194"/>
-      <c r="AH3" s="194"/>
+      <c r="A3" s="209"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="213"/>
+      <c r="H3" s="213"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="195"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="195"/>
+      <c r="AC3" s="195"/>
+      <c r="AD3" s="195"/>
+      <c r="AE3" s="195"/>
+      <c r="AF3" s="195"/>
+      <c r="AG3" s="195"/>
+      <c r="AH3" s="195"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
-      <c r="AK3" s="193" t="s">
+      <c r="AK3" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="AL3" s="193"/>
-      <c r="AM3" s="193"/>
-      <c r="AN3" s="193"/>
-      <c r="AO3" s="193"/>
-      <c r="AP3" s="193"/>
-      <c r="AQ3" s="193"/>
-      <c r="AR3" s="193"/>
-      <c r="AS3" s="193"/>
-      <c r="AT3" s="193"/>
-      <c r="AU3" s="193"/>
-      <c r="AV3" s="193"/>
-      <c r="AW3" s="193"/>
-      <c r="AX3" s="193"/>
-      <c r="AY3" s="193"/>
-      <c r="AZ3" s="193"/>
-      <c r="BA3" s="193"/>
-      <c r="BB3" s="193"/>
+      <c r="AL3" s="195"/>
+      <c r="AM3" s="195"/>
+      <c r="AN3" s="195"/>
+      <c r="AO3" s="195"/>
+      <c r="AP3" s="195"/>
+      <c r="AQ3" s="195"/>
+      <c r="AR3" s="195"/>
+      <c r="AS3" s="195"/>
+      <c r="AT3" s="195"/>
+      <c r="AU3" s="195"/>
+      <c r="AV3" s="195"/>
+      <c r="AW3" s="195"/>
+      <c r="AX3" s="195"/>
+      <c r="AY3" s="195"/>
+      <c r="AZ3" s="195"/>
+      <c r="BA3" s="195"/>
+      <c r="BB3" s="195"/>
       <c r="BC3" s="6"/>
       <c r="BD3" s="6"/>
       <c r="BE3" s="6"/>
       <c r="BF3" s="6"/>
       <c r="BG3" s="6"/>
       <c r="BH3" s="7"/>
-      <c r="BI3" s="48"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="49"/>
-      <c r="BL3" s="49"/>
-      <c r="BM3" s="50"/>
-      <c r="BN3" s="48"/>
-      <c r="BO3" s="49"/>
-      <c r="BP3" s="49"/>
-      <c r="BQ3" s="49"/>
-      <c r="BR3" s="49"/>
-      <c r="BS3" s="50"/>
-      <c r="BT3" s="48"/>
-      <c r="BU3" s="49"/>
-      <c r="BV3" s="49"/>
-      <c r="BW3" s="49"/>
-      <c r="BX3" s="50"/>
-      <c r="BY3" s="48"/>
-      <c r="BZ3" s="49"/>
-      <c r="CA3" s="49"/>
-      <c r="CB3" s="49"/>
-      <c r="CC3" s="50"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="44"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="44"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="43"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="43"/>
+      <c r="BX3" s="44"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="43"/>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="44"/>
     </row>
     <row r="4" spans="1:81" ht="18" customHeight="1">
-      <c r="W4" s="193"/>
-      <c r="X4" s="193"/>
-      <c r="Y4" s="193"/>
-      <c r="Z4" s="193"/>
-      <c r="AA4" s="193"/>
-      <c r="AB4" s="193"/>
-      <c r="AC4" s="193"/>
-      <c r="AD4" s="193"/>
-      <c r="AE4" s="193"/>
-      <c r="AF4" s="193"/>
-      <c r="AG4" s="193"/>
-      <c r="AH4" s="193"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="195"/>
+      <c r="Y4" s="195"/>
+      <c r="Z4" s="195"/>
+      <c r="AA4" s="195"/>
+      <c r="AB4" s="195"/>
+      <c r="AC4" s="195"/>
+      <c r="AD4" s="195"/>
+      <c r="AE4" s="195"/>
+      <c r="AF4" s="195"/>
+      <c r="AG4" s="195"/>
+      <c r="AH4" s="195"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="193"/>
-      <c r="AL4" s="193"/>
-      <c r="AM4" s="193"/>
-      <c r="AN4" s="193"/>
-      <c r="AO4" s="193"/>
-      <c r="AP4" s="193"/>
-      <c r="AQ4" s="193"/>
-      <c r="AR4" s="193"/>
-      <c r="AS4" s="193"/>
-      <c r="AT4" s="193"/>
-      <c r="AU4" s="193"/>
-      <c r="AV4" s="193"/>
-      <c r="AW4" s="193"/>
-      <c r="AX4" s="193"/>
-      <c r="AY4" s="193"/>
-      <c r="AZ4" s="193"/>
-      <c r="BA4" s="193"/>
-      <c r="BB4" s="193"/>
+      <c r="AK4" s="195"/>
+      <c r="AL4" s="195"/>
+      <c r="AM4" s="195"/>
+      <c r="AN4" s="195"/>
+      <c r="AO4" s="195"/>
+      <c r="AP4" s="195"/>
+      <c r="AQ4" s="195"/>
+      <c r="AR4" s="195"/>
+      <c r="AS4" s="195"/>
+      <c r="AT4" s="195"/>
+      <c r="AU4" s="195"/>
+      <c r="AV4" s="195"/>
+      <c r="AW4" s="195"/>
+      <c r="AX4" s="195"/>
+      <c r="AY4" s="195"/>
+      <c r="AZ4" s="195"/>
+      <c r="BA4" s="195"/>
+      <c r="BB4" s="195"/>
       <c r="BC4" s="6"/>
       <c r="BD4" s="6"/>
       <c r="BE4" s="6"/>
       <c r="BF4" s="6"/>
       <c r="BG4" s="6"/>
       <c r="BH4" s="7"/>
-      <c r="BI4" s="188"/>
-      <c r="BJ4" s="189"/>
-      <c r="BK4" s="189"/>
-      <c r="BL4" s="189"/>
-      <c r="BM4" s="190"/>
-      <c r="BN4" s="188"/>
-      <c r="BO4" s="189"/>
-      <c r="BP4" s="189"/>
-      <c r="BQ4" s="189"/>
-      <c r="BR4" s="189"/>
-      <c r="BS4" s="190"/>
-      <c r="BT4" s="188"/>
-      <c r="BU4" s="189"/>
-      <c r="BV4" s="189"/>
-      <c r="BW4" s="189"/>
-      <c r="BX4" s="190"/>
-      <c r="BY4" s="188"/>
-      <c r="BZ4" s="189"/>
-      <c r="CA4" s="189"/>
-      <c r="CB4" s="189"/>
-      <c r="CC4" s="190"/>
+      <c r="BI4" s="48"/>
+      <c r="BJ4" s="49"/>
+      <c r="BK4" s="49"/>
+      <c r="BL4" s="49"/>
+      <c r="BM4" s="50"/>
+      <c r="BN4" s="48"/>
+      <c r="BO4" s="49"/>
+      <c r="BP4" s="49"/>
+      <c r="BQ4" s="49"/>
+      <c r="BR4" s="49"/>
+      <c r="BS4" s="50"/>
+      <c r="BT4" s="48"/>
+      <c r="BU4" s="49"/>
+      <c r="BV4" s="49"/>
+      <c r="BW4" s="49"/>
+      <c r="BX4" s="50"/>
+      <c r="BY4" s="48"/>
+      <c r="BZ4" s="49"/>
+      <c r="CA4" s="49"/>
+      <c r="CB4" s="49"/>
+      <c r="CC4" s="50"/>
     </row>
     <row r="5" spans="1:81" ht="9" customHeight="1"/>
     <row r="6" spans="1:81" ht="24" customHeight="1">
-      <c r="A6" s="300" t="s">
+      <c r="A6" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="300"/>
-      <c r="C6" s="168" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="221" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="163" t="s">
+      <c r="D6" s="221"/>
+      <c r="E6" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="95" t="s">
+      <c r="F6" s="216"/>
+      <c r="G6" s="216"/>
+      <c r="H6" s="216"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="216"/>
+      <c r="L6" s="216"/>
+      <c r="M6" s="216"/>
+      <c r="N6" s="216"/>
+      <c r="O6" s="216"/>
+      <c r="P6" s="216"/>
+      <c r="Q6" s="235" t="s">
         <v>53</v>
       </c>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="99" t="s">
+      <c r="R6" s="236"/>
+      <c r="S6" s="236"/>
+      <c r="T6" s="236"/>
+      <c r="U6" s="236"/>
+      <c r="V6" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="100"/>
-      <c r="AB6" s="100"/>
-      <c r="AC6" s="100"/>
-      <c r="AD6" s="100"/>
-      <c r="AE6" s="100"/>
-      <c r="AF6" s="100"/>
-      <c r="AG6" s="100"/>
-      <c r="AH6" s="100"/>
-      <c r="AI6" s="100"/>
-      <c r="AJ6" s="100"/>
-      <c r="AK6" s="100"/>
-      <c r="AL6" s="100"/>
-      <c r="AM6" s="100"/>
-      <c r="AN6" s="100"/>
-      <c r="AO6" s="100"/>
-      <c r="AP6" s="100"/>
-      <c r="AQ6" s="100"/>
-      <c r="AR6" s="100"/>
-      <c r="AS6" s="101"/>
-      <c r="AT6" s="100" t="s">
+      <c r="W6" s="115"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="115"/>
+      <c r="Z6" s="115"/>
+      <c r="AA6" s="115"/>
+      <c r="AB6" s="115"/>
+      <c r="AC6" s="115"/>
+      <c r="AD6" s="115"/>
+      <c r="AE6" s="115"/>
+      <c r="AF6" s="115"/>
+      <c r="AG6" s="115"/>
+      <c r="AH6" s="115"/>
+      <c r="AI6" s="115"/>
+      <c r="AJ6" s="115"/>
+      <c r="AK6" s="115"/>
+      <c r="AL6" s="115"/>
+      <c r="AM6" s="115"/>
+      <c r="AN6" s="115"/>
+      <c r="AO6" s="115"/>
+      <c r="AP6" s="115"/>
+      <c r="AQ6" s="115"/>
+      <c r="AR6" s="115"/>
+      <c r="AS6" s="116"/>
+      <c r="AT6" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="AU6" s="100"/>
-      <c r="AV6" s="100"/>
-      <c r="AW6" s="100"/>
-      <c r="AX6" s="100"/>
-      <c r="AY6" s="100"/>
-      <c r="AZ6" s="100"/>
-      <c r="BA6" s="100"/>
-      <c r="BB6" s="100"/>
-      <c r="BC6" s="100"/>
-      <c r="BD6" s="100"/>
-      <c r="BE6" s="100"/>
-      <c r="BF6" s="100"/>
-      <c r="BG6" s="100"/>
-      <c r="BH6" s="100"/>
-      <c r="BI6" s="101"/>
-      <c r="BJ6" s="48" t="s">
+      <c r="AU6" s="115"/>
+      <c r="AV6" s="115"/>
+      <c r="AW6" s="115"/>
+      <c r="AX6" s="115"/>
+      <c r="AY6" s="115"/>
+      <c r="AZ6" s="115"/>
+      <c r="BA6" s="115"/>
+      <c r="BB6" s="115"/>
+      <c r="BC6" s="115"/>
+      <c r="BD6" s="115"/>
+      <c r="BE6" s="115"/>
+      <c r="BF6" s="115"/>
+      <c r="BG6" s="115"/>
+      <c r="BH6" s="115"/>
+      <c r="BI6" s="116"/>
+      <c r="BJ6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="BK6" s="49"/>
-      <c r="BL6" s="49"/>
-      <c r="BM6" s="49"/>
-      <c r="BN6" s="49"/>
-      <c r="BO6" s="49"/>
-      <c r="BP6" s="49"/>
-      <c r="BQ6" s="49"/>
-      <c r="BR6" s="49"/>
-      <c r="BS6" s="49"/>
-      <c r="BT6" s="49"/>
-      <c r="BU6" s="49"/>
-      <c r="BV6" s="49"/>
-      <c r="BW6" s="49"/>
-      <c r="BX6" s="49"/>
-      <c r="BY6" s="49"/>
-      <c r="BZ6" s="50"/>
-      <c r="CA6" s="198"/>
-      <c r="CB6" s="199"/>
+      <c r="BK6" s="43"/>
+      <c r="BL6" s="43"/>
+      <c r="BM6" s="43"/>
+      <c r="BN6" s="43"/>
+      <c r="BO6" s="43"/>
+      <c r="BP6" s="43"/>
+      <c r="BQ6" s="43"/>
+      <c r="BR6" s="43"/>
+      <c r="BS6" s="43"/>
+      <c r="BT6" s="43"/>
+      <c r="BU6" s="43"/>
+      <c r="BV6" s="43"/>
+      <c r="BW6" s="43"/>
+      <c r="BX6" s="43"/>
+      <c r="BY6" s="43"/>
+      <c r="BZ6" s="44"/>
+      <c r="CA6" s="205"/>
+      <c r="CB6" s="206"/>
       <c r="CC6" s="10"/>
     </row>
     <row r="7" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A7" s="300"/>
-      <c r="B7" s="300"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="191"/>
-      <c r="AE7" s="111"/>
-      <c r="AF7" s="200"/>
-      <c r="AG7" s="111"/>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="54"/>
-      <c r="AJ7" s="54"/>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="54"/>
-      <c r="AN7" s="54"/>
-      <c r="AO7" s="54"/>
-      <c r="AP7" s="54"/>
-      <c r="AQ7" s="54"/>
-      <c r="AR7" s="145"/>
-      <c r="AS7" s="146"/>
-      <c r="AT7" s="148" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="217"/>
+      <c r="Q7" s="232"/>
+      <c r="R7" s="233"/>
+      <c r="S7" s="233"/>
+      <c r="T7" s="233"/>
+      <c r="U7" s="233"/>
+      <c r="V7" s="237"/>
+      <c r="W7" s="238"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="165"/>
+      <c r="AD7" s="192"/>
+      <c r="AE7" s="149"/>
+      <c r="AF7" s="207"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="150"/>
+      <c r="AJ7" s="150"/>
+      <c r="AK7" s="165"/>
+      <c r="AL7" s="73"/>
+      <c r="AM7" s="150"/>
+      <c r="AN7" s="150"/>
+      <c r="AO7" s="150"/>
+      <c r="AP7" s="150"/>
+      <c r="AQ7" s="150"/>
+      <c r="AR7" s="268"/>
+      <c r="AS7" s="269"/>
+      <c r="AT7" s="271" t="s">
         <v>37</v>
       </c>
-      <c r="AU7" s="149"/>
-      <c r="AV7" s="231"/>
-      <c r="AW7" s="231"/>
-      <c r="AX7" s="231"/>
-      <c r="AY7" s="231"/>
-      <c r="AZ7" s="231"/>
-      <c r="BA7" s="232"/>
-      <c r="BB7" s="195"/>
-      <c r="BC7" s="196"/>
-      <c r="BD7" s="196"/>
-      <c r="BE7" s="196"/>
-      <c r="BF7" s="196"/>
-      <c r="BG7" s="196"/>
-      <c r="BH7" s="196"/>
-      <c r="BI7" s="197"/>
-      <c r="BJ7" s="129" t="s">
+      <c r="AU7" s="272"/>
+      <c r="AV7" s="176"/>
+      <c r="AW7" s="176"/>
+      <c r="AX7" s="176"/>
+      <c r="AY7" s="176"/>
+      <c r="AZ7" s="176"/>
+      <c r="BA7" s="177"/>
+      <c r="BB7" s="202"/>
+      <c r="BC7" s="203"/>
+      <c r="BD7" s="203"/>
+      <c r="BE7" s="203"/>
+      <c r="BF7" s="203"/>
+      <c r="BG7" s="203"/>
+      <c r="BH7" s="203"/>
+      <c r="BI7" s="204"/>
+      <c r="BJ7" s="196" t="s">
         <v>48</v>
       </c>
-      <c r="BK7" s="130"/>
-      <c r="BL7" s="130"/>
-      <c r="BM7" s="131"/>
-      <c r="BN7" s="109"/>
-      <c r="BO7" s="56"/>
-      <c r="BP7" s="158"/>
-      <c r="BQ7" s="154"/>
-      <c r="BR7" s="155"/>
-      <c r="BS7" s="56"/>
-      <c r="BT7" s="158"/>
-      <c r="BU7" s="158"/>
-      <c r="BV7" s="112"/>
-      <c r="BW7" s="56"/>
-      <c r="BX7" s="158"/>
-      <c r="BY7" s="158"/>
-      <c r="BZ7" s="159"/>
-      <c r="CA7" s="198"/>
-      <c r="CB7" s="199"/>
+      <c r="BK7" s="197"/>
+      <c r="BL7" s="197"/>
+      <c r="BM7" s="198"/>
+      <c r="BN7" s="161"/>
+      <c r="BO7" s="69"/>
+      <c r="BP7" s="163"/>
+      <c r="BQ7" s="68"/>
+      <c r="BR7" s="210"/>
+      <c r="BS7" s="69"/>
+      <c r="BT7" s="163"/>
+      <c r="BU7" s="163"/>
+      <c r="BV7" s="175"/>
+      <c r="BW7" s="69"/>
+      <c r="BX7" s="163"/>
+      <c r="BY7" s="163"/>
+      <c r="BZ7" s="164"/>
+      <c r="CA7" s="205"/>
+      <c r="CB7" s="206"/>
       <c r="CC7" s="10"/>
     </row>
     <row r="8" spans="1:81" ht="21.75" customHeight="1">
-      <c r="A8" s="300"/>
-      <c r="B8" s="300"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="164"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="172"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="192"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="201"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="172"/>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="147"/>
-      <c r="AS8" s="115"/>
-      <c r="AT8" s="139" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="220"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="225"/>
+      <c r="I8" s="218"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="217"/>
+      <c r="Q8" s="234"/>
+      <c r="R8" s="171"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="171"/>
+      <c r="V8" s="234"/>
+      <c r="W8" s="239"/>
+      <c r="X8" s="166"/>
+      <c r="Y8" s="158"/>
+      <c r="Z8" s="158"/>
+      <c r="AA8" s="158"/>
+      <c r="AB8" s="158"/>
+      <c r="AC8" s="167"/>
+      <c r="AD8" s="193"/>
+      <c r="AE8" s="194"/>
+      <c r="AF8" s="208"/>
+      <c r="AG8" s="194"/>
+      <c r="AH8" s="158"/>
+      <c r="AI8" s="158"/>
+      <c r="AJ8" s="158"/>
+      <c r="AK8" s="167"/>
+      <c r="AL8" s="166"/>
+      <c r="AM8" s="158"/>
+      <c r="AN8" s="158"/>
+      <c r="AO8" s="158"/>
+      <c r="AP8" s="158"/>
+      <c r="AQ8" s="158"/>
+      <c r="AR8" s="270"/>
+      <c r="AS8" s="244"/>
+      <c r="AT8" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="AU8" s="140"/>
-      <c r="AV8" s="233"/>
-      <c r="AW8" s="233"/>
-      <c r="AX8" s="233"/>
-      <c r="AY8" s="233"/>
-      <c r="AZ8" s="233"/>
-      <c r="BA8" s="234"/>
-      <c r="BB8" s="235" t="s">
+      <c r="AU8" s="263"/>
+      <c r="AV8" s="178"/>
+      <c r="AW8" s="178"/>
+      <c r="AX8" s="178"/>
+      <c r="AY8" s="178"/>
+      <c r="AZ8" s="178"/>
+      <c r="BA8" s="179"/>
+      <c r="BB8" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="BC8" s="236"/>
-      <c r="BD8" s="141"/>
-      <c r="BE8" s="141"/>
-      <c r="BF8" s="141"/>
-      <c r="BG8" s="141"/>
-      <c r="BH8" s="141"/>
-      <c r="BI8" s="142"/>
-      <c r="BJ8" s="132"/>
-      <c r="BK8" s="133"/>
-      <c r="BL8" s="133"/>
-      <c r="BM8" s="134"/>
-      <c r="BN8" s="111"/>
-      <c r="BO8" s="53"/>
-      <c r="BP8" s="54"/>
-      <c r="BQ8" s="156"/>
-      <c r="BR8" s="157"/>
-      <c r="BS8" s="53"/>
-      <c r="BT8" s="54"/>
-      <c r="BU8" s="54"/>
-      <c r="BV8" s="107"/>
-      <c r="BW8" s="53"/>
-      <c r="BX8" s="54"/>
-      <c r="BY8" s="54"/>
-      <c r="BZ8" s="73"/>
-      <c r="CA8" s="198"/>
-      <c r="CB8" s="199"/>
+      <c r="BC8" s="181"/>
+      <c r="BD8" s="264"/>
+      <c r="BE8" s="264"/>
+      <c r="BF8" s="264"/>
+      <c r="BG8" s="264"/>
+      <c r="BH8" s="264"/>
+      <c r="BI8" s="265"/>
+      <c r="BJ8" s="199"/>
+      <c r="BK8" s="200"/>
+      <c r="BL8" s="200"/>
+      <c r="BM8" s="201"/>
+      <c r="BN8" s="149"/>
+      <c r="BO8" s="73"/>
+      <c r="BP8" s="150"/>
+      <c r="BQ8" s="211"/>
+      <c r="BR8" s="212"/>
+      <c r="BS8" s="73"/>
+      <c r="BT8" s="150"/>
+      <c r="BU8" s="150"/>
+      <c r="BV8" s="169"/>
+      <c r="BW8" s="73"/>
+      <c r="BX8" s="150"/>
+      <c r="BY8" s="150"/>
+      <c r="BZ8" s="165"/>
+      <c r="CA8" s="205"/>
+      <c r="CB8" s="206"/>
       <c r="CC8" s="10"/>
     </row>
     <row r="9" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A9" s="300"/>
-      <c r="B9" s="300"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="202" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="203"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="151" t="s">
+      <c r="F9" s="134"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="273" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="152"/>
+      <c r="I9" s="274"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="65" t="s">
+      <c r="N9" s="194"/>
+      <c r="O9" s="158"/>
+      <c r="P9" s="158"/>
+      <c r="Q9" s="158"/>
+      <c r="R9" s="158"/>
+      <c r="S9" s="158"/>
+      <c r="T9" s="158"/>
+      <c r="U9" s="158"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="150"/>
+      <c r="X9" s="150"/>
+      <c r="Y9" s="150"/>
+      <c r="Z9" s="150"/>
+      <c r="AA9" s="165"/>
+      <c r="AB9" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="143" t="s">
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="289"/>
+      <c r="AE9" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="AF9" s="144"/>
-      <c r="AG9" s="144"/>
-      <c r="AH9" s="144"/>
-      <c r="AI9" s="135"/>
-      <c r="AJ9" s="135"/>
-      <c r="AK9" s="135"/>
-      <c r="AL9" s="135"/>
-      <c r="AM9" s="135"/>
-      <c r="AN9" s="135"/>
-      <c r="AO9" s="135"/>
-      <c r="AP9" s="135"/>
-      <c r="AQ9" s="135"/>
-      <c r="AR9" s="135"/>
-      <c r="AS9" s="135"/>
-      <c r="AT9" s="135"/>
-      <c r="AU9" s="135"/>
-      <c r="AV9" s="135"/>
-      <c r="AW9" s="135"/>
-      <c r="AX9" s="135"/>
-      <c r="AY9" s="135"/>
-      <c r="AZ9" s="135"/>
-      <c r="BA9" s="135"/>
-      <c r="BB9" s="135"/>
-      <c r="BC9" s="135"/>
-      <c r="BD9" s="135"/>
-      <c r="BE9" s="135"/>
-      <c r="BF9" s="135"/>
-      <c r="BG9" s="135"/>
-      <c r="BH9" s="135"/>
-      <c r="BI9" s="135"/>
-      <c r="BJ9" s="135"/>
-      <c r="BK9" s="135"/>
-      <c r="BL9" s="135"/>
-      <c r="BM9" s="135"/>
-      <c r="BN9" s="135"/>
-      <c r="BO9" s="135"/>
-      <c r="BP9" s="135"/>
-      <c r="BQ9" s="135"/>
-      <c r="BR9" s="135"/>
-      <c r="BS9" s="135"/>
-      <c r="BT9" s="135"/>
-      <c r="BU9" s="135"/>
-      <c r="BV9" s="135"/>
-      <c r="BW9" s="135"/>
-      <c r="BX9" s="135"/>
-      <c r="BY9" s="135"/>
-      <c r="BZ9" s="135"/>
-      <c r="CA9" s="135"/>
-      <c r="CB9" s="136"/>
+      <c r="AF9" s="267"/>
+      <c r="AG9" s="267"/>
+      <c r="AH9" s="267"/>
+      <c r="AI9" s="258"/>
+      <c r="AJ9" s="258"/>
+      <c r="AK9" s="258"/>
+      <c r="AL9" s="258"/>
+      <c r="AM9" s="258"/>
+      <c r="AN9" s="258"/>
+      <c r="AO9" s="258"/>
+      <c r="AP9" s="258"/>
+      <c r="AQ9" s="258"/>
+      <c r="AR9" s="258"/>
+      <c r="AS9" s="258"/>
+      <c r="AT9" s="258"/>
+      <c r="AU9" s="258"/>
+      <c r="AV9" s="258"/>
+      <c r="AW9" s="258"/>
+      <c r="AX9" s="258"/>
+      <c r="AY9" s="258"/>
+      <c r="AZ9" s="258"/>
+      <c r="BA9" s="258"/>
+      <c r="BB9" s="258"/>
+      <c r="BC9" s="258"/>
+      <c r="BD9" s="258"/>
+      <c r="BE9" s="258"/>
+      <c r="BF9" s="258"/>
+      <c r="BG9" s="258"/>
+      <c r="BH9" s="258"/>
+      <c r="BI9" s="258"/>
+      <c r="BJ9" s="258"/>
+      <c r="BK9" s="258"/>
+      <c r="BL9" s="258"/>
+      <c r="BM9" s="258"/>
+      <c r="BN9" s="258"/>
+      <c r="BO9" s="258"/>
+      <c r="BP9" s="258"/>
+      <c r="BQ9" s="258"/>
+      <c r="BR9" s="258"/>
+      <c r="BS9" s="258"/>
+      <c r="BT9" s="258"/>
+      <c r="BU9" s="258"/>
+      <c r="BV9" s="258"/>
+      <c r="BW9" s="258"/>
+      <c r="BX9" s="258"/>
+      <c r="BY9" s="258"/>
+      <c r="BZ9" s="258"/>
+      <c r="CA9" s="258"/>
+      <c r="CB9" s="259"/>
     </row>
     <row r="10" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A10" s="300"/>
-      <c r="B10" s="300"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="207"/>
-      <c r="H10" s="221" t="s">
+      <c r="A10" s="100"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="222"/>
-      <c r="J10" s="222"/>
-      <c r="K10" s="222"/>
-      <c r="L10" s="222"/>
-      <c r="M10" s="222"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="67"/>
-      <c r="AE10" s="211"/>
-      <c r="AF10" s="212"/>
-      <c r="AG10" s="212"/>
-      <c r="AH10" s="212"/>
-      <c r="AI10" s="212"/>
-      <c r="AJ10" s="212"/>
-      <c r="AK10" s="212"/>
-      <c r="AL10" s="212"/>
-      <c r="AM10" s="212"/>
-      <c r="AN10" s="212"/>
-      <c r="AO10" s="212"/>
-      <c r="AP10" s="212"/>
-      <c r="AQ10" s="212"/>
-      <c r="AR10" s="212"/>
-      <c r="AS10" s="212"/>
-      <c r="AT10" s="212"/>
-      <c r="AU10" s="212"/>
-      <c r="AV10" s="212"/>
-      <c r="AW10" s="212"/>
-      <c r="AX10" s="212"/>
-      <c r="AY10" s="212"/>
-      <c r="AZ10" s="212"/>
-      <c r="BA10" s="212"/>
-      <c r="BB10" s="212"/>
-      <c r="BC10" s="212"/>
-      <c r="BD10" s="212"/>
-      <c r="BE10" s="212"/>
-      <c r="BF10" s="212"/>
-      <c r="BG10" s="212"/>
-      <c r="BH10" s="212"/>
-      <c r="BI10" s="212"/>
-      <c r="BJ10" s="212"/>
-      <c r="BK10" s="212"/>
-      <c r="BL10" s="212"/>
-      <c r="BM10" s="212"/>
-      <c r="BN10" s="212"/>
-      <c r="BO10" s="212"/>
-      <c r="BP10" s="212"/>
-      <c r="BQ10" s="212"/>
-      <c r="BR10" s="212"/>
-      <c r="BS10" s="212"/>
-      <c r="BT10" s="212"/>
-      <c r="BU10" s="212"/>
-      <c r="BV10" s="212"/>
-      <c r="BW10" s="212"/>
-      <c r="BX10" s="212"/>
-      <c r="BY10" s="212"/>
-      <c r="BZ10" s="212"/>
-      <c r="CA10" s="212"/>
-      <c r="CB10" s="213"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="158"/>
+      <c r="P10" s="158"/>
+      <c r="Q10" s="158"/>
+      <c r="R10" s="158"/>
+      <c r="S10" s="158"/>
+      <c r="T10" s="158"/>
+      <c r="U10" s="158"/>
+      <c r="V10" s="158"/>
+      <c r="W10" s="158"/>
+      <c r="X10" s="158"/>
+      <c r="Y10" s="158"/>
+      <c r="Z10" s="158"/>
+      <c r="AA10" s="167"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="289"/>
+      <c r="AE10" s="142"/>
+      <c r="AF10" s="128"/>
+      <c r="AG10" s="128"/>
+      <c r="AH10" s="128"/>
+      <c r="AI10" s="128"/>
+      <c r="AJ10" s="128"/>
+      <c r="AK10" s="128"/>
+      <c r="AL10" s="128"/>
+      <c r="AM10" s="128"/>
+      <c r="AN10" s="128"/>
+      <c r="AO10" s="128"/>
+      <c r="AP10" s="128"/>
+      <c r="AQ10" s="128"/>
+      <c r="AR10" s="128"/>
+      <c r="AS10" s="128"/>
+      <c r="AT10" s="128"/>
+      <c r="AU10" s="128"/>
+      <c r="AV10" s="128"/>
+      <c r="AW10" s="128"/>
+      <c r="AX10" s="128"/>
+      <c r="AY10" s="128"/>
+      <c r="AZ10" s="128"/>
+      <c r="BA10" s="128"/>
+      <c r="BB10" s="128"/>
+      <c r="BC10" s="128"/>
+      <c r="BD10" s="128"/>
+      <c r="BE10" s="128"/>
+      <c r="BF10" s="128"/>
+      <c r="BG10" s="128"/>
+      <c r="BH10" s="128"/>
+      <c r="BI10" s="128"/>
+      <c r="BJ10" s="128"/>
+      <c r="BK10" s="128"/>
+      <c r="BL10" s="128"/>
+      <c r="BM10" s="128"/>
+      <c r="BN10" s="128"/>
+      <c r="BO10" s="128"/>
+      <c r="BP10" s="128"/>
+      <c r="BQ10" s="128"/>
+      <c r="BR10" s="128"/>
+      <c r="BS10" s="128"/>
+      <c r="BT10" s="128"/>
+      <c r="BU10" s="128"/>
+      <c r="BV10" s="128"/>
+      <c r="BW10" s="128"/>
+      <c r="BX10" s="128"/>
+      <c r="BY10" s="128"/>
+      <c r="BZ10" s="128"/>
+      <c r="CA10" s="128"/>
+      <c r="CB10" s="129"/>
     </row>
     <row r="11" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A11" s="300"/>
-      <c r="B11" s="300"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="208"/>
-      <c r="F11" s="209"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="223"/>
-      <c r="I11" s="224"/>
-      <c r="J11" s="224"/>
-      <c r="K11" s="224"/>
-      <c r="L11" s="224"/>
-      <c r="M11" s="224"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="214"/>
-      <c r="AF11" s="215"/>
-      <c r="AG11" s="215"/>
-      <c r="AH11" s="215"/>
-      <c r="AI11" s="215"/>
-      <c r="AJ11" s="215"/>
-      <c r="AK11" s="215"/>
-      <c r="AL11" s="215"/>
-      <c r="AM11" s="215"/>
-      <c r="AN11" s="215"/>
-      <c r="AO11" s="215"/>
-      <c r="AP11" s="215"/>
-      <c r="AQ11" s="215"/>
-      <c r="AR11" s="215"/>
-      <c r="AS11" s="215"/>
-      <c r="AT11" s="215"/>
-      <c r="AU11" s="215"/>
-      <c r="AV11" s="215"/>
-      <c r="AW11" s="215"/>
-      <c r="AX11" s="215"/>
-      <c r="AY11" s="215"/>
-      <c r="AZ11" s="215"/>
-      <c r="BA11" s="215"/>
-      <c r="BB11" s="215"/>
-      <c r="BC11" s="215"/>
-      <c r="BD11" s="215"/>
-      <c r="BE11" s="215"/>
-      <c r="BF11" s="215"/>
-      <c r="BG11" s="215"/>
-      <c r="BH11" s="215"/>
-      <c r="BI11" s="215"/>
-      <c r="BJ11" s="215"/>
-      <c r="BK11" s="215"/>
-      <c r="BL11" s="215"/>
-      <c r="BM11" s="215"/>
-      <c r="BN11" s="215"/>
-      <c r="BO11" s="215"/>
-      <c r="BP11" s="215"/>
-      <c r="BQ11" s="215"/>
-      <c r="BR11" s="215"/>
-      <c r="BS11" s="215"/>
-      <c r="BT11" s="215"/>
-      <c r="BU11" s="215"/>
-      <c r="BV11" s="215"/>
-      <c r="BW11" s="215"/>
-      <c r="BX11" s="215"/>
-      <c r="BY11" s="215"/>
-      <c r="BZ11" s="215"/>
-      <c r="CA11" s="215"/>
-      <c r="CB11" s="216"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="221"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="153"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="194"/>
+      <c r="O11" s="158"/>
+      <c r="P11" s="158"/>
+      <c r="Q11" s="158"/>
+      <c r="R11" s="158"/>
+      <c r="S11" s="158"/>
+      <c r="T11" s="158"/>
+      <c r="U11" s="158"/>
+      <c r="V11" s="158"/>
+      <c r="W11" s="158"/>
+      <c r="X11" s="158"/>
+      <c r="Y11" s="158"/>
+      <c r="Z11" s="158"/>
+      <c r="AA11" s="167"/>
+      <c r="AB11" s="91"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="290"/>
+      <c r="AE11" s="143"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="98"/>
+      <c r="AH11" s="98"/>
+      <c r="AI11" s="98"/>
+      <c r="AJ11" s="98"/>
+      <c r="AK11" s="98"/>
+      <c r="AL11" s="98"/>
+      <c r="AM11" s="98"/>
+      <c r="AN11" s="98"/>
+      <c r="AO11" s="98"/>
+      <c r="AP11" s="98"/>
+      <c r="AQ11" s="98"/>
+      <c r="AR11" s="98"/>
+      <c r="AS11" s="98"/>
+      <c r="AT11" s="98"/>
+      <c r="AU11" s="98"/>
+      <c r="AV11" s="98"/>
+      <c r="AW11" s="98"/>
+      <c r="AX11" s="98"/>
+      <c r="AY11" s="98"/>
+      <c r="AZ11" s="98"/>
+      <c r="BA11" s="98"/>
+      <c r="BB11" s="98"/>
+      <c r="BC11" s="98"/>
+      <c r="BD11" s="98"/>
+      <c r="BE11" s="98"/>
+      <c r="BF11" s="98"/>
+      <c r="BG11" s="98"/>
+      <c r="BH11" s="98"/>
+      <c r="BI11" s="98"/>
+      <c r="BJ11" s="98"/>
+      <c r="BK11" s="98"/>
+      <c r="BL11" s="98"/>
+      <c r="BM11" s="98"/>
+      <c r="BN11" s="98"/>
+      <c r="BO11" s="98"/>
+      <c r="BP11" s="98"/>
+      <c r="BQ11" s="98"/>
+      <c r="BR11" s="98"/>
+      <c r="BS11" s="98"/>
+      <c r="BT11" s="98"/>
+      <c r="BU11" s="98"/>
+      <c r="BV11" s="98"/>
+      <c r="BW11" s="98"/>
+      <c r="BX11" s="98"/>
+      <c r="BY11" s="98"/>
+      <c r="BZ11" s="98"/>
+      <c r="CA11" s="98"/>
+      <c r="CB11" s="144"/>
     </row>
     <row r="12" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A12" s="300"/>
-      <c r="B12" s="300"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="89" t="s">
+      <c r="A12" s="100"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="221"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="301" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="250" t="s">
+      <c r="F12" s="302"/>
+      <c r="G12" s="303"/>
+      <c r="H12" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="251"/>
-      <c r="J12" s="225" t="s">
+      <c r="I12" s="122"/>
+      <c r="J12" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="225"/>
-      <c r="L12" s="225"/>
-      <c r="M12" s="226"/>
-      <c r="N12" s="217"/>
-      <c r="O12" s="218"/>
-      <c r="P12" s="218"/>
-      <c r="Q12" s="218"/>
-      <c r="R12" s="218"/>
-      <c r="S12" s="218"/>
-      <c r="T12" s="218"/>
-      <c r="U12" s="218"/>
-      <c r="V12" s="218"/>
-      <c r="W12" s="218"/>
-      <c r="X12" s="218"/>
-      <c r="Y12" s="218"/>
-      <c r="Z12" s="218"/>
-      <c r="AA12" s="218"/>
-      <c r="AB12" s="218"/>
-      <c r="AC12" s="218"/>
-      <c r="AD12" s="218"/>
-      <c r="AE12" s="218"/>
-      <c r="AF12" s="218"/>
-      <c r="AG12" s="218"/>
-      <c r="AH12" s="218"/>
-      <c r="AI12" s="218"/>
-      <c r="AJ12" s="218"/>
-      <c r="AK12" s="218"/>
-      <c r="AL12" s="218"/>
-      <c r="AM12" s="218"/>
-      <c r="AN12" s="218"/>
-      <c r="AO12" s="218"/>
-      <c r="AP12" s="218"/>
-      <c r="AQ12" s="218"/>
-      <c r="AR12" s="218"/>
-      <c r="AS12" s="218"/>
-      <c r="AT12" s="218"/>
-      <c r="AU12" s="218"/>
-      <c r="AV12" s="218"/>
-      <c r="AW12" s="218"/>
-      <c r="AX12" s="218"/>
-      <c r="AY12" s="218"/>
-      <c r="AZ12" s="218"/>
-      <c r="BA12" s="218"/>
-      <c r="BB12" s="218"/>
-      <c r="BC12" s="218"/>
-      <c r="BD12" s="218"/>
-      <c r="BE12" s="218"/>
-      <c r="BF12" s="218"/>
-      <c r="BG12" s="218"/>
-      <c r="BH12" s="218"/>
-      <c r="BI12" s="218"/>
-      <c r="BJ12" s="218"/>
-      <c r="BK12" s="218"/>
-      <c r="BL12" s="218"/>
-      <c r="BM12" s="218"/>
-      <c r="BN12" s="218"/>
-      <c r="BO12" s="218"/>
-      <c r="BP12" s="218"/>
-      <c r="BQ12" s="218"/>
-      <c r="BR12" s="218"/>
-      <c r="BS12" s="218"/>
-      <c r="BT12" s="218"/>
-      <c r="BU12" s="218"/>
-      <c r="BV12" s="218"/>
-      <c r="BW12" s="218"/>
-      <c r="BX12" s="218"/>
-      <c r="BY12" s="218"/>
-      <c r="BZ12" s="218"/>
-      <c r="CA12" s="218"/>
-      <c r="CB12" s="219"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="95"/>
+      <c r="AL12" s="95"/>
+      <c r="AM12" s="95"/>
+      <c r="AN12" s="95"/>
+      <c r="AO12" s="95"/>
+      <c r="AP12" s="95"/>
+      <c r="AQ12" s="95"/>
+      <c r="AR12" s="95"/>
+      <c r="AS12" s="95"/>
+      <c r="AT12" s="95"/>
+      <c r="AU12" s="95"/>
+      <c r="AV12" s="95"/>
+      <c r="AW12" s="95"/>
+      <c r="AX12" s="95"/>
+      <c r="AY12" s="95"/>
+      <c r="AZ12" s="95"/>
+      <c r="BA12" s="95"/>
+      <c r="BB12" s="95"/>
+      <c r="BC12" s="95"/>
+      <c r="BD12" s="95"/>
+      <c r="BE12" s="95"/>
+      <c r="BF12" s="95"/>
+      <c r="BG12" s="95"/>
+      <c r="BH12" s="95"/>
+      <c r="BI12" s="95"/>
+      <c r="BJ12" s="95"/>
+      <c r="BK12" s="95"/>
+      <c r="BL12" s="95"/>
+      <c r="BM12" s="95"/>
+      <c r="BN12" s="95"/>
+      <c r="BO12" s="95"/>
+      <c r="BP12" s="95"/>
+      <c r="BQ12" s="95"/>
+      <c r="BR12" s="95"/>
+      <c r="BS12" s="95"/>
+      <c r="BT12" s="95"/>
+      <c r="BU12" s="95"/>
+      <c r="BV12" s="95"/>
+      <c r="BW12" s="95"/>
+      <c r="BX12" s="95"/>
+      <c r="BY12" s="95"/>
+      <c r="BZ12" s="95"/>
+      <c r="CA12" s="95"/>
+      <c r="CB12" s="146"/>
     </row>
     <row r="13" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A13" s="300"/>
-      <c r="B13" s="300"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="221"/>
+      <c r="E13" s="304"/>
+      <c r="F13" s="305"/>
+      <c r="G13" s="306"/>
       <c r="H13" s="15"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="224"/>
-      <c r="K13" s="224"/>
-      <c r="L13" s="224"/>
-      <c r="M13" s="227"/>
-      <c r="N13" s="214"/>
-      <c r="O13" s="215"/>
-      <c r="P13" s="215"/>
-      <c r="Q13" s="215"/>
-      <c r="R13" s="215"/>
-      <c r="S13" s="215"/>
-      <c r="T13" s="215"/>
-      <c r="U13" s="215"/>
-      <c r="V13" s="215"/>
-      <c r="W13" s="215"/>
-      <c r="X13" s="215"/>
-      <c r="Y13" s="215"/>
-      <c r="Z13" s="215"/>
-      <c r="AA13" s="215"/>
-      <c r="AB13" s="215"/>
-      <c r="AC13" s="215"/>
-      <c r="AD13" s="215"/>
-      <c r="AE13" s="215"/>
-      <c r="AF13" s="215"/>
-      <c r="AG13" s="215"/>
-      <c r="AH13" s="215"/>
-      <c r="AI13" s="215"/>
-      <c r="AJ13" s="215"/>
-      <c r="AK13" s="215"/>
-      <c r="AL13" s="215"/>
-      <c r="AM13" s="215"/>
-      <c r="AN13" s="215"/>
-      <c r="AO13" s="215"/>
-      <c r="AP13" s="215"/>
-      <c r="AQ13" s="215"/>
-      <c r="AR13" s="215"/>
-      <c r="AS13" s="215"/>
-      <c r="AT13" s="215"/>
-      <c r="AU13" s="215"/>
-      <c r="AV13" s="215"/>
-      <c r="AW13" s="215"/>
-      <c r="AX13" s="215"/>
-      <c r="AY13" s="215"/>
-      <c r="AZ13" s="215"/>
-      <c r="BA13" s="215"/>
-      <c r="BB13" s="215"/>
-      <c r="BC13" s="215"/>
-      <c r="BD13" s="215"/>
-      <c r="BE13" s="215"/>
-      <c r="BF13" s="215"/>
-      <c r="BG13" s="215"/>
-      <c r="BH13" s="215"/>
-      <c r="BI13" s="215"/>
-      <c r="BJ13" s="215"/>
-      <c r="BK13" s="215"/>
-      <c r="BL13" s="215"/>
-      <c r="BM13" s="215"/>
-      <c r="BN13" s="215"/>
-      <c r="BO13" s="215"/>
-      <c r="BP13" s="215"/>
-      <c r="BQ13" s="215"/>
-      <c r="BR13" s="215"/>
-      <c r="BS13" s="215"/>
-      <c r="BT13" s="215"/>
-      <c r="BU13" s="215"/>
-      <c r="BV13" s="215"/>
-      <c r="BW13" s="215"/>
-      <c r="BX13" s="215"/>
-      <c r="BY13" s="215"/>
-      <c r="BZ13" s="215"/>
-      <c r="CA13" s="215"/>
-      <c r="CB13" s="216"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="98"/>
+      <c r="AH13" s="98"/>
+      <c r="AI13" s="98"/>
+      <c r="AJ13" s="98"/>
+      <c r="AK13" s="98"/>
+      <c r="AL13" s="98"/>
+      <c r="AM13" s="98"/>
+      <c r="AN13" s="98"/>
+      <c r="AO13" s="98"/>
+      <c r="AP13" s="98"/>
+      <c r="AQ13" s="98"/>
+      <c r="AR13" s="98"/>
+      <c r="AS13" s="98"/>
+      <c r="AT13" s="98"/>
+      <c r="AU13" s="98"/>
+      <c r="AV13" s="98"/>
+      <c r="AW13" s="98"/>
+      <c r="AX13" s="98"/>
+      <c r="AY13" s="98"/>
+      <c r="AZ13" s="98"/>
+      <c r="BA13" s="98"/>
+      <c r="BB13" s="98"/>
+      <c r="BC13" s="98"/>
+      <c r="BD13" s="98"/>
+      <c r="BE13" s="98"/>
+      <c r="BF13" s="98"/>
+      <c r="BG13" s="98"/>
+      <c r="BH13" s="98"/>
+      <c r="BI13" s="98"/>
+      <c r="BJ13" s="98"/>
+      <c r="BK13" s="98"/>
+      <c r="BL13" s="98"/>
+      <c r="BM13" s="98"/>
+      <c r="BN13" s="98"/>
+      <c r="BO13" s="98"/>
+      <c r="BP13" s="98"/>
+      <c r="BQ13" s="98"/>
+      <c r="BR13" s="98"/>
+      <c r="BS13" s="98"/>
+      <c r="BT13" s="98"/>
+      <c r="BU13" s="98"/>
+      <c r="BV13" s="98"/>
+      <c r="BW13" s="98"/>
+      <c r="BX13" s="98"/>
+      <c r="BY13" s="98"/>
+      <c r="BZ13" s="98"/>
+      <c r="CA13" s="98"/>
+      <c r="CB13" s="144"/>
     </row>
     <row r="14" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A14" s="300"/>
-      <c r="B14" s="300"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="85" t="s">
+      <c r="A14" s="100"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="297" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="228" t="s">
+      <c r="F14" s="297"/>
+      <c r="G14" s="297"/>
+      <c r="H14" s="297"/>
+      <c r="I14" s="297"/>
+      <c r="J14" s="298"/>
+      <c r="K14" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="L14" s="229"/>
-      <c r="M14" s="229"/>
-      <c r="N14" s="230"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="158"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="109"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="108"/>
-      <c r="W14" s="108"/>
-      <c r="X14" s="109"/>
-      <c r="Y14" s="158"/>
-      <c r="Z14" s="159"/>
-      <c r="AA14" s="122"/>
-      <c r="AB14" s="123"/>
-      <c r="AC14" s="124"/>
-      <c r="AD14" s="76" t="s">
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="174"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="175"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="160"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="175"/>
+      <c r="V14" s="160"/>
+      <c r="W14" s="160"/>
+      <c r="X14" s="161"/>
+      <c r="Y14" s="163"/>
+      <c r="Z14" s="164"/>
+      <c r="AA14" s="251"/>
+      <c r="AB14" s="252"/>
+      <c r="AC14" s="253"/>
+      <c r="AD14" s="291" t="s">
         <v>14</v>
       </c>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="116" t="s">
+      <c r="AE14" s="292"/>
+      <c r="AF14" s="292"/>
+      <c r="AG14" s="292"/>
+      <c r="AH14" s="245" t="s">
         <v>57</v>
       </c>
-      <c r="AI14" s="117"/>
-      <c r="AJ14" s="117"/>
-      <c r="AK14" s="117"/>
-      <c r="AL14" s="117"/>
-      <c r="AM14" s="117"/>
-      <c r="AN14" s="117"/>
-      <c r="AO14" s="117"/>
-      <c r="AP14" s="117"/>
-      <c r="AQ14" s="117"/>
-      <c r="AR14" s="117"/>
-      <c r="AS14" s="117"/>
-      <c r="AT14" s="117"/>
-      <c r="AU14" s="117"/>
-      <c r="AV14" s="117"/>
-      <c r="AW14" s="117"/>
-      <c r="AX14" s="117"/>
-      <c r="AY14" s="117"/>
-      <c r="AZ14" s="117"/>
-      <c r="BA14" s="117"/>
-      <c r="BB14" s="117"/>
-      <c r="BC14" s="117"/>
-      <c r="BD14" s="117"/>
-      <c r="BE14" s="117"/>
-      <c r="BF14" s="117"/>
-      <c r="BG14" s="117"/>
-      <c r="BH14" s="117"/>
-      <c r="BI14" s="117"/>
-      <c r="BJ14" s="117"/>
-      <c r="BK14" s="117"/>
-      <c r="BL14" s="117"/>
-      <c r="BM14" s="118"/>
+      <c r="AI14" s="246"/>
+      <c r="AJ14" s="246"/>
+      <c r="AK14" s="246"/>
+      <c r="AL14" s="246"/>
+      <c r="AM14" s="246"/>
+      <c r="AN14" s="246"/>
+      <c r="AO14" s="246"/>
+      <c r="AP14" s="246"/>
+      <c r="AQ14" s="246"/>
+      <c r="AR14" s="246"/>
+      <c r="AS14" s="246"/>
+      <c r="AT14" s="246"/>
+      <c r="AU14" s="246"/>
+      <c r="AV14" s="246"/>
+      <c r="AW14" s="246"/>
+      <c r="AX14" s="246"/>
+      <c r="AY14" s="246"/>
+      <c r="AZ14" s="246"/>
+      <c r="BA14" s="246"/>
+      <c r="BB14" s="246"/>
+      <c r="BC14" s="246"/>
+      <c r="BD14" s="246"/>
+      <c r="BE14" s="246"/>
+      <c r="BF14" s="246"/>
+      <c r="BG14" s="246"/>
+      <c r="BH14" s="246"/>
+      <c r="BI14" s="246"/>
+      <c r="BJ14" s="246"/>
+      <c r="BK14" s="246"/>
+      <c r="BL14" s="246"/>
+      <c r="BM14" s="247"/>
       <c r="BN14" s="33"/>
       <c r="BO14" s="33"/>
       <c r="BP14" s="33"/>
@@ -6494,71 +6491,71 @@
       <c r="CB14" s="33"/>
     </row>
     <row r="15" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A15" s="300"/>
-      <c r="B15" s="300"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="228"/>
-      <c r="L15" s="229"/>
-      <c r="M15" s="229"/>
-      <c r="N15" s="230"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="110"/>
-      <c r="W15" s="110"/>
-      <c r="X15" s="111"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="125"/>
-      <c r="AB15" s="126"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="78"/>
-      <c r="AE15" s="79"/>
-      <c r="AF15" s="79"/>
-      <c r="AG15" s="79"/>
-      <c r="AH15" s="119"/>
-      <c r="AI15" s="120"/>
-      <c r="AJ15" s="120"/>
-      <c r="AK15" s="120"/>
-      <c r="AL15" s="120"/>
-      <c r="AM15" s="120"/>
-      <c r="AN15" s="120"/>
-      <c r="AO15" s="120"/>
-      <c r="AP15" s="120"/>
-      <c r="AQ15" s="120"/>
-      <c r="AR15" s="120"/>
-      <c r="AS15" s="120"/>
-      <c r="AT15" s="120"/>
-      <c r="AU15" s="120"/>
-      <c r="AV15" s="120"/>
-      <c r="AW15" s="120"/>
-      <c r="AX15" s="120"/>
-      <c r="AY15" s="120"/>
-      <c r="AZ15" s="120"/>
-      <c r="BA15" s="120"/>
-      <c r="BB15" s="120"/>
-      <c r="BC15" s="120"/>
-      <c r="BD15" s="120"/>
-      <c r="BE15" s="120"/>
-      <c r="BF15" s="120"/>
-      <c r="BG15" s="120"/>
-      <c r="BH15" s="120"/>
-      <c r="BI15" s="120"/>
-      <c r="BJ15" s="120"/>
-      <c r="BK15" s="120"/>
-      <c r="BL15" s="120"/>
-      <c r="BM15" s="121"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="221"/>
+      <c r="E15" s="297"/>
+      <c r="F15" s="297"/>
+      <c r="G15" s="297"/>
+      <c r="H15" s="297"/>
+      <c r="I15" s="297"/>
+      <c r="J15" s="298"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="173"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="174"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="150"/>
+      <c r="Q15" s="169"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="162"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="169"/>
+      <c r="V15" s="162"/>
+      <c r="W15" s="162"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="150"/>
+      <c r="Z15" s="165"/>
+      <c r="AA15" s="254"/>
+      <c r="AB15" s="255"/>
+      <c r="AC15" s="256"/>
+      <c r="AD15" s="293"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="60"/>
+      <c r="AG15" s="60"/>
+      <c r="AH15" s="248"/>
+      <c r="AI15" s="249"/>
+      <c r="AJ15" s="249"/>
+      <c r="AK15" s="249"/>
+      <c r="AL15" s="249"/>
+      <c r="AM15" s="249"/>
+      <c r="AN15" s="249"/>
+      <c r="AO15" s="249"/>
+      <c r="AP15" s="249"/>
+      <c r="AQ15" s="249"/>
+      <c r="AR15" s="249"/>
+      <c r="AS15" s="249"/>
+      <c r="AT15" s="249"/>
+      <c r="AU15" s="249"/>
+      <c r="AV15" s="249"/>
+      <c r="AW15" s="249"/>
+      <c r="AX15" s="249"/>
+      <c r="AY15" s="249"/>
+      <c r="AZ15" s="249"/>
+      <c r="BA15" s="249"/>
+      <c r="BB15" s="249"/>
+      <c r="BC15" s="249"/>
+      <c r="BD15" s="249"/>
+      <c r="BE15" s="249"/>
+      <c r="BF15" s="249"/>
+      <c r="BG15" s="249"/>
+      <c r="BH15" s="249"/>
+      <c r="BI15" s="249"/>
+      <c r="BJ15" s="249"/>
+      <c r="BK15" s="249"/>
+      <c r="BL15" s="249"/>
+      <c r="BM15" s="250"/>
       <c r="BN15" s="5"/>
       <c r="BO15" s="9"/>
       <c r="BP15" s="9"/>
@@ -6577,10 +6574,10 @@
       <c r="CC15" s="2"/>
     </row>
     <row r="16" spans="1:81" ht="12.75" customHeight="1">
-      <c r="A16" s="300"/>
-      <c r="B16" s="300"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="168"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6661,190 +6658,190 @@
       <c r="CB16" s="9"/>
     </row>
     <row r="17" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A17" s="300"/>
-      <c r="B17" s="300"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="168"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
       <c r="F17" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A18" s="300"/>
-      <c r="B18" s="300"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="221"/>
+      <c r="D18" s="221"/>
       <c r="F18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AN18" s="138" t="s">
+      <c r="AN18" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="AO18" s="138"/>
-      <c r="AP18" s="138"/>
-      <c r="AQ18" s="138"/>
-      <c r="AR18" s="138"/>
-      <c r="AS18" s="138"/>
-      <c r="AT18" s="138"/>
-      <c r="AU18" s="138"/>
-      <c r="AV18" s="138"/>
-      <c r="AW18" s="138"/>
-      <c r="AX18" s="138"/>
-      <c r="AY18" s="138"/>
-      <c r="AZ18" s="138"/>
-      <c r="BA18" s="138"/>
-      <c r="BB18" s="138"/>
-      <c r="BC18" s="138"/>
-      <c r="BD18" s="138"/>
-      <c r="BE18" s="138"/>
-      <c r="BF18" s="138"/>
-      <c r="BG18" s="138"/>
-      <c r="BH18" s="138"/>
-      <c r="BI18" s="138"/>
-      <c r="BJ18" s="138"/>
-      <c r="BK18" s="138"/>
-      <c r="BL18" s="138"/>
-      <c r="BM18" s="138"/>
-      <c r="BN18" s="138"/>
-      <c r="BO18" s="138"/>
-      <c r="BP18" s="138"/>
-      <c r="BQ18" s="138"/>
-      <c r="BR18" s="138"/>
-      <c r="BS18" s="138"/>
-      <c r="BT18" s="138"/>
-      <c r="BU18" s="138"/>
-      <c r="BV18" s="138"/>
-      <c r="BW18" s="138"/>
+      <c r="AO18" s="261"/>
+      <c r="AP18" s="261"/>
+      <c r="AQ18" s="261"/>
+      <c r="AR18" s="261"/>
+      <c r="AS18" s="261"/>
+      <c r="AT18" s="261"/>
+      <c r="AU18" s="261"/>
+      <c r="AV18" s="261"/>
+      <c r="AW18" s="261"/>
+      <c r="AX18" s="261"/>
+      <c r="AY18" s="261"/>
+      <c r="AZ18" s="261"/>
+      <c r="BA18" s="261"/>
+      <c r="BB18" s="261"/>
+      <c r="BC18" s="261"/>
+      <c r="BD18" s="261"/>
+      <c r="BE18" s="261"/>
+      <c r="BF18" s="261"/>
+      <c r="BG18" s="261"/>
+      <c r="BH18" s="261"/>
+      <c r="BI18" s="261"/>
+      <c r="BJ18" s="261"/>
+      <c r="BK18" s="261"/>
+      <c r="BL18" s="261"/>
+      <c r="BM18" s="261"/>
+      <c r="BN18" s="261"/>
+      <c r="BO18" s="261"/>
+      <c r="BP18" s="261"/>
+      <c r="BQ18" s="261"/>
+      <c r="BR18" s="261"/>
+      <c r="BS18" s="261"/>
+      <c r="BT18" s="261"/>
+      <c r="BU18" s="261"/>
+      <c r="BV18" s="261"/>
+      <c r="BW18" s="261"/>
     </row>
     <row r="19" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A19" s="300"/>
-      <c r="B19" s="300"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="168"/>
-      <c r="E19" s="252" t="s">
+      <c r="A19" s="100"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
+      <c r="E19" s="123" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="253"/>
-      <c r="G19" s="253"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="253"/>
-      <c r="K19" s="253"/>
-      <c r="L19" s="253"/>
-      <c r="M19" s="253"/>
-      <c r="N19" s="253"/>
-      <c r="O19" s="253"/>
-      <c r="P19" s="253"/>
-      <c r="Q19" s="253"/>
-      <c r="R19" s="253"/>
-      <c r="S19" s="253"/>
-      <c r="T19" s="253"/>
-      <c r="U19" s="253"/>
-      <c r="V19" s="253"/>
-      <c r="W19" s="253"/>
-      <c r="X19" s="253"/>
-      <c r="Y19" s="253"/>
-      <c r="Z19" s="253"/>
-      <c r="AA19" s="253"/>
-      <c r="AB19" s="253"/>
-      <c r="AC19" s="253"/>
-      <c r="AD19" s="253"/>
-      <c r="AE19" s="253"/>
-      <c r="AF19" s="253"/>
-      <c r="AG19" s="253"/>
-      <c r="AH19" s="253"/>
-      <c r="AI19" s="253"/>
-      <c r="AJ19" s="253"/>
-      <c r="AN19" s="138"/>
-      <c r="AO19" s="138"/>
-      <c r="AP19" s="138"/>
-      <c r="AQ19" s="138"/>
-      <c r="AR19" s="138"/>
-      <c r="AS19" s="138"/>
-      <c r="AT19" s="138"/>
-      <c r="AU19" s="138"/>
-      <c r="AV19" s="138"/>
-      <c r="AW19" s="138"/>
-      <c r="AX19" s="138"/>
-      <c r="AY19" s="138"/>
-      <c r="AZ19" s="138"/>
-      <c r="BA19" s="138"/>
-      <c r="BB19" s="138"/>
-      <c r="BC19" s="138"/>
-      <c r="BD19" s="138"/>
-      <c r="BE19" s="138"/>
-      <c r="BF19" s="138"/>
-      <c r="BG19" s="138"/>
-      <c r="BH19" s="138"/>
-      <c r="BI19" s="138"/>
-      <c r="BJ19" s="138"/>
-      <c r="BK19" s="138"/>
-      <c r="BL19" s="138"/>
-      <c r="BM19" s="138"/>
-      <c r="BN19" s="138"/>
-      <c r="BO19" s="138"/>
-      <c r="BP19" s="138"/>
-      <c r="BQ19" s="138"/>
-      <c r="BR19" s="138"/>
-      <c r="BS19" s="138"/>
-      <c r="BT19" s="138"/>
-      <c r="BU19" s="138"/>
-      <c r="BV19" s="138"/>
-      <c r="BW19" s="138"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="124"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="124"/>
+      <c r="X19" s="124"/>
+      <c r="Y19" s="124"/>
+      <c r="Z19" s="124"/>
+      <c r="AA19" s="124"/>
+      <c r="AB19" s="124"/>
+      <c r="AC19" s="124"/>
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="124"/>
+      <c r="AF19" s="124"/>
+      <c r="AG19" s="124"/>
+      <c r="AH19" s="124"/>
+      <c r="AI19" s="124"/>
+      <c r="AJ19" s="124"/>
+      <c r="AN19" s="261"/>
+      <c r="AO19" s="261"/>
+      <c r="AP19" s="261"/>
+      <c r="AQ19" s="261"/>
+      <c r="AR19" s="261"/>
+      <c r="AS19" s="261"/>
+      <c r="AT19" s="261"/>
+      <c r="AU19" s="261"/>
+      <c r="AV19" s="261"/>
+      <c r="AW19" s="261"/>
+      <c r="AX19" s="261"/>
+      <c r="AY19" s="261"/>
+      <c r="AZ19" s="261"/>
+      <c r="BA19" s="261"/>
+      <c r="BB19" s="261"/>
+      <c r="BC19" s="261"/>
+      <c r="BD19" s="261"/>
+      <c r="BE19" s="261"/>
+      <c r="BF19" s="261"/>
+      <c r="BG19" s="261"/>
+      <c r="BH19" s="261"/>
+      <c r="BI19" s="261"/>
+      <c r="BJ19" s="261"/>
+      <c r="BK19" s="261"/>
+      <c r="BL19" s="261"/>
+      <c r="BM19" s="261"/>
+      <c r="BN19" s="261"/>
+      <c r="BO19" s="261"/>
+      <c r="BP19" s="261"/>
+      <c r="BQ19" s="261"/>
+      <c r="BR19" s="261"/>
+      <c r="BS19" s="261"/>
+      <c r="BT19" s="261"/>
+      <c r="BU19" s="261"/>
+      <c r="BV19" s="261"/>
+      <c r="BW19" s="261"/>
     </row>
     <row r="20" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A20" s="300"/>
-      <c r="B20" s="300"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="99" t="s">
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="221"/>
+      <c r="D20" s="221"/>
+      <c r="E20" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="100"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="100"/>
-      <c r="Z20" s="100"/>
-      <c r="AA20" s="100"/>
-      <c r="AB20" s="101"/>
-      <c r="AC20" s="99" t="s">
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="115"/>
+      <c r="S20" s="115"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="115"/>
+      <c r="W20" s="115"/>
+      <c r="X20" s="115"/>
+      <c r="Y20" s="115"/>
+      <c r="Z20" s="115"/>
+      <c r="AA20" s="115"/>
+      <c r="AB20" s="116"/>
+      <c r="AC20" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="AD20" s="100"/>
-      <c r="AE20" s="100"/>
-      <c r="AF20" s="100"/>
-      <c r="AG20" s="100"/>
-      <c r="AH20" s="100"/>
-      <c r="AI20" s="100"/>
-      <c r="AJ20" s="100"/>
-      <c r="AK20" s="100"/>
-      <c r="AL20" s="100"/>
-      <c r="AM20" s="100"/>
-      <c r="AN20" s="100"/>
-      <c r="AO20" s="100"/>
-      <c r="AP20" s="100"/>
-      <c r="AQ20" s="100"/>
-      <c r="AR20" s="101"/>
-      <c r="AS20" s="87" t="s">
+      <c r="AD20" s="115"/>
+      <c r="AE20" s="115"/>
+      <c r="AF20" s="115"/>
+      <c r="AG20" s="115"/>
+      <c r="AH20" s="115"/>
+      <c r="AI20" s="115"/>
+      <c r="AJ20" s="115"/>
+      <c r="AK20" s="115"/>
+      <c r="AL20" s="115"/>
+      <c r="AM20" s="115"/>
+      <c r="AN20" s="115"/>
+      <c r="AO20" s="115"/>
+      <c r="AP20" s="115"/>
+      <c r="AQ20" s="115"/>
+      <c r="AR20" s="116"/>
+      <c r="AS20" s="299" t="s">
         <v>34</v>
       </c>
-      <c r="AT20" s="88"/>
+      <c r="AT20" s="300"/>
       <c r="AU20" s="16"/>
       <c r="AV20" s="16"/>
       <c r="AW20" s="16"/>
@@ -6853,690 +6850,690 @@
       </c>
       <c r="AY20" s="19"/>
       <c r="AZ20" s="19"/>
-      <c r="BA20" s="128"/>
-      <c r="BB20" s="128"/>
-      <c r="BC20" s="128"/>
-      <c r="BD20" s="128"/>
-      <c r="BE20" s="128"/>
-      <c r="BF20" s="128"/>
-      <c r="BG20" s="102"/>
-      <c r="BH20" s="103"/>
-      <c r="BI20" s="103"/>
-      <c r="BJ20" s="103"/>
-      <c r="BK20" s="103"/>
-      <c r="BL20" s="103"/>
-      <c r="BM20" s="103"/>
-      <c r="BN20" s="103"/>
-      <c r="BO20" s="104"/>
+      <c r="BA20" s="257"/>
+      <c r="BB20" s="257"/>
+      <c r="BC20" s="257"/>
+      <c r="BD20" s="257"/>
+      <c r="BE20" s="257"/>
+      <c r="BF20" s="257"/>
+      <c r="BG20" s="240"/>
+      <c r="BH20" s="241"/>
+      <c r="BI20" s="241"/>
+      <c r="BJ20" s="241"/>
+      <c r="BK20" s="241"/>
+      <c r="BL20" s="241"/>
+      <c r="BM20" s="241"/>
+      <c r="BN20" s="241"/>
+      <c r="BO20" s="242"/>
     </row>
     <row r="21" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A21" s="300"/>
-      <c r="B21" s="300"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="237"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="172"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="80"/>
-      <c r="AC21" s="129" t="s">
+      <c r="A21" s="100"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="222"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="182"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="194"/>
+      <c r="O21" s="158"/>
+      <c r="P21" s="158"/>
+      <c r="Q21" s="158"/>
+      <c r="R21" s="158"/>
+      <c r="S21" s="158"/>
+      <c r="T21" s="167"/>
+      <c r="U21" s="166"/>
+      <c r="V21" s="158"/>
+      <c r="W21" s="158"/>
+      <c r="X21" s="158"/>
+      <c r="Y21" s="284"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="284"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="196" t="s">
         <v>48</v>
       </c>
-      <c r="AD21" s="130"/>
-      <c r="AE21" s="130"/>
-      <c r="AF21" s="131"/>
-      <c r="AG21" s="220"/>
-      <c r="AH21" s="105"/>
-      <c r="AI21" s="105"/>
-      <c r="AJ21" s="106"/>
-      <c r="AK21" s="51"/>
-      <c r="AL21" s="52"/>
-      <c r="AM21" s="105"/>
-      <c r="AN21" s="106"/>
-      <c r="AO21" s="51"/>
-      <c r="AP21" s="52"/>
-      <c r="AQ21" s="52"/>
-      <c r="AR21" s="137"/>
-      <c r="AS21" s="173" t="s">
+      <c r="AD21" s="197"/>
+      <c r="AE21" s="197"/>
+      <c r="AF21" s="198"/>
+      <c r="AG21" s="147"/>
+      <c r="AH21" s="148"/>
+      <c r="AI21" s="148"/>
+      <c r="AJ21" s="168"/>
+      <c r="AK21" s="71"/>
+      <c r="AL21" s="223"/>
+      <c r="AM21" s="148"/>
+      <c r="AN21" s="168"/>
+      <c r="AO21" s="71"/>
+      <c r="AP21" s="223"/>
+      <c r="AQ21" s="223"/>
+      <c r="AR21" s="260"/>
+      <c r="AS21" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="AT21" s="174"/>
-      <c r="AU21" s="174"/>
-      <c r="AV21" s="174"/>
-      <c r="AW21" s="175"/>
+      <c r="AT21" s="227"/>
+      <c r="AU21" s="227"/>
+      <c r="AV21" s="227"/>
+      <c r="AW21" s="228"/>
       <c r="AX21" s="21" t="s">
         <v>19</v>
       </c>
       <c r="AY21" s="22"/>
-      <c r="AZ21" s="113"/>
-      <c r="BA21" s="113"/>
-      <c r="BB21" s="113"/>
-      <c r="BC21" s="113"/>
-      <c r="BD21" s="113"/>
-      <c r="BE21" s="113"/>
-      <c r="BF21" s="113"/>
+      <c r="AZ21" s="170"/>
+      <c r="BA21" s="170"/>
+      <c r="BB21" s="170"/>
+      <c r="BC21" s="170"/>
+      <c r="BD21" s="170"/>
+      <c r="BE21" s="170"/>
+      <c r="BF21" s="170"/>
       <c r="BG21" s="21" t="s">
         <v>20</v>
       </c>
       <c r="BH21" s="22"/>
-      <c r="BI21" s="113"/>
-      <c r="BJ21" s="113"/>
-      <c r="BK21" s="113"/>
-      <c r="BL21" s="113"/>
-      <c r="BM21" s="113"/>
-      <c r="BN21" s="113"/>
-      <c r="BO21" s="114"/>
+      <c r="BI21" s="170"/>
+      <c r="BJ21" s="170"/>
+      <c r="BK21" s="170"/>
+      <c r="BL21" s="170"/>
+      <c r="BM21" s="170"/>
+      <c r="BN21" s="170"/>
+      <c r="BO21" s="243"/>
     </row>
     <row r="22" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A22" s="300"/>
-      <c r="B22" s="300"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="237"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="172"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="132"/>
-      <c r="AD22" s="133"/>
-      <c r="AE22" s="133"/>
-      <c r="AF22" s="134"/>
-      <c r="AG22" s="111"/>
-      <c r="AH22" s="54"/>
-      <c r="AI22" s="54"/>
-      <c r="AJ22" s="107"/>
-      <c r="AK22" s="53"/>
-      <c r="AL22" s="54"/>
-      <c r="AM22" s="54"/>
-      <c r="AN22" s="107"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="54"/>
-      <c r="AQ22" s="54"/>
-      <c r="AR22" s="73"/>
-      <c r="AS22" s="176"/>
-      <c r="AT22" s="177"/>
-      <c r="AU22" s="177"/>
-      <c r="AV22" s="177"/>
-      <c r="AW22" s="178"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="221"/>
+      <c r="D22" s="221"/>
+      <c r="E22" s="222"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="182"/>
+      <c r="L22" s="183"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="158"/>
+      <c r="S22" s="158"/>
+      <c r="T22" s="167"/>
+      <c r="U22" s="166"/>
+      <c r="V22" s="158"/>
+      <c r="W22" s="158"/>
+      <c r="X22" s="158"/>
+      <c r="Y22" s="285"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="285"/>
+      <c r="AB22" s="111"/>
+      <c r="AC22" s="199"/>
+      <c r="AD22" s="200"/>
+      <c r="AE22" s="200"/>
+      <c r="AF22" s="201"/>
+      <c r="AG22" s="149"/>
+      <c r="AH22" s="150"/>
+      <c r="AI22" s="150"/>
+      <c r="AJ22" s="169"/>
+      <c r="AK22" s="73"/>
+      <c r="AL22" s="150"/>
+      <c r="AM22" s="150"/>
+      <c r="AN22" s="169"/>
+      <c r="AO22" s="73"/>
+      <c r="AP22" s="150"/>
+      <c r="AQ22" s="150"/>
+      <c r="AR22" s="165"/>
+      <c r="AS22" s="229"/>
+      <c r="AT22" s="230"/>
+      <c r="AU22" s="230"/>
+      <c r="AV22" s="230"/>
+      <c r="AW22" s="231"/>
       <c r="AX22" s="13"/>
       <c r="AY22" s="4"/>
-      <c r="AZ22" s="64"/>
-      <c r="BA22" s="64"/>
-      <c r="BB22" s="64"/>
-      <c r="BC22" s="64"/>
-      <c r="BD22" s="64"/>
-      <c r="BE22" s="64"/>
-      <c r="BF22" s="64"/>
+      <c r="AZ22" s="171"/>
+      <c r="BA22" s="171"/>
+      <c r="BB22" s="171"/>
+      <c r="BC22" s="171"/>
+      <c r="BD22" s="171"/>
+      <c r="BE22" s="171"/>
+      <c r="BF22" s="171"/>
       <c r="BG22" s="13"/>
       <c r="BH22" s="4"/>
-      <c r="BI22" s="64"/>
-      <c r="BJ22" s="64"/>
-      <c r="BK22" s="64"/>
-      <c r="BL22" s="64"/>
-      <c r="BM22" s="64"/>
-      <c r="BN22" s="64"/>
-      <c r="BO22" s="115"/>
+      <c r="BI22" s="171"/>
+      <c r="BJ22" s="171"/>
+      <c r="BK22" s="171"/>
+      <c r="BL22" s="171"/>
+      <c r="BM22" s="171"/>
+      <c r="BN22" s="171"/>
+      <c r="BO22" s="244"/>
     </row>
     <row r="23" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A23" s="300"/>
-      <c r="B23" s="300"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="291" t="s">
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="221"/>
+      <c r="D23" s="221"/>
+      <c r="E23" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="292"/>
-      <c r="G23" s="293"/>
-      <c r="H23" s="48" t="s">
+      <c r="F23" s="86"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="48" t="s">
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="49"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="49"/>
-      <c r="AK23" s="49"/>
-      <c r="AL23" s="49"/>
-      <c r="AM23" s="49"/>
-      <c r="AN23" s="49"/>
-      <c r="AO23" s="49"/>
-      <c r="AP23" s="49"/>
-      <c r="AQ23" s="49"/>
-      <c r="AR23" s="49"/>
-      <c r="AS23" s="49"/>
-      <c r="AT23" s="49"/>
-      <c r="AU23" s="49"/>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="49"/>
-      <c r="AZ23" s="49"/>
-      <c r="BA23" s="49"/>
-      <c r="BB23" s="49"/>
-      <c r="BC23" s="49"/>
-      <c r="BD23" s="49"/>
-      <c r="BE23" s="49"/>
-      <c r="BF23" s="49"/>
-      <c r="BG23" s="49"/>
-      <c r="BH23" s="49"/>
-      <c r="BI23" s="49"/>
-      <c r="BJ23" s="49"/>
-      <c r="BK23" s="49"/>
-      <c r="BL23" s="49"/>
-      <c r="BM23" s="50"/>
-      <c r="BN23" s="99" t="s">
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="43"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="43"/>
+      <c r="AP23" s="43"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="43"/>
+      <c r="AS23" s="43"/>
+      <c r="AT23" s="43"/>
+      <c r="AU23" s="43"/>
+      <c r="AV23" s="43"/>
+      <c r="AW23" s="43"/>
+      <c r="AX23" s="43"/>
+      <c r="AY23" s="43"/>
+      <c r="AZ23" s="43"/>
+      <c r="BA23" s="43"/>
+      <c r="BB23" s="43"/>
+      <c r="BC23" s="43"/>
+      <c r="BD23" s="43"/>
+      <c r="BE23" s="43"/>
+      <c r="BF23" s="43"/>
+      <c r="BG23" s="43"/>
+      <c r="BH23" s="43"/>
+      <c r="BI23" s="43"/>
+      <c r="BJ23" s="43"/>
+      <c r="BK23" s="43"/>
+      <c r="BL23" s="43"/>
+      <c r="BM23" s="44"/>
+      <c r="BN23" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="BO23" s="100"/>
-      <c r="BP23" s="100"/>
-      <c r="BQ23" s="100"/>
-      <c r="BR23" s="100"/>
-      <c r="BS23" s="100"/>
-      <c r="BT23" s="100"/>
-      <c r="BU23" s="100"/>
-      <c r="BV23" s="100"/>
-      <c r="BW23" s="100"/>
-      <c r="BX23" s="100"/>
-      <c r="BY23" s="100"/>
-      <c r="BZ23" s="100"/>
-      <c r="CA23" s="100"/>
-      <c r="CB23" s="101"/>
+      <c r="BO23" s="115"/>
+      <c r="BP23" s="115"/>
+      <c r="BQ23" s="115"/>
+      <c r="BR23" s="115"/>
+      <c r="BS23" s="115"/>
+      <c r="BT23" s="115"/>
+      <c r="BU23" s="115"/>
+      <c r="BV23" s="115"/>
+      <c r="BW23" s="115"/>
+      <c r="BX23" s="115"/>
+      <c r="BY23" s="115"/>
+      <c r="BZ23" s="115"/>
+      <c r="CA23" s="115"/>
+      <c r="CB23" s="116"/>
     </row>
     <row r="24" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A24" s="300"/>
-      <c r="B24" s="300"/>
-      <c r="C24" s="168"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="294"/>
-      <c r="H24" s="238"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="154"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="260" t="s">
+      <c r="A24" s="100"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="W24" s="261"/>
-      <c r="X24" s="261"/>
-      <c r="Y24" s="261"/>
-      <c r="Z24" s="261"/>
-      <c r="AA24" s="261"/>
-      <c r="AB24" s="261"/>
-      <c r="AC24" s="261"/>
-      <c r="AD24" s="261"/>
-      <c r="AE24" s="262"/>
-      <c r="AF24" s="282" t="s">
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="AG24" s="283"/>
-      <c r="AH24" s="283"/>
-      <c r="AI24" s="283"/>
-      <c r="AJ24" s="244"/>
-      <c r="AK24" s="244"/>
-      <c r="AL24" s="244"/>
-      <c r="AM24" s="244"/>
-      <c r="AN24" s="244"/>
-      <c r="AO24" s="244"/>
-      <c r="AP24" s="244"/>
-      <c r="AQ24" s="244"/>
-      <c r="AR24" s="244"/>
-      <c r="AS24" s="244"/>
-      <c r="AT24" s="244"/>
-      <c r="AU24" s="244"/>
-      <c r="AV24" s="244"/>
-      <c r="AW24" s="244"/>
-      <c r="AX24" s="244"/>
-      <c r="AY24" s="244"/>
-      <c r="AZ24" s="244"/>
-      <c r="BA24" s="244"/>
-      <c r="BB24" s="244"/>
-      <c r="BC24" s="244"/>
-      <c r="BD24" s="244"/>
-      <c r="BE24" s="244"/>
-      <c r="BF24" s="244"/>
-      <c r="BG24" s="244"/>
-      <c r="BH24" s="244"/>
-      <c r="BI24" s="244"/>
-      <c r="BJ24" s="244"/>
-      <c r="BK24" s="244"/>
-      <c r="BL24" s="244"/>
-      <c r="BM24" s="245"/>
-      <c r="BN24" s="246" t="s">
+      <c r="AG24" s="63"/>
+      <c r="AH24" s="63"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="112"/>
+      <c r="AK24" s="112"/>
+      <c r="AL24" s="112"/>
+      <c r="AM24" s="112"/>
+      <c r="AN24" s="112"/>
+      <c r="AO24" s="112"/>
+      <c r="AP24" s="112"/>
+      <c r="AQ24" s="112"/>
+      <c r="AR24" s="112"/>
+      <c r="AS24" s="112"/>
+      <c r="AT24" s="112"/>
+      <c r="AU24" s="112"/>
+      <c r="AV24" s="112"/>
+      <c r="AW24" s="112"/>
+      <c r="AX24" s="112"/>
+      <c r="AY24" s="112"/>
+      <c r="AZ24" s="112"/>
+      <c r="BA24" s="112"/>
+      <c r="BB24" s="112"/>
+      <c r="BC24" s="112"/>
+      <c r="BD24" s="112"/>
+      <c r="BE24" s="112"/>
+      <c r="BF24" s="112"/>
+      <c r="BG24" s="112"/>
+      <c r="BH24" s="112"/>
+      <c r="BI24" s="112"/>
+      <c r="BJ24" s="112"/>
+      <c r="BK24" s="112"/>
+      <c r="BL24" s="112"/>
+      <c r="BM24" s="113"/>
+      <c r="BN24" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="BO24" s="247"/>
-      <c r="BP24" s="248"/>
-      <c r="BQ24" s="239"/>
-      <c r="BR24" s="255"/>
-      <c r="BS24" s="241"/>
-      <c r="BT24" s="243"/>
-      <c r="BU24" s="239"/>
-      <c r="BV24" s="255"/>
-      <c r="BW24" s="241"/>
-      <c r="BX24" s="243"/>
-      <c r="BY24" s="239"/>
-      <c r="BZ24" s="255"/>
-      <c r="CA24" s="241"/>
-      <c r="CB24" s="243"/>
+      <c r="BO24" s="118"/>
+      <c r="BP24" s="119"/>
+      <c r="BQ24" s="76"/>
+      <c r="BR24" s="77"/>
+      <c r="BS24" s="70"/>
+      <c r="BT24" s="74"/>
+      <c r="BU24" s="76"/>
+      <c r="BV24" s="77"/>
+      <c r="BW24" s="70"/>
+      <c r="BX24" s="74"/>
+      <c r="BY24" s="76"/>
+      <c r="BZ24" s="77"/>
+      <c r="CA24" s="70"/>
+      <c r="CB24" s="74"/>
     </row>
     <row r="25" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A25" s="300"/>
-      <c r="B25" s="300"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="294"/>
-      <c r="H25" s="239"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="241"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="241"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="241"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="241"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="241"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="241"/>
-      <c r="U25" s="243"/>
-      <c r="V25" s="256"/>
-      <c r="W25" s="257"/>
-      <c r="X25" s="263"/>
-      <c r="Y25" s="257"/>
-      <c r="Z25" s="263"/>
-      <c r="AA25" s="257"/>
-      <c r="AB25" s="263"/>
-      <c r="AC25" s="257"/>
-      <c r="AD25" s="263"/>
-      <c r="AE25" s="284"/>
-      <c r="AF25" s="265"/>
-      <c r="AG25" s="212"/>
-      <c r="AH25" s="212"/>
-      <c r="AI25" s="212"/>
-      <c r="AJ25" s="212"/>
-      <c r="AK25" s="212"/>
-      <c r="AL25" s="212"/>
-      <c r="AM25" s="212"/>
-      <c r="AN25" s="212"/>
-      <c r="AO25" s="212"/>
-      <c r="AP25" s="212"/>
-      <c r="AQ25" s="212"/>
-      <c r="AR25" s="212"/>
-      <c r="AS25" s="212"/>
-      <c r="AT25" s="212"/>
-      <c r="AU25" s="212"/>
-      <c r="AV25" s="212"/>
-      <c r="AW25" s="212"/>
-      <c r="AX25" s="212"/>
-      <c r="AY25" s="212"/>
-      <c r="AZ25" s="212"/>
-      <c r="BA25" s="212"/>
-      <c r="BB25" s="212"/>
-      <c r="BC25" s="212"/>
-      <c r="BD25" s="212"/>
-      <c r="BE25" s="212"/>
-      <c r="BF25" s="212"/>
-      <c r="BG25" s="212"/>
-      <c r="BH25" s="212"/>
-      <c r="BI25" s="212"/>
-      <c r="BJ25" s="212"/>
-      <c r="BK25" s="212"/>
-      <c r="BL25" s="212"/>
-      <c r="BM25" s="213"/>
-      <c r="BN25" s="249"/>
-      <c r="BO25" s="247"/>
-      <c r="BP25" s="248"/>
-      <c r="BQ25" s="239"/>
-      <c r="BR25" s="255"/>
-      <c r="BS25" s="241"/>
-      <c r="BT25" s="243"/>
-      <c r="BU25" s="239"/>
-      <c r="BV25" s="255"/>
-      <c r="BW25" s="241"/>
-      <c r="BX25" s="243"/>
-      <c r="BY25" s="239"/>
-      <c r="BZ25" s="255"/>
-      <c r="CA25" s="241"/>
-      <c r="CB25" s="243"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="221"/>
+      <c r="D25" s="221"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="78"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="78"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="64"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="127"/>
+      <c r="AG25" s="128"/>
+      <c r="AH25" s="128"/>
+      <c r="AI25" s="128"/>
+      <c r="AJ25" s="128"/>
+      <c r="AK25" s="128"/>
+      <c r="AL25" s="128"/>
+      <c r="AM25" s="128"/>
+      <c r="AN25" s="128"/>
+      <c r="AO25" s="128"/>
+      <c r="AP25" s="128"/>
+      <c r="AQ25" s="128"/>
+      <c r="AR25" s="128"/>
+      <c r="AS25" s="128"/>
+      <c r="AT25" s="128"/>
+      <c r="AU25" s="128"/>
+      <c r="AV25" s="128"/>
+      <c r="AW25" s="128"/>
+      <c r="AX25" s="128"/>
+      <c r="AY25" s="128"/>
+      <c r="AZ25" s="128"/>
+      <c r="BA25" s="128"/>
+      <c r="BB25" s="128"/>
+      <c r="BC25" s="128"/>
+      <c r="BD25" s="128"/>
+      <c r="BE25" s="128"/>
+      <c r="BF25" s="128"/>
+      <c r="BG25" s="128"/>
+      <c r="BH25" s="128"/>
+      <c r="BI25" s="128"/>
+      <c r="BJ25" s="128"/>
+      <c r="BK25" s="128"/>
+      <c r="BL25" s="128"/>
+      <c r="BM25" s="129"/>
+      <c r="BN25" s="120"/>
+      <c r="BO25" s="118"/>
+      <c r="BP25" s="119"/>
+      <c r="BQ25" s="76"/>
+      <c r="BR25" s="77"/>
+      <c r="BS25" s="70"/>
+      <c r="BT25" s="74"/>
+      <c r="BU25" s="76"/>
+      <c r="BV25" s="77"/>
+      <c r="BW25" s="70"/>
+      <c r="BX25" s="74"/>
+      <c r="BY25" s="76"/>
+      <c r="BZ25" s="77"/>
+      <c r="CA25" s="70"/>
+      <c r="CB25" s="74"/>
     </row>
     <row r="26" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A26" s="300"/>
-      <c r="B26" s="300"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="295"/>
-      <c r="H26" s="240"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="242"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="242"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="242"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="242"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="242"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="242"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="258"/>
-      <c r="W26" s="259"/>
-      <c r="X26" s="264"/>
-      <c r="Y26" s="259"/>
-      <c r="Z26" s="264"/>
-      <c r="AA26" s="259"/>
-      <c r="AB26" s="264"/>
-      <c r="AC26" s="259"/>
-      <c r="AD26" s="264"/>
-      <c r="AE26" s="285"/>
-      <c r="AF26" s="266"/>
-      <c r="AG26" s="267"/>
-      <c r="AH26" s="267"/>
-      <c r="AI26" s="267"/>
-      <c r="AJ26" s="267"/>
-      <c r="AK26" s="267"/>
-      <c r="AL26" s="267"/>
-      <c r="AM26" s="267"/>
-      <c r="AN26" s="267"/>
-      <c r="AO26" s="267"/>
-      <c r="AP26" s="267"/>
-      <c r="AQ26" s="267"/>
-      <c r="AR26" s="267"/>
-      <c r="AS26" s="267"/>
-      <c r="AT26" s="267"/>
-      <c r="AU26" s="267"/>
-      <c r="AV26" s="267"/>
-      <c r="AW26" s="267"/>
-      <c r="AX26" s="267"/>
-      <c r="AY26" s="267"/>
-      <c r="AZ26" s="267"/>
-      <c r="BA26" s="267"/>
-      <c r="BB26" s="267"/>
-      <c r="BC26" s="267"/>
-      <c r="BD26" s="267"/>
-      <c r="BE26" s="267"/>
-      <c r="BF26" s="267"/>
-      <c r="BG26" s="267"/>
-      <c r="BH26" s="267"/>
-      <c r="BI26" s="267"/>
-      <c r="BJ26" s="267"/>
-      <c r="BK26" s="267"/>
-      <c r="BL26" s="267"/>
-      <c r="BM26" s="268"/>
-      <c r="BN26" s="249"/>
-      <c r="BO26" s="247"/>
-      <c r="BP26" s="248"/>
-      <c r="BQ26" s="239"/>
-      <c r="BR26" s="255"/>
-      <c r="BS26" s="241"/>
-      <c r="BT26" s="254"/>
-      <c r="BU26" s="239"/>
-      <c r="BV26" s="255"/>
-      <c r="BW26" s="241"/>
-      <c r="BX26" s="254"/>
-      <c r="BY26" s="239"/>
-      <c r="BZ26" s="255"/>
-      <c r="CA26" s="241"/>
-      <c r="CB26" s="254"/>
+      <c r="A26" s="100"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="221"/>
+      <c r="D26" s="221"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="73"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="126"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="79"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="66"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="130"/>
+      <c r="AG26" s="131"/>
+      <c r="AH26" s="131"/>
+      <c r="AI26" s="131"/>
+      <c r="AJ26" s="131"/>
+      <c r="AK26" s="131"/>
+      <c r="AL26" s="131"/>
+      <c r="AM26" s="131"/>
+      <c r="AN26" s="131"/>
+      <c r="AO26" s="131"/>
+      <c r="AP26" s="131"/>
+      <c r="AQ26" s="131"/>
+      <c r="AR26" s="131"/>
+      <c r="AS26" s="131"/>
+      <c r="AT26" s="131"/>
+      <c r="AU26" s="131"/>
+      <c r="AV26" s="131"/>
+      <c r="AW26" s="131"/>
+      <c r="AX26" s="131"/>
+      <c r="AY26" s="131"/>
+      <c r="AZ26" s="131"/>
+      <c r="BA26" s="131"/>
+      <c r="BB26" s="131"/>
+      <c r="BC26" s="131"/>
+      <c r="BD26" s="131"/>
+      <c r="BE26" s="131"/>
+      <c r="BF26" s="131"/>
+      <c r="BG26" s="131"/>
+      <c r="BH26" s="131"/>
+      <c r="BI26" s="131"/>
+      <c r="BJ26" s="131"/>
+      <c r="BK26" s="131"/>
+      <c r="BL26" s="131"/>
+      <c r="BM26" s="132"/>
+      <c r="BN26" s="120"/>
+      <c r="BO26" s="118"/>
+      <c r="BP26" s="119"/>
+      <c r="BQ26" s="76"/>
+      <c r="BR26" s="77"/>
+      <c r="BS26" s="70"/>
+      <c r="BT26" s="75"/>
+      <c r="BU26" s="76"/>
+      <c r="BV26" s="77"/>
+      <c r="BW26" s="70"/>
+      <c r="BX26" s="75"/>
+      <c r="BY26" s="76"/>
+      <c r="BZ26" s="77"/>
+      <c r="CA26" s="70"/>
+      <c r="CB26" s="75"/>
     </row>
     <row r="27" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A27" s="300"/>
-      <c r="B27" s="300"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="89" t="s">
+      <c r="A27" s="100"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="221"/>
+      <c r="D27" s="221"/>
+      <c r="E27" s="301" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="45" t="s">
+      <c r="F27" s="302"/>
+      <c r="G27" s="303"/>
+      <c r="H27" s="281" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="296"/>
-      <c r="O27" s="218"/>
-      <c r="P27" s="218"/>
-      <c r="Q27" s="218"/>
-      <c r="R27" s="218"/>
-      <c r="S27" s="218"/>
-      <c r="T27" s="218"/>
-      <c r="U27" s="218"/>
-      <c r="V27" s="218"/>
-      <c r="W27" s="218"/>
-      <c r="X27" s="218"/>
-      <c r="Y27" s="218"/>
-      <c r="Z27" s="218"/>
-      <c r="AA27" s="218"/>
-      <c r="AB27" s="218"/>
-      <c r="AC27" s="218"/>
-      <c r="AD27" s="218"/>
-      <c r="AE27" s="218"/>
-      <c r="AF27" s="218"/>
-      <c r="AG27" s="218"/>
-      <c r="AH27" s="218"/>
-      <c r="AI27" s="218"/>
-      <c r="AJ27" s="218"/>
-      <c r="AK27" s="218"/>
-      <c r="AL27" s="218"/>
-      <c r="AM27" s="218"/>
-      <c r="AN27" s="218"/>
-      <c r="AO27" s="218"/>
-      <c r="AP27" s="218"/>
-      <c r="AQ27" s="218"/>
-      <c r="AR27" s="218"/>
-      <c r="AS27" s="218"/>
-      <c r="AT27" s="218"/>
-      <c r="AU27" s="218"/>
-      <c r="AV27" s="218"/>
-      <c r="AW27" s="218"/>
-      <c r="AX27" s="218"/>
-      <c r="AY27" s="218"/>
-      <c r="AZ27" s="218"/>
-      <c r="BA27" s="218"/>
-      <c r="BB27" s="218"/>
-      <c r="BC27" s="218"/>
-      <c r="BD27" s="218"/>
-      <c r="BE27" s="218"/>
-      <c r="BF27" s="218"/>
-      <c r="BG27" s="297"/>
-      <c r="BH27" s="39" t="s">
+      <c r="I27" s="282"/>
+      <c r="J27" s="282"/>
+      <c r="K27" s="282"/>
+      <c r="L27" s="282"/>
+      <c r="M27" s="283"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="95"/>
+      <c r="AF27" s="95"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="95"/>
+      <c r="AJ27" s="95"/>
+      <c r="AK27" s="95"/>
+      <c r="AL27" s="95"/>
+      <c r="AM27" s="95"/>
+      <c r="AN27" s="95"/>
+      <c r="AO27" s="95"/>
+      <c r="AP27" s="95"/>
+      <c r="AQ27" s="95"/>
+      <c r="AR27" s="95"/>
+      <c r="AS27" s="95"/>
+      <c r="AT27" s="95"/>
+      <c r="AU27" s="95"/>
+      <c r="AV27" s="95"/>
+      <c r="AW27" s="95"/>
+      <c r="AX27" s="95"/>
+      <c r="AY27" s="95"/>
+      <c r="AZ27" s="95"/>
+      <c r="BA27" s="95"/>
+      <c r="BB27" s="95"/>
+      <c r="BC27" s="95"/>
+      <c r="BD27" s="95"/>
+      <c r="BE27" s="95"/>
+      <c r="BF27" s="95"/>
+      <c r="BG27" s="96"/>
+      <c r="BH27" s="275" t="s">
         <v>35</v>
       </c>
-      <c r="BI27" s="40"/>
-      <c r="BJ27" s="41"/>
-      <c r="BK27" s="302" t="s">
+      <c r="BI27" s="276"/>
+      <c r="BJ27" s="277"/>
+      <c r="BK27" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="BL27" s="303"/>
-      <c r="BM27" s="303"/>
-      <c r="BN27" s="303"/>
-      <c r="BO27" s="303"/>
-      <c r="BP27" s="303"/>
-      <c r="BQ27" s="303"/>
-      <c r="BR27" s="303"/>
-      <c r="BS27" s="303"/>
-      <c r="BT27" s="303"/>
-      <c r="BU27" s="303"/>
-      <c r="BV27" s="303"/>
-      <c r="BW27" s="303"/>
-      <c r="BX27" s="303"/>
-      <c r="BY27" s="303"/>
-      <c r="BZ27" s="303"/>
-      <c r="CA27" s="303"/>
-      <c r="CB27" s="303"/>
-      <c r="CC27" s="303"/>
-      <c r="CD27" s="304"/>
+      <c r="BL27" s="102"/>
+      <c r="BM27" s="102"/>
+      <c r="BN27" s="102"/>
+      <c r="BO27" s="102"/>
+      <c r="BP27" s="102"/>
+      <c r="BQ27" s="102"/>
+      <c r="BR27" s="102"/>
+      <c r="BS27" s="102"/>
+      <c r="BT27" s="102"/>
+      <c r="BU27" s="102"/>
+      <c r="BV27" s="102"/>
+      <c r="BW27" s="102"/>
+      <c r="BX27" s="102"/>
+      <c r="BY27" s="102"/>
+      <c r="BZ27" s="102"/>
+      <c r="CA27" s="102"/>
+      <c r="CB27" s="102"/>
+      <c r="CC27" s="102"/>
+      <c r="CD27" s="103"/>
       <c r="CE27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:83" ht="22.5" customHeight="1">
-      <c r="A28" s="300"/>
-      <c r="B28" s="300"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="82" t="s">
+      <c r="A28" s="100"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="221"/>
+      <c r="D28" s="221"/>
+      <c r="E28" s="304"/>
+      <c r="F28" s="305"/>
+      <c r="G28" s="306"/>
+      <c r="H28" s="294" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="298"/>
-      <c r="O28" s="215"/>
-      <c r="P28" s="215"/>
-      <c r="Q28" s="215"/>
-      <c r="R28" s="215"/>
-      <c r="S28" s="215"/>
-      <c r="T28" s="215"/>
-      <c r="U28" s="215"/>
-      <c r="V28" s="215"/>
-      <c r="W28" s="215"/>
-      <c r="X28" s="215"/>
-      <c r="Y28" s="215"/>
-      <c r="Z28" s="215"/>
-      <c r="AA28" s="215"/>
-      <c r="AB28" s="215"/>
-      <c r="AC28" s="215"/>
-      <c r="AD28" s="215"/>
-      <c r="AE28" s="215"/>
-      <c r="AF28" s="215"/>
-      <c r="AG28" s="215"/>
-      <c r="AH28" s="215"/>
-      <c r="AI28" s="215"/>
-      <c r="AJ28" s="215"/>
-      <c r="AK28" s="215"/>
-      <c r="AL28" s="215"/>
-      <c r="AM28" s="215"/>
-      <c r="AN28" s="215"/>
-      <c r="AO28" s="215"/>
-      <c r="AP28" s="215"/>
-      <c r="AQ28" s="215"/>
-      <c r="AR28" s="215"/>
-      <c r="AS28" s="215"/>
-      <c r="AT28" s="215"/>
-      <c r="AU28" s="215"/>
-      <c r="AV28" s="215"/>
-      <c r="AW28" s="215"/>
-      <c r="AX28" s="215"/>
-      <c r="AY28" s="215"/>
-      <c r="AZ28" s="215"/>
-      <c r="BA28" s="215"/>
-      <c r="BB28" s="215"/>
-      <c r="BC28" s="215"/>
-      <c r="BD28" s="215"/>
-      <c r="BE28" s="215"/>
-      <c r="BF28" s="215"/>
-      <c r="BG28" s="299"/>
-      <c r="BH28" s="42"/>
-      <c r="BI28" s="43"/>
-      <c r="BJ28" s="44"/>
-      <c r="BK28" s="305"/>
-      <c r="BL28" s="306"/>
-      <c r="BM28" s="306"/>
-      <c r="BN28" s="306"/>
-      <c r="BO28" s="306"/>
-      <c r="BP28" s="306"/>
-      <c r="BQ28" s="306"/>
-      <c r="BR28" s="306"/>
-      <c r="BS28" s="306"/>
-      <c r="BT28" s="306"/>
-      <c r="BU28" s="306"/>
-      <c r="BV28" s="306"/>
-      <c r="BW28" s="306"/>
-      <c r="BX28" s="306"/>
-      <c r="BY28" s="306"/>
-      <c r="BZ28" s="306"/>
-      <c r="CA28" s="306"/>
-      <c r="CB28" s="306"/>
-      <c r="CC28" s="306"/>
-      <c r="CD28" s="307"/>
+      <c r="I28" s="295"/>
+      <c r="J28" s="295"/>
+      <c r="K28" s="295"/>
+      <c r="L28" s="295"/>
+      <c r="M28" s="296"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="98"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="98"/>
+      <c r="AH28" s="98"/>
+      <c r="AI28" s="98"/>
+      <c r="AJ28" s="98"/>
+      <c r="AK28" s="98"/>
+      <c r="AL28" s="98"/>
+      <c r="AM28" s="98"/>
+      <c r="AN28" s="98"/>
+      <c r="AO28" s="98"/>
+      <c r="AP28" s="98"/>
+      <c r="AQ28" s="98"/>
+      <c r="AR28" s="98"/>
+      <c r="AS28" s="98"/>
+      <c r="AT28" s="98"/>
+      <c r="AU28" s="98"/>
+      <c r="AV28" s="98"/>
+      <c r="AW28" s="98"/>
+      <c r="AX28" s="98"/>
+      <c r="AY28" s="98"/>
+      <c r="AZ28" s="98"/>
+      <c r="BA28" s="98"/>
+      <c r="BB28" s="98"/>
+      <c r="BC28" s="98"/>
+      <c r="BD28" s="98"/>
+      <c r="BE28" s="98"/>
+      <c r="BF28" s="98"/>
+      <c r="BG28" s="99"/>
+      <c r="BH28" s="278"/>
+      <c r="BI28" s="279"/>
+      <c r="BJ28" s="280"/>
+      <c r="BK28" s="104"/>
+      <c r="BL28" s="105"/>
+      <c r="BM28" s="105"/>
+      <c r="BN28" s="105"/>
+      <c r="BO28" s="105"/>
+      <c r="BP28" s="105"/>
+      <c r="BQ28" s="105"/>
+      <c r="BR28" s="105"/>
+      <c r="BS28" s="105"/>
+      <c r="BT28" s="105"/>
+      <c r="BU28" s="105"/>
+      <c r="BV28" s="105"/>
+      <c r="BW28" s="105"/>
+      <c r="BX28" s="105"/>
+      <c r="BY28" s="105"/>
+      <c r="BZ28" s="105"/>
+      <c r="CA28" s="105"/>
+      <c r="CB28" s="105"/>
+      <c r="CC28" s="105"/>
+      <c r="CD28" s="106"/>
     </row>
     <row r="29" spans="1:83" ht="10.5" customHeight="1">
       <c r="A29" s="20"/>
@@ -7646,86 +7643,86 @@
       <c r="Z30"/>
       <c r="AA30"/>
       <c r="AB30"/>
-      <c r="BQ30" s="260" t="s">
+      <c r="BQ30" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="BR30" s="261"/>
-      <c r="BS30" s="261"/>
-      <c r="BT30" s="261"/>
-      <c r="BU30" s="261"/>
-      <c r="BV30" s="261"/>
-      <c r="BW30" s="261"/>
-      <c r="BX30" s="261"/>
-      <c r="BY30" s="261"/>
-      <c r="BZ30" s="261"/>
-      <c r="CA30" s="261"/>
-      <c r="CB30" s="262"/>
+      <c r="BR30" s="40"/>
+      <c r="BS30" s="40"/>
+      <c r="BT30" s="40"/>
+      <c r="BU30" s="40"/>
+      <c r="BV30" s="40"/>
+      <c r="BW30" s="40"/>
+      <c r="BX30" s="40"/>
+      <c r="BY30" s="40"/>
+      <c r="BZ30" s="40"/>
+      <c r="CA30" s="40"/>
+      <c r="CB30" s="41"/>
     </row>
     <row r="31" spans="1:83" ht="15.75" customHeight="1">
       <c r="A31" s="20"/>
-      <c r="B31" s="286" t="s">
+      <c r="B31" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="287"/>
-      <c r="D31" s="287"/>
-      <c r="E31" s="287"/>
-      <c r="F31" s="287"/>
-      <c r="G31" s="287"/>
-      <c r="H31" s="287"/>
-      <c r="I31" s="287"/>
-      <c r="J31" s="287"/>
-      <c r="K31" s="287"/>
-      <c r="L31" s="287"/>
-      <c r="M31" s="287"/>
-      <c r="N31" s="287"/>
-      <c r="O31" s="287"/>
-      <c r="P31" s="287"/>
-      <c r="Q31" s="287"/>
-      <c r="R31" s="287"/>
-      <c r="S31" s="287"/>
-      <c r="T31" s="287"/>
-      <c r="U31" s="287"/>
-      <c r="V31" s="287"/>
-      <c r="W31" s="287"/>
-      <c r="X31" s="287"/>
-      <c r="Y31" s="287"/>
-      <c r="Z31" s="287"/>
-      <c r="AA31" s="287"/>
-      <c r="AB31" s="288"/>
-      <c r="AU31" s="301" t="s">
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="81"/>
+      <c r="T31" s="81"/>
+      <c r="U31" s="81"/>
+      <c r="V31" s="81"/>
+      <c r="W31" s="81"/>
+      <c r="X31" s="81"/>
+      <c r="Y31" s="81"/>
+      <c r="Z31" s="81"/>
+      <c r="AA31" s="81"/>
+      <c r="AB31" s="82"/>
+      <c r="AU31" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="AV31" s="301"/>
-      <c r="AW31" s="301"/>
-      <c r="AX31" s="301"/>
-      <c r="AY31" s="301"/>
-      <c r="AZ31" s="301"/>
-      <c r="BA31" s="301"/>
-      <c r="BB31" s="301"/>
-      <c r="BC31" s="301"/>
-      <c r="BD31" s="301"/>
-      <c r="BE31" s="301"/>
-      <c r="BF31" s="301"/>
-      <c r="BG31" s="301"/>
-      <c r="BH31" s="301"/>
-      <c r="BI31" s="301"/>
-      <c r="BJ31" s="301"/>
-      <c r="BK31" s="301"/>
-      <c r="BL31" s="301"/>
-      <c r="BM31" s="301"/>
-      <c r="BN31" s="301"/>
-      <c r="BQ31" s="48"/>
-      <c r="BR31" s="49"/>
-      <c r="BS31" s="49"/>
-      <c r="BT31" s="49"/>
-      <c r="BU31" s="49"/>
-      <c r="BV31" s="49"/>
-      <c r="BW31" s="49"/>
-      <c r="BX31" s="49"/>
-      <c r="BY31" s="49"/>
-      <c r="BZ31" s="49"/>
-      <c r="CA31" s="49"/>
-      <c r="CB31" s="50"/>
+      <c r="AV31" s="107"/>
+      <c r="AW31" s="107"/>
+      <c r="AX31" s="107"/>
+      <c r="AY31" s="107"/>
+      <c r="AZ31" s="107"/>
+      <c r="BA31" s="107"/>
+      <c r="BB31" s="107"/>
+      <c r="BC31" s="107"/>
+      <c r="BD31" s="107"/>
+      <c r="BE31" s="107"/>
+      <c r="BF31" s="107"/>
+      <c r="BG31" s="107"/>
+      <c r="BH31" s="107"/>
+      <c r="BI31" s="107"/>
+      <c r="BJ31" s="107"/>
+      <c r="BK31" s="107"/>
+      <c r="BL31" s="107"/>
+      <c r="BM31" s="107"/>
+      <c r="BN31" s="107"/>
+      <c r="BQ31" s="42"/>
+      <c r="BR31" s="43"/>
+      <c r="BS31" s="43"/>
+      <c r="BT31" s="43"/>
+      <c r="BU31" s="43"/>
+      <c r="BV31" s="43"/>
+      <c r="BW31" s="43"/>
+      <c r="BX31" s="43"/>
+      <c r="BY31" s="43"/>
+      <c r="BZ31" s="43"/>
+      <c r="CA31" s="43"/>
+      <c r="CB31" s="44"/>
     </row>
     <row r="32" spans="1:83" ht="21" customHeight="1">
       <c r="A32" s="25"/>
@@ -7762,25 +7759,25 @@
       <c r="BF32" s="24"/>
       <c r="BI32" s="24"/>
       <c r="BJ32" s="24"/>
-      <c r="BQ32" s="269"/>
-      <c r="BR32" s="270"/>
-      <c r="BS32" s="270"/>
-      <c r="BT32" s="270"/>
-      <c r="BU32" s="270"/>
-      <c r="BV32" s="270"/>
-      <c r="BW32" s="270"/>
-      <c r="BX32" s="270"/>
-      <c r="BY32" s="270"/>
-      <c r="BZ32" s="270"/>
-      <c r="CA32" s="270"/>
-      <c r="CB32" s="271"/>
+      <c r="BQ32" s="45"/>
+      <c r="BR32" s="46"/>
+      <c r="BS32" s="46"/>
+      <c r="BT32" s="46"/>
+      <c r="BU32" s="46"/>
+      <c r="BV32" s="46"/>
+      <c r="BW32" s="46"/>
+      <c r="BX32" s="46"/>
+      <c r="BY32" s="46"/>
+      <c r="BZ32" s="46"/>
+      <c r="CA32" s="46"/>
+      <c r="CB32" s="47"/>
     </row>
     <row r="33" spans="1:81" ht="21" customHeight="1">
       <c r="A33" s="20"/>
-      <c r="B33" s="272" t="s">
+      <c r="B33" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="273"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="29" t="s">
         <v>9</v>
       </c>
@@ -7790,26 +7787,26 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="279"/>
-      <c r="L33" s="279"/>
-      <c r="M33" s="279"/>
-      <c r="N33" s="279"/>
-      <c r="O33" s="279"/>
-      <c r="P33" s="279"/>
-      <c r="Q33" s="279"/>
-      <c r="R33" s="279"/>
-      <c r="S33" s="279"/>
-      <c r="T33" s="279"/>
-      <c r="U33" s="279"/>
-      <c r="V33" s="279"/>
-      <c r="W33" s="279"/>
-      <c r="X33" s="279"/>
-      <c r="Y33" s="279"/>
-      <c r="Z33" s="279"/>
-      <c r="AA33" s="279"/>
-      <c r="AB33" s="280"/>
-      <c r="AG33" s="58"/>
-      <c r="AH33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="58"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="59"/>
+      <c r="AG33" s="286"/>
+      <c r="AH33" s="286"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9"/>
@@ -7838,23 +7835,23 @@
       <c r="BH33" s="2"/>
       <c r="BI33" s="2"/>
       <c r="BJ33" s="2"/>
-      <c r="BQ33" s="269"/>
-      <c r="BR33" s="270"/>
-      <c r="BS33" s="270"/>
-      <c r="BT33" s="270"/>
-      <c r="BU33" s="270"/>
-      <c r="BV33" s="270"/>
-      <c r="BW33" s="270"/>
-      <c r="BX33" s="270"/>
-      <c r="BY33" s="270"/>
-      <c r="BZ33" s="270"/>
-      <c r="CA33" s="270"/>
-      <c r="CB33" s="271"/>
+      <c r="BQ33" s="45"/>
+      <c r="BR33" s="46"/>
+      <c r="BS33" s="46"/>
+      <c r="BT33" s="46"/>
+      <c r="BU33" s="46"/>
+      <c r="BV33" s="46"/>
+      <c r="BW33" s="46"/>
+      <c r="BX33" s="46"/>
+      <c r="BY33" s="46"/>
+      <c r="BZ33" s="46"/>
+      <c r="CA33" s="46"/>
+      <c r="CB33" s="47"/>
     </row>
     <row r="34" spans="1:81" ht="21" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="274"/>
-      <c r="C34" s="273"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="29" t="s">
         <v>8</v>
       </c>
@@ -7864,38 +7861,38 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="279"/>
-      <c r="L34" s="279"/>
-      <c r="M34" s="279"/>
-      <c r="N34" s="279"/>
-      <c r="O34" s="279"/>
-      <c r="P34" s="279"/>
-      <c r="Q34" s="279"/>
-      <c r="R34" s="279"/>
-      <c r="S34" s="279"/>
-      <c r="T34" s="279"/>
-      <c r="U34" s="279"/>
-      <c r="V34" s="279"/>
-      <c r="W34" s="279"/>
-      <c r="X34" s="279"/>
-      <c r="Y34" s="279"/>
-      <c r="Z34" s="279"/>
-      <c r="AA34" s="279"/>
-      <c r="AB34" s="280"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="49"/>
-      <c r="AK34" s="49"/>
-      <c r="AL34" s="49"/>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="49"/>
-      <c r="AO34" s="49"/>
-      <c r="AP34" s="49"/>
-      <c r="AQ34" s="49"/>
-      <c r="AR34" s="49"/>
-      <c r="AS34" s="49"/>
-      <c r="AT34" s="50"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="58"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="59"/>
+      <c r="AG34" s="286"/>
+      <c r="AH34" s="286"/>
+      <c r="AI34" s="42"/>
+      <c r="AJ34" s="43"/>
+      <c r="AK34" s="43"/>
+      <c r="AL34" s="43"/>
+      <c r="AM34" s="43"/>
+      <c r="AN34" s="43"/>
+      <c r="AO34" s="43"/>
+      <c r="AP34" s="43"/>
+      <c r="AQ34" s="43"/>
+      <c r="AR34" s="43"/>
+      <c r="AS34" s="43"/>
+      <c r="AT34" s="44"/>
       <c r="AU34" s="9"/>
       <c r="AV34" s="9"/>
       <c r="AW34" s="9"/>
@@ -7912,23 +7909,23 @@
       <c r="BH34" s="9"/>
       <c r="BI34" s="9"/>
       <c r="BJ34" s="9"/>
-      <c r="BQ34" s="269"/>
-      <c r="BR34" s="270"/>
-      <c r="BS34" s="270"/>
-      <c r="BT34" s="270"/>
-      <c r="BU34" s="270"/>
-      <c r="BV34" s="270"/>
-      <c r="BW34" s="270"/>
-      <c r="BX34" s="270"/>
-      <c r="BY34" s="270"/>
-      <c r="BZ34" s="270"/>
-      <c r="CA34" s="270"/>
-      <c r="CB34" s="271"/>
+      <c r="BQ34" s="45"/>
+      <c r="BR34" s="46"/>
+      <c r="BS34" s="46"/>
+      <c r="BT34" s="46"/>
+      <c r="BU34" s="46"/>
+      <c r="BV34" s="46"/>
+      <c r="BW34" s="46"/>
+      <c r="BX34" s="46"/>
+      <c r="BY34" s="46"/>
+      <c r="BZ34" s="46"/>
+      <c r="CA34" s="46"/>
+      <c r="CB34" s="47"/>
     </row>
     <row r="35" spans="1:81" ht="21" customHeight="1">
       <c r="A35" s="20"/>
-      <c r="B35" s="274"/>
-      <c r="C35" s="273"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="29" t="s">
         <v>10</v>
       </c>
@@ -7938,52 +7935,52 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="279"/>
-      <c r="L35" s="279"/>
-      <c r="M35" s="279"/>
-      <c r="N35" s="279"/>
-      <c r="O35" s="279"/>
-      <c r="P35" s="279"/>
-      <c r="Q35" s="279"/>
-      <c r="R35" s="279"/>
-      <c r="S35" s="279"/>
-      <c r="T35" s="279"/>
-      <c r="U35" s="279"/>
-      <c r="V35" s="279"/>
-      <c r="W35" s="279"/>
-      <c r="X35" s="279"/>
-      <c r="Y35" s="279"/>
-      <c r="Z35" s="279"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="58"/>
       <c r="AA35" s="35" t="s">
         <v>7</v>
       </c>
       <c r="AB35" s="3"/>
-      <c r="AG35" s="58"/>
-      <c r="AH35" s="58"/>
-      <c r="AI35" s="59"/>
-      <c r="AJ35" s="60"/>
-      <c r="AK35" s="60"/>
-      <c r="AL35" s="60"/>
-      <c r="AM35" s="60"/>
-      <c r="AN35" s="60"/>
-      <c r="AO35" s="60"/>
-      <c r="AP35" s="60"/>
-      <c r="AQ35" s="60"/>
-      <c r="AR35" s="60"/>
-      <c r="AS35" s="60"/>
-      <c r="AT35" s="60"/>
-      <c r="AU35" s="60"/>
-      <c r="AV35" s="60"/>
-      <c r="AW35" s="60"/>
-      <c r="AX35" s="60"/>
-      <c r="AY35" s="60"/>
-      <c r="AZ35" s="60"/>
-      <c r="BA35" s="60"/>
-      <c r="BB35" s="60"/>
-      <c r="BC35" s="60"/>
-      <c r="BD35" s="60"/>
-      <c r="BE35" s="60"/>
-      <c r="BF35" s="261" t="s">
+      <c r="AG35" s="286"/>
+      <c r="AH35" s="286"/>
+      <c r="AI35" s="287"/>
+      <c r="AJ35" s="233"/>
+      <c r="AK35" s="233"/>
+      <c r="AL35" s="233"/>
+      <c r="AM35" s="233"/>
+      <c r="AN35" s="233"/>
+      <c r="AO35" s="233"/>
+      <c r="AP35" s="233"/>
+      <c r="AQ35" s="233"/>
+      <c r="AR35" s="233"/>
+      <c r="AS35" s="233"/>
+      <c r="AT35" s="233"/>
+      <c r="AU35" s="233"/>
+      <c r="AV35" s="233"/>
+      <c r="AW35" s="233"/>
+      <c r="AX35" s="233"/>
+      <c r="AY35" s="233"/>
+      <c r="AZ35" s="233"/>
+      <c r="BA35" s="233"/>
+      <c r="BB35" s="233"/>
+      <c r="BC35" s="233"/>
+      <c r="BD35" s="233"/>
+      <c r="BE35" s="233"/>
+      <c r="BF35" s="40" t="s">
         <v>7</v>
       </c>
       <c r="BG35" s="36"/>
@@ -7994,76 +7991,76 @@
       <c r="BN35"/>
       <c r="BO35"/>
       <c r="BP35"/>
-      <c r="BQ35" s="269"/>
-      <c r="BR35" s="270"/>
-      <c r="BS35" s="270"/>
-      <c r="BT35" s="270"/>
-      <c r="BU35" s="270"/>
-      <c r="BV35" s="270"/>
-      <c r="BW35" s="270"/>
-      <c r="BX35" s="270"/>
-      <c r="BY35" s="270"/>
-      <c r="BZ35" s="270"/>
-      <c r="CA35" s="270"/>
-      <c r="CB35" s="271"/>
+      <c r="BQ35" s="45"/>
+      <c r="BR35" s="46"/>
+      <c r="BS35" s="46"/>
+      <c r="BT35" s="46"/>
+      <c r="BU35" s="46"/>
+      <c r="BV35" s="46"/>
+      <c r="BW35" s="46"/>
+      <c r="BX35" s="46"/>
+      <c r="BY35" s="46"/>
+      <c r="BZ35" s="46"/>
+      <c r="CA35" s="46"/>
+      <c r="CB35" s="47"/>
     </row>
     <row r="36" spans="1:81" ht="12.75" customHeight="1">
       <c r="A36" s="20"/>
-      <c r="B36" s="274"/>
-      <c r="C36" s="273"/>
-      <c r="D36" s="277" t="s">
+      <c r="B36" s="53"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="277"/>
-      <c r="F36" s="277"/>
-      <c r="G36" s="277"/>
-      <c r="H36" s="277"/>
-      <c r="I36" s="277"/>
-      <c r="J36" s="277"/>
-      <c r="K36" s="279"/>
-      <c r="L36" s="279"/>
-      <c r="M36" s="279"/>
-      <c r="N36" s="279"/>
-      <c r="O36" s="279"/>
-      <c r="P36" s="279"/>
-      <c r="Q36" s="279"/>
-      <c r="R36" s="279"/>
-      <c r="S36" s="279"/>
-      <c r="T36" s="279"/>
-      <c r="U36" s="279"/>
-      <c r="V36" s="279"/>
-      <c r="W36" s="279"/>
-      <c r="X36" s="279"/>
-      <c r="Y36" s="279"/>
-      <c r="Z36" s="279"/>
-      <c r="AA36" s="279"/>
-      <c r="AB36" s="280"/>
-      <c r="AG36" s="58"/>
-      <c r="AH36" s="58"/>
-      <c r="AI36" s="61"/>
-      <c r="AJ36" s="62"/>
-      <c r="AK36" s="62"/>
-      <c r="AL36" s="62"/>
-      <c r="AM36" s="62"/>
-      <c r="AN36" s="62"/>
-      <c r="AO36" s="62"/>
-      <c r="AP36" s="62"/>
-      <c r="AQ36" s="62"/>
-      <c r="AR36" s="62"/>
-      <c r="AS36" s="62"/>
-      <c r="AT36" s="62"/>
-      <c r="AU36" s="62"/>
-      <c r="AV36" s="62"/>
-      <c r="AW36" s="62"/>
-      <c r="AX36" s="62"/>
-      <c r="AY36" s="62"/>
-      <c r="AZ36" s="62"/>
-      <c r="BA36" s="62"/>
-      <c r="BB36" s="62"/>
-      <c r="BC36" s="62"/>
-      <c r="BD36" s="62"/>
-      <c r="BE36" s="62"/>
-      <c r="BF36" s="289"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="58"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="58"/>
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="58"/>
+      <c r="AB36" s="59"/>
+      <c r="AG36" s="286"/>
+      <c r="AH36" s="286"/>
+      <c r="AI36" s="237"/>
+      <c r="AJ36" s="288"/>
+      <c r="AK36" s="288"/>
+      <c r="AL36" s="288"/>
+      <c r="AM36" s="288"/>
+      <c r="AN36" s="288"/>
+      <c r="AO36" s="288"/>
+      <c r="AP36" s="288"/>
+      <c r="AQ36" s="288"/>
+      <c r="AR36" s="288"/>
+      <c r="AS36" s="288"/>
+      <c r="AT36" s="288"/>
+      <c r="AU36" s="288"/>
+      <c r="AV36" s="288"/>
+      <c r="AW36" s="288"/>
+      <c r="AX36" s="288"/>
+      <c r="AY36" s="288"/>
+      <c r="AZ36" s="288"/>
+      <c r="BA36" s="288"/>
+      <c r="BB36" s="288"/>
+      <c r="BC36" s="288"/>
+      <c r="BD36" s="288"/>
+      <c r="BE36" s="288"/>
+      <c r="BF36" s="83"/>
       <c r="BG36" s="9"/>
       <c r="BH36" s="9"/>
       <c r="BI36" s="38"/>
@@ -8071,78 +8068,78 @@
       <c r="BN36"/>
       <c r="BO36"/>
       <c r="BP36"/>
-      <c r="BQ36" s="269"/>
-      <c r="BR36" s="270"/>
-      <c r="BS36" s="270"/>
-      <c r="BT36" s="270"/>
-      <c r="BU36" s="270"/>
-      <c r="BV36" s="270"/>
-      <c r="BW36" s="270"/>
-      <c r="BX36" s="270"/>
-      <c r="BY36" s="270"/>
-      <c r="BZ36" s="270"/>
-      <c r="CA36" s="270"/>
-      <c r="CB36" s="271"/>
+      <c r="BQ36" s="45"/>
+      <c r="BR36" s="46"/>
+      <c r="BS36" s="46"/>
+      <c r="BT36" s="46"/>
+      <c r="BU36" s="46"/>
+      <c r="BV36" s="46"/>
+      <c r="BW36" s="46"/>
+      <c r="BX36" s="46"/>
+      <c r="BY36" s="46"/>
+      <c r="BZ36" s="46"/>
+      <c r="CA36" s="46"/>
+      <c r="CB36" s="47"/>
     </row>
     <row r="37" spans="1:81" ht="12.75" customHeight="1">
       <c r="A37"/>
-      <c r="B37" s="275"/>
-      <c r="C37" s="276"/>
-      <c r="D37" s="278"/>
-      <c r="E37" s="278"/>
-      <c r="F37" s="278"/>
-      <c r="G37" s="278"/>
-      <c r="H37" s="278"/>
-      <c r="I37" s="278"/>
-      <c r="J37" s="278"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="79"/>
-      <c r="W37" s="79"/>
-      <c r="X37" s="79"/>
-      <c r="Y37" s="79"/>
-      <c r="Z37" s="79"/>
-      <c r="AA37" s="79"/>
-      <c r="AB37" s="281"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
+      <c r="W37" s="60"/>
+      <c r="X37" s="60"/>
+      <c r="Y37" s="60"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="60"/>
+      <c r="AB37" s="61"/>
       <c r="AC37"/>
       <c r="AD37"/>
       <c r="AE37"/>
       <c r="AF37"/>
-      <c r="AG37" s="58"/>
-      <c r="AH37" s="58"/>
-      <c r="AI37" s="63"/>
-      <c r="AJ37" s="64"/>
-      <c r="AK37" s="64"/>
-      <c r="AL37" s="64"/>
-      <c r="AM37" s="64"/>
-      <c r="AN37" s="64"/>
-      <c r="AO37" s="64"/>
-      <c r="AP37" s="64"/>
-      <c r="AQ37" s="64"/>
-      <c r="AR37" s="64"/>
-      <c r="AS37" s="64"/>
-      <c r="AT37" s="64"/>
-      <c r="AU37" s="64"/>
-      <c r="AV37" s="64"/>
-      <c r="AW37" s="64"/>
-      <c r="AX37" s="64"/>
-      <c r="AY37" s="64"/>
-      <c r="AZ37" s="64"/>
-      <c r="BA37" s="64"/>
-      <c r="BB37" s="64"/>
-      <c r="BC37" s="64"/>
-      <c r="BD37" s="64"/>
-      <c r="BE37" s="64"/>
-      <c r="BF37" s="290"/>
+      <c r="AG37" s="286"/>
+      <c r="AH37" s="286"/>
+      <c r="AI37" s="234"/>
+      <c r="AJ37" s="171"/>
+      <c r="AK37" s="171"/>
+      <c r="AL37" s="171"/>
+      <c r="AM37" s="171"/>
+      <c r="AN37" s="171"/>
+      <c r="AO37" s="171"/>
+      <c r="AP37" s="171"/>
+      <c r="AQ37" s="171"/>
+      <c r="AR37" s="171"/>
+      <c r="AS37" s="171"/>
+      <c r="AT37" s="171"/>
+      <c r="AU37" s="171"/>
+      <c r="AV37" s="171"/>
+      <c r="AW37" s="171"/>
+      <c r="AX37" s="171"/>
+      <c r="AY37" s="171"/>
+      <c r="AZ37" s="171"/>
+      <c r="BA37" s="171"/>
+      <c r="BB37" s="171"/>
+      <c r="BC37" s="171"/>
+      <c r="BD37" s="171"/>
+      <c r="BE37" s="171"/>
+      <c r="BF37" s="84"/>
       <c r="BG37" s="26"/>
       <c r="BH37" s="26"/>
       <c r="BI37" s="27"/>
@@ -8153,18 +8150,18 @@
       <c r="BN37"/>
       <c r="BO37"/>
       <c r="BP37"/>
-      <c r="BQ37" s="188"/>
-      <c r="BR37" s="189"/>
-      <c r="BS37" s="189"/>
-      <c r="BT37" s="189"/>
-      <c r="BU37" s="189"/>
-      <c r="BV37" s="189"/>
-      <c r="BW37" s="189"/>
-      <c r="BX37" s="189"/>
-      <c r="BY37" s="189"/>
-      <c r="BZ37" s="189"/>
-      <c r="CA37" s="189"/>
-      <c r="CB37" s="190"/>
+      <c r="BQ37" s="48"/>
+      <c r="BR37" s="49"/>
+      <c r="BS37" s="49"/>
+      <c r="BT37" s="49"/>
+      <c r="BU37" s="49"/>
+      <c r="BV37" s="49"/>
+      <c r="BW37" s="49"/>
+      <c r="BX37" s="49"/>
+      <c r="BY37" s="49"/>
+      <c r="BZ37" s="49"/>
+      <c r="CA37" s="49"/>
+      <c r="CB37" s="50"/>
       <c r="CC37"/>
     </row>
     <row r="38" spans="1:81" ht="17.25" customHeight="1">
@@ -11006,6 +11003,145 @@
     </row>
   </sheetData>
   <mergeCells count="163">
+    <mergeCell ref="BH27:BJ28"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H23:U23"/>
+    <mergeCell ref="AK21:AL22"/>
+    <mergeCell ref="Y21:Z22"/>
+    <mergeCell ref="AG33:AH37"/>
+    <mergeCell ref="AI35:BE37"/>
+    <mergeCell ref="AB9:AD11"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="Z9:AA11"/>
+    <mergeCell ref="W21:X22"/>
+    <mergeCell ref="AD14:AG15"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="V9:W11"/>
+    <mergeCell ref="E14:J15"/>
+    <mergeCell ref="N9:O11"/>
+    <mergeCell ref="R9:S11"/>
+    <mergeCell ref="T9:U11"/>
+    <mergeCell ref="AS20:AT20"/>
+    <mergeCell ref="E27:G28"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="V7:W8"/>
+    <mergeCell ref="V6:AS6"/>
+    <mergeCell ref="BG20:BO20"/>
+    <mergeCell ref="AM21:AN22"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="BI21:BO22"/>
+    <mergeCell ref="AH14:BM15"/>
+    <mergeCell ref="AA14:AC15"/>
+    <mergeCell ref="BA20:BF20"/>
+    <mergeCell ref="AC21:AF22"/>
+    <mergeCell ref="AI9:CB9"/>
+    <mergeCell ref="AQ21:AR22"/>
+    <mergeCell ref="AN18:BW19"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="BD8:BI8"/>
+    <mergeCell ref="AE9:AH9"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="AR7:AS8"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="E20:AB20"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="BJ6:BZ6"/>
+    <mergeCell ref="BQ7:BR8"/>
+    <mergeCell ref="BU7:BV8"/>
+    <mergeCell ref="BW7:BX8"/>
+    <mergeCell ref="BY7:BZ8"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C6:D28"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="AO21:AP22"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="AS21:AW22"/>
+    <mergeCell ref="Q7:U8"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="BY2:CC2"/>
+    <mergeCell ref="BT2:BX2"/>
+    <mergeCell ref="BN2:BS2"/>
+    <mergeCell ref="BI2:BM2"/>
+    <mergeCell ref="BN3:BS4"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="BY3:CC4"/>
+    <mergeCell ref="W4:AH4"/>
+    <mergeCell ref="W3:AH3"/>
+    <mergeCell ref="AK3:BB4"/>
+    <mergeCell ref="BI3:BM4"/>
+    <mergeCell ref="BJ7:BM8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="BT3:BX4"/>
+    <mergeCell ref="BS7:BT8"/>
+    <mergeCell ref="AT6:BI6"/>
+    <mergeCell ref="BN7:BP8"/>
+    <mergeCell ref="BB7:BI7"/>
+    <mergeCell ref="CA6:CB8"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="E9:G11"/>
+    <mergeCell ref="AE10:CB11"/>
+    <mergeCell ref="N12:CB13"/>
+    <mergeCell ref="AG21:AH22"/>
+    <mergeCell ref="H10:M11"/>
+    <mergeCell ref="J12:M13"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="AI21:AJ22"/>
+    <mergeCell ref="AZ21:BF22"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="K14:N15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="AV7:BA7"/>
+    <mergeCell ref="AV8:BA8"/>
+    <mergeCell ref="BB8:BC8"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="H24:I26"/>
+    <mergeCell ref="L24:M26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="T24:U26"/>
+    <mergeCell ref="R24:S26"/>
+    <mergeCell ref="AJ24:BM24"/>
+    <mergeCell ref="BN23:CB23"/>
+    <mergeCell ref="BN24:BP26"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E19:AJ19"/>
+    <mergeCell ref="CA24:CB26"/>
+    <mergeCell ref="BY24:BZ26"/>
+    <mergeCell ref="V25:W26"/>
+    <mergeCell ref="V24:AE24"/>
+    <mergeCell ref="X25:Y26"/>
+    <mergeCell ref="V23:BM23"/>
+    <mergeCell ref="AF25:BM26"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="Z25:AA26"/>
+    <mergeCell ref="AC20:AR20"/>
     <mergeCell ref="BQ30:CB30"/>
     <mergeCell ref="BQ31:CB37"/>
     <mergeCell ref="B33:C37"/>
@@ -11030,145 +11166,6 @@
     <mergeCell ref="A6:B28"/>
     <mergeCell ref="BK27:CD28"/>
     <mergeCell ref="AU31:BN31"/>
-    <mergeCell ref="H24:I26"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="T24:U26"/>
-    <mergeCell ref="R24:S26"/>
-    <mergeCell ref="AJ24:BM24"/>
-    <mergeCell ref="BN23:CB23"/>
-    <mergeCell ref="BN24:BP26"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E19:AJ19"/>
-    <mergeCell ref="CA24:CB26"/>
-    <mergeCell ref="BY24:BZ26"/>
-    <mergeCell ref="V25:W26"/>
-    <mergeCell ref="V24:AE24"/>
-    <mergeCell ref="X25:Y26"/>
-    <mergeCell ref="V23:BM23"/>
-    <mergeCell ref="AF25:BM26"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="Z25:AA26"/>
-    <mergeCell ref="AC20:AR20"/>
-    <mergeCell ref="E9:G11"/>
-    <mergeCell ref="AE10:CB11"/>
-    <mergeCell ref="N12:CB13"/>
-    <mergeCell ref="AG21:AH22"/>
-    <mergeCell ref="H10:M11"/>
-    <mergeCell ref="J12:M13"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AZ21:BF22"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="K14:N15"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="AV7:BA7"/>
-    <mergeCell ref="AV8:BA8"/>
-    <mergeCell ref="BB8:BC8"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="BY2:CC2"/>
-    <mergeCell ref="BT2:BX2"/>
-    <mergeCell ref="BN2:BS2"/>
-    <mergeCell ref="BI2:BM2"/>
-    <mergeCell ref="BN3:BS4"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="BY3:CC4"/>
-    <mergeCell ref="W4:AH4"/>
-    <mergeCell ref="W3:AH3"/>
-    <mergeCell ref="AK3:BB4"/>
-    <mergeCell ref="BI3:BM4"/>
-    <mergeCell ref="BJ7:BM8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="BT3:BX4"/>
-    <mergeCell ref="BS7:BT8"/>
-    <mergeCell ref="AT6:BI6"/>
-    <mergeCell ref="BN7:BP8"/>
-    <mergeCell ref="BB7:BI7"/>
-    <mergeCell ref="CA6:CB8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="BJ6:BZ6"/>
-    <mergeCell ref="BQ7:BR8"/>
-    <mergeCell ref="BU7:BV8"/>
-    <mergeCell ref="BW7:BX8"/>
-    <mergeCell ref="BY7:BZ8"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C6:D28"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="AO21:AP22"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="AS21:AW22"/>
-    <mergeCell ref="Q7:U8"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="V7:W8"/>
-    <mergeCell ref="V6:AS6"/>
-    <mergeCell ref="BG20:BO20"/>
-    <mergeCell ref="AM21:AN22"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="BI21:BO22"/>
-    <mergeCell ref="AH14:BM15"/>
-    <mergeCell ref="AA14:AC15"/>
-    <mergeCell ref="BA20:BF20"/>
-    <mergeCell ref="AC21:AF22"/>
-    <mergeCell ref="AI9:CB9"/>
-    <mergeCell ref="AQ21:AR22"/>
-    <mergeCell ref="AN18:BW19"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="BD8:BI8"/>
-    <mergeCell ref="AE9:AH9"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="E20:AB20"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="BH27:BJ28"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H23:U23"/>
-    <mergeCell ref="AK21:AL22"/>
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="AG33:AH37"/>
-    <mergeCell ref="AI35:BE37"/>
-    <mergeCell ref="AB9:AD11"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="W21:X22"/>
-    <mergeCell ref="AD14:AG15"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="V9:W11"/>
-    <mergeCell ref="E14:J15"/>
-    <mergeCell ref="N9:O11"/>
-    <mergeCell ref="R9:S11"/>
-    <mergeCell ref="T9:U11"/>
-    <mergeCell ref="AS20:AT20"/>
-    <mergeCell ref="E27:G28"/>
-    <mergeCell ref="E12:G13"/>
-    <mergeCell ref="X9:Y11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.51181102362204722"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
@@ -440,16 +440,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>⑩　　　　　　　　住　　　　　　　　　　　　　　　　　　所</t>
-    <rPh sb="9" eb="10">
-      <t>ジュウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>被保険者と配偶者が同住所の場合は⑨～⑫欄への記入は不要です。</t>
     <rPh sb="0" eb="4">
       <t>ヒホケンシャ</t>
@@ -502,25 +492,6 @@
   </si>
   <si>
     <t>ア　被保険者の氏名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③　個人番号（または基礎年金番号）</t>
-    <rPh sb="2" eb="4">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キソ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ネンキン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バンゴウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -638,14 +609,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>令和
-9</t>
-    <rPh sb="0" eb="2">
-      <t>レ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>令和</t>
   </si>
   <si>
@@ -663,21 +626,38 @@
 所　　　　　　 長</t>
   </si>
   <si>
-    <t>電 話</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    短期在留　　   住民票住所以外の居所注１　
-    海外居住       その他（　　　　　　　　　）</t>
-  </si>
-  <si>
     <t>(事業主等）</t>
   </si>
   <si>
     <t>◎記入方法は裏面に書いてありますからよく読んでください。</t>
   </si>
   <si>
-    <t xml:space="preserve">      短期在留　   住民票住所以外の居所注１　
-      海外居住       その他（　　　　　　　　）  </t>
+    <t>③　個人番号（または基礎年金番号）</t>
+  </si>
+  <si>
+    <t>電　　　　　　話</t>
+    <rPh sb="0" eb="1">
+      <t>デン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9</t>
+  </si>
+  <si>
+    <t>⑩　　　　　　　　住　　　　　　　　　　　　　　　　　　所</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      短期在留　       住民票住所以外の居所　
+      海外居住         その他（　　　　　　　　                 ）  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    短期在留　　     住民票住所以外の居所　
+    海外居住         その他（　　　　　　　　                            ）</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1944,6 +1924,663 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1953,14 +2590,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1971,15 +2617,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
@@ -1996,10 +2633,10 @@
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2007,9 +2644,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2019,54 +2653,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2091,39 +2683,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2150,603 +2724,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3805,16 +3782,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3829,8 +3806,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6229350" y="3133725"/>
-          <a:ext cx="1247775" cy="180975"/>
+          <a:off x="5772150" y="3143251"/>
+          <a:ext cx="2105025" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3870,13 +3847,13 @@
       <xdr:col>61</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3891,7 +3868,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7572375" y="1514475"/>
+          <a:off x="7572375" y="1504950"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3936,13 +3913,13 @@
       <xdr:col>61</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3957,7 +3934,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7581900" y="1657350"/>
+          <a:off x="7581900" y="1647825"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4002,13 +3979,13 @@
       <xdr:col>61</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4023,7 +4000,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7572375" y="1800225"/>
+          <a:off x="7572375" y="1790700"/>
           <a:ext cx="409575" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4131,15 +4108,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2571</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>174021</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4154,7 +4131,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4133850" y="3190875"/>
+          <a:off x="4143375" y="3162300"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4326,13 +4303,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>145446</xdr:rowOff>
     </xdr:to>
@@ -4349,7 +4326,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1343025" y="3895725"/>
+          <a:off x="1352550" y="3895725"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4390,16 +4367,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>80</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>209549</xdr:rowOff>
+      <xdr:rowOff>247650</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4414,8 +4391,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9010650" y="5772149"/>
-          <a:ext cx="800100" cy="142875"/>
+          <a:off x="8867775" y="5743575"/>
+          <a:ext cx="1038225" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4840,68 +4817,6 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="A2_19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9001124" y="5753100"/>
-          <a:ext cx="866775" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>62</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>26</xdr:row>
@@ -4968,15 +4883,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>12096</xdr:rowOff>
+      <xdr:rowOff>2571</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4991,7 +4906,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8362950" y="5562600"/>
+          <a:off x="8391525" y="5553075"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5098,13 +5013,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>183546</xdr:rowOff>
     </xdr:to>
@@ -5121,7 +5036,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9010650" y="5715000"/>
+          <a:off x="8391525" y="5734050"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5162,32 +5077,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>80</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>238126</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="A2_19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="40" name="TextBox 39"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9686925" y="5724525"/>
-          <a:ext cx="809626" cy="200026"/>
+          <a:off x="9467850" y="5505450"/>
+          <a:ext cx="419100" cy="238126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5216,7 +5125,138 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="750"/>
+            <a:t>注１</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="750"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="TextBox 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6524625" y="2905125"/>
+          <a:ext cx="419100" cy="238126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>注１</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="TextBox 48"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8010525" y="5029200"/>
+          <a:ext cx="400050" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>令和</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5516,7 +5556,7 @@
   <dimension ref="A1:CE76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10:CB11"/>
+      <selection activeCell="BS17" sqref="BS17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -5532,948 +5572,948 @@
   <sheetData>
     <row r="1" spans="1:81" ht="26.25" customHeight="1"/>
     <row r="2" spans="1:81" ht="20.25" customHeight="1">
-      <c r="A2" s="209"/>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="213"/>
-      <c r="H2" s="213"/>
-      <c r="BI2" s="191" t="s">
-        <v>55</v>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="BI2" s="187" t="s">
+        <v>52</v>
       </c>
-      <c r="BJ2" s="187"/>
-      <c r="BK2" s="187"/>
-      <c r="BL2" s="187"/>
-      <c r="BM2" s="187"/>
-      <c r="BN2" s="188" t="s">
+      <c r="BJ2" s="183"/>
+      <c r="BK2" s="183"/>
+      <c r="BL2" s="183"/>
+      <c r="BM2" s="183"/>
+      <c r="BN2" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="BO2" s="189"/>
-      <c r="BP2" s="189"/>
-      <c r="BQ2" s="189"/>
-      <c r="BR2" s="189"/>
-      <c r="BS2" s="190"/>
-      <c r="BT2" s="187" t="s">
+      <c r="BO2" s="185"/>
+      <c r="BP2" s="185"/>
+      <c r="BQ2" s="185"/>
+      <c r="BR2" s="185"/>
+      <c r="BS2" s="186"/>
+      <c r="BT2" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="BU2" s="187"/>
-      <c r="BV2" s="187"/>
-      <c r="BW2" s="187"/>
-      <c r="BX2" s="187"/>
-      <c r="BY2" s="184" t="s">
+      <c r="BU2" s="183"/>
+      <c r="BV2" s="183"/>
+      <c r="BW2" s="183"/>
+      <c r="BX2" s="183"/>
+      <c r="BY2" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="BZ2" s="185"/>
-      <c r="CA2" s="185"/>
-      <c r="CB2" s="185"/>
-      <c r="CC2" s="186"/>
+      <c r="BZ2" s="181"/>
+      <c r="CA2" s="181"/>
+      <c r="CB2" s="181"/>
+      <c r="CC2" s="182"/>
     </row>
     <row r="3" spans="1:81" ht="18" customHeight="1">
-      <c r="A3" s="209"/>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="W3" s="195"/>
-      <c r="X3" s="195"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="195"/>
-      <c r="AB3" s="195"/>
-      <c r="AC3" s="195"/>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="195"/>
-      <c r="AG3" s="195"/>
-      <c r="AH3" s="195"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="W3" s="193"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="193"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="193"/>
+      <c r="AC3" s="193"/>
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="193"/>
+      <c r="AG3" s="193"/>
+      <c r="AH3" s="193"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
-      <c r="AK3" s="195" t="s">
+      <c r="AK3" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="AL3" s="195"/>
-      <c r="AM3" s="195"/>
-      <c r="AN3" s="195"/>
-      <c r="AO3" s="195"/>
-      <c r="AP3" s="195"/>
-      <c r="AQ3" s="195"/>
-      <c r="AR3" s="195"/>
-      <c r="AS3" s="195"/>
-      <c r="AT3" s="195"/>
-      <c r="AU3" s="195"/>
-      <c r="AV3" s="195"/>
-      <c r="AW3" s="195"/>
-      <c r="AX3" s="195"/>
-      <c r="AY3" s="195"/>
-      <c r="AZ3" s="195"/>
-      <c r="BA3" s="195"/>
-      <c r="BB3" s="195"/>
+      <c r="AL3" s="193"/>
+      <c r="AM3" s="193"/>
+      <c r="AN3" s="193"/>
+      <c r="AO3" s="193"/>
+      <c r="AP3" s="193"/>
+      <c r="AQ3" s="193"/>
+      <c r="AR3" s="193"/>
+      <c r="AS3" s="193"/>
+      <c r="AT3" s="193"/>
+      <c r="AU3" s="193"/>
+      <c r="AV3" s="193"/>
+      <c r="AW3" s="193"/>
+      <c r="AX3" s="193"/>
+      <c r="AY3" s="193"/>
+      <c r="AZ3" s="193"/>
+      <c r="BA3" s="193"/>
+      <c r="BB3" s="193"/>
       <c r="BC3" s="6"/>
       <c r="BD3" s="6"/>
       <c r="BE3" s="6"/>
       <c r="BF3" s="6"/>
       <c r="BG3" s="6"/>
       <c r="BH3" s="7"/>
-      <c r="BI3" s="42"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="43"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="44"/>
-      <c r="BN3" s="42"/>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43"/>
-      <c r="BR3" s="43"/>
-      <c r="BS3" s="44"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="43"/>
-      <c r="BV3" s="43"/>
-      <c r="BW3" s="43"/>
-      <c r="BX3" s="44"/>
-      <c r="BY3" s="42"/>
-      <c r="BZ3" s="43"/>
-      <c r="CA3" s="43"/>
-      <c r="CB3" s="43"/>
-      <c r="CC3" s="44"/>
+      <c r="BI3" s="48"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="49"/>
+      <c r="BL3" s="49"/>
+      <c r="BM3" s="50"/>
+      <c r="BN3" s="48"/>
+      <c r="BO3" s="49"/>
+      <c r="BP3" s="49"/>
+      <c r="BQ3" s="49"/>
+      <c r="BR3" s="49"/>
+      <c r="BS3" s="50"/>
+      <c r="BT3" s="48"/>
+      <c r="BU3" s="49"/>
+      <c r="BV3" s="49"/>
+      <c r="BW3" s="49"/>
+      <c r="BX3" s="50"/>
+      <c r="BY3" s="48"/>
+      <c r="BZ3" s="49"/>
+      <c r="CA3" s="49"/>
+      <c r="CB3" s="49"/>
+      <c r="CC3" s="50"/>
     </row>
     <row r="4" spans="1:81" ht="18" customHeight="1">
-      <c r="W4" s="195"/>
-      <c r="X4" s="195"/>
-      <c r="Y4" s="195"/>
-      <c r="Z4" s="195"/>
-      <c r="AA4" s="195"/>
-      <c r="AB4" s="195"/>
-      <c r="AC4" s="195"/>
-      <c r="AD4" s="195"/>
-      <c r="AE4" s="195"/>
-      <c r="AF4" s="195"/>
-      <c r="AG4" s="195"/>
-      <c r="AH4" s="195"/>
+      <c r="W4" s="193"/>
+      <c r="X4" s="193"/>
+      <c r="Y4" s="193"/>
+      <c r="Z4" s="193"/>
+      <c r="AA4" s="193"/>
+      <c r="AB4" s="193"/>
+      <c r="AC4" s="193"/>
+      <c r="AD4" s="193"/>
+      <c r="AE4" s="193"/>
+      <c r="AF4" s="193"/>
+      <c r="AG4" s="193"/>
+      <c r="AH4" s="193"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
-      <c r="AK4" s="195"/>
-      <c r="AL4" s="195"/>
-      <c r="AM4" s="195"/>
-      <c r="AN4" s="195"/>
-      <c r="AO4" s="195"/>
-      <c r="AP4" s="195"/>
-      <c r="AQ4" s="195"/>
-      <c r="AR4" s="195"/>
-      <c r="AS4" s="195"/>
-      <c r="AT4" s="195"/>
-      <c r="AU4" s="195"/>
-      <c r="AV4" s="195"/>
-      <c r="AW4" s="195"/>
-      <c r="AX4" s="195"/>
-      <c r="AY4" s="195"/>
-      <c r="AZ4" s="195"/>
-      <c r="BA4" s="195"/>
-      <c r="BB4" s="195"/>
+      <c r="AK4" s="193"/>
+      <c r="AL4" s="193"/>
+      <c r="AM4" s="193"/>
+      <c r="AN4" s="193"/>
+      <c r="AO4" s="193"/>
+      <c r="AP4" s="193"/>
+      <c r="AQ4" s="193"/>
+      <c r="AR4" s="193"/>
+      <c r="AS4" s="193"/>
+      <c r="AT4" s="193"/>
+      <c r="AU4" s="193"/>
+      <c r="AV4" s="193"/>
+      <c r="AW4" s="193"/>
+      <c r="AX4" s="193"/>
+      <c r="AY4" s="193"/>
+      <c r="AZ4" s="193"/>
+      <c r="BA4" s="193"/>
+      <c r="BB4" s="193"/>
       <c r="BC4" s="6"/>
       <c r="BD4" s="6"/>
       <c r="BE4" s="6"/>
       <c r="BF4" s="6"/>
       <c r="BG4" s="6"/>
       <c r="BH4" s="7"/>
-      <c r="BI4" s="48"/>
-      <c r="BJ4" s="49"/>
-      <c r="BK4" s="49"/>
-      <c r="BL4" s="49"/>
-      <c r="BM4" s="50"/>
-      <c r="BN4" s="48"/>
-      <c r="BO4" s="49"/>
-      <c r="BP4" s="49"/>
-      <c r="BQ4" s="49"/>
-      <c r="BR4" s="49"/>
-      <c r="BS4" s="50"/>
-      <c r="BT4" s="48"/>
-      <c r="BU4" s="49"/>
-      <c r="BV4" s="49"/>
-      <c r="BW4" s="49"/>
-      <c r="BX4" s="50"/>
-      <c r="BY4" s="48"/>
-      <c r="BZ4" s="49"/>
-      <c r="CA4" s="49"/>
-      <c r="CB4" s="49"/>
-      <c r="CC4" s="50"/>
+      <c r="BI4" s="188"/>
+      <c r="BJ4" s="189"/>
+      <c r="BK4" s="189"/>
+      <c r="BL4" s="189"/>
+      <c r="BM4" s="190"/>
+      <c r="BN4" s="188"/>
+      <c r="BO4" s="189"/>
+      <c r="BP4" s="189"/>
+      <c r="BQ4" s="189"/>
+      <c r="BR4" s="189"/>
+      <c r="BS4" s="190"/>
+      <c r="BT4" s="188"/>
+      <c r="BU4" s="189"/>
+      <c r="BV4" s="189"/>
+      <c r="BW4" s="189"/>
+      <c r="BX4" s="190"/>
+      <c r="BY4" s="188"/>
+      <c r="BZ4" s="189"/>
+      <c r="CA4" s="189"/>
+      <c r="CB4" s="189"/>
+      <c r="CC4" s="190"/>
     </row>
     <row r="5" spans="1:81" ht="9" customHeight="1"/>
     <row r="6" spans="1:81" ht="24" customHeight="1">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="298" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="221" t="s">
-        <v>59</v>
+      <c r="B6" s="298"/>
+      <c r="C6" s="168" t="s">
+        <v>54</v>
       </c>
-      <c r="D6" s="221"/>
-      <c r="E6" s="216" t="s">
+      <c r="D6" s="168"/>
+      <c r="E6" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="216"/>
-      <c r="G6" s="216"/>
-      <c r="H6" s="216"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
-      <c r="L6" s="216"/>
-      <c r="M6" s="216"/>
-      <c r="N6" s="216"/>
-      <c r="O6" s="216"/>
-      <c r="P6" s="216"/>
-      <c r="Q6" s="235" t="s">
-        <v>53</v>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="163"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="163"/>
+      <c r="M6" s="163"/>
+      <c r="N6" s="163"/>
+      <c r="O6" s="163"/>
+      <c r="P6" s="163"/>
+      <c r="Q6" s="95" t="s">
+        <v>50</v>
       </c>
-      <c r="R6" s="236"/>
-      <c r="S6" s="236"/>
-      <c r="T6" s="236"/>
-      <c r="U6" s="236"/>
-      <c r="V6" s="114" t="s">
-        <v>40</v>
+      <c r="R6" s="96"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="99" t="s">
+        <v>55</v>
       </c>
-      <c r="W6" s="115"/>
-      <c r="X6" s="115"/>
-      <c r="Y6" s="115"/>
-      <c r="Z6" s="115"/>
-      <c r="AA6" s="115"/>
-      <c r="AB6" s="115"/>
-      <c r="AC6" s="115"/>
-      <c r="AD6" s="115"/>
-      <c r="AE6" s="115"/>
-      <c r="AF6" s="115"/>
-      <c r="AG6" s="115"/>
-      <c r="AH6" s="115"/>
-      <c r="AI6" s="115"/>
-      <c r="AJ6" s="115"/>
-      <c r="AK6" s="115"/>
-      <c r="AL6" s="115"/>
-      <c r="AM6" s="115"/>
-      <c r="AN6" s="115"/>
-      <c r="AO6" s="115"/>
-      <c r="AP6" s="115"/>
-      <c r="AQ6" s="115"/>
-      <c r="AR6" s="115"/>
-      <c r="AS6" s="116"/>
-      <c r="AT6" s="115" t="s">
-        <v>39</v>
+      <c r="W6" s="100"/>
+      <c r="X6" s="100"/>
+      <c r="Y6" s="100"/>
+      <c r="Z6" s="100"/>
+      <c r="AA6" s="100"/>
+      <c r="AB6" s="100"/>
+      <c r="AC6" s="100"/>
+      <c r="AD6" s="100"/>
+      <c r="AE6" s="100"/>
+      <c r="AF6" s="100"/>
+      <c r="AG6" s="100"/>
+      <c r="AH6" s="100"/>
+      <c r="AI6" s="100"/>
+      <c r="AJ6" s="100"/>
+      <c r="AK6" s="100"/>
+      <c r="AL6" s="100"/>
+      <c r="AM6" s="100"/>
+      <c r="AN6" s="100"/>
+      <c r="AO6" s="100"/>
+      <c r="AP6" s="100"/>
+      <c r="AQ6" s="100"/>
+      <c r="AR6" s="100"/>
+      <c r="AS6" s="101"/>
+      <c r="AT6" s="100" t="s">
+        <v>38</v>
       </c>
-      <c r="AU6" s="115"/>
-      <c r="AV6" s="115"/>
-      <c r="AW6" s="115"/>
-      <c r="AX6" s="115"/>
-      <c r="AY6" s="115"/>
-      <c r="AZ6" s="115"/>
-      <c r="BA6" s="115"/>
-      <c r="BB6" s="115"/>
-      <c r="BC6" s="115"/>
-      <c r="BD6" s="115"/>
-      <c r="BE6" s="115"/>
-      <c r="BF6" s="115"/>
-      <c r="BG6" s="115"/>
-      <c r="BH6" s="115"/>
-      <c r="BI6" s="116"/>
-      <c r="BJ6" s="42" t="s">
+      <c r="AU6" s="100"/>
+      <c r="AV6" s="100"/>
+      <c r="AW6" s="100"/>
+      <c r="AX6" s="100"/>
+      <c r="AY6" s="100"/>
+      <c r="AZ6" s="100"/>
+      <c r="BA6" s="100"/>
+      <c r="BB6" s="100"/>
+      <c r="BC6" s="100"/>
+      <c r="BD6" s="100"/>
+      <c r="BE6" s="100"/>
+      <c r="BF6" s="100"/>
+      <c r="BG6" s="100"/>
+      <c r="BH6" s="100"/>
+      <c r="BI6" s="101"/>
+      <c r="BJ6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="BK6" s="43"/>
-      <c r="BL6" s="43"/>
-      <c r="BM6" s="43"/>
-      <c r="BN6" s="43"/>
-      <c r="BO6" s="43"/>
-      <c r="BP6" s="43"/>
-      <c r="BQ6" s="43"/>
-      <c r="BR6" s="43"/>
-      <c r="BS6" s="43"/>
-      <c r="BT6" s="43"/>
-      <c r="BU6" s="43"/>
-      <c r="BV6" s="43"/>
-      <c r="BW6" s="43"/>
-      <c r="BX6" s="43"/>
-      <c r="BY6" s="43"/>
-      <c r="BZ6" s="44"/>
-      <c r="CA6" s="205"/>
-      <c r="CB6" s="206"/>
+      <c r="BK6" s="49"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="49"/>
+      <c r="BN6" s="49"/>
+      <c r="BO6" s="49"/>
+      <c r="BP6" s="49"/>
+      <c r="BQ6" s="49"/>
+      <c r="BR6" s="49"/>
+      <c r="BS6" s="49"/>
+      <c r="BT6" s="49"/>
+      <c r="BU6" s="49"/>
+      <c r="BV6" s="49"/>
+      <c r="BW6" s="49"/>
+      <c r="BX6" s="49"/>
+      <c r="BY6" s="49"/>
+      <c r="BZ6" s="50"/>
+      <c r="CA6" s="197"/>
+      <c r="CB6" s="198"/>
       <c r="CC6" s="10"/>
     </row>
     <row r="7" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="159"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="217"/>
-      <c r="Q7" s="232"/>
-      <c r="R7" s="233"/>
-      <c r="S7" s="233"/>
-      <c r="T7" s="233"/>
-      <c r="U7" s="233"/>
-      <c r="V7" s="237"/>
-      <c r="W7" s="238"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="150"/>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="165"/>
-      <c r="AD7" s="192"/>
-      <c r="AE7" s="149"/>
-      <c r="AF7" s="207"/>
-      <c r="AG7" s="149"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="150"/>
-      <c r="AJ7" s="150"/>
-      <c r="AK7" s="165"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="150"/>
-      <c r="AN7" s="150"/>
-      <c r="AO7" s="150"/>
-      <c r="AP7" s="150"/>
-      <c r="AQ7" s="150"/>
-      <c r="AR7" s="268"/>
-      <c r="AS7" s="269"/>
-      <c r="AT7" s="271" t="s">
-        <v>37</v>
+      <c r="A7" s="298"/>
+      <c r="B7" s="298"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="150"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="191"/>
+      <c r="AE7" s="111"/>
+      <c r="AF7" s="199"/>
+      <c r="AG7" s="111"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="73"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="54"/>
+      <c r="AQ7" s="54"/>
+      <c r="AR7" s="145"/>
+      <c r="AS7" s="146"/>
+      <c r="AT7" s="148" t="s">
+        <v>36</v>
       </c>
-      <c r="AU7" s="272"/>
-      <c r="AV7" s="176"/>
-      <c r="AW7" s="176"/>
-      <c r="AX7" s="176"/>
-      <c r="AY7" s="176"/>
-      <c r="AZ7" s="176"/>
-      <c r="BA7" s="177"/>
-      <c r="BB7" s="202"/>
-      <c r="BC7" s="203"/>
-      <c r="BD7" s="203"/>
-      <c r="BE7" s="203"/>
-      <c r="BF7" s="203"/>
-      <c r="BG7" s="203"/>
-      <c r="BH7" s="203"/>
-      <c r="BI7" s="204"/>
-      <c r="BJ7" s="196" t="s">
-        <v>48</v>
+      <c r="AU7" s="149"/>
+      <c r="AV7" s="230"/>
+      <c r="AW7" s="230"/>
+      <c r="AX7" s="230"/>
+      <c r="AY7" s="230"/>
+      <c r="AZ7" s="230"/>
+      <c r="BA7" s="231"/>
+      <c r="BB7" s="194"/>
+      <c r="BC7" s="195"/>
+      <c r="BD7" s="195"/>
+      <c r="BE7" s="195"/>
+      <c r="BF7" s="195"/>
+      <c r="BG7" s="195"/>
+      <c r="BH7" s="195"/>
+      <c r="BI7" s="196"/>
+      <c r="BJ7" s="129" t="s">
+        <v>46</v>
       </c>
-      <c r="BK7" s="197"/>
-      <c r="BL7" s="197"/>
-      <c r="BM7" s="198"/>
-      <c r="BN7" s="161"/>
-      <c r="BO7" s="69"/>
-      <c r="BP7" s="163"/>
-      <c r="BQ7" s="68"/>
-      <c r="BR7" s="210"/>
-      <c r="BS7" s="69"/>
-      <c r="BT7" s="163"/>
-      <c r="BU7" s="163"/>
-      <c r="BV7" s="175"/>
-      <c r="BW7" s="69"/>
-      <c r="BX7" s="163"/>
-      <c r="BY7" s="163"/>
-      <c r="BZ7" s="164"/>
-      <c r="CA7" s="205"/>
-      <c r="CB7" s="206"/>
+      <c r="BK7" s="130"/>
+      <c r="BL7" s="130"/>
+      <c r="BM7" s="131"/>
+      <c r="BN7" s="109"/>
+      <c r="BO7" s="56"/>
+      <c r="BP7" s="158"/>
+      <c r="BQ7" s="154"/>
+      <c r="BR7" s="155"/>
+      <c r="BS7" s="56"/>
+      <c r="BT7" s="158"/>
+      <c r="BU7" s="158"/>
+      <c r="BV7" s="112"/>
+      <c r="BW7" s="56"/>
+      <c r="BX7" s="158"/>
+      <c r="BY7" s="158"/>
+      <c r="BZ7" s="159"/>
+      <c r="CA7" s="197"/>
+      <c r="CB7" s="198"/>
       <c r="CC7" s="10"/>
     </row>
     <row r="8" spans="1:81" ht="21.75" customHeight="1">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="225"/>
-      <c r="I8" s="218"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="159"/>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="217"/>
-      <c r="Q8" s="234"/>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="171"/>
-      <c r="V8" s="234"/>
-      <c r="W8" s="239"/>
-      <c r="X8" s="166"/>
-      <c r="Y8" s="158"/>
-      <c r="Z8" s="158"/>
-      <c r="AA8" s="158"/>
-      <c r="AB8" s="158"/>
-      <c r="AC8" s="167"/>
-      <c r="AD8" s="193"/>
-      <c r="AE8" s="194"/>
-      <c r="AF8" s="208"/>
-      <c r="AG8" s="194"/>
-      <c r="AH8" s="158"/>
-      <c r="AI8" s="158"/>
-      <c r="AJ8" s="158"/>
-      <c r="AK8" s="167"/>
-      <c r="AL8" s="166"/>
-      <c r="AM8" s="158"/>
-      <c r="AN8" s="158"/>
-      <c r="AO8" s="158"/>
-      <c r="AP8" s="158"/>
-      <c r="AQ8" s="158"/>
-      <c r="AR8" s="270"/>
-      <c r="AS8" s="244"/>
-      <c r="AT8" s="262" t="s">
-        <v>38</v>
+      <c r="A8" s="298"/>
+      <c r="B8" s="298"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="150"/>
+      <c r="N8" s="150"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="164"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="172"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="192"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="200"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="172"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="147"/>
+      <c r="AS8" s="115"/>
+      <c r="AT8" s="139" t="s">
+        <v>37</v>
       </c>
-      <c r="AU8" s="263"/>
-      <c r="AV8" s="178"/>
-      <c r="AW8" s="178"/>
-      <c r="AX8" s="178"/>
-      <c r="AY8" s="178"/>
-      <c r="AZ8" s="178"/>
-      <c r="BA8" s="179"/>
-      <c r="BB8" s="180" t="s">
+      <c r="AU8" s="140"/>
+      <c r="AV8" s="232"/>
+      <c r="AW8" s="232"/>
+      <c r="AX8" s="232"/>
+      <c r="AY8" s="232"/>
+      <c r="AZ8" s="232"/>
+      <c r="BA8" s="233"/>
+      <c r="BB8" s="234" t="s">
         <v>20</v>
       </c>
-      <c r="BC8" s="181"/>
-      <c r="BD8" s="264"/>
-      <c r="BE8" s="264"/>
-      <c r="BF8" s="264"/>
-      <c r="BG8" s="264"/>
-      <c r="BH8" s="264"/>
-      <c r="BI8" s="265"/>
-      <c r="BJ8" s="199"/>
-      <c r="BK8" s="200"/>
-      <c r="BL8" s="200"/>
-      <c r="BM8" s="201"/>
-      <c r="BN8" s="149"/>
-      <c r="BO8" s="73"/>
-      <c r="BP8" s="150"/>
-      <c r="BQ8" s="211"/>
-      <c r="BR8" s="212"/>
-      <c r="BS8" s="73"/>
-      <c r="BT8" s="150"/>
-      <c r="BU8" s="150"/>
-      <c r="BV8" s="169"/>
-      <c r="BW8" s="73"/>
-      <c r="BX8" s="150"/>
-      <c r="BY8" s="150"/>
-      <c r="BZ8" s="165"/>
-      <c r="CA8" s="205"/>
-      <c r="CB8" s="206"/>
+      <c r="BC8" s="235"/>
+      <c r="BD8" s="141"/>
+      <c r="BE8" s="141"/>
+      <c r="BF8" s="141"/>
+      <c r="BG8" s="141"/>
+      <c r="BH8" s="141"/>
+      <c r="BI8" s="142"/>
+      <c r="BJ8" s="132"/>
+      <c r="BK8" s="133"/>
+      <c r="BL8" s="133"/>
+      <c r="BM8" s="134"/>
+      <c r="BN8" s="111"/>
+      <c r="BO8" s="53"/>
+      <c r="BP8" s="54"/>
+      <c r="BQ8" s="156"/>
+      <c r="BR8" s="157"/>
+      <c r="BS8" s="53"/>
+      <c r="BT8" s="54"/>
+      <c r="BU8" s="54"/>
+      <c r="BV8" s="107"/>
+      <c r="BW8" s="53"/>
+      <c r="BX8" s="54"/>
+      <c r="BY8" s="54"/>
+      <c r="BZ8" s="73"/>
+      <c r="CA8" s="197"/>
+      <c r="CB8" s="198"/>
       <c r="CC8" s="10"/>
     </row>
     <row r="9" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A9" s="100"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="133" t="s">
+      <c r="A9" s="298"/>
+      <c r="B9" s="298"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="134"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="273" t="s">
+      <c r="F9" s="202"/>
+      <c r="G9" s="203"/>
+      <c r="H9" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="274"/>
+      <c r="I9" s="152"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="194"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="158"/>
-      <c r="Q9" s="158"/>
-      <c r="R9" s="158"/>
-      <c r="S9" s="158"/>
-      <c r="T9" s="158"/>
-      <c r="U9" s="158"/>
-      <c r="V9" s="150"/>
-      <c r="W9" s="150"/>
-      <c r="X9" s="150"/>
-      <c r="Y9" s="150"/>
-      <c r="Z9" s="150"/>
-      <c r="AA9" s="165"/>
-      <c r="AB9" s="88" t="s">
+      <c r="N9" s="72"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="289"/>
-      <c r="AE9" s="266" t="s">
+      <c r="AC9" s="66"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="AF9" s="267"/>
-      <c r="AG9" s="267"/>
-      <c r="AH9" s="267"/>
-      <c r="AI9" s="258"/>
-      <c r="AJ9" s="258"/>
-      <c r="AK9" s="258"/>
-      <c r="AL9" s="258"/>
-      <c r="AM9" s="258"/>
-      <c r="AN9" s="258"/>
-      <c r="AO9" s="258"/>
-      <c r="AP9" s="258"/>
-      <c r="AQ9" s="258"/>
-      <c r="AR9" s="258"/>
-      <c r="AS9" s="258"/>
-      <c r="AT9" s="258"/>
-      <c r="AU9" s="258"/>
-      <c r="AV9" s="258"/>
-      <c r="AW9" s="258"/>
-      <c r="AX9" s="258"/>
-      <c r="AY9" s="258"/>
-      <c r="AZ9" s="258"/>
-      <c r="BA9" s="258"/>
-      <c r="BB9" s="258"/>
-      <c r="BC9" s="258"/>
-      <c r="BD9" s="258"/>
-      <c r="BE9" s="258"/>
-      <c r="BF9" s="258"/>
-      <c r="BG9" s="258"/>
-      <c r="BH9" s="258"/>
-      <c r="BI9" s="258"/>
-      <c r="BJ9" s="258"/>
-      <c r="BK9" s="258"/>
-      <c r="BL9" s="258"/>
-      <c r="BM9" s="258"/>
-      <c r="BN9" s="258"/>
-      <c r="BO9" s="258"/>
-      <c r="BP9" s="258"/>
-      <c r="BQ9" s="258"/>
-      <c r="BR9" s="258"/>
-      <c r="BS9" s="258"/>
-      <c r="BT9" s="258"/>
-      <c r="BU9" s="258"/>
-      <c r="BV9" s="258"/>
-      <c r="BW9" s="258"/>
-      <c r="BX9" s="258"/>
-      <c r="BY9" s="258"/>
-      <c r="BZ9" s="258"/>
-      <c r="CA9" s="258"/>
-      <c r="CB9" s="259"/>
+      <c r="AF9" s="144"/>
+      <c r="AG9" s="144"/>
+      <c r="AH9" s="144"/>
+      <c r="AI9" s="135"/>
+      <c r="AJ9" s="135"/>
+      <c r="AK9" s="135"/>
+      <c r="AL9" s="135"/>
+      <c r="AM9" s="135"/>
+      <c r="AN9" s="135"/>
+      <c r="AO9" s="135"/>
+      <c r="AP9" s="135"/>
+      <c r="AQ9" s="135"/>
+      <c r="AR9" s="135"/>
+      <c r="AS9" s="135"/>
+      <c r="AT9" s="135"/>
+      <c r="AU9" s="135"/>
+      <c r="AV9" s="135"/>
+      <c r="AW9" s="135"/>
+      <c r="AX9" s="135"/>
+      <c r="AY9" s="135"/>
+      <c r="AZ9" s="135"/>
+      <c r="BA9" s="135"/>
+      <c r="BB9" s="135"/>
+      <c r="BC9" s="135"/>
+      <c r="BD9" s="135"/>
+      <c r="BE9" s="135"/>
+      <c r="BF9" s="135"/>
+      <c r="BG9" s="135"/>
+      <c r="BH9" s="135"/>
+      <c r="BI9" s="135"/>
+      <c r="BJ9" s="135"/>
+      <c r="BK9" s="135"/>
+      <c r="BL9" s="135"/>
+      <c r="BM9" s="135"/>
+      <c r="BN9" s="135"/>
+      <c r="BO9" s="135"/>
+      <c r="BP9" s="135"/>
+      <c r="BQ9" s="135"/>
+      <c r="BR9" s="135"/>
+      <c r="BS9" s="135"/>
+      <c r="BT9" s="135"/>
+      <c r="BU9" s="135"/>
+      <c r="BV9" s="135"/>
+      <c r="BW9" s="135"/>
+      <c r="BX9" s="135"/>
+      <c r="BY9" s="135"/>
+      <c r="BZ9" s="135"/>
+      <c r="CA9" s="135"/>
+      <c r="CB9" s="136"/>
     </row>
     <row r="10" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A10" s="100"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="221"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="151" t="s">
+      <c r="A10" s="298"/>
+      <c r="B10" s="298"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="205"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="220" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="152"/>
-      <c r="M10" s="152"/>
-      <c r="N10" s="194"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="158"/>
-      <c r="Q10" s="158"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="158"/>
-      <c r="U10" s="158"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="158"/>
-      <c r="X10" s="158"/>
-      <c r="Y10" s="158"/>
-      <c r="Z10" s="158"/>
-      <c r="AA10" s="167"/>
-      <c r="AB10" s="88"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="289"/>
-      <c r="AE10" s="142"/>
-      <c r="AF10" s="128"/>
-      <c r="AG10" s="128"/>
-      <c r="AH10" s="128"/>
-      <c r="AI10" s="128"/>
-      <c r="AJ10" s="128"/>
-      <c r="AK10" s="128"/>
-      <c r="AL10" s="128"/>
-      <c r="AM10" s="128"/>
-      <c r="AN10" s="128"/>
-      <c r="AO10" s="128"/>
-      <c r="AP10" s="128"/>
-      <c r="AQ10" s="128"/>
-      <c r="AR10" s="128"/>
-      <c r="AS10" s="128"/>
-      <c r="AT10" s="128"/>
-      <c r="AU10" s="128"/>
-      <c r="AV10" s="128"/>
-      <c r="AW10" s="128"/>
-      <c r="AX10" s="128"/>
-      <c r="AY10" s="128"/>
-      <c r="AZ10" s="128"/>
-      <c r="BA10" s="128"/>
-      <c r="BB10" s="128"/>
-      <c r="BC10" s="128"/>
-      <c r="BD10" s="128"/>
-      <c r="BE10" s="128"/>
-      <c r="BF10" s="128"/>
-      <c r="BG10" s="128"/>
-      <c r="BH10" s="128"/>
-      <c r="BI10" s="128"/>
-      <c r="BJ10" s="128"/>
-      <c r="BK10" s="128"/>
-      <c r="BL10" s="128"/>
-      <c r="BM10" s="128"/>
-      <c r="BN10" s="128"/>
-      <c r="BO10" s="128"/>
-      <c r="BP10" s="128"/>
-      <c r="BQ10" s="128"/>
-      <c r="BR10" s="128"/>
-      <c r="BS10" s="128"/>
-      <c r="BT10" s="128"/>
-      <c r="BU10" s="128"/>
-      <c r="BV10" s="128"/>
-      <c r="BW10" s="128"/>
-      <c r="BX10" s="128"/>
-      <c r="BY10" s="128"/>
-      <c r="BZ10" s="128"/>
-      <c r="CA10" s="128"/>
-      <c r="CB10" s="129"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="221"/>
+      <c r="K10" s="221"/>
+      <c r="L10" s="221"/>
+      <c r="M10" s="221"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="210"/>
+      <c r="AF10" s="211"/>
+      <c r="AG10" s="211"/>
+      <c r="AH10" s="211"/>
+      <c r="AI10" s="211"/>
+      <c r="AJ10" s="211"/>
+      <c r="AK10" s="211"/>
+      <c r="AL10" s="211"/>
+      <c r="AM10" s="211"/>
+      <c r="AN10" s="211"/>
+      <c r="AO10" s="211"/>
+      <c r="AP10" s="211"/>
+      <c r="AQ10" s="211"/>
+      <c r="AR10" s="211"/>
+      <c r="AS10" s="211"/>
+      <c r="AT10" s="211"/>
+      <c r="AU10" s="211"/>
+      <c r="AV10" s="211"/>
+      <c r="AW10" s="211"/>
+      <c r="AX10" s="211"/>
+      <c r="AY10" s="211"/>
+      <c r="AZ10" s="211"/>
+      <c r="BA10" s="211"/>
+      <c r="BB10" s="211"/>
+      <c r="BC10" s="211"/>
+      <c r="BD10" s="211"/>
+      <c r="BE10" s="211"/>
+      <c r="BF10" s="211"/>
+      <c r="BG10" s="211"/>
+      <c r="BH10" s="211"/>
+      <c r="BI10" s="211"/>
+      <c r="BJ10" s="211"/>
+      <c r="BK10" s="211"/>
+      <c r="BL10" s="211"/>
+      <c r="BM10" s="211"/>
+      <c r="BN10" s="211"/>
+      <c r="BO10" s="211"/>
+      <c r="BP10" s="211"/>
+      <c r="BQ10" s="211"/>
+      <c r="BR10" s="211"/>
+      <c r="BS10" s="211"/>
+      <c r="BT10" s="211"/>
+      <c r="BU10" s="211"/>
+      <c r="BV10" s="211"/>
+      <c r="BW10" s="211"/>
+      <c r="BX10" s="211"/>
+      <c r="BY10" s="211"/>
+      <c r="BZ10" s="211"/>
+      <c r="CA10" s="211"/>
+      <c r="CB10" s="212"/>
     </row>
     <row r="11" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="221"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="194"/>
-      <c r="O11" s="158"/>
-      <c r="P11" s="158"/>
-      <c r="Q11" s="158"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="158"/>
-      <c r="T11" s="158"/>
-      <c r="U11" s="158"/>
-      <c r="V11" s="158"/>
-      <c r="W11" s="158"/>
-      <c r="X11" s="158"/>
-      <c r="Y11" s="158"/>
-      <c r="Z11" s="158"/>
-      <c r="AA11" s="167"/>
-      <c r="AB11" s="91"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="290"/>
-      <c r="AE11" s="143"/>
-      <c r="AF11" s="98"/>
-      <c r="AG11" s="98"/>
-      <c r="AH11" s="98"/>
-      <c r="AI11" s="98"/>
-      <c r="AJ11" s="98"/>
-      <c r="AK11" s="98"/>
-      <c r="AL11" s="98"/>
-      <c r="AM11" s="98"/>
-      <c r="AN11" s="98"/>
-      <c r="AO11" s="98"/>
-      <c r="AP11" s="98"/>
-      <c r="AQ11" s="98"/>
-      <c r="AR11" s="98"/>
-      <c r="AS11" s="98"/>
-      <c r="AT11" s="98"/>
-      <c r="AU11" s="98"/>
-      <c r="AV11" s="98"/>
-      <c r="AW11" s="98"/>
-      <c r="AX11" s="98"/>
-      <c r="AY11" s="98"/>
-      <c r="AZ11" s="98"/>
-      <c r="BA11" s="98"/>
-      <c r="BB11" s="98"/>
-      <c r="BC11" s="98"/>
-      <c r="BD11" s="98"/>
-      <c r="BE11" s="98"/>
-      <c r="BF11" s="98"/>
-      <c r="BG11" s="98"/>
-      <c r="BH11" s="98"/>
-      <c r="BI11" s="98"/>
-      <c r="BJ11" s="98"/>
-      <c r="BK11" s="98"/>
-      <c r="BL11" s="98"/>
-      <c r="BM11" s="98"/>
-      <c r="BN11" s="98"/>
-      <c r="BO11" s="98"/>
-      <c r="BP11" s="98"/>
-      <c r="BQ11" s="98"/>
-      <c r="BR11" s="98"/>
-      <c r="BS11" s="98"/>
-      <c r="BT11" s="98"/>
-      <c r="BU11" s="98"/>
-      <c r="BV11" s="98"/>
-      <c r="BW11" s="98"/>
-      <c r="BX11" s="98"/>
-      <c r="BY11" s="98"/>
-      <c r="BZ11" s="98"/>
-      <c r="CA11" s="98"/>
-      <c r="CB11" s="144"/>
+      <c r="A11" s="298"/>
+      <c r="B11" s="298"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="208"/>
+      <c r="G11" s="209"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="223"/>
+      <c r="L11" s="223"/>
+      <c r="M11" s="223"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="213"/>
+      <c r="AF11" s="214"/>
+      <c r="AG11" s="214"/>
+      <c r="AH11" s="214"/>
+      <c r="AI11" s="214"/>
+      <c r="AJ11" s="214"/>
+      <c r="AK11" s="214"/>
+      <c r="AL11" s="214"/>
+      <c r="AM11" s="214"/>
+      <c r="AN11" s="214"/>
+      <c r="AO11" s="214"/>
+      <c r="AP11" s="214"/>
+      <c r="AQ11" s="214"/>
+      <c r="AR11" s="214"/>
+      <c r="AS11" s="214"/>
+      <c r="AT11" s="214"/>
+      <c r="AU11" s="214"/>
+      <c r="AV11" s="214"/>
+      <c r="AW11" s="214"/>
+      <c r="AX11" s="214"/>
+      <c r="AY11" s="214"/>
+      <c r="AZ11" s="214"/>
+      <c r="BA11" s="214"/>
+      <c r="BB11" s="214"/>
+      <c r="BC11" s="214"/>
+      <c r="BD11" s="214"/>
+      <c r="BE11" s="214"/>
+      <c r="BF11" s="214"/>
+      <c r="BG11" s="214"/>
+      <c r="BH11" s="214"/>
+      <c r="BI11" s="214"/>
+      <c r="BJ11" s="214"/>
+      <c r="BK11" s="214"/>
+      <c r="BL11" s="214"/>
+      <c r="BM11" s="214"/>
+      <c r="BN11" s="214"/>
+      <c r="BO11" s="214"/>
+      <c r="BP11" s="214"/>
+      <c r="BQ11" s="214"/>
+      <c r="BR11" s="214"/>
+      <c r="BS11" s="214"/>
+      <c r="BT11" s="214"/>
+      <c r="BU11" s="214"/>
+      <c r="BV11" s="214"/>
+      <c r="BW11" s="214"/>
+      <c r="BX11" s="214"/>
+      <c r="BY11" s="214"/>
+      <c r="BZ11" s="214"/>
+      <c r="CA11" s="214"/>
+      <c r="CB11" s="215"/>
     </row>
     <row r="12" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A12" s="100"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="221"/>
-      <c r="D12" s="221"/>
-      <c r="E12" s="301" t="s">
+      <c r="A12" s="298"/>
+      <c r="B12" s="298"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="302"/>
-      <c r="G12" s="303"/>
-      <c r="H12" s="121" t="s">
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="122"/>
-      <c r="J12" s="155" t="s">
+      <c r="I12" s="249"/>
+      <c r="J12" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="95"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="95"/>
-      <c r="AL12" s="95"/>
-      <c r="AM12" s="95"/>
-      <c r="AN12" s="95"/>
-      <c r="AO12" s="95"/>
-      <c r="AP12" s="95"/>
-      <c r="AQ12" s="95"/>
-      <c r="AR12" s="95"/>
-      <c r="AS12" s="95"/>
-      <c r="AT12" s="95"/>
-      <c r="AU12" s="95"/>
-      <c r="AV12" s="95"/>
-      <c r="AW12" s="95"/>
-      <c r="AX12" s="95"/>
-      <c r="AY12" s="95"/>
-      <c r="AZ12" s="95"/>
-      <c r="BA12" s="95"/>
-      <c r="BB12" s="95"/>
-      <c r="BC12" s="95"/>
-      <c r="BD12" s="95"/>
-      <c r="BE12" s="95"/>
-      <c r="BF12" s="95"/>
-      <c r="BG12" s="95"/>
-      <c r="BH12" s="95"/>
-      <c r="BI12" s="95"/>
-      <c r="BJ12" s="95"/>
-      <c r="BK12" s="95"/>
-      <c r="BL12" s="95"/>
-      <c r="BM12" s="95"/>
-      <c r="BN12" s="95"/>
-      <c r="BO12" s="95"/>
-      <c r="BP12" s="95"/>
-      <c r="BQ12" s="95"/>
-      <c r="BR12" s="95"/>
-      <c r="BS12" s="95"/>
-      <c r="BT12" s="95"/>
-      <c r="BU12" s="95"/>
-      <c r="BV12" s="95"/>
-      <c r="BW12" s="95"/>
-      <c r="BX12" s="95"/>
-      <c r="BY12" s="95"/>
-      <c r="BZ12" s="95"/>
-      <c r="CA12" s="95"/>
-      <c r="CB12" s="146"/>
+      <c r="K12" s="224"/>
+      <c r="L12" s="224"/>
+      <c r="M12" s="225"/>
+      <c r="N12" s="216"/>
+      <c r="O12" s="217"/>
+      <c r="P12" s="217"/>
+      <c r="Q12" s="217"/>
+      <c r="R12" s="217"/>
+      <c r="S12" s="217"/>
+      <c r="T12" s="217"/>
+      <c r="U12" s="217"/>
+      <c r="V12" s="217"/>
+      <c r="W12" s="217"/>
+      <c r="X12" s="217"/>
+      <c r="Y12" s="217"/>
+      <c r="Z12" s="217"/>
+      <c r="AA12" s="217"/>
+      <c r="AB12" s="217"/>
+      <c r="AC12" s="217"/>
+      <c r="AD12" s="217"/>
+      <c r="AE12" s="217"/>
+      <c r="AF12" s="217"/>
+      <c r="AG12" s="217"/>
+      <c r="AH12" s="217"/>
+      <c r="AI12" s="217"/>
+      <c r="AJ12" s="217"/>
+      <c r="AK12" s="217"/>
+      <c r="AL12" s="217"/>
+      <c r="AM12" s="217"/>
+      <c r="AN12" s="217"/>
+      <c r="AO12" s="217"/>
+      <c r="AP12" s="217"/>
+      <c r="AQ12" s="217"/>
+      <c r="AR12" s="217"/>
+      <c r="AS12" s="217"/>
+      <c r="AT12" s="217"/>
+      <c r="AU12" s="217"/>
+      <c r="AV12" s="217"/>
+      <c r="AW12" s="217"/>
+      <c r="AX12" s="217"/>
+      <c r="AY12" s="217"/>
+      <c r="AZ12" s="217"/>
+      <c r="BA12" s="217"/>
+      <c r="BB12" s="217"/>
+      <c r="BC12" s="217"/>
+      <c r="BD12" s="217"/>
+      <c r="BE12" s="217"/>
+      <c r="BF12" s="217"/>
+      <c r="BG12" s="217"/>
+      <c r="BH12" s="217"/>
+      <c r="BI12" s="217"/>
+      <c r="BJ12" s="217"/>
+      <c r="BK12" s="217"/>
+      <c r="BL12" s="217"/>
+      <c r="BM12" s="217"/>
+      <c r="BN12" s="217"/>
+      <c r="BO12" s="217"/>
+      <c r="BP12" s="217"/>
+      <c r="BQ12" s="217"/>
+      <c r="BR12" s="217"/>
+      <c r="BS12" s="217"/>
+      <c r="BT12" s="217"/>
+      <c r="BU12" s="217"/>
+      <c r="BV12" s="217"/>
+      <c r="BW12" s="217"/>
+      <c r="BX12" s="217"/>
+      <c r="BY12" s="217"/>
+      <c r="BZ12" s="217"/>
+      <c r="CA12" s="217"/>
+      <c r="CB12" s="218"/>
     </row>
     <row r="13" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A13" s="100"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="221"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="305"/>
-      <c r="G13" s="306"/>
+      <c r="A13" s="298"/>
+      <c r="B13" s="298"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
       <c r="H13" s="15"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="143"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="98"/>
-      <c r="W13" s="98"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="98"/>
-      <c r="Z13" s="98"/>
-      <c r="AA13" s="98"/>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="98"/>
-      <c r="AD13" s="98"/>
-      <c r="AE13" s="98"/>
-      <c r="AF13" s="98"/>
-      <c r="AG13" s="98"/>
-      <c r="AH13" s="98"/>
-      <c r="AI13" s="98"/>
-      <c r="AJ13" s="98"/>
-      <c r="AK13" s="98"/>
-      <c r="AL13" s="98"/>
-      <c r="AM13" s="98"/>
-      <c r="AN13" s="98"/>
-      <c r="AO13" s="98"/>
-      <c r="AP13" s="98"/>
-      <c r="AQ13" s="98"/>
-      <c r="AR13" s="98"/>
-      <c r="AS13" s="98"/>
-      <c r="AT13" s="98"/>
-      <c r="AU13" s="98"/>
-      <c r="AV13" s="98"/>
-      <c r="AW13" s="98"/>
-      <c r="AX13" s="98"/>
-      <c r="AY13" s="98"/>
-      <c r="AZ13" s="98"/>
-      <c r="BA13" s="98"/>
-      <c r="BB13" s="98"/>
-      <c r="BC13" s="98"/>
-      <c r="BD13" s="98"/>
-      <c r="BE13" s="98"/>
-      <c r="BF13" s="98"/>
-      <c r="BG13" s="98"/>
-      <c r="BH13" s="98"/>
-      <c r="BI13" s="98"/>
-      <c r="BJ13" s="98"/>
-      <c r="BK13" s="98"/>
-      <c r="BL13" s="98"/>
-      <c r="BM13" s="98"/>
-      <c r="BN13" s="98"/>
-      <c r="BO13" s="98"/>
-      <c r="BP13" s="98"/>
-      <c r="BQ13" s="98"/>
-      <c r="BR13" s="98"/>
-      <c r="BS13" s="98"/>
-      <c r="BT13" s="98"/>
-      <c r="BU13" s="98"/>
-      <c r="BV13" s="98"/>
-      <c r="BW13" s="98"/>
-      <c r="BX13" s="98"/>
-      <c r="BY13" s="98"/>
-      <c r="BZ13" s="98"/>
-      <c r="CA13" s="98"/>
-      <c r="CB13" s="144"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="223"/>
+      <c r="L13" s="223"/>
+      <c r="M13" s="226"/>
+      <c r="N13" s="213"/>
+      <c r="O13" s="214"/>
+      <c r="P13" s="214"/>
+      <c r="Q13" s="214"/>
+      <c r="R13" s="214"/>
+      <c r="S13" s="214"/>
+      <c r="T13" s="214"/>
+      <c r="U13" s="214"/>
+      <c r="V13" s="214"/>
+      <c r="W13" s="214"/>
+      <c r="X13" s="214"/>
+      <c r="Y13" s="214"/>
+      <c r="Z13" s="214"/>
+      <c r="AA13" s="214"/>
+      <c r="AB13" s="214"/>
+      <c r="AC13" s="214"/>
+      <c r="AD13" s="214"/>
+      <c r="AE13" s="214"/>
+      <c r="AF13" s="214"/>
+      <c r="AG13" s="214"/>
+      <c r="AH13" s="214"/>
+      <c r="AI13" s="214"/>
+      <c r="AJ13" s="214"/>
+      <c r="AK13" s="214"/>
+      <c r="AL13" s="214"/>
+      <c r="AM13" s="214"/>
+      <c r="AN13" s="214"/>
+      <c r="AO13" s="214"/>
+      <c r="AP13" s="214"/>
+      <c r="AQ13" s="214"/>
+      <c r="AR13" s="214"/>
+      <c r="AS13" s="214"/>
+      <c r="AT13" s="214"/>
+      <c r="AU13" s="214"/>
+      <c r="AV13" s="214"/>
+      <c r="AW13" s="214"/>
+      <c r="AX13" s="214"/>
+      <c r="AY13" s="214"/>
+      <c r="AZ13" s="214"/>
+      <c r="BA13" s="214"/>
+      <c r="BB13" s="214"/>
+      <c r="BC13" s="214"/>
+      <c r="BD13" s="214"/>
+      <c r="BE13" s="214"/>
+      <c r="BF13" s="214"/>
+      <c r="BG13" s="214"/>
+      <c r="BH13" s="214"/>
+      <c r="BI13" s="214"/>
+      <c r="BJ13" s="214"/>
+      <c r="BK13" s="214"/>
+      <c r="BL13" s="214"/>
+      <c r="BM13" s="214"/>
+      <c r="BN13" s="214"/>
+      <c r="BO13" s="214"/>
+      <c r="BP13" s="214"/>
+      <c r="BQ13" s="214"/>
+      <c r="BR13" s="214"/>
+      <c r="BS13" s="214"/>
+      <c r="BT13" s="214"/>
+      <c r="BU13" s="214"/>
+      <c r="BV13" s="214"/>
+      <c r="BW13" s="214"/>
+      <c r="BX13" s="214"/>
+      <c r="BY13" s="214"/>
+      <c r="BZ13" s="214"/>
+      <c r="CA13" s="214"/>
+      <c r="CB13" s="215"/>
     </row>
     <row r="14" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A14" s="100"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="221"/>
-      <c r="E14" s="297" t="s">
+      <c r="A14" s="298"/>
+      <c r="B14" s="298"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="297"/>
-      <c r="G14" s="297"/>
-      <c r="H14" s="297"/>
-      <c r="I14" s="297"/>
-      <c r="J14" s="298"/>
-      <c r="K14" s="172" t="s">
-        <v>49</v>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="227" t="s">
+        <v>47</v>
       </c>
-      <c r="L14" s="173"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="174"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="175"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="160"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="175"/>
-      <c r="V14" s="160"/>
-      <c r="W14" s="160"/>
-      <c r="X14" s="161"/>
-      <c r="Y14" s="163"/>
-      <c r="Z14" s="164"/>
-      <c r="AA14" s="251"/>
-      <c r="AB14" s="252"/>
-      <c r="AC14" s="253"/>
-      <c r="AD14" s="291" t="s">
+      <c r="L14" s="228"/>
+      <c r="M14" s="228"/>
+      <c r="N14" s="229"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="158"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="109"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="108"/>
+      <c r="X14" s="109"/>
+      <c r="Y14" s="158"/>
+      <c r="Z14" s="159"/>
+      <c r="AA14" s="122"/>
+      <c r="AB14" s="123"/>
+      <c r="AC14" s="124"/>
+      <c r="AD14" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="AE14" s="292"/>
-      <c r="AF14" s="292"/>
-      <c r="AG14" s="292"/>
-      <c r="AH14" s="245" t="s">
-        <v>57</v>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="116" t="s">
+        <v>60</v>
       </c>
-      <c r="AI14" s="246"/>
-      <c r="AJ14" s="246"/>
-      <c r="AK14" s="246"/>
-      <c r="AL14" s="246"/>
-      <c r="AM14" s="246"/>
-      <c r="AN14" s="246"/>
-      <c r="AO14" s="246"/>
-      <c r="AP14" s="246"/>
-      <c r="AQ14" s="246"/>
-      <c r="AR14" s="246"/>
-      <c r="AS14" s="246"/>
-      <c r="AT14" s="246"/>
-      <c r="AU14" s="246"/>
-      <c r="AV14" s="246"/>
-      <c r="AW14" s="246"/>
-      <c r="AX14" s="246"/>
-      <c r="AY14" s="246"/>
-      <c r="AZ14" s="246"/>
-      <c r="BA14" s="246"/>
-      <c r="BB14" s="246"/>
-      <c r="BC14" s="246"/>
-      <c r="BD14" s="246"/>
-      <c r="BE14" s="246"/>
-      <c r="BF14" s="246"/>
-      <c r="BG14" s="246"/>
-      <c r="BH14" s="246"/>
-      <c r="BI14" s="246"/>
-      <c r="BJ14" s="246"/>
-      <c r="BK14" s="246"/>
-      <c r="BL14" s="246"/>
-      <c r="BM14" s="247"/>
+      <c r="AI14" s="117"/>
+      <c r="AJ14" s="117"/>
+      <c r="AK14" s="117"/>
+      <c r="AL14" s="117"/>
+      <c r="AM14" s="117"/>
+      <c r="AN14" s="117"/>
+      <c r="AO14" s="117"/>
+      <c r="AP14" s="117"/>
+      <c r="AQ14" s="117"/>
+      <c r="AR14" s="117"/>
+      <c r="AS14" s="117"/>
+      <c r="AT14" s="117"/>
+      <c r="AU14" s="117"/>
+      <c r="AV14" s="117"/>
+      <c r="AW14" s="117"/>
+      <c r="AX14" s="117"/>
+      <c r="AY14" s="117"/>
+      <c r="AZ14" s="117"/>
+      <c r="BA14" s="117"/>
+      <c r="BB14" s="117"/>
+      <c r="BC14" s="117"/>
+      <c r="BD14" s="117"/>
+      <c r="BE14" s="117"/>
+      <c r="BF14" s="117"/>
+      <c r="BG14" s="117"/>
+      <c r="BH14" s="117"/>
+      <c r="BI14" s="117"/>
+      <c r="BJ14" s="117"/>
+      <c r="BK14" s="117"/>
+      <c r="BL14" s="117"/>
+      <c r="BM14" s="118"/>
       <c r="BN14" s="33"/>
       <c r="BO14" s="33"/>
       <c r="BP14" s="33"/>
@@ -6491,71 +6531,71 @@
       <c r="CB14" s="33"/>
     </row>
     <row r="15" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A15" s="100"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="221"/>
-      <c r="E15" s="297"/>
-      <c r="F15" s="297"/>
-      <c r="G15" s="297"/>
-      <c r="H15" s="297"/>
-      <c r="I15" s="297"/>
-      <c r="J15" s="298"/>
-      <c r="K15" s="172"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="174"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="150"/>
-      <c r="Q15" s="169"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="169"/>
-      <c r="V15" s="162"/>
-      <c r="W15" s="162"/>
-      <c r="X15" s="149"/>
-      <c r="Y15" s="150"/>
-      <c r="Z15" s="165"/>
-      <c r="AA15" s="254"/>
-      <c r="AB15" s="255"/>
-      <c r="AC15" s="256"/>
-      <c r="AD15" s="293"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="248"/>
-      <c r="AI15" s="249"/>
-      <c r="AJ15" s="249"/>
-      <c r="AK15" s="249"/>
-      <c r="AL15" s="249"/>
-      <c r="AM15" s="249"/>
-      <c r="AN15" s="249"/>
-      <c r="AO15" s="249"/>
-      <c r="AP15" s="249"/>
-      <c r="AQ15" s="249"/>
-      <c r="AR15" s="249"/>
-      <c r="AS15" s="249"/>
-      <c r="AT15" s="249"/>
-      <c r="AU15" s="249"/>
-      <c r="AV15" s="249"/>
-      <c r="AW15" s="249"/>
-      <c r="AX15" s="249"/>
-      <c r="AY15" s="249"/>
-      <c r="AZ15" s="249"/>
-      <c r="BA15" s="249"/>
-      <c r="BB15" s="249"/>
-      <c r="BC15" s="249"/>
-      <c r="BD15" s="249"/>
-      <c r="BE15" s="249"/>
-      <c r="BF15" s="249"/>
-      <c r="BG15" s="249"/>
-      <c r="BH15" s="249"/>
-      <c r="BI15" s="249"/>
-      <c r="BJ15" s="249"/>
-      <c r="BK15" s="249"/>
-      <c r="BL15" s="249"/>
-      <c r="BM15" s="250"/>
+      <c r="A15" s="298"/>
+      <c r="B15" s="298"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="227"/>
+      <c r="L15" s="228"/>
+      <c r="M15" s="228"/>
+      <c r="N15" s="229"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="110"/>
+      <c r="W15" s="110"/>
+      <c r="X15" s="111"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="125"/>
+      <c r="AB15" s="126"/>
+      <c r="AC15" s="127"/>
+      <c r="AD15" s="78"/>
+      <c r="AE15" s="79"/>
+      <c r="AF15" s="79"/>
+      <c r="AG15" s="79"/>
+      <c r="AH15" s="119"/>
+      <c r="AI15" s="120"/>
+      <c r="AJ15" s="120"/>
+      <c r="AK15" s="120"/>
+      <c r="AL15" s="120"/>
+      <c r="AM15" s="120"/>
+      <c r="AN15" s="120"/>
+      <c r="AO15" s="120"/>
+      <c r="AP15" s="120"/>
+      <c r="AQ15" s="120"/>
+      <c r="AR15" s="120"/>
+      <c r="AS15" s="120"/>
+      <c r="AT15" s="120"/>
+      <c r="AU15" s="120"/>
+      <c r="AV15" s="120"/>
+      <c r="AW15" s="120"/>
+      <c r="AX15" s="120"/>
+      <c r="AY15" s="120"/>
+      <c r="AZ15" s="120"/>
+      <c r="BA15" s="120"/>
+      <c r="BB15" s="120"/>
+      <c r="BC15" s="120"/>
+      <c r="BD15" s="120"/>
+      <c r="BE15" s="120"/>
+      <c r="BF15" s="120"/>
+      <c r="BG15" s="120"/>
+      <c r="BH15" s="120"/>
+      <c r="BI15" s="120"/>
+      <c r="BJ15" s="120"/>
+      <c r="BK15" s="120"/>
+      <c r="BL15" s="120"/>
+      <c r="BM15" s="121"/>
       <c r="BN15" s="5"/>
       <c r="BO15" s="9"/>
       <c r="BP15" s="9"/>
@@ -6574,10 +6614,10 @@
       <c r="CC15" s="2"/>
     </row>
     <row r="16" spans="1:81" ht="12.75" customHeight="1">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
+      <c r="A16" s="298"/>
+      <c r="B16" s="298"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -6608,7 +6648,7 @@
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
       <c r="AH16" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
@@ -6658,882 +6698,882 @@
       <c r="CB16" s="9"/>
     </row>
     <row r="17" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A17" s="100"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
+      <c r="A17" s="298"/>
+      <c r="B17" s="298"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="168"/>
       <c r="F17" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A18" s="100"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="221"/>
+      <c r="A18" s="298"/>
+      <c r="B18" s="298"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="168"/>
       <c r="F18" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
-      <c r="AN18" s="261" t="s">
+      <c r="AN18" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="AO18" s="261"/>
-      <c r="AP18" s="261"/>
-      <c r="AQ18" s="261"/>
-      <c r="AR18" s="261"/>
-      <c r="AS18" s="261"/>
-      <c r="AT18" s="261"/>
-      <c r="AU18" s="261"/>
-      <c r="AV18" s="261"/>
-      <c r="AW18" s="261"/>
-      <c r="AX18" s="261"/>
-      <c r="AY18" s="261"/>
-      <c r="AZ18" s="261"/>
-      <c r="BA18" s="261"/>
-      <c r="BB18" s="261"/>
-      <c r="BC18" s="261"/>
-      <c r="BD18" s="261"/>
-      <c r="BE18" s="261"/>
-      <c r="BF18" s="261"/>
-      <c r="BG18" s="261"/>
-      <c r="BH18" s="261"/>
-      <c r="BI18" s="261"/>
-      <c r="BJ18" s="261"/>
-      <c r="BK18" s="261"/>
-      <c r="BL18" s="261"/>
-      <c r="BM18" s="261"/>
-      <c r="BN18" s="261"/>
-      <c r="BO18" s="261"/>
-      <c r="BP18" s="261"/>
-      <c r="BQ18" s="261"/>
-      <c r="BR18" s="261"/>
-      <c r="BS18" s="261"/>
-      <c r="BT18" s="261"/>
-      <c r="BU18" s="261"/>
-      <c r="BV18" s="261"/>
-      <c r="BW18" s="261"/>
+      <c r="AO18" s="138"/>
+      <c r="AP18" s="138"/>
+      <c r="AQ18" s="138"/>
+      <c r="AR18" s="138"/>
+      <c r="AS18" s="138"/>
+      <c r="AT18" s="138"/>
+      <c r="AU18" s="138"/>
+      <c r="AV18" s="138"/>
+      <c r="AW18" s="138"/>
+      <c r="AX18" s="138"/>
+      <c r="AY18" s="138"/>
+      <c r="AZ18" s="138"/>
+      <c r="BA18" s="138"/>
+      <c r="BB18" s="138"/>
+      <c r="BC18" s="138"/>
+      <c r="BD18" s="138"/>
+      <c r="BE18" s="138"/>
+      <c r="BF18" s="138"/>
+      <c r="BG18" s="138"/>
+      <c r="BH18" s="138"/>
+      <c r="BI18" s="138"/>
+      <c r="BJ18" s="138"/>
+      <c r="BK18" s="138"/>
+      <c r="BL18" s="138"/>
+      <c r="BM18" s="138"/>
+      <c r="BN18" s="138"/>
+      <c r="BO18" s="138"/>
+      <c r="BP18" s="138"/>
+      <c r="BQ18" s="138"/>
+      <c r="BR18" s="138"/>
+      <c r="BS18" s="138"/>
+      <c r="BT18" s="138"/>
+      <c r="BU18" s="138"/>
+      <c r="BV18" s="138"/>
+      <c r="BW18" s="138"/>
     </row>
     <row r="19" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A19" s="100"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
-      <c r="E19" s="123" t="s">
-        <v>52</v>
+      <c r="A19" s="298"/>
+      <c r="B19" s="298"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="250" t="s">
+        <v>49</v>
       </c>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="124"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="124"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="124"/>
-      <c r="R19" s="124"/>
-      <c r="S19" s="124"/>
-      <c r="T19" s="124"/>
-      <c r="U19" s="124"/>
-      <c r="V19" s="124"/>
-      <c r="W19" s="124"/>
-      <c r="X19" s="124"/>
-      <c r="Y19" s="124"/>
-      <c r="Z19" s="124"/>
-      <c r="AA19" s="124"/>
-      <c r="AB19" s="124"/>
-      <c r="AC19" s="124"/>
-      <c r="AD19" s="124"/>
-      <c r="AE19" s="124"/>
-      <c r="AF19" s="124"/>
-      <c r="AG19" s="124"/>
-      <c r="AH19" s="124"/>
-      <c r="AI19" s="124"/>
-      <c r="AJ19" s="124"/>
-      <c r="AN19" s="261"/>
-      <c r="AO19" s="261"/>
-      <c r="AP19" s="261"/>
-      <c r="AQ19" s="261"/>
-      <c r="AR19" s="261"/>
-      <c r="AS19" s="261"/>
-      <c r="AT19" s="261"/>
-      <c r="AU19" s="261"/>
-      <c r="AV19" s="261"/>
-      <c r="AW19" s="261"/>
-      <c r="AX19" s="261"/>
-      <c r="AY19" s="261"/>
-      <c r="AZ19" s="261"/>
-      <c r="BA19" s="261"/>
-      <c r="BB19" s="261"/>
-      <c r="BC19" s="261"/>
-      <c r="BD19" s="261"/>
-      <c r="BE19" s="261"/>
-      <c r="BF19" s="261"/>
-      <c r="BG19" s="261"/>
-      <c r="BH19" s="261"/>
-      <c r="BI19" s="261"/>
-      <c r="BJ19" s="261"/>
-      <c r="BK19" s="261"/>
-      <c r="BL19" s="261"/>
-      <c r="BM19" s="261"/>
-      <c r="BN19" s="261"/>
-      <c r="BO19" s="261"/>
-      <c r="BP19" s="261"/>
-      <c r="BQ19" s="261"/>
-      <c r="BR19" s="261"/>
-      <c r="BS19" s="261"/>
-      <c r="BT19" s="261"/>
-      <c r="BU19" s="261"/>
-      <c r="BV19" s="261"/>
-      <c r="BW19" s="261"/>
+      <c r="F19" s="251"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="251"/>
+      <c r="I19" s="251"/>
+      <c r="J19" s="251"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="251"/>
+      <c r="M19" s="251"/>
+      <c r="N19" s="251"/>
+      <c r="O19" s="251"/>
+      <c r="P19" s="251"/>
+      <c r="Q19" s="251"/>
+      <c r="R19" s="251"/>
+      <c r="S19" s="251"/>
+      <c r="T19" s="251"/>
+      <c r="U19" s="251"/>
+      <c r="V19" s="251"/>
+      <c r="W19" s="251"/>
+      <c r="X19" s="251"/>
+      <c r="Y19" s="251"/>
+      <c r="Z19" s="251"/>
+      <c r="AA19" s="251"/>
+      <c r="AB19" s="251"/>
+      <c r="AC19" s="251"/>
+      <c r="AD19" s="251"/>
+      <c r="AE19" s="251"/>
+      <c r="AF19" s="251"/>
+      <c r="AG19" s="251"/>
+      <c r="AH19" s="251"/>
+      <c r="AI19" s="251"/>
+      <c r="AJ19" s="251"/>
+      <c r="AN19" s="138"/>
+      <c r="AO19" s="138"/>
+      <c r="AP19" s="138"/>
+      <c r="AQ19" s="138"/>
+      <c r="AR19" s="138"/>
+      <c r="AS19" s="138"/>
+      <c r="AT19" s="138"/>
+      <c r="AU19" s="138"/>
+      <c r="AV19" s="138"/>
+      <c r="AW19" s="138"/>
+      <c r="AX19" s="138"/>
+      <c r="AY19" s="138"/>
+      <c r="AZ19" s="138"/>
+      <c r="BA19" s="138"/>
+      <c r="BB19" s="138"/>
+      <c r="BC19" s="138"/>
+      <c r="BD19" s="138"/>
+      <c r="BE19" s="138"/>
+      <c r="BF19" s="138"/>
+      <c r="BG19" s="138"/>
+      <c r="BH19" s="138"/>
+      <c r="BI19" s="138"/>
+      <c r="BJ19" s="138"/>
+      <c r="BK19" s="138"/>
+      <c r="BL19" s="138"/>
+      <c r="BM19" s="138"/>
+      <c r="BN19" s="138"/>
+      <c r="BO19" s="138"/>
+      <c r="BP19" s="138"/>
+      <c r="BQ19" s="138"/>
+      <c r="BR19" s="138"/>
+      <c r="BS19" s="138"/>
+      <c r="BT19" s="138"/>
+      <c r="BU19" s="138"/>
+      <c r="BV19" s="138"/>
+      <c r="BW19" s="138"/>
     </row>
     <row r="20" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="114" t="s">
-        <v>43</v>
+      <c r="A20" s="298"/>
+      <c r="B20" s="298"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="99" t="s">
+        <v>41</v>
       </c>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="115"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="115"/>
-      <c r="W20" s="115"/>
-      <c r="X20" s="115"/>
-      <c r="Y20" s="115"/>
-      <c r="Z20" s="115"/>
-      <c r="AA20" s="115"/>
-      <c r="AB20" s="116"/>
-      <c r="AC20" s="114" t="s">
-        <v>42</v>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="100"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="100"/>
+      <c r="Z20" s="100"/>
+      <c r="AA20" s="100"/>
+      <c r="AB20" s="101"/>
+      <c r="AC20" s="99" t="s">
+        <v>40</v>
       </c>
-      <c r="AD20" s="115"/>
-      <c r="AE20" s="115"/>
-      <c r="AF20" s="115"/>
-      <c r="AG20" s="115"/>
-      <c r="AH20" s="115"/>
-      <c r="AI20" s="115"/>
-      <c r="AJ20" s="115"/>
-      <c r="AK20" s="115"/>
-      <c r="AL20" s="115"/>
-      <c r="AM20" s="115"/>
-      <c r="AN20" s="115"/>
-      <c r="AO20" s="115"/>
-      <c r="AP20" s="115"/>
-      <c r="AQ20" s="115"/>
-      <c r="AR20" s="116"/>
-      <c r="AS20" s="299" t="s">
-        <v>34</v>
+      <c r="AD20" s="100"/>
+      <c r="AE20" s="100"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="100"/>
+      <c r="AH20" s="100"/>
+      <c r="AI20" s="100"/>
+      <c r="AJ20" s="100"/>
+      <c r="AK20" s="100"/>
+      <c r="AL20" s="100"/>
+      <c r="AM20" s="100"/>
+      <c r="AN20" s="100"/>
+      <c r="AO20" s="100"/>
+      <c r="AP20" s="100"/>
+      <c r="AQ20" s="100"/>
+      <c r="AR20" s="101"/>
+      <c r="AS20" s="87" t="s">
+        <v>33</v>
       </c>
-      <c r="AT20" s="300"/>
+      <c r="AT20" s="88"/>
       <c r="AU20" s="16"/>
       <c r="AV20" s="16"/>
       <c r="AW20" s="16"/>
       <c r="AX20" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AY20" s="19"/>
       <c r="AZ20" s="19"/>
-      <c r="BA20" s="257"/>
-      <c r="BB20" s="257"/>
-      <c r="BC20" s="257"/>
-      <c r="BD20" s="257"/>
-      <c r="BE20" s="257"/>
-      <c r="BF20" s="257"/>
-      <c r="BG20" s="240"/>
-      <c r="BH20" s="241"/>
-      <c r="BI20" s="241"/>
-      <c r="BJ20" s="241"/>
-      <c r="BK20" s="241"/>
-      <c r="BL20" s="241"/>
-      <c r="BM20" s="241"/>
-      <c r="BN20" s="241"/>
-      <c r="BO20" s="242"/>
+      <c r="BA20" s="128"/>
+      <c r="BB20" s="128"/>
+      <c r="BC20" s="128"/>
+      <c r="BD20" s="128"/>
+      <c r="BE20" s="128"/>
+      <c r="BF20" s="128"/>
+      <c r="BG20" s="102"/>
+      <c r="BH20" s="103"/>
+      <c r="BI20" s="103"/>
+      <c r="BJ20" s="103"/>
+      <c r="BK20" s="103"/>
+      <c r="BL20" s="103"/>
+      <c r="BM20" s="103"/>
+      <c r="BN20" s="103"/>
+      <c r="BO20" s="104"/>
     </row>
     <row r="21" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="222"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="194"/>
-      <c r="O21" s="158"/>
-      <c r="P21" s="158"/>
-      <c r="Q21" s="158"/>
-      <c r="R21" s="158"/>
-      <c r="S21" s="158"/>
-      <c r="T21" s="167"/>
-      <c r="U21" s="166"/>
-      <c r="V21" s="158"/>
-      <c r="W21" s="158"/>
-      <c r="X21" s="158"/>
-      <c r="Y21" s="284"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="284"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="196" t="s">
-        <v>48</v>
+      <c r="A21" s="298"/>
+      <c r="B21" s="298"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="236"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="172"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="80"/>
+      <c r="AC21" s="129" t="s">
+        <v>46</v>
       </c>
-      <c r="AD21" s="197"/>
-      <c r="AE21" s="197"/>
-      <c r="AF21" s="198"/>
-      <c r="AG21" s="147"/>
-      <c r="AH21" s="148"/>
-      <c r="AI21" s="148"/>
-      <c r="AJ21" s="168"/>
-      <c r="AK21" s="71"/>
-      <c r="AL21" s="223"/>
-      <c r="AM21" s="148"/>
-      <c r="AN21" s="168"/>
-      <c r="AO21" s="71"/>
-      <c r="AP21" s="223"/>
-      <c r="AQ21" s="223"/>
-      <c r="AR21" s="260"/>
-      <c r="AS21" s="226" t="s">
-        <v>41</v>
+      <c r="AD21" s="130"/>
+      <c r="AE21" s="130"/>
+      <c r="AF21" s="131"/>
+      <c r="AG21" s="219"/>
+      <c r="AH21" s="105"/>
+      <c r="AI21" s="105"/>
+      <c r="AJ21" s="106"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="105"/>
+      <c r="AN21" s="106"/>
+      <c r="AO21" s="51"/>
+      <c r="AP21" s="52"/>
+      <c r="AQ21" s="52"/>
+      <c r="AR21" s="137"/>
+      <c r="AS21" s="173" t="s">
+        <v>39</v>
       </c>
-      <c r="AT21" s="227"/>
-      <c r="AU21" s="227"/>
-      <c r="AV21" s="227"/>
-      <c r="AW21" s="228"/>
+      <c r="AT21" s="174"/>
+      <c r="AU21" s="174"/>
+      <c r="AV21" s="174"/>
+      <c r="AW21" s="175"/>
       <c r="AX21" s="21" t="s">
         <v>19</v>
       </c>
       <c r="AY21" s="22"/>
-      <c r="AZ21" s="170"/>
-      <c r="BA21" s="170"/>
-      <c r="BB21" s="170"/>
-      <c r="BC21" s="170"/>
-      <c r="BD21" s="170"/>
-      <c r="BE21" s="170"/>
-      <c r="BF21" s="170"/>
+      <c r="AZ21" s="113"/>
+      <c r="BA21" s="113"/>
+      <c r="BB21" s="113"/>
+      <c r="BC21" s="113"/>
+      <c r="BD21" s="113"/>
+      <c r="BE21" s="113"/>
+      <c r="BF21" s="113"/>
       <c r="BG21" s="21" t="s">
         <v>20</v>
       </c>
       <c r="BH21" s="22"/>
-      <c r="BI21" s="170"/>
-      <c r="BJ21" s="170"/>
-      <c r="BK21" s="170"/>
-      <c r="BL21" s="170"/>
-      <c r="BM21" s="170"/>
-      <c r="BN21" s="170"/>
-      <c r="BO21" s="243"/>
+      <c r="BI21" s="113"/>
+      <c r="BJ21" s="113"/>
+      <c r="BK21" s="113"/>
+      <c r="BL21" s="113"/>
+      <c r="BM21" s="113"/>
+      <c r="BN21" s="113"/>
+      <c r="BO21" s="114"/>
     </row>
     <row r="22" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A22" s="100"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="221"/>
-      <c r="E22" s="222"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="182"/>
-      <c r="L22" s="183"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="194"/>
-      <c r="O22" s="158"/>
-      <c r="P22" s="158"/>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="158"/>
-      <c r="S22" s="158"/>
-      <c r="T22" s="167"/>
-      <c r="U22" s="166"/>
-      <c r="V22" s="158"/>
-      <c r="W22" s="158"/>
-      <c r="X22" s="158"/>
-      <c r="Y22" s="285"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="285"/>
-      <c r="AB22" s="111"/>
-      <c r="AC22" s="199"/>
-      <c r="AD22" s="200"/>
-      <c r="AE22" s="200"/>
-      <c r="AF22" s="201"/>
-      <c r="AG22" s="149"/>
-      <c r="AH22" s="150"/>
-      <c r="AI22" s="150"/>
-      <c r="AJ22" s="169"/>
-      <c r="AK22" s="73"/>
-      <c r="AL22" s="150"/>
-      <c r="AM22" s="150"/>
-      <c r="AN22" s="169"/>
-      <c r="AO22" s="73"/>
-      <c r="AP22" s="150"/>
-      <c r="AQ22" s="150"/>
-      <c r="AR22" s="165"/>
-      <c r="AS22" s="229"/>
-      <c r="AT22" s="230"/>
-      <c r="AU22" s="230"/>
-      <c r="AV22" s="230"/>
-      <c r="AW22" s="231"/>
+      <c r="A22" s="298"/>
+      <c r="B22" s="298"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="236"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="172"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="132"/>
+      <c r="AD22" s="133"/>
+      <c r="AE22" s="133"/>
+      <c r="AF22" s="134"/>
+      <c r="AG22" s="111"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="54"/>
+      <c r="AJ22" s="107"/>
+      <c r="AK22" s="53"/>
+      <c r="AL22" s="54"/>
+      <c r="AM22" s="54"/>
+      <c r="AN22" s="107"/>
+      <c r="AO22" s="53"/>
+      <c r="AP22" s="54"/>
+      <c r="AQ22" s="54"/>
+      <c r="AR22" s="73"/>
+      <c r="AS22" s="176"/>
+      <c r="AT22" s="177"/>
+      <c r="AU22" s="177"/>
+      <c r="AV22" s="177"/>
+      <c r="AW22" s="178"/>
       <c r="AX22" s="13"/>
       <c r="AY22" s="4"/>
-      <c r="AZ22" s="171"/>
-      <c r="BA22" s="171"/>
-      <c r="BB22" s="171"/>
-      <c r="BC22" s="171"/>
-      <c r="BD22" s="171"/>
-      <c r="BE22" s="171"/>
-      <c r="BF22" s="171"/>
+      <c r="AZ22" s="64"/>
+      <c r="BA22" s="64"/>
+      <c r="BB22" s="64"/>
+      <c r="BC22" s="64"/>
+      <c r="BD22" s="64"/>
+      <c r="BE22" s="64"/>
+      <c r="BF22" s="64"/>
       <c r="BG22" s="13"/>
       <c r="BH22" s="4"/>
-      <c r="BI22" s="171"/>
-      <c r="BJ22" s="171"/>
-      <c r="BK22" s="171"/>
-      <c r="BL22" s="171"/>
-      <c r="BM22" s="171"/>
-      <c r="BN22" s="171"/>
-      <c r="BO22" s="244"/>
+      <c r="BI22" s="64"/>
+      <c r="BJ22" s="64"/>
+      <c r="BK22" s="64"/>
+      <c r="BL22" s="64"/>
+      <c r="BM22" s="64"/>
+      <c r="BN22" s="64"/>
+      <c r="BO22" s="115"/>
     </row>
     <row r="23" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="221"/>
-      <c r="D23" s="221"/>
-      <c r="E23" s="85" t="s">
+      <c r="A23" s="298"/>
+      <c r="B23" s="298"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="289" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="86"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="42" t="s">
+      <c r="F23" s="290"/>
+      <c r="G23" s="291"/>
+      <c r="H23" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="42" t="s">
-        <v>32</v>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="48" t="s">
+        <v>58</v>
       </c>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="43"/>
-      <c r="AH23" s="43"/>
-      <c r="AI23" s="43"/>
-      <c r="AJ23" s="43"/>
-      <c r="AK23" s="43"/>
-      <c r="AL23" s="43"/>
-      <c r="AM23" s="43"/>
-      <c r="AN23" s="43"/>
-      <c r="AO23" s="43"/>
-      <c r="AP23" s="43"/>
-      <c r="AQ23" s="43"/>
-      <c r="AR23" s="43"/>
-      <c r="AS23" s="43"/>
-      <c r="AT23" s="43"/>
-      <c r="AU23" s="43"/>
-      <c r="AV23" s="43"/>
-      <c r="AW23" s="43"/>
-      <c r="AX23" s="43"/>
-      <c r="AY23" s="43"/>
-      <c r="AZ23" s="43"/>
-      <c r="BA23" s="43"/>
-      <c r="BB23" s="43"/>
-      <c r="BC23" s="43"/>
-      <c r="BD23" s="43"/>
-      <c r="BE23" s="43"/>
-      <c r="BF23" s="43"/>
-      <c r="BG23" s="43"/>
-      <c r="BH23" s="43"/>
-      <c r="BI23" s="43"/>
-      <c r="BJ23" s="43"/>
-      <c r="BK23" s="43"/>
-      <c r="BL23" s="43"/>
-      <c r="BM23" s="44"/>
-      <c r="BN23" s="114" t="s">
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="49"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="49"/>
+      <c r="AK23" s="49"/>
+      <c r="AL23" s="49"/>
+      <c r="AM23" s="49"/>
+      <c r="AN23" s="49"/>
+      <c r="AO23" s="49"/>
+      <c r="AP23" s="49"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="49"/>
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="49"/>
+      <c r="AU23" s="49"/>
+      <c r="AV23" s="49"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
+      <c r="BB23" s="49"/>
+      <c r="BC23" s="49"/>
+      <c r="BD23" s="49"/>
+      <c r="BE23" s="49"/>
+      <c r="BF23" s="49"/>
+      <c r="BG23" s="49"/>
+      <c r="BH23" s="49"/>
+      <c r="BI23" s="49"/>
+      <c r="BJ23" s="49"/>
+      <c r="BK23" s="49"/>
+      <c r="BL23" s="49"/>
+      <c r="BM23" s="50"/>
+      <c r="BN23" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="BO23" s="115"/>
-      <c r="BP23" s="115"/>
-      <c r="BQ23" s="115"/>
-      <c r="BR23" s="115"/>
-      <c r="BS23" s="115"/>
-      <c r="BT23" s="115"/>
-      <c r="BU23" s="115"/>
-      <c r="BV23" s="115"/>
-      <c r="BW23" s="115"/>
-      <c r="BX23" s="115"/>
-      <c r="BY23" s="115"/>
-      <c r="BZ23" s="115"/>
-      <c r="CA23" s="115"/>
-      <c r="CB23" s="116"/>
+      <c r="BO23" s="100"/>
+      <c r="BP23" s="100"/>
+      <c r="BQ23" s="100"/>
+      <c r="BR23" s="100"/>
+      <c r="BS23" s="100"/>
+      <c r="BT23" s="100"/>
+      <c r="BU23" s="100"/>
+      <c r="BV23" s="100"/>
+      <c r="BW23" s="100"/>
+      <c r="BX23" s="100"/>
+      <c r="BY23" s="100"/>
+      <c r="BZ23" s="100"/>
+      <c r="CA23" s="100"/>
+      <c r="CB23" s="101"/>
     </row>
     <row r="24" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A24" s="100"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="221"/>
-      <c r="D24" s="221"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="110"/>
-      <c r="V24" s="39" t="s">
+      <c r="A24" s="298"/>
+      <c r="B24" s="298"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="292"/>
+      <c r="H24" s="237"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="154"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="154"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="154"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="258" t="s">
         <v>18</v>
       </c>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="62" t="s">
+      <c r="W24" s="259"/>
+      <c r="X24" s="259"/>
+      <c r="Y24" s="259"/>
+      <c r="Z24" s="259"/>
+      <c r="AA24" s="259"/>
+      <c r="AB24" s="259"/>
+      <c r="AC24" s="259"/>
+      <c r="AD24" s="259"/>
+      <c r="AE24" s="260"/>
+      <c r="AF24" s="280" t="s">
         <v>15</v>
       </c>
-      <c r="AG24" s="63"/>
-      <c r="AH24" s="63"/>
-      <c r="AI24" s="63"/>
-      <c r="AJ24" s="112"/>
-      <c r="AK24" s="112"/>
-      <c r="AL24" s="112"/>
-      <c r="AM24" s="112"/>
-      <c r="AN24" s="112"/>
-      <c r="AO24" s="112"/>
-      <c r="AP24" s="112"/>
-      <c r="AQ24" s="112"/>
-      <c r="AR24" s="112"/>
-      <c r="AS24" s="112"/>
-      <c r="AT24" s="112"/>
-      <c r="AU24" s="112"/>
-      <c r="AV24" s="112"/>
-      <c r="AW24" s="112"/>
-      <c r="AX24" s="112"/>
-      <c r="AY24" s="112"/>
-      <c r="AZ24" s="112"/>
-      <c r="BA24" s="112"/>
-      <c r="BB24" s="112"/>
-      <c r="BC24" s="112"/>
-      <c r="BD24" s="112"/>
-      <c r="BE24" s="112"/>
-      <c r="BF24" s="112"/>
-      <c r="BG24" s="112"/>
-      <c r="BH24" s="112"/>
-      <c r="BI24" s="112"/>
-      <c r="BJ24" s="112"/>
-      <c r="BK24" s="112"/>
-      <c r="BL24" s="112"/>
-      <c r="BM24" s="113"/>
-      <c r="BN24" s="117" t="s">
-        <v>50</v>
+      <c r="AG24" s="281"/>
+      <c r="AH24" s="281"/>
+      <c r="AI24" s="281"/>
+      <c r="AJ24" s="243"/>
+      <c r="AK24" s="243"/>
+      <c r="AL24" s="243"/>
+      <c r="AM24" s="243"/>
+      <c r="AN24" s="243"/>
+      <c r="AO24" s="243"/>
+      <c r="AP24" s="243"/>
+      <c r="AQ24" s="243"/>
+      <c r="AR24" s="243"/>
+      <c r="AS24" s="243"/>
+      <c r="AT24" s="243"/>
+      <c r="AU24" s="243"/>
+      <c r="AV24" s="243"/>
+      <c r="AW24" s="243"/>
+      <c r="AX24" s="243"/>
+      <c r="AY24" s="243"/>
+      <c r="AZ24" s="243"/>
+      <c r="BA24" s="243"/>
+      <c r="BB24" s="243"/>
+      <c r="BC24" s="243"/>
+      <c r="BD24" s="243"/>
+      <c r="BE24" s="243"/>
+      <c r="BF24" s="243"/>
+      <c r="BG24" s="243"/>
+      <c r="BH24" s="243"/>
+      <c r="BI24" s="243"/>
+      <c r="BJ24" s="243"/>
+      <c r="BK24" s="243"/>
+      <c r="BL24" s="243"/>
+      <c r="BM24" s="244"/>
+      <c r="BN24" s="245" t="s">
+        <v>57</v>
       </c>
-      <c r="BO24" s="118"/>
-      <c r="BP24" s="119"/>
-      <c r="BQ24" s="76"/>
-      <c r="BR24" s="77"/>
-      <c r="BS24" s="70"/>
-      <c r="BT24" s="74"/>
-      <c r="BU24" s="76"/>
-      <c r="BV24" s="77"/>
-      <c r="BW24" s="70"/>
-      <c r="BX24" s="74"/>
-      <c r="BY24" s="76"/>
-      <c r="BZ24" s="77"/>
-      <c r="CA24" s="70"/>
-      <c r="CB24" s="74"/>
+      <c r="BO24" s="246"/>
+      <c r="BP24" s="247"/>
+      <c r="BQ24" s="238"/>
+      <c r="BR24" s="253"/>
+      <c r="BS24" s="240"/>
+      <c r="BT24" s="242"/>
+      <c r="BU24" s="238"/>
+      <c r="BV24" s="253"/>
+      <c r="BW24" s="240"/>
+      <c r="BX24" s="242"/>
+      <c r="BY24" s="238"/>
+      <c r="BZ24" s="253"/>
+      <c r="CA24" s="240"/>
+      <c r="CB24" s="242"/>
     </row>
     <row r="25" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A25" s="100"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="221"/>
-      <c r="D25" s="221"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="125"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="78"/>
-      <c r="Z25" s="64"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="64"/>
-      <c r="AC25" s="78"/>
-      <c r="AD25" s="64"/>
-      <c r="AE25" s="65"/>
-      <c r="AF25" s="127"/>
-      <c r="AG25" s="128"/>
-      <c r="AH25" s="128"/>
-      <c r="AI25" s="128"/>
-      <c r="AJ25" s="128"/>
-      <c r="AK25" s="128"/>
-      <c r="AL25" s="128"/>
-      <c r="AM25" s="128"/>
-      <c r="AN25" s="128"/>
-      <c r="AO25" s="128"/>
-      <c r="AP25" s="128"/>
-      <c r="AQ25" s="128"/>
-      <c r="AR25" s="128"/>
-      <c r="AS25" s="128"/>
-      <c r="AT25" s="128"/>
-      <c r="AU25" s="128"/>
-      <c r="AV25" s="128"/>
-      <c r="AW25" s="128"/>
-      <c r="AX25" s="128"/>
-      <c r="AY25" s="128"/>
-      <c r="AZ25" s="128"/>
-      <c r="BA25" s="128"/>
-      <c r="BB25" s="128"/>
-      <c r="BC25" s="128"/>
-      <c r="BD25" s="128"/>
-      <c r="BE25" s="128"/>
-      <c r="BF25" s="128"/>
-      <c r="BG25" s="128"/>
-      <c r="BH25" s="128"/>
-      <c r="BI25" s="128"/>
-      <c r="BJ25" s="128"/>
-      <c r="BK25" s="128"/>
-      <c r="BL25" s="128"/>
-      <c r="BM25" s="129"/>
-      <c r="BN25" s="120"/>
-      <c r="BO25" s="118"/>
-      <c r="BP25" s="119"/>
-      <c r="BQ25" s="76"/>
-      <c r="BR25" s="77"/>
-      <c r="BS25" s="70"/>
-      <c r="BT25" s="74"/>
-      <c r="BU25" s="76"/>
-      <c r="BV25" s="77"/>
-      <c r="BW25" s="70"/>
-      <c r="BX25" s="74"/>
-      <c r="BY25" s="76"/>
-      <c r="BZ25" s="77"/>
-      <c r="CA25" s="70"/>
-      <c r="CB25" s="74"/>
+      <c r="A25" s="298"/>
+      <c r="B25" s="298"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="292"/>
+      <c r="H25" s="238"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="240"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="240"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="240"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="240"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="240"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="240"/>
+      <c r="U25" s="242"/>
+      <c r="V25" s="254"/>
+      <c r="W25" s="255"/>
+      <c r="X25" s="261"/>
+      <c r="Y25" s="255"/>
+      <c r="Z25" s="261"/>
+      <c r="AA25" s="255"/>
+      <c r="AB25" s="261"/>
+      <c r="AC25" s="255"/>
+      <c r="AD25" s="261"/>
+      <c r="AE25" s="282"/>
+      <c r="AF25" s="263"/>
+      <c r="AG25" s="211"/>
+      <c r="AH25" s="211"/>
+      <c r="AI25" s="211"/>
+      <c r="AJ25" s="211"/>
+      <c r="AK25" s="211"/>
+      <c r="AL25" s="211"/>
+      <c r="AM25" s="211"/>
+      <c r="AN25" s="211"/>
+      <c r="AO25" s="211"/>
+      <c r="AP25" s="211"/>
+      <c r="AQ25" s="211"/>
+      <c r="AR25" s="211"/>
+      <c r="AS25" s="211"/>
+      <c r="AT25" s="211"/>
+      <c r="AU25" s="211"/>
+      <c r="AV25" s="211"/>
+      <c r="AW25" s="211"/>
+      <c r="AX25" s="211"/>
+      <c r="AY25" s="211"/>
+      <c r="AZ25" s="211"/>
+      <c r="BA25" s="211"/>
+      <c r="BB25" s="211"/>
+      <c r="BC25" s="211"/>
+      <c r="BD25" s="211"/>
+      <c r="BE25" s="211"/>
+      <c r="BF25" s="211"/>
+      <c r="BG25" s="211"/>
+      <c r="BH25" s="211"/>
+      <c r="BI25" s="211"/>
+      <c r="BJ25" s="211"/>
+      <c r="BK25" s="211"/>
+      <c r="BL25" s="211"/>
+      <c r="BM25" s="212"/>
+      <c r="BN25" s="245"/>
+      <c r="BO25" s="246"/>
+      <c r="BP25" s="247"/>
+      <c r="BQ25" s="238"/>
+      <c r="BR25" s="253"/>
+      <c r="BS25" s="240"/>
+      <c r="BT25" s="242"/>
+      <c r="BU25" s="238"/>
+      <c r="BV25" s="253"/>
+      <c r="BW25" s="240"/>
+      <c r="BX25" s="242"/>
+      <c r="BY25" s="238"/>
+      <c r="BZ25" s="253"/>
+      <c r="CA25" s="240"/>
+      <c r="CB25" s="242"/>
     </row>
     <row r="26" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A26" s="100"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="221"/>
-      <c r="D26" s="221"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="126"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="79"/>
-      <c r="AB26" s="66"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="66"/>
-      <c r="AE26" s="67"/>
-      <c r="AF26" s="130"/>
-      <c r="AG26" s="131"/>
-      <c r="AH26" s="131"/>
-      <c r="AI26" s="131"/>
-      <c r="AJ26" s="131"/>
-      <c r="AK26" s="131"/>
-      <c r="AL26" s="131"/>
-      <c r="AM26" s="131"/>
-      <c r="AN26" s="131"/>
-      <c r="AO26" s="131"/>
-      <c r="AP26" s="131"/>
-      <c r="AQ26" s="131"/>
-      <c r="AR26" s="131"/>
-      <c r="AS26" s="131"/>
-      <c r="AT26" s="131"/>
-      <c r="AU26" s="131"/>
-      <c r="AV26" s="131"/>
-      <c r="AW26" s="131"/>
-      <c r="AX26" s="131"/>
-      <c r="AY26" s="131"/>
-      <c r="AZ26" s="131"/>
-      <c r="BA26" s="131"/>
-      <c r="BB26" s="131"/>
-      <c r="BC26" s="131"/>
-      <c r="BD26" s="131"/>
-      <c r="BE26" s="131"/>
-      <c r="BF26" s="131"/>
-      <c r="BG26" s="131"/>
-      <c r="BH26" s="131"/>
-      <c r="BI26" s="131"/>
-      <c r="BJ26" s="131"/>
-      <c r="BK26" s="131"/>
-      <c r="BL26" s="131"/>
-      <c r="BM26" s="132"/>
-      <c r="BN26" s="120"/>
-      <c r="BO26" s="118"/>
-      <c r="BP26" s="119"/>
-      <c r="BQ26" s="76"/>
-      <c r="BR26" s="77"/>
-      <c r="BS26" s="70"/>
-      <c r="BT26" s="75"/>
-      <c r="BU26" s="76"/>
-      <c r="BV26" s="77"/>
-      <c r="BW26" s="70"/>
-      <c r="BX26" s="75"/>
-      <c r="BY26" s="76"/>
-      <c r="BZ26" s="77"/>
-      <c r="CA26" s="70"/>
-      <c r="CB26" s="75"/>
+      <c r="A26" s="298"/>
+      <c r="B26" s="298"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="293"/>
+      <c r="H26" s="239"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="241"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="241"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="241"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="241"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="241"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="241"/>
+      <c r="U26" s="81"/>
+      <c r="V26" s="256"/>
+      <c r="W26" s="257"/>
+      <c r="X26" s="262"/>
+      <c r="Y26" s="257"/>
+      <c r="Z26" s="262"/>
+      <c r="AA26" s="257"/>
+      <c r="AB26" s="262"/>
+      <c r="AC26" s="257"/>
+      <c r="AD26" s="262"/>
+      <c r="AE26" s="283"/>
+      <c r="AF26" s="264"/>
+      <c r="AG26" s="265"/>
+      <c r="AH26" s="265"/>
+      <c r="AI26" s="265"/>
+      <c r="AJ26" s="265"/>
+      <c r="AK26" s="265"/>
+      <c r="AL26" s="265"/>
+      <c r="AM26" s="265"/>
+      <c r="AN26" s="265"/>
+      <c r="AO26" s="265"/>
+      <c r="AP26" s="265"/>
+      <c r="AQ26" s="265"/>
+      <c r="AR26" s="265"/>
+      <c r="AS26" s="265"/>
+      <c r="AT26" s="265"/>
+      <c r="AU26" s="265"/>
+      <c r="AV26" s="265"/>
+      <c r="AW26" s="265"/>
+      <c r="AX26" s="265"/>
+      <c r="AY26" s="265"/>
+      <c r="AZ26" s="265"/>
+      <c r="BA26" s="265"/>
+      <c r="BB26" s="265"/>
+      <c r="BC26" s="265"/>
+      <c r="BD26" s="265"/>
+      <c r="BE26" s="265"/>
+      <c r="BF26" s="265"/>
+      <c r="BG26" s="265"/>
+      <c r="BH26" s="265"/>
+      <c r="BI26" s="265"/>
+      <c r="BJ26" s="265"/>
+      <c r="BK26" s="265"/>
+      <c r="BL26" s="265"/>
+      <c r="BM26" s="266"/>
+      <c r="BN26" s="245"/>
+      <c r="BO26" s="246"/>
+      <c r="BP26" s="247"/>
+      <c r="BQ26" s="238"/>
+      <c r="BR26" s="253"/>
+      <c r="BS26" s="240"/>
+      <c r="BT26" s="252"/>
+      <c r="BU26" s="238"/>
+      <c r="BV26" s="253"/>
+      <c r="BW26" s="240"/>
+      <c r="BX26" s="252"/>
+      <c r="BY26" s="238"/>
+      <c r="BZ26" s="253"/>
+      <c r="CA26" s="240"/>
+      <c r="CB26" s="252"/>
     </row>
     <row r="27" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A27" s="100"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="221"/>
-      <c r="D27" s="221"/>
-      <c r="E27" s="301" t="s">
+      <c r="A27" s="298"/>
+      <c r="B27" s="298"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="302"/>
-      <c r="G27" s="303"/>
-      <c r="H27" s="281" t="s">
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="282"/>
-      <c r="J27" s="282"/>
-      <c r="K27" s="282"/>
-      <c r="L27" s="282"/>
-      <c r="M27" s="283"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="95"/>
-      <c r="AF27" s="95"/>
-      <c r="AG27" s="95"/>
-      <c r="AH27" s="95"/>
-      <c r="AI27" s="95"/>
-      <c r="AJ27" s="95"/>
-      <c r="AK27" s="95"/>
-      <c r="AL27" s="95"/>
-      <c r="AM27" s="95"/>
-      <c r="AN27" s="95"/>
-      <c r="AO27" s="95"/>
-      <c r="AP27" s="95"/>
-      <c r="AQ27" s="95"/>
-      <c r="AR27" s="95"/>
-      <c r="AS27" s="95"/>
-      <c r="AT27" s="95"/>
-      <c r="AU27" s="95"/>
-      <c r="AV27" s="95"/>
-      <c r="AW27" s="95"/>
-      <c r="AX27" s="95"/>
-      <c r="AY27" s="95"/>
-      <c r="AZ27" s="95"/>
-      <c r="BA27" s="95"/>
-      <c r="BB27" s="95"/>
-      <c r="BC27" s="95"/>
-      <c r="BD27" s="95"/>
-      <c r="BE27" s="95"/>
-      <c r="BF27" s="95"/>
-      <c r="BG27" s="96"/>
-      <c r="BH27" s="275" t="s">
-        <v>35</v>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="294"/>
+      <c r="O27" s="217"/>
+      <c r="P27" s="217"/>
+      <c r="Q27" s="217"/>
+      <c r="R27" s="217"/>
+      <c r="S27" s="217"/>
+      <c r="T27" s="217"/>
+      <c r="U27" s="217"/>
+      <c r="V27" s="217"/>
+      <c r="W27" s="217"/>
+      <c r="X27" s="217"/>
+      <c r="Y27" s="217"/>
+      <c r="Z27" s="217"/>
+      <c r="AA27" s="217"/>
+      <c r="AB27" s="217"/>
+      <c r="AC27" s="217"/>
+      <c r="AD27" s="217"/>
+      <c r="AE27" s="217"/>
+      <c r="AF27" s="217"/>
+      <c r="AG27" s="217"/>
+      <c r="AH27" s="217"/>
+      <c r="AI27" s="217"/>
+      <c r="AJ27" s="217"/>
+      <c r="AK27" s="217"/>
+      <c r="AL27" s="217"/>
+      <c r="AM27" s="217"/>
+      <c r="AN27" s="217"/>
+      <c r="AO27" s="217"/>
+      <c r="AP27" s="217"/>
+      <c r="AQ27" s="217"/>
+      <c r="AR27" s="217"/>
+      <c r="AS27" s="217"/>
+      <c r="AT27" s="217"/>
+      <c r="AU27" s="217"/>
+      <c r="AV27" s="217"/>
+      <c r="AW27" s="217"/>
+      <c r="AX27" s="217"/>
+      <c r="AY27" s="217"/>
+      <c r="AZ27" s="217"/>
+      <c r="BA27" s="217"/>
+      <c r="BB27" s="217"/>
+      <c r="BC27" s="217"/>
+      <c r="BD27" s="217"/>
+      <c r="BE27" s="217"/>
+      <c r="BF27" s="217"/>
+      <c r="BG27" s="295"/>
+      <c r="BH27" s="39" t="s">
+        <v>34</v>
       </c>
-      <c r="BI27" s="276"/>
-      <c r="BJ27" s="277"/>
-      <c r="BK27" s="101" t="s">
-        <v>60</v>
+      <c r="BI27" s="40"/>
+      <c r="BJ27" s="41"/>
+      <c r="BK27" s="299" t="s">
+        <v>59</v>
       </c>
-      <c r="BL27" s="102"/>
-      <c r="BM27" s="102"/>
-      <c r="BN27" s="102"/>
-      <c r="BO27" s="102"/>
-      <c r="BP27" s="102"/>
-      <c r="BQ27" s="102"/>
-      <c r="BR27" s="102"/>
-      <c r="BS27" s="102"/>
-      <c r="BT27" s="102"/>
-      <c r="BU27" s="102"/>
-      <c r="BV27" s="102"/>
-      <c r="BW27" s="102"/>
-      <c r="BX27" s="102"/>
-      <c r="BY27" s="102"/>
-      <c r="BZ27" s="102"/>
-      <c r="CA27" s="102"/>
-      <c r="CB27" s="102"/>
-      <c r="CC27" s="102"/>
-      <c r="CD27" s="103"/>
+      <c r="BL27" s="300"/>
+      <c r="BM27" s="300"/>
+      <c r="BN27" s="300"/>
+      <c r="BO27" s="300"/>
+      <c r="BP27" s="300"/>
+      <c r="BQ27" s="300"/>
+      <c r="BR27" s="300"/>
+      <c r="BS27" s="300"/>
+      <c r="BT27" s="300"/>
+      <c r="BU27" s="300"/>
+      <c r="BV27" s="300"/>
+      <c r="BW27" s="300"/>
+      <c r="BX27" s="300"/>
+      <c r="BY27" s="300"/>
+      <c r="BZ27" s="300"/>
+      <c r="CA27" s="300"/>
+      <c r="CB27" s="300"/>
+      <c r="CC27" s="300"/>
+      <c r="CD27" s="301"/>
       <c r="CE27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:83" ht="22.5" customHeight="1">
-      <c r="A28" s="100"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="221"/>
-      <c r="D28" s="221"/>
-      <c r="E28" s="304"/>
-      <c r="F28" s="305"/>
-      <c r="G28" s="306"/>
-      <c r="H28" s="294" t="s">
+      <c r="A28" s="298"/>
+      <c r="B28" s="298"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="295"/>
-      <c r="J28" s="295"/>
-      <c r="K28" s="295"/>
-      <c r="L28" s="295"/>
-      <c r="M28" s="296"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="98"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="98"/>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="98"/>
-      <c r="AB28" s="98"/>
-      <c r="AC28" s="98"/>
-      <c r="AD28" s="98"/>
-      <c r="AE28" s="98"/>
-      <c r="AF28" s="98"/>
-      <c r="AG28" s="98"/>
-      <c r="AH28" s="98"/>
-      <c r="AI28" s="98"/>
-      <c r="AJ28" s="98"/>
-      <c r="AK28" s="98"/>
-      <c r="AL28" s="98"/>
-      <c r="AM28" s="98"/>
-      <c r="AN28" s="98"/>
-      <c r="AO28" s="98"/>
-      <c r="AP28" s="98"/>
-      <c r="AQ28" s="98"/>
-      <c r="AR28" s="98"/>
-      <c r="AS28" s="98"/>
-      <c r="AT28" s="98"/>
-      <c r="AU28" s="98"/>
-      <c r="AV28" s="98"/>
-      <c r="AW28" s="98"/>
-      <c r="AX28" s="98"/>
-      <c r="AY28" s="98"/>
-      <c r="AZ28" s="98"/>
-      <c r="BA28" s="98"/>
-      <c r="BB28" s="98"/>
-      <c r="BC28" s="98"/>
-      <c r="BD28" s="98"/>
-      <c r="BE28" s="98"/>
-      <c r="BF28" s="98"/>
-      <c r="BG28" s="99"/>
-      <c r="BH28" s="278"/>
-      <c r="BI28" s="279"/>
-      <c r="BJ28" s="280"/>
-      <c r="BK28" s="104"/>
-      <c r="BL28" s="105"/>
-      <c r="BM28" s="105"/>
-      <c r="BN28" s="105"/>
-      <c r="BO28" s="105"/>
-      <c r="BP28" s="105"/>
-      <c r="BQ28" s="105"/>
-      <c r="BR28" s="105"/>
-      <c r="BS28" s="105"/>
-      <c r="BT28" s="105"/>
-      <c r="BU28" s="105"/>
-      <c r="BV28" s="105"/>
-      <c r="BW28" s="105"/>
-      <c r="BX28" s="105"/>
-      <c r="BY28" s="105"/>
-      <c r="BZ28" s="105"/>
-      <c r="CA28" s="105"/>
-      <c r="CB28" s="105"/>
-      <c r="CC28" s="105"/>
-      <c r="CD28" s="106"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="296"/>
+      <c r="O28" s="214"/>
+      <c r="P28" s="214"/>
+      <c r="Q28" s="214"/>
+      <c r="R28" s="214"/>
+      <c r="S28" s="214"/>
+      <c r="T28" s="214"/>
+      <c r="U28" s="214"/>
+      <c r="V28" s="214"/>
+      <c r="W28" s="214"/>
+      <c r="X28" s="214"/>
+      <c r="Y28" s="214"/>
+      <c r="Z28" s="214"/>
+      <c r="AA28" s="214"/>
+      <c r="AB28" s="214"/>
+      <c r="AC28" s="214"/>
+      <c r="AD28" s="214"/>
+      <c r="AE28" s="214"/>
+      <c r="AF28" s="214"/>
+      <c r="AG28" s="214"/>
+      <c r="AH28" s="214"/>
+      <c r="AI28" s="214"/>
+      <c r="AJ28" s="214"/>
+      <c r="AK28" s="214"/>
+      <c r="AL28" s="214"/>
+      <c r="AM28" s="214"/>
+      <c r="AN28" s="214"/>
+      <c r="AO28" s="214"/>
+      <c r="AP28" s="214"/>
+      <c r="AQ28" s="214"/>
+      <c r="AR28" s="214"/>
+      <c r="AS28" s="214"/>
+      <c r="AT28" s="214"/>
+      <c r="AU28" s="214"/>
+      <c r="AV28" s="214"/>
+      <c r="AW28" s="214"/>
+      <c r="AX28" s="214"/>
+      <c r="AY28" s="214"/>
+      <c r="AZ28" s="214"/>
+      <c r="BA28" s="214"/>
+      <c r="BB28" s="214"/>
+      <c r="BC28" s="214"/>
+      <c r="BD28" s="214"/>
+      <c r="BE28" s="214"/>
+      <c r="BF28" s="214"/>
+      <c r="BG28" s="297"/>
+      <c r="BH28" s="42"/>
+      <c r="BI28" s="43"/>
+      <c r="BJ28" s="44"/>
+      <c r="BK28" s="302"/>
+      <c r="BL28" s="303"/>
+      <c r="BM28" s="303"/>
+      <c r="BN28" s="303"/>
+      <c r="BO28" s="303"/>
+      <c r="BP28" s="303"/>
+      <c r="BQ28" s="303"/>
+      <c r="BR28" s="303"/>
+      <c r="BS28" s="303"/>
+      <c r="BT28" s="303"/>
+      <c r="BU28" s="303"/>
+      <c r="BV28" s="303"/>
+      <c r="BW28" s="303"/>
+      <c r="BX28" s="303"/>
+      <c r="BY28" s="303"/>
+      <c r="BZ28" s="303"/>
+      <c r="CA28" s="303"/>
+      <c r="CB28" s="303"/>
+      <c r="CC28" s="303"/>
+      <c r="CD28" s="304"/>
     </row>
     <row r="29" spans="1:83" ht="10.5" customHeight="1">
       <c r="A29" s="20"/>
@@ -7643,86 +7683,86 @@
       <c r="Z30"/>
       <c r="AA30"/>
       <c r="AB30"/>
-      <c r="BQ30" s="39" t="s">
-        <v>45</v>
+      <c r="BQ30" s="258" t="s">
+        <v>43</v>
       </c>
-      <c r="BR30" s="40"/>
-      <c r="BS30" s="40"/>
-      <c r="BT30" s="40"/>
-      <c r="BU30" s="40"/>
-      <c r="BV30" s="40"/>
-      <c r="BW30" s="40"/>
-      <c r="BX30" s="40"/>
-      <c r="BY30" s="40"/>
-      <c r="BZ30" s="40"/>
-      <c r="CA30" s="40"/>
-      <c r="CB30" s="41"/>
+      <c r="BR30" s="259"/>
+      <c r="BS30" s="259"/>
+      <c r="BT30" s="259"/>
+      <c r="BU30" s="259"/>
+      <c r="BV30" s="259"/>
+      <c r="BW30" s="259"/>
+      <c r="BX30" s="259"/>
+      <c r="BY30" s="259"/>
+      <c r="BZ30" s="259"/>
+      <c r="CA30" s="259"/>
+      <c r="CB30" s="260"/>
     </row>
     <row r="31" spans="1:83" ht="15.75" customHeight="1">
       <c r="A31" s="20"/>
-      <c r="B31" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="81"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
-      <c r="O31" s="81"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="81"/>
-      <c r="T31" s="81"/>
-      <c r="U31" s="81"/>
-      <c r="V31" s="81"/>
-      <c r="W31" s="81"/>
-      <c r="X31" s="81"/>
-      <c r="Y31" s="81"/>
-      <c r="Z31" s="81"/>
-      <c r="AA31" s="81"/>
-      <c r="AB31" s="82"/>
-      <c r="AU31" s="107" t="s">
+      <c r="B31" s="284" t="s">
         <v>51</v>
       </c>
-      <c r="AV31" s="107"/>
-      <c r="AW31" s="107"/>
-      <c r="AX31" s="107"/>
-      <c r="AY31" s="107"/>
-      <c r="AZ31" s="107"/>
-      <c r="BA31" s="107"/>
-      <c r="BB31" s="107"/>
-      <c r="BC31" s="107"/>
-      <c r="BD31" s="107"/>
-      <c r="BE31" s="107"/>
-      <c r="BF31" s="107"/>
-      <c r="BG31" s="107"/>
-      <c r="BH31" s="107"/>
-      <c r="BI31" s="107"/>
-      <c r="BJ31" s="107"/>
-      <c r="BK31" s="107"/>
-      <c r="BL31" s="107"/>
-      <c r="BM31" s="107"/>
-      <c r="BN31" s="107"/>
-      <c r="BQ31" s="42"/>
-      <c r="BR31" s="43"/>
-      <c r="BS31" s="43"/>
-      <c r="BT31" s="43"/>
-      <c r="BU31" s="43"/>
-      <c r="BV31" s="43"/>
-      <c r="BW31" s="43"/>
-      <c r="BX31" s="43"/>
-      <c r="BY31" s="43"/>
-      <c r="BZ31" s="43"/>
-      <c r="CA31" s="43"/>
-      <c r="CB31" s="44"/>
+      <c r="C31" s="285"/>
+      <c r="D31" s="285"/>
+      <c r="E31" s="285"/>
+      <c r="F31" s="285"/>
+      <c r="G31" s="285"/>
+      <c r="H31" s="285"/>
+      <c r="I31" s="285"/>
+      <c r="J31" s="285"/>
+      <c r="K31" s="285"/>
+      <c r="L31" s="285"/>
+      <c r="M31" s="285"/>
+      <c r="N31" s="285"/>
+      <c r="O31" s="285"/>
+      <c r="P31" s="285"/>
+      <c r="Q31" s="285"/>
+      <c r="R31" s="285"/>
+      <c r="S31" s="285"/>
+      <c r="T31" s="285"/>
+      <c r="U31" s="285"/>
+      <c r="V31" s="285"/>
+      <c r="W31" s="285"/>
+      <c r="X31" s="285"/>
+      <c r="Y31" s="285"/>
+      <c r="Z31" s="285"/>
+      <c r="AA31" s="285"/>
+      <c r="AB31" s="286"/>
+      <c r="AU31" s="305" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV31" s="305"/>
+      <c r="AW31" s="305"/>
+      <c r="AX31" s="305"/>
+      <c r="AY31" s="305"/>
+      <c r="AZ31" s="305"/>
+      <c r="BA31" s="305"/>
+      <c r="BB31" s="305"/>
+      <c r="BC31" s="305"/>
+      <c r="BD31" s="305"/>
+      <c r="BE31" s="305"/>
+      <c r="BF31" s="305"/>
+      <c r="BG31" s="305"/>
+      <c r="BH31" s="305"/>
+      <c r="BI31" s="305"/>
+      <c r="BJ31" s="305"/>
+      <c r="BK31" s="305"/>
+      <c r="BL31" s="305"/>
+      <c r="BM31" s="305"/>
+      <c r="BN31" s="305"/>
+      <c r="BQ31" s="48"/>
+      <c r="BR31" s="49"/>
+      <c r="BS31" s="49"/>
+      <c r="BT31" s="49"/>
+      <c r="BU31" s="49"/>
+      <c r="BV31" s="49"/>
+      <c r="BW31" s="49"/>
+      <c r="BX31" s="49"/>
+      <c r="BY31" s="49"/>
+      <c r="BZ31" s="49"/>
+      <c r="CA31" s="49"/>
+      <c r="CB31" s="50"/>
     </row>
     <row r="32" spans="1:83" ht="21" customHeight="1">
       <c r="A32" s="25"/>
@@ -7759,25 +7799,25 @@
       <c r="BF32" s="24"/>
       <c r="BI32" s="24"/>
       <c r="BJ32" s="24"/>
-      <c r="BQ32" s="45"/>
-      <c r="BR32" s="46"/>
-      <c r="BS32" s="46"/>
-      <c r="BT32" s="46"/>
-      <c r="BU32" s="46"/>
-      <c r="BV32" s="46"/>
-      <c r="BW32" s="46"/>
-      <c r="BX32" s="46"/>
-      <c r="BY32" s="46"/>
-      <c r="BZ32" s="46"/>
-      <c r="CA32" s="46"/>
-      <c r="CB32" s="47"/>
+      <c r="BQ32" s="267"/>
+      <c r="BR32" s="268"/>
+      <c r="BS32" s="268"/>
+      <c r="BT32" s="268"/>
+      <c r="BU32" s="268"/>
+      <c r="BV32" s="268"/>
+      <c r="BW32" s="268"/>
+      <c r="BX32" s="268"/>
+      <c r="BY32" s="268"/>
+      <c r="BZ32" s="268"/>
+      <c r="CA32" s="268"/>
+      <c r="CB32" s="269"/>
     </row>
     <row r="33" spans="1:81" ht="21" customHeight="1">
       <c r="A33" s="20"/>
-      <c r="B33" s="51" t="s">
-        <v>58</v>
+      <c r="B33" s="270" t="s">
+        <v>53</v>
       </c>
-      <c r="C33" s="52"/>
+      <c r="C33" s="271"/>
       <c r="D33" s="29" t="s">
         <v>9</v>
       </c>
@@ -7787,26 +7827,26 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="59"/>
-      <c r="AG33" s="286"/>
-      <c r="AH33" s="286"/>
+      <c r="K33" s="277"/>
+      <c r="L33" s="277"/>
+      <c r="M33" s="277"/>
+      <c r="N33" s="277"/>
+      <c r="O33" s="277"/>
+      <c r="P33" s="277"/>
+      <c r="Q33" s="277"/>
+      <c r="R33" s="277"/>
+      <c r="S33" s="277"/>
+      <c r="T33" s="277"/>
+      <c r="U33" s="277"/>
+      <c r="V33" s="277"/>
+      <c r="W33" s="277"/>
+      <c r="X33" s="277"/>
+      <c r="Y33" s="277"/>
+      <c r="Z33" s="277"/>
+      <c r="AA33" s="277"/>
+      <c r="AB33" s="278"/>
+      <c r="AG33" s="58"/>
+      <c r="AH33" s="58"/>
       <c r="AI33" s="9"/>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9"/>
@@ -7835,23 +7875,23 @@
       <c r="BH33" s="2"/>
       <c r="BI33" s="2"/>
       <c r="BJ33" s="2"/>
-      <c r="BQ33" s="45"/>
-      <c r="BR33" s="46"/>
-      <c r="BS33" s="46"/>
-      <c r="BT33" s="46"/>
-      <c r="BU33" s="46"/>
-      <c r="BV33" s="46"/>
-      <c r="BW33" s="46"/>
-      <c r="BX33" s="46"/>
-      <c r="BY33" s="46"/>
-      <c r="BZ33" s="46"/>
-      <c r="CA33" s="46"/>
-      <c r="CB33" s="47"/>
+      <c r="BQ33" s="267"/>
+      <c r="BR33" s="268"/>
+      <c r="BS33" s="268"/>
+      <c r="BT33" s="268"/>
+      <c r="BU33" s="268"/>
+      <c r="BV33" s="268"/>
+      <c r="BW33" s="268"/>
+      <c r="BX33" s="268"/>
+      <c r="BY33" s="268"/>
+      <c r="BZ33" s="268"/>
+      <c r="CA33" s="268"/>
+      <c r="CB33" s="269"/>
     </row>
     <row r="34" spans="1:81" ht="21" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="52"/>
+      <c r="B34" s="272"/>
+      <c r="C34" s="271"/>
       <c r="D34" s="29" t="s">
         <v>8</v>
       </c>
@@ -7861,38 +7901,38 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="59"/>
-      <c r="AG34" s="286"/>
-      <c r="AH34" s="286"/>
-      <c r="AI34" s="42"/>
-      <c r="AJ34" s="43"/>
-      <c r="AK34" s="43"/>
-      <c r="AL34" s="43"/>
-      <c r="AM34" s="43"/>
-      <c r="AN34" s="43"/>
-      <c r="AO34" s="43"/>
-      <c r="AP34" s="43"/>
-      <c r="AQ34" s="43"/>
-      <c r="AR34" s="43"/>
-      <c r="AS34" s="43"/>
-      <c r="AT34" s="44"/>
+      <c r="K34" s="277"/>
+      <c r="L34" s="277"/>
+      <c r="M34" s="277"/>
+      <c r="N34" s="277"/>
+      <c r="O34" s="277"/>
+      <c r="P34" s="277"/>
+      <c r="Q34" s="277"/>
+      <c r="R34" s="277"/>
+      <c r="S34" s="277"/>
+      <c r="T34" s="277"/>
+      <c r="U34" s="277"/>
+      <c r="V34" s="277"/>
+      <c r="W34" s="277"/>
+      <c r="X34" s="277"/>
+      <c r="Y34" s="277"/>
+      <c r="Z34" s="277"/>
+      <c r="AA34" s="277"/>
+      <c r="AB34" s="278"/>
+      <c r="AG34" s="58"/>
+      <c r="AH34" s="58"/>
+      <c r="AI34" s="48"/>
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="49"/>
+      <c r="AL34" s="49"/>
+      <c r="AM34" s="49"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="49"/>
+      <c r="AS34" s="49"/>
+      <c r="AT34" s="50"/>
       <c r="AU34" s="9"/>
       <c r="AV34" s="9"/>
       <c r="AW34" s="9"/>
@@ -7909,23 +7949,23 @@
       <c r="BH34" s="9"/>
       <c r="BI34" s="9"/>
       <c r="BJ34" s="9"/>
-      <c r="BQ34" s="45"/>
-      <c r="BR34" s="46"/>
-      <c r="BS34" s="46"/>
-      <c r="BT34" s="46"/>
-      <c r="BU34" s="46"/>
-      <c r="BV34" s="46"/>
-      <c r="BW34" s="46"/>
-      <c r="BX34" s="46"/>
-      <c r="BY34" s="46"/>
-      <c r="BZ34" s="46"/>
-      <c r="CA34" s="46"/>
-      <c r="CB34" s="47"/>
+      <c r="BQ34" s="267"/>
+      <c r="BR34" s="268"/>
+      <c r="BS34" s="268"/>
+      <c r="BT34" s="268"/>
+      <c r="BU34" s="268"/>
+      <c r="BV34" s="268"/>
+      <c r="BW34" s="268"/>
+      <c r="BX34" s="268"/>
+      <c r="BY34" s="268"/>
+      <c r="BZ34" s="268"/>
+      <c r="CA34" s="268"/>
+      <c r="CB34" s="269"/>
     </row>
     <row r="35" spans="1:81" ht="21" customHeight="1">
       <c r="A35" s="20"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="52"/>
+      <c r="B35" s="272"/>
+      <c r="C35" s="271"/>
       <c r="D35" s="29" t="s">
         <v>10</v>
       </c>
@@ -7935,52 +7975,52 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="58"/>
-      <c r="Z35" s="58"/>
+      <c r="K35" s="277"/>
+      <c r="L35" s="277"/>
+      <c r="M35" s="277"/>
+      <c r="N35" s="277"/>
+      <c r="O35" s="277"/>
+      <c r="P35" s="277"/>
+      <c r="Q35" s="277"/>
+      <c r="R35" s="277"/>
+      <c r="S35" s="277"/>
+      <c r="T35" s="277"/>
+      <c r="U35" s="277"/>
+      <c r="V35" s="277"/>
+      <c r="W35" s="277"/>
+      <c r="X35" s="277"/>
+      <c r="Y35" s="277"/>
+      <c r="Z35" s="277"/>
       <c r="AA35" s="35" t="s">
         <v>7</v>
       </c>
       <c r="AB35" s="3"/>
-      <c r="AG35" s="286"/>
-      <c r="AH35" s="286"/>
-      <c r="AI35" s="287"/>
-      <c r="AJ35" s="233"/>
-      <c r="AK35" s="233"/>
-      <c r="AL35" s="233"/>
-      <c r="AM35" s="233"/>
-      <c r="AN35" s="233"/>
-      <c r="AO35" s="233"/>
-      <c r="AP35" s="233"/>
-      <c r="AQ35" s="233"/>
-      <c r="AR35" s="233"/>
-      <c r="AS35" s="233"/>
-      <c r="AT35" s="233"/>
-      <c r="AU35" s="233"/>
-      <c r="AV35" s="233"/>
-      <c r="AW35" s="233"/>
-      <c r="AX35" s="233"/>
-      <c r="AY35" s="233"/>
-      <c r="AZ35" s="233"/>
-      <c r="BA35" s="233"/>
-      <c r="BB35" s="233"/>
-      <c r="BC35" s="233"/>
-      <c r="BD35" s="233"/>
-      <c r="BE35" s="233"/>
-      <c r="BF35" s="40" t="s">
+      <c r="AG35" s="58"/>
+      <c r="AH35" s="58"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="60"/>
+      <c r="AK35" s="60"/>
+      <c r="AL35" s="60"/>
+      <c r="AM35" s="60"/>
+      <c r="AN35" s="60"/>
+      <c r="AO35" s="60"/>
+      <c r="AP35" s="60"/>
+      <c r="AQ35" s="60"/>
+      <c r="AR35" s="60"/>
+      <c r="AS35" s="60"/>
+      <c r="AT35" s="60"/>
+      <c r="AU35" s="60"/>
+      <c r="AV35" s="60"/>
+      <c r="AW35" s="60"/>
+      <c r="AX35" s="60"/>
+      <c r="AY35" s="60"/>
+      <c r="AZ35" s="60"/>
+      <c r="BA35" s="60"/>
+      <c r="BB35" s="60"/>
+      <c r="BC35" s="60"/>
+      <c r="BD35" s="60"/>
+      <c r="BE35" s="60"/>
+      <c r="BF35" s="259" t="s">
         <v>7</v>
       </c>
       <c r="BG35" s="36"/>
@@ -7991,76 +8031,76 @@
       <c r="BN35"/>
       <c r="BO35"/>
       <c r="BP35"/>
-      <c r="BQ35" s="45"/>
-      <c r="BR35" s="46"/>
-      <c r="BS35" s="46"/>
-      <c r="BT35" s="46"/>
-      <c r="BU35" s="46"/>
-      <c r="BV35" s="46"/>
-      <c r="BW35" s="46"/>
-      <c r="BX35" s="46"/>
-      <c r="BY35" s="46"/>
-      <c r="BZ35" s="46"/>
-      <c r="CA35" s="46"/>
-      <c r="CB35" s="47"/>
+      <c r="BQ35" s="267"/>
+      <c r="BR35" s="268"/>
+      <c r="BS35" s="268"/>
+      <c r="BT35" s="268"/>
+      <c r="BU35" s="268"/>
+      <c r="BV35" s="268"/>
+      <c r="BW35" s="268"/>
+      <c r="BX35" s="268"/>
+      <c r="BY35" s="268"/>
+      <c r="BZ35" s="268"/>
+      <c r="CA35" s="268"/>
+      <c r="CB35" s="269"/>
     </row>
     <row r="36" spans="1:81" ht="12.75" customHeight="1">
       <c r="A36" s="20"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="56" t="s">
+      <c r="B36" s="272"/>
+      <c r="C36" s="271"/>
+      <c r="D36" s="275" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="58"/>
-      <c r="R36" s="58"/>
-      <c r="S36" s="58"/>
-      <c r="T36" s="58"/>
-      <c r="U36" s="58"/>
-      <c r="V36" s="58"/>
-      <c r="W36" s="58"/>
-      <c r="X36" s="58"/>
-      <c r="Y36" s="58"/>
-      <c r="Z36" s="58"/>
-      <c r="AA36" s="58"/>
-      <c r="AB36" s="59"/>
-      <c r="AG36" s="286"/>
-      <c r="AH36" s="286"/>
-      <c r="AI36" s="237"/>
-      <c r="AJ36" s="288"/>
-      <c r="AK36" s="288"/>
-      <c r="AL36" s="288"/>
-      <c r="AM36" s="288"/>
-      <c r="AN36" s="288"/>
-      <c r="AO36" s="288"/>
-      <c r="AP36" s="288"/>
-      <c r="AQ36" s="288"/>
-      <c r="AR36" s="288"/>
-      <c r="AS36" s="288"/>
-      <c r="AT36" s="288"/>
-      <c r="AU36" s="288"/>
-      <c r="AV36" s="288"/>
-      <c r="AW36" s="288"/>
-      <c r="AX36" s="288"/>
-      <c r="AY36" s="288"/>
-      <c r="AZ36" s="288"/>
-      <c r="BA36" s="288"/>
-      <c r="BB36" s="288"/>
-      <c r="BC36" s="288"/>
-      <c r="BD36" s="288"/>
-      <c r="BE36" s="288"/>
-      <c r="BF36" s="83"/>
+      <c r="E36" s="275"/>
+      <c r="F36" s="275"/>
+      <c r="G36" s="275"/>
+      <c r="H36" s="275"/>
+      <c r="I36" s="275"/>
+      <c r="J36" s="275"/>
+      <c r="K36" s="277"/>
+      <c r="L36" s="277"/>
+      <c r="M36" s="277"/>
+      <c r="N36" s="277"/>
+      <c r="O36" s="277"/>
+      <c r="P36" s="277"/>
+      <c r="Q36" s="277"/>
+      <c r="R36" s="277"/>
+      <c r="S36" s="277"/>
+      <c r="T36" s="277"/>
+      <c r="U36" s="277"/>
+      <c r="V36" s="277"/>
+      <c r="W36" s="277"/>
+      <c r="X36" s="277"/>
+      <c r="Y36" s="277"/>
+      <c r="Z36" s="277"/>
+      <c r="AA36" s="277"/>
+      <c r="AB36" s="278"/>
+      <c r="AG36" s="58"/>
+      <c r="AH36" s="58"/>
+      <c r="AI36" s="61"/>
+      <c r="AJ36" s="62"/>
+      <c r="AK36" s="62"/>
+      <c r="AL36" s="62"/>
+      <c r="AM36" s="62"/>
+      <c r="AN36" s="62"/>
+      <c r="AO36" s="62"/>
+      <c r="AP36" s="62"/>
+      <c r="AQ36" s="62"/>
+      <c r="AR36" s="62"/>
+      <c r="AS36" s="62"/>
+      <c r="AT36" s="62"/>
+      <c r="AU36" s="62"/>
+      <c r="AV36" s="62"/>
+      <c r="AW36" s="62"/>
+      <c r="AX36" s="62"/>
+      <c r="AY36" s="62"/>
+      <c r="AZ36" s="62"/>
+      <c r="BA36" s="62"/>
+      <c r="BB36" s="62"/>
+      <c r="BC36" s="62"/>
+      <c r="BD36" s="62"/>
+      <c r="BE36" s="62"/>
+      <c r="BF36" s="287"/>
       <c r="BG36" s="9"/>
       <c r="BH36" s="9"/>
       <c r="BI36" s="38"/>
@@ -8068,78 +8108,78 @@
       <c r="BN36"/>
       <c r="BO36"/>
       <c r="BP36"/>
-      <c r="BQ36" s="45"/>
-      <c r="BR36" s="46"/>
-      <c r="BS36" s="46"/>
-      <c r="BT36" s="46"/>
-      <c r="BU36" s="46"/>
-      <c r="BV36" s="46"/>
-      <c r="BW36" s="46"/>
-      <c r="BX36" s="46"/>
-      <c r="BY36" s="46"/>
-      <c r="BZ36" s="46"/>
-      <c r="CA36" s="46"/>
-      <c r="CB36" s="47"/>
+      <c r="BQ36" s="267"/>
+      <c r="BR36" s="268"/>
+      <c r="BS36" s="268"/>
+      <c r="BT36" s="268"/>
+      <c r="BU36" s="268"/>
+      <c r="BV36" s="268"/>
+      <c r="BW36" s="268"/>
+      <c r="BX36" s="268"/>
+      <c r="BY36" s="268"/>
+      <c r="BZ36" s="268"/>
+      <c r="CA36" s="268"/>
+      <c r="CB36" s="269"/>
     </row>
     <row r="37" spans="1:81" ht="12.75" customHeight="1">
       <c r="A37"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="M37" s="60"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="60"/>
-      <c r="T37" s="60"/>
-      <c r="U37" s="60"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="60"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="60"/>
-      <c r="AA37" s="60"/>
-      <c r="AB37" s="61"/>
+      <c r="B37" s="273"/>
+      <c r="C37" s="274"/>
+      <c r="D37" s="276"/>
+      <c r="E37" s="276"/>
+      <c r="F37" s="276"/>
+      <c r="G37" s="276"/>
+      <c r="H37" s="276"/>
+      <c r="I37" s="276"/>
+      <c r="J37" s="276"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="279"/>
       <c r="AC37"/>
       <c r="AD37"/>
       <c r="AE37"/>
       <c r="AF37"/>
-      <c r="AG37" s="286"/>
-      <c r="AH37" s="286"/>
-      <c r="AI37" s="234"/>
-      <c r="AJ37" s="171"/>
-      <c r="AK37" s="171"/>
-      <c r="AL37" s="171"/>
-      <c r="AM37" s="171"/>
-      <c r="AN37" s="171"/>
-      <c r="AO37" s="171"/>
-      <c r="AP37" s="171"/>
-      <c r="AQ37" s="171"/>
-      <c r="AR37" s="171"/>
-      <c r="AS37" s="171"/>
-      <c r="AT37" s="171"/>
-      <c r="AU37" s="171"/>
-      <c r="AV37" s="171"/>
-      <c r="AW37" s="171"/>
-      <c r="AX37" s="171"/>
-      <c r="AY37" s="171"/>
-      <c r="AZ37" s="171"/>
-      <c r="BA37" s="171"/>
-      <c r="BB37" s="171"/>
-      <c r="BC37" s="171"/>
-      <c r="BD37" s="171"/>
-      <c r="BE37" s="171"/>
-      <c r="BF37" s="84"/>
+      <c r="AG37" s="58"/>
+      <c r="AH37" s="58"/>
+      <c r="AI37" s="63"/>
+      <c r="AJ37" s="64"/>
+      <c r="AK37" s="64"/>
+      <c r="AL37" s="64"/>
+      <c r="AM37" s="64"/>
+      <c r="AN37" s="64"/>
+      <c r="AO37" s="64"/>
+      <c r="AP37" s="64"/>
+      <c r="AQ37" s="64"/>
+      <c r="AR37" s="64"/>
+      <c r="AS37" s="64"/>
+      <c r="AT37" s="64"/>
+      <c r="AU37" s="64"/>
+      <c r="AV37" s="64"/>
+      <c r="AW37" s="64"/>
+      <c r="AX37" s="64"/>
+      <c r="AY37" s="64"/>
+      <c r="AZ37" s="64"/>
+      <c r="BA37" s="64"/>
+      <c r="BB37" s="64"/>
+      <c r="BC37" s="64"/>
+      <c r="BD37" s="64"/>
+      <c r="BE37" s="64"/>
+      <c r="BF37" s="288"/>
       <c r="BG37" s="26"/>
       <c r="BH37" s="26"/>
       <c r="BI37" s="27"/>
@@ -8150,18 +8190,18 @@
       <c r="BN37"/>
       <c r="BO37"/>
       <c r="BP37"/>
-      <c r="BQ37" s="48"/>
-      <c r="BR37" s="49"/>
-      <c r="BS37" s="49"/>
-      <c r="BT37" s="49"/>
-      <c r="BU37" s="49"/>
-      <c r="BV37" s="49"/>
-      <c r="BW37" s="49"/>
-      <c r="BX37" s="49"/>
-      <c r="BY37" s="49"/>
-      <c r="BZ37" s="49"/>
-      <c r="CA37" s="49"/>
-      <c r="CB37" s="50"/>
+      <c r="BQ37" s="188"/>
+      <c r="BR37" s="189"/>
+      <c r="BS37" s="189"/>
+      <c r="BT37" s="189"/>
+      <c r="BU37" s="189"/>
+      <c r="BV37" s="189"/>
+      <c r="BW37" s="189"/>
+      <c r="BX37" s="189"/>
+      <c r="BY37" s="189"/>
+      <c r="BZ37" s="189"/>
+      <c r="CA37" s="189"/>
+      <c r="CB37" s="190"/>
       <c r="CC37"/>
     </row>
     <row r="38" spans="1:81" ht="17.25" customHeight="1">
@@ -11003,6 +11043,145 @@
     </row>
   </sheetData>
   <mergeCells count="163">
+    <mergeCell ref="BQ30:CB30"/>
+    <mergeCell ref="BQ31:CB37"/>
+    <mergeCell ref="B33:C37"/>
+    <mergeCell ref="D36:J37"/>
+    <mergeCell ref="K36:AB37"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="K33:AB33"/>
+    <mergeCell ref="K34:AB34"/>
+    <mergeCell ref="K35:Z35"/>
+    <mergeCell ref="AD25:AE26"/>
+    <mergeCell ref="P24:Q26"/>
+    <mergeCell ref="N24:O26"/>
+    <mergeCell ref="BW24:BX26"/>
+    <mergeCell ref="BU24:BV26"/>
+    <mergeCell ref="AB25:AC26"/>
+    <mergeCell ref="AI34:AT34"/>
+    <mergeCell ref="B31:AB31"/>
+    <mergeCell ref="BF35:BF37"/>
+    <mergeCell ref="BS24:BT26"/>
+    <mergeCell ref="E23:G26"/>
+    <mergeCell ref="N27:BG28"/>
+    <mergeCell ref="A6:B28"/>
+    <mergeCell ref="BK27:CD28"/>
+    <mergeCell ref="AU31:BN31"/>
+    <mergeCell ref="H24:I26"/>
+    <mergeCell ref="L24:M26"/>
+    <mergeCell ref="J24:K26"/>
+    <mergeCell ref="T24:U26"/>
+    <mergeCell ref="R24:S26"/>
+    <mergeCell ref="AJ24:BM24"/>
+    <mergeCell ref="BN23:CB23"/>
+    <mergeCell ref="BN24:BP26"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E19:AJ19"/>
+    <mergeCell ref="CA24:CB26"/>
+    <mergeCell ref="BY24:BZ26"/>
+    <mergeCell ref="V25:W26"/>
+    <mergeCell ref="V24:AE24"/>
+    <mergeCell ref="X25:Y26"/>
+    <mergeCell ref="V23:BM23"/>
+    <mergeCell ref="AF25:BM26"/>
+    <mergeCell ref="BQ24:BR26"/>
+    <mergeCell ref="Z25:AA26"/>
+    <mergeCell ref="AC20:AR20"/>
+    <mergeCell ref="E9:G11"/>
+    <mergeCell ref="AE10:CB11"/>
+    <mergeCell ref="N12:CB13"/>
+    <mergeCell ref="AG21:AH22"/>
+    <mergeCell ref="H10:M11"/>
+    <mergeCell ref="J12:M13"/>
+    <mergeCell ref="P9:Q11"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="W14:X15"/>
+    <mergeCell ref="Y14:Z15"/>
+    <mergeCell ref="X7:Y8"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="U21:V22"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="AI21:AJ22"/>
+    <mergeCell ref="AZ21:BF22"/>
+    <mergeCell ref="AH7:AI8"/>
+    <mergeCell ref="K14:N15"/>
+    <mergeCell ref="Q14:R15"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="AV7:BA7"/>
+    <mergeCell ref="AV8:BA8"/>
+    <mergeCell ref="BB8:BC8"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="BY2:CC2"/>
+    <mergeCell ref="BT2:BX2"/>
+    <mergeCell ref="BN2:BS2"/>
+    <mergeCell ref="BI2:BM2"/>
+    <mergeCell ref="BN3:BS4"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="BY3:CC4"/>
+    <mergeCell ref="W4:AH4"/>
+    <mergeCell ref="W3:AH3"/>
+    <mergeCell ref="AK3:BB4"/>
+    <mergeCell ref="BI3:BM4"/>
+    <mergeCell ref="BJ7:BM8"/>
+    <mergeCell ref="AN7:AO8"/>
+    <mergeCell ref="AJ7:AK8"/>
+    <mergeCell ref="AP7:AQ8"/>
+    <mergeCell ref="BT3:BX4"/>
+    <mergeCell ref="BS7:BT8"/>
+    <mergeCell ref="AT6:BI6"/>
+    <mergeCell ref="BN7:BP8"/>
+    <mergeCell ref="BB7:BI7"/>
+    <mergeCell ref="CA6:CB8"/>
+    <mergeCell ref="AF7:AG8"/>
+    <mergeCell ref="AB7:AC8"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="BJ6:BZ6"/>
+    <mergeCell ref="BQ7:BR8"/>
+    <mergeCell ref="BU7:BV8"/>
+    <mergeCell ref="BW7:BX8"/>
+    <mergeCell ref="BY7:BZ8"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E6:P6"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C6:D28"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="AO21:AP22"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="AL7:AM8"/>
+    <mergeCell ref="AS21:AW22"/>
+    <mergeCell ref="Q7:U8"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="V7:W8"/>
+    <mergeCell ref="V6:AS6"/>
+    <mergeCell ref="BG20:BO20"/>
+    <mergeCell ref="AM21:AN22"/>
+    <mergeCell ref="S14:T15"/>
+    <mergeCell ref="U14:V15"/>
+    <mergeCell ref="BI21:BO22"/>
+    <mergeCell ref="AH14:BM15"/>
+    <mergeCell ref="AA14:AC15"/>
+    <mergeCell ref="BA20:BF20"/>
+    <mergeCell ref="AC21:AF22"/>
+    <mergeCell ref="AI9:CB9"/>
+    <mergeCell ref="AQ21:AR22"/>
+    <mergeCell ref="AN18:BW19"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="BD8:BI8"/>
+    <mergeCell ref="AE9:AH9"/>
+    <mergeCell ref="Q21:R22"/>
+    <mergeCell ref="AR7:AS8"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="E20:AB20"/>
+    <mergeCell ref="K7:L8"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="BH27:BJ28"/>
     <mergeCell ref="H27:M27"/>
     <mergeCell ref="H23:U23"/>
@@ -11027,145 +11206,6 @@
     <mergeCell ref="E27:G28"/>
     <mergeCell ref="E12:G13"/>
     <mergeCell ref="X9:Y11"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="V7:W8"/>
-    <mergeCell ref="V6:AS6"/>
-    <mergeCell ref="BG20:BO20"/>
-    <mergeCell ref="AM21:AN22"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="BI21:BO22"/>
-    <mergeCell ref="AH14:BM15"/>
-    <mergeCell ref="AA14:AC15"/>
-    <mergeCell ref="BA20:BF20"/>
-    <mergeCell ref="AC21:AF22"/>
-    <mergeCell ref="AI9:CB9"/>
-    <mergeCell ref="AQ21:AR22"/>
-    <mergeCell ref="AN18:BW19"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="BD8:BI8"/>
-    <mergeCell ref="AE9:AH9"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="E20:AB20"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="BJ6:BZ6"/>
-    <mergeCell ref="BQ7:BR8"/>
-    <mergeCell ref="BU7:BV8"/>
-    <mergeCell ref="BW7:BX8"/>
-    <mergeCell ref="BY7:BZ8"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C6:D28"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="AO21:AP22"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="AS21:AW22"/>
-    <mergeCell ref="Q7:U8"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="BY2:CC2"/>
-    <mergeCell ref="BT2:BX2"/>
-    <mergeCell ref="BN2:BS2"/>
-    <mergeCell ref="BI2:BM2"/>
-    <mergeCell ref="BN3:BS4"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="BY3:CC4"/>
-    <mergeCell ref="W4:AH4"/>
-    <mergeCell ref="W3:AH3"/>
-    <mergeCell ref="AK3:BB4"/>
-    <mergeCell ref="BI3:BM4"/>
-    <mergeCell ref="BJ7:BM8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="BT3:BX4"/>
-    <mergeCell ref="BS7:BT8"/>
-    <mergeCell ref="AT6:BI6"/>
-    <mergeCell ref="BN7:BP8"/>
-    <mergeCell ref="BB7:BI7"/>
-    <mergeCell ref="CA6:CB8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="E9:G11"/>
-    <mergeCell ref="AE10:CB11"/>
-    <mergeCell ref="N12:CB13"/>
-    <mergeCell ref="AG21:AH22"/>
-    <mergeCell ref="H10:M11"/>
-    <mergeCell ref="J12:M13"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AZ21:BF22"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="K14:N15"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="AV7:BA7"/>
-    <mergeCell ref="AV8:BA8"/>
-    <mergeCell ref="BB8:BC8"/>
-    <mergeCell ref="K21:L22"/>
-    <mergeCell ref="H24:I26"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="T24:U26"/>
-    <mergeCell ref="R24:S26"/>
-    <mergeCell ref="AJ24:BM24"/>
-    <mergeCell ref="BN23:CB23"/>
-    <mergeCell ref="BN24:BP26"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E19:AJ19"/>
-    <mergeCell ref="CA24:CB26"/>
-    <mergeCell ref="BY24:BZ26"/>
-    <mergeCell ref="V25:W26"/>
-    <mergeCell ref="V24:AE24"/>
-    <mergeCell ref="X25:Y26"/>
-    <mergeCell ref="V23:BM23"/>
-    <mergeCell ref="AF25:BM26"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="Z25:AA26"/>
-    <mergeCell ref="AC20:AR20"/>
-    <mergeCell ref="BQ30:CB30"/>
-    <mergeCell ref="BQ31:CB37"/>
-    <mergeCell ref="B33:C37"/>
-    <mergeCell ref="D36:J37"/>
-    <mergeCell ref="K36:AB37"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="K33:AB33"/>
-    <mergeCell ref="K34:AB34"/>
-    <mergeCell ref="K35:Z35"/>
-    <mergeCell ref="AD25:AE26"/>
-    <mergeCell ref="P24:Q26"/>
-    <mergeCell ref="N24:O26"/>
-    <mergeCell ref="BW24:BX26"/>
-    <mergeCell ref="BU24:BV26"/>
-    <mergeCell ref="AB25:AC26"/>
-    <mergeCell ref="AI34:AT34"/>
-    <mergeCell ref="B31:AB31"/>
-    <mergeCell ref="BF35:BF37"/>
-    <mergeCell ref="BS24:BT26"/>
-    <mergeCell ref="E23:G26"/>
-    <mergeCell ref="N27:BG28"/>
-    <mergeCell ref="A6:B28"/>
-    <mergeCell ref="BK27:CD28"/>
-    <mergeCell ref="AU31:BN31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.51181102362204722"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
@@ -5137,14 +5137,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -5155,7 +5155,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6524625" y="2905125"/>
+          <a:off x="6638925" y="2905125"/>
           <a:ext cx="419100" cy="238126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5555,8 +5555,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:CE76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BS17" sqref="BS17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27:BG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
@@ -10,97 +10,97 @@
     <sheet name="被保険者住所変更届（一枚目）" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="A1_1_1">被保険者住所変更届（一枚目）!$V$7</definedName>
-    <definedName name="A1_1_10">被保険者住所変更届（一枚目）!$AN$7</definedName>
-    <definedName name="A1_1_11">被保険者住所変更届（一枚目）!$AP$7</definedName>
-    <definedName name="A1_1_12">被保険者住所変更届（一枚目）!$AR$7</definedName>
-    <definedName name="A1_1_2">被保険者住所変更届（一枚目）!$X$7</definedName>
-    <definedName name="A1_1_3">被保険者住所変更届（一枚目）!$Z$7</definedName>
-    <definedName name="A1_1_4">被保険者住所変更届（一枚目）!$AB$7</definedName>
-    <definedName name="A1_1_5">被保険者住所変更届（一枚目）!$AD$7</definedName>
-    <definedName name="A1_1_6">被保険者住所変更届（一枚目）!$AF$7</definedName>
-    <definedName name="A1_1_7">被保険者住所変更届（一枚目）!$AH$7</definedName>
-    <definedName name="A1_1_8">被保険者住所変更届（一枚目）!$AJ$7</definedName>
-    <definedName name="A1_1_9">被保険者住所変更届（一枚目）!$AL$7</definedName>
-    <definedName name="A1_10_1">被保険者住所変更届（一枚目）!$O$14</definedName>
-    <definedName name="A1_10_2">被保険者住所変更届（一枚目）!$Q$14</definedName>
-    <definedName name="A1_10_3">被保険者住所変更届（一枚目）!$S$14</definedName>
-    <definedName name="A1_10_4">被保険者住所変更届（一枚目）!$U$14</definedName>
-    <definedName name="A1_10_5">被保険者住所変更届（一枚目）!$W$14</definedName>
-    <definedName name="A1_10_6">被保険者住所変更届（一枚目）!$Y$14</definedName>
-    <definedName name="A1_2">被保険者住所変更届（一枚目）!$AV$7</definedName>
-    <definedName name="A1_3">被保険者住所変更届（一枚目）!$BB$7</definedName>
-    <definedName name="A1_4">被保険者住所変更届（一枚目）!$AV$8</definedName>
-    <definedName name="A1_5">被保険者住所変更届（一枚目）!$BD$8</definedName>
-    <definedName name="A1_54_1">被保険者住所変更届（一枚目）!$BN$7</definedName>
-    <definedName name="A1_54_2">被保険者住所変更届（一枚目）!$BQ$7</definedName>
-    <definedName name="A1_54_3">被保険者住所変更届（一枚目）!$BS$7</definedName>
-    <definedName name="A1_54_4">被保険者住所変更届（一枚目）!$BU$7</definedName>
-    <definedName name="A1_54_5">被保険者住所変更届（一枚目）!$BW$7</definedName>
-    <definedName name="A1_54_6">被保険者住所変更届（一枚目）!$BY$7</definedName>
-    <definedName name="A1_6_1">被保険者住所変更届（一枚目）!$N$9</definedName>
-    <definedName name="A1_6_2">被保険者住所変更届（一枚目）!$P$9</definedName>
-    <definedName name="A1_6_3">被保険者住所変更届（一枚目）!$R$9</definedName>
-    <definedName name="A1_6_4">被保険者住所変更届（一枚目）!$T$9</definedName>
-    <definedName name="A1_6_5">被保険者住所変更届（一枚目）!$V$9</definedName>
-    <definedName name="A1_6_6">被保険者住所変更届（一枚目）!$X$9</definedName>
-    <definedName name="A1_6_7">被保険者住所変更届（一枚目）!$Z$9</definedName>
-    <definedName name="A1_7">被保険者住所変更届（一枚目）!$AI$9</definedName>
-    <definedName name="A1_8">被保険者住所変更届（一枚目）!$AE$10</definedName>
-    <definedName name="A1_9">被保険者住所変更届（一枚目）!$N$12</definedName>
-    <definedName name="A2_10_1">被保険者住所変更届（一枚目）!$H$24</definedName>
-    <definedName name="A2_10_2">被保険者住所変更届（一枚目）!$J$24</definedName>
-    <definedName name="A2_10_3">被保険者住所変更届（一枚目）!$L$24</definedName>
-    <definedName name="A2_10_4">被保険者住所変更届（一枚目）!$N$24</definedName>
-    <definedName name="A2_10_5">被保険者住所変更届（一枚目）!$P$24</definedName>
-    <definedName name="A2_10_6">被保険者住所変更届（一枚目）!$R$24</definedName>
-    <definedName name="A2_10_7">被保険者住所変更届（一枚目）!$T$24</definedName>
-    <definedName name="A2_11">被保険者住所変更届（一枚目）!$AJ$24</definedName>
-    <definedName name="A2_12">被保険者住所変更届（一枚目）!$AF$25</definedName>
-    <definedName name="A2_13_1">被保険者住所変更届（一枚目）!$BQ$24</definedName>
-    <definedName name="A2_13_2">被保険者住所変更届（一枚目）!$BS$24</definedName>
-    <definedName name="A2_13_3">被保険者住所変更届（一枚目）!$BU$24</definedName>
-    <definedName name="A2_13_4">被保険者住所変更届（一枚目）!$BW$24</definedName>
-    <definedName name="A2_13_5">被保険者住所変更届（一枚目）!$BY$24</definedName>
-    <definedName name="A2_13_6">被保険者住所変更届（一枚目）!$CA$24</definedName>
-    <definedName name="A2_14">被保険者住所変更届（一枚目）!$N$27</definedName>
-    <definedName name="A2_2_1">被保険者住所変更届（一枚目）!$E$21</definedName>
-    <definedName name="A2_2_10">被保険者住所変更届（一枚目）!$W$21</definedName>
-    <definedName name="A2_2_11">被保険者住所変更届（一枚目）!$Y$21</definedName>
-    <definedName name="A2_2_12">被保険者住所変更届（一枚目）!$AA$21</definedName>
-    <definedName name="A2_2_2">被保険者住所変更届（一枚目）!$G$21</definedName>
-    <definedName name="A2_2_3">被保険者住所変更届（一枚目）!$I$21</definedName>
-    <definedName name="A2_2_4">被保険者住所変更届（一枚目）!$K$21</definedName>
-    <definedName name="A2_2_5">被保険者住所変更届（一枚目）!$M$21</definedName>
-    <definedName name="A2_2_6">被保険者住所変更届（一枚目）!$O$21</definedName>
-    <definedName name="A2_2_7">被保険者住所変更届（一枚目）!$Q$21</definedName>
-    <definedName name="A2_2_8">被保険者住所変更届（一枚目）!$S$21</definedName>
-    <definedName name="A2_2_9">被保険者住所変更届（一枚目）!$U$21</definedName>
-    <definedName name="A2_5_1">被保険者住所変更届（一枚目）!$AG$21</definedName>
-    <definedName name="A2_5_2">被保険者住所変更届（一枚目）!$AI$21</definedName>
-    <definedName name="A2_5_3">被保険者住所変更届（一枚目）!$AK$21</definedName>
-    <definedName name="A2_5_4">被保険者住所変更届（一枚目）!$AM$21</definedName>
-    <definedName name="A2_5_5">被保険者住所変更届（一枚目）!$AO$21</definedName>
-    <definedName name="A2_5_6">被保険者住所変更届（一枚目）!$AQ$21</definedName>
-    <definedName name="A2_6">被保険者住所変更届（一枚目）!$BA$20</definedName>
-    <definedName name="A2_7">被保険者住所変更届（一枚目）!$BG$20</definedName>
-    <definedName name="A2_8">被保険者住所変更届（一枚目）!$AZ$21</definedName>
-    <definedName name="A2_9">被保険者住所変更届（一枚目）!$BI$21</definedName>
-    <definedName name="A3_1">被保険者住所変更届（一枚目）!$AU$31</definedName>
-    <definedName name="A3_2">被保険者住所変更届（一枚目）!$K$33</definedName>
-    <definedName name="A3_3">被保険者住所変更届（一枚目）!$K$34</definedName>
-    <definedName name="A3_4">被保険者住所変更届（一枚目）!$K$35</definedName>
-    <definedName name="A3_5">被保険者住所変更届（一枚目）!$K$36</definedName>
-    <definedName name="B1_1">被保険者住所変更届（一枚目）!$W$3</definedName>
-    <definedName name="B1_2">被保険者住所変更届（一枚目）!$W$4</definedName>
-    <definedName name="B2_1_1">被保険者住所変更届（一枚目）!$E$8</definedName>
-    <definedName name="B2_1_2">被保険者住所変更届（一枚目）!$G$8</definedName>
-    <definedName name="B2_2_1">被保険者住所変更届（一枚目）!$I$7</definedName>
-    <definedName name="B2_2_2">被保険者住所変更届（一枚目）!$K$7</definedName>
-    <definedName name="B2_2_3">被保険者住所変更届（一枚目）!$M$7</definedName>
-    <definedName name="B2_2_4">被保険者住所変更届（一枚目）!$O$7</definedName>
-    <definedName name="B2_3">被保険者住所変更届（一枚目）!$Q$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">被保険者住所変更届（一枚目）!$A$1:$CE$37</definedName>
+    <definedName name="A1_1_1">被保険者住所変更届（一枚目）!$AA$7</definedName>
+    <definedName name="A1_1_10">被保険者住所変更届（一枚目）!$AS$7</definedName>
+    <definedName name="A1_1_11">被保険者住所変更届（一枚目）!$AU$7</definedName>
+    <definedName name="A1_1_12">被保険者住所変更届（一枚目）!$AW$7</definedName>
+    <definedName name="A1_1_2">被保険者住所変更届（一枚目）!$AC$7</definedName>
+    <definedName name="A1_1_3">被保険者住所変更届（一枚目）!$AE$7</definedName>
+    <definedName name="A1_1_4">被保険者住所変更届（一枚目）!$AG$7</definedName>
+    <definedName name="A1_1_5">被保険者住所変更届（一枚目）!$AI$7</definedName>
+    <definedName name="A1_1_6">被保険者住所変更届（一枚目）!$AK$7</definedName>
+    <definedName name="A1_1_7">被保険者住所変更届（一枚目）!$AM$7</definedName>
+    <definedName name="A1_1_8">被保険者住所変更届（一枚目）!$AO$7</definedName>
+    <definedName name="A1_1_9">被保険者住所変更届（一枚目）!$AQ$7</definedName>
+    <definedName name="A1_10_1">被保険者住所変更届（一枚目）!$T$14</definedName>
+    <definedName name="A1_10_2">被保険者住所変更届（一枚目）!$V$14</definedName>
+    <definedName name="A1_10_3">被保険者住所変更届（一枚目）!$X$14</definedName>
+    <definedName name="A1_10_4">被保険者住所変更届（一枚目）!$Z$14</definedName>
+    <definedName name="A1_10_5">被保険者住所変更届（一枚目）!$AB$14</definedName>
+    <definedName name="A1_10_6">被保険者住所変更届（一枚目）!$AD$14</definedName>
+    <definedName name="A1_2">被保険者住所変更届（一枚目）!$BA$7</definedName>
+    <definedName name="A1_3">被保険者住所変更届（一枚目）!$BG$7</definedName>
+    <definedName name="A1_4">被保険者住所変更届（一枚目）!$BA$8</definedName>
+    <definedName name="A1_5">被保険者住所変更届（一枚目）!$BI$8</definedName>
+    <definedName name="A1_54_1">被保険者住所変更届（一枚目）!$BS$7</definedName>
+    <definedName name="A1_54_2">被保険者住所変更届（一枚目）!$BV$7</definedName>
+    <definedName name="A1_54_3">被保険者住所変更届（一枚目）!$BX$7</definedName>
+    <definedName name="A1_54_4">被保険者住所変更届（一枚目）!$BZ$7</definedName>
+    <definedName name="A1_54_5">被保険者住所変更届（一枚目）!$CB$7</definedName>
+    <definedName name="A1_54_6">被保険者住所変更届（一枚目）!$CD$7</definedName>
+    <definedName name="A1_6_1">被保険者住所変更届（一枚目）!$S$9</definedName>
+    <definedName name="A1_6_2">被保険者住所変更届（一枚目）!$U$9</definedName>
+    <definedName name="A1_6_3">被保険者住所変更届（一枚目）!$W$9</definedName>
+    <definedName name="A1_6_4">被保険者住所変更届（一枚目）!$Y$9</definedName>
+    <definedName name="A1_6_5">被保険者住所変更届（一枚目）!$AA$9</definedName>
+    <definedName name="A1_6_6">被保険者住所変更届（一枚目）!$AC$9</definedName>
+    <definedName name="A1_6_7">被保険者住所変更届（一枚目）!$AE$9</definedName>
+    <definedName name="A1_7">被保険者住所変更届（一枚目）!$AN$9</definedName>
+    <definedName name="A1_8">被保険者住所変更届（一枚目）!$AJ$10</definedName>
+    <definedName name="A1_9">被保険者住所変更届（一枚目）!$S$12</definedName>
+    <definedName name="A2_10_1">被保険者住所変更届（一枚目）!$M$24</definedName>
+    <definedName name="A2_10_2">被保険者住所変更届（一枚目）!$O$24</definedName>
+    <definedName name="A2_10_3">被保険者住所変更届（一枚目）!$Q$24</definedName>
+    <definedName name="A2_10_4">被保険者住所変更届（一枚目）!$S$24</definedName>
+    <definedName name="A2_10_5">被保険者住所変更届（一枚目）!$U$24</definedName>
+    <definedName name="A2_10_6">被保険者住所変更届（一枚目）!$W$24</definedName>
+    <definedName name="A2_10_7">被保険者住所変更届（一枚目）!$Y$24</definedName>
+    <definedName name="A2_11">被保険者住所変更届（一枚目）!$AO$24</definedName>
+    <definedName name="A2_12">被保険者住所変更届（一枚目）!$AK$25</definedName>
+    <definedName name="A2_13_1">被保険者住所変更届（一枚目）!$BV$24</definedName>
+    <definedName name="A2_13_2">被保険者住所変更届（一枚目）!$BX$24</definedName>
+    <definedName name="A2_13_3">被保険者住所変更届（一枚目）!$BZ$24</definedName>
+    <definedName name="A2_13_4">被保険者住所変更届（一枚目）!$CB$24</definedName>
+    <definedName name="A2_13_5">被保険者住所変更届（一枚目）!$CD$24</definedName>
+    <definedName name="A2_13_6">被保険者住所変更届（一枚目）!$CF$24</definedName>
+    <definedName name="A2_14">被保険者住所変更届（一枚目）!$S$27</definedName>
+    <definedName name="A2_2_1">被保険者住所変更届（一枚目）!$J$21</definedName>
+    <definedName name="A2_2_10">被保険者住所変更届（一枚目）!$AB$21</definedName>
+    <definedName name="A2_2_11">被保険者住所変更届（一枚目）!$AD$21</definedName>
+    <definedName name="A2_2_12">被保険者住所変更届（一枚目）!$AF$21</definedName>
+    <definedName name="A2_2_2">被保険者住所変更届（一枚目）!$L$21</definedName>
+    <definedName name="A2_2_3">被保険者住所変更届（一枚目）!$N$21</definedName>
+    <definedName name="A2_2_4">被保険者住所変更届（一枚目）!$P$21</definedName>
+    <definedName name="A2_2_5">被保険者住所変更届（一枚目）!$R$21</definedName>
+    <definedName name="A2_2_6">被保険者住所変更届（一枚目）!$T$21</definedName>
+    <definedName name="A2_2_7">被保険者住所変更届（一枚目）!$V$21</definedName>
+    <definedName name="A2_2_8">被保険者住所変更届（一枚目）!$X$21</definedName>
+    <definedName name="A2_2_9">被保険者住所変更届（一枚目）!$Z$21</definedName>
+    <definedName name="A2_5_1">被保険者住所変更届（一枚目）!$AL$21</definedName>
+    <definedName name="A2_5_2">被保険者住所変更届（一枚目）!$AN$21</definedName>
+    <definedName name="A2_5_3">被保険者住所変更届（一枚目）!$AP$21</definedName>
+    <definedName name="A2_5_4">被保険者住所変更届（一枚目）!$AR$21</definedName>
+    <definedName name="A2_5_5">被保険者住所変更届（一枚目）!$AT$21</definedName>
+    <definedName name="A2_5_6">被保険者住所変更届（一枚目）!$AV$21</definedName>
+    <definedName name="A2_6">被保険者住所変更届（一枚目）!$BF$20</definedName>
+    <definedName name="A2_7">被保険者住所変更届（一枚目）!$BL$20</definedName>
+    <definedName name="A2_8">被保険者住所変更届（一枚目）!$BE$21</definedName>
+    <definedName name="A2_9">被保険者住所変更届（一枚目）!$BN$21</definedName>
+    <definedName name="A3_1">被保険者住所変更届（一枚目）!$AZ$31</definedName>
+    <definedName name="A3_2">被保険者住所変更届（一枚目）!$P$33</definedName>
+    <definedName name="A3_3">被保険者住所変更届（一枚目）!$P$34</definedName>
+    <definedName name="A3_4">被保険者住所変更届（一枚目）!$P$35</definedName>
+    <definedName name="A3_5">被保険者住所変更届（一枚目）!$P$36</definedName>
+    <definedName name="B1_1">被保険者住所変更届（一枚目）!$AB$3</definedName>
+    <definedName name="B1_2">被保険者住所変更届（一枚目）!$AB$4</definedName>
+    <definedName name="B2_1_1">被保険者住所変更届（一枚目）!$J$8</definedName>
+    <definedName name="B2_1_2">被保険者住所変更届（一枚目）!$L$8</definedName>
+    <definedName name="B2_2_1">被保険者住所変更届（一枚目）!$N$7</definedName>
+    <definedName name="B2_2_2">被保険者住所変更届（一枚目）!$P$7</definedName>
+    <definedName name="B2_2_3">被保険者住所変更届（一枚目）!$R$7</definedName>
+    <definedName name="B2_2_4">被保険者住所変更届（一枚目）!$T$7</definedName>
+    <definedName name="B2_3">被保険者住所変更届（一枚目）!$V$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">被保険者住所変更届（一枚目）!$A$1:$CJ$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -652,12 +652,12 @@
     <t>⑩　　　　　　　　住　　　　　　　　　　　　　　　　　　所</t>
   </si>
   <si>
-    <t xml:space="preserve">      短期在留　       住民票住所以外の居所　
-      海外居住         その他（　　　　　　　　                 ）  </t>
+    <t xml:space="preserve">     短期在留　　         住民票住所以外の居所　
+     海外居住             その他（　　　　　　　　                            ）</t>
   </si>
   <si>
-    <t xml:space="preserve">    短期在留　　     住民票住所以外の居所　
-    海外居住         その他（　　　　　　　　                            ）</t>
+    <t xml:space="preserve">       短期在留　              住民票住所以外の居所　
+       海外居住                その他（　　 　                         ）  </t>
   </si>
 </sst>
 </file>
@@ -2782,13 +2782,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>175846</xdr:rowOff>
@@ -2852,13 +2852,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>78</xdr:col>
+      <xdr:col>83</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>79</xdr:col>
+      <xdr:col>84</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
@@ -2922,13 +2922,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>89296</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>65484</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>173831</xdr:rowOff>
@@ -2997,13 +2997,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>23605</xdr:rowOff>
@@ -3045,16 +3045,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>75786</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>330891</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104361</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>201681</xdr:rowOff>
+      <xdr:rowOff>199197</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3084,8 +3084,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="333375"/>
-          <a:ext cx="1266825" cy="687456"/>
+          <a:off x="117199" y="330891"/>
+          <a:ext cx="1270966" cy="688284"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3106,7 +3106,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>58</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>65690</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>151087</xdr:rowOff>
@@ -3174,13 +3174,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>55025</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>55819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>64550</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>196313</xdr:rowOff>
@@ -3251,13 +3251,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>33</xdr:col>
+          <xdr:col>38</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
+          <xdr:col>40</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
@@ -3318,13 +3318,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>41</xdr:col>
+          <xdr:col>46</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>43</xdr:col>
+          <xdr:col>48</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
@@ -3385,13 +3385,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>33</xdr:col>
+          <xdr:col>38</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>35</xdr:col>
+          <xdr:col>40</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
@@ -3452,13 +3452,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>41</xdr:col>
+          <xdr:col>46</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>43</xdr:col>
+          <xdr:col>48</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
@@ -3519,13 +3519,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>10</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>66675</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
+          <xdr:col>18</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
@@ -3584,13 +3584,13 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -3650,13 +3650,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -3716,13 +3716,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -3782,16 +3782,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>9939</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>8282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
+      <xdr:rowOff>198781</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3806,8 +3806,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5772150" y="3143251"/>
-          <a:ext cx="2105025" cy="171450"/>
+          <a:off x="6437243" y="3147391"/>
+          <a:ext cx="1787387" cy="190499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3844,13 +3844,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -3910,13 +3910,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -3976,13 +3976,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
@@ -4042,13 +4042,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>2571</xdr:rowOff>
@@ -4107,13 +4107,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>174021</xdr:rowOff>
@@ -4172,13 +4172,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>66676</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>183546</xdr:rowOff>
@@ -4237,13 +4237,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>164496</xdr:rowOff>
@@ -4302,13 +4302,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>145446</xdr:rowOff>
@@ -4367,16 +4367,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>41412</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>57978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:rowOff>240196</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4391,8 +4391,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8867775" y="5743575"/>
-          <a:ext cx="1038225" cy="209550"/>
+          <a:off x="9732064" y="5748130"/>
+          <a:ext cx="819979" cy="182218"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4429,16 +4429,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>85501</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45330</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>87785</xdr:rowOff>
+      <xdr:rowOff>86543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>105833</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>65662</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>165234</xdr:rowOff>
+      <xdr:rowOff>170208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4461,8 +4461,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="974501" y="680452"/>
-          <a:ext cx="274332" cy="310282"/>
+          <a:off x="1503069" y="674608"/>
+          <a:ext cx="268810" cy="315578"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4473,51 +4473,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95194</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161364</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19050" y="1181100"/>
-          <a:ext cx="447619" cy="4485714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>104632</xdr:rowOff>
@@ -4530,7 +4492,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4551,13 +4513,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>61</xdr:col>
+          <xdr:col>66</xdr:col>
           <xdr:colOff>95250</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>64</xdr:col>
+          <xdr:col>69</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
@@ -4618,13 +4580,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>61</xdr:col>
+          <xdr:col>66</xdr:col>
           <xdr:colOff>95250</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>64</xdr:col>
+          <xdr:col>69</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>228600</xdr:rowOff>
@@ -4685,14 +4647,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>67</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
+          <xdr:col>73</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>70</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:col>76</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
@@ -4752,16 +4714,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>67</xdr:col>
-          <xdr:colOff>114300</xdr:colOff>
+          <xdr:col>73</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>70</xdr:col>
-          <xdr:colOff>57150</xdr:colOff>
+          <xdr:col>76</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4817,13 +4779,13 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>21621</xdr:rowOff>
@@ -4882,16 +4844,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>2571</xdr:rowOff>
+      <xdr:rowOff>21621</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4906,7 +4868,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8391525" y="5553075"/>
+          <a:off x="8467725" y="5572125"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4947,13 +4909,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>193071</xdr:rowOff>
@@ -5012,16 +4974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>183546</xdr:rowOff>
+      <xdr:rowOff>202596</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5036,7 +4998,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8391525" y="5734050"/>
+          <a:off x="8458200" y="5753100"/>
           <a:ext cx="152400" cy="154971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5077,16 +5039,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>93594</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>183460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>16980</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>22778</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5095,8 +5057,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9467850" y="5505450"/>
-          <a:ext cx="419100" cy="238126"/>
+          <a:off x="10281203" y="5476047"/>
+          <a:ext cx="619125" cy="236883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5137,14 +5099,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>26505</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>74545</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -5155,8 +5117,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6638925" y="2905125"/>
-          <a:ext cx="419100" cy="238126"/>
+          <a:off x="7075005" y="2903468"/>
+          <a:ext cx="420757" cy="235642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5197,13 +5159,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
+      <xdr:col>73</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -5257,6 +5219,106 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>41410</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>115954</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>229242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="82823" y="1109870"/>
+          <a:ext cx="447261" cy="4809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>108087</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>67503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>58806</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>249721</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="A2_19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9642612" y="5772978"/>
+          <a:ext cx="817494" cy="182218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5553,77 +5615,78 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:CE76"/>
+  <dimension ref="B1:CJ76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27:BG28"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
   <cols>
-    <col min="1" max="65" width="1.625" style="1"/>
-    <col min="66" max="66" width="2.25" style="1" customWidth="1"/>
-    <col min="67" max="67" width="0.75" style="1" customWidth="1"/>
-    <col min="68" max="68" width="0.625" style="1" customWidth="1"/>
-    <col min="69" max="80" width="1.625" style="1"/>
-    <col min="81" max="81" width="1.625" style="1" customWidth="1"/>
-    <col min="82" max="16384" width="1.625" style="1"/>
+    <col min="1" max="1" width="0.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.625" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="0.25" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="1.625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="70" width="1.625" style="1"/>
+    <col min="71" max="71" width="2.25" style="1" customWidth="1"/>
+    <col min="72" max="72" width="0.75" style="1" customWidth="1"/>
+    <col min="73" max="73" width="0.625" style="1" customWidth="1"/>
+    <col min="74" max="85" width="1.625" style="1"/>
+    <col min="86" max="86" width="1.625" style="1" customWidth="1"/>
+    <col min="87" max="87" width="4.25" style="1" customWidth="1"/>
+    <col min="88" max="16384" width="1.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" ht="26.25" customHeight="1"/>
-    <row r="2" spans="1:81" ht="20.25" customHeight="1">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
+    <row r="1" spans="6:86" ht="26.25" customHeight="1"/>
+    <row r="2" spans="6:86" ht="20.25" customHeight="1">
       <c r="F2" s="153"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="BI2" s="187" t="s">
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="BN2" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="BJ2" s="183"/>
-      <c r="BK2" s="183"/>
-      <c r="BL2" s="183"/>
-      <c r="BM2" s="183"/>
-      <c r="BN2" s="184" t="s">
+      <c r="BO2" s="183"/>
+      <c r="BP2" s="183"/>
+      <c r="BQ2" s="183"/>
+      <c r="BR2" s="183"/>
+      <c r="BS2" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="BO2" s="185"/>
-      <c r="BP2" s="185"/>
-      <c r="BQ2" s="185"/>
-      <c r="BR2" s="185"/>
-      <c r="BS2" s="186"/>
-      <c r="BT2" s="183" t="s">
+      <c r="BT2" s="185"/>
+      <c r="BU2" s="185"/>
+      <c r="BV2" s="185"/>
+      <c r="BW2" s="185"/>
+      <c r="BX2" s="186"/>
+      <c r="BY2" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="BU2" s="183"/>
-      <c r="BV2" s="183"/>
-      <c r="BW2" s="183"/>
-      <c r="BX2" s="183"/>
-      <c r="BY2" s="180" t="s">
+      <c r="BZ2" s="183"/>
+      <c r="CA2" s="183"/>
+      <c r="CB2" s="183"/>
+      <c r="CC2" s="183"/>
+      <c r="CD2" s="180" t="s">
         <v>23</v>
       </c>
-      <c r="BZ2" s="181"/>
-      <c r="CA2" s="181"/>
-      <c r="CB2" s="181"/>
-      <c r="CC2" s="182"/>
+      <c r="CE2" s="181"/>
+      <c r="CF2" s="181"/>
+      <c r="CG2" s="181"/>
+      <c r="CH2" s="182"/>
     </row>
-    <row r="3" spans="1:81" ht="18" customHeight="1">
-      <c r="A3" s="153"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
+    <row r="3" spans="6:86" ht="18" customHeight="1">
       <c r="F3" s="153"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="193"/>
-      <c r="Y3" s="193"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="193"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
       <c r="AB3" s="193"/>
       <c r="AC3" s="193"/>
       <c r="AD3" s="193"/>
@@ -5631,16 +5694,16 @@
       <c r="AF3" s="193"/>
       <c r="AG3" s="193"/>
       <c r="AH3" s="193"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="193" t="s">
+      <c r="AI3" s="193"/>
+      <c r="AJ3" s="193"/>
+      <c r="AK3" s="193"/>
+      <c r="AL3" s="193"/>
+      <c r="AM3" s="193"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="193" t="s">
         <v>24</v>
       </c>
-      <c r="AL3" s="193"/>
-      <c r="AM3" s="193"/>
-      <c r="AN3" s="193"/>
-      <c r="AO3" s="193"/>
-      <c r="AP3" s="193"/>
       <c r="AQ3" s="193"/>
       <c r="AR3" s="193"/>
       <c r="AS3" s="193"/>
@@ -5653,24 +5716,24 @@
       <c r="AZ3" s="193"/>
       <c r="BA3" s="193"/>
       <c r="BB3" s="193"/>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
-      <c r="BE3" s="6"/>
-      <c r="BF3" s="6"/>
-      <c r="BG3" s="6"/>
-      <c r="BH3" s="7"/>
-      <c r="BI3" s="48"/>
-      <c r="BJ3" s="49"/>
-      <c r="BK3" s="49"/>
-      <c r="BL3" s="49"/>
-      <c r="BM3" s="50"/>
+      <c r="BC3" s="193"/>
+      <c r="BD3" s="193"/>
+      <c r="BE3" s="193"/>
+      <c r="BF3" s="193"/>
+      <c r="BG3" s="193"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="7"/>
       <c r="BN3" s="48"/>
       <c r="BO3" s="49"/>
       <c r="BP3" s="49"/>
       <c r="BQ3" s="49"/>
-      <c r="BR3" s="49"/>
-      <c r="BS3" s="50"/>
-      <c r="BT3" s="48"/>
+      <c r="BR3" s="50"/>
+      <c r="BS3" s="48"/>
+      <c r="BT3" s="49"/>
       <c r="BU3" s="49"/>
       <c r="BV3" s="49"/>
       <c r="BW3" s="49"/>
@@ -5680,13 +5743,13 @@
       <c r="CA3" s="49"/>
       <c r="CB3" s="49"/>
       <c r="CC3" s="50"/>
+      <c r="CD3" s="48"/>
+      <c r="CE3" s="49"/>
+      <c r="CF3" s="49"/>
+      <c r="CG3" s="49"/>
+      <c r="CH3" s="50"/>
     </row>
-    <row r="4" spans="1:81" ht="18" customHeight="1">
-      <c r="W4" s="193"/>
-      <c r="X4" s="193"/>
-      <c r="Y4" s="193"/>
-      <c r="Z4" s="193"/>
-      <c r="AA4" s="193"/>
+    <row r="4" spans="6:86" ht="18" customHeight="1">
       <c r="AB4" s="193"/>
       <c r="AC4" s="193"/>
       <c r="AD4" s="193"/>
@@ -5694,13 +5757,13 @@
       <c r="AF4" s="193"/>
       <c r="AG4" s="193"/>
       <c r="AH4" s="193"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
+      <c r="AI4" s="193"/>
+      <c r="AJ4" s="193"/>
       <c r="AK4" s="193"/>
       <c r="AL4" s="193"/>
       <c r="AM4" s="193"/>
-      <c r="AN4" s="193"/>
-      <c r="AO4" s="193"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
       <c r="AP4" s="193"/>
       <c r="AQ4" s="193"/>
       <c r="AR4" s="193"/>
@@ -5714,24 +5777,24 @@
       <c r="AZ4" s="193"/>
       <c r="BA4" s="193"/>
       <c r="BB4" s="193"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="6"/>
-      <c r="BE4" s="6"/>
-      <c r="BF4" s="6"/>
-      <c r="BG4" s="6"/>
-      <c r="BH4" s="7"/>
-      <c r="BI4" s="188"/>
-      <c r="BJ4" s="189"/>
-      <c r="BK4" s="189"/>
-      <c r="BL4" s="189"/>
-      <c r="BM4" s="190"/>
+      <c r="BC4" s="193"/>
+      <c r="BD4" s="193"/>
+      <c r="BE4" s="193"/>
+      <c r="BF4" s="193"/>
+      <c r="BG4" s="193"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="6"/>
+      <c r="BM4" s="7"/>
       <c r="BN4" s="188"/>
       <c r="BO4" s="189"/>
       <c r="BP4" s="189"/>
       <c r="BQ4" s="189"/>
-      <c r="BR4" s="189"/>
-      <c r="BS4" s="190"/>
-      <c r="BT4" s="188"/>
+      <c r="BR4" s="190"/>
+      <c r="BS4" s="188"/>
+      <c r="BT4" s="189"/>
       <c r="BU4" s="189"/>
       <c r="BV4" s="189"/>
       <c r="BW4" s="189"/>
@@ -5741,46 +5804,46 @@
       <c r="CA4" s="189"/>
       <c r="CB4" s="189"/>
       <c r="CC4" s="190"/>
+      <c r="CD4" s="188"/>
+      <c r="CE4" s="189"/>
+      <c r="CF4" s="189"/>
+      <c r="CG4" s="189"/>
+      <c r="CH4" s="190"/>
     </row>
-    <row r="5" spans="1:81" ht="9" customHeight="1"/>
-    <row r="6" spans="1:81" ht="24" customHeight="1">
-      <c r="A6" s="298" t="s">
+    <row r="5" spans="6:86" ht="9" customHeight="1"/>
+    <row r="6" spans="6:86" ht="24" customHeight="1">
+      <c r="F6" s="298" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="298"/>
-      <c r="C6" s="168" t="s">
+      <c r="G6" s="298"/>
+      <c r="H6" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="163" t="s">
+      <c r="I6" s="168"/>
+      <c r="J6" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="163"/>
       <c r="K6" s="163"/>
       <c r="L6" s="163"/>
       <c r="M6" s="163"/>
       <c r="N6" s="163"/>
       <c r="O6" s="163"/>
       <c r="P6" s="163"/>
-      <c r="Q6" s="95" t="s">
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+      <c r="S6" s="163"/>
+      <c r="T6" s="163"/>
+      <c r="U6" s="163"/>
+      <c r="V6" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="96"/>
-      <c r="S6" s="96"/>
-      <c r="T6" s="96"/>
-      <c r="U6" s="96"/>
-      <c r="V6" s="99" t="s">
+      <c r="W6" s="96"/>
+      <c r="X6" s="96"/>
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="96"/>
+      <c r="AA6" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="100"/>
       <c r="AB6" s="100"/>
       <c r="AC6" s="100"/>
       <c r="AD6" s="100"/>
@@ -5798,15 +5861,15 @@
       <c r="AP6" s="100"/>
       <c r="AQ6" s="100"/>
       <c r="AR6" s="100"/>
-      <c r="AS6" s="101"/>
-      <c r="AT6" s="100" t="s">
-        <v>38</v>
-      </c>
+      <c r="AS6" s="100"/>
+      <c r="AT6" s="100"/>
       <c r="AU6" s="100"/>
       <c r="AV6" s="100"/>
       <c r="AW6" s="100"/>
-      <c r="AX6" s="100"/>
-      <c r="AY6" s="100"/>
+      <c r="AX6" s="101"/>
+      <c r="AY6" s="100" t="s">
+        <v>38</v>
+      </c>
       <c r="AZ6" s="100"/>
       <c r="BA6" s="100"/>
       <c r="BB6" s="100"/>
@@ -5816,15 +5879,15 @@
       <c r="BF6" s="100"/>
       <c r="BG6" s="100"/>
       <c r="BH6" s="100"/>
-      <c r="BI6" s="101"/>
-      <c r="BJ6" s="48" t="s">
+      <c r="BI6" s="100"/>
+      <c r="BJ6" s="100"/>
+      <c r="BK6" s="100"/>
+      <c r="BL6" s="100"/>
+      <c r="BM6" s="100"/>
+      <c r="BN6" s="101"/>
+      <c r="BO6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="BK6" s="49"/>
-      <c r="BL6" s="49"/>
-      <c r="BM6" s="49"/>
-      <c r="BN6" s="49"/>
-      <c r="BO6" s="49"/>
       <c r="BP6" s="49"/>
       <c r="BQ6" s="49"/>
       <c r="BR6" s="49"/>
@@ -5835,233 +5898,233 @@
       <c r="BW6" s="49"/>
       <c r="BX6" s="49"/>
       <c r="BY6" s="49"/>
-      <c r="BZ6" s="50"/>
-      <c r="CA6" s="197"/>
-      <c r="CB6" s="198"/>
-      <c r="CC6" s="10"/>
+      <c r="BZ6" s="49"/>
+      <c r="CA6" s="49"/>
+      <c r="CB6" s="49"/>
+      <c r="CC6" s="49"/>
+      <c r="CD6" s="49"/>
+      <c r="CE6" s="50"/>
+      <c r="CF6" s="197"/>
+      <c r="CG6" s="198"/>
+      <c r="CH6" s="10"/>
     </row>
-    <row r="7" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A7" s="298"/>
-      <c r="B7" s="298"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
-      <c r="N7" s="150"/>
+    <row r="7" spans="6:86" ht="15.75" customHeight="1">
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="165"/>
       <c r="O7" s="150"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="179"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="97"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="191"/>
-      <c r="AE7" s="111"/>
-      <c r="AF7" s="199"/>
-      <c r="AG7" s="111"/>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="54"/>
-      <c r="AJ7" s="54"/>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="53"/>
+      <c r="P7" s="150"/>
+      <c r="Q7" s="150"/>
+      <c r="R7" s="150"/>
+      <c r="S7" s="150"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="164"/>
+      <c r="V7" s="179"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="73"/>
+      <c r="AI7" s="191"/>
+      <c r="AJ7" s="111"/>
+      <c r="AK7" s="199"/>
+      <c r="AL7" s="111"/>
       <c r="AM7" s="54"/>
       <c r="AN7" s="54"/>
       <c r="AO7" s="54"/>
-      <c r="AP7" s="54"/>
-      <c r="AQ7" s="54"/>
-      <c r="AR7" s="145"/>
-      <c r="AS7" s="146"/>
-      <c r="AT7" s="148" t="s">
+      <c r="AP7" s="73"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="54"/>
+      <c r="AS7" s="54"/>
+      <c r="AT7" s="54"/>
+      <c r="AU7" s="54"/>
+      <c r="AV7" s="54"/>
+      <c r="AW7" s="145"/>
+      <c r="AX7" s="146"/>
+      <c r="AY7" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="AU7" s="149"/>
-      <c r="AV7" s="230"/>
-      <c r="AW7" s="230"/>
-      <c r="AX7" s="230"/>
-      <c r="AY7" s="230"/>
-      <c r="AZ7" s="230"/>
-      <c r="BA7" s="231"/>
-      <c r="BB7" s="194"/>
-      <c r="BC7" s="195"/>
-      <c r="BD7" s="195"/>
-      <c r="BE7" s="195"/>
-      <c r="BF7" s="195"/>
-      <c r="BG7" s="195"/>
+      <c r="AZ7" s="149"/>
+      <c r="BA7" s="230"/>
+      <c r="BB7" s="230"/>
+      <c r="BC7" s="230"/>
+      <c r="BD7" s="230"/>
+      <c r="BE7" s="230"/>
+      <c r="BF7" s="231"/>
+      <c r="BG7" s="194"/>
       <c r="BH7" s="195"/>
-      <c r="BI7" s="196"/>
-      <c r="BJ7" s="129" t="s">
+      <c r="BI7" s="195"/>
+      <c r="BJ7" s="195"/>
+      <c r="BK7" s="195"/>
+      <c r="BL7" s="195"/>
+      <c r="BM7" s="195"/>
+      <c r="BN7" s="196"/>
+      <c r="BO7" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="BK7" s="130"/>
-      <c r="BL7" s="130"/>
-      <c r="BM7" s="131"/>
-      <c r="BN7" s="109"/>
-      <c r="BO7" s="56"/>
-      <c r="BP7" s="158"/>
-      <c r="BQ7" s="154"/>
-      <c r="BR7" s="155"/>
-      <c r="BS7" s="56"/>
-      <c r="BT7" s="158"/>
+      <c r="BP7" s="130"/>
+      <c r="BQ7" s="130"/>
+      <c r="BR7" s="131"/>
+      <c r="BS7" s="109"/>
+      <c r="BT7" s="56"/>
       <c r="BU7" s="158"/>
-      <c r="BV7" s="112"/>
-      <c r="BW7" s="56"/>
-      <c r="BX7" s="158"/>
+      <c r="BV7" s="154"/>
+      <c r="BW7" s="155"/>
+      <c r="BX7" s="56"/>
       <c r="BY7" s="158"/>
-      <c r="BZ7" s="159"/>
-      <c r="CA7" s="197"/>
-      <c r="CB7" s="198"/>
-      <c r="CC7" s="10"/>
+      <c r="BZ7" s="158"/>
+      <c r="CA7" s="112"/>
+      <c r="CB7" s="56"/>
+      <c r="CC7" s="158"/>
+      <c r="CD7" s="158"/>
+      <c r="CE7" s="159"/>
+      <c r="CF7" s="197"/>
+      <c r="CG7" s="198"/>
+      <c r="CH7" s="10"/>
     </row>
-    <row r="8" spans="1:81" ht="21.75" customHeight="1">
-      <c r="A8" s="298"/>
-      <c r="B8" s="298"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="150"/>
-      <c r="N8" s="150"/>
+    <row r="8" spans="6:86" ht="21.75" customHeight="1">
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="165"/>
       <c r="O8" s="150"/>
-      <c r="P8" s="164"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
+      <c r="P8" s="150"/>
+      <c r="Q8" s="150"/>
+      <c r="R8" s="150"/>
+      <c r="S8" s="150"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="164"/>
       <c r="V8" s="63"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="172"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="192"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="200"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="172"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="172"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="192"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="200"/>
+      <c r="AL8" s="72"/>
       <c r="AM8" s="74"/>
       <c r="AN8" s="74"/>
       <c r="AO8" s="74"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="147"/>
-      <c r="AS8" s="115"/>
-      <c r="AT8" s="139" t="s">
+      <c r="AP8" s="75"/>
+      <c r="AQ8" s="172"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="147"/>
+      <c r="AX8" s="115"/>
+      <c r="AY8" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="AU8" s="140"/>
-      <c r="AV8" s="232"/>
-      <c r="AW8" s="232"/>
-      <c r="AX8" s="232"/>
-      <c r="AY8" s="232"/>
-      <c r="AZ8" s="232"/>
-      <c r="BA8" s="233"/>
-      <c r="BB8" s="234" t="s">
+      <c r="AZ8" s="140"/>
+      <c r="BA8" s="232"/>
+      <c r="BB8" s="232"/>
+      <c r="BC8" s="232"/>
+      <c r="BD8" s="232"/>
+      <c r="BE8" s="232"/>
+      <c r="BF8" s="233"/>
+      <c r="BG8" s="234" t="s">
         <v>20</v>
       </c>
-      <c r="BC8" s="235"/>
-      <c r="BD8" s="141"/>
-      <c r="BE8" s="141"/>
-      <c r="BF8" s="141"/>
-      <c r="BG8" s="141"/>
-      <c r="BH8" s="141"/>
-      <c r="BI8" s="142"/>
-      <c r="BJ8" s="132"/>
-      <c r="BK8" s="133"/>
-      <c r="BL8" s="133"/>
-      <c r="BM8" s="134"/>
-      <c r="BN8" s="111"/>
-      <c r="BO8" s="53"/>
-      <c r="BP8" s="54"/>
-      <c r="BQ8" s="156"/>
-      <c r="BR8" s="157"/>
-      <c r="BS8" s="53"/>
-      <c r="BT8" s="54"/>
+      <c r="BH8" s="235"/>
+      <c r="BI8" s="141"/>
+      <c r="BJ8" s="141"/>
+      <c r="BK8" s="141"/>
+      <c r="BL8" s="141"/>
+      <c r="BM8" s="141"/>
+      <c r="BN8" s="142"/>
+      <c r="BO8" s="132"/>
+      <c r="BP8" s="133"/>
+      <c r="BQ8" s="133"/>
+      <c r="BR8" s="134"/>
+      <c r="BS8" s="111"/>
+      <c r="BT8" s="53"/>
       <c r="BU8" s="54"/>
-      <c r="BV8" s="107"/>
-      <c r="BW8" s="53"/>
-      <c r="BX8" s="54"/>
+      <c r="BV8" s="156"/>
+      <c r="BW8" s="157"/>
+      <c r="BX8" s="53"/>
       <c r="BY8" s="54"/>
-      <c r="BZ8" s="73"/>
-      <c r="CA8" s="197"/>
-      <c r="CB8" s="198"/>
-      <c r="CC8" s="10"/>
+      <c r="BZ8" s="54"/>
+      <c r="CA8" s="107"/>
+      <c r="CB8" s="53"/>
+      <c r="CC8" s="54"/>
+      <c r="CD8" s="54"/>
+      <c r="CE8" s="73"/>
+      <c r="CF8" s="197"/>
+      <c r="CG8" s="198"/>
+      <c r="CH8" s="10"/>
     </row>
-    <row r="9" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A9" s="298"/>
-      <c r="B9" s="298"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="201" t="s">
+    <row r="9" spans="6:86" ht="15.75" customHeight="1">
+      <c r="F9" s="298"/>
+      <c r="G9" s="298"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="202"/>
-      <c r="G9" s="203"/>
-      <c r="H9" s="151" t="s">
+      <c r="K9" s="202"/>
+      <c r="L9" s="203"/>
+      <c r="M9" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="152"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
+      <c r="N9" s="152"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="72"/>
       <c r="T9" s="74"/>
       <c r="U9" s="74"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="65" t="s">
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AC9" s="66"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="143" t="s">
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="AF9" s="144"/>
-      <c r="AG9" s="144"/>
-      <c r="AH9" s="144"/>
-      <c r="AI9" s="135"/>
-      <c r="AJ9" s="135"/>
-      <c r="AK9" s="135"/>
-      <c r="AL9" s="135"/>
-      <c r="AM9" s="135"/>
+      <c r="AK9" s="144"/>
+      <c r="AL9" s="144"/>
+      <c r="AM9" s="144"/>
       <c r="AN9" s="135"/>
       <c r="AO9" s="135"/>
       <c r="AP9" s="135"/>
@@ -6102,30 +6165,30 @@
       <c r="BY9" s="135"/>
       <c r="BZ9" s="135"/>
       <c r="CA9" s="135"/>
-      <c r="CB9" s="136"/>
+      <c r="CB9" s="135"/>
+      <c r="CC9" s="135"/>
+      <c r="CD9" s="135"/>
+      <c r="CE9" s="135"/>
+      <c r="CF9" s="135"/>
+      <c r="CG9" s="136"/>
     </row>
-    <row r="10" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A10" s="298"/>
-      <c r="B10" s="298"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="206"/>
-      <c r="H10" s="220" t="s">
+    <row r="10" spans="6:86" ht="15.75" customHeight="1">
+      <c r="F10" s="298"/>
+      <c r="G10" s="298"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="205"/>
+      <c r="L10" s="206"/>
+      <c r="M10" s="220" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="221"/>
-      <c r="J10" s="221"/>
-      <c r="K10" s="221"/>
-      <c r="L10" s="221"/>
-      <c r="M10" s="221"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
+      <c r="N10" s="221"/>
+      <c r="O10" s="221"/>
+      <c r="P10" s="221"/>
+      <c r="Q10" s="221"/>
+      <c r="R10" s="221"/>
+      <c r="S10" s="72"/>
       <c r="T10" s="74"/>
       <c r="U10" s="74"/>
       <c r="V10" s="74"/>
@@ -6133,16 +6196,16 @@
       <c r="X10" s="74"/>
       <c r="Y10" s="74"/>
       <c r="Z10" s="74"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="67"/>
-      <c r="AE10" s="210"/>
-      <c r="AF10" s="211"/>
-      <c r="AG10" s="211"/>
-      <c r="AH10" s="211"/>
-      <c r="AI10" s="211"/>
-      <c r="AJ10" s="211"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="67"/>
+      <c r="AJ10" s="210"/>
       <c r="AK10" s="211"/>
       <c r="AL10" s="211"/>
       <c r="AM10" s="211"/>
@@ -6186,28 +6249,28 @@
       <c r="BY10" s="211"/>
       <c r="BZ10" s="211"/>
       <c r="CA10" s="211"/>
-      <c r="CB10" s="212"/>
+      <c r="CB10" s="211"/>
+      <c r="CC10" s="211"/>
+      <c r="CD10" s="211"/>
+      <c r="CE10" s="211"/>
+      <c r="CF10" s="211"/>
+      <c r="CG10" s="212"/>
     </row>
-    <row r="11" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A11" s="298"/>
-      <c r="B11" s="298"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="208"/>
-      <c r="G11" s="209"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="223"/>
-      <c r="K11" s="223"/>
-      <c r="L11" s="223"/>
-      <c r="M11" s="223"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
+    <row r="11" spans="6:86" ht="15.75" customHeight="1">
+      <c r="F11" s="298"/>
+      <c r="G11" s="298"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="207"/>
+      <c r="K11" s="208"/>
+      <c r="L11" s="209"/>
+      <c r="M11" s="222"/>
+      <c r="N11" s="223"/>
+      <c r="O11" s="223"/>
+      <c r="P11" s="223"/>
+      <c r="Q11" s="223"/>
+      <c r="R11" s="223"/>
+      <c r="S11" s="72"/>
       <c r="T11" s="74"/>
       <c r="U11" s="74"/>
       <c r="V11" s="74"/>
@@ -6215,16 +6278,16 @@
       <c r="X11" s="74"/>
       <c r="Y11" s="74"/>
       <c r="Z11" s="74"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="213"/>
-      <c r="AF11" s="214"/>
-      <c r="AG11" s="214"/>
-      <c r="AH11" s="214"/>
-      <c r="AI11" s="214"/>
-      <c r="AJ11" s="214"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="213"/>
       <c r="AK11" s="214"/>
       <c r="AL11" s="214"/>
       <c r="AM11" s="214"/>
@@ -6268,34 +6331,34 @@
       <c r="BY11" s="214"/>
       <c r="BZ11" s="214"/>
       <c r="CA11" s="214"/>
-      <c r="CB11" s="215"/>
+      <c r="CB11" s="214"/>
+      <c r="CC11" s="214"/>
+      <c r="CD11" s="214"/>
+      <c r="CE11" s="214"/>
+      <c r="CF11" s="214"/>
+      <c r="CG11" s="215"/>
     </row>
-    <row r="12" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A12" s="298"/>
-      <c r="B12" s="298"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="89" t="s">
+    <row r="12" spans="6:86" ht="15.75" customHeight="1">
+      <c r="F12" s="298"/>
+      <c r="G12" s="298"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="248" t="s">
+      <c r="K12" s="90"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="249"/>
-      <c r="J12" s="224" t="s">
+      <c r="N12" s="249"/>
+      <c r="O12" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="224"/>
-      <c r="L12" s="224"/>
-      <c r="M12" s="225"/>
-      <c r="N12" s="216"/>
-      <c r="O12" s="217"/>
-      <c r="P12" s="217"/>
-      <c r="Q12" s="217"/>
-      <c r="R12" s="217"/>
-      <c r="S12" s="217"/>
+      <c r="P12" s="224"/>
+      <c r="Q12" s="224"/>
+      <c r="R12" s="225"/>
+      <c r="S12" s="216"/>
       <c r="T12" s="217"/>
       <c r="U12" s="217"/>
       <c r="V12" s="217"/>
@@ -6356,28 +6419,28 @@
       <c r="BY12" s="217"/>
       <c r="BZ12" s="217"/>
       <c r="CA12" s="217"/>
-      <c r="CB12" s="218"/>
+      <c r="CB12" s="217"/>
+      <c r="CC12" s="217"/>
+      <c r="CD12" s="217"/>
+      <c r="CE12" s="217"/>
+      <c r="CF12" s="217"/>
+      <c r="CG12" s="218"/>
     </row>
-    <row r="13" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A13" s="298"/>
-      <c r="B13" s="298"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="223"/>
-      <c r="K13" s="223"/>
-      <c r="L13" s="223"/>
-      <c r="M13" s="226"/>
-      <c r="N13" s="213"/>
-      <c r="O13" s="214"/>
-      <c r="P13" s="214"/>
-      <c r="Q13" s="214"/>
-      <c r="R13" s="214"/>
-      <c r="S13" s="214"/>
+    <row r="13" spans="6:86" ht="15.75" customHeight="1">
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="223"/>
+      <c r="P13" s="223"/>
+      <c r="Q13" s="223"/>
+      <c r="R13" s="226"/>
+      <c r="S13" s="213"/>
       <c r="T13" s="214"/>
       <c r="U13" s="214"/>
       <c r="V13" s="214"/>
@@ -6438,56 +6501,56 @@
       <c r="BY13" s="214"/>
       <c r="BZ13" s="214"/>
       <c r="CA13" s="214"/>
-      <c r="CB13" s="215"/>
+      <c r="CB13" s="214"/>
+      <c r="CC13" s="214"/>
+      <c r="CD13" s="214"/>
+      <c r="CE13" s="214"/>
+      <c r="CF13" s="214"/>
+      <c r="CG13" s="215"/>
     </row>
-    <row r="14" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A14" s="298"/>
-      <c r="B14" s="298"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="85" t="s">
+    <row r="14" spans="6:86" ht="15.75" customHeight="1">
+      <c r="F14" s="298"/>
+      <c r="G14" s="298"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="227" t="s">
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="228"/>
-      <c r="M14" s="228"/>
-      <c r="N14" s="229"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="158"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="108"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="109"/>
-      <c r="U14" s="112"/>
-      <c r="V14" s="108"/>
+      <c r="Q14" s="228"/>
+      <c r="R14" s="228"/>
+      <c r="S14" s="229"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="158"/>
+      <c r="V14" s="112"/>
       <c r="W14" s="108"/>
-      <c r="X14" s="109"/>
-      <c r="Y14" s="158"/>
-      <c r="Z14" s="159"/>
-      <c r="AA14" s="122"/>
-      <c r="AB14" s="123"/>
-      <c r="AC14" s="124"/>
-      <c r="AD14" s="76" t="s">
+      <c r="X14" s="108"/>
+      <c r="Y14" s="109"/>
+      <c r="Z14" s="112"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="108"/>
+      <c r="AC14" s="109"/>
+      <c r="AD14" s="158"/>
+      <c r="AE14" s="159"/>
+      <c r="AF14" s="122"/>
+      <c r="AG14" s="123"/>
+      <c r="AH14" s="124"/>
+      <c r="AI14" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="116" t="s">
-        <v>60</v>
+      <c r="AJ14" s="77"/>
+      <c r="AK14" s="77"/>
+      <c r="AL14" s="77"/>
+      <c r="AM14" s="116" t="s">
+        <v>59</v>
       </c>
-      <c r="AI14" s="117"/>
-      <c r="AJ14" s="117"/>
-      <c r="AK14" s="117"/>
-      <c r="AL14" s="117"/>
-      <c r="AM14" s="117"/>
       <c r="AN14" s="117"/>
       <c r="AO14" s="117"/>
       <c r="AP14" s="117"/>
@@ -6513,12 +6576,12 @@
       <c r="BJ14" s="117"/>
       <c r="BK14" s="117"/>
       <c r="BL14" s="117"/>
-      <c r="BM14" s="118"/>
-      <c r="BN14" s="33"/>
-      <c r="BO14" s="33"/>
-      <c r="BP14" s="33"/>
-      <c r="BQ14" s="33"/>
-      <c r="BR14" s="33"/>
+      <c r="BM14" s="117"/>
+      <c r="BN14" s="117"/>
+      <c r="BO14" s="117"/>
+      <c r="BP14" s="117"/>
+      <c r="BQ14" s="117"/>
+      <c r="BR14" s="118"/>
       <c r="BS14" s="33"/>
       <c r="BT14" s="33"/>
       <c r="BU14" s="33"/>
@@ -6529,47 +6592,47 @@
       <c r="BZ14" s="33"/>
       <c r="CA14" s="33"/>
       <c r="CB14" s="33"/>
+      <c r="CC14" s="33"/>
+      <c r="CD14" s="33"/>
+      <c r="CE14" s="33"/>
+      <c r="CF14" s="33"/>
+      <c r="CG14" s="33"/>
     </row>
-    <row r="15" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A15" s="298"/>
-      <c r="B15" s="298"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="227"/>
-      <c r="L15" s="228"/>
-      <c r="M15" s="228"/>
-      <c r="N15" s="229"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="110"/>
+    <row r="15" spans="6:86" ht="15.75" customHeight="1">
+      <c r="F15" s="298"/>
+      <c r="G15" s="298"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="227"/>
+      <c r="Q15" s="228"/>
+      <c r="R15" s="228"/>
+      <c r="S15" s="229"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="107"/>
       <c r="W15" s="110"/>
-      <c r="X15" s="111"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="125"/>
-      <c r="AB15" s="126"/>
-      <c r="AC15" s="127"/>
-      <c r="AD15" s="78"/>
-      <c r="AE15" s="79"/>
-      <c r="AF15" s="79"/>
-      <c r="AG15" s="79"/>
-      <c r="AH15" s="119"/>
-      <c r="AI15" s="120"/>
-      <c r="AJ15" s="120"/>
-      <c r="AK15" s="120"/>
-      <c r="AL15" s="120"/>
-      <c r="AM15" s="120"/>
+      <c r="X15" s="110"/>
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="110"/>
+      <c r="AB15" s="110"/>
+      <c r="AC15" s="111"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="125"/>
+      <c r="AG15" s="126"/>
+      <c r="AH15" s="127"/>
+      <c r="AI15" s="78"/>
+      <c r="AJ15" s="79"/>
+      <c r="AK15" s="79"/>
+      <c r="AL15" s="79"/>
+      <c r="AM15" s="119"/>
       <c r="AN15" s="120"/>
       <c r="AO15" s="120"/>
       <c r="AP15" s="120"/>
@@ -6595,13 +6658,13 @@
       <c r="BJ15" s="120"/>
       <c r="BK15" s="120"/>
       <c r="BL15" s="120"/>
-      <c r="BM15" s="121"/>
-      <c r="BN15" s="5"/>
-      <c r="BO15" s="9"/>
-      <c r="BP15" s="9"/>
-      <c r="BQ15" s="9"/>
-      <c r="BR15" s="9"/>
-      <c r="BS15" s="9"/>
+      <c r="BM15" s="120"/>
+      <c r="BN15" s="120"/>
+      <c r="BO15" s="120"/>
+      <c r="BP15" s="120"/>
+      <c r="BQ15" s="120"/>
+      <c r="BR15" s="121"/>
+      <c r="BS15" s="5"/>
       <c r="BT15" s="9"/>
       <c r="BU15" s="9"/>
       <c r="BV15" s="9"/>
@@ -6611,18 +6674,18 @@
       <c r="BZ15" s="9"/>
       <c r="CA15" s="9"/>
       <c r="CB15" s="9"/>
-      <c r="CC15" s="2"/>
+      <c r="CC15" s="9"/>
+      <c r="CD15" s="9"/>
+      <c r="CE15" s="9"/>
+      <c r="CF15" s="9"/>
+      <c r="CG15" s="9"/>
+      <c r="CH15" s="2"/>
     </row>
-    <row r="16" spans="1:81" ht="12.75" customHeight="1">
-      <c r="A16" s="298"/>
-      <c r="B16" s="298"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+    <row r="16" spans="6:86" ht="12.75" customHeight="1">
+      <c r="F16" s="298"/>
+      <c r="G16" s="298"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -6647,14 +6710,14 @@
       <c r="AE16" s="9"/>
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
-      <c r="AH16" s="34" t="s">
-        <v>45</v>
-      </c>
+      <c r="AH16" s="9"/>
       <c r="AI16" s="9"/>
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
-      <c r="AM16" s="9"/>
+      <c r="AM16" s="34" t="s">
+        <v>45</v>
+      </c>
       <c r="AN16" s="9"/>
       <c r="AO16" s="9"/>
       <c r="AP16" s="9"/>
@@ -6696,32 +6759,32 @@
       <c r="BZ16" s="9"/>
       <c r="CA16" s="9"/>
       <c r="CB16" s="9"/>
+      <c r="CC16" s="9"/>
+      <c r="CD16" s="9"/>
+      <c r="CE16" s="9"/>
+      <c r="CF16" s="9"/>
+      <c r="CG16" s="9"/>
     </row>
-    <row r="17" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A17" s="298"/>
-      <c r="B17" s="298"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="168"/>
-      <c r="F17" s="18" t="s">
+    <row r="17" spans="6:88" ht="15.75" customHeight="1">
+      <c r="F17" s="298"/>
+      <c r="G17" s="298"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="168"/>
+      <c r="K17" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A18" s="298"/>
-      <c r="B18" s="298"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
-      <c r="F18" s="17" t="s">
+    <row r="18" spans="6:88" ht="15.75" customHeight="1">
+      <c r="F18" s="298"/>
+      <c r="G18" s="298"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="K18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AN18" s="138" t="s">
+      <c r="AS18" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="AO18" s="138"/>
-      <c r="AP18" s="138"/>
-      <c r="AQ18" s="138"/>
-      <c r="AR18" s="138"/>
-      <c r="AS18" s="138"/>
       <c r="AT18" s="138"/>
       <c r="AU18" s="138"/>
       <c r="AV18" s="138"/>
@@ -6752,20 +6815,20 @@
       <c r="BU18" s="138"/>
       <c r="BV18" s="138"/>
       <c r="BW18" s="138"/>
+      <c r="BX18" s="138"/>
+      <c r="BY18" s="138"/>
+      <c r="BZ18" s="138"/>
+      <c r="CA18" s="138"/>
+      <c r="CB18" s="138"/>
     </row>
-    <row r="19" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A19" s="298"/>
-      <c r="B19" s="298"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="168"/>
-      <c r="E19" s="250" t="s">
+    <row r="19" spans="6:88" ht="15.75" customHeight="1">
+      <c r="F19" s="298"/>
+      <c r="G19" s="298"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="250" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="251"/>
-      <c r="G19" s="251"/>
-      <c r="H19" s="251"/>
-      <c r="I19" s="251"/>
-      <c r="J19" s="251"/>
       <c r="K19" s="251"/>
       <c r="L19" s="251"/>
       <c r="M19" s="251"/>
@@ -6792,11 +6855,11 @@
       <c r="AH19" s="251"/>
       <c r="AI19" s="251"/>
       <c r="AJ19" s="251"/>
-      <c r="AN19" s="138"/>
-      <c r="AO19" s="138"/>
-      <c r="AP19" s="138"/>
-      <c r="AQ19" s="138"/>
-      <c r="AR19" s="138"/>
+      <c r="AK19" s="251"/>
+      <c r="AL19" s="251"/>
+      <c r="AM19" s="251"/>
+      <c r="AN19" s="251"/>
+      <c r="AO19" s="251"/>
       <c r="AS19" s="138"/>
       <c r="AT19" s="138"/>
       <c r="AU19" s="138"/>
@@ -6828,20 +6891,20 @@
       <c r="BU19" s="138"/>
       <c r="BV19" s="138"/>
       <c r="BW19" s="138"/>
+      <c r="BX19" s="138"/>
+      <c r="BY19" s="138"/>
+      <c r="BZ19" s="138"/>
+      <c r="CA19" s="138"/>
+      <c r="CB19" s="138"/>
     </row>
-    <row r="20" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A20" s="298"/>
-      <c r="B20" s="298"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="99" t="s">
+    <row r="20" spans="6:88" ht="15.75" customHeight="1">
+      <c r="F20" s="298"/>
+      <c r="G20" s="298"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
       <c r="K20" s="100"/>
       <c r="L20" s="100"/>
       <c r="M20" s="100"/>
@@ -6859,15 +6922,15 @@
       <c r="Y20" s="100"/>
       <c r="Z20" s="100"/>
       <c r="AA20" s="100"/>
-      <c r="AB20" s="101"/>
-      <c r="AC20" s="99" t="s">
-        <v>40</v>
-      </c>
+      <c r="AB20" s="100"/>
+      <c r="AC20" s="100"/>
       <c r="AD20" s="100"/>
       <c r="AE20" s="100"/>
       <c r="AF20" s="100"/>
-      <c r="AG20" s="100"/>
-      <c r="AH20" s="100"/>
+      <c r="AG20" s="101"/>
+      <c r="AH20" s="99" t="s">
+        <v>40</v>
+      </c>
       <c r="AI20" s="100"/>
       <c r="AJ20" s="100"/>
       <c r="AK20" s="100"/>
@@ -6877,199 +6940,199 @@
       <c r="AO20" s="100"/>
       <c r="AP20" s="100"/>
       <c r="AQ20" s="100"/>
-      <c r="AR20" s="101"/>
-      <c r="AS20" s="87" t="s">
+      <c r="AR20" s="100"/>
+      <c r="AS20" s="100"/>
+      <c r="AT20" s="100"/>
+      <c r="AU20" s="100"/>
+      <c r="AV20" s="100"/>
+      <c r="AW20" s="101"/>
+      <c r="AX20" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="AT20" s="88"/>
-      <c r="AU20" s="16"/>
-      <c r="AV20" s="16"/>
-      <c r="AW20" s="16"/>
-      <c r="AX20" s="23" t="s">
+      <c r="AY20" s="88"/>
+      <c r="AZ20" s="16"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="16"/>
+      <c r="BC20" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AY20" s="19"/>
-      <c r="AZ20" s="19"/>
-      <c r="BA20" s="128"/>
-      <c r="BB20" s="128"/>
-      <c r="BC20" s="128"/>
-      <c r="BD20" s="128"/>
-      <c r="BE20" s="128"/>
+      <c r="BD20" s="19"/>
+      <c r="BE20" s="19"/>
       <c r="BF20" s="128"/>
-      <c r="BG20" s="102"/>
-      <c r="BH20" s="103"/>
-      <c r="BI20" s="103"/>
-      <c r="BJ20" s="103"/>
-      <c r="BK20" s="103"/>
-      <c r="BL20" s="103"/>
+      <c r="BG20" s="128"/>
+      <c r="BH20" s="128"/>
+      <c r="BI20" s="128"/>
+      <c r="BJ20" s="128"/>
+      <c r="BK20" s="128"/>
+      <c r="BL20" s="102"/>
       <c r="BM20" s="103"/>
       <c r="BN20" s="103"/>
-      <c r="BO20" s="104"/>
+      <c r="BO20" s="103"/>
+      <c r="BP20" s="103"/>
+      <c r="BQ20" s="103"/>
+      <c r="BR20" s="103"/>
+      <c r="BS20" s="103"/>
+      <c r="BT20" s="104"/>
     </row>
-    <row r="21" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A21" s="298"/>
-      <c r="B21" s="298"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="236"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="72"/>
+    <row r="21" spans="6:88" ht="15.75" customHeight="1">
+      <c r="F21" s="298"/>
+      <c r="G21" s="298"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="169"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
       <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="172"/>
+      <c r="P21" s="236"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
       <c r="V21" s="74"/>
       <c r="W21" s="74"/>
       <c r="X21" s="74"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="80"/>
-      <c r="AC21" s="129" t="s">
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="172"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="55"/>
+      <c r="AG21" s="80"/>
+      <c r="AH21" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="AD21" s="130"/>
-      <c r="AE21" s="130"/>
-      <c r="AF21" s="131"/>
-      <c r="AG21" s="219"/>
-      <c r="AH21" s="105"/>
-      <c r="AI21" s="105"/>
-      <c r="AJ21" s="106"/>
-      <c r="AK21" s="51"/>
-      <c r="AL21" s="52"/>
+      <c r="AI21" s="130"/>
+      <c r="AJ21" s="130"/>
+      <c r="AK21" s="131"/>
+      <c r="AL21" s="219"/>
       <c r="AM21" s="105"/>
-      <c r="AN21" s="106"/>
-      <c r="AO21" s="51"/>
-      <c r="AP21" s="52"/>
+      <c r="AN21" s="105"/>
+      <c r="AO21" s="106"/>
+      <c r="AP21" s="51"/>
       <c r="AQ21" s="52"/>
-      <c r="AR21" s="137"/>
-      <c r="AS21" s="173" t="s">
+      <c r="AR21" s="105"/>
+      <c r="AS21" s="106"/>
+      <c r="AT21" s="51"/>
+      <c r="AU21" s="52"/>
+      <c r="AV21" s="52"/>
+      <c r="AW21" s="137"/>
+      <c r="AX21" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="AT21" s="174"/>
-      <c r="AU21" s="174"/>
-      <c r="AV21" s="174"/>
-      <c r="AW21" s="175"/>
-      <c r="AX21" s="21" t="s">
+      <c r="AY21" s="174"/>
+      <c r="AZ21" s="174"/>
+      <c r="BA21" s="174"/>
+      <c r="BB21" s="175"/>
+      <c r="BC21" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AY21" s="22"/>
-      <c r="AZ21" s="113"/>
-      <c r="BA21" s="113"/>
-      <c r="BB21" s="113"/>
-      <c r="BC21" s="113"/>
-      <c r="BD21" s="113"/>
+      <c r="BD21" s="22"/>
       <c r="BE21" s="113"/>
       <c r="BF21" s="113"/>
-      <c r="BG21" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="BH21" s="22"/>
+      <c r="BG21" s="113"/>
+      <c r="BH21" s="113"/>
       <c r="BI21" s="113"/>
       <c r="BJ21" s="113"/>
       <c r="BK21" s="113"/>
-      <c r="BL21" s="113"/>
-      <c r="BM21" s="113"/>
+      <c r="BL21" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="BM21" s="22"/>
       <c r="BN21" s="113"/>
-      <c r="BO21" s="114"/>
+      <c r="BO21" s="113"/>
+      <c r="BP21" s="113"/>
+      <c r="BQ21" s="113"/>
+      <c r="BR21" s="113"/>
+      <c r="BS21" s="113"/>
+      <c r="BT21" s="114"/>
     </row>
-    <row r="22" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A22" s="298"/>
-      <c r="B22" s="298"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="236"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="72"/>
+    <row r="22" spans="6:88" ht="15.75" customHeight="1">
+      <c r="F22" s="298"/>
+      <c r="G22" s="298"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="169"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
       <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="172"/>
+      <c r="P22" s="236"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
       <c r="V22" s="74"/>
       <c r="W22" s="74"/>
       <c r="X22" s="74"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="132"/>
-      <c r="AD22" s="133"/>
-      <c r="AE22" s="133"/>
-      <c r="AF22" s="134"/>
-      <c r="AG22" s="111"/>
-      <c r="AH22" s="54"/>
-      <c r="AI22" s="54"/>
-      <c r="AJ22" s="107"/>
-      <c r="AK22" s="53"/>
-      <c r="AL22" s="54"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="172"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="57"/>
+      <c r="AG22" s="81"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="133"/>
+      <c r="AJ22" s="133"/>
+      <c r="AK22" s="134"/>
+      <c r="AL22" s="111"/>
       <c r="AM22" s="54"/>
-      <c r="AN22" s="107"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="54"/>
+      <c r="AN22" s="54"/>
+      <c r="AO22" s="107"/>
+      <c r="AP22" s="53"/>
       <c r="AQ22" s="54"/>
-      <c r="AR22" s="73"/>
-      <c r="AS22" s="176"/>
-      <c r="AT22" s="177"/>
-      <c r="AU22" s="177"/>
-      <c r="AV22" s="177"/>
-      <c r="AW22" s="178"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="4"/>
-      <c r="AZ22" s="64"/>
-      <c r="BA22" s="64"/>
-      <c r="BB22" s="64"/>
-      <c r="BC22" s="64"/>
-      <c r="BD22" s="64"/>
+      <c r="AR22" s="54"/>
+      <c r="AS22" s="107"/>
+      <c r="AT22" s="53"/>
+      <c r="AU22" s="54"/>
+      <c r="AV22" s="54"/>
+      <c r="AW22" s="73"/>
+      <c r="AX22" s="176"/>
+      <c r="AY22" s="177"/>
+      <c r="AZ22" s="177"/>
+      <c r="BA22" s="177"/>
+      <c r="BB22" s="178"/>
+      <c r="BC22" s="13"/>
+      <c r="BD22" s="4"/>
       <c r="BE22" s="64"/>
       <c r="BF22" s="64"/>
-      <c r="BG22" s="13"/>
-      <c r="BH22" s="4"/>
+      <c r="BG22" s="64"/>
+      <c r="BH22" s="64"/>
       <c r="BI22" s="64"/>
       <c r="BJ22" s="64"/>
       <c r="BK22" s="64"/>
-      <c r="BL22" s="64"/>
-      <c r="BM22" s="64"/>
+      <c r="BL22" s="13"/>
+      <c r="BM22" s="4"/>
       <c r="BN22" s="64"/>
-      <c r="BO22" s="115"/>
+      <c r="BO22" s="64"/>
+      <c r="BP22" s="64"/>
+      <c r="BQ22" s="64"/>
+      <c r="BR22" s="64"/>
+      <c r="BS22" s="64"/>
+      <c r="BT22" s="115"/>
     </row>
-    <row r="23" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A23" s="298"/>
-      <c r="B23" s="298"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="289" t="s">
+    <row r="23" spans="6:88" ht="15.75" customHeight="1">
+      <c r="F23" s="298"/>
+      <c r="G23" s="298"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="289" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="290"/>
-      <c r="G23" s="291"/>
-      <c r="H23" s="48" t="s">
+      <c r="K23" s="290"/>
+      <c r="L23" s="291"/>
+      <c r="M23" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
       <c r="N23" s="49"/>
       <c r="O23" s="49"/>
       <c r="P23" s="49"/>
@@ -7077,15 +7140,15 @@
       <c r="R23" s="49"/>
       <c r="S23" s="49"/>
       <c r="T23" s="49"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="48" t="s">
-        <v>58</v>
-      </c>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
       <c r="W23" s="49"/>
       <c r="X23" s="49"/>
       <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
+      <c r="Z23" s="50"/>
+      <c r="AA23" s="48" t="s">
+        <v>58</v>
+      </c>
       <c r="AB23" s="49"/>
       <c r="AC23" s="49"/>
       <c r="AD23" s="49"/>
@@ -7123,15 +7186,15 @@
       <c r="BJ23" s="49"/>
       <c r="BK23" s="49"/>
       <c r="BL23" s="49"/>
-      <c r="BM23" s="50"/>
-      <c r="BN23" s="99" t="s">
+      <c r="BM23" s="49"/>
+      <c r="BN23" s="49"/>
+      <c r="BO23" s="49"/>
+      <c r="BP23" s="49"/>
+      <c r="BQ23" s="49"/>
+      <c r="BR23" s="50"/>
+      <c r="BS23" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="BO23" s="100"/>
-      <c r="BP23" s="100"/>
-      <c r="BQ23" s="100"/>
-      <c r="BR23" s="100"/>
-      <c r="BS23" s="100"/>
       <c r="BT23" s="100"/>
       <c r="BU23" s="100"/>
       <c r="BV23" s="100"/>
@@ -7140,53 +7203,53 @@
       <c r="BY23" s="100"/>
       <c r="BZ23" s="100"/>
       <c r="CA23" s="100"/>
-      <c r="CB23" s="101"/>
+      <c r="CB23" s="100"/>
+      <c r="CC23" s="100"/>
+      <c r="CD23" s="100"/>
+      <c r="CE23" s="100"/>
+      <c r="CF23" s="100"/>
+      <c r="CG23" s="101"/>
     </row>
-    <row r="24" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A24" s="298"/>
-      <c r="B24" s="298"/>
-      <c r="C24" s="168"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="292"/>
-      <c r="H24" s="237"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="154"/>
-      <c r="U24" s="80"/>
-      <c r="V24" s="258" t="s">
+    <row r="24" spans="6:88" ht="15.75" customHeight="1">
+      <c r="F24" s="298"/>
+      <c r="G24" s="298"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="292"/>
+      <c r="M24" s="237"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="154"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="154"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="154"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="154"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="154"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="258" t="s">
         <v>18</v>
       </c>
-      <c r="W24" s="259"/>
-      <c r="X24" s="259"/>
-      <c r="Y24" s="259"/>
-      <c r="Z24" s="259"/>
-      <c r="AA24" s="259"/>
       <c r="AB24" s="259"/>
       <c r="AC24" s="259"/>
       <c r="AD24" s="259"/>
-      <c r="AE24" s="260"/>
-      <c r="AF24" s="280" t="s">
+      <c r="AE24" s="259"/>
+      <c r="AF24" s="259"/>
+      <c r="AG24" s="259"/>
+      <c r="AH24" s="259"/>
+      <c r="AI24" s="259"/>
+      <c r="AJ24" s="260"/>
+      <c r="AK24" s="280" t="s">
         <v>15</v>
       </c>
-      <c r="AG24" s="281"/>
-      <c r="AH24" s="281"/>
-      <c r="AI24" s="281"/>
-      <c r="AJ24" s="243"/>
-      <c r="AK24" s="243"/>
-      <c r="AL24" s="243"/>
-      <c r="AM24" s="243"/>
-      <c r="AN24" s="243"/>
+      <c r="AL24" s="281"/>
+      <c r="AM24" s="281"/>
+      <c r="AN24" s="281"/>
       <c r="AO24" s="243"/>
       <c r="AP24" s="243"/>
       <c r="AQ24" s="243"/>
@@ -7211,63 +7274,63 @@
       <c r="BJ24" s="243"/>
       <c r="BK24" s="243"/>
       <c r="BL24" s="243"/>
-      <c r="BM24" s="244"/>
-      <c r="BN24" s="245" t="s">
+      <c r="BM24" s="243"/>
+      <c r="BN24" s="243"/>
+      <c r="BO24" s="243"/>
+      <c r="BP24" s="243"/>
+      <c r="BQ24" s="243"/>
+      <c r="BR24" s="244"/>
+      <c r="BS24" s="245" t="s">
         <v>57</v>
       </c>
-      <c r="BO24" s="246"/>
-      <c r="BP24" s="247"/>
-      <c r="BQ24" s="238"/>
-      <c r="BR24" s="253"/>
-      <c r="BS24" s="240"/>
-      <c r="BT24" s="242"/>
-      <c r="BU24" s="238"/>
-      <c r="BV24" s="253"/>
-      <c r="BW24" s="240"/>
-      <c r="BX24" s="242"/>
-      <c r="BY24" s="238"/>
-      <c r="BZ24" s="253"/>
-      <c r="CA24" s="240"/>
-      <c r="CB24" s="242"/>
+      <c r="BT24" s="246"/>
+      <c r="BU24" s="247"/>
+      <c r="BV24" s="238"/>
+      <c r="BW24" s="253"/>
+      <c r="BX24" s="240"/>
+      <c r="BY24" s="242"/>
+      <c r="BZ24" s="238"/>
+      <c r="CA24" s="253"/>
+      <c r="CB24" s="240"/>
+      <c r="CC24" s="242"/>
+      <c r="CD24" s="238"/>
+      <c r="CE24" s="253"/>
+      <c r="CF24" s="240"/>
+      <c r="CG24" s="242"/>
     </row>
-    <row r="25" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A25" s="298"/>
-      <c r="B25" s="298"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="292"/>
-      <c r="H25" s="238"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="240"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="240"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="240"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="240"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="240"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="240"/>
-      <c r="U25" s="242"/>
-      <c r="V25" s="254"/>
-      <c r="W25" s="255"/>
-      <c r="X25" s="261"/>
-      <c r="Y25" s="255"/>
-      <c r="Z25" s="261"/>
-      <c r="AA25" s="255"/>
-      <c r="AB25" s="261"/>
-      <c r="AC25" s="255"/>
-      <c r="AD25" s="261"/>
-      <c r="AE25" s="282"/>
-      <c r="AF25" s="263"/>
-      <c r="AG25" s="211"/>
-      <c r="AH25" s="211"/>
-      <c r="AI25" s="211"/>
-      <c r="AJ25" s="211"/>
-      <c r="AK25" s="211"/>
+    <row r="25" spans="6:88" ht="15.75" customHeight="1">
+      <c r="F25" s="298"/>
+      <c r="G25" s="298"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="292"/>
+      <c r="M25" s="238"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="240"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="240"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="240"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="240"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="240"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="240"/>
+      <c r="Z25" s="242"/>
+      <c r="AA25" s="254"/>
+      <c r="AB25" s="255"/>
+      <c r="AC25" s="261"/>
+      <c r="AD25" s="255"/>
+      <c r="AE25" s="261"/>
+      <c r="AF25" s="255"/>
+      <c r="AG25" s="261"/>
+      <c r="AH25" s="255"/>
+      <c r="AI25" s="261"/>
+      <c r="AJ25" s="282"/>
+      <c r="AK25" s="263"/>
       <c r="AL25" s="211"/>
       <c r="AM25" s="211"/>
       <c r="AN25" s="211"/>
@@ -7295,61 +7358,61 @@
       <c r="BJ25" s="211"/>
       <c r="BK25" s="211"/>
       <c r="BL25" s="211"/>
-      <c r="BM25" s="212"/>
-      <c r="BN25" s="245"/>
-      <c r="BO25" s="246"/>
-      <c r="BP25" s="247"/>
-      <c r="BQ25" s="238"/>
-      <c r="BR25" s="253"/>
-      <c r="BS25" s="240"/>
-      <c r="BT25" s="242"/>
-      <c r="BU25" s="238"/>
-      <c r="BV25" s="253"/>
-      <c r="BW25" s="240"/>
-      <c r="BX25" s="242"/>
-      <c r="BY25" s="238"/>
-      <c r="BZ25" s="253"/>
-      <c r="CA25" s="240"/>
-      <c r="CB25" s="242"/>
+      <c r="BM25" s="211"/>
+      <c r="BN25" s="211"/>
+      <c r="BO25" s="211"/>
+      <c r="BP25" s="211"/>
+      <c r="BQ25" s="211"/>
+      <c r="BR25" s="212"/>
+      <c r="BS25" s="245"/>
+      <c r="BT25" s="246"/>
+      <c r="BU25" s="247"/>
+      <c r="BV25" s="238"/>
+      <c r="BW25" s="253"/>
+      <c r="BX25" s="240"/>
+      <c r="BY25" s="242"/>
+      <c r="BZ25" s="238"/>
+      <c r="CA25" s="253"/>
+      <c r="CB25" s="240"/>
+      <c r="CC25" s="242"/>
+      <c r="CD25" s="238"/>
+      <c r="CE25" s="253"/>
+      <c r="CF25" s="240"/>
+      <c r="CG25" s="242"/>
     </row>
-    <row r="26" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A26" s="298"/>
-      <c r="B26" s="298"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="293"/>
-      <c r="H26" s="239"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="241"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="241"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="241"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="241"/>
-      <c r="Q26" s="53"/>
-      <c r="R26" s="241"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="241"/>
-      <c r="U26" s="81"/>
-      <c r="V26" s="256"/>
-      <c r="W26" s="257"/>
-      <c r="X26" s="262"/>
-      <c r="Y26" s="257"/>
-      <c r="Z26" s="262"/>
-      <c r="AA26" s="257"/>
-      <c r="AB26" s="262"/>
-      <c r="AC26" s="257"/>
-      <c r="AD26" s="262"/>
-      <c r="AE26" s="283"/>
-      <c r="AF26" s="264"/>
-      <c r="AG26" s="265"/>
-      <c r="AH26" s="265"/>
-      <c r="AI26" s="265"/>
-      <c r="AJ26" s="265"/>
-      <c r="AK26" s="265"/>
+    <row r="26" spans="6:88" ht="15.75" customHeight="1">
+      <c r="F26" s="298"/>
+      <c r="G26" s="298"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="293"/>
+      <c r="M26" s="239"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="241"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="241"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="241"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="241"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="241"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="241"/>
+      <c r="Z26" s="81"/>
+      <c r="AA26" s="256"/>
+      <c r="AB26" s="257"/>
+      <c r="AC26" s="262"/>
+      <c r="AD26" s="257"/>
+      <c r="AE26" s="262"/>
+      <c r="AF26" s="257"/>
+      <c r="AG26" s="262"/>
+      <c r="AH26" s="257"/>
+      <c r="AI26" s="262"/>
+      <c r="AJ26" s="283"/>
+      <c r="AK26" s="264"/>
       <c r="AL26" s="265"/>
       <c r="AM26" s="265"/>
       <c r="AN26" s="265"/>
@@ -7377,47 +7440,47 @@
       <c r="BJ26" s="265"/>
       <c r="BK26" s="265"/>
       <c r="BL26" s="265"/>
-      <c r="BM26" s="266"/>
-      <c r="BN26" s="245"/>
-      <c r="BO26" s="246"/>
-      <c r="BP26" s="247"/>
-      <c r="BQ26" s="238"/>
-      <c r="BR26" s="253"/>
-      <c r="BS26" s="240"/>
-      <c r="BT26" s="252"/>
-      <c r="BU26" s="238"/>
-      <c r="BV26" s="253"/>
-      <c r="BW26" s="240"/>
-      <c r="BX26" s="252"/>
-      <c r="BY26" s="238"/>
-      <c r="BZ26" s="253"/>
-      <c r="CA26" s="240"/>
-      <c r="CB26" s="252"/>
+      <c r="BM26" s="265"/>
+      <c r="BN26" s="265"/>
+      <c r="BO26" s="265"/>
+      <c r="BP26" s="265"/>
+      <c r="BQ26" s="265"/>
+      <c r="BR26" s="266"/>
+      <c r="BS26" s="245"/>
+      <c r="BT26" s="246"/>
+      <c r="BU26" s="247"/>
+      <c r="BV26" s="238"/>
+      <c r="BW26" s="253"/>
+      <c r="BX26" s="240"/>
+      <c r="BY26" s="252"/>
+      <c r="BZ26" s="238"/>
+      <c r="CA26" s="253"/>
+      <c r="CB26" s="240"/>
+      <c r="CC26" s="252"/>
+      <c r="CD26" s="238"/>
+      <c r="CE26" s="253"/>
+      <c r="CF26" s="240"/>
+      <c r="CG26" s="252"/>
     </row>
-    <row r="27" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A27" s="298"/>
-      <c r="B27" s="298"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="89" t="s">
+    <row r="27" spans="6:88" ht="15.75" customHeight="1">
+      <c r="F27" s="298"/>
+      <c r="G27" s="298"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="168"/>
+      <c r="J27" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="45" t="s">
+      <c r="K27" s="90"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="294"/>
-      <c r="O27" s="217"/>
-      <c r="P27" s="217"/>
-      <c r="Q27" s="217"/>
-      <c r="R27" s="217"/>
-      <c r="S27" s="217"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="294"/>
       <c r="T27" s="217"/>
       <c r="U27" s="217"/>
       <c r="V27" s="217"/>
@@ -7457,20 +7520,20 @@
       <c r="BD27" s="217"/>
       <c r="BE27" s="217"/>
       <c r="BF27" s="217"/>
-      <c r="BG27" s="295"/>
-      <c r="BH27" s="39" t="s">
+      <c r="BG27" s="217"/>
+      <c r="BH27" s="217"/>
+      <c r="BI27" s="217"/>
+      <c r="BJ27" s="217"/>
+      <c r="BK27" s="217"/>
+      <c r="BL27" s="295"/>
+      <c r="BM27" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="BI27" s="40"/>
-      <c r="BJ27" s="41"/>
-      <c r="BK27" s="299" t="s">
-        <v>59</v>
+      <c r="BN27" s="40"/>
+      <c r="BO27" s="41"/>
+      <c r="BP27" s="299" t="s">
+        <v>60</v>
       </c>
-      <c r="BL27" s="300"/>
-      <c r="BM27" s="300"/>
-      <c r="BN27" s="300"/>
-      <c r="BO27" s="300"/>
-      <c r="BP27" s="300"/>
       <c r="BQ27" s="300"/>
       <c r="BR27" s="300"/>
       <c r="BS27" s="300"/>
@@ -7484,33 +7547,33 @@
       <c r="CA27" s="300"/>
       <c r="CB27" s="300"/>
       <c r="CC27" s="300"/>
-      <c r="CD27" s="301"/>
-      <c r="CE27" s="1" t="s">
+      <c r="CD27" s="300"/>
+      <c r="CE27" s="300"/>
+      <c r="CF27" s="300"/>
+      <c r="CG27" s="300"/>
+      <c r="CH27" s="300"/>
+      <c r="CI27" s="301"/>
+      <c r="CJ27" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:83" ht="22.5" customHeight="1">
-      <c r="A28" s="298"/>
-      <c r="B28" s="298"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="82" t="s">
+    <row r="28" spans="6:88" ht="22.5" customHeight="1">
+      <c r="F28" s="298"/>
+      <c r="G28" s="298"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="296"/>
-      <c r="O28" s="214"/>
-      <c r="P28" s="214"/>
-      <c r="Q28" s="214"/>
-      <c r="R28" s="214"/>
-      <c r="S28" s="214"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="296"/>
       <c r="T28" s="214"/>
       <c r="U28" s="214"/>
       <c r="V28" s="214"/>
@@ -7550,16 +7613,16 @@
       <c r="BD28" s="214"/>
       <c r="BE28" s="214"/>
       <c r="BF28" s="214"/>
-      <c r="BG28" s="297"/>
-      <c r="BH28" s="42"/>
-      <c r="BI28" s="43"/>
-      <c r="BJ28" s="44"/>
-      <c r="BK28" s="302"/>
-      <c r="BL28" s="303"/>
-      <c r="BM28" s="303"/>
-      <c r="BN28" s="303"/>
-      <c r="BO28" s="303"/>
-      <c r="BP28" s="303"/>
+      <c r="BG28" s="214"/>
+      <c r="BH28" s="214"/>
+      <c r="BI28" s="214"/>
+      <c r="BJ28" s="214"/>
+      <c r="BK28" s="214"/>
+      <c r="BL28" s="297"/>
+      <c r="BM28" s="42"/>
+      <c r="BN28" s="43"/>
+      <c r="BO28" s="44"/>
+      <c r="BP28" s="302"/>
       <c r="BQ28" s="303"/>
       <c r="BR28" s="303"/>
       <c r="BS28" s="303"/>
@@ -7573,18 +7636,18 @@
       <c r="CA28" s="303"/>
       <c r="CB28" s="303"/>
       <c r="CC28" s="303"/>
-      <c r="CD28" s="304"/>
+      <c r="CD28" s="303"/>
+      <c r="CE28" s="303"/>
+      <c r="CF28" s="303"/>
+      <c r="CG28" s="303"/>
+      <c r="CH28" s="303"/>
+      <c r="CI28" s="304"/>
     </row>
-    <row r="29" spans="1:83" ht="10.5" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+    <row r="29" spans="6:88" ht="10.5" customHeight="1">
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
@@ -7635,17 +7698,17 @@
       <c r="BE29" s="14"/>
       <c r="BF29" s="14"/>
       <c r="BG29" s="14"/>
-      <c r="BH29" s="9"/>
-      <c r="BI29" s="9"/>
-      <c r="BJ29" s="9"/>
-      <c r="BK29" s="9"/>
-      <c r="BL29" s="9"/>
+      <c r="BH29" s="14"/>
+      <c r="BI29" s="14"/>
+      <c r="BJ29" s="14"/>
+      <c r="BK29" s="14"/>
+      <c r="BL29" s="14"/>
       <c r="BM29" s="9"/>
+      <c r="BN29" s="9"/>
+      <c r="BO29" s="9"/>
+      <c r="BP29" s="9"/>
       <c r="BQ29" s="9"/>
       <c r="BR29" s="9"/>
-      <c r="BS29" s="9"/>
-      <c r="BT29" s="9"/>
-      <c r="BU29" s="9"/>
       <c r="BV29" s="9"/>
       <c r="BW29" s="9"/>
       <c r="BX29" s="9"/>
@@ -7653,17 +7716,17 @@
       <c r="BZ29" s="9"/>
       <c r="CA29" s="9"/>
       <c r="CB29" s="9"/>
+      <c r="CC29" s="9"/>
+      <c r="CD29" s="9"/>
+      <c r="CE29" s="9"/>
+      <c r="CF29" s="9"/>
+      <c r="CG29" s="9"/>
     </row>
-    <row r="30" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
+    <row r="30" spans="6:88" ht="15.75" customHeight="1">
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
@@ -7683,31 +7746,31 @@
       <c r="Z30"/>
       <c r="AA30"/>
       <c r="AB30"/>
-      <c r="BQ30" s="258" t="s">
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="BV30" s="258" t="s">
         <v>43</v>
       </c>
-      <c r="BR30" s="259"/>
-      <c r="BS30" s="259"/>
-      <c r="BT30" s="259"/>
-      <c r="BU30" s="259"/>
-      <c r="BV30" s="259"/>
       <c r="BW30" s="259"/>
       <c r="BX30" s="259"/>
       <c r="BY30" s="259"/>
       <c r="BZ30" s="259"/>
       <c r="CA30" s="259"/>
-      <c r="CB30" s="260"/>
+      <c r="CB30" s="259"/>
+      <c r="CC30" s="259"/>
+      <c r="CD30" s="259"/>
+      <c r="CE30" s="259"/>
+      <c r="CF30" s="259"/>
+      <c r="CG30" s="260"/>
     </row>
-    <row r="31" spans="1:83" ht="15.75" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="284" t="s">
+    <row r="31" spans="6:88" ht="15.75" customHeight="1">
+      <c r="F31" s="20"/>
+      <c r="G31" s="284" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="285"/>
-      <c r="D31" s="285"/>
-      <c r="E31" s="285"/>
-      <c r="F31" s="285"/>
-      <c r="G31" s="285"/>
       <c r="H31" s="285"/>
       <c r="I31" s="285"/>
       <c r="J31" s="285"/>
@@ -7728,15 +7791,15 @@
       <c r="Y31" s="285"/>
       <c r="Z31" s="285"/>
       <c r="AA31" s="285"/>
-      <c r="AB31" s="286"/>
-      <c r="AU31" s="305" t="s">
+      <c r="AB31" s="285"/>
+      <c r="AC31" s="285"/>
+      <c r="AD31" s="285"/>
+      <c r="AE31" s="285"/>
+      <c r="AF31" s="285"/>
+      <c r="AG31" s="286"/>
+      <c r="AZ31" s="305" t="s">
         <v>48</v>
       </c>
-      <c r="AV31" s="305"/>
-      <c r="AW31" s="305"/>
-      <c r="AX31" s="305"/>
-      <c r="AY31" s="305"/>
-      <c r="AZ31" s="305"/>
       <c r="BA31" s="305"/>
       <c r="BB31" s="305"/>
       <c r="BC31" s="305"/>
@@ -7751,29 +7814,29 @@
       <c r="BL31" s="305"/>
       <c r="BM31" s="305"/>
       <c r="BN31" s="305"/>
-      <c r="BQ31" s="48"/>
-      <c r="BR31" s="49"/>
-      <c r="BS31" s="49"/>
-      <c r="BT31" s="49"/>
-      <c r="BU31" s="49"/>
-      <c r="BV31" s="49"/>
+      <c r="BO31" s="305"/>
+      <c r="BP31" s="305"/>
+      <c r="BQ31" s="305"/>
+      <c r="BR31" s="305"/>
+      <c r="BS31" s="305"/>
+      <c r="BV31" s="48"/>
       <c r="BW31" s="49"/>
       <c r="BX31" s="49"/>
       <c r="BY31" s="49"/>
       <c r="BZ31" s="49"/>
       <c r="CA31" s="49"/>
-      <c r="CB31" s="50"/>
+      <c r="CB31" s="49"/>
+      <c r="CC31" s="49"/>
+      <c r="CD31" s="49"/>
+      <c r="CE31" s="49"/>
+      <c r="CF31" s="49"/>
+      <c r="CG31" s="50"/>
     </row>
-    <row r="32" spans="1:83" ht="21" customHeight="1">
-      <c r="A32" s="25"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+    <row r="32" spans="6:88" ht="21" customHeight="1">
+      <c r="F32" s="25"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
@@ -7792,46 +7855,46 @@
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
-      <c r="AB32" s="32"/>
-      <c r="BA32" s="24"/>
-      <c r="BB32" s="24"/>
-      <c r="BE32" s="24"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="32"/>
       <c r="BF32" s="24"/>
-      <c r="BI32" s="24"/>
+      <c r="BG32" s="24"/>
       <c r="BJ32" s="24"/>
-      <c r="BQ32" s="267"/>
-      <c r="BR32" s="268"/>
-      <c r="BS32" s="268"/>
-      <c r="BT32" s="268"/>
-      <c r="BU32" s="268"/>
-      <c r="BV32" s="268"/>
+      <c r="BK32" s="24"/>
+      <c r="BN32" s="24"/>
+      <c r="BO32" s="24"/>
+      <c r="BV32" s="267"/>
       <c r="BW32" s="268"/>
       <c r="BX32" s="268"/>
       <c r="BY32" s="268"/>
       <c r="BZ32" s="268"/>
       <c r="CA32" s="268"/>
-      <c r="CB32" s="269"/>
+      <c r="CB32" s="268"/>
+      <c r="CC32" s="268"/>
+      <c r="CD32" s="268"/>
+      <c r="CE32" s="268"/>
+      <c r="CF32" s="268"/>
+      <c r="CG32" s="269"/>
     </row>
-    <row r="33" spans="1:81" ht="21" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="270" t="s">
+    <row r="33" spans="6:86" ht="21" customHeight="1">
+      <c r="F33" s="20"/>
+      <c r="G33" s="270" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="271"/>
-      <c r="D33" s="29" t="s">
+      <c r="H33" s="271"/>
+      <c r="I33" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="277"/>
-      <c r="L33" s="277"/>
-      <c r="M33" s="277"/>
-      <c r="N33" s="277"/>
-      <c r="O33" s="277"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
       <c r="P33" s="277"/>
       <c r="Q33" s="277"/>
       <c r="R33" s="277"/>
@@ -7844,14 +7907,14 @@
       <c r="Y33" s="277"/>
       <c r="Z33" s="277"/>
       <c r="AA33" s="277"/>
-      <c r="AB33" s="278"/>
-      <c r="AG33" s="58"/>
-      <c r="AH33" s="58"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
-      <c r="AL33" s="9"/>
-      <c r="AM33" s="9"/>
+      <c r="AB33" s="277"/>
+      <c r="AC33" s="277"/>
+      <c r="AD33" s="277"/>
+      <c r="AE33" s="277"/>
+      <c r="AF33" s="277"/>
+      <c r="AG33" s="278"/>
+      <c r="AL33" s="58"/>
+      <c r="AM33" s="58"/>
       <c r="AN33" s="9"/>
       <c r="AO33" s="9"/>
       <c r="AP33" s="9"/>
@@ -7863,11 +7926,11 @@
       <c r="AV33" s="9"/>
       <c r="AW33" s="9"/>
       <c r="AX33" s="9"/>
-      <c r="AY33" s="2"/>
-      <c r="AZ33" s="2"/>
-      <c r="BA33" s="2"/>
-      <c r="BB33" s="2"/>
-      <c r="BC33" s="2"/>
+      <c r="AY33" s="9"/>
+      <c r="AZ33" s="9"/>
+      <c r="BA33" s="9"/>
+      <c r="BB33" s="9"/>
+      <c r="BC33" s="9"/>
       <c r="BD33" s="2"/>
       <c r="BE33" s="2"/>
       <c r="BF33" s="2"/>
@@ -7875,37 +7938,37 @@
       <c r="BH33" s="2"/>
       <c r="BI33" s="2"/>
       <c r="BJ33" s="2"/>
-      <c r="BQ33" s="267"/>
-      <c r="BR33" s="268"/>
-      <c r="BS33" s="268"/>
-      <c r="BT33" s="268"/>
-      <c r="BU33" s="268"/>
-      <c r="BV33" s="268"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="2"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2"/>
+      <c r="BV33" s="267"/>
       <c r="BW33" s="268"/>
       <c r="BX33" s="268"/>
       <c r="BY33" s="268"/>
       <c r="BZ33" s="268"/>
       <c r="CA33" s="268"/>
-      <c r="CB33" s="269"/>
+      <c r="CB33" s="268"/>
+      <c r="CC33" s="268"/>
+      <c r="CD33" s="268"/>
+      <c r="CE33" s="268"/>
+      <c r="CF33" s="268"/>
+      <c r="CG33" s="269"/>
     </row>
-    <row r="34" spans="1:81" ht="21" customHeight="1">
-      <c r="A34" s="20"/>
-      <c r="B34" s="272"/>
-      <c r="C34" s="271"/>
-      <c r="D34" s="29" t="s">
+    <row r="34" spans="6:86" ht="21" customHeight="1">
+      <c r="F34" s="20"/>
+      <c r="G34" s="272"/>
+      <c r="H34" s="271"/>
+      <c r="I34" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="277"/>
-      <c r="L34" s="277"/>
-      <c r="M34" s="277"/>
-      <c r="N34" s="277"/>
-      <c r="O34" s="277"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
       <c r="P34" s="277"/>
       <c r="Q34" s="277"/>
       <c r="R34" s="277"/>
@@ -7918,26 +7981,26 @@
       <c r="Y34" s="277"/>
       <c r="Z34" s="277"/>
       <c r="AA34" s="277"/>
-      <c r="AB34" s="278"/>
-      <c r="AG34" s="58"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="48"/>
-      <c r="AJ34" s="49"/>
-      <c r="AK34" s="49"/>
-      <c r="AL34" s="49"/>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="49"/>
+      <c r="AB34" s="277"/>
+      <c r="AC34" s="277"/>
+      <c r="AD34" s="277"/>
+      <c r="AE34" s="277"/>
+      <c r="AF34" s="277"/>
+      <c r="AG34" s="278"/>
+      <c r="AL34" s="58"/>
+      <c r="AM34" s="58"/>
+      <c r="AN34" s="48"/>
       <c r="AO34" s="49"/>
       <c r="AP34" s="49"/>
       <c r="AQ34" s="49"/>
       <c r="AR34" s="49"/>
       <c r="AS34" s="49"/>
-      <c r="AT34" s="50"/>
-      <c r="AU34" s="9"/>
-      <c r="AV34" s="9"/>
-      <c r="AW34" s="9"/>
-      <c r="AX34" s="9"/>
-      <c r="AY34" s="9"/>
+      <c r="AT34" s="49"/>
+      <c r="AU34" s="49"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="50"/>
       <c r="AZ34" s="9"/>
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
@@ -7949,37 +8012,37 @@
       <c r="BH34" s="9"/>
       <c r="BI34" s="9"/>
       <c r="BJ34" s="9"/>
-      <c r="BQ34" s="267"/>
-      <c r="BR34" s="268"/>
-      <c r="BS34" s="268"/>
-      <c r="BT34" s="268"/>
-      <c r="BU34" s="268"/>
-      <c r="BV34" s="268"/>
+      <c r="BK34" s="9"/>
+      <c r="BL34" s="9"/>
+      <c r="BM34" s="9"/>
+      <c r="BN34" s="9"/>
+      <c r="BO34" s="9"/>
+      <c r="BV34" s="267"/>
       <c r="BW34" s="268"/>
       <c r="BX34" s="268"/>
       <c r="BY34" s="268"/>
       <c r="BZ34" s="268"/>
       <c r="CA34" s="268"/>
-      <c r="CB34" s="269"/>
+      <c r="CB34" s="268"/>
+      <c r="CC34" s="268"/>
+      <c r="CD34" s="268"/>
+      <c r="CE34" s="268"/>
+      <c r="CF34" s="268"/>
+      <c r="CG34" s="269"/>
     </row>
-    <row r="35" spans="1:81" ht="21" customHeight="1">
-      <c r="A35" s="20"/>
-      <c r="B35" s="272"/>
-      <c r="C35" s="271"/>
-      <c r="D35" s="29" t="s">
+    <row r="35" spans="6:86" ht="21" customHeight="1">
+      <c r="F35" s="20"/>
+      <c r="G35" s="272"/>
+      <c r="H35" s="271"/>
+      <c r="I35" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="277"/>
-      <c r="L35" s="277"/>
-      <c r="M35" s="277"/>
-      <c r="N35" s="277"/>
-      <c r="O35" s="277"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
       <c r="P35" s="277"/>
       <c r="Q35" s="277"/>
       <c r="R35" s="277"/>
@@ -7991,18 +8054,18 @@
       <c r="X35" s="277"/>
       <c r="Y35" s="277"/>
       <c r="Z35" s="277"/>
-      <c r="AA35" s="35" t="s">
+      <c r="AA35" s="277"/>
+      <c r="AB35" s="277"/>
+      <c r="AC35" s="277"/>
+      <c r="AD35" s="277"/>
+      <c r="AE35" s="277"/>
+      <c r="AF35" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AB35" s="3"/>
-      <c r="AG35" s="58"/>
-      <c r="AH35" s="58"/>
-      <c r="AI35" s="59"/>
-      <c r="AJ35" s="60"/>
-      <c r="AK35" s="60"/>
-      <c r="AL35" s="60"/>
-      <c r="AM35" s="60"/>
-      <c r="AN35" s="60"/>
+      <c r="AG35" s="3"/>
+      <c r="AL35" s="58"/>
+      <c r="AM35" s="58"/>
+      <c r="AN35" s="59"/>
       <c r="AO35" s="60"/>
       <c r="AP35" s="60"/>
       <c r="AQ35" s="60"/>
@@ -8020,48 +8083,48 @@
       <c r="BC35" s="60"/>
       <c r="BD35" s="60"/>
       <c r="BE35" s="60"/>
-      <c r="BF35" s="259" t="s">
+      <c r="BF35" s="60"/>
+      <c r="BG35" s="60"/>
+      <c r="BH35" s="60"/>
+      <c r="BI35" s="60"/>
+      <c r="BJ35" s="60"/>
+      <c r="BK35" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="BG35" s="36"/>
-      <c r="BH35" s="36"/>
-      <c r="BI35" s="37"/>
-      <c r="BJ35" s="9"/>
-      <c r="BK35" s="2"/>
-      <c r="BN35"/>
-      <c r="BO35"/>
-      <c r="BP35"/>
-      <c r="BQ35" s="267"/>
-      <c r="BR35" s="268"/>
-      <c r="BS35" s="268"/>
-      <c r="BT35" s="268"/>
-      <c r="BU35" s="268"/>
-      <c r="BV35" s="268"/>
+      <c r="BL35" s="36"/>
+      <c r="BM35" s="36"/>
+      <c r="BN35" s="37"/>
+      <c r="BO35" s="9"/>
+      <c r="BP35" s="2"/>
+      <c r="BS35"/>
+      <c r="BT35"/>
+      <c r="BU35"/>
+      <c r="BV35" s="267"/>
       <c r="BW35" s="268"/>
       <c r="BX35" s="268"/>
       <c r="BY35" s="268"/>
       <c r="BZ35" s="268"/>
       <c r="CA35" s="268"/>
-      <c r="CB35" s="269"/>
+      <c r="CB35" s="268"/>
+      <c r="CC35" s="268"/>
+      <c r="CD35" s="268"/>
+      <c r="CE35" s="268"/>
+      <c r="CF35" s="268"/>
+      <c r="CG35" s="269"/>
     </row>
-    <row r="36" spans="1:81" ht="12.75" customHeight="1">
-      <c r="A36" s="20"/>
-      <c r="B36" s="272"/>
-      <c r="C36" s="271"/>
-      <c r="D36" s="275" t="s">
+    <row r="36" spans="6:86" ht="12.75" customHeight="1">
+      <c r="F36" s="20"/>
+      <c r="G36" s="272"/>
+      <c r="H36" s="271"/>
+      <c r="I36" s="275" t="s">
         <v>56</v>
       </c>
-      <c r="E36" s="275"/>
-      <c r="F36" s="275"/>
-      <c r="G36" s="275"/>
-      <c r="H36" s="275"/>
-      <c r="I36" s="275"/>
       <c r="J36" s="275"/>
-      <c r="K36" s="277"/>
-      <c r="L36" s="277"/>
-      <c r="M36" s="277"/>
-      <c r="N36" s="277"/>
-      <c r="O36" s="277"/>
+      <c r="K36" s="275"/>
+      <c r="L36" s="275"/>
+      <c r="M36" s="275"/>
+      <c r="N36" s="275"/>
+      <c r="O36" s="275"/>
       <c r="P36" s="277"/>
       <c r="Q36" s="277"/>
       <c r="R36" s="277"/>
@@ -8074,15 +8137,15 @@
       <c r="Y36" s="277"/>
       <c r="Z36" s="277"/>
       <c r="AA36" s="277"/>
-      <c r="AB36" s="278"/>
-      <c r="AG36" s="58"/>
-      <c r="AH36" s="58"/>
-      <c r="AI36" s="61"/>
-      <c r="AJ36" s="62"/>
-      <c r="AK36" s="62"/>
-      <c r="AL36" s="62"/>
-      <c r="AM36" s="62"/>
-      <c r="AN36" s="62"/>
+      <c r="AB36" s="277"/>
+      <c r="AC36" s="277"/>
+      <c r="AD36" s="277"/>
+      <c r="AE36" s="277"/>
+      <c r="AF36" s="277"/>
+      <c r="AG36" s="278"/>
+      <c r="AL36" s="58"/>
+      <c r="AM36" s="58"/>
+      <c r="AN36" s="61"/>
       <c r="AO36" s="62"/>
       <c r="AP36" s="62"/>
       <c r="AQ36" s="62"/>
@@ -8100,43 +8163,43 @@
       <c r="BC36" s="62"/>
       <c r="BD36" s="62"/>
       <c r="BE36" s="62"/>
-      <c r="BF36" s="287"/>
-      <c r="BG36" s="9"/>
-      <c r="BH36" s="9"/>
-      <c r="BI36" s="38"/>
-      <c r="BJ36" s="9"/>
-      <c r="BN36"/>
-      <c r="BO36"/>
-      <c r="BP36"/>
-      <c r="BQ36" s="267"/>
-      <c r="BR36" s="268"/>
-      <c r="BS36" s="268"/>
-      <c r="BT36" s="268"/>
-      <c r="BU36" s="268"/>
-      <c r="BV36" s="268"/>
+      <c r="BF36" s="62"/>
+      <c r="BG36" s="62"/>
+      <c r="BH36" s="62"/>
+      <c r="BI36" s="62"/>
+      <c r="BJ36" s="62"/>
+      <c r="BK36" s="287"/>
+      <c r="BL36" s="9"/>
+      <c r="BM36" s="9"/>
+      <c r="BN36" s="38"/>
+      <c r="BO36" s="9"/>
+      <c r="BS36"/>
+      <c r="BT36"/>
+      <c r="BU36"/>
+      <c r="BV36" s="267"/>
       <c r="BW36" s="268"/>
       <c r="BX36" s="268"/>
       <c r="BY36" s="268"/>
       <c r="BZ36" s="268"/>
       <c r="CA36" s="268"/>
-      <c r="CB36" s="269"/>
+      <c r="CB36" s="268"/>
+      <c r="CC36" s="268"/>
+      <c r="CD36" s="268"/>
+      <c r="CE36" s="268"/>
+      <c r="CF36" s="268"/>
+      <c r="CG36" s="269"/>
     </row>
-    <row r="37" spans="1:81" ht="12.75" customHeight="1">
-      <c r="A37"/>
-      <c r="B37" s="273"/>
-      <c r="C37" s="274"/>
-      <c r="D37" s="276"/>
-      <c r="E37" s="276"/>
-      <c r="F37" s="276"/>
-      <c r="G37" s="276"/>
-      <c r="H37" s="276"/>
+    <row r="37" spans="6:86" ht="12.75" customHeight="1">
+      <c r="F37"/>
+      <c r="G37" s="273"/>
+      <c r="H37" s="274"/>
       <c r="I37" s="276"/>
       <c r="J37" s="276"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
+      <c r="K37" s="276"/>
+      <c r="L37" s="276"/>
+      <c r="M37" s="276"/>
+      <c r="N37" s="276"/>
+      <c r="O37" s="276"/>
       <c r="P37" s="79"/>
       <c r="Q37" s="79"/>
       <c r="R37" s="79"/>
@@ -8149,19 +8212,19 @@
       <c r="Y37" s="79"/>
       <c r="Z37" s="79"/>
       <c r="AA37" s="79"/>
-      <c r="AB37" s="279"/>
-      <c r="AC37"/>
-      <c r="AD37"/>
-      <c r="AE37"/>
-      <c r="AF37"/>
-      <c r="AG37" s="58"/>
-      <c r="AH37" s="58"/>
-      <c r="AI37" s="63"/>
-      <c r="AJ37" s="64"/>
-      <c r="AK37" s="64"/>
-      <c r="AL37" s="64"/>
-      <c r="AM37" s="64"/>
-      <c r="AN37" s="64"/>
+      <c r="AB37" s="79"/>
+      <c r="AC37" s="79"/>
+      <c r="AD37" s="79"/>
+      <c r="AE37" s="79"/>
+      <c r="AF37" s="79"/>
+      <c r="AG37" s="279"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37" s="58"/>
+      <c r="AM37" s="58"/>
+      <c r="AN37" s="63"/>
       <c r="AO37" s="64"/>
       <c r="AP37" s="64"/>
       <c r="AQ37" s="64"/>
@@ -8179,37 +8242,37 @@
       <c r="BC37" s="64"/>
       <c r="BD37" s="64"/>
       <c r="BE37" s="64"/>
-      <c r="BF37" s="288"/>
-      <c r="BG37" s="26"/>
-      <c r="BH37" s="26"/>
-      <c r="BI37" s="27"/>
-      <c r="BJ37" s="12"/>
-      <c r="BK37"/>
-      <c r="BL37"/>
-      <c r="BM37"/>
-      <c r="BN37"/>
-      <c r="BO37"/>
+      <c r="BF37" s="64"/>
+      <c r="BG37" s="64"/>
+      <c r="BH37" s="64"/>
+      <c r="BI37" s="64"/>
+      <c r="BJ37" s="64"/>
+      <c r="BK37" s="288"/>
+      <c r="BL37" s="26"/>
+      <c r="BM37" s="26"/>
+      <c r="BN37" s="27"/>
+      <c r="BO37" s="12"/>
       <c r="BP37"/>
-      <c r="BQ37" s="188"/>
-      <c r="BR37" s="189"/>
-      <c r="BS37" s="189"/>
-      <c r="BT37" s="189"/>
-      <c r="BU37" s="189"/>
-      <c r="BV37" s="189"/>
+      <c r="BQ37"/>
+      <c r="BR37"/>
+      <c r="BS37"/>
+      <c r="BT37"/>
+      <c r="BU37"/>
+      <c r="BV37" s="188"/>
       <c r="BW37" s="189"/>
       <c r="BX37" s="189"/>
       <c r="BY37" s="189"/>
       <c r="BZ37" s="189"/>
       <c r="CA37" s="189"/>
-      <c r="CB37" s="190"/>
-      <c r="CC37"/>
+      <c r="CB37" s="189"/>
+      <c r="CC37" s="189"/>
+      <c r="CD37" s="189"/>
+      <c r="CE37" s="189"/>
+      <c r="CF37" s="189"/>
+      <c r="CG37" s="190"/>
+      <c r="CH37"/>
     </row>
-    <row r="38" spans="1:81" ht="17.25" customHeight="1">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
+    <row r="38" spans="6:86" ht="17.25" customHeight="1">
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
@@ -8286,13 +8349,13 @@
       <c r="CA38"/>
       <c r="CB38"/>
       <c r="CC38"/>
+      <c r="CD38"/>
+      <c r="CE38"/>
+      <c r="CF38"/>
+      <c r="CG38"/>
+      <c r="CH38"/>
     </row>
-    <row r="39" spans="1:81" ht="17.25" customHeight="1">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
+    <row r="39" spans="6:86" ht="17.25" customHeight="1">
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
@@ -8369,13 +8432,13 @@
       <c r="CA39"/>
       <c r="CB39"/>
       <c r="CC39"/>
+      <c r="CD39"/>
+      <c r="CE39"/>
+      <c r="CF39"/>
+      <c r="CG39"/>
+      <c r="CH39"/>
     </row>
-    <row r="40" spans="1:81" ht="9" customHeight="1">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
+    <row r="40" spans="6:86" ht="9" customHeight="1">
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40"/>
@@ -8452,13 +8515,13 @@
       <c r="CA40"/>
       <c r="CB40"/>
       <c r="CC40"/>
+      <c r="CD40"/>
+      <c r="CE40"/>
+      <c r="CF40"/>
+      <c r="CG40"/>
+      <c r="CH40"/>
     </row>
-    <row r="41" spans="1:81" ht="24" customHeight="1">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
+    <row r="41" spans="6:86" ht="24" customHeight="1">
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
@@ -8535,13 +8598,13 @@
       <c r="CA41"/>
       <c r="CB41"/>
       <c r="CC41"/>
+      <c r="CD41"/>
+      <c r="CE41"/>
+      <c r="CF41"/>
+      <c r="CG41"/>
+      <c r="CH41"/>
     </row>
-    <row r="42" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
+    <row r="42" spans="6:86" ht="15.75" customHeight="1">
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42"/>
@@ -8618,13 +8681,13 @@
       <c r="CA42"/>
       <c r="CB42"/>
       <c r="CC42"/>
+      <c r="CD42"/>
+      <c r="CE42"/>
+      <c r="CF42"/>
+      <c r="CG42"/>
+      <c r="CH42"/>
     </row>
-    <row r="43" spans="1:81" ht="18" customHeight="1">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
+    <row r="43" spans="6:86" ht="18" customHeight="1">
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43"/>
@@ -8701,13 +8764,13 @@
       <c r="CA43"/>
       <c r="CB43"/>
       <c r="CC43"/>
+      <c r="CD43"/>
+      <c r="CE43"/>
+      <c r="CF43"/>
+      <c r="CG43"/>
+      <c r="CH43"/>
     </row>
-    <row r="44" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
+    <row r="44" spans="6:86" ht="15.75" customHeight="1">
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44"/>
@@ -8784,13 +8847,13 @@
       <c r="CA44"/>
       <c r="CB44"/>
       <c r="CC44"/>
+      <c r="CD44"/>
+      <c r="CE44"/>
+      <c r="CF44"/>
+      <c r="CG44"/>
+      <c r="CH44"/>
     </row>
-    <row r="45" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
+    <row r="45" spans="6:86" ht="15.75" customHeight="1">
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45"/>
@@ -8867,13 +8930,13 @@
       <c r="CA45"/>
       <c r="CB45"/>
       <c r="CC45"/>
+      <c r="CD45"/>
+      <c r="CE45"/>
+      <c r="CF45"/>
+      <c r="CG45"/>
+      <c r="CH45"/>
     </row>
-    <row r="46" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
+    <row r="46" spans="6:86" ht="15.75" customHeight="1">
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46"/>
@@ -8950,13 +9013,13 @@
       <c r="CA46"/>
       <c r="CB46"/>
       <c r="CC46"/>
+      <c r="CD46"/>
+      <c r="CE46"/>
+      <c r="CF46"/>
+      <c r="CG46"/>
+      <c r="CH46"/>
     </row>
-    <row r="47" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
+    <row r="47" spans="6:86" ht="15.75" customHeight="1">
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47"/>
@@ -9033,13 +9096,13 @@
       <c r="CA47"/>
       <c r="CB47"/>
       <c r="CC47"/>
+      <c r="CD47"/>
+      <c r="CE47"/>
+      <c r="CF47"/>
+      <c r="CG47"/>
+      <c r="CH47"/>
     </row>
-    <row r="48" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
+    <row r="48" spans="6:86" ht="15.75" customHeight="1">
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
@@ -9116,13 +9179,13 @@
       <c r="CA48"/>
       <c r="CB48"/>
       <c r="CC48"/>
+      <c r="CD48"/>
+      <c r="CE48"/>
+      <c r="CF48"/>
+      <c r="CG48"/>
+      <c r="CH48"/>
     </row>
-    <row r="49" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
+    <row r="49" spans="6:86" ht="15.75" customHeight="1">
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
@@ -9199,13 +9262,13 @@
       <c r="CA49"/>
       <c r="CB49"/>
       <c r="CC49"/>
+      <c r="CD49"/>
+      <c r="CE49"/>
+      <c r="CF49"/>
+      <c r="CG49"/>
+      <c r="CH49"/>
     </row>
-    <row r="50" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
+    <row r="50" spans="6:86" ht="15.75" customHeight="1">
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50"/>
@@ -9282,13 +9345,13 @@
       <c r="CA50"/>
       <c r="CB50"/>
       <c r="CC50"/>
+      <c r="CD50"/>
+      <c r="CE50"/>
+      <c r="CF50"/>
+      <c r="CG50"/>
+      <c r="CH50"/>
     </row>
-    <row r="51" spans="1:81" ht="16.5" customHeight="1">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
+    <row r="51" spans="6:86" ht="16.5" customHeight="1">
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
@@ -9365,13 +9428,13 @@
       <c r="CA51"/>
       <c r="CB51"/>
       <c r="CC51"/>
+      <c r="CD51"/>
+      <c r="CE51"/>
+      <c r="CF51"/>
+      <c r="CG51"/>
+      <c r="CH51"/>
     </row>
-    <row r="52" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
+    <row r="52" spans="6:86" ht="15.75" customHeight="1">
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
@@ -9448,13 +9511,13 @@
       <c r="CA52"/>
       <c r="CB52"/>
       <c r="CC52"/>
+      <c r="CD52"/>
+      <c r="CE52"/>
+      <c r="CF52"/>
+      <c r="CG52"/>
+      <c r="CH52"/>
     </row>
-    <row r="53" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
+    <row r="53" spans="6:86" ht="15.75" customHeight="1">
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
@@ -9531,13 +9594,13 @@
       <c r="CA53"/>
       <c r="CB53"/>
       <c r="CC53"/>
+      <c r="CD53"/>
+      <c r="CE53"/>
+      <c r="CF53"/>
+      <c r="CG53"/>
+      <c r="CH53"/>
     </row>
-    <row r="54" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
+    <row r="54" spans="6:86" ht="15.75" customHeight="1">
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
@@ -9614,13 +9677,13 @@
       <c r="CA54"/>
       <c r="CB54"/>
       <c r="CC54"/>
+      <c r="CD54"/>
+      <c r="CE54"/>
+      <c r="CF54"/>
+      <c r="CG54"/>
+      <c r="CH54"/>
     </row>
-    <row r="55" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
+    <row r="55" spans="6:86" ht="15.75" customHeight="1">
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
@@ -9697,13 +9760,13 @@
       <c r="CA55"/>
       <c r="CB55"/>
       <c r="CC55"/>
+      <c r="CD55"/>
+      <c r="CE55"/>
+      <c r="CF55"/>
+      <c r="CG55"/>
+      <c r="CH55"/>
     </row>
-    <row r="56" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
+    <row r="56" spans="6:86" ht="15.75" customHeight="1">
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
@@ -9780,13 +9843,13 @@
       <c r="CA56"/>
       <c r="CB56"/>
       <c r="CC56"/>
+      <c r="CD56"/>
+      <c r="CE56"/>
+      <c r="CF56"/>
+      <c r="CG56"/>
+      <c r="CH56"/>
     </row>
-    <row r="57" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
+    <row r="57" spans="6:86" ht="15.75" customHeight="1">
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57"/>
@@ -9863,13 +9926,13 @@
       <c r="CA57"/>
       <c r="CB57"/>
       <c r="CC57"/>
+      <c r="CD57"/>
+      <c r="CE57"/>
+      <c r="CF57"/>
+      <c r="CG57"/>
+      <c r="CH57"/>
     </row>
-    <row r="58" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
+    <row r="58" spans="6:86" ht="15.75" customHeight="1">
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58"/>
@@ -9946,13 +10009,13 @@
       <c r="CA58"/>
       <c r="CB58"/>
       <c r="CC58"/>
+      <c r="CD58"/>
+      <c r="CE58"/>
+      <c r="CF58"/>
+      <c r="CG58"/>
+      <c r="CH58"/>
     </row>
-    <row r="59" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
+    <row r="59" spans="6:86" ht="15.75" customHeight="1">
       <c r="F59"/>
       <c r="G59"/>
       <c r="H59"/>
@@ -10029,13 +10092,13 @@
       <c r="CA59"/>
       <c r="CB59"/>
       <c r="CC59"/>
+      <c r="CD59"/>
+      <c r="CE59"/>
+      <c r="CF59"/>
+      <c r="CG59"/>
+      <c r="CH59"/>
     </row>
-    <row r="60" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
+    <row r="60" spans="6:86" ht="15.75" customHeight="1">
       <c r="F60"/>
       <c r="G60"/>
       <c r="H60"/>
@@ -10112,13 +10175,13 @@
       <c r="CA60"/>
       <c r="CB60"/>
       <c r="CC60"/>
+      <c r="CD60"/>
+      <c r="CE60"/>
+      <c r="CF60"/>
+      <c r="CG60"/>
+      <c r="CH60"/>
     </row>
-    <row r="61" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
+    <row r="61" spans="6:86" ht="15.75" customHeight="1">
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
@@ -10195,13 +10258,13 @@
       <c r="CA61"/>
       <c r="CB61"/>
       <c r="CC61"/>
+      <c r="CD61"/>
+      <c r="CE61"/>
+      <c r="CF61"/>
+      <c r="CG61"/>
+      <c r="CH61"/>
     </row>
-    <row r="62" spans="1:81" ht="24.75" customHeight="1">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
+    <row r="62" spans="6:86" ht="24.75" customHeight="1">
       <c r="F62"/>
       <c r="G62"/>
       <c r="H62"/>
@@ -10278,13 +10341,13 @@
       <c r="CA62"/>
       <c r="CB62"/>
       <c r="CC62"/>
+      <c r="CD62"/>
+      <c r="CE62"/>
+      <c r="CF62"/>
+      <c r="CG62"/>
+      <c r="CH62"/>
     </row>
-    <row r="63" spans="1:81" ht="12.75" customHeight="1">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
+    <row r="63" spans="6:86" ht="12.75" customHeight="1">
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
@@ -10361,13 +10424,13 @@
       <c r="CA63"/>
       <c r="CB63"/>
       <c r="CC63"/>
+      <c r="CD63"/>
+      <c r="CE63"/>
+      <c r="CF63"/>
+      <c r="CG63"/>
+      <c r="CH63"/>
     </row>
-    <row r="64" spans="1:81" ht="12.75" customHeight="1">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
+    <row r="64" spans="6:86" ht="12.75" customHeight="1">
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
@@ -10444,13 +10507,13 @@
       <c r="CA64"/>
       <c r="CB64"/>
       <c r="CC64"/>
+      <c r="CD64"/>
+      <c r="CE64"/>
+      <c r="CF64"/>
+      <c r="CG64"/>
+      <c r="CH64"/>
     </row>
-    <row r="65" spans="1:81" ht="14.25" customHeight="1">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
+    <row r="65" spans="6:86" ht="14.25" customHeight="1">
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65"/>
@@ -10527,13 +10590,13 @@
       <c r="CA65"/>
       <c r="CB65"/>
       <c r="CC65"/>
+      <c r="CD65"/>
+      <c r="CE65"/>
+      <c r="CF65"/>
+      <c r="CG65"/>
+      <c r="CH65"/>
     </row>
-    <row r="66" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
+    <row r="66" spans="6:86" ht="15.75" customHeight="1">
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66"/>
@@ -10610,13 +10673,13 @@
       <c r="CA66"/>
       <c r="CB66"/>
       <c r="CC66"/>
+      <c r="CD66"/>
+      <c r="CE66"/>
+      <c r="CF66"/>
+      <c r="CG66"/>
+      <c r="CH66"/>
     </row>
-    <row r="67" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
+    <row r="67" spans="6:86" ht="15.75" customHeight="1">
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67"/>
@@ -10693,13 +10756,13 @@
       <c r="CA67"/>
       <c r="CB67"/>
       <c r="CC67"/>
+      <c r="CD67"/>
+      <c r="CE67"/>
+      <c r="CF67"/>
+      <c r="CG67"/>
+      <c r="CH67"/>
     </row>
-    <row r="68" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
+    <row r="68" spans="6:86" ht="15.75" customHeight="1">
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
@@ -10776,13 +10839,13 @@
       <c r="CA68"/>
       <c r="CB68"/>
       <c r="CC68"/>
+      <c r="CD68"/>
+      <c r="CE68"/>
+      <c r="CF68"/>
+      <c r="CG68"/>
+      <c r="CH68"/>
     </row>
-    <row r="69" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
+    <row r="69" spans="6:86" ht="15.75" customHeight="1">
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69"/>
@@ -10859,13 +10922,13 @@
       <c r="CA69"/>
       <c r="CB69"/>
       <c r="CC69"/>
+      <c r="CD69"/>
+      <c r="CE69"/>
+      <c r="CF69"/>
+      <c r="CG69"/>
+      <c r="CH69"/>
     </row>
-    <row r="70" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
+    <row r="70" spans="6:86" ht="15.75" customHeight="1">
       <c r="F70"/>
       <c r="G70"/>
       <c r="H70"/>
@@ -10926,11 +10989,11 @@
       <c r="BK70"/>
       <c r="BL70"/>
       <c r="BM70"/>
+      <c r="BN70"/>
+      <c r="BO70"/>
+      <c r="BP70"/>
       <c r="BQ70"/>
       <c r="BR70"/>
-      <c r="BS70"/>
-      <c r="BT70"/>
-      <c r="BU70"/>
       <c r="BV70"/>
       <c r="BW70"/>
       <c r="BX70"/>
@@ -10939,13 +11002,13 @@
       <c r="CA70"/>
       <c r="CB70"/>
       <c r="CC70"/>
+      <c r="CD70"/>
+      <c r="CE70"/>
+      <c r="CF70"/>
+      <c r="CG70"/>
+      <c r="CH70"/>
     </row>
-    <row r="71" spans="1:81" ht="15.75" customHeight="1">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
+    <row r="71" spans="6:86" ht="15.75" customHeight="1">
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
@@ -11006,11 +11069,11 @@
       <c r="BK71"/>
       <c r="BL71"/>
       <c r="BM71"/>
+      <c r="BN71"/>
+      <c r="BO71"/>
+      <c r="BP71"/>
       <c r="BQ71"/>
       <c r="BR71"/>
-      <c r="BS71"/>
-      <c r="BT71"/>
-      <c r="BU71"/>
       <c r="BV71"/>
       <c r="BW71"/>
       <c r="BX71"/>
@@ -11019,193 +11082,198 @@
       <c r="CA71"/>
       <c r="CB71"/>
       <c r="CC71"/>
+      <c r="CD71"/>
+      <c r="CE71"/>
+      <c r="CF71"/>
+      <c r="CG71"/>
+      <c r="CH71"/>
     </row>
-    <row r="72" spans="1:81" ht="17.25" customHeight="1">
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+    <row r="72" spans="6:86" ht="17.25" customHeight="1">
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
     </row>
-    <row r="73" spans="1:81" ht="17.25" customHeight="1">
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
+    <row r="73" spans="6:86" ht="17.25" customHeight="1">
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
     </row>
-    <row r="74" spans="1:81" ht="17.25" customHeight="1">
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
+    <row r="74" spans="6:86" ht="17.25" customHeight="1">
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
     </row>
-    <row r="75" spans="1:81" ht="17.25" customHeight="1">
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
+    <row r="75" spans="6:86" ht="17.25" customHeight="1">
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
     </row>
-    <row r="76" spans="1:81" ht="17.25" customHeight="1">
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
+    <row r="76" spans="6:86" ht="17.25" customHeight="1">
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
     </row>
   </sheetData>
   <mergeCells count="163">
-    <mergeCell ref="BQ30:CB30"/>
-    <mergeCell ref="BQ31:CB37"/>
-    <mergeCell ref="B33:C37"/>
-    <mergeCell ref="D36:J37"/>
-    <mergeCell ref="K36:AB37"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="K33:AB33"/>
-    <mergeCell ref="K34:AB34"/>
-    <mergeCell ref="K35:Z35"/>
-    <mergeCell ref="AD25:AE26"/>
-    <mergeCell ref="P24:Q26"/>
-    <mergeCell ref="N24:O26"/>
-    <mergeCell ref="BW24:BX26"/>
-    <mergeCell ref="BU24:BV26"/>
-    <mergeCell ref="AB25:AC26"/>
-    <mergeCell ref="AI34:AT34"/>
-    <mergeCell ref="B31:AB31"/>
-    <mergeCell ref="BF35:BF37"/>
-    <mergeCell ref="BS24:BT26"/>
-    <mergeCell ref="E23:G26"/>
-    <mergeCell ref="N27:BG28"/>
-    <mergeCell ref="A6:B28"/>
-    <mergeCell ref="BK27:CD28"/>
-    <mergeCell ref="AU31:BN31"/>
-    <mergeCell ref="H24:I26"/>
-    <mergeCell ref="L24:M26"/>
-    <mergeCell ref="J24:K26"/>
-    <mergeCell ref="T24:U26"/>
-    <mergeCell ref="R24:S26"/>
-    <mergeCell ref="AJ24:BM24"/>
-    <mergeCell ref="BN23:CB23"/>
-    <mergeCell ref="BN24:BP26"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E19:AJ19"/>
-    <mergeCell ref="CA24:CB26"/>
-    <mergeCell ref="BY24:BZ26"/>
-    <mergeCell ref="V25:W26"/>
-    <mergeCell ref="V24:AE24"/>
-    <mergeCell ref="X25:Y26"/>
-    <mergeCell ref="V23:BM23"/>
-    <mergeCell ref="AF25:BM26"/>
-    <mergeCell ref="BQ24:BR26"/>
-    <mergeCell ref="Z25:AA26"/>
-    <mergeCell ref="AC20:AR20"/>
-    <mergeCell ref="E9:G11"/>
-    <mergeCell ref="AE10:CB11"/>
-    <mergeCell ref="N12:CB13"/>
-    <mergeCell ref="AG21:AH22"/>
-    <mergeCell ref="H10:M11"/>
-    <mergeCell ref="J12:M13"/>
-    <mergeCell ref="P9:Q11"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="W14:X15"/>
-    <mergeCell ref="Y14:Z15"/>
-    <mergeCell ref="X7:Y8"/>
-    <mergeCell ref="I21:J22"/>
-    <mergeCell ref="U21:V22"/>
-    <mergeCell ref="S21:T22"/>
-    <mergeCell ref="AI21:AJ22"/>
-    <mergeCell ref="AZ21:BF22"/>
-    <mergeCell ref="AH7:AI8"/>
-    <mergeCell ref="K14:N15"/>
-    <mergeCell ref="Q14:R15"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="AV7:BA7"/>
-    <mergeCell ref="AV8:BA8"/>
-    <mergeCell ref="BB8:BC8"/>
-    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="BV30:CG30"/>
+    <mergeCell ref="BV31:CG37"/>
+    <mergeCell ref="G33:H37"/>
+    <mergeCell ref="I36:O37"/>
+    <mergeCell ref="P36:AG37"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="P33:AG33"/>
+    <mergeCell ref="P34:AG34"/>
+    <mergeCell ref="P35:AE35"/>
+    <mergeCell ref="AI25:AJ26"/>
+    <mergeCell ref="U24:V26"/>
+    <mergeCell ref="S24:T26"/>
+    <mergeCell ref="CB24:CC26"/>
+    <mergeCell ref="BZ24:CA26"/>
+    <mergeCell ref="AG25:AH26"/>
+    <mergeCell ref="AN34:AY34"/>
+    <mergeCell ref="G31:AG31"/>
+    <mergeCell ref="BK35:BK37"/>
+    <mergeCell ref="BX24:BY26"/>
+    <mergeCell ref="J23:L26"/>
+    <mergeCell ref="S27:BL28"/>
+    <mergeCell ref="F6:G28"/>
+    <mergeCell ref="BP27:CI28"/>
+    <mergeCell ref="AZ31:BS31"/>
+    <mergeCell ref="M24:N26"/>
+    <mergeCell ref="Q24:R26"/>
+    <mergeCell ref="O24:P26"/>
+    <mergeCell ref="Y24:Z26"/>
+    <mergeCell ref="W24:X26"/>
+    <mergeCell ref="AO24:BR24"/>
+    <mergeCell ref="BS23:CG23"/>
+    <mergeCell ref="BS24:BU26"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="J19:AO19"/>
+    <mergeCell ref="CF24:CG26"/>
+    <mergeCell ref="CD24:CE26"/>
+    <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="AA24:AJ24"/>
+    <mergeCell ref="AC25:AD26"/>
+    <mergeCell ref="AA23:BR23"/>
+    <mergeCell ref="AK25:BR26"/>
+    <mergeCell ref="BV24:BW26"/>
+    <mergeCell ref="AE25:AF26"/>
+    <mergeCell ref="AH20:AW20"/>
+    <mergeCell ref="J9:L11"/>
+    <mergeCell ref="AJ10:CG11"/>
+    <mergeCell ref="S12:CG13"/>
+    <mergeCell ref="AL21:AM22"/>
+    <mergeCell ref="M10:R11"/>
+    <mergeCell ref="O12:R13"/>
+    <mergeCell ref="U9:V11"/>
+    <mergeCell ref="R7:S8"/>
+    <mergeCell ref="AB14:AC15"/>
+    <mergeCell ref="AD14:AE15"/>
+    <mergeCell ref="AC7:AD8"/>
+    <mergeCell ref="N21:O22"/>
+    <mergeCell ref="Z21:AA22"/>
+    <mergeCell ref="X21:Y22"/>
+    <mergeCell ref="AN21:AO22"/>
+    <mergeCell ref="BE21:BK22"/>
+    <mergeCell ref="AM7:AN8"/>
+    <mergeCell ref="P14:S15"/>
+    <mergeCell ref="V14:W15"/>
+    <mergeCell ref="T14:U15"/>
+    <mergeCell ref="BA7:BF7"/>
+    <mergeCell ref="BA8:BF8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="P21:Q22"/>
+    <mergeCell ref="CD2:CH2"/>
     <mergeCell ref="BY2:CC2"/>
-    <mergeCell ref="BT2:BX2"/>
-    <mergeCell ref="BN2:BS2"/>
-    <mergeCell ref="BI2:BM2"/>
-    <mergeCell ref="BN3:BS4"/>
-    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="BS2:BX2"/>
+    <mergeCell ref="BN2:BR2"/>
+    <mergeCell ref="BS3:BX4"/>
+    <mergeCell ref="AI7:AJ8"/>
+    <mergeCell ref="CD3:CH4"/>
+    <mergeCell ref="AB4:AM4"/>
+    <mergeCell ref="AB3:AM3"/>
+    <mergeCell ref="AP3:BG4"/>
+    <mergeCell ref="BN3:BR4"/>
+    <mergeCell ref="BO7:BR8"/>
+    <mergeCell ref="AS7:AT8"/>
+    <mergeCell ref="AO7:AP8"/>
+    <mergeCell ref="AU7:AV8"/>
     <mergeCell ref="BY3:CC4"/>
-    <mergeCell ref="W4:AH4"/>
-    <mergeCell ref="W3:AH3"/>
-    <mergeCell ref="AK3:BB4"/>
-    <mergeCell ref="BI3:BM4"/>
-    <mergeCell ref="BJ7:BM8"/>
-    <mergeCell ref="AN7:AO8"/>
-    <mergeCell ref="AJ7:AK8"/>
-    <mergeCell ref="AP7:AQ8"/>
-    <mergeCell ref="BT3:BX4"/>
-    <mergeCell ref="BS7:BT8"/>
-    <mergeCell ref="AT6:BI6"/>
-    <mergeCell ref="BN7:BP8"/>
-    <mergeCell ref="BB7:BI7"/>
-    <mergeCell ref="CA6:CB8"/>
-    <mergeCell ref="AF7:AG8"/>
-    <mergeCell ref="AB7:AC8"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="BJ6:BZ6"/>
-    <mergeCell ref="BQ7:BR8"/>
-    <mergeCell ref="BU7:BV8"/>
-    <mergeCell ref="BW7:BX8"/>
-    <mergeCell ref="BY7:BZ8"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E6:P6"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C6:D28"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="AO21:AP22"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="AL7:AM8"/>
-    <mergeCell ref="AS21:AW22"/>
-    <mergeCell ref="Q7:U8"/>
-    <mergeCell ref="O21:P22"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="V7:W8"/>
-    <mergeCell ref="V6:AS6"/>
-    <mergeCell ref="BG20:BO20"/>
-    <mergeCell ref="AM21:AN22"/>
-    <mergeCell ref="S14:T15"/>
-    <mergeCell ref="U14:V15"/>
-    <mergeCell ref="BI21:BO22"/>
-    <mergeCell ref="AH14:BM15"/>
-    <mergeCell ref="AA14:AC15"/>
-    <mergeCell ref="BA20:BF20"/>
-    <mergeCell ref="AC21:AF22"/>
-    <mergeCell ref="AI9:CB9"/>
-    <mergeCell ref="AQ21:AR22"/>
-    <mergeCell ref="AN18:BW19"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="BD8:BI8"/>
-    <mergeCell ref="AE9:AH9"/>
-    <mergeCell ref="Q21:R22"/>
-    <mergeCell ref="AR7:AS8"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="E20:AB20"/>
-    <mergeCell ref="K7:L8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="BH27:BJ28"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H23:U23"/>
-    <mergeCell ref="AK21:AL22"/>
-    <mergeCell ref="Y21:Z22"/>
-    <mergeCell ref="AG33:AH37"/>
-    <mergeCell ref="AI35:BE37"/>
-    <mergeCell ref="AB9:AD11"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="Z9:AA11"/>
-    <mergeCell ref="W21:X22"/>
-    <mergeCell ref="AD14:AG15"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="V9:W11"/>
-    <mergeCell ref="E14:J15"/>
-    <mergeCell ref="N9:O11"/>
-    <mergeCell ref="R9:S11"/>
-    <mergeCell ref="T9:U11"/>
-    <mergeCell ref="AS20:AT20"/>
-    <mergeCell ref="E27:G28"/>
-    <mergeCell ref="E12:G13"/>
-    <mergeCell ref="X9:Y11"/>
+    <mergeCell ref="BX7:BY8"/>
+    <mergeCell ref="AY6:BN6"/>
+    <mergeCell ref="BS7:BU8"/>
+    <mergeCell ref="BG7:BN7"/>
+    <mergeCell ref="CF6:CG8"/>
+    <mergeCell ref="AK7:AL8"/>
+    <mergeCell ref="AG7:AH8"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="BO6:CE6"/>
+    <mergeCell ref="BV7:BW8"/>
+    <mergeCell ref="BZ7:CA8"/>
+    <mergeCell ref="CB7:CC8"/>
+    <mergeCell ref="CD7:CE8"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J6:U6"/>
+    <mergeCell ref="AE7:AF8"/>
+    <mergeCell ref="T7:U8"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="N7:O8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H6:I28"/>
+    <mergeCell ref="J21:K22"/>
+    <mergeCell ref="AT21:AU22"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AQ7:AR8"/>
+    <mergeCell ref="AX21:BB22"/>
+    <mergeCell ref="V7:Z8"/>
+    <mergeCell ref="T21:U22"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="AA7:AB8"/>
+    <mergeCell ref="AA6:AX6"/>
+    <mergeCell ref="BL20:BT20"/>
+    <mergeCell ref="AR21:AS22"/>
+    <mergeCell ref="X14:Y15"/>
+    <mergeCell ref="Z14:AA15"/>
+    <mergeCell ref="BN21:BT22"/>
+    <mergeCell ref="AM14:BR15"/>
+    <mergeCell ref="AF14:AH15"/>
+    <mergeCell ref="BF20:BK20"/>
+    <mergeCell ref="AH21:AK22"/>
+    <mergeCell ref="AN9:CG9"/>
+    <mergeCell ref="AV21:AW22"/>
+    <mergeCell ref="AS18:CB19"/>
+    <mergeCell ref="AY8:AZ8"/>
+    <mergeCell ref="BI8:BN8"/>
+    <mergeCell ref="AJ9:AM9"/>
+    <mergeCell ref="V21:W22"/>
+    <mergeCell ref="AW7:AX8"/>
+    <mergeCell ref="AY7:AZ7"/>
+    <mergeCell ref="J20:AG20"/>
+    <mergeCell ref="P7:Q8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="BM27:BO28"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="M23:Z23"/>
+    <mergeCell ref="AP21:AQ22"/>
+    <mergeCell ref="AD21:AE22"/>
+    <mergeCell ref="AL33:AM37"/>
+    <mergeCell ref="AN35:BJ37"/>
+    <mergeCell ref="AG9:AI11"/>
+    <mergeCell ref="R21:S22"/>
+    <mergeCell ref="AE9:AF11"/>
+    <mergeCell ref="AB21:AC22"/>
+    <mergeCell ref="AI14:AL15"/>
+    <mergeCell ref="AF21:AG22"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="L21:M22"/>
+    <mergeCell ref="AA9:AB11"/>
+    <mergeCell ref="J14:O15"/>
+    <mergeCell ref="S9:T11"/>
+    <mergeCell ref="W9:X11"/>
+    <mergeCell ref="Y9:Z11"/>
+    <mergeCell ref="AX20:AY20"/>
+    <mergeCell ref="J27:L28"/>
+    <mergeCell ref="J12:L13"/>
+    <mergeCell ref="AC9:AD11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.51181102362204722"/>
@@ -11222,13 +11290,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>33</xdr:col>
+                    <xdr:col>38</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>35</xdr:col>
+                    <xdr:col>40</xdr:col>
                     <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
@@ -11244,13 +11312,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>41</xdr:col>
+                    <xdr:col>46</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>43</xdr:col>
+                    <xdr:col>48</xdr:col>
                     <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
@@ -11266,13 +11334,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>33</xdr:col>
+                    <xdr:col>38</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>35</xdr:col>
+                    <xdr:col>40</xdr:col>
                     <xdr:colOff>47625</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
@@ -11288,13 +11356,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>41</xdr:col>
+                    <xdr:col>46</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>43</xdr:col>
+                    <xdr:col>48</xdr:col>
                     <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
@@ -11310,13 +11378,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>10</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>66675</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>180975</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>13</xdr:col>
+                    <xdr:col>18</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
@@ -11332,13 +11400,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>61</xdr:col>
+                    <xdr:col>66</xdr:col>
                     <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>64</xdr:col>
+                    <xdr:col>69</xdr:col>
                     <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>66675</xdr:rowOff>
@@ -11354,13 +11422,13 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>61</xdr:col>
+                    <xdr:col>66</xdr:col>
                     <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>64</xdr:col>
+                    <xdr:col>69</xdr:col>
                     <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>228600</xdr:rowOff>
@@ -11376,14 +11444,14 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>67</xdr:col>
-                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:col>73</xdr:col>
+                    <xdr:colOff>76200</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>70</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:col>76</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>57150</xdr:rowOff>
                   </to>
@@ -11398,16 +11466,16 @@
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>67</xdr:col>
-                    <xdr:colOff>114300</xdr:colOff>
+                    <xdr:col>73</xdr:col>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>70</xdr:col>
-                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:col>76</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
+++ b/nts.uk/uk.pr/pr.file/nts.uk.file.pr.infra/src/main/resources/report/被保険者住所変更届.xlsx
@@ -652,12 +652,12 @@
     <t>⑩　　　　　　　　住　　　　　　　　　　　　　　　　　　所</t>
   </si>
   <si>
-    <t xml:space="preserve">     短期在留　　         住民票住所以外の居所　
-     海外居住             その他（　　　　　　　　                            ）</t>
+    <t xml:space="preserve">       短期在留　              住民票住所以外の居所　
+       海外居住                その他（　　 　                         ）  </t>
   </si>
   <si>
-    <t xml:space="preserve">       短期在留　              住民票住所以外の居所　
-       海外居住                その他（　　 　                         ）  </t>
+    <t xml:space="preserve">     短期在留　　        住民票住所以外の居所　
+     海外居住            その他（　　　　　　　　                        ）</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1924,6 +1924,708 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1951,33 +2653,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1987,54 +2665,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2044,15 +2683,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2092,637 +2722,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3783,15 +3792,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>9939</xdr:colOff>
+      <xdr:colOff>48039</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>8282</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>57978</xdr:colOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>198781</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3806,8 +3815,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6437243" y="3147391"/>
-          <a:ext cx="1787387" cy="190499"/>
+          <a:off x="6458364" y="3152775"/>
+          <a:ext cx="3866736" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3835,7 +3844,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -4367,16 +4376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>41412</xdr:colOff>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>108087</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>57978</xdr:rowOff>
+      <xdr:rowOff>38928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>115956</xdr:colOff>
+      <xdr:colOff>58806</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>240196</xdr:rowOff>
+      <xdr:rowOff>221146</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4391,8 +4400,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9732064" y="5748130"/>
-          <a:ext cx="819979" cy="182218"/>
+          <a:off x="9642612" y="5744403"/>
+          <a:ext cx="817494" cy="182218"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5265,15 +5274,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>79</xdr:col>
-      <xdr:colOff>108087</xdr:colOff>
+      <xdr:colOff>79511</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>67503</xdr:rowOff>
+      <xdr:rowOff>38928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>58806</xdr:colOff>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>249721</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5288,8 +5297,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9642612" y="5772978"/>
-          <a:ext cx="817494" cy="182218"/>
+          <a:off x="9614036" y="5744403"/>
+          <a:ext cx="1835014" cy="161097"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5617,8 +5626,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:CJ76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7:Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="17.25" customHeight="1"/>
@@ -5640,948 +5649,948 @@
   <sheetData>
     <row r="1" spans="6:86" ht="26.25" customHeight="1"/>
     <row r="2" spans="6:86" ht="20.25" customHeight="1">
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="BN2" s="187" t="s">
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="BN2" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="BO2" s="183"/>
-      <c r="BP2" s="183"/>
-      <c r="BQ2" s="183"/>
-      <c r="BR2" s="183"/>
-      <c r="BS2" s="184" t="s">
+      <c r="BO2" s="186"/>
+      <c r="BP2" s="186"/>
+      <c r="BQ2" s="186"/>
+      <c r="BR2" s="186"/>
+      <c r="BS2" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="BT2" s="185"/>
-      <c r="BU2" s="185"/>
-      <c r="BV2" s="185"/>
-      <c r="BW2" s="185"/>
-      <c r="BX2" s="186"/>
-      <c r="BY2" s="183" t="s">
+      <c r="BT2" s="188"/>
+      <c r="BU2" s="188"/>
+      <c r="BV2" s="188"/>
+      <c r="BW2" s="188"/>
+      <c r="BX2" s="189"/>
+      <c r="BY2" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" s="183"/>
-      <c r="CA2" s="183"/>
-      <c r="CB2" s="183"/>
-      <c r="CC2" s="183"/>
-      <c r="CD2" s="180" t="s">
+      <c r="BZ2" s="186"/>
+      <c r="CA2" s="186"/>
+      <c r="CB2" s="186"/>
+      <c r="CC2" s="186"/>
+      <c r="CD2" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="CE2" s="181"/>
-      <c r="CF2" s="181"/>
-      <c r="CG2" s="181"/>
-      <c r="CH2" s="182"/>
+      <c r="CE2" s="184"/>
+      <c r="CF2" s="184"/>
+      <c r="CG2" s="184"/>
+      <c r="CH2" s="185"/>
     </row>
     <row r="3" spans="6:86" ht="18" customHeight="1">
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="160"/>
-      <c r="M3" s="160"/>
-      <c r="AB3" s="193"/>
-      <c r="AC3" s="193"/>
-      <c r="AD3" s="193"/>
-      <c r="AE3" s="193"/>
-      <c r="AF3" s="193"/>
-      <c r="AG3" s="193"/>
-      <c r="AH3" s="193"/>
-      <c r="AI3" s="193"/>
-      <c r="AJ3" s="193"/>
-      <c r="AK3" s="193"/>
-      <c r="AL3" s="193"/>
-      <c r="AM3" s="193"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="194"/>
+      <c r="AD3" s="194"/>
+      <c r="AE3" s="194"/>
+      <c r="AF3" s="194"/>
+      <c r="AG3" s="194"/>
+      <c r="AH3" s="194"/>
+      <c r="AI3" s="194"/>
+      <c r="AJ3" s="194"/>
+      <c r="AK3" s="194"/>
+      <c r="AL3" s="194"/>
+      <c r="AM3" s="194"/>
       <c r="AN3" s="6"/>
       <c r="AO3" s="6"/>
-      <c r="AP3" s="193" t="s">
+      <c r="AP3" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="AQ3" s="193"/>
-      <c r="AR3" s="193"/>
-      <c r="AS3" s="193"/>
-      <c r="AT3" s="193"/>
-      <c r="AU3" s="193"/>
-      <c r="AV3" s="193"/>
-      <c r="AW3" s="193"/>
-      <c r="AX3" s="193"/>
-      <c r="AY3" s="193"/>
-      <c r="AZ3" s="193"/>
-      <c r="BA3" s="193"/>
-      <c r="BB3" s="193"/>
-      <c r="BC3" s="193"/>
-      <c r="BD3" s="193"/>
-      <c r="BE3" s="193"/>
-      <c r="BF3" s="193"/>
-      <c r="BG3" s="193"/>
+      <c r="AQ3" s="194"/>
+      <c r="AR3" s="194"/>
+      <c r="AS3" s="194"/>
+      <c r="AT3" s="194"/>
+      <c r="AU3" s="194"/>
+      <c r="AV3" s="194"/>
+      <c r="AW3" s="194"/>
+      <c r="AX3" s="194"/>
+      <c r="AY3" s="194"/>
+      <c r="AZ3" s="194"/>
+      <c r="BA3" s="194"/>
+      <c r="BB3" s="194"/>
+      <c r="BC3" s="194"/>
+      <c r="BD3" s="194"/>
+      <c r="BE3" s="194"/>
+      <c r="BF3" s="194"/>
+      <c r="BG3" s="194"/>
       <c r="BH3" s="6"/>
       <c r="BI3" s="6"/>
       <c r="BJ3" s="6"/>
       <c r="BK3" s="6"/>
       <c r="BL3" s="6"/>
       <c r="BM3" s="7"/>
-      <c r="BN3" s="48"/>
-      <c r="BO3" s="49"/>
-      <c r="BP3" s="49"/>
-      <c r="BQ3" s="49"/>
-      <c r="BR3" s="50"/>
-      <c r="BS3" s="48"/>
-      <c r="BT3" s="49"/>
-      <c r="BU3" s="49"/>
-      <c r="BV3" s="49"/>
-      <c r="BW3" s="49"/>
-      <c r="BX3" s="50"/>
-      <c r="BY3" s="48"/>
-      <c r="BZ3" s="49"/>
-      <c r="CA3" s="49"/>
-      <c r="CB3" s="49"/>
-      <c r="CC3" s="50"/>
-      <c r="CD3" s="48"/>
-      <c r="CE3" s="49"/>
-      <c r="CF3" s="49"/>
-      <c r="CG3" s="49"/>
-      <c r="CH3" s="50"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="43"/>
+      <c r="BP3" s="43"/>
+      <c r="BQ3" s="43"/>
+      <c r="BR3" s="44"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="43"/>
+      <c r="BU3" s="43"/>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="43"/>
+      <c r="BX3" s="44"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="43"/>
+      <c r="CA3" s="43"/>
+      <c r="CB3" s="43"/>
+      <c r="CC3" s="44"/>
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="43"/>
+      <c r="CG3" s="43"/>
+      <c r="CH3" s="44"/>
     </row>
     <row r="4" spans="6:86" ht="18" customHeight="1">
-      <c r="AB4" s="193"/>
-      <c r="AC4" s="193"/>
-      <c r="AD4" s="193"/>
-      <c r="AE4" s="193"/>
-      <c r="AF4" s="193"/>
-      <c r="AG4" s="193"/>
-      <c r="AH4" s="193"/>
-      <c r="AI4" s="193"/>
-      <c r="AJ4" s="193"/>
-      <c r="AK4" s="193"/>
-      <c r="AL4" s="193"/>
-      <c r="AM4" s="193"/>
+      <c r="AB4" s="194"/>
+      <c r="AC4" s="194"/>
+      <c r="AD4" s="194"/>
+      <c r="AE4" s="194"/>
+      <c r="AF4" s="194"/>
+      <c r="AG4" s="194"/>
+      <c r="AH4" s="194"/>
+      <c r="AI4" s="194"/>
+      <c r="AJ4" s="194"/>
+      <c r="AK4" s="194"/>
+      <c r="AL4" s="194"/>
+      <c r="AM4" s="194"/>
       <c r="AN4" s="6"/>
       <c r="AO4" s="6"/>
-      <c r="AP4" s="193"/>
-      <c r="AQ4" s="193"/>
-      <c r="AR4" s="193"/>
-      <c r="AS4" s="193"/>
-      <c r="AT4" s="193"/>
-      <c r="AU4" s="193"/>
-      <c r="AV4" s="193"/>
-      <c r="AW4" s="193"/>
-      <c r="AX4" s="193"/>
-      <c r="AY4" s="193"/>
-      <c r="AZ4" s="193"/>
-      <c r="BA4" s="193"/>
-      <c r="BB4" s="193"/>
-      <c r="BC4" s="193"/>
-      <c r="BD4" s="193"/>
-      <c r="BE4" s="193"/>
-      <c r="BF4" s="193"/>
-      <c r="BG4" s="193"/>
+      <c r="AP4" s="194"/>
+      <c r="AQ4" s="194"/>
+      <c r="AR4" s="194"/>
+      <c r="AS4" s="194"/>
+      <c r="AT4" s="194"/>
+      <c r="AU4" s="194"/>
+      <c r="AV4" s="194"/>
+      <c r="AW4" s="194"/>
+      <c r="AX4" s="194"/>
+      <c r="AY4" s="194"/>
+      <c r="AZ4" s="194"/>
+      <c r="BA4" s="194"/>
+      <c r="BB4" s="194"/>
+      <c r="BC4" s="194"/>
+      <c r="BD4" s="194"/>
+      <c r="BE4" s="194"/>
+      <c r="BF4" s="194"/>
+      <c r="BG4" s="194"/>
       <c r="BH4" s="6"/>
       <c r="BI4" s="6"/>
       <c r="BJ4" s="6"/>
       <c r="BK4" s="6"/>
       <c r="BL4" s="6"/>
       <c r="BM4" s="7"/>
-      <c r="BN4" s="188"/>
-      <c r="BO4" s="189"/>
-      <c r="BP4" s="189"/>
-      <c r="BQ4" s="189"/>
-      <c r="BR4" s="190"/>
-      <c r="BS4" s="188"/>
-      <c r="BT4" s="189"/>
-      <c r="BU4" s="189"/>
-      <c r="BV4" s="189"/>
-      <c r="BW4" s="189"/>
-      <c r="BX4" s="190"/>
-      <c r="BY4" s="188"/>
-      <c r="BZ4" s="189"/>
-      <c r="CA4" s="189"/>
-      <c r="CB4" s="189"/>
-      <c r="CC4" s="190"/>
-      <c r="CD4" s="188"/>
-      <c r="CE4" s="189"/>
-      <c r="CF4" s="189"/>
-      <c r="CG4" s="189"/>
-      <c r="CH4" s="190"/>
+      <c r="BN4" s="48"/>
+      <c r="BO4" s="49"/>
+      <c r="BP4" s="49"/>
+      <c r="BQ4" s="49"/>
+      <c r="BR4" s="50"/>
+      <c r="BS4" s="48"/>
+      <c r="BT4" s="49"/>
+      <c r="BU4" s="49"/>
+      <c r="BV4" s="49"/>
+      <c r="BW4" s="49"/>
+      <c r="BX4" s="50"/>
+      <c r="BY4" s="48"/>
+      <c r="BZ4" s="49"/>
+      <c r="CA4" s="49"/>
+      <c r="CB4" s="49"/>
+      <c r="CC4" s="50"/>
+      <c r="CD4" s="48"/>
+      <c r="CE4" s="49"/>
+      <c r="CF4" s="49"/>
+      <c r="CG4" s="49"/>
+      <c r="CH4" s="50"/>
     </row>
     <row r="5" spans="6:86" ht="9" customHeight="1"/>
     <row r="6" spans="6:86" ht="24" customHeight="1">
-      <c r="F6" s="298" t="s">
+      <c r="F6" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="298"/>
-      <c r="H6" s="168" t="s">
+      <c r="G6" s="100"/>
+      <c r="H6" s="220" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="168"/>
-      <c r="J6" s="163" t="s">
+      <c r="I6" s="220"/>
+      <c r="J6" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="163"/>
-      <c r="L6" s="163"/>
-      <c r="M6" s="163"/>
-      <c r="N6" s="163"/>
-      <c r="O6" s="163"/>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="163"/>
-      <c r="S6" s="163"/>
-      <c r="T6" s="163"/>
-      <c r="U6" s="163"/>
-      <c r="V6" s="95" t="s">
+      <c r="K6" s="215"/>
+      <c r="L6" s="215"/>
+      <c r="M6" s="215"/>
+      <c r="N6" s="215"/>
+      <c r="O6" s="215"/>
+      <c r="P6" s="215"/>
+      <c r="Q6" s="215"/>
+      <c r="R6" s="215"/>
+      <c r="S6" s="215"/>
+      <c r="T6" s="215"/>
+      <c r="U6" s="215"/>
+      <c r="V6" s="233" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="96"/>
-      <c r="X6" s="96"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="99" t="s">
+      <c r="W6" s="234"/>
+      <c r="X6" s="234"/>
+      <c r="Y6" s="234"/>
+      <c r="Z6" s="234"/>
+      <c r="AA6" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="AB6" s="100"/>
-      <c r="AC6" s="100"/>
-      <c r="AD6" s="100"/>
-      <c r="AE6" s="100"/>
-      <c r="AF6" s="100"/>
-      <c r="AG6" s="100"/>
-      <c r="AH6" s="100"/>
-      <c r="AI6" s="100"/>
-      <c r="AJ6" s="100"/>
-      <c r="AK6" s="100"/>
-      <c r="AL6" s="100"/>
-      <c r="AM6" s="100"/>
-      <c r="AN6" s="100"/>
-      <c r="AO6" s="100"/>
-      <c r="AP6" s="100"/>
-      <c r="AQ6" s="100"/>
-      <c r="AR6" s="100"/>
-      <c r="AS6" s="100"/>
-      <c r="AT6" s="100"/>
-      <c r="AU6" s="100"/>
-      <c r="AV6" s="100"/>
-      <c r="AW6" s="100"/>
-      <c r="AX6" s="101"/>
-      <c r="AY6" s="100" t="s">
+      <c r="AB6" s="115"/>
+      <c r="AC6" s="115"/>
+      <c r="AD6" s="115"/>
+      <c r="AE6" s="115"/>
+      <c r="AF6" s="115"/>
+      <c r="AG6" s="115"/>
+      <c r="AH6" s="115"/>
+      <c r="AI6" s="115"/>
+      <c r="AJ6" s="115"/>
+      <c r="AK6" s="115"/>
+      <c r="AL6" s="115"/>
+      <c r="AM6" s="115"/>
+      <c r="AN6" s="115"/>
+      <c r="AO6" s="115"/>
+      <c r="AP6" s="115"/>
+      <c r="AQ6" s="115"/>
+      <c r="AR6" s="115"/>
+      <c r="AS6" s="115"/>
+      <c r="AT6" s="115"/>
+      <c r="AU6" s="115"/>
+      <c r="AV6" s="115"/>
+      <c r="AW6" s="115"/>
+      <c r="AX6" s="116"/>
+      <c r="AY6" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="AZ6" s="100"/>
-      <c r="BA6" s="100"/>
-      <c r="BB6" s="100"/>
-      <c r="BC6" s="100"/>
-      <c r="BD6" s="100"/>
-      <c r="BE6" s="100"/>
-      <c r="BF6" s="100"/>
-      <c r="BG6" s="100"/>
-      <c r="BH6" s="100"/>
-      <c r="BI6" s="100"/>
-      <c r="BJ6" s="100"/>
-      <c r="BK6" s="100"/>
-      <c r="BL6" s="100"/>
-      <c r="BM6" s="100"/>
-      <c r="BN6" s="101"/>
-      <c r="BO6" s="48" t="s">
+      <c r="AZ6" s="115"/>
+      <c r="BA6" s="115"/>
+      <c r="BB6" s="115"/>
+      <c r="BC6" s="115"/>
+      <c r="BD6" s="115"/>
+      <c r="BE6" s="115"/>
+      <c r="BF6" s="115"/>
+      <c r="BG6" s="115"/>
+      <c r="BH6" s="115"/>
+      <c r="BI6" s="115"/>
+      <c r="BJ6" s="115"/>
+      <c r="BK6" s="115"/>
+      <c r="BL6" s="115"/>
+      <c r="BM6" s="115"/>
+      <c r="BN6" s="116"/>
+      <c r="BO6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="BP6" s="49"/>
-      <c r="BQ6" s="49"/>
-      <c r="BR6" s="49"/>
-      <c r="BS6" s="49"/>
-      <c r="BT6" s="49"/>
-      <c r="BU6" s="49"/>
-      <c r="BV6" s="49"/>
-      <c r="BW6" s="49"/>
-      <c r="BX6" s="49"/>
-      <c r="BY6" s="49"/>
-      <c r="BZ6" s="49"/>
-      <c r="CA6" s="49"/>
-      <c r="CB6" s="49"/>
-      <c r="CC6" s="49"/>
-      <c r="CD6" s="49"/>
-      <c r="CE6" s="50"/>
-      <c r="CF6" s="197"/>
-      <c r="CG6" s="198"/>
+      <c r="BP6" s="43"/>
+      <c r="BQ6" s="43"/>
+      <c r="BR6" s="43"/>
+      <c r="BS6" s="43"/>
+      <c r="BT6" s="43"/>
+      <c r="BU6" s="43"/>
+      <c r="BV6" s="43"/>
+      <c r="BW6" s="43"/>
+      <c r="BX6" s="43"/>
+      <c r="BY6" s="43"/>
+      <c r="BZ6" s="43"/>
+      <c r="CA6" s="43"/>
+      <c r="CB6" s="43"/>
+      <c r="CC6" s="43"/>
+      <c r="CD6" s="43"/>
+      <c r="CE6" s="44"/>
+      <c r="CF6" s="204"/>
+      <c r="CG6" s="205"/>
       <c r="CH6" s="10"/>
     </row>
     <row r="7" spans="6:86" ht="15.75" customHeight="1">
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="150"/>
-      <c r="S7" s="150"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="164"/>
-      <c r="V7" s="179"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="97"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="73"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="213"/>
+      <c r="L7" s="213"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="217"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="158"/>
+      <c r="R7" s="158"/>
+      <c r="S7" s="158"/>
+      <c r="T7" s="158"/>
+      <c r="U7" s="216"/>
+      <c r="V7" s="305"/>
+      <c r="W7" s="306"/>
+      <c r="X7" s="306"/>
+      <c r="Y7" s="306"/>
+      <c r="Z7" s="306"/>
+      <c r="AA7" s="235"/>
+      <c r="AB7" s="236"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="149"/>
+      <c r="AE7" s="149"/>
+      <c r="AF7" s="149"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="164"/>
       <c r="AI7" s="191"/>
-      <c r="AJ7" s="111"/>
-      <c r="AK7" s="199"/>
-      <c r="AL7" s="111"/>
-      <c r="AM7" s="54"/>
-      <c r="AN7" s="54"/>
-      <c r="AO7" s="54"/>
-      <c r="AP7" s="73"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="54"/>
-      <c r="AS7" s="54"/>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="54"/>
-      <c r="AV7" s="54"/>
-      <c r="AW7" s="145"/>
-      <c r="AX7" s="146"/>
-      <c r="AY7" s="148" t="s">
+      <c r="AJ7" s="148"/>
+      <c r="AK7" s="206"/>
+      <c r="AL7" s="148"/>
+      <c r="AM7" s="149"/>
+      <c r="AN7" s="149"/>
+      <c r="AO7" s="149"/>
+      <c r="AP7" s="164"/>
+      <c r="AQ7" s="73"/>
+      <c r="AR7" s="149"/>
+      <c r="AS7" s="149"/>
+      <c r="AT7" s="149"/>
+      <c r="AU7" s="149"/>
+      <c r="AV7" s="149"/>
+      <c r="AW7" s="266"/>
+      <c r="AX7" s="267"/>
+      <c r="AY7" s="269" t="s">
         <v>36</v>
       </c>
-      <c r="AZ7" s="149"/>
-      <c r="BA7" s="230"/>
-      <c r="BB7" s="230"/>
-      <c r="BC7" s="230"/>
-      <c r="BD7" s="230"/>
-      <c r="BE7" s="230"/>
-      <c r="BF7" s="231"/>
-      <c r="BG7" s="194"/>
-      <c r="BH7" s="195"/>
-      <c r="BI7" s="195"/>
-      <c r="BJ7" s="195"/>
-      <c r="BK7" s="195"/>
-      <c r="BL7" s="195"/>
-      <c r="BM7" s="195"/>
-      <c r="BN7" s="196"/>
-      <c r="BO7" s="129" t="s">
+      <c r="AZ7" s="270"/>
+      <c r="BA7" s="175"/>
+      <c r="BB7" s="175"/>
+      <c r="BC7" s="175"/>
+      <c r="BD7" s="175"/>
+      <c r="BE7" s="175"/>
+      <c r="BF7" s="176"/>
+      <c r="BG7" s="201"/>
+      <c r="BH7" s="202"/>
+      <c r="BI7" s="202"/>
+      <c r="BJ7" s="202"/>
+      <c r="BK7" s="202"/>
+      <c r="BL7" s="202"/>
+      <c r="BM7" s="202"/>
+      <c r="BN7" s="203"/>
+      <c r="BO7" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="BP7" s="130"/>
-      <c r="BQ7" s="130"/>
-      <c r="BR7" s="131"/>
-      <c r="BS7" s="109"/>
-      <c r="BT7" s="56"/>
-      <c r="BU7" s="158"/>
-      <c r="BV7" s="154"/>
-      <c r="BW7" s="155"/>
-      <c r="BX7" s="56"/>
-      <c r="BY7" s="158"/>
-      <c r="BZ7" s="158"/>
-      <c r="CA7" s="112"/>
-      <c r="CB7" s="56"/>
-      <c r="CC7" s="158"/>
-      <c r="CD7" s="158"/>
-      <c r="CE7" s="159"/>
-      <c r="CF7" s="197"/>
-      <c r="CG7" s="198"/>
+      <c r="BP7" s="196"/>
+      <c r="BQ7" s="196"/>
+      <c r="BR7" s="197"/>
+      <c r="BS7" s="160"/>
+      <c r="BT7" s="69"/>
+      <c r="BU7" s="162"/>
+      <c r="BV7" s="68"/>
+      <c r="BW7" s="209"/>
+      <c r="BX7" s="69"/>
+      <c r="BY7" s="162"/>
+      <c r="BZ7" s="162"/>
+      <c r="CA7" s="174"/>
+      <c r="CB7" s="69"/>
+      <c r="CC7" s="162"/>
+      <c r="CD7" s="162"/>
+      <c r="CE7" s="163"/>
+      <c r="CF7" s="204"/>
+      <c r="CG7" s="205"/>
       <c r="CH7" s="10"/>
     </row>
     <row r="8" spans="6:86" ht="21.75" customHeight="1">
-      <c r="F8" s="298"/>
-      <c r="G8" s="298"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="171"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="150"/>
-      <c r="R8" s="150"/>
-      <c r="S8" s="150"/>
-      <c r="T8" s="150"/>
-      <c r="U8" s="164"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="172"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="75"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="220"/>
+      <c r="I8" s="220"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="219"/>
+      <c r="L8" s="223"/>
+      <c r="M8" s="224"/>
+      <c r="N8" s="217"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="158"/>
+      <c r="R8" s="158"/>
+      <c r="S8" s="158"/>
+      <c r="T8" s="158"/>
+      <c r="U8" s="216"/>
+      <c r="V8" s="307"/>
+      <c r="W8" s="308"/>
+      <c r="X8" s="308"/>
+      <c r="Y8" s="308"/>
+      <c r="Z8" s="308"/>
+      <c r="AA8" s="232"/>
+      <c r="AB8" s="237"/>
+      <c r="AC8" s="165"/>
+      <c r="AD8" s="157"/>
+      <c r="AE8" s="157"/>
+      <c r="AF8" s="157"/>
+      <c r="AG8" s="157"/>
+      <c r="AH8" s="166"/>
       <c r="AI8" s="192"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="200"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="75"/>
-      <c r="AQ8" s="172"/>
-      <c r="AR8" s="74"/>
-      <c r="AS8" s="74"/>
-      <c r="AT8" s="74"/>
-      <c r="AU8" s="74"/>
-      <c r="AV8" s="74"/>
-      <c r="AW8" s="147"/>
-      <c r="AX8" s="115"/>
-      <c r="AY8" s="139" t="s">
+      <c r="AJ8" s="193"/>
+      <c r="AK8" s="207"/>
+      <c r="AL8" s="193"/>
+      <c r="AM8" s="157"/>
+      <c r="AN8" s="157"/>
+      <c r="AO8" s="157"/>
+      <c r="AP8" s="166"/>
+      <c r="AQ8" s="165"/>
+      <c r="AR8" s="157"/>
+      <c r="AS8" s="157"/>
+      <c r="AT8" s="157"/>
+      <c r="AU8" s="157"/>
+      <c r="AV8" s="157"/>
+      <c r="AW8" s="268"/>
+      <c r="AX8" s="242"/>
+      <c r="AY8" s="260" t="s">
         <v>37</v>
       </c>
-      <c r="AZ8" s="140"/>
-      <c r="BA8" s="232"/>
-      <c r="BB8" s="232"/>
-      <c r="BC8" s="232"/>
-      <c r="BD8" s="232"/>
-      <c r="BE8" s="232"/>
-      <c r="BF8" s="233"/>
-      <c r="BG8" s="234" t="s">
+      <c r="AZ8" s="261"/>
+      <c r="BA8" s="177"/>
+      <c r="BB8" s="177"/>
+      <c r="BC8" s="177"/>
+      <c r="BD8" s="177"/>
+      <c r="BE8" s="177"/>
+      <c r="BF8" s="178"/>
+      <c r="BG8" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="BH8" s="235"/>
-      <c r="BI8" s="141"/>
-      <c r="BJ8" s="141"/>
-      <c r="BK8" s="141"/>
-      <c r="BL8" s="141"/>
-      <c r="BM8" s="141"/>
-      <c r="BN8" s="142"/>
-      <c r="BO8" s="132"/>
-      <c r="BP8" s="133"/>
-      <c r="BQ8" s="133"/>
-      <c r="BR8" s="134"/>
-      <c r="BS8" s="111"/>
-      <c r="BT8" s="53"/>
-      <c r="BU8" s="54"/>
-      <c r="BV8" s="156"/>
-      <c r="BW8" s="157"/>
-      <c r="BX8" s="53"/>
-      <c r="BY8" s="54"/>
-      <c r="BZ8" s="54"/>
-      <c r="CA8" s="107"/>
-      <c r="CB8" s="53"/>
-      <c r="CC8" s="54"/>
-      <c r="CD8" s="54"/>
-      <c r="CE8" s="73"/>
-      <c r="CF8" s="197"/>
-      <c r="CG8" s="198"/>
+      <c r="BH8" s="180"/>
+      <c r="BI8" s="262"/>
+      <c r="BJ8" s="262"/>
+      <c r="BK8" s="262"/>
+      <c r="BL8" s="262"/>
+      <c r="BM8" s="262"/>
+      <c r="BN8" s="263"/>
+      <c r="BO8" s="198"/>
+      <c r="BP8" s="199"/>
+      <c r="BQ8" s="199"/>
+      <c r="BR8" s="200"/>
+      <c r="BS8" s="148"/>
+      <c r="BT8" s="73"/>
+      <c r="BU8" s="149"/>
+      <c r="BV8" s="210"/>
+      <c r="BW8" s="211"/>
+      <c r="BX8" s="73"/>
+      <c r="BY8" s="149"/>
+      <c r="BZ8" s="149"/>
+      <c r="CA8" s="168"/>
+      <c r="CB8" s="73"/>
+      <c r="CC8" s="149"/>
+      <c r="CD8" s="149"/>
+      <c r="CE8" s="164"/>
+      <c r="CF8" s="204"/>
+      <c r="CG8" s="205"/>
       <c r="CH8" s="10"/>
     </row>
     <row r="9" spans="6:86" ht="15.75" customHeight="1">
-      <c r="F9" s="298"/>
-      <c r="G9" s="298"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="201" t="s">
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="220"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="202"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="151" t="s">
+      <c r="K9" s="133"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="271" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="152"/>
+      <c r="N9" s="272"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="65" t="s">
+      <c r="S9" s="193"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="157"/>
+      <c r="X9" s="157"/>
+      <c r="Y9" s="157"/>
+      <c r="Z9" s="157"/>
+      <c r="AA9" s="149"/>
+      <c r="AB9" s="149"/>
+      <c r="AC9" s="149"/>
+      <c r="AD9" s="149"/>
+      <c r="AE9" s="149"/>
+      <c r="AF9" s="164"/>
+      <c r="AG9" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="143" t="s">
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="287"/>
+      <c r="AJ9" s="264" t="s">
         <v>25</v>
       </c>
-      <c r="AK9" s="144"/>
-      <c r="AL9" s="144"/>
-      <c r="AM9" s="144"/>
-      <c r="AN9" s="135"/>
-      <c r="AO9" s="135"/>
-      <c r="AP9" s="135"/>
-      <c r="AQ9" s="135"/>
-      <c r="AR9" s="135"/>
-      <c r="AS9" s="135"/>
-      <c r="AT9" s="135"/>
-      <c r="AU9" s="135"/>
-      <c r="AV9" s="135"/>
-      <c r="AW9" s="135"/>
-      <c r="AX9" s="135"/>
-      <c r="AY9" s="135"/>
-      <c r="AZ9" s="135"/>
-      <c r="BA9" s="135"/>
-      <c r="BB9" s="135"/>
-      <c r="BC9" s="135"/>
-      <c r="BD9" s="135"/>
-      <c r="BE9" s="135"/>
-      <c r="BF9" s="135"/>
-      <c r="BG9" s="135"/>
-      <c r="BH9" s="135"/>
-      <c r="BI9" s="135"/>
-      <c r="BJ9" s="135"/>
-      <c r="BK9" s="135"/>
-      <c r="BL9" s="135"/>
-      <c r="BM9" s="135"/>
-      <c r="BN9" s="135"/>
-      <c r="BO9" s="135"/>
-      <c r="BP9" s="135"/>
-      <c r="BQ9" s="135"/>
-      <c r="BR9" s="135"/>
-      <c r="BS9" s="135"/>
-      <c r="BT9" s="135"/>
-      <c r="BU9" s="135"/>
-      <c r="BV9" s="135"/>
-      <c r="BW9" s="135"/>
-      <c r="BX9" s="135"/>
-      <c r="BY9" s="135"/>
-      <c r="BZ9" s="135"/>
-      <c r="CA9" s="135"/>
-      <c r="CB9" s="135"/>
-      <c r="CC9" s="135"/>
-      <c r="CD9" s="135"/>
-      <c r="CE9" s="135"/>
-      <c r="CF9" s="135"/>
-      <c r="CG9" s="136"/>
+      <c r="AK9" s="265"/>
+      <c r="AL9" s="265"/>
+      <c r="AM9" s="265"/>
+      <c r="AN9" s="256"/>
+      <c r="AO9" s="256"/>
+      <c r="AP9" s="256"/>
+      <c r="AQ9" s="256"/>
+      <c r="AR9" s="256"/>
+      <c r="AS9" s="256"/>
+      <c r="AT9" s="256"/>
+      <c r="AU9" s="256"/>
+      <c r="AV9" s="256"/>
+      <c r="AW9" s="256"/>
+      <c r="AX9" s="256"/>
+      <c r="AY9" s="256"/>
+      <c r="AZ9" s="256"/>
+      <c r="BA9" s="256"/>
+      <c r="BB9" s="256"/>
+      <c r="BC9" s="256"/>
+      <c r="BD9" s="256"/>
+      <c r="BE9" s="256"/>
+      <c r="BF9" s="256"/>
+      <c r="BG9" s="256"/>
+      <c r="BH9" s="256"/>
+      <c r="BI9" s="256"/>
+      <c r="BJ9" s="256"/>
+      <c r="BK9" s="256"/>
+      <c r="BL9" s="256"/>
+      <c r="BM9" s="256"/>
+      <c r="BN9" s="256"/>
+      <c r="BO9" s="256"/>
+      <c r="BP9" s="256"/>
+      <c r="BQ9" s="256"/>
+      <c r="BR9" s="256"/>
+      <c r="BS9" s="256"/>
+      <c r="BT9" s="256"/>
+      <c r="BU9" s="256"/>
+      <c r="BV9" s="256"/>
+      <c r="BW9" s="256"/>
+      <c r="BX9" s="256"/>
+      <c r="BY9" s="256"/>
+      <c r="BZ9" s="256"/>
+      <c r="CA9" s="256"/>
+      <c r="CB9" s="256"/>
+      <c r="CC9" s="256"/>
+      <c r="CD9" s="256"/>
+      <c r="CE9" s="256"/>
+      <c r="CF9" s="256"/>
+      <c r="CG9" s="257"/>
     </row>
     <row r="10" spans="6:86" ht="15.75" customHeight="1">
-      <c r="F10" s="298"/>
-      <c r="G10" s="298"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="206"/>
-      <c r="M10" s="220" t="s">
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="220"/>
+      <c r="I10" s="220"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="221"/>
-      <c r="O10" s="221"/>
-      <c r="P10" s="221"/>
-      <c r="Q10" s="221"/>
-      <c r="R10" s="221"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="65"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="210"/>
-      <c r="AK10" s="211"/>
-      <c r="AL10" s="211"/>
-      <c r="AM10" s="211"/>
-      <c r="AN10" s="211"/>
-      <c r="AO10" s="211"/>
-      <c r="AP10" s="211"/>
-      <c r="AQ10" s="211"/>
-      <c r="AR10" s="211"/>
-      <c r="AS10" s="211"/>
-      <c r="AT10" s="211"/>
-      <c r="AU10" s="211"/>
-      <c r="AV10" s="211"/>
-      <c r="AW10" s="211"/>
-      <c r="AX10" s="211"/>
-      <c r="AY10" s="211"/>
-      <c r="AZ10" s="211"/>
-      <c r="BA10" s="211"/>
-      <c r="BB10" s="211"/>
-      <c r="BC10" s="211"/>
-      <c r="BD10" s="211"/>
-      <c r="BE10" s="211"/>
-      <c r="BF10" s="211"/>
-      <c r="BG10" s="211"/>
-      <c r="BH10" s="211"/>
-      <c r="BI10" s="211"/>
-      <c r="BJ10" s="211"/>
-      <c r="BK10" s="211"/>
-      <c r="BL10" s="211"/>
-      <c r="BM10" s="211"/>
-      <c r="BN10" s="211"/>
-      <c r="BO10" s="211"/>
-      <c r="BP10" s="211"/>
-      <c r="BQ10" s="211"/>
-      <c r="BR10" s="211"/>
-      <c r="BS10" s="211"/>
-      <c r="BT10" s="211"/>
-      <c r="BU10" s="211"/>
-      <c r="BV10" s="211"/>
-      <c r="BW10" s="211"/>
-      <c r="BX10" s="211"/>
-      <c r="BY10" s="211"/>
-      <c r="BZ10" s="211"/>
-      <c r="CA10" s="211"/>
-      <c r="CB10" s="211"/>
-      <c r="CC10" s="211"/>
-      <c r="CD10" s="211"/>
-      <c r="CE10" s="211"/>
-      <c r="CF10" s="211"/>
-      <c r="CG10" s="212"/>
+      <c r="N10" s="151"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="151"/>
+      <c r="Q10" s="151"/>
+      <c r="R10" s="151"/>
+      <c r="S10" s="193"/>
+      <c r="T10" s="157"/>
+      <c r="U10" s="157"/>
+      <c r="V10" s="157"/>
+      <c r="W10" s="157"/>
+      <c r="X10" s="157"/>
+      <c r="Y10" s="157"/>
+      <c r="Z10" s="157"/>
+      <c r="AA10" s="157"/>
+      <c r="AB10" s="157"/>
+      <c r="AC10" s="157"/>
+      <c r="AD10" s="157"/>
+      <c r="AE10" s="157"/>
+      <c r="AF10" s="166"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="287"/>
+      <c r="AJ10" s="141"/>
+      <c r="AK10" s="127"/>
+      <c r="AL10" s="127"/>
+      <c r="AM10" s="127"/>
+      <c r="AN10" s="127"/>
+      <c r="AO10" s="127"/>
+      <c r="AP10" s="127"/>
+      <c r="AQ10" s="127"/>
+      <c r="AR10" s="127"/>
+      <c r="AS10" s="127"/>
+      <c r="AT10" s="127"/>
+      <c r="AU10" s="127"/>
+      <c r="AV10" s="127"/>
+      <c r="AW10" s="127"/>
+      <c r="AX10" s="127"/>
+      <c r="AY10" s="127"/>
+      <c r="AZ10" s="127"/>
+      <c r="BA10" s="127"/>
+      <c r="BB10" s="127"/>
+      <c r="BC10" s="127"/>
+      <c r="BD10" s="127"/>
+      <c r="BE10" s="127"/>
+      <c r="BF10" s="127"/>
+      <c r="BG10" s="127"/>
+      <c r="BH10" s="127"/>
+      <c r="BI10" s="127"/>
+      <c r="BJ10" s="127"/>
+      <c r="BK10" s="127"/>
+      <c r="BL10" s="127"/>
+      <c r="BM10" s="127"/>
+      <c r="BN10" s="127"/>
+      <c r="BO10" s="127"/>
+      <c r="BP10" s="127"/>
+      <c r="BQ10" s="127"/>
+      <c r="BR10" s="127"/>
+      <c r="BS10" s="127"/>
+      <c r="BT10" s="127"/>
+      <c r="BU10" s="127"/>
+      <c r="BV10" s="127"/>
+      <c r="BW10" s="127"/>
+      <c r="BX10" s="127"/>
+      <c r="BY10" s="127"/>
+      <c r="BZ10" s="127"/>
+      <c r="CA10" s="127"/>
+      <c r="CB10" s="127"/>
+      <c r="CC10" s="127"/>
+      <c r="CD10" s="127"/>
+      <c r="CE10" s="127"/>
+      <c r="CF10" s="127"/>
+      <c r="CG10" s="128"/>
     </row>
     <row r="11" spans="6:86" ht="15.75" customHeight="1">
-      <c r="F11" s="298"/>
-      <c r="G11" s="298"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="207"/>
-      <c r="K11" s="208"/>
-      <c r="L11" s="209"/>
-      <c r="M11" s="222"/>
-      <c r="N11" s="223"/>
-      <c r="O11" s="223"/>
-      <c r="P11" s="223"/>
-      <c r="Q11" s="223"/>
-      <c r="R11" s="223"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="74"/>
-      <c r="AB11" s="74"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="74"/>
-      <c r="AE11" s="74"/>
-      <c r="AF11" s="75"/>
-      <c r="AG11" s="68"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="70"/>
-      <c r="AJ11" s="213"/>
-      <c r="AK11" s="214"/>
-      <c r="AL11" s="214"/>
-      <c r="AM11" s="214"/>
-      <c r="AN11" s="214"/>
-      <c r="AO11" s="214"/>
-      <c r="AP11" s="214"/>
-      <c r="AQ11" s="214"/>
-      <c r="AR11" s="214"/>
-      <c r="AS11" s="214"/>
-      <c r="AT11" s="214"/>
-      <c r="AU11" s="214"/>
-      <c r="AV11" s="214"/>
-      <c r="AW11" s="214"/>
-      <c r="AX11" s="214"/>
-      <c r="AY11" s="214"/>
-      <c r="AZ11" s="214"/>
-      <c r="BA11" s="214"/>
-      <c r="BB11" s="214"/>
-      <c r="BC11" s="214"/>
-      <c r="BD11" s="214"/>
-      <c r="BE11" s="214"/>
-      <c r="BF11" s="214"/>
-      <c r="BG11" s="214"/>
-      <c r="BH11" s="214"/>
-      <c r="BI11" s="214"/>
-      <c r="BJ11" s="214"/>
-      <c r="BK11" s="214"/>
-      <c r="BL11" s="214"/>
-      <c r="BM11" s="214"/>
-      <c r="BN11" s="214"/>
-      <c r="BO11" s="214"/>
-      <c r="BP11" s="214"/>
-      <c r="BQ11" s="214"/>
-      <c r="BR11" s="214"/>
-      <c r="BS11" s="214"/>
-      <c r="BT11" s="214"/>
-      <c r="BU11" s="214"/>
-      <c r="BV11" s="214"/>
-      <c r="BW11" s="214"/>
-      <c r="BX11" s="214"/>
-      <c r="BY11" s="214"/>
-      <c r="BZ11" s="214"/>
-      <c r="CA11" s="214"/>
-      <c r="CB11" s="214"/>
-      <c r="CC11" s="214"/>
-      <c r="CD11" s="214"/>
-      <c r="CE11" s="214"/>
-      <c r="CF11" s="214"/>
-      <c r="CG11" s="215"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="220"/>
+      <c r="I11" s="220"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="152"/>
+      <c r="N11" s="153"/>
+      <c r="O11" s="153"/>
+      <c r="P11" s="153"/>
+      <c r="Q11" s="153"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="193"/>
+      <c r="T11" s="157"/>
+      <c r="U11" s="157"/>
+      <c r="V11" s="157"/>
+      <c r="W11" s="157"/>
+      <c r="X11" s="157"/>
+      <c r="Y11" s="157"/>
+      <c r="Z11" s="157"/>
+      <c r="AA11" s="157"/>
+      <c r="AB11" s="157"/>
+      <c r="AC11" s="157"/>
+      <c r="AD11" s="157"/>
+      <c r="AE11" s="157"/>
+      <c r="AF11" s="166"/>
+      <c r="AG11" s="91"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="288"/>
+      <c r="AJ11" s="142"/>
+      <c r="AK11" s="98"/>
+      <c r="AL11" s="98"/>
+      <c r="AM11" s="98"/>
+      <c r="AN11" s="98"/>
+      <c r="AO11" s="98"/>
+      <c r="AP11" s="98"/>
+      <c r="AQ11" s="98"/>
+      <c r="AR11" s="98"/>
+      <c r="AS11" s="98"/>
+      <c r="AT11" s="98"/>
+      <c r="AU11" s="98"/>
+      <c r="AV11" s="98"/>
+      <c r="AW11" s="98"/>
+      <c r="AX11" s="98"/>
+      <c r="AY11" s="98"/>
+      <c r="AZ11" s="98"/>
+      <c r="BA11" s="98"/>
+      <c r="BB11" s="98"/>
+      <c r="BC11" s="98"/>
+      <c r="BD11" s="98"/>
+      <c r="BE11" s="98"/>
+      <c r="BF11" s="98"/>
+      <c r="BG11" s="98"/>
+      <c r="BH11" s="98"/>
+      <c r="BI11" s="98"/>
+      <c r="BJ11" s="98"/>
+      <c r="BK11" s="98"/>
+      <c r="BL11" s="98"/>
+      <c r="BM11" s="98"/>
+      <c r="BN11" s="98"/>
+      <c r="BO11" s="98"/>
+      <c r="BP11" s="98"/>
+      <c r="BQ11" s="98"/>
+      <c r="BR11" s="98"/>
+      <c r="BS11" s="98"/>
+      <c r="BT11" s="98"/>
+      <c r="BU11" s="98"/>
+      <c r="BV11" s="98"/>
+      <c r="BW11" s="98"/>
+      <c r="BX11" s="98"/>
+      <c r="BY11" s="98"/>
+      <c r="BZ11" s="98"/>
+      <c r="CA11" s="98"/>
+      <c r="CB11" s="98"/>
+      <c r="CC11" s="98"/>
+      <c r="CD11" s="98"/>
+      <c r="CE11" s="98"/>
+      <c r="CF11" s="98"/>
+      <c r="CG11" s="143"/>
     </row>
     <row r="12" spans="6:86" ht="15.75" customHeight="1">
-      <c r="F12" s="298"/>
-      <c r="G12" s="298"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="89" t="s">
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="220"/>
+      <c r="I12" s="220"/>
+      <c r="J12" s="299" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="90"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="248" t="s">
+      <c r="K12" s="300"/>
+      <c r="L12" s="301"/>
+      <c r="M12" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="249"/>
-      <c r="O12" s="224" t="s">
+      <c r="N12" s="121"/>
+      <c r="O12" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="P12" s="224"/>
-      <c r="Q12" s="224"/>
-      <c r="R12" s="225"/>
-      <c r="S12" s="216"/>
-      <c r="T12" s="217"/>
-      <c r="U12" s="217"/>
-      <c r="V12" s="217"/>
-      <c r="W12" s="217"/>
-      <c r="X12" s="217"/>
-      <c r="Y12" s="217"/>
-      <c r="Z12" s="217"/>
-      <c r="AA12" s="217"/>
-      <c r="AB12" s="217"/>
-      <c r="AC12" s="217"/>
-      <c r="AD12" s="217"/>
-      <c r="AE12" s="217"/>
-      <c r="AF12" s="217"/>
-      <c r="AG12" s="217"/>
-      <c r="AH12" s="217"/>
-      <c r="AI12" s="217"/>
-      <c r="AJ12" s="217"/>
-      <c r="AK12" s="217"/>
-      <c r="AL12" s="217"/>
-      <c r="AM12" s="217"/>
-      <c r="AN12" s="217"/>
-      <c r="AO12" s="217"/>
-      <c r="AP12" s="217"/>
-      <c r="AQ12" s="217"/>
-      <c r="AR12" s="217"/>
-      <c r="AS12" s="217"/>
-      <c r="AT12" s="217"/>
-      <c r="AU12" s="217"/>
-      <c r="AV12" s="217"/>
-      <c r="AW12" s="217"/>
-      <c r="AX12" s="217"/>
-      <c r="AY12" s="217"/>
-      <c r="AZ12" s="217"/>
-      <c r="BA12" s="217"/>
-      <c r="BB12" s="217"/>
-      <c r="BC12" s="217"/>
-      <c r="BD12" s="217"/>
-      <c r="BE12" s="217"/>
-      <c r="BF12" s="217"/>
-      <c r="BG12" s="217"/>
-      <c r="BH12" s="217"/>
-      <c r="BI12" s="217"/>
-      <c r="BJ12" s="217"/>
-      <c r="BK12" s="217"/>
-      <c r="BL12" s="217"/>
-      <c r="BM12" s="217"/>
-      <c r="BN12" s="217"/>
-      <c r="BO12" s="217"/>
-      <c r="BP12" s="217"/>
-      <c r="BQ12" s="217"/>
-      <c r="BR12" s="217"/>
-      <c r="BS12" s="217"/>
-      <c r="BT12" s="217"/>
-      <c r="BU12" s="217"/>
-      <c r="BV12" s="217"/>
-      <c r="BW12" s="217"/>
-      <c r="BX12" s="217"/>
-      <c r="BY12" s="217"/>
-      <c r="BZ12" s="217"/>
-      <c r="CA12" s="217"/>
-      <c r="CB12" s="217"/>
-      <c r="CC12" s="217"/>
-      <c r="CD12" s="217"/>
-      <c r="CE12" s="217"/>
-      <c r="CF12" s="217"/>
-      <c r="CG12" s="218"/>
+      <c r="P12" s="154"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="155"/>
+      <c r="S12" s="144"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="95"/>
+      <c r="AL12" s="95"/>
+      <c r="AM12" s="95"/>
+      <c r="AN12" s="95"/>
+      <c r="AO12" s="95"/>
+      <c r="AP12" s="95"/>
+      <c r="AQ12" s="95"/>
+      <c r="AR12" s="95"/>
+      <c r="AS12" s="95"/>
+      <c r="AT12" s="95"/>
+      <c r="AU12" s="95"/>
+      <c r="AV12" s="95"/>
+      <c r="AW12" s="95"/>
+      <c r="AX12" s="95"/>
+      <c r="AY12" s="95"/>
+      <c r="AZ12" s="95"/>
+      <c r="BA12" s="95"/>
+      <c r="BB12" s="95"/>
+      <c r="BC12" s="95"/>
+      <c r="BD12" s="95"/>
+      <c r="BE12" s="95"/>
+      <c r="BF12" s="95"/>
+      <c r="BG12" s="95"/>
+      <c r="BH12" s="95"/>
+      <c r="BI12" s="95"/>
+      <c r="BJ12" s="95"/>
+      <c r="BK12" s="95"/>
+      <c r="BL12" s="95"/>
+      <c r="BM12" s="95"/>
+      <c r="BN12" s="95"/>
+      <c r="BO12" s="95"/>
+      <c r="BP12" s="95"/>
+      <c r="BQ12" s="95"/>
+      <c r="BR12" s="95"/>
+      <c r="BS12" s="95"/>
+      <c r="BT12" s="95"/>
+      <c r="BU12" s="95"/>
+      <c r="BV12" s="95"/>
+      <c r="BW12" s="95"/>
+      <c r="BX12" s="95"/>
+      <c r="BY12" s="95"/>
+      <c r="BZ12" s="95"/>
+      <c r="CA12" s="95"/>
+      <c r="CB12" s="95"/>
+      <c r="CC12" s="95"/>
+      <c r="CD12" s="95"/>
+      <c r="CE12" s="95"/>
+      <c r="CF12" s="95"/>
+      <c r="CG12" s="145"/>
     </row>
     <row r="13" spans="6:86" ht="15.75" customHeight="1">
-      <c r="F13" s="298"/>
-      <c r="G13" s="298"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="94"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="220"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="302"/>
+      <c r="K13" s="303"/>
+      <c r="L13" s="304"/>
       <c r="M13" s="15"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="223"/>
-      <c r="P13" s="223"/>
-      <c r="Q13" s="223"/>
-      <c r="R13" s="226"/>
-      <c r="S13" s="213"/>
-      <c r="T13" s="214"/>
-      <c r="U13" s="214"/>
-      <c r="V13" s="214"/>
-      <c r="W13" s="214"/>
-      <c r="X13" s="214"/>
-      <c r="Y13" s="214"/>
-      <c r="Z13" s="214"/>
-      <c r="AA13" s="214"/>
-      <c r="AB13" s="214"/>
-      <c r="AC13" s="214"/>
-      <c r="AD13" s="214"/>
-      <c r="AE13" s="214"/>
-      <c r="AF13" s="214"/>
-      <c r="AG13" s="214"/>
-      <c r="AH13" s="214"/>
-      <c r="AI13" s="214"/>
-      <c r="AJ13" s="214"/>
-      <c r="AK13" s="214"/>
-      <c r="AL13" s="214"/>
-      <c r="AM13" s="214"/>
-      <c r="AN13" s="214"/>
-      <c r="AO13" s="214"/>
-      <c r="AP13" s="214"/>
-      <c r="AQ13" s="214"/>
-      <c r="AR13" s="214"/>
-      <c r="AS13" s="214"/>
-      <c r="AT13" s="214"/>
-      <c r="AU13" s="214"/>
-      <c r="AV13" s="214"/>
-      <c r="AW13" s="214"/>
-      <c r="AX13" s="214"/>
-      <c r="AY13" s="214"/>
-      <c r="AZ13" s="214"/>
-      <c r="BA13" s="214"/>
-      <c r="BB13" s="214"/>
-      <c r="BC13" s="214"/>
-      <c r="BD13" s="214"/>
-      <c r="BE13" s="214"/>
-      <c r="BF13" s="214"/>
-      <c r="BG13" s="214"/>
-      <c r="BH13" s="214"/>
-      <c r="BI13" s="214"/>
-      <c r="BJ13" s="214"/>
-      <c r="BK13" s="214"/>
-      <c r="BL13" s="214"/>
-      <c r="BM13" s="214"/>
-      <c r="BN13" s="214"/>
-      <c r="BO13" s="214"/>
-      <c r="BP13" s="214"/>
-      <c r="BQ13" s="214"/>
-      <c r="BR13" s="214"/>
-      <c r="BS13" s="214"/>
-      <c r="BT13" s="214"/>
-      <c r="BU13" s="214"/>
-      <c r="BV13" s="214"/>
-      <c r="BW13" s="214"/>
-      <c r="BX13" s="214"/>
-      <c r="BY13" s="214"/>
-      <c r="BZ13" s="214"/>
-      <c r="CA13" s="214"/>
-      <c r="CB13" s="214"/>
-      <c r="CC13" s="214"/>
-      <c r="CD13" s="214"/>
-      <c r="CE13" s="214"/>
-      <c r="CF13" s="214"/>
-      <c r="CG13" s="215"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="142"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="98"/>
+      <c r="AH13" s="98"/>
+      <c r="AI13" s="98"/>
+      <c r="AJ13" s="98"/>
+      <c r="AK13" s="98"/>
+      <c r="AL13" s="98"/>
+      <c r="AM13" s="98"/>
+      <c r="AN13" s="98"/>
+      <c r="AO13" s="98"/>
+      <c r="AP13" s="98"/>
+      <c r="AQ13" s="98"/>
+      <c r="AR13" s="98"/>
+      <c r="AS13" s="98"/>
+      <c r="AT13" s="98"/>
+      <c r="AU13" s="98"/>
+      <c r="AV13" s="98"/>
+      <c r="AW13" s="98"/>
+      <c r="AX13" s="98"/>
+      <c r="AY13" s="98"/>
+      <c r="AZ13" s="98"/>
+      <c r="BA13" s="98"/>
+      <c r="BB13" s="98"/>
+      <c r="BC13" s="98"/>
+      <c r="BD13" s="98"/>
+      <c r="BE13" s="98"/>
+      <c r="BF13" s="98"/>
+      <c r="BG13" s="98"/>
+      <c r="BH13" s="98"/>
+      <c r="BI13" s="98"/>
+      <c r="BJ13" s="98"/>
+      <c r="BK13" s="98"/>
+      <c r="BL13" s="98"/>
+      <c r="BM13" s="98"/>
+      <c r="BN13" s="98"/>
+      <c r="BO13" s="98"/>
+      <c r="BP13" s="98"/>
+      <c r="BQ13" s="98"/>
+      <c r="BR13" s="98"/>
+      <c r="BS13" s="98"/>
+      <c r="BT13" s="98"/>
+      <c r="BU13" s="98"/>
+      <c r="BV13" s="98"/>
+      <c r="BW13" s="98"/>
+      <c r="BX13" s="98"/>
+      <c r="BY13" s="98"/>
+      <c r="BZ13" s="98"/>
+      <c r="CA13" s="98"/>
+      <c r="CB13" s="98"/>
+      <c r="CC13" s="98"/>
+      <c r="CD13" s="98"/>
+      <c r="CE13" s="98"/>
+      <c r="CF13" s="98"/>
+      <c r="CG13" s="143"/>
     </row>
     <row r="14" spans="6:86" ht="15.75" customHeight="1">
-      <c r="F14" s="298"/>
-      <c r="G14" s="298"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="85" t="s">
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="220"/>
+      <c r="I14" s="220"/>
+      <c r="J14" s="295" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="227" t="s">
+      <c r="K14" s="295"/>
+      <c r="L14" s="295"/>
+      <c r="M14" s="295"/>
+      <c r="N14" s="295"/>
+      <c r="O14" s="296"/>
+      <c r="P14" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="Q14" s="228"/>
-      <c r="R14" s="228"/>
-      <c r="S14" s="229"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="158"/>
-      <c r="V14" s="112"/>
-      <c r="W14" s="108"/>
-      <c r="X14" s="108"/>
-      <c r="Y14" s="109"/>
-      <c r="Z14" s="112"/>
-      <c r="AA14" s="108"/>
-      <c r="AB14" s="108"/>
-      <c r="AC14" s="109"/>
-      <c r="AD14" s="158"/>
-      <c r="AE14" s="159"/>
-      <c r="AF14" s="122"/>
-      <c r="AG14" s="123"/>
-      <c r="AH14" s="124"/>
-      <c r="AI14" s="76" t="s">
+      <c r="Q14" s="172"/>
+      <c r="R14" s="172"/>
+      <c r="S14" s="173"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="162"/>
+      <c r="V14" s="174"/>
+      <c r="W14" s="159"/>
+      <c r="X14" s="159"/>
+      <c r="Y14" s="160"/>
+      <c r="Z14" s="174"/>
+      <c r="AA14" s="159"/>
+      <c r="AB14" s="159"/>
+      <c r="AC14" s="160"/>
+      <c r="AD14" s="162"/>
+      <c r="AE14" s="163"/>
+      <c r="AF14" s="249"/>
+      <c r="AG14" s="250"/>
+      <c r="AH14" s="251"/>
+      <c r="AI14" s="289" t="s">
         <v>14</v>
       </c>
-      <c r="AJ14" s="77"/>
-      <c r="AK14" s="77"/>
-      <c r="AL14" s="77"/>
-      <c r="AM14" s="116" t="s">
-        <v>59</v>
+      <c r="AJ14" s="290"/>
+      <c r="AK14" s="290"/>
+      <c r="AL14" s="290"/>
+      <c r="AM14" s="243" t="s">
+        <v>60</v>
       </c>
-      <c r="AN14" s="117"/>
-      <c r="AO14" s="117"/>
-      <c r="AP14" s="117"/>
-      <c r="AQ14" s="117"/>
-      <c r="AR14" s="117"/>
-      <c r="AS14" s="117"/>
-      <c r="AT14" s="117"/>
-      <c r="AU14" s="117"/>
-      <c r="AV14" s="117"/>
-      <c r="AW14" s="117"/>
-      <c r="AX14" s="117"/>
-      <c r="AY14" s="117"/>
-      <c r="AZ14" s="117"/>
-      <c r="BA14" s="117"/>
-      <c r="BB14" s="117"/>
-      <c r="BC14" s="117"/>
-      <c r="BD14" s="117"/>
-      <c r="BE14" s="117"/>
-      <c r="BF14" s="117"/>
-      <c r="BG14" s="117"/>
-      <c r="BH14" s="117"/>
-      <c r="BI14" s="117"/>
-      <c r="BJ14" s="117"/>
-      <c r="BK14" s="117"/>
-      <c r="BL14" s="117"/>
-      <c r="BM14" s="117"/>
-      <c r="BN14" s="117"/>
-      <c r="BO14" s="117"/>
-      <c r="BP14" s="117"/>
-      <c r="BQ14" s="117"/>
-      <c r="BR14" s="118"/>
+      <c r="AN14" s="244"/>
+      <c r="AO14" s="244"/>
+      <c r="AP14" s="244"/>
+      <c r="AQ14" s="244"/>
+      <c r="AR14" s="244"/>
+      <c r="AS14" s="244"/>
+      <c r="AT14" s="244"/>
+      <c r="AU14" s="244"/>
+      <c r="AV14" s="244"/>
+      <c r="AW14" s="244"/>
+      <c r="AX14" s="244"/>
+      <c r="AY14" s="244"/>
+      <c r="AZ14" s="244"/>
+      <c r="BA14" s="244"/>
+      <c r="BB14" s="244"/>
+      <c r="BC14" s="244"/>
+      <c r="BD14" s="244"/>
+      <c r="BE14" s="244"/>
+      <c r="BF14" s="244"/>
+      <c r="BG14" s="244"/>
+      <c r="BH14" s="244"/>
+      <c r="BI14" s="244"/>
+      <c r="BJ14" s="244"/>
+      <c r="BK14" s="244"/>
+      <c r="BL14" s="244"/>
+      <c r="BM14" s="244"/>
+      <c r="BN14" s="244"/>
+      <c r="BO14" s="244"/>
+      <c r="BP14" s="244"/>
+      <c r="BQ14" s="244"/>
+      <c r="BR14" s="245"/>
       <c r="BS14" s="33"/>
       <c r="BT14" s="33"/>
       <c r="BU14" s="33"/>
@@ -6599,71 +6608,71 @@
       <c r="CG14" s="33"/>
     </row>
     <row r="15" spans="6:86" ht="15.75" customHeight="1">
-      <c r="F15" s="298"/>
-      <c r="G15" s="298"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="227"/>
-      <c r="Q15" s="228"/>
-      <c r="R15" s="228"/>
-      <c r="S15" s="229"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="110"/>
-      <c r="X15" s="110"/>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="110"/>
-      <c r="AB15" s="110"/>
-      <c r="AC15" s="111"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="73"/>
-      <c r="AF15" s="125"/>
-      <c r="AG15" s="126"/>
-      <c r="AH15" s="127"/>
-      <c r="AI15" s="78"/>
-      <c r="AJ15" s="79"/>
-      <c r="AK15" s="79"/>
-      <c r="AL15" s="79"/>
-      <c r="AM15" s="119"/>
-      <c r="AN15" s="120"/>
-      <c r="AO15" s="120"/>
-      <c r="AP15" s="120"/>
-      <c r="AQ15" s="120"/>
-      <c r="AR15" s="120"/>
-      <c r="AS15" s="120"/>
-      <c r="AT15" s="120"/>
-      <c r="AU15" s="120"/>
-      <c r="AV15" s="120"/>
-      <c r="AW15" s="120"/>
-      <c r="AX15" s="120"/>
-      <c r="AY15" s="120"/>
-      <c r="AZ15" s="120"/>
-      <c r="BA15" s="120"/>
-      <c r="BB15" s="120"/>
-      <c r="BC15" s="120"/>
-      <c r="BD15" s="120"/>
-      <c r="BE15" s="120"/>
-      <c r="BF15" s="120"/>
-      <c r="BG15" s="120"/>
-      <c r="BH15" s="120"/>
-      <c r="BI15" s="120"/>
-      <c r="BJ15" s="120"/>
-      <c r="BK15" s="120"/>
-      <c r="BL15" s="120"/>
-      <c r="BM15" s="120"/>
-      <c r="BN15" s="120"/>
-      <c r="BO15" s="120"/>
-      <c r="BP15" s="120"/>
-      <c r="BQ15" s="120"/>
-      <c r="BR15" s="121"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="220"/>
+      <c r="I15" s="220"/>
+      <c r="J15" s="295"/>
+      <c r="K15" s="295"/>
+      <c r="L15" s="295"/>
+      <c r="M15" s="295"/>
+      <c r="N15" s="295"/>
+      <c r="O15" s="296"/>
+      <c r="P15" s="171"/>
+      <c r="Q15" s="172"/>
+      <c r="R15" s="172"/>
+      <c r="S15" s="173"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="149"/>
+      <c r="V15" s="168"/>
+      <c r="W15" s="161"/>
+      <c r="X15" s="161"/>
+      <c r="Y15" s="148"/>
+      <c r="Z15" s="168"/>
+      <c r="AA15" s="161"/>
+      <c r="AB15" s="161"/>
+      <c r="AC15" s="148"/>
+      <c r="AD15" s="149"/>
+      <c r="AE15" s="164"/>
+      <c r="AF15" s="252"/>
+      <c r="AG15" s="253"/>
+      <c r="AH15" s="254"/>
+      <c r="AI15" s="291"/>
+      <c r="AJ15" s="60"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="60"/>
+      <c r="AM15" s="246"/>
+      <c r="AN15" s="247"/>
+      <c r="AO15" s="247"/>
+      <c r="AP15" s="247"/>
+      <c r="AQ15" s="247"/>
+      <c r="AR15" s="247"/>
+      <c r="AS15" s="247"/>
+      <c r="AT15" s="247"/>
+      <c r="AU15" s="247"/>
+      <c r="AV15" s="247"/>
+      <c r="AW15" s="247"/>
+      <c r="AX15" s="247"/>
+      <c r="AY15" s="247"/>
+      <c r="AZ15" s="247"/>
+      <c r="BA15" s="247"/>
+      <c r="BB15" s="247"/>
+      <c r="BC15" s="247"/>
+      <c r="BD15" s="247"/>
+      <c r="BE15" s="247"/>
+      <c r="BF15" s="247"/>
+      <c r="BG15" s="247"/>
+      <c r="BH15" s="247"/>
+      <c r="BI15" s="247"/>
+      <c r="BJ15" s="247"/>
+      <c r="BK15" s="247"/>
+      <c r="BL15" s="247"/>
+      <c r="BM15" s="247"/>
+      <c r="BN15" s="247"/>
+      <c r="BO15" s="247"/>
+      <c r="BP15" s="247"/>
+      <c r="BQ15" s="247"/>
+      <c r="BR15" s="248"/>
       <c r="BS15" s="5"/>
       <c r="BT15" s="9"/>
       <c r="BU15" s="9"/>
@@ -6682,10 +6691,10 @@
       <c r="CH15" s="2"/>
     </row>
     <row r="16" spans="6:86" ht="12.75" customHeight="1">
-      <c r="F16" s="298"/>
-      <c r="G16" s="298"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="220"/>
+      <c r="I16" s="220"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -6766,190 +6775,190 @@
       <c r="CG16" s="9"/>
     </row>
     <row r="17" spans="6:88" ht="15.75" customHeight="1">
-      <c r="F17" s="298"/>
-      <c r="G17" s="298"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="220"/>
+      <c r="I17" s="220"/>
       <c r="K17" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="6:88" ht="15.75" customHeight="1">
-      <c r="F18" s="298"/>
-      <c r="G18" s="298"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="220"/>
+      <c r="I18" s="220"/>
       <c r="K18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AS18" s="138" t="s">
+      <c r="AS18" s="259" t="s">
         <v>12</v>
       </c>
-      <c r="AT18" s="138"/>
-      <c r="AU18" s="138"/>
-      <c r="AV18" s="138"/>
-      <c r="AW18" s="138"/>
-      <c r="AX18" s="138"/>
-      <c r="AY18" s="138"/>
-      <c r="AZ18" s="138"/>
-      <c r="BA18" s="138"/>
-      <c r="BB18" s="138"/>
-      <c r="BC18" s="138"/>
-      <c r="BD18" s="138"/>
-      <c r="BE18" s="138"/>
-      <c r="BF18" s="138"/>
-      <c r="BG18" s="138"/>
-      <c r="BH18" s="138"/>
-      <c r="BI18" s="138"/>
-      <c r="BJ18" s="138"/>
-      <c r="BK18" s="138"/>
-      <c r="BL18" s="138"/>
-      <c r="BM18" s="138"/>
-      <c r="BN18" s="138"/>
-      <c r="BO18" s="138"/>
-      <c r="BP18" s="138"/>
-      <c r="BQ18" s="138"/>
-      <c r="BR18" s="138"/>
-      <c r="BS18" s="138"/>
-      <c r="BT18" s="138"/>
-      <c r="BU18" s="138"/>
-      <c r="BV18" s="138"/>
-      <c r="BW18" s="138"/>
-      <c r="BX18" s="138"/>
-      <c r="BY18" s="138"/>
-      <c r="BZ18" s="138"/>
-      <c r="CA18" s="138"/>
-      <c r="CB18" s="138"/>
+      <c r="AT18" s="259"/>
+      <c r="AU18" s="259"/>
+      <c r="AV18" s="259"/>
+      <c r="AW18" s="259"/>
+      <c r="AX18" s="259"/>
+      <c r="AY18" s="259"/>
+      <c r="AZ18" s="259"/>
+      <c r="BA18" s="259"/>
+      <c r="BB18" s="259"/>
+      <c r="BC18" s="259"/>
+      <c r="BD18" s="259"/>
+      <c r="BE18" s="259"/>
+      <c r="BF18" s="259"/>
+      <c r="BG18" s="259"/>
+      <c r="BH18" s="259"/>
+      <c r="BI18" s="259"/>
+      <c r="BJ18" s="259"/>
+      <c r="BK18" s="259"/>
+      <c r="BL18" s="259"/>
+      <c r="BM18" s="259"/>
+      <c r="BN18" s="259"/>
+      <c r="BO18" s="259"/>
+      <c r="BP18" s="259"/>
+      <c r="BQ18" s="259"/>
+      <c r="BR18" s="259"/>
+      <c r="BS18" s="259"/>
+      <c r="BT18" s="259"/>
+      <c r="BU18" s="259"/>
+      <c r="BV18" s="259"/>
+      <c r="BW18" s="259"/>
+      <c r="BX18" s="259"/>
+      <c r="BY18" s="259"/>
+      <c r="BZ18" s="259"/>
+      <c r="CA18" s="259"/>
+      <c r="CB18" s="259"/>
     </row>
     <row r="19" spans="6:88" ht="15.75" customHeight="1">
-      <c r="F19" s="298"/>
-      <c r="G19" s="298"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="250" t="s">
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="220"/>
+      <c r="I19" s="220"/>
+      <c r="J19" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="251"/>
-      <c r="L19" s="251"/>
-      <c r="M19" s="251"/>
-      <c r="N19" s="251"/>
-      <c r="O19" s="251"/>
-      <c r="P19" s="251"/>
-      <c r="Q19" s="251"/>
-      <c r="R19" s="251"/>
-      <c r="S19" s="251"/>
-      <c r="T19" s="251"/>
-      <c r="U19" s="251"/>
-      <c r="V19" s="251"/>
-      <c r="W19" s="251"/>
-      <c r="X19" s="251"/>
-      <c r="Y19" s="251"/>
-      <c r="Z19" s="251"/>
-      <c r="AA19" s="251"/>
-      <c r="AB19" s="251"/>
-      <c r="AC19" s="251"/>
-      <c r="AD19" s="251"/>
-      <c r="AE19" s="251"/>
-      <c r="AF19" s="251"/>
-      <c r="AG19" s="251"/>
-      <c r="AH19" s="251"/>
-      <c r="AI19" s="251"/>
-      <c r="AJ19" s="251"/>
-      <c r="AK19" s="251"/>
-      <c r="AL19" s="251"/>
-      <c r="AM19" s="251"/>
-      <c r="AN19" s="251"/>
-      <c r="AO19" s="251"/>
-      <c r="AS19" s="138"/>
-      <c r="AT19" s="138"/>
-      <c r="AU19" s="138"/>
-      <c r="AV19" s="138"/>
-      <c r="AW19" s="138"/>
-      <c r="AX19" s="138"/>
-      <c r="AY19" s="138"/>
-      <c r="AZ19" s="138"/>
-      <c r="BA19" s="138"/>
-      <c r="BB19" s="138"/>
-      <c r="BC19" s="138"/>
-      <c r="BD19" s="138"/>
-      <c r="BE19" s="138"/>
-      <c r="BF19" s="138"/>
-      <c r="BG19" s="138"/>
-      <c r="BH19" s="138"/>
-      <c r="BI19" s="138"/>
-      <c r="BJ19" s="138"/>
-      <c r="BK19" s="138"/>
-      <c r="BL19" s="138"/>
-      <c r="BM19" s="138"/>
-      <c r="BN19" s="138"/>
-      <c r="BO19" s="138"/>
-      <c r="BP19" s="138"/>
-      <c r="BQ19" s="138"/>
-      <c r="BR19" s="138"/>
-      <c r="BS19" s="138"/>
-      <c r="BT19" s="138"/>
-      <c r="BU19" s="138"/>
-      <c r="BV19" s="138"/>
-      <c r="BW19" s="138"/>
-      <c r="BX19" s="138"/>
-      <c r="BY19" s="138"/>
-      <c r="BZ19" s="138"/>
-      <c r="CA19" s="138"/>
-      <c r="CB19" s="138"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="123"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="123"/>
+      <c r="W19" s="123"/>
+      <c r="X19" s="123"/>
+      <c r="Y19" s="123"/>
+      <c r="Z19" s="123"/>
+      <c r="AA19" s="123"/>
+      <c r="AB19" s="123"/>
+      <c r="AC19" s="123"/>
+      <c r="AD19" s="123"/>
+      <c r="AE19" s="123"/>
+      <c r="AF19" s="123"/>
+      <c r="AG19" s="123"/>
+      <c r="AH19" s="123"/>
+      <c r="AI19" s="123"/>
+      <c r="AJ19" s="123"/>
+      <c r="AK19" s="123"/>
+      <c r="AL19" s="123"/>
+      <c r="AM19" s="123"/>
+      <c r="AN19" s="123"/>
+      <c r="AO19" s="123"/>
+      <c r="AS19" s="259"/>
+      <c r="AT19" s="259"/>
+      <c r="AU19" s="259"/>
+      <c r="AV19" s="259"/>
+      <c r="AW19" s="259"/>
+      <c r="AX19" s="259"/>
+      <c r="AY19" s="259"/>
+      <c r="AZ19" s="259"/>
+      <c r="BA19" s="259"/>
+      <c r="BB19" s="259"/>
+      <c r="BC19" s="259"/>
+      <c r="BD19" s="259"/>
+      <c r="BE19" s="259"/>
+      <c r="BF19" s="259"/>
+      <c r="BG19" s="259"/>
+      <c r="BH19" s="259"/>
+      <c r="BI19" s="259"/>
+      <c r="BJ19" s="259"/>
+      <c r="BK19" s="259"/>
+      <c r="BL19" s="259"/>
+      <c r="BM19" s="259"/>
+      <c r="BN19" s="259"/>
+      <c r="BO19" s="259"/>
+      <c r="BP19" s="259"/>
+      <c r="BQ19" s="259"/>
+      <c r="BR19" s="259"/>
+      <c r="BS19" s="259"/>
+      <c r="BT19" s="259"/>
+      <c r="BU19" s="259"/>
+      <c r="BV19" s="259"/>
+      <c r="BW19" s="259"/>
+      <c r="BX19" s="259"/>
+      <c r="BY19" s="259"/>
+      <c r="BZ19" s="259"/>
+      <c r="CA19" s="259"/>
+      <c r="CB19" s="259"/>
     </row>
     <row r="20" spans="6:88" ht="15.75" customHeight="1">
-      <c r="F20" s="298"/>
-      <c r="G20" s="298"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="99" t="s">
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="220"/>
+      <c r="I20" s="220"/>
+      <c r="J20" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="100"/>
-      <c r="V20" s="100"/>
-      <c r="W20" s="100"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="100"/>
-      <c r="Z20" s="100"/>
-      <c r="AA20" s="100"/>
-      <c r="AB20" s="100"/>
-      <c r="AC20" s="100"/>
-      <c r="AD20" s="100"/>
-      <c r="AE20" s="100"/>
-      <c r="AF20" s="100"/>
-      <c r="AG20" s="101"/>
-      <c r="AH20" s="99" t="s">
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115"/>
+      <c r="R20" s="115"/>
+      <c r="S20" s="115"/>
+      <c r="T20" s="115"/>
+      <c r="U20" s="115"/>
+      <c r="V20" s="115"/>
+      <c r="W20" s="115"/>
+      <c r="X20" s="115"/>
+      <c r="Y20" s="115"/>
+      <c r="Z20" s="115"/>
+      <c r="AA20" s="115"/>
+      <c r="AB20" s="115"/>
+      <c r="AC20" s="115"/>
+      <c r="AD20" s="115"/>
+      <c r="AE20" s="115"/>
+      <c r="AF20" s="115"/>
+      <c r="AG20" s="116"/>
+      <c r="AH20" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="AI20" s="100"/>
-      <c r="AJ20" s="100"/>
-      <c r="AK20" s="100"/>
-      <c r="AL20" s="100"/>
-      <c r="AM20" s="100"/>
-      <c r="AN20" s="100"/>
-      <c r="AO20" s="100"/>
-      <c r="AP20" s="100"/>
-      <c r="AQ20" s="100"/>
-      <c r="AR20" s="100"/>
-      <c r="AS20" s="100"/>
-      <c r="AT20" s="100"/>
-      <c r="AU20" s="100"/>
-      <c r="AV20" s="100"/>
-      <c r="AW20" s="101"/>
-      <c r="AX20" s="87" t="s">
+      <c r="AI20" s="115"/>
+      <c r="AJ20" s="115"/>
+      <c r="AK20" s="115"/>
+      <c r="AL20" s="115"/>
+      <c r="AM20" s="115"/>
+      <c r="AN20" s="115"/>
+      <c r="AO20" s="115"/>
+      <c r="AP20" s="115"/>
+      <c r="AQ20" s="115"/>
+      <c r="AR20" s="115"/>
+      <c r="AS20" s="115"/>
+      <c r="AT20" s="115"/>
+      <c r="AU20" s="115"/>
+      <c r="AV20" s="115"/>
+      <c r="AW20" s="116"/>
+      <c r="AX20" s="297" t="s">
         <v>33</v>
       </c>
-      <c r="AY20" s="88"/>
+      <c r="AY20" s="298"/>
       <c r="AZ20" s="16"/>
       <c r="BA20" s="16"/>
       <c r="BB20" s="16"/>
@@ -6958,690 +6967,690 @@
       </c>
       <c r="BD20" s="19"/>
       <c r="BE20" s="19"/>
-      <c r="BF20" s="128"/>
-      <c r="BG20" s="128"/>
-      <c r="BH20" s="128"/>
-      <c r="BI20" s="128"/>
-      <c r="BJ20" s="128"/>
-      <c r="BK20" s="128"/>
-      <c r="BL20" s="102"/>
-      <c r="BM20" s="103"/>
-      <c r="BN20" s="103"/>
-      <c r="BO20" s="103"/>
-      <c r="BP20" s="103"/>
-      <c r="BQ20" s="103"/>
-      <c r="BR20" s="103"/>
-      <c r="BS20" s="103"/>
-      <c r="BT20" s="104"/>
+      <c r="BF20" s="255"/>
+      <c r="BG20" s="255"/>
+      <c r="BH20" s="255"/>
+      <c r="BI20" s="255"/>
+      <c r="BJ20" s="255"/>
+      <c r="BK20" s="255"/>
+      <c r="BL20" s="238"/>
+      <c r="BM20" s="239"/>
+      <c r="BN20" s="239"/>
+      <c r="BO20" s="239"/>
+      <c r="BP20" s="239"/>
+      <c r="BQ20" s="239"/>
+      <c r="BR20" s="239"/>
+      <c r="BS20" s="239"/>
+      <c r="BT20" s="240"/>
     </row>
     <row r="21" spans="6:88" ht="15.75" customHeight="1">
-      <c r="F21" s="298"/>
-      <c r="G21" s="298"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="169"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="236"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="74"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="172"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="56"/>
-      <c r="AF21" s="55"/>
-      <c r="AG21" s="80"/>
-      <c r="AH21" s="129" t="s">
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="220"/>
+      <c r="I21" s="220"/>
+      <c r="J21" s="221"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="157"/>
+      <c r="P21" s="181"/>
+      <c r="Q21" s="182"/>
+      <c r="R21" s="182"/>
+      <c r="S21" s="193"/>
+      <c r="T21" s="157"/>
+      <c r="U21" s="157"/>
+      <c r="V21" s="157"/>
+      <c r="W21" s="157"/>
+      <c r="X21" s="157"/>
+      <c r="Y21" s="166"/>
+      <c r="Z21" s="165"/>
+      <c r="AA21" s="157"/>
+      <c r="AB21" s="157"/>
+      <c r="AC21" s="157"/>
+      <c r="AD21" s="282"/>
+      <c r="AE21" s="69"/>
+      <c r="AF21" s="282"/>
+      <c r="AG21" s="110"/>
+      <c r="AH21" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="AI21" s="130"/>
-      <c r="AJ21" s="130"/>
-      <c r="AK21" s="131"/>
-      <c r="AL21" s="219"/>
-      <c r="AM21" s="105"/>
-      <c r="AN21" s="105"/>
-      <c r="AO21" s="106"/>
-      <c r="AP21" s="51"/>
-      <c r="AQ21" s="52"/>
-      <c r="AR21" s="105"/>
-      <c r="AS21" s="106"/>
-      <c r="AT21" s="51"/>
-      <c r="AU21" s="52"/>
-      <c r="AV21" s="52"/>
-      <c r="AW21" s="137"/>
-      <c r="AX21" s="173" t="s">
+      <c r="AI21" s="196"/>
+      <c r="AJ21" s="196"/>
+      <c r="AK21" s="197"/>
+      <c r="AL21" s="146"/>
+      <c r="AM21" s="147"/>
+      <c r="AN21" s="147"/>
+      <c r="AO21" s="167"/>
+      <c r="AP21" s="71"/>
+      <c r="AQ21" s="222"/>
+      <c r="AR21" s="147"/>
+      <c r="AS21" s="167"/>
+      <c r="AT21" s="71"/>
+      <c r="AU21" s="222"/>
+      <c r="AV21" s="222"/>
+      <c r="AW21" s="258"/>
+      <c r="AX21" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="AY21" s="174"/>
-      <c r="AZ21" s="174"/>
-      <c r="BA21" s="174"/>
-      <c r="BB21" s="175"/>
+      <c r="AY21" s="226"/>
+      <c r="AZ21" s="226"/>
+      <c r="BA21" s="226"/>
+      <c r="BB21" s="227"/>
       <c r="BC21" s="21" t="s">
         <v>19</v>
       </c>
       <c r="BD21" s="22"/>
-      <c r="BE21" s="113"/>
-      <c r="BF21" s="113"/>
-      <c r="BG21" s="113"/>
-      <c r="BH21" s="113"/>
-      <c r="BI21" s="113"/>
-      <c r="BJ21" s="113"/>
-      <c r="BK21" s="113"/>
+      <c r="BE21" s="169"/>
+      <c r="BF21" s="169"/>
+      <c r="BG21" s="169"/>
+      <c r="BH21" s="169"/>
+      <c r="BI21" s="169"/>
+      <c r="BJ21" s="169"/>
+      <c r="BK21" s="169"/>
       <c r="BL21" s="21" t="s">
         <v>20</v>
       </c>
       <c r="BM21" s="22"/>
-      <c r="BN21" s="113"/>
-      <c r="BO21" s="113"/>
-      <c r="BP21" s="113"/>
-      <c r="BQ21" s="113"/>
-      <c r="BR21" s="113"/>
-      <c r="BS21" s="113"/>
-      <c r="BT21" s="114"/>
+      <c r="BN21" s="169"/>
+      <c r="BO21" s="169"/>
+      <c r="BP21" s="169"/>
+      <c r="BQ21" s="169"/>
+      <c r="BR21" s="169"/>
+      <c r="BS21" s="169"/>
+      <c r="BT21" s="241"/>
     </row>
     <row r="22" spans="6:88" ht="15.75" customHeight="1">
-      <c r="F22" s="298"/>
-      <c r="G22" s="298"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="236"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="75"/>
-      <c r="Z22" s="172"/>
-      <c r="AA22" s="74"/>
-      <c r="AB22" s="74"/>
-      <c r="AC22" s="74"/>
-      <c r="AD22" s="57"/>
-      <c r="AE22" s="53"/>
-      <c r="AF22" s="57"/>
-      <c r="AG22" s="81"/>
-      <c r="AH22" s="132"/>
-      <c r="AI22" s="133"/>
-      <c r="AJ22" s="133"/>
-      <c r="AK22" s="134"/>
-      <c r="AL22" s="111"/>
-      <c r="AM22" s="54"/>
-      <c r="AN22" s="54"/>
-      <c r="AO22" s="107"/>
-      <c r="AP22" s="53"/>
-      <c r="AQ22" s="54"/>
-      <c r="AR22" s="54"/>
-      <c r="AS22" s="107"/>
-      <c r="AT22" s="53"/>
-      <c r="AU22" s="54"/>
-      <c r="AV22" s="54"/>
-      <c r="AW22" s="73"/>
-      <c r="AX22" s="176"/>
-      <c r="AY22" s="177"/>
-      <c r="AZ22" s="177"/>
-      <c r="BA22" s="177"/>
-      <c r="BB22" s="178"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="220"/>
+      <c r="I22" s="220"/>
+      <c r="J22" s="221"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="182"/>
+      <c r="S22" s="193"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="157"/>
+      <c r="V22" s="157"/>
+      <c r="W22" s="157"/>
+      <c r="X22" s="157"/>
+      <c r="Y22" s="166"/>
+      <c r="Z22" s="165"/>
+      <c r="AA22" s="157"/>
+      <c r="AB22" s="157"/>
+      <c r="AC22" s="157"/>
+      <c r="AD22" s="283"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="283"/>
+      <c r="AG22" s="111"/>
+      <c r="AH22" s="198"/>
+      <c r="AI22" s="199"/>
+      <c r="AJ22" s="199"/>
+      <c r="AK22" s="200"/>
+      <c r="AL22" s="148"/>
+      <c r="AM22" s="149"/>
+      <c r="AN22" s="149"/>
+      <c r="AO22" s="168"/>
+      <c r="AP22" s="73"/>
+      <c r="AQ22" s="149"/>
+      <c r="AR22" s="149"/>
+      <c r="AS22" s="168"/>
+      <c r="AT22" s="73"/>
+      <c r="AU22" s="149"/>
+      <c r="AV22" s="149"/>
+      <c r="AW22" s="164"/>
+      <c r="AX22" s="228"/>
+      <c r="AY22" s="229"/>
+      <c r="AZ22" s="229"/>
+      <c r="BA22" s="229"/>
+      <c r="BB22" s="230"/>
       <c r="BC22" s="13"/>
       <c r="BD22" s="4"/>
-      <c r="BE22" s="64"/>
-      <c r="BF22" s="64"/>
-      <c r="BG22" s="64"/>
-      <c r="BH22" s="64"/>
-      <c r="BI22" s="64"/>
-      <c r="BJ22" s="64"/>
-      <c r="BK22" s="64"/>
+      <c r="BE22" s="170"/>
+      <c r="BF22" s="170"/>
+      <c r="BG22" s="170"/>
+      <c r="BH22" s="170"/>
+      <c r="BI22" s="170"/>
+      <c r="BJ22" s="170"/>
+      <c r="BK22" s="170"/>
       <c r="BL22" s="13"/>
       <c r="BM22" s="4"/>
-      <c r="BN22" s="64"/>
-      <c r="BO22" s="64"/>
-      <c r="BP22" s="64"/>
-      <c r="BQ22" s="64"/>
-      <c r="BR22" s="64"/>
-      <c r="BS22" s="64"/>
-      <c r="BT22" s="115"/>
+      <c r="BN22" s="170"/>
+      <c r="BO22" s="170"/>
+      <c r="BP22" s="170"/>
+      <c r="BQ22" s="170"/>
+      <c r="BR22" s="170"/>
+      <c r="BS22" s="170"/>
+      <c r="BT22" s="242"/>
     </row>
     <row r="23" spans="6:88" ht="15.75" customHeight="1">
-      <c r="F23" s="298"/>
-      <c r="G23" s="298"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="289" t="s">
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="220"/>
+      <c r="I23" s="220"/>
+      <c r="J23" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="290"/>
-      <c r="L23" s="291"/>
-      <c r="M23" s="48" t="s">
+      <c r="K23" s="86"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="50"/>
-      <c r="AA23" s="48" t="s">
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="49"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="49"/>
-      <c r="AK23" s="49"/>
-      <c r="AL23" s="49"/>
-      <c r="AM23" s="49"/>
-      <c r="AN23" s="49"/>
-      <c r="AO23" s="49"/>
-      <c r="AP23" s="49"/>
-      <c r="AQ23" s="49"/>
-      <c r="AR23" s="49"/>
-      <c r="AS23" s="49"/>
-      <c r="AT23" s="49"/>
-      <c r="AU23" s="49"/>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="49"/>
-      <c r="AZ23" s="49"/>
-      <c r="BA23" s="49"/>
-      <c r="BB23" s="49"/>
-      <c r="BC23" s="49"/>
-      <c r="BD23" s="49"/>
-      <c r="BE23" s="49"/>
-      <c r="BF23" s="49"/>
-      <c r="BG23" s="49"/>
-      <c r="BH23" s="49"/>
-      <c r="BI23" s="49"/>
-      <c r="BJ23" s="49"/>
-      <c r="BK23" s="49"/>
-      <c r="BL23" s="49"/>
-      <c r="BM23" s="49"/>
-      <c r="BN23" s="49"/>
-      <c r="BO23" s="49"/>
-      <c r="BP23" s="49"/>
-      <c r="BQ23" s="49"/>
-      <c r="BR23" s="50"/>
-      <c r="BS23" s="99" t="s">
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="43"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="43"/>
+      <c r="AP23" s="43"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="43"/>
+      <c r="AS23" s="43"/>
+      <c r="AT23" s="43"/>
+      <c r="AU23" s="43"/>
+      <c r="AV23" s="43"/>
+      <c r="AW23" s="43"/>
+      <c r="AX23" s="43"/>
+      <c r="AY23" s="43"/>
+      <c r="AZ23" s="43"/>
+      <c r="BA23" s="43"/>
+      <c r="BB23" s="43"/>
+      <c r="BC23" s="43"/>
+      <c r="BD23" s="43"/>
+      <c r="BE23" s="43"/>
+      <c r="BF23" s="43"/>
+      <c r="BG23" s="43"/>
+      <c r="BH23" s="43"/>
+      <c r="BI23" s="43"/>
+      <c r="BJ23" s="43"/>
+      <c r="BK23" s="43"/>
+      <c r="BL23" s="43"/>
+      <c r="BM23" s="43"/>
+      <c r="BN23" s="43"/>
+      <c r="BO23" s="43"/>
+      <c r="BP23" s="43"/>
+      <c r="BQ23" s="43"/>
+      <c r="BR23" s="44"/>
+      <c r="BS23" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="BT23" s="100"/>
-      <c r="BU23" s="100"/>
-      <c r="BV23" s="100"/>
-      <c r="BW23" s="100"/>
-      <c r="BX23" s="100"/>
-      <c r="BY23" s="100"/>
-      <c r="BZ23" s="100"/>
-      <c r="CA23" s="100"/>
-      <c r="CB23" s="100"/>
-      <c r="CC23" s="100"/>
-      <c r="CD23" s="100"/>
-      <c r="CE23" s="100"/>
-      <c r="CF23" s="100"/>
-      <c r="CG23" s="101"/>
+      <c r="BT23" s="115"/>
+      <c r="BU23" s="115"/>
+      <c r="BV23" s="115"/>
+      <c r="BW23" s="115"/>
+      <c r="BX23" s="115"/>
+      <c r="BY23" s="115"/>
+      <c r="BZ23" s="115"/>
+      <c r="CA23" s="115"/>
+      <c r="CB23" s="115"/>
+      <c r="CC23" s="115"/>
+      <c r="CD23" s="115"/>
+      <c r="CE23" s="115"/>
+      <c r="CF23" s="115"/>
+      <c r="CG23" s="116"/>
     </row>
     <row r="24" spans="6:88" ht="15.75" customHeight="1">
-      <c r="F24" s="298"/>
-      <c r="G24" s="298"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="292"/>
-      <c r="M24" s="237"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="154"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="154"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="154"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="154"/>
-      <c r="Z24" s="80"/>
-      <c r="AA24" s="258" t="s">
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="220"/>
+      <c r="I24" s="220"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="AB24" s="259"/>
-      <c r="AC24" s="259"/>
-      <c r="AD24" s="259"/>
-      <c r="AE24" s="259"/>
-      <c r="AF24" s="259"/>
-      <c r="AG24" s="259"/>
-      <c r="AH24" s="259"/>
-      <c r="AI24" s="259"/>
-      <c r="AJ24" s="260"/>
-      <c r="AK24" s="280" t="s">
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="41"/>
+      <c r="AK24" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="AL24" s="281"/>
-      <c r="AM24" s="281"/>
-      <c r="AN24" s="281"/>
-      <c r="AO24" s="243"/>
-      <c r="AP24" s="243"/>
-      <c r="AQ24" s="243"/>
-      <c r="AR24" s="243"/>
-      <c r="AS24" s="243"/>
-      <c r="AT24" s="243"/>
-      <c r="AU24" s="243"/>
-      <c r="AV24" s="243"/>
-      <c r="AW24" s="243"/>
-      <c r="AX24" s="243"/>
-      <c r="AY24" s="243"/>
-      <c r="AZ24" s="243"/>
-      <c r="BA24" s="243"/>
-      <c r="BB24" s="243"/>
-      <c r="BC24" s="243"/>
-      <c r="BD24" s="243"/>
-      <c r="BE24" s="243"/>
-      <c r="BF24" s="243"/>
-      <c r="BG24" s="243"/>
-      <c r="BH24" s="243"/>
-      <c r="BI24" s="243"/>
-      <c r="BJ24" s="243"/>
-      <c r="BK24" s="243"/>
-      <c r="BL24" s="243"/>
-      <c r="BM24" s="243"/>
-      <c r="BN24" s="243"/>
-      <c r="BO24" s="243"/>
-      <c r="BP24" s="243"/>
-      <c r="BQ24" s="243"/>
-      <c r="BR24" s="244"/>
-      <c r="BS24" s="245" t="s">
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="63"/>
+      <c r="AN24" s="63"/>
+      <c r="AO24" s="112"/>
+      <c r="AP24" s="112"/>
+      <c r="AQ24" s="112"/>
+      <c r="AR24" s="112"/>
+      <c r="AS24" s="112"/>
+      <c r="AT24" s="112"/>
+      <c r="AU24" s="112"/>
+      <c r="AV24" s="112"/>
+      <c r="AW24" s="112"/>
+      <c r="AX24" s="112"/>
+      <c r="AY24" s="112"/>
+      <c r="AZ24" s="112"/>
+      <c r="BA24" s="112"/>
+      <c r="BB24" s="112"/>
+      <c r="BC24" s="112"/>
+      <c r="BD24" s="112"/>
+      <c r="BE24" s="112"/>
+      <c r="BF24" s="112"/>
+      <c r="BG24" s="112"/>
+      <c r="BH24" s="112"/>
+      <c r="BI24" s="112"/>
+      <c r="BJ24" s="112"/>
+      <c r="BK24" s="112"/>
+      <c r="BL24" s="112"/>
+      <c r="BM24" s="112"/>
+      <c r="BN24" s="112"/>
+      <c r="BO24" s="112"/>
+      <c r="BP24" s="112"/>
+      <c r="BQ24" s="112"/>
+      <c r="BR24" s="113"/>
+      <c r="BS24" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="BT24" s="246"/>
-      <c r="BU24" s="247"/>
-      <c r="BV24" s="238"/>
-      <c r="BW24" s="253"/>
-      <c r="BX24" s="240"/>
-      <c r="BY24" s="242"/>
-      <c r="BZ24" s="238"/>
-      <c r="CA24" s="253"/>
-      <c r="CB24" s="240"/>
-      <c r="CC24" s="242"/>
-      <c r="CD24" s="238"/>
-      <c r="CE24" s="253"/>
-      <c r="CF24" s="240"/>
-      <c r="CG24" s="242"/>
+      <c r="BT24" s="118"/>
+      <c r="BU24" s="119"/>
+      <c r="BV24" s="76"/>
+      <c r="BW24" s="77"/>
+      <c r="BX24" s="70"/>
+      <c r="BY24" s="74"/>
+      <c r="BZ24" s="76"/>
+      <c r="CA24" s="77"/>
+      <c r="CB24" s="70"/>
+      <c r="CC24" s="74"/>
+      <c r="CD24" s="76"/>
+      <c r="CE24" s="77"/>
+      <c r="CF24" s="70"/>
+      <c r="CG24" s="74"/>
     </row>
     <row r="25" spans="6:88" ht="15.75" customHeight="1">
-      <c r="F25" s="298"/>
-      <c r="G25" s="298"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="292"/>
-      <c r="M25" s="238"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="240"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="240"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="240"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="240"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="240"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="240"/>
-      <c r="Z25" s="242"/>
-      <c r="AA25" s="254"/>
-      <c r="AB25" s="255"/>
-      <c r="AC25" s="261"/>
-      <c r="AD25" s="255"/>
-      <c r="AE25" s="261"/>
-      <c r="AF25" s="255"/>
-      <c r="AG25" s="261"/>
-      <c r="AH25" s="255"/>
-      <c r="AI25" s="261"/>
-      <c r="AJ25" s="282"/>
-      <c r="AK25" s="263"/>
-      <c r="AL25" s="211"/>
-      <c r="AM25" s="211"/>
-      <c r="AN25" s="211"/>
-      <c r="AO25" s="211"/>
-      <c r="AP25" s="211"/>
-      <c r="AQ25" s="211"/>
-      <c r="AR25" s="211"/>
-      <c r="AS25" s="211"/>
-      <c r="AT25" s="211"/>
-      <c r="AU25" s="211"/>
-      <c r="AV25" s="211"/>
-      <c r="AW25" s="211"/>
-      <c r="AX25" s="211"/>
-      <c r="AY25" s="211"/>
-      <c r="AZ25" s="211"/>
-      <c r="BA25" s="211"/>
-      <c r="BB25" s="211"/>
-      <c r="BC25" s="211"/>
-      <c r="BD25" s="211"/>
-      <c r="BE25" s="211"/>
-      <c r="BF25" s="211"/>
-      <c r="BG25" s="211"/>
-      <c r="BH25" s="211"/>
-      <c r="BI25" s="211"/>
-      <c r="BJ25" s="211"/>
-      <c r="BK25" s="211"/>
-      <c r="BL25" s="211"/>
-      <c r="BM25" s="211"/>
-      <c r="BN25" s="211"/>
-      <c r="BO25" s="211"/>
-      <c r="BP25" s="211"/>
-      <c r="BQ25" s="211"/>
-      <c r="BR25" s="212"/>
-      <c r="BS25" s="245"/>
-      <c r="BT25" s="246"/>
-      <c r="BU25" s="247"/>
-      <c r="BV25" s="238"/>
-      <c r="BW25" s="253"/>
-      <c r="BX25" s="240"/>
-      <c r="BY25" s="242"/>
-      <c r="BZ25" s="238"/>
-      <c r="CA25" s="253"/>
-      <c r="CB25" s="240"/>
-      <c r="CC25" s="242"/>
-      <c r="CD25" s="238"/>
-      <c r="CE25" s="253"/>
-      <c r="CF25" s="240"/>
-      <c r="CG25" s="242"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="220"/>
+      <c r="I25" s="220"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="78"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="78"/>
+      <c r="AE25" s="64"/>
+      <c r="AF25" s="78"/>
+      <c r="AG25" s="64"/>
+      <c r="AH25" s="78"/>
+      <c r="AI25" s="64"/>
+      <c r="AJ25" s="65"/>
+      <c r="AK25" s="126"/>
+      <c r="AL25" s="127"/>
+      <c r="AM25" s="127"/>
+      <c r="AN25" s="127"/>
+      <c r="AO25" s="127"/>
+      <c r="AP25" s="127"/>
+      <c r="AQ25" s="127"/>
+      <c r="AR25" s="127"/>
+      <c r="AS25" s="127"/>
+      <c r="AT25" s="127"/>
+      <c r="AU25" s="127"/>
+      <c r="AV25" s="127"/>
+      <c r="AW25" s="127"/>
+      <c r="AX25" s="127"/>
+      <c r="AY25" s="127"/>
+      <c r="AZ25" s="127"/>
+      <c r="BA25" s="127"/>
+      <c r="BB25" s="127"/>
+      <c r="BC25" s="127"/>
+      <c r="BD25" s="127"/>
+      <c r="BE25" s="127"/>
+      <c r="BF25" s="127"/>
+      <c r="BG25" s="127"/>
+      <c r="BH25" s="127"/>
+      <c r="BI25" s="127"/>
+      <c r="BJ25" s="127"/>
+      <c r="BK25" s="127"/>
+      <c r="BL25" s="127"/>
+      <c r="BM25" s="127"/>
+      <c r="BN25" s="127"/>
+      <c r="BO25" s="127"/>
+      <c r="BP25" s="127"/>
+      <c r="BQ25" s="127"/>
+      <c r="BR25" s="128"/>
+      <c r="BS25" s="117"/>
+      <c r="BT25" s="118"/>
+      <c r="BU25" s="119"/>
+      <c r="BV25" s="76"/>
+      <c r="BW25" s="77"/>
+      <c r="BX25" s="70"/>
+      <c r="BY25" s="74"/>
+      <c r="BZ25" s="76"/>
+      <c r="CA25" s="77"/>
+      <c r="CB25" s="70"/>
+      <c r="CC25" s="74"/>
+      <c r="CD25" s="76"/>
+      <c r="CE25" s="77"/>
+      <c r="CF25" s="70"/>
+      <c r="CG25" s="74"/>
     </row>
     <row r="26" spans="6:88" ht="15.75" customHeight="1">
-      <c r="F26" s="298"/>
-      <c r="G26" s="298"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="293"/>
-      <c r="M26" s="239"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="241"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="241"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="241"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="241"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="241"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="241"/>
-      <c r="Z26" s="81"/>
-      <c r="AA26" s="256"/>
-      <c r="AB26" s="257"/>
-      <c r="AC26" s="262"/>
-      <c r="AD26" s="257"/>
-      <c r="AE26" s="262"/>
-      <c r="AF26" s="257"/>
-      <c r="AG26" s="262"/>
-      <c r="AH26" s="257"/>
-      <c r="AI26" s="262"/>
-      <c r="AJ26" s="283"/>
-      <c r="AK26" s="264"/>
-      <c r="AL26" s="265"/>
-      <c r="AM26" s="265"/>
-      <c r="AN26" s="265"/>
-      <c r="AO26" s="265"/>
-      <c r="AP26" s="265"/>
-      <c r="AQ26" s="265"/>
-      <c r="AR26" s="265"/>
-      <c r="AS26" s="265"/>
-      <c r="AT26" s="265"/>
-      <c r="AU26" s="265"/>
-      <c r="AV26" s="265"/>
-      <c r="AW26" s="265"/>
-      <c r="AX26" s="265"/>
-      <c r="AY26" s="265"/>
-      <c r="AZ26" s="265"/>
-      <c r="BA26" s="265"/>
-      <c r="BB26" s="265"/>
-      <c r="BC26" s="265"/>
-      <c r="BD26" s="265"/>
-      <c r="BE26" s="265"/>
-      <c r="BF26" s="265"/>
-      <c r="BG26" s="265"/>
-      <c r="BH26" s="265"/>
-      <c r="BI26" s="265"/>
-      <c r="BJ26" s="265"/>
-      <c r="BK26" s="265"/>
-      <c r="BL26" s="265"/>
-      <c r="BM26" s="265"/>
-      <c r="BN26" s="265"/>
-      <c r="BO26" s="265"/>
-      <c r="BP26" s="265"/>
-      <c r="BQ26" s="265"/>
-      <c r="BR26" s="266"/>
-      <c r="BS26" s="245"/>
-      <c r="BT26" s="246"/>
-      <c r="BU26" s="247"/>
-      <c r="BV26" s="238"/>
-      <c r="BW26" s="253"/>
-      <c r="BX26" s="240"/>
-      <c r="BY26" s="252"/>
-      <c r="BZ26" s="238"/>
-      <c r="CA26" s="253"/>
-      <c r="CB26" s="240"/>
-      <c r="CC26" s="252"/>
-      <c r="CD26" s="238"/>
-      <c r="CE26" s="253"/>
-      <c r="CF26" s="240"/>
-      <c r="CG26" s="252"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="220"/>
+      <c r="I26" s="220"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="125"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="79"/>
+      <c r="AE26" s="66"/>
+      <c r="AF26" s="79"/>
+      <c r="AG26" s="66"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="67"/>
+      <c r="AK26" s="129"/>
+      <c r="AL26" s="130"/>
+      <c r="AM26" s="130"/>
+      <c r="AN26" s="130"/>
+      <c r="AO26" s="130"/>
+      <c r="AP26" s="130"/>
+      <c r="AQ26" s="130"/>
+      <c r="AR26" s="130"/>
+      <c r="AS26" s="130"/>
+      <c r="AT26" s="130"/>
+      <c r="AU26" s="130"/>
+      <c r="AV26" s="130"/>
+      <c r="AW26" s="130"/>
+      <c r="AX26" s="130"/>
+      <c r="AY26" s="130"/>
+      <c r="AZ26" s="130"/>
+      <c r="BA26" s="130"/>
+      <c r="BB26" s="130"/>
+      <c r="BC26" s="130"/>
+      <c r="BD26" s="130"/>
+      <c r="BE26" s="130"/>
+      <c r="BF26" s="130"/>
+      <c r="BG26" s="130"/>
+      <c r="BH26" s="130"/>
+      <c r="BI26" s="130"/>
+      <c r="BJ26" s="130"/>
+      <c r="BK26" s="130"/>
+      <c r="BL26" s="130"/>
+      <c r="BM26" s="130"/>
+      <c r="BN26" s="130"/>
+      <c r="BO26" s="130"/>
+      <c r="BP26" s="130"/>
+      <c r="BQ26" s="130"/>
+      <c r="BR26" s="131"/>
+      <c r="BS26" s="117"/>
+      <c r="BT26" s="118"/>
+      <c r="BU26" s="119"/>
+      <c r="BV26" s="76"/>
+      <c r="BW26" s="77"/>
+      <c r="BX26" s="70"/>
+      <c r="BY26" s="75"/>
+      <c r="BZ26" s="76"/>
+      <c r="CA26" s="77"/>
+      <c r="CB26" s="70"/>
+      <c r="CC26" s="75"/>
+      <c r="CD26" s="76"/>
+      <c r="CE26" s="77"/>
+      <c r="CF26" s="70"/>
+      <c r="CG26" s="75"/>
     </row>
     <row r="27" spans="6:88" ht="15.75" customHeight="1">
-      <c r="F27" s="298"/>
-      <c r="G27" s="298"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="89" t="s">
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="220"/>
+      <c r="I27" s="220"/>
+      <c r="J27" s="299" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="90"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="45" t="s">
+      <c r="K27" s="300"/>
+      <c r="L27" s="301"/>
+      <c r="M27" s="279" t="s">
         <v>29</v>
       </c>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="294"/>
-      <c r="T27" s="217"/>
-      <c r="U27" s="217"/>
-      <c r="V27" s="217"/>
-      <c r="W27" s="217"/>
-      <c r="X27" s="217"/>
-      <c r="Y27" s="217"/>
-      <c r="Z27" s="217"/>
-      <c r="AA27" s